--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1155,81 +1155,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,9 +1168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,6 +1229,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,11 +1388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="459015808"/>
-        <c:axId val="459016352"/>
+        <c:axId val="1654616272"/>
+        <c:axId val="1654616816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459015808"/>
+        <c:axId val="1654616272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459016352"/>
+        <c:crossAx val="1654616816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459016352"/>
+        <c:axId val="1654616816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459015808"/>
+        <c:crossAx val="1654616272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1766,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C121" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,10 +1776,10 @@
     <col min="3" max="3" width="80" customWidth="1"/>
     <col min="4" max="4" width="57.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" customWidth="1"/>
     <col min="12" max="12" width="9.21875" customWidth="1"/>
@@ -1794,22 +1794,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="72"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="64" t="s">
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="103" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -1890,7 +1890,7 @@
       <c r="E4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="89" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="44">
@@ -1900,10 +1900,10 @@
         <v>4</v>
       </c>
       <c r="I4" s="45">
-        <f>SUM(J4:W4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="118">
+        <f t="shared" ref="I4:I35" si="0">SUM(J4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="94">
         <v>0</v>
       </c>
       <c r="K4" s="44"/>
@@ -1921,7 +1921,7 @@
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G5" s="4">
@@ -1939,10 +1939,10 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="63">
-        <f>SUM(J5:W5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="82">
         <v>0</v>
       </c>
       <c r="K5" s="4"/>
@@ -1960,7 +1960,7 @@
       <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G6" s="4">
@@ -1978,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="63">
-        <f>SUM(J6:W6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="82">
         <v>0</v>
       </c>
       <c r="K6" s="4"/>
@@ -1999,7 +1999,7 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="68"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="37" t="s">
         <v>103</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="4">
@@ -2017,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="63">
-        <f>SUM(J7:W7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="82">
         <v>0</v>
       </c>
       <c r="K7" s="4"/>
@@ -2038,7 +2038,7 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="69"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="50" t="s">
         <v>112</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="E8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="90" t="s">
         <v>111</v>
       </c>
       <c r="G8" s="25">
@@ -2056,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="24">
-        <f>SUM(J8:W8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="83">
         <v>0</v>
       </c>
       <c r="K8" s="25"/>
@@ -2077,7 +2077,7 @@
       <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="103" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -2087,7 +2087,7 @@
       <c r="E9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G9" s="44">
@@ -2097,10 +2097,10 @@
         <v>0.5</v>
       </c>
       <c r="I9" s="45">
-        <f>SUM(J9:W9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="81">
         <v>0</v>
       </c>
       <c r="K9" s="44"/>
@@ -2118,7 +2118,7 @@
       <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="E10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G10" s="4">
@@ -2136,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="63">
-        <f>SUM(J10:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="82">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
@@ -2157,7 +2157,7 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="68"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="58" t="s">
         <v>113</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G11" s="4">
@@ -2175,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="63">
-        <f>SUM(J11:W11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="82">
         <v>0</v>
       </c>
       <c r="K11" s="4"/>
@@ -2196,7 +2196,7 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="58" t="s">
         <v>114</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G12" s="4">
@@ -2214,10 +2214,10 @@
         <v>0.2</v>
       </c>
       <c r="I12" s="63">
-        <f>SUM(J12:W12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="82">
         <v>0</v>
       </c>
       <c r="K12" s="4"/>
@@ -2235,7 +2235,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="68"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="58" t="s">
         <v>108</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="E13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G13" s="4">
@@ -2253,10 +2253,10 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="63">
-        <f>SUM(J13:W13)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="82">
         <v>0</v>
       </c>
       <c r="K13" s="4"/>
@@ -2274,7 +2274,7 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="69"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="59" t="s">
         <v>97</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="E14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="80" t="s">
         <v>115</v>
       </c>
       <c r="G14" s="25">
@@ -2292,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="24">
-        <f>SUM(J14:W14)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="83">
         <v>0</v>
       </c>
       <c r="K14" s="25"/>
@@ -2313,7 +2313,7 @@
       <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="60" t="s">
@@ -2325,7 +2325,7 @@
       <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G15" s="44">
@@ -2335,10 +2335,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="45">
-        <f>SUM(J15:W15)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="81">
         <v>0</v>
       </c>
       <c r="K15" s="55"/>
@@ -2356,8 +2356,8 @@
       <c r="W15" s="57"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="85"/>
-      <c r="C16" s="75" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="112" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2366,7 +2366,7 @@
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="4">
@@ -2376,10 +2376,10 @@
         <v>1.2</v>
       </c>
       <c r="I16" s="63">
-        <f>SUM(J16:W16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="82">
         <v>0</v>
       </c>
       <c r="K16" s="15"/>
@@ -2397,15 +2397,15 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="85"/>
-      <c r="C17" s="76"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="4">
@@ -2415,10 +2415,10 @@
         <v>1.2</v>
       </c>
       <c r="I17" s="63">
-        <f>SUM(J17:W17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="82">
         <v>0</v>
       </c>
       <c r="K17" s="15"/>
@@ -2436,15 +2436,15 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="85"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G18" s="4">
@@ -2454,10 +2454,10 @@
         <v>1.2</v>
       </c>
       <c r="I18" s="63">
-        <f>SUM(J18:W18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="82">
         <v>0</v>
       </c>
       <c r="K18" s="15"/>
@@ -2475,15 +2475,15 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="85"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="4">
@@ -2493,10 +2493,10 @@
         <v>1.2</v>
       </c>
       <c r="I19" s="63">
-        <f>SUM(J19:W19)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="82">
         <v>0</v>
       </c>
       <c r="K19" s="15"/>
@@ -2514,15 +2514,15 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="85"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G20" s="4">
@@ -2532,10 +2532,10 @@
         <v>1.2</v>
       </c>
       <c r="I20" s="63">
-        <f>SUM(J20:W20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="82">
         <v>0</v>
       </c>
       <c r="K20" s="15"/>
@@ -2553,15 +2553,15 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="85"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G21" s="4">
@@ -2571,10 +2571,10 @@
         <v>1.2</v>
       </c>
       <c r="I21" s="63">
-        <f>SUM(J21:W21)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="82">
         <v>0</v>
       </c>
       <c r="K21" s="15"/>
@@ -2592,15 +2592,15 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="85"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G22" s="4">
@@ -2610,10 +2610,10 @@
         <v>0.3</v>
       </c>
       <c r="I22" s="63">
-        <f>SUM(J22:W22)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="82">
         <v>0</v>
       </c>
       <c r="K22" s="15"/>
@@ -2631,15 +2631,15 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="85"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="F23" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G23" s="4">
@@ -2649,10 +2649,10 @@
         <v>0.3</v>
       </c>
       <c r="I23" s="63">
-        <f>SUM(J23:W23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="82">
         <v>0</v>
       </c>
       <c r="K23" s="15"/>
@@ -2670,15 +2670,15 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="85"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="4">
@@ -2688,10 +2688,10 @@
         <v>0.3</v>
       </c>
       <c r="I24" s="63">
-        <f>SUM(J24:W24)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="82">
         <v>0</v>
       </c>
       <c r="K24" s="15"/>
@@ -2709,15 +2709,15 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="85"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G25" s="4">
@@ -2727,10 +2727,10 @@
         <v>0.3</v>
       </c>
       <c r="I25" s="6">
-        <f>SUM(J25:W25)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="82">
         <v>0</v>
       </c>
       <c r="K25" s="15"/>
@@ -2748,15 +2748,15 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="85"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G26" s="4">
@@ -2766,10 +2766,10 @@
         <v>0.3</v>
       </c>
       <c r="I26" s="6">
-        <f>SUM(J26:W26)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="82">
         <v>0</v>
       </c>
       <c r="K26" s="15"/>
@@ -2787,15 +2787,15 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="85"/>
-      <c r="C27" s="76"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="103" t="s">
+      <c r="F27" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G27" s="4">
@@ -2805,10 +2805,10 @@
         <v>0.3</v>
       </c>
       <c r="I27" s="6">
-        <f>SUM(J27:W27)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="82">
         <v>0</v>
       </c>
       <c r="K27" s="15"/>
@@ -2826,15 +2826,15 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="85"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="34" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="103" t="s">
+      <c r="F28" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G28" s="4">
@@ -2844,10 +2844,10 @@
         <v>0.3</v>
       </c>
       <c r="I28" s="6">
-        <f>SUM(J28:W28)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="82">
         <v>0</v>
       </c>
       <c r="K28" s="15"/>
@@ -2865,15 +2865,15 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="85"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G29" s="4">
@@ -2883,10 +2883,10 @@
         <v>0.3</v>
       </c>
       <c r="I29" s="6">
-        <f>SUM(J29:W29)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="82">
         <v>0</v>
       </c>
       <c r="K29" s="15"/>
@@ -2904,15 +2904,15 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="85"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F30" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G30" s="4">
@@ -2922,10 +2922,10 @@
         <v>0.3</v>
       </c>
       <c r="I30" s="6">
-        <f>SUM(J30:W30)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="82">
         <v>0</v>
       </c>
       <c r="K30" s="15"/>
@@ -2943,15 +2943,15 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="85"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="103" t="s">
+      <c r="F31" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G31" s="4">
@@ -2961,10 +2961,10 @@
         <v>0.3</v>
       </c>
       <c r="I31" s="6">
-        <f>SUM(J31:W31)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="82">
         <v>0</v>
       </c>
       <c r="K31" s="15"/>
@@ -2982,15 +2982,15 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="85"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="103" t="s">
+      <c r="F32" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G32" s="4">
@@ -3000,10 +3000,10 @@
         <v>0.3</v>
       </c>
       <c r="I32" s="6">
-        <f>SUM(J32:W32)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="82">
         <v>0</v>
       </c>
       <c r="K32" s="15"/>
@@ -3021,15 +3021,15 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="85"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="4">
@@ -3039,10 +3039,10 @@
         <v>0.3</v>
       </c>
       <c r="I33" s="6">
-        <f>SUM(J33:W33)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="82">
         <v>0</v>
       </c>
       <c r="K33" s="15"/>
@@ -3060,15 +3060,15 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="85"/>
-      <c r="C34" s="76"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="34" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G34" s="4">
@@ -3078,10 +3078,10 @@
         <v>0.3</v>
       </c>
       <c r="I34" s="6">
-        <f>SUM(J34:W34)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="82">
         <v>0</v>
       </c>
       <c r="K34" s="15"/>
@@ -3099,15 +3099,15 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="85"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="103" t="s">
+      <c r="F35" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G35" s="4">
@@ -3117,10 +3117,10 @@
         <v>0.3</v>
       </c>
       <c r="I35" s="6">
-        <f>SUM(J35:W35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="82">
         <v>0</v>
       </c>
       <c r="K35" s="15"/>
@@ -3138,15 +3138,15 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="85"/>
-      <c r="C36" s="76"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="103" t="s">
+      <c r="F36" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G36" s="4">
@@ -3156,10 +3156,10 @@
         <v>0.3</v>
       </c>
       <c r="I36" s="6">
-        <f>SUM(J36:W36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="106">
+        <f t="shared" ref="I36:I67" si="1">SUM(J36:W36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="82">
         <v>0</v>
       </c>
       <c r="K36" s="15"/>
@@ -3177,15 +3177,15 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="85"/>
-      <c r="C37" s="76"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="34" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="103" t="s">
+      <c r="F37" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G37" s="4">
@@ -3195,10 +3195,10 @@
         <v>0.3</v>
       </c>
       <c r="I37" s="6">
-        <f>SUM(J37:W37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="82">
         <v>0</v>
       </c>
       <c r="K37" s="15"/>
@@ -3216,15 +3216,15 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="85"/>
-      <c r="C38" s="76"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="103" t="s">
+      <c r="F38" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G38" s="4">
@@ -3234,10 +3234,10 @@
         <v>0.3</v>
       </c>
       <c r="I38" s="6">
-        <f>SUM(J38:W38)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="82">
         <v>0</v>
       </c>
       <c r="K38" s="15"/>
@@ -3255,15 +3255,15 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="85"/>
-      <c r="C39" s="76"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="103" t="s">
+      <c r="F39" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G39" s="4">
@@ -3273,10 +3273,10 @@
         <v>0.3</v>
       </c>
       <c r="I39" s="6">
-        <f>SUM(J39:W39)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="82">
         <v>0</v>
       </c>
       <c r="K39" s="15"/>
@@ -3294,15 +3294,15 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="85"/>
-      <c r="C40" s="76"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G40" s="4">
@@ -3312,10 +3312,10 @@
         <v>0.3</v>
       </c>
       <c r="I40" s="6">
-        <f>SUM(J40:W40)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="82">
         <v>0</v>
       </c>
       <c r="K40" s="15"/>
@@ -3333,15 +3333,15 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="85"/>
-      <c r="C41" s="76"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="103" t="s">
+      <c r="F41" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G41" s="4">
@@ -3351,10 +3351,10 @@
         <v>0.3</v>
       </c>
       <c r="I41" s="6">
-        <f>SUM(J41:W41)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="82">
         <v>0</v>
       </c>
       <c r="K41" s="15"/>
@@ -3372,15 +3372,15 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="85"/>
-      <c r="C42" s="76"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="34" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G42" s="4">
@@ -3390,10 +3390,10 @@
         <v>0.3</v>
       </c>
       <c r="I42" s="6">
-        <f>SUM(J42:W42)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="82">
         <v>0</v>
       </c>
       <c r="K42" s="15"/>
@@ -3411,15 +3411,15 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="85"/>
-      <c r="C43" s="76"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G43" s="4">
@@ -3429,10 +3429,10 @@
         <v>0.3</v>
       </c>
       <c r="I43" s="6">
-        <f>SUM(J43:W43)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="82">
         <v>0</v>
       </c>
       <c r="K43" s="15"/>
@@ -3450,15 +3450,15 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="85"/>
-      <c r="C44" s="76"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="34" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G44" s="4">
@@ -3468,10 +3468,10 @@
         <v>0.3</v>
       </c>
       <c r="I44" s="6">
-        <f>SUM(J44:W44)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="82">
         <v>0</v>
       </c>
       <c r="K44" s="15"/>
@@ -3489,15 +3489,15 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="85"/>
-      <c r="C45" s="76"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G45" s="4">
@@ -3507,10 +3507,10 @@
         <v>0.3</v>
       </c>
       <c r="I45" s="6">
-        <f>SUM(J45:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="82">
         <v>0</v>
       </c>
       <c r="K45" s="15"/>
@@ -3528,15 +3528,15 @@
       <c r="W45" s="20"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="85"/>
-      <c r="C46" s="76"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="103" t="s">
+      <c r="F46" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G46" s="4">
@@ -3546,10 +3546,10 @@
         <v>0.3</v>
       </c>
       <c r="I46" s="6">
-        <f>SUM(J46:W46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="82">
         <v>0</v>
       </c>
       <c r="K46" s="15"/>
@@ -3567,15 +3567,15 @@
       <c r="W46" s="20"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="85"/>
-      <c r="C47" s="76"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="103" t="s">
+      <c r="F47" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G47" s="4">
@@ -3585,10 +3585,10 @@
         <v>0.3</v>
       </c>
       <c r="I47" s="6">
-        <f>SUM(J47:W47)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="82">
         <v>0</v>
       </c>
       <c r="K47" s="15"/>
@@ -3606,15 +3606,15 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="85"/>
-      <c r="C48" s="76"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="103" t="s">
+      <c r="F48" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G48" s="4">
@@ -3624,10 +3624,10 @@
         <v>0.3</v>
       </c>
       <c r="I48" s="6">
-        <f>SUM(J48:W48)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="82">
         <v>0</v>
       </c>
       <c r="K48" s="15"/>
@@ -3645,15 +3645,15 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="85"/>
-      <c r="C49" s="76"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="103" t="s">
+      <c r="F49" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G49" s="4">
@@ -3663,10 +3663,10 @@
         <v>0.3</v>
       </c>
       <c r="I49" s="6">
-        <f>SUM(J49:W49)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="82">
         <v>0</v>
       </c>
       <c r="K49" s="15"/>
@@ -3684,15 +3684,15 @@
       <c r="W49" s="20"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="85"/>
-      <c r="C50" s="76"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="103" t="s">
+      <c r="F50" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G50" s="4">
@@ -3702,10 +3702,10 @@
         <v>0.3</v>
       </c>
       <c r="I50" s="6">
-        <f>SUM(J50:W50)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="82">
         <v>0</v>
       </c>
       <c r="K50" s="15"/>
@@ -3723,15 +3723,15 @@
       <c r="W50" s="20"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="85"/>
-      <c r="C51" s="76"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="34" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="103" t="s">
+      <c r="F51" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G51" s="4">
@@ -3741,10 +3741,10 @@
         <v>0.3</v>
       </c>
       <c r="I51" s="6">
-        <f>SUM(J51:W51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="82">
         <v>0</v>
       </c>
       <c r="K51" s="15"/>
@@ -3762,15 +3762,15 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="85"/>
-      <c r="C52" s="76"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="34" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="103" t="s">
+      <c r="F52" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G52" s="4">
@@ -3780,10 +3780,10 @@
         <v>0.3</v>
       </c>
       <c r="I52" s="6">
-        <f>SUM(J52:W52)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="82">
         <v>0</v>
       </c>
       <c r="K52" s="15"/>
@@ -3801,15 +3801,15 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="85"/>
-      <c r="C53" s="76"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="34" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="103" t="s">
+      <c r="F53" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G53" s="4">
@@ -3819,10 +3819,10 @@
         <v>0.3</v>
       </c>
       <c r="I53" s="6">
-        <f>SUM(J53:W53)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="82">
         <v>0</v>
       </c>
       <c r="K53" s="15"/>
@@ -3840,15 +3840,15 @@
       <c r="W53" s="20"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="85"/>
-      <c r="C54" s="76"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="103" t="s">
+      <c r="F54" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G54" s="4">
@@ -3858,10 +3858,10 @@
         <v>0.3</v>
       </c>
       <c r="I54" s="6">
-        <f>SUM(J54:W54)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="82">
         <v>0</v>
       </c>
       <c r="K54" s="15"/>
@@ -3879,15 +3879,15 @@
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="85"/>
-      <c r="C55" s="77"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="103" t="s">
+      <c r="F55" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G55" s="4">
@@ -3897,10 +3897,10 @@
         <v>0.3</v>
       </c>
       <c r="I55" s="6">
-        <f>SUM(J55:W55)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="82">
         <v>0</v>
       </c>
       <c r="K55" s="15"/>
@@ -3918,8 +3918,8 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="85"/>
-      <c r="C56" s="73" t="s">
+      <c r="B56" s="101"/>
+      <c r="C56" s="110" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="31" t="s">
@@ -3928,7 +3928,7 @@
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="F56" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G56" s="4">
@@ -3938,10 +3938,10 @@
         <v>1.2</v>
       </c>
       <c r="I56" s="6">
-        <f>SUM(J56:W56)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="82">
         <v>0</v>
       </c>
       <c r="K56" s="15"/>
@@ -3959,15 +3959,15 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="85"/>
-      <c r="C57" s="74"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="103" t="s">
+      <c r="F57" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G57" s="4">
@@ -3977,10 +3977,10 @@
         <v>1.2</v>
       </c>
       <c r="I57" s="6">
-        <f>SUM(J57:W57)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="82">
         <v>0</v>
       </c>
       <c r="K57" s="15"/>
@@ -3998,15 +3998,15 @@
       <c r="W57" s="20"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="85"/>
-      <c r="C58" s="74"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="103" t="s">
+      <c r="F58" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G58" s="4">
@@ -4016,10 +4016,10 @@
         <v>1.2</v>
       </c>
       <c r="I58" s="6">
-        <f>SUM(J58:W58)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="82">
         <v>0</v>
       </c>
       <c r="K58" s="15"/>
@@ -4037,15 +4037,15 @@
       <c r="W58" s="20"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="85"/>
-      <c r="C59" s="74"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="103" t="s">
+      <c r="F59" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G59" s="4">
@@ -4055,10 +4055,10 @@
         <v>1.2</v>
       </c>
       <c r="I59" s="6">
-        <f>SUM(J59:W59)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="82">
         <v>0</v>
       </c>
       <c r="K59" s="15"/>
@@ -4076,15 +4076,15 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="85"/>
-      <c r="C60" s="74"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="103" t="s">
+      <c r="F60" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G60" s="4">
@@ -4094,10 +4094,10 @@
         <v>1.2</v>
       </c>
       <c r="I60" s="6">
-        <f>SUM(J60:W60)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="82">
         <v>0</v>
       </c>
       <c r="K60" s="4"/>
@@ -4115,15 +4115,15 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="85"/>
-      <c r="C61" s="74"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="103" t="s">
+      <c r="F61" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G61" s="4">
@@ -4133,10 +4133,10 @@
         <v>1.2</v>
       </c>
       <c r="I61" s="6">
-        <f>SUM(J61:W61)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="82">
         <v>0</v>
       </c>
       <c r="K61" s="4"/>
@@ -4154,15 +4154,15 @@
       <c r="W61" s="20"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="97"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="98" t="s">
+      <c r="B62" s="102"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="74" t="s">
         <v>33</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="115" t="s">
+      <c r="F62" s="91" t="s">
         <v>115</v>
       </c>
       <c r="G62" s="8">
@@ -4171,11 +4171,11 @@
       <c r="H62" s="8">
         <v>1.2</v>
       </c>
-      <c r="I62" s="87">
-        <f>SUM(J62:W62)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="109">
+      <c r="I62" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="85">
         <v>0</v>
       </c>
       <c r="K62" s="8"/>
@@ -4193,10 +4193,10 @@
       <c r="W62" s="29"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="115" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -4205,7 +4205,7 @@
       <c r="E63" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="113" t="s">
+      <c r="F63" s="89" t="s">
         <v>111</v>
       </c>
       <c r="G63" s="44">
@@ -4215,10 +4215,10 @@
         <v>0.1</v>
       </c>
       <c r="I63" s="45">
-        <f>SUM(J63:W63)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="81">
         <v>0</v>
       </c>
       <c r="K63" s="44"/>
@@ -4236,15 +4236,15 @@
       <c r="W63" s="57"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="68"/>
-      <c r="C64" s="76"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="113"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="111" t="s">
+      <c r="F64" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G64" s="4">
@@ -4254,10 +4254,10 @@
         <v>2</v>
       </c>
       <c r="I64" s="6">
-        <f>SUM(J64:W64)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="82">
         <v>0</v>
       </c>
       <c r="K64" s="4"/>
@@ -4275,15 +4275,15 @@
       <c r="W64" s="20"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="68"/>
-      <c r="C65" s="76"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="111" t="s">
+      <c r="F65" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G65" s="4">
@@ -4293,10 +4293,10 @@
         <v>0.2</v>
       </c>
       <c r="I65" s="6">
-        <f>SUM(J65:W65)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="82">
         <v>0</v>
       </c>
       <c r="K65" s="4"/>
@@ -4314,15 +4314,15 @@
       <c r="W65" s="20"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="68"/>
-      <c r="C66" s="77"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="31" t="s">
         <v>76</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="111" t="s">
+      <c r="F66" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G66" s="4">
@@ -4332,10 +4332,10 @@
         <v>0.5</v>
       </c>
       <c r="I66" s="6">
-        <f>SUM(J66:W66)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="82">
         <v>0</v>
       </c>
       <c r="K66" s="4"/>
@@ -4353,7 +4353,7 @@
       <c r="W66" s="20"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="68"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="35" t="s">
         <v>73</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="111" t="s">
+      <c r="F67" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G67" s="4">
@@ -4371,10 +4371,10 @@
         <v>2</v>
       </c>
       <c r="I67" s="6">
-        <f>SUM(J67:W67)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="82">
         <v>0</v>
       </c>
       <c r="K67" s="4"/>
@@ -4392,7 +4392,7 @@
       <c r="W67" s="20"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="68"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="61" t="s">
         <v>81</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="111" t="s">
+      <c r="F68" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G68" s="4">
@@ -4410,10 +4410,10 @@
         <v>0.5</v>
       </c>
       <c r="I68" s="6">
-        <f>SUM(J68:W68)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="106">
+        <f t="shared" ref="I68:I99" si="2">SUM(J68:W68)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="82">
         <v>0</v>
       </c>
       <c r="K68" s="4"/>
@@ -4431,8 +4431,8 @@
       <c r="W68" s="20"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="68"/>
-      <c r="C69" s="75" t="s">
+      <c r="B69" s="104"/>
+      <c r="C69" s="112" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4441,7 +4441,7 @@
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="111" t="s">
+      <c r="F69" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="4">
@@ -4451,10 +4451,10 @@
         <v>0.3</v>
       </c>
       <c r="I69" s="6">
-        <f>SUM(J69:W69)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="82">
         <v>0</v>
       </c>
       <c r="K69" s="4"/>
@@ -4472,15 +4472,15 @@
       <c r="W69" s="20"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="68"/>
-      <c r="C70" s="76"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="113"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G70" s="4">
@@ -4490,10 +4490,10 @@
         <v>2</v>
       </c>
       <c r="I70" s="6">
-        <f>SUM(J70:W70)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="82">
         <v>0</v>
       </c>
       <c r="K70" s="4"/>
@@ -4511,15 +4511,15 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="68"/>
-      <c r="C71" s="76"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="113"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="111" t="s">
+      <c r="F71" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G71" s="4">
@@ -4529,10 +4529,10 @@
         <v>1</v>
       </c>
       <c r="I71" s="6">
-        <f>SUM(J71:W71)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="82">
         <v>0</v>
       </c>
       <c r="K71" s="4"/>
@@ -4550,15 +4550,15 @@
       <c r="W71" s="20"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="69"/>
-      <c r="C72" s="79"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="116"/>
       <c r="D72" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="114" t="s">
+      <c r="F72" s="90" t="s">
         <v>111</v>
       </c>
       <c r="G72" s="25">
@@ -4568,10 +4568,10 @@
         <v>0.3</v>
       </c>
       <c r="I72" s="21">
-        <f>SUM(J72:W72)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="83">
         <v>0</v>
       </c>
       <c r="K72" s="25"/>
@@ -4589,10 +4589,10 @@
       <c r="W72" s="26"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="92" t="s">
+      <c r="C73" s="118" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -4601,7 +4601,7 @@
       <c r="E73" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="99" t="s">
+      <c r="F73" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G73" s="44">
@@ -4611,10 +4611,10 @@
         <v>1</v>
       </c>
       <c r="I73" s="45">
-        <f>SUM(J73:W73)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="81">
         <v>0</v>
       </c>
       <c r="K73" s="44"/>
@@ -4632,15 +4632,15 @@
       <c r="W73" s="57"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="85"/>
-      <c r="C74" s="91"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="106"/>
       <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="100" t="s">
+      <c r="F74" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G74" s="4">
@@ -4650,10 +4650,10 @@
         <v>1.5</v>
       </c>
       <c r="I74" s="6">
-        <f>SUM(J74:W74)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="82">
         <v>0</v>
       </c>
       <c r="K74" s="4"/>
@@ -4671,15 +4671,15 @@
       <c r="W74" s="20"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="85"/>
-      <c r="C75" s="91"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="106"/>
       <c r="D75" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="100" t="s">
+      <c r="F75" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G75" s="4">
@@ -4689,10 +4689,10 @@
         <v>0.25</v>
       </c>
       <c r="I75" s="6">
-        <f>SUM(J75:W75)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="82">
         <v>0</v>
       </c>
       <c r="K75" s="4"/>
@@ -4710,15 +4710,15 @@
       <c r="W75" s="20"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="85"/>
-      <c r="C76" s="91"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="106"/>
       <c r="D76" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="100" t="s">
+      <c r="F76" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G76" s="4">
@@ -4728,10 +4728,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="6">
-        <f>SUM(J76:W76)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="82">
         <v>0</v>
       </c>
       <c r="K76" s="4"/>
@@ -4749,8 +4749,8 @@
       <c r="W76" s="20"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="85"/>
-      <c r="C77" s="91" t="s">
+      <c r="B77" s="101"/>
+      <c r="C77" s="106" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4759,7 +4759,7 @@
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="100" t="s">
+      <c r="F77" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G77" s="4">
@@ -4769,10 +4769,10 @@
         <v>0.25</v>
       </c>
       <c r="I77" s="6">
-        <f>SUM(J77:W77)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="82">
         <v>0</v>
       </c>
       <c r="K77" s="4"/>
@@ -4790,15 +4790,15 @@
       <c r="W77" s="20"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="85"/>
-      <c r="C78" s="91"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="106"/>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="100" t="s">
+      <c r="F78" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G78" s="4">
@@ -4808,10 +4808,10 @@
         <v>0.5</v>
       </c>
       <c r="I78" s="6">
-        <f>SUM(J78:W78)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="82">
         <v>0</v>
       </c>
       <c r="K78" s="4"/>
@@ -4829,15 +4829,15 @@
       <c r="W78" s="20"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85"/>
-      <c r="C79" s="91"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="106"/>
       <c r="D79" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="100" t="s">
+      <c r="F79" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G79" s="4">
@@ -4847,10 +4847,10 @@
         <v>0.1</v>
       </c>
       <c r="I79" s="6">
-        <f>SUM(J79:W79)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="82">
         <v>0</v>
       </c>
       <c r="K79" s="4"/>
@@ -4868,15 +4868,15 @@
       <c r="W79" s="20"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="85"/>
-      <c r="C80" s="91"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="106"/>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="100" t="s">
+      <c r="F80" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G80" s="4">
@@ -4886,10 +4886,10 @@
         <v>0.25</v>
       </c>
       <c r="I80" s="6">
-        <f>SUM(J80:W80)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="82">
         <v>0</v>
       </c>
       <c r="K80" s="4"/>
@@ -4907,8 +4907,8 @@
       <c r="W80" s="20"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="85"/>
-      <c r="C81" s="91" t="s">
+      <c r="B81" s="101"/>
+      <c r="C81" s="106" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -4917,7 +4917,7 @@
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="100" t="s">
+      <c r="F81" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G81" s="4">
@@ -4927,10 +4927,10 @@
         <v>0.25</v>
       </c>
       <c r="I81" s="6">
-        <f>SUM(J81:W81)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="82">
         <v>0</v>
       </c>
       <c r="K81" s="4"/>
@@ -4948,15 +4948,15 @@
       <c r="W81" s="20"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="85"/>
-      <c r="C82" s="91"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="106"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="100" t="s">
+      <c r="F82" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G82" s="4">
@@ -4966,10 +4966,10 @@
         <v>0.5</v>
       </c>
       <c r="I82" s="6">
-        <f>SUM(J82:W82)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="82">
         <v>0</v>
       </c>
       <c r="K82" s="4"/>
@@ -4987,15 +4987,15 @@
       <c r="W82" s="20"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="85"/>
-      <c r="C83" s="91"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="106"/>
       <c r="D83" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="100" t="s">
+      <c r="F83" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G83" s="4">
@@ -5005,10 +5005,10 @@
         <v>0.1</v>
       </c>
       <c r="I83" s="6">
-        <f>SUM(J83:W83)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="82">
         <v>0</v>
       </c>
       <c r="K83" s="4"/>
@@ -5026,15 +5026,15 @@
       <c r="W83" s="20"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="85"/>
-      <c r="C84" s="91"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="106"/>
       <c r="D84" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="100" t="s">
+      <c r="F84" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G84" s="4">
@@ -5044,10 +5044,10 @@
         <v>0.25</v>
       </c>
       <c r="I84" s="6">
-        <f>SUM(J84:W84)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="82">
         <v>0</v>
       </c>
       <c r="K84" s="4"/>
@@ -5065,8 +5065,8 @@
       <c r="W84" s="20"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="85"/>
-      <c r="C85" s="91" t="s">
+      <c r="B85" s="101"/>
+      <c r="C85" s="106" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -5075,7 +5075,7 @@
       <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="100" t="s">
+      <c r="F85" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G85" s="4">
@@ -5085,10 +5085,10 @@
         <v>0.25</v>
       </c>
       <c r="I85" s="6">
-        <f>SUM(J85:W85)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="82">
         <v>0</v>
       </c>
       <c r="K85" s="4"/>
@@ -5106,15 +5106,15 @@
       <c r="W85" s="20"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="85"/>
-      <c r="C86" s="91"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="106"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F86" s="100" t="s">
+      <c r="F86" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G86" s="4">
@@ -5124,10 +5124,10 @@
         <v>0.5</v>
       </c>
       <c r="I86" s="6">
-        <f>SUM(J86:W86)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="82">
         <v>0</v>
       </c>
       <c r="K86" s="4"/>
@@ -5145,15 +5145,15 @@
       <c r="W86" s="20"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="85"/>
-      <c r="C87" s="91"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="106"/>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="100" t="s">
+      <c r="F87" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G87" s="4">
@@ -5163,10 +5163,10 @@
         <v>0.1</v>
       </c>
       <c r="I87" s="6">
-        <f>SUM(J87:W87)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="82">
         <v>0</v>
       </c>
       <c r="K87" s="4"/>
@@ -5184,15 +5184,15 @@
       <c r="W87" s="20"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="85"/>
-      <c r="C88" s="91"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="106"/>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="100" t="s">
+      <c r="F88" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G88" s="4">
@@ -5202,10 +5202,10 @@
         <v>0.25</v>
       </c>
       <c r="I88" s="6">
-        <f>SUM(J88:W88)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="82">
         <v>0</v>
       </c>
       <c r="K88" s="4"/>
@@ -5223,8 +5223,8 @@
       <c r="W88" s="20"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="85"/>
-      <c r="C89" s="91" t="s">
+      <c r="B89" s="101"/>
+      <c r="C89" s="106" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -5233,7 +5233,7 @@
       <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="100" t="s">
+      <c r="F89" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G89" s="4">
@@ -5243,10 +5243,10 @@
         <v>0.25</v>
       </c>
       <c r="I89" s="6">
-        <f>SUM(J89:W89)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="82">
         <v>0</v>
       </c>
       <c r="K89" s="4"/>
@@ -5264,15 +5264,15 @@
       <c r="W89" s="20"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="85"/>
-      <c r="C90" s="91"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="106"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="100" t="s">
+      <c r="F90" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G90" s="4">
@@ -5282,10 +5282,10 @@
         <v>0.5</v>
       </c>
       <c r="I90" s="6">
-        <f>SUM(J90:W90)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="82">
         <v>0</v>
       </c>
       <c r="K90" s="4"/>
@@ -5303,15 +5303,15 @@
       <c r="W90" s="20"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="85"/>
-      <c r="C91" s="91"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="106"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="100" t="s">
+      <c r="F91" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G91" s="4">
@@ -5321,10 +5321,10 @@
         <v>0.1</v>
       </c>
       <c r="I91" s="6">
-        <f>SUM(J91:W91)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="82">
         <v>0</v>
       </c>
       <c r="K91" s="4"/>
@@ -5342,15 +5342,15 @@
       <c r="W91" s="20"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="85"/>
-      <c r="C92" s="91"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="106"/>
       <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="100" t="s">
+      <c r="F92" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G92" s="4">
@@ -5360,10 +5360,10 @@
         <v>0.25</v>
       </c>
       <c r="I92" s="6">
-        <f>SUM(J92:W92)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="82">
         <v>0</v>
       </c>
       <c r="K92" s="4"/>
@@ -5381,8 +5381,8 @@
       <c r="W92" s="20"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="85"/>
-      <c r="C93" s="91" t="s">
+      <c r="B93" s="101"/>
+      <c r="C93" s="106" t="s">
         <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5391,7 +5391,7 @@
       <c r="E93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="100" t="s">
+      <c r="F93" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G93" s="4">
@@ -5401,10 +5401,10 @@
         <v>0.25</v>
       </c>
       <c r="I93" s="6">
-        <f>SUM(J93:W93)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="82">
         <v>0</v>
       </c>
       <c r="K93" s="4"/>
@@ -5422,15 +5422,15 @@
       <c r="W93" s="20"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="85"/>
-      <c r="C94" s="91"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="106"/>
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="100" t="s">
+      <c r="F94" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G94" s="4">
@@ -5440,10 +5440,10 @@
         <v>0.5</v>
       </c>
       <c r="I94" s="6">
-        <f>SUM(J94:W94)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="82">
         <v>0</v>
       </c>
       <c r="K94" s="4"/>
@@ -5461,15 +5461,15 @@
       <c r="W94" s="20"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="85"/>
-      <c r="C95" s="91"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="106"/>
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="100" t="s">
+      <c r="F95" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G95" s="4">
@@ -5479,10 +5479,10 @@
         <v>0.1</v>
       </c>
       <c r="I95" s="6">
-        <f>SUM(J95:W95)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="82">
         <v>0</v>
       </c>
       <c r="K95" s="4"/>
@@ -5500,15 +5500,15 @@
       <c r="W95" s="20"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="85"/>
-      <c r="C96" s="91"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="106"/>
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="100" t="s">
+      <c r="F96" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G96" s="4">
@@ -5518,10 +5518,10 @@
         <v>0.25</v>
       </c>
       <c r="I96" s="6">
-        <f>SUM(J96:W96)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="82">
         <v>0</v>
       </c>
       <c r="K96" s="4"/>
@@ -5539,8 +5539,8 @@
       <c r="W96" s="20"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="85"/>
-      <c r="C97" s="91" t="s">
+      <c r="B97" s="101"/>
+      <c r="C97" s="106" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5549,7 +5549,7 @@
       <c r="E97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="100" t="s">
+      <c r="F97" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G97" s="4">
@@ -5559,10 +5559,10 @@
         <v>0.25</v>
       </c>
       <c r="I97" s="6">
-        <f>SUM(J97:W97)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="82">
         <v>0</v>
       </c>
       <c r="K97" s="4"/>
@@ -5580,15 +5580,15 @@
       <c r="W97" s="20"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="85"/>
-      <c r="C98" s="91"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="106"/>
       <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F98" s="100" t="s">
+      <c r="F98" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G98" s="4">
@@ -5598,10 +5598,10 @@
         <v>0.5</v>
       </c>
       <c r="I98" s="6">
-        <f>SUM(J98:W98)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="82">
         <v>0</v>
       </c>
       <c r="K98" s="4"/>
@@ -5619,15 +5619,15 @@
       <c r="W98" s="20"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="85"/>
-      <c r="C99" s="91"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="106"/>
       <c r="D99" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="100" t="s">
+      <c r="F99" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G99" s="4">
@@ -5637,10 +5637,10 @@
         <v>0.1</v>
       </c>
       <c r="I99" s="6">
-        <f>SUM(J99:W99)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="82">
         <v>0</v>
       </c>
       <c r="K99" s="4"/>
@@ -5658,15 +5658,15 @@
       <c r="W99" s="20"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="85"/>
-      <c r="C100" s="91"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="106"/>
       <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="100" t="s">
+      <c r="F100" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G100" s="4">
@@ -5676,10 +5676,10 @@
         <v>0.25</v>
       </c>
       <c r="I100" s="6">
-        <f>SUM(J100:W100)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="106">
+        <f t="shared" ref="I100:I131" si="3">SUM(J100:W100)</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="82">
         <v>0</v>
       </c>
       <c r="K100" s="4"/>
@@ -5697,8 +5697,8 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="85"/>
-      <c r="C101" s="91" t="s">
+      <c r="B101" s="101"/>
+      <c r="C101" s="106" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5707,7 +5707,7 @@
       <c r="E101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="100" t="s">
+      <c r="F101" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G101" s="4">
@@ -5717,10 +5717,10 @@
         <v>0.25</v>
       </c>
       <c r="I101" s="6">
-        <f>SUM(J101:W101)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="82">
         <v>0</v>
       </c>
       <c r="K101" s="4"/>
@@ -5738,15 +5738,15 @@
       <c r="W101" s="20"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="85"/>
-      <c r="C102" s="91"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="106"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="100" t="s">
+      <c r="F102" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G102" s="4">
@@ -5756,10 +5756,10 @@
         <v>0.5</v>
       </c>
       <c r="I102" s="6">
-        <f>SUM(J102:W102)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="82">
         <v>0</v>
       </c>
       <c r="K102" s="4"/>
@@ -5777,15 +5777,15 @@
       <c r="W102" s="20"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="85"/>
-      <c r="C103" s="91"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="106"/>
       <c r="D103" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="100" t="s">
+      <c r="F103" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G103" s="4">
@@ -5795,10 +5795,10 @@
         <v>0.1</v>
       </c>
       <c r="I103" s="6">
-        <f>SUM(J103:W103)</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="82">
         <v>0</v>
       </c>
       <c r="K103" s="4"/>
@@ -5816,15 +5816,15 @@
       <c r="W103" s="20"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="85"/>
-      <c r="C104" s="91"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="106"/>
       <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F104" s="100" t="s">
+      <c r="F104" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G104" s="4">
@@ -5834,10 +5834,10 @@
         <v>0.25</v>
       </c>
       <c r="I104" s="6">
-        <f>SUM(J104:W104)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="82">
         <v>0</v>
       </c>
       <c r="K104" s="4"/>
@@ -5855,8 +5855,8 @@
       <c r="W104" s="20"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="85"/>
-      <c r="C105" s="91" t="s">
+      <c r="B105" s="101"/>
+      <c r="C105" s="106" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5865,7 +5865,7 @@
       <c r="E105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="100" t="s">
+      <c r="F105" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G105" s="4">
@@ -5875,10 +5875,10 @@
         <v>0.25</v>
       </c>
       <c r="I105" s="6">
-        <f>SUM(J105:W105)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="82">
         <v>0</v>
       </c>
       <c r="K105" s="4"/>
@@ -5896,15 +5896,15 @@
       <c r="W105" s="20"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="85"/>
-      <c r="C106" s="91"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="106"/>
       <c r="D106" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="100" t="s">
+      <c r="F106" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G106" s="4">
@@ -5914,10 +5914,10 @@
         <v>0.5</v>
       </c>
       <c r="I106" s="6">
-        <f>SUM(J106:W106)</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="82">
         <v>0</v>
       </c>
       <c r="K106" s="4"/>
@@ -5935,15 +5935,15 @@
       <c r="W106" s="20"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="85"/>
-      <c r="C107" s="91"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="106"/>
       <c r="D107" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="100" t="s">
+      <c r="F107" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G107" s="4">
@@ -5953,10 +5953,10 @@
         <v>0.1</v>
       </c>
       <c r="I107" s="6">
-        <f>SUM(J107:W107)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="82">
         <v>0</v>
       </c>
       <c r="K107" s="4"/>
@@ -5974,15 +5974,15 @@
       <c r="W107" s="20"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="85"/>
-      <c r="C108" s="91"/>
+      <c r="B108" s="101"/>
+      <c r="C108" s="106"/>
       <c r="D108" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="100" t="s">
+      <c r="F108" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G108" s="4">
@@ -5992,10 +5992,10 @@
         <v>0.25</v>
       </c>
       <c r="I108" s="6">
-        <f>SUM(J108:W108)</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="82">
         <v>0</v>
       </c>
       <c r="K108" s="4"/>
@@ -6013,8 +6013,8 @@
       <c r="W108" s="20"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="85"/>
-      <c r="C109" s="91" t="s">
+      <c r="B109" s="101"/>
+      <c r="C109" s="106" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -6023,7 +6023,7 @@
       <c r="E109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="100" t="s">
+      <c r="F109" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G109" s="4">
@@ -6033,10 +6033,10 @@
         <v>0.25</v>
       </c>
       <c r="I109" s="6">
-        <f>SUM(J109:W109)</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="82">
         <v>0</v>
       </c>
       <c r="K109" s="4"/>
@@ -6054,15 +6054,15 @@
       <c r="W109" s="20"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="85"/>
-      <c r="C110" s="91"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="106"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="100" t="s">
+      <c r="F110" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G110" s="4">
@@ -6072,10 +6072,10 @@
         <v>0.5</v>
       </c>
       <c r="I110" s="6">
-        <f>SUM(J110:W110)</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="82">
         <v>0</v>
       </c>
       <c r="K110" s="4"/>
@@ -6093,15 +6093,15 @@
       <c r="W110" s="20"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="85"/>
-      <c r="C111" s="91"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="106"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="100" t="s">
+      <c r="F111" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G111" s="4">
@@ -6111,10 +6111,10 @@
         <v>0.1</v>
       </c>
       <c r="I111" s="6">
-        <f>SUM(J111:W111)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="82">
         <v>0</v>
       </c>
       <c r="K111" s="4"/>
@@ -6132,15 +6132,15 @@
       <c r="W111" s="20"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="85"/>
-      <c r="C112" s="91"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="106"/>
       <c r="D112" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F112" s="100" t="s">
+      <c r="F112" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G112" s="4">
@@ -6150,10 +6150,10 @@
         <v>0.25</v>
       </c>
       <c r="I112" s="6">
-        <f>SUM(J112:W112)</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="82">
         <v>0</v>
       </c>
       <c r="K112" s="4"/>
@@ -6171,8 +6171,8 @@
       <c r="W112" s="20"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="85"/>
-      <c r="C113" s="91" t="s">
+      <c r="B113" s="101"/>
+      <c r="C113" s="106" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6181,7 +6181,7 @@
       <c r="E113" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="100" t="s">
+      <c r="F113" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G113" s="4">
@@ -6191,10 +6191,10 @@
         <v>0.25</v>
       </c>
       <c r="I113" s="6">
-        <f>SUM(J113:W113)</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="82">
         <v>0</v>
       </c>
       <c r="K113" s="4"/>
@@ -6212,15 +6212,15 @@
       <c r="W113" s="20"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="85"/>
-      <c r="C114" s="91"/>
+      <c r="B114" s="101"/>
+      <c r="C114" s="106"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F114" s="100" t="s">
+      <c r="F114" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G114" s="4">
@@ -6230,10 +6230,10 @@
         <v>0.5</v>
       </c>
       <c r="I114" s="6">
-        <f>SUM(J114:W114)</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="82">
         <v>0</v>
       </c>
       <c r="K114" s="4"/>
@@ -6251,15 +6251,15 @@
       <c r="W114" s="20"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="85"/>
-      <c r="C115" s="91"/>
+      <c r="B115" s="101"/>
+      <c r="C115" s="106"/>
       <c r="D115" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F115" s="100" t="s">
+      <c r="F115" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G115" s="4">
@@ -6269,10 +6269,10 @@
         <v>0.1</v>
       </c>
       <c r="I115" s="6">
-        <f>SUM(J115:W115)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="82">
         <v>0</v>
       </c>
       <c r="K115" s="4"/>
@@ -6290,15 +6290,15 @@
       <c r="W115" s="20"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="85"/>
-      <c r="C116" s="91"/>
+      <c r="B116" s="101"/>
+      <c r="C116" s="106"/>
       <c r="D116" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="100" t="s">
+      <c r="F116" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G116" s="4">
@@ -6308,10 +6308,10 @@
         <v>0.25</v>
       </c>
       <c r="I116" s="6">
-        <f>SUM(J116:W116)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="82">
         <v>0</v>
       </c>
       <c r="K116" s="4"/>
@@ -6329,8 +6329,8 @@
       <c r="W116" s="20"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="85"/>
-      <c r="C117" s="91" t="s">
+      <c r="B117" s="101"/>
+      <c r="C117" s="106" t="s">
         <v>129</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6339,7 +6339,7 @@
       <c r="E117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F117" s="100" t="s">
+      <c r="F117" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G117" s="4">
@@ -6349,10 +6349,10 @@
         <v>0.25</v>
       </c>
       <c r="I117" s="6">
-        <f>SUM(J117:W117)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="82">
         <v>0</v>
       </c>
       <c r="K117" s="4"/>
@@ -6370,15 +6370,15 @@
       <c r="W117" s="20"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="85"/>
-      <c r="C118" s="91"/>
+      <c r="B118" s="101"/>
+      <c r="C118" s="106"/>
       <c r="D118" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="100" t="s">
+      <c r="F118" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G118" s="4">
@@ -6388,10 +6388,10 @@
         <v>0.5</v>
       </c>
       <c r="I118" s="6">
-        <f>SUM(J118:W118)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="82">
         <v>0</v>
       </c>
       <c r="K118" s="4"/>
@@ -6409,15 +6409,15 @@
       <c r="W118" s="20"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="85"/>
-      <c r="C119" s="91"/>
+      <c r="B119" s="101"/>
+      <c r="C119" s="106"/>
       <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="100" t="s">
+      <c r="F119" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G119" s="4">
@@ -6427,10 +6427,10 @@
         <v>0.1</v>
       </c>
       <c r="I119" s="6">
-        <f>SUM(J119:W119)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="82">
         <v>0</v>
       </c>
       <c r="K119" s="4"/>
@@ -6448,15 +6448,15 @@
       <c r="W119" s="20"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="85"/>
-      <c r="C120" s="91"/>
+      <c r="B120" s="101"/>
+      <c r="C120" s="106"/>
       <c r="D120" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F120" s="100" t="s">
+      <c r="F120" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G120" s="4">
@@ -6466,10 +6466,10 @@
         <v>0.25</v>
       </c>
       <c r="I120" s="6">
-        <f>SUM(J120:W120)</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="82">
         <v>0</v>
       </c>
       <c r="K120" s="4"/>
@@ -6487,8 +6487,8 @@
       <c r="W120" s="20"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="85"/>
-      <c r="C121" s="91" t="s">
+      <c r="B121" s="101"/>
+      <c r="C121" s="106" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6497,7 +6497,7 @@
       <c r="E121" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="100" t="s">
+      <c r="F121" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G121" s="4">
@@ -6507,10 +6507,10 @@
         <v>0.25</v>
       </c>
       <c r="I121" s="6">
-        <f>SUM(J121:W121)</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="82">
         <v>0</v>
       </c>
       <c r="K121" s="4"/>
@@ -6528,15 +6528,15 @@
       <c r="W121" s="20"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="85"/>
-      <c r="C122" s="91"/>
+      <c r="B122" s="101"/>
+      <c r="C122" s="106"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F122" s="100" t="s">
+      <c r="F122" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G122" s="4">
@@ -6546,10 +6546,10 @@
         <v>0.5</v>
       </c>
       <c r="I122" s="6">
-        <f>SUM(J122:W122)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="82">
         <v>0</v>
       </c>
       <c r="K122" s="4"/>
@@ -6567,15 +6567,15 @@
       <c r="W122" s="20"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="85"/>
-      <c r="C123" s="91"/>
+      <c r="B123" s="101"/>
+      <c r="C123" s="106"/>
       <c r="D123" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="100" t="s">
+      <c r="F123" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G123" s="4">
@@ -6585,10 +6585,10 @@
         <v>0.1</v>
       </c>
       <c r="I123" s="6">
-        <f>SUM(J123:W123)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="82">
         <v>0</v>
       </c>
       <c r="K123" s="4"/>
@@ -6606,15 +6606,15 @@
       <c r="W123" s="20"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="85"/>
-      <c r="C124" s="91"/>
+      <c r="B124" s="101"/>
+      <c r="C124" s="106"/>
       <c r="D124" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F124" s="100" t="s">
+      <c r="F124" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G124" s="4">
@@ -6624,10 +6624,10 @@
         <v>0.25</v>
       </c>
       <c r="I124" s="6">
-        <f>SUM(J124:W124)</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="82">
         <v>0</v>
       </c>
       <c r="K124" s="4"/>
@@ -6645,8 +6645,8 @@
       <c r="W124" s="20"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="85"/>
-      <c r="C125" s="91" t="s">
+      <c r="B125" s="101"/>
+      <c r="C125" s="106" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -6655,7 +6655,7 @@
       <c r="E125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="100" t="s">
+      <c r="F125" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G125" s="4">
@@ -6665,10 +6665,10 @@
         <v>0.25</v>
       </c>
       <c r="I125" s="6">
-        <f>SUM(J125:W125)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="82">
         <v>0</v>
       </c>
       <c r="K125" s="4"/>
@@ -6686,15 +6686,15 @@
       <c r="W125" s="20"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="85"/>
-      <c r="C126" s="91"/>
+      <c r="B126" s="101"/>
+      <c r="C126" s="106"/>
       <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F126" s="100" t="s">
+      <c r="F126" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G126" s="4">
@@ -6704,10 +6704,10 @@
         <v>0.5</v>
       </c>
       <c r="I126" s="6">
-        <f>SUM(J126:W126)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="82">
         <v>0</v>
       </c>
       <c r="K126" s="4"/>
@@ -6725,15 +6725,15 @@
       <c r="W126" s="20"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="85"/>
-      <c r="C127" s="91"/>
+      <c r="B127" s="101"/>
+      <c r="C127" s="106"/>
       <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F127" s="100" t="s">
+      <c r="F127" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G127" s="4">
@@ -6743,10 +6743,10 @@
         <v>0.1</v>
       </c>
       <c r="I127" s="6">
-        <f>SUM(J127:W127)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="82">
         <v>0</v>
       </c>
       <c r="K127" s="4"/>
@@ -6764,15 +6764,15 @@
       <c r="W127" s="20"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="85"/>
-      <c r="C128" s="91"/>
+      <c r="B128" s="101"/>
+      <c r="C128" s="106"/>
       <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F128" s="100" t="s">
+      <c r="F128" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G128" s="4">
@@ -6782,10 +6782,10 @@
         <v>0.25</v>
       </c>
       <c r="I128" s="6">
-        <f>SUM(J128:W128)</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="82">
         <v>0</v>
       </c>
       <c r="K128" s="4"/>
@@ -6803,8 +6803,8 @@
       <c r="W128" s="20"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="85"/>
-      <c r="C129" s="91" t="s">
+      <c r="B129" s="101"/>
+      <c r="C129" s="106" t="s">
         <v>132</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -6813,7 +6813,7 @@
       <c r="E129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F129" s="100" t="s">
+      <c r="F129" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G129" s="4">
@@ -6823,10 +6823,10 @@
         <v>0.25</v>
       </c>
       <c r="I129" s="6">
-        <f>SUM(J129:W129)</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="82">
         <v>0</v>
       </c>
       <c r="K129" s="4"/>
@@ -6844,15 +6844,15 @@
       <c r="W129" s="20"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="85"/>
-      <c r="C130" s="91"/>
+      <c r="B130" s="101"/>
+      <c r="C130" s="106"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="100" t="s">
+      <c r="F130" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G130" s="4">
@@ -6862,10 +6862,10 @@
         <v>0.5</v>
       </c>
       <c r="I130" s="6">
-        <f>SUM(J130:W130)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="82">
         <v>0</v>
       </c>
       <c r="K130" s="4"/>
@@ -6883,15 +6883,15 @@
       <c r="W130" s="20"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="85"/>
-      <c r="C131" s="91"/>
+      <c r="B131" s="101"/>
+      <c r="C131" s="106"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F131" s="100" t="s">
+      <c r="F131" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G131" s="4">
@@ -6901,10 +6901,10 @@
         <v>0.1</v>
       </c>
       <c r="I131" s="6">
-        <f>SUM(J131:W131)</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="82">
         <v>0</v>
       </c>
       <c r="K131" s="4"/>
@@ -6922,15 +6922,15 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="86"/>
-      <c r="C132" s="93"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="117"/>
       <c r="D132" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E132" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F132" s="101" t="s">
+      <c r="F132" s="77" t="s">
         <v>116</v>
       </c>
       <c r="G132" s="25">
@@ -6940,10 +6940,10 @@
         <v>0.25</v>
       </c>
       <c r="I132" s="21">
-        <f>SUM(J132:W132)</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="107">
+        <f t="shared" ref="I132:I163" si="4">SUM(J132:W132)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="83">
         <v>0</v>
       </c>
       <c r="K132" s="25"/>
@@ -6961,17 +6961,17 @@
       <c r="W132" s="26"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="67" t="s">
+      <c r="B133" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C133" s="116" t="s">
+      <c r="C133" s="92" t="s">
         <v>95</v>
       </c>
       <c r="D133" s="44"/>
       <c r="E133" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="99" t="s">
+      <c r="F133" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G133" s="44">
@@ -6981,10 +6981,10 @@
         <v>3</v>
       </c>
       <c r="I133" s="45">
-        <f>SUM(J133:W133)</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="81">
         <v>0</v>
       </c>
       <c r="K133" s="44"/>
@@ -7002,7 +7002,7 @@
       <c r="W133" s="57"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="68"/>
+      <c r="B134" s="104"/>
       <c r="C134" s="38" t="s">
         <v>89</v>
       </c>
@@ -7010,7 +7010,7 @@
       <c r="E134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F134" s="111" t="s">
+      <c r="F134" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G134" s="4">
@@ -7020,10 +7020,10 @@
         <v>0.3</v>
       </c>
       <c r="I134" s="6">
-        <f>SUM(J134:W134)</f>
-        <v>0</v>
-      </c>
-      <c r="J134" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="82">
         <v>0</v>
       </c>
       <c r="K134" s="4"/>
@@ -7041,7 +7041,7 @@
       <c r="W134" s="20"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="68"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="38" t="s">
         <v>90</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="E135" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="111" t="s">
+      <c r="F135" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G135" s="4">
@@ -7059,10 +7059,10 @@
         <v>0.3</v>
       </c>
       <c r="I135" s="6">
-        <f>SUM(J135:W135)</f>
-        <v>0</v>
-      </c>
-      <c r="J135" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="82">
         <v>0</v>
       </c>
       <c r="K135" s="4"/>
@@ -7080,7 +7080,7 @@
       <c r="W135" s="20"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="68"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="38" t="s">
         <v>91</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="E136" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F136" s="111" t="s">
+      <c r="F136" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G136" s="4">
@@ -7098,10 +7098,10 @@
         <v>0.3</v>
       </c>
       <c r="I136" s="6">
-        <f>SUM(J136:W136)</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="82">
         <v>0</v>
       </c>
       <c r="K136" s="4"/>
@@ -7119,7 +7119,7 @@
       <c r="W136" s="20"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="68"/>
+      <c r="B137" s="104"/>
       <c r="C137" s="38" t="s">
         <v>143</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="E137" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F137" s="111" t="s">
+      <c r="F137" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G137" s="4">
@@ -7137,10 +7137,10 @@
         <v>0.3</v>
       </c>
       <c r="I137" s="6">
-        <f>SUM(J137:W137)</f>
-        <v>0</v>
-      </c>
-      <c r="J137" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="82">
         <v>0</v>
       </c>
       <c r="K137" s="4"/>
@@ -7158,7 +7158,7 @@
       <c r="W137" s="20"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="68"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="38" t="s">
         <v>140</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="E138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F138" s="111" t="s">
+      <c r="F138" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G138" s="4">
@@ -7176,10 +7176,10 @@
         <v>0.3</v>
       </c>
       <c r="I138" s="6">
-        <f>SUM(J138:W138)</f>
-        <v>0</v>
-      </c>
-      <c r="J138" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="82">
         <v>0</v>
       </c>
       <c r="K138" s="4"/>
@@ -7197,7 +7197,7 @@
       <c r="W138" s="20"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="68"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="38" t="s">
         <v>142</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="E139" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="111" t="s">
+      <c r="F139" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G139" s="4">
@@ -7215,10 +7215,10 @@
         <v>0.3</v>
       </c>
       <c r="I139" s="6">
-        <f>SUM(J139:W139)</f>
-        <v>0</v>
-      </c>
-      <c r="J139" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="82">
         <v>0</v>
       </c>
       <c r="K139" s="4"/>
@@ -7236,7 +7236,7 @@
       <c r="W139" s="20"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="68"/>
+      <c r="B140" s="104"/>
       <c r="C140" s="38" t="s">
         <v>141</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="E140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F140" s="111" t="s">
+      <c r="F140" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G140" s="4">
@@ -7254,10 +7254,10 @@
         <v>0.3</v>
       </c>
       <c r="I140" s="6">
-        <f>SUM(J140:W140)</f>
-        <v>0</v>
-      </c>
-      <c r="J140" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="82">
         <v>0</v>
       </c>
       <c r="K140" s="4"/>
@@ -7275,7 +7275,7 @@
       <c r="W140" s="20"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="68"/>
+      <c r="B141" s="104"/>
       <c r="C141" s="38" t="s">
         <v>92</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="E141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="103" t="s">
+      <c r="F141" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G141" s="4">
@@ -7293,10 +7293,10 @@
         <v>0.3</v>
       </c>
       <c r="I141" s="6">
-        <f>SUM(J141:W141)</f>
-        <v>0</v>
-      </c>
-      <c r="J141" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="82">
         <v>0</v>
       </c>
       <c r="K141" s="4"/>
@@ -7314,7 +7314,7 @@
       <c r="W141" s="20"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="68"/>
+      <c r="B142" s="104"/>
       <c r="C142" s="38" t="s">
         <v>93</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="E142" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F142" s="103" t="s">
+      <c r="F142" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G142" s="4">
@@ -7332,10 +7332,10 @@
         <v>0.3</v>
       </c>
       <c r="I142" s="6">
-        <f>SUM(J142:W142)</f>
-        <v>0</v>
-      </c>
-      <c r="J142" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="82">
         <v>0</v>
       </c>
       <c r="K142" s="4"/>
@@ -7353,7 +7353,7 @@
       <c r="W142" s="20"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="68"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="38" t="s">
         <v>94</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="E143" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F143" s="103" t="s">
+      <c r="F143" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G143" s="4">
@@ -7371,10 +7371,10 @@
         <v>0.3</v>
       </c>
       <c r="I143" s="6">
-        <f>SUM(J143:W143)</f>
-        <v>0</v>
-      </c>
-      <c r="J143" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="82">
         <v>0</v>
       </c>
       <c r="K143" s="4"/>
@@ -7392,7 +7392,7 @@
       <c r="W143" s="20"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="68"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="38" t="s">
         <v>98</v>
       </c>
@@ -7400,7 +7400,7 @@
       <c r="E144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F144" s="100" t="s">
+      <c r="F144" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G144" s="4">
@@ -7410,10 +7410,10 @@
         <v>0.2</v>
       </c>
       <c r="I144" s="6">
-        <f>SUM(J144:W144)</f>
-        <v>0</v>
-      </c>
-      <c r="J144" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="82">
         <v>0</v>
       </c>
       <c r="K144" s="4"/>
@@ -7431,7 +7431,7 @@
       <c r="W144" s="20"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="69"/>
+      <c r="B145" s="105"/>
       <c r="C145" s="62" t="s">
         <v>99</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="E145" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F145" s="104" t="s">
+      <c r="F145" s="80" t="s">
         <v>115</v>
       </c>
       <c r="G145" s="25">
@@ -7449,10 +7449,10 @@
         <v>0.2</v>
       </c>
       <c r="I145" s="21">
-        <f>SUM(J145:W145)</f>
-        <v>0</v>
-      </c>
-      <c r="J145" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="83">
         <v>0</v>
       </c>
       <c r="K145" s="25"/>
@@ -7470,17 +7470,17 @@
       <c r="W145" s="26"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="84" t="s">
+      <c r="B146" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="95" t="s">
+      <c r="C146" s="72" t="s">
         <v>135</v>
       </c>
       <c r="D146" s="44"/>
       <c r="E146" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F146" s="99" t="s">
+      <c r="F146" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G146" s="44">
@@ -7489,11 +7489,11 @@
       <c r="H146" s="44">
         <v>0.1</v>
       </c>
-      <c r="I146" s="117">
-        <f>SUM(J146:W146)</f>
-        <v>0</v>
-      </c>
-      <c r="J146" s="105">
+      <c r="I146" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="81">
         <v>0</v>
       </c>
       <c r="K146" s="44"/>
@@ -7511,15 +7511,15 @@
       <c r="W146" s="57"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="85"/>
-      <c r="C147" s="94" t="s">
+      <c r="B147" s="101"/>
+      <c r="C147" s="71" t="s">
         <v>145</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F147" s="100" t="s">
+      <c r="F147" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G147" s="4">
@@ -7528,11 +7528,11 @@
       <c r="H147" s="4">
         <v>0.75</v>
       </c>
-      <c r="I147" s="87">
-        <f>SUM(J147:W147)</f>
-        <v>0</v>
-      </c>
-      <c r="J147" s="106">
+      <c r="I147" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="82">
         <v>0</v>
       </c>
       <c r="K147" s="4"/>
@@ -7550,15 +7550,15 @@
       <c r="W147" s="20"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="86"/>
-      <c r="C148" s="96" t="s">
+      <c r="B148" s="107"/>
+      <c r="C148" s="73" t="s">
         <v>146</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F148" s="101" t="s">
+      <c r="F148" s="77" t="s">
         <v>116</v>
       </c>
       <c r="G148" s="25">
@@ -7568,10 +7568,10 @@
         <v>0.5</v>
       </c>
       <c r="I148" s="21">
-        <f>SUM(J148:W148)</f>
-        <v>0</v>
-      </c>
-      <c r="J148" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="83">
         <v>0</v>
       </c>
       <c r="K148" s="25"/>
@@ -7589,7 +7589,7 @@
       <c r="W148" s="26"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="68" t="s">
+      <c r="B149" s="104" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="38" t="s">
@@ -7599,7 +7599,7 @@
       <c r="E149" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F149" s="110" t="s">
+      <c r="F149" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G149" s="7">
@@ -7609,28 +7609,28 @@
         <v>0.4</v>
       </c>
       <c r="I149" s="66">
-        <f>SUM(J149:W149)</f>
-        <v>0</v>
-      </c>
-      <c r="J149" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="84">
         <v>0</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-      <c r="O149" s="88"/>
-      <c r="P149" s="89"/>
-      <c r="Q149" s="88"/>
-      <c r="R149" s="88"/>
-      <c r="S149" s="88"/>
-      <c r="T149" s="88"/>
-      <c r="U149" s="88"/>
-      <c r="V149" s="88"/>
-      <c r="W149" s="90"/>
+      <c r="O149" s="68"/>
+      <c r="P149" s="69"/>
+      <c r="Q149" s="68"/>
+      <c r="R149" s="68"/>
+      <c r="S149" s="68"/>
+      <c r="T149" s="68"/>
+      <c r="U149" s="68"/>
+      <c r="V149" s="68"/>
+      <c r="W149" s="70"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="68"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="38" t="s">
         <v>138</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="E150" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F150" s="111" t="s">
+      <c r="F150" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G150" s="7">
@@ -7648,28 +7648,28 @@
         <v>0.4</v>
       </c>
       <c r="I150" s="6">
-        <f>SUM(J150:W150)</f>
-        <v>0</v>
-      </c>
-      <c r="J150" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="84">
         <v>0</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="88"/>
-      <c r="P150" s="89"/>
-      <c r="Q150" s="88"/>
-      <c r="R150" s="88"/>
-      <c r="S150" s="88"/>
-      <c r="T150" s="88"/>
-      <c r="U150" s="88"/>
-      <c r="V150" s="88"/>
-      <c r="W150" s="90"/>
+      <c r="O150" s="68"/>
+      <c r="P150" s="69"/>
+      <c r="Q150" s="68"/>
+      <c r="R150" s="68"/>
+      <c r="S150" s="68"/>
+      <c r="T150" s="68"/>
+      <c r="U150" s="68"/>
+      <c r="V150" s="68"/>
+      <c r="W150" s="70"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="68"/>
+      <c r="B151" s="104"/>
       <c r="C151" s="38" t="s">
         <v>139</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="E151" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F151" s="111" t="s">
+      <c r="F151" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G151" s="7">
@@ -7687,28 +7687,28 @@
         <v>0.4</v>
       </c>
       <c r="I151" s="6">
-        <f>SUM(J151:W151)</f>
-        <v>0</v>
-      </c>
-      <c r="J151" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="84">
         <v>0</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-      <c r="O151" s="88"/>
-      <c r="P151" s="89"/>
-      <c r="Q151" s="88"/>
-      <c r="R151" s="88"/>
-      <c r="S151" s="88"/>
-      <c r="T151" s="88"/>
-      <c r="U151" s="88"/>
-      <c r="V151" s="88"/>
-      <c r="W151" s="90"/>
+      <c r="O151" s="68"/>
+      <c r="P151" s="69"/>
+      <c r="Q151" s="68"/>
+      <c r="R151" s="68"/>
+      <c r="S151" s="68"/>
+      <c r="T151" s="68"/>
+      <c r="U151" s="68"/>
+      <c r="V151" s="68"/>
+      <c r="W151" s="70"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="68"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="38" t="s">
         <v>147</v>
       </c>
@@ -7716,7 +7716,7 @@
       <c r="E152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F152" s="111" t="s">
+      <c r="F152" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G152" s="4">
@@ -7726,10 +7726,10 @@
         <v>0.4</v>
       </c>
       <c r="I152" s="6">
-        <f>SUM(J152:W152)</f>
-        <v>0</v>
-      </c>
-      <c r="J152" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="82">
         <v>0</v>
       </c>
       <c r="K152" s="4"/>
@@ -7747,7 +7747,7 @@
       <c r="W152" s="20"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="68"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="35" t="s">
         <v>84</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="E153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F153" s="111" t="s">
+      <c r="F153" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G153" s="4">
@@ -7765,10 +7765,10 @@
         <v>0.4</v>
       </c>
       <c r="I153" s="6">
-        <f>SUM(J153:W153)</f>
-        <v>0</v>
-      </c>
-      <c r="J153" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="82">
         <v>0</v>
       </c>
       <c r="K153" s="4"/>
@@ -7786,7 +7786,7 @@
       <c r="W153" s="20"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="68"/>
+      <c r="B154" s="104"/>
       <c r="C154" s="35" t="s">
         <v>85</v>
       </c>
@@ -7794,7 +7794,7 @@
       <c r="E154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F154" s="103" t="s">
+      <c r="F154" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G154" s="4">
@@ -7804,10 +7804,10 @@
         <v>0.4</v>
       </c>
       <c r="I154" s="6">
-        <f>SUM(J154:W154)</f>
-        <v>0</v>
-      </c>
-      <c r="J154" s="106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="82">
         <v>0</v>
       </c>
       <c r="K154" s="4"/>
@@ -7825,7 +7825,7 @@
       <c r="W154" s="20"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="68"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="39" t="s">
         <v>87</v>
       </c>
@@ -7833,7 +7833,7 @@
       <c r="E155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="115" t="s">
+      <c r="F155" s="91" t="s">
         <v>115</v>
       </c>
       <c r="G155" s="8">
@@ -7843,10 +7843,10 @@
         <v>0.4</v>
       </c>
       <c r="I155" s="6">
-        <f>SUM(J155:W155)</f>
-        <v>0</v>
-      </c>
-      <c r="J155" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="85">
         <v>0</v>
       </c>
       <c r="K155" s="8"/>
@@ -7864,7 +7864,7 @@
       <c r="W155" s="29"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="68"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="35" t="s">
         <v>86</v>
       </c>
@@ -7872,7 +7872,7 @@
       <c r="E156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="112" t="s">
+      <c r="F156" s="88" t="s">
         <v>111</v>
       </c>
       <c r="G156" s="8">
@@ -7882,10 +7882,10 @@
         <v>0.2</v>
       </c>
       <c r="I156" s="6">
-        <f>SUM(J156:W156)</f>
-        <v>0</v>
-      </c>
-      <c r="J156" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="85">
         <v>0</v>
       </c>
       <c r="K156" s="8"/>
@@ -7903,7 +7903,7 @@
       <c r="W156" s="29"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="68"/>
+      <c r="B157" s="104"/>
       <c r="C157" s="41" t="s">
         <v>104</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="E157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F157" s="112" t="s">
+      <c r="F157" s="88" t="s">
         <v>111</v>
       </c>
       <c r="G157" s="8">
@@ -7921,10 +7921,10 @@
         <v>0.7</v>
       </c>
       <c r="I157" s="6">
-        <f>SUM(J157:W157)</f>
-        <v>0</v>
-      </c>
-      <c r="J157" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="85">
         <v>0</v>
       </c>
       <c r="K157" s="8"/>
@@ -7942,7 +7942,7 @@
       <c r="W157" s="29"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="68"/>
+      <c r="B158" s="104"/>
       <c r="C158" s="41" t="s">
         <v>137</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="E158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="115" t="s">
+      <c r="F158" s="91" t="s">
         <v>115</v>
       </c>
       <c r="G158" s="8">
@@ -7960,10 +7960,10 @@
         <v>3</v>
       </c>
       <c r="I158" s="6">
-        <f>SUM(J158:W158)</f>
-        <v>0</v>
-      </c>
-      <c r="J158" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="85">
         <v>0</v>
       </c>
       <c r="K158" s="8"/>
@@ -7981,7 +7981,7 @@
       <c r="W158" s="29"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="68"/>
+      <c r="B159" s="104"/>
       <c r="C159" s="41" t="s">
         <v>105</v>
       </c>
@@ -7989,7 +7989,7 @@
       <c r="E159" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F159" s="112" t="s">
+      <c r="F159" s="88" t="s">
         <v>111</v>
       </c>
       <c r="G159" s="8">
@@ -7999,10 +7999,10 @@
         <v>2</v>
       </c>
       <c r="I159" s="6">
-        <f>SUM(J159:W159)</f>
-        <v>0</v>
-      </c>
-      <c r="J159" s="109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="85">
         <v>0</v>
       </c>
       <c r="K159" s="8"/>
@@ -8020,7 +8020,7 @@
       <c r="W159" s="29"/>
     </row>
     <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="69"/>
+      <c r="B160" s="105"/>
       <c r="C160" s="62" t="s">
         <v>100</v>
       </c>
@@ -8028,7 +8028,7 @@
       <c r="E160" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F160" s="104" t="s">
+      <c r="F160" s="80" t="s">
         <v>115</v>
       </c>
       <c r="G160" s="25">
@@ -8038,10 +8038,10 @@
         <v>1.5</v>
       </c>
       <c r="I160" s="21">
-        <f>SUM(J160:W160)</f>
-        <v>0</v>
-      </c>
-      <c r="J160" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="83">
         <v>0</v>
       </c>
       <c r="K160" s="25"/>
@@ -8059,14 +8059,14 @@
       <c r="W160" s="26"/>
     </row>
     <row r="161" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="80" t="s">
+      <c r="B161" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="82"/>
-      <c r="D161" s="81"/>
-      <c r="E161" s="81"/>
-      <c r="F161" s="81"/>
-      <c r="G161" s="83"/>
+      <c r="C161" s="98"/>
+      <c r="D161" s="96"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="96"/>
+      <c r="G161" s="99"/>
       <c r="H161" s="40">
         <f>SUM(H4:H160)</f>
         <v>89.199999999999989</v>
@@ -8080,55 +8080,55 @@
         <v>0</v>
       </c>
       <c r="K161" s="24">
-        <f t="shared" ref="K161:W161" si="0">SUM(K4:K160)</f>
+        <f t="shared" ref="K161:W161" si="5">SUM(K4:K160)</f>
         <v>0</v>
       </c>
       <c r="L161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V161" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W161" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8141,22 +8141,22 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="70" t="s">
+      <c r="J162" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="K162" s="71"/>
-      <c r="L162" s="71"/>
-      <c r="M162" s="71"/>
-      <c r="N162" s="71"/>
-      <c r="O162" s="71"/>
-      <c r="P162" s="71"/>
-      <c r="Q162" s="71"/>
-      <c r="R162" s="71"/>
-      <c r="S162" s="71"/>
-      <c r="T162" s="71"/>
-      <c r="U162" s="71"/>
-      <c r="V162" s="71"/>
-      <c r="W162" s="72"/>
+      <c r="K162" s="108"/>
+      <c r="L162" s="108"/>
+      <c r="M162" s="108"/>
+      <c r="N162" s="108"/>
+      <c r="O162" s="108"/>
+      <c r="P162" s="108"/>
+      <c r="Q162" s="108"/>
+      <c r="R162" s="108"/>
+      <c r="S162" s="108"/>
+      <c r="T162" s="108"/>
+      <c r="U162" s="108"/>
+      <c r="V162" s="108"/>
+      <c r="W162" s="109"/>
     </row>
     <row r="163" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
@@ -8180,10 +8180,10 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="80" t="s">
+      <c r="H164" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="81"/>
+      <c r="I164" s="96"/>
       <c r="J164" s="10">
         <f>H161-J161</f>
         <v>89.199999999999989</v>
@@ -8226,18 +8226,18 @@
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="H166" s="70" t="s">
+      <c r="H166" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="82"/>
-      <c r="J166" s="81">
+      <c r="I166" s="98"/>
+      <c r="J166" s="96">
         <f>H161-I161</f>
         <v>89.199999999999989</v>
       </c>
-      <c r="K166" s="81"/>
-      <c r="L166" s="81"/>
-      <c r="M166" s="81"/>
-      <c r="N166" s="83"/>
+      <c r="K166" s="96"/>
+      <c r="L166" s="96"/>
+      <c r="M166" s="96"/>
+      <c r="N166" s="99"/>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
@@ -8341,6 +8341,23 @@
     <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C16:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="J166:N166"/>
@@ -8351,29 +8368,12 @@
     <mergeCell ref="C97:C100"/>
     <mergeCell ref="B146:B148"/>
     <mergeCell ref="J162:W162"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C16:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
     <mergeCell ref="B73:B132"/>
     <mergeCell ref="C125:C128"/>
     <mergeCell ref="C129:C132"/>
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C117:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,8 +537,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +589,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -987,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,15 +1245,57 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,52 +1311,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,7 +1358,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1363,16 +1385,16 @@
                   <c:v>89.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.199999999999989</c:v>
+                  <c:v>89.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.199999999999989</c:v>
+                  <c:v>89.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.199999999999989</c:v>
+                  <c:v>89.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.199999999999989</c:v>
+                  <c:v>89.149999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,11 +1410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1654616272"/>
-        <c:axId val="1654616816"/>
+        <c:axId val="-1258213216"/>
+        <c:axId val="-1258201792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1654616272"/>
+        <c:axId val="-1258213216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1654616816"/>
+        <c:crossAx val="-1258201792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1654616816"/>
+        <c:axId val="-1258201792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,14 +1442,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1654616272"/>
+        <c:crossAx val="-1258213216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1766,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,19 +1818,19 @@
       <c r="J2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="64" t="s">
@@ -1880,7 +1901,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="100" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -1921,7 +1942,7 @@
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
@@ -1960,7 +1981,7 @@
       <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="104"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
@@ -1999,7 +2020,7 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="104"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="37" t="s">
         <v>103</v>
       </c>
@@ -2038,7 +2059,7 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="105"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="50" t="s">
         <v>112</v>
       </c>
@@ -2077,7 +2098,7 @@
       <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="100" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -2118,7 +2139,7 @@
       <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
@@ -2157,7 +2178,7 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="58" t="s">
         <v>113</v>
       </c>
@@ -2196,7 +2217,7 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="104"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="58" t="s">
         <v>114</v>
       </c>
@@ -2215,27 +2236,53 @@
       </c>
       <c r="I12" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J12" s="82">
         <v>0</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="20"/>
+      <c r="K12" s="120">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="120">
+        <v>0</v>
+      </c>
+      <c r="M12" s="120">
+        <v>0</v>
+      </c>
+      <c r="N12" s="120">
+        <v>0</v>
+      </c>
+      <c r="O12" s="120">
+        <v>0</v>
+      </c>
+      <c r="P12" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="120">
+        <v>0</v>
+      </c>
+      <c r="R12" s="120">
+        <v>0</v>
+      </c>
+      <c r="S12" s="120">
+        <v>0</v>
+      </c>
+      <c r="T12" s="120">
+        <v>0</v>
+      </c>
+      <c r="U12" s="120">
+        <v>0</v>
+      </c>
+      <c r="V12" s="120">
+        <v>0</v>
+      </c>
+      <c r="W12" s="121">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="104"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="58" t="s">
         <v>108</v>
       </c>
@@ -2259,7 +2306,7 @@
       <c r="J13" s="82">
         <v>0</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="119"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2274,7 +2321,7 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="105"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="59" t="s">
         <v>97</v>
       </c>
@@ -2313,7 +2360,7 @@
       <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="60" t="s">
@@ -2356,8 +2403,8 @@
       <c r="W15" s="57"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="101"/>
-      <c r="C16" s="112" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2397,8 +2444,8 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="101"/>
-      <c r="C17" s="113"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2436,8 +2483,8 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="101"/>
-      <c r="C18" s="113"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2475,8 +2522,8 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="113"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2514,8 +2561,8 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="101"/>
-      <c r="C20" s="113"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2553,8 +2600,8 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="101"/>
-      <c r="C21" s="113"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2592,8 +2639,8 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="101"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
@@ -2631,8 +2678,8 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="101"/>
-      <c r="C23" s="113"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
@@ -2670,8 +2717,8 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="101"/>
-      <c r="C24" s="113"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="106"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
@@ -2709,8 +2756,8 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
-      <c r="C25" s="113"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
@@ -2748,8 +2795,8 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="101"/>
-      <c r="C26" s="113"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
@@ -2787,8 +2834,8 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="101"/>
-      <c r="C27" s="113"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="34" t="s">
         <v>41</v>
       </c>
@@ -2826,8 +2873,8 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="101"/>
-      <c r="C28" s="113"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="34" t="s">
         <v>42</v>
       </c>
@@ -2865,8 +2912,8 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="101"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
@@ -2904,8 +2951,8 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="101"/>
-      <c r="C30" s="113"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
@@ -2943,8 +2990,8 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="101"/>
-      <c r="C31" s="113"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
@@ -2982,8 +3029,8 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="101"/>
-      <c r="C32" s="113"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
@@ -3021,8 +3068,8 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="101"/>
-      <c r="C33" s="113"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
@@ -3060,8 +3107,8 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="101"/>
-      <c r="C34" s="113"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="34" t="s">
         <v>48</v>
       </c>
@@ -3099,8 +3146,8 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="101"/>
-      <c r="C35" s="113"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="34" t="s">
         <v>49</v>
       </c>
@@ -3138,8 +3185,8 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="101"/>
-      <c r="C36" s="113"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
@@ -3177,8 +3224,8 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="101"/>
-      <c r="C37" s="113"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="34" t="s">
         <v>51</v>
       </c>
@@ -3216,8 +3263,8 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="101"/>
-      <c r="C38" s="113"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
@@ -3255,8 +3302,8 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="101"/>
-      <c r="C39" s="113"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="34" t="s">
         <v>53</v>
       </c>
@@ -3294,8 +3341,8 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="101"/>
-      <c r="C40" s="113"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="106"/>
       <c r="D40" s="34" t="s">
         <v>54</v>
       </c>
@@ -3333,8 +3380,8 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="101"/>
-      <c r="C41" s="113"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="34" t="s">
         <v>55</v>
       </c>
@@ -3372,8 +3419,8 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="101"/>
-      <c r="C42" s="113"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="34" t="s">
         <v>56</v>
       </c>
@@ -3411,8 +3458,8 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="101"/>
-      <c r="C43" s="113"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="34" t="s">
         <v>57</v>
       </c>
@@ -3450,8 +3497,8 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="101"/>
-      <c r="C44" s="113"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="34" t="s">
         <v>58</v>
       </c>
@@ -3489,8 +3536,8 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="101"/>
-      <c r="C45" s="113"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="34" t="s">
         <v>59</v>
       </c>
@@ -3528,8 +3575,8 @@
       <c r="W45" s="20"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="101"/>
-      <c r="C46" s="113"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
@@ -3567,8 +3614,8 @@
       <c r="W46" s="20"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="101"/>
-      <c r="C47" s="113"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
@@ -3606,8 +3653,8 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="101"/>
-      <c r="C48" s="113"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
@@ -3645,8 +3692,8 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="101"/>
-      <c r="C49" s="113"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="34" t="s">
         <v>63</v>
       </c>
@@ -3684,8 +3731,8 @@
       <c r="W49" s="20"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="101"/>
-      <c r="C50" s="113"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
@@ -3723,8 +3770,8 @@
       <c r="W50" s="20"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="101"/>
-      <c r="C51" s="113"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="34" t="s">
         <v>65</v>
       </c>
@@ -3762,8 +3809,8 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="101"/>
-      <c r="C52" s="113"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="106"/>
       <c r="D52" s="34" t="s">
         <v>66</v>
       </c>
@@ -3801,8 +3848,8 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="101"/>
-      <c r="C53" s="113"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="34" t="s">
         <v>67</v>
       </c>
@@ -3840,8 +3887,8 @@
       <c r="W53" s="20"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="101"/>
-      <c r="C54" s="113"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="34" t="s">
         <v>68</v>
       </c>
@@ -3879,8 +3926,8 @@
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="101"/>
-      <c r="C55" s="114"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="34" t="s">
         <v>69</v>
       </c>
@@ -3918,8 +3965,8 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="101"/>
-      <c r="C56" s="110" t="s">
+      <c r="B56" s="115"/>
+      <c r="C56" s="103" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="31" t="s">
@@ -3959,8 +4006,8 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="101"/>
-      <c r="C57" s="111"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
@@ -3998,8 +4045,8 @@
       <c r="W57" s="20"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="101"/>
-      <c r="C58" s="111"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
@@ -4037,8 +4084,8 @@
       <c r="W58" s="20"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="101"/>
-      <c r="C59" s="111"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
@@ -4076,8 +4123,8 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="101"/>
-      <c r="C60" s="111"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
@@ -4115,8 +4162,8 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="101"/>
-      <c r="C61" s="111"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
@@ -4154,8 +4201,8 @@
       <c r="W61" s="20"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="102"/>
-      <c r="C62" s="111"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="74" t="s">
         <v>33</v>
       </c>
@@ -4193,10 +4240,10 @@
       <c r="W62" s="29"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="103" t="s">
+      <c r="B63" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="115" t="s">
+      <c r="C63" s="108" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -4236,8 +4283,8 @@
       <c r="W63" s="57"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="104"/>
-      <c r="C64" s="113"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="106"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4275,8 +4322,8 @@
       <c r="W64" s="20"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="104"/>
-      <c r="C65" s="113"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4314,8 +4361,8 @@
       <c r="W65" s="20"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="104"/>
-      <c r="C66" s="114"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="107"/>
       <c r="D66" s="31" t="s">
         <v>76</v>
       </c>
@@ -4353,7 +4400,7 @@
       <c r="W66" s="20"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="104"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="35" t="s">
         <v>73</v>
       </c>
@@ -4392,7 +4439,7 @@
       <c r="W67" s="20"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="104"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="61" t="s">
         <v>81</v>
       </c>
@@ -4431,8 +4478,8 @@
       <c r="W68" s="20"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="104"/>
-      <c r="C69" s="112" t="s">
+      <c r="B69" s="101"/>
+      <c r="C69" s="105" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4472,8 +4519,8 @@
       <c r="W69" s="20"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="104"/>
-      <c r="C70" s="113"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="106"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4511,8 +4558,8 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="104"/>
-      <c r="C71" s="113"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="106"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4550,8 +4597,8 @@
       <c r="W71" s="20"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="105"/>
-      <c r="C72" s="116"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="109"/>
       <c r="D72" s="25" t="s">
         <v>78</v>
       </c>
@@ -4589,10 +4636,10 @@
       <c r="W72" s="26"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="100" t="s">
+      <c r="B73" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="118" t="s">
+      <c r="C73" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -4632,8 +4679,8 @@
       <c r="W73" s="57"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="101"/>
-      <c r="C74" s="106"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
@@ -4671,8 +4718,8 @@
       <c r="W74" s="20"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="101"/>
-      <c r="C75" s="106"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="4" t="s">
         <v>135</v>
       </c>
@@ -4710,8 +4757,8 @@
       <c r="W75" s="20"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="101"/>
-      <c r="C76" s="106"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="4" t="s">
         <v>136</v>
       </c>
@@ -4749,8 +4796,8 @@
       <c r="W76" s="20"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="101"/>
-      <c r="C77" s="106" t="s">
+      <c r="B77" s="115"/>
+      <c r="C77" s="96" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4790,8 +4837,8 @@
       <c r="W77" s="20"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="101"/>
-      <c r="C78" s="106"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="96"/>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
@@ -4829,8 +4876,8 @@
       <c r="W78" s="20"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="101"/>
-      <c r="C79" s="106"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="96"/>
       <c r="D79" s="4" t="s">
         <v>135</v>
       </c>
@@ -4868,8 +4915,8 @@
       <c r="W79" s="20"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="101"/>
-      <c r="C80" s="106"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="96"/>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
@@ -4907,8 +4954,8 @@
       <c r="W80" s="20"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="101"/>
-      <c r="C81" s="106" t="s">
+      <c r="B81" s="115"/>
+      <c r="C81" s="96" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -4948,8 +4995,8 @@
       <c r="W81" s="20"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="101"/>
-      <c r="C82" s="106"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
@@ -4987,8 +5034,8 @@
       <c r="W82" s="20"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="101"/>
-      <c r="C83" s="106"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="96"/>
       <c r="D83" s="4" t="s">
         <v>135</v>
       </c>
@@ -5026,8 +5073,8 @@
       <c r="W83" s="20"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="101"/>
-      <c r="C84" s="106"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="96"/>
       <c r="D84" s="4" t="s">
         <v>136</v>
       </c>
@@ -5065,8 +5112,8 @@
       <c r="W84" s="20"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="101"/>
-      <c r="C85" s="106" t="s">
+      <c r="B85" s="115"/>
+      <c r="C85" s="96" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -5106,8 +5153,8 @@
       <c r="W85" s="20"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="101"/>
-      <c r="C86" s="106"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
@@ -5145,8 +5192,8 @@
       <c r="W86" s="20"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="101"/>
-      <c r="C87" s="106"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="96"/>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
@@ -5184,8 +5231,8 @@
       <c r="W87" s="20"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="101"/>
-      <c r="C88" s="106"/>
+      <c r="B88" s="115"/>
+      <c r="C88" s="96"/>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
@@ -5223,8 +5270,8 @@
       <c r="W88" s="20"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="101"/>
-      <c r="C89" s="106" t="s">
+      <c r="B89" s="115"/>
+      <c r="C89" s="96" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -5264,8 +5311,8 @@
       <c r="W89" s="20"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="101"/>
-      <c r="C90" s="106"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5303,8 +5350,8 @@
       <c r="W90" s="20"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="101"/>
-      <c r="C91" s="106"/>
+      <c r="B91" s="115"/>
+      <c r="C91" s="96"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5342,8 +5389,8 @@
       <c r="W91" s="20"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="101"/>
-      <c r="C92" s="106"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="96"/>
       <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
@@ -5381,8 +5428,8 @@
       <c r="W92" s="20"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="101"/>
-      <c r="C93" s="106" t="s">
+      <c r="B93" s="115"/>
+      <c r="C93" s="96" t="s">
         <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5422,8 +5469,8 @@
       <c r="W93" s="20"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="101"/>
-      <c r="C94" s="106"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
@@ -5461,8 +5508,8 @@
       <c r="W94" s="20"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="101"/>
-      <c r="C95" s="106"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="96"/>
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
@@ -5500,8 +5547,8 @@
       <c r="W95" s="20"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="101"/>
-      <c r="C96" s="106"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="96"/>
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
@@ -5539,8 +5586,8 @@
       <c r="W96" s="20"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="101"/>
-      <c r="C97" s="106" t="s">
+      <c r="B97" s="115"/>
+      <c r="C97" s="96" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5580,8 +5627,8 @@
       <c r="W97" s="20"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="101"/>
-      <c r="C98" s="106"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="96"/>
       <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
@@ -5619,8 +5666,8 @@
       <c r="W98" s="20"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="101"/>
-      <c r="C99" s="106"/>
+      <c r="B99" s="115"/>
+      <c r="C99" s="96"/>
       <c r="D99" s="4" t="s">
         <v>135</v>
       </c>
@@ -5658,8 +5705,8 @@
       <c r="W99" s="20"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="101"/>
-      <c r="C100" s="106"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="96"/>
       <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
@@ -5697,8 +5744,8 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="101"/>
-      <c r="C101" s="106" t="s">
+      <c r="B101" s="115"/>
+      <c r="C101" s="96" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5738,8 +5785,8 @@
       <c r="W101" s="20"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="101"/>
-      <c r="C102" s="106"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
@@ -5777,8 +5824,8 @@
       <c r="W102" s="20"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="101"/>
-      <c r="C103" s="106"/>
+      <c r="B103" s="115"/>
+      <c r="C103" s="96"/>
       <c r="D103" s="4" t="s">
         <v>135</v>
       </c>
@@ -5816,8 +5863,8 @@
       <c r="W103" s="20"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="101"/>
-      <c r="C104" s="106"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
@@ -5855,8 +5902,8 @@
       <c r="W104" s="20"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="101"/>
-      <c r="C105" s="106" t="s">
+      <c r="B105" s="115"/>
+      <c r="C105" s="96" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5896,8 +5943,8 @@
       <c r="W105" s="20"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="101"/>
-      <c r="C106" s="106"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="96"/>
       <c r="D106" s="4" t="s">
         <v>134</v>
       </c>
@@ -5935,8 +5982,8 @@
       <c r="W106" s="20"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="101"/>
-      <c r="C107" s="106"/>
+      <c r="B107" s="115"/>
+      <c r="C107" s="96"/>
       <c r="D107" s="4" t="s">
         <v>135</v>
       </c>
@@ -5974,8 +6021,8 @@
       <c r="W107" s="20"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="101"/>
-      <c r="C108" s="106"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="96"/>
       <c r="D108" s="4" t="s">
         <v>136</v>
       </c>
@@ -6013,8 +6060,8 @@
       <c r="W108" s="20"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="101"/>
-      <c r="C109" s="106" t="s">
+      <c r="B109" s="115"/>
+      <c r="C109" s="96" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -6054,8 +6101,8 @@
       <c r="W109" s="20"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="101"/>
-      <c r="C110" s="106"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="96"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6093,8 +6140,8 @@
       <c r="W110" s="20"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="101"/>
-      <c r="C111" s="106"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="96"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6132,8 +6179,8 @@
       <c r="W111" s="20"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="101"/>
-      <c r="C112" s="106"/>
+      <c r="B112" s="115"/>
+      <c r="C112" s="96"/>
       <c r="D112" s="4" t="s">
         <v>136</v>
       </c>
@@ -6171,8 +6218,8 @@
       <c r="W112" s="20"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="101"/>
-      <c r="C113" s="106" t="s">
+      <c r="B113" s="115"/>
+      <c r="C113" s="96" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6212,8 +6259,8 @@
       <c r="W113" s="20"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="101"/>
-      <c r="C114" s="106"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="96"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
@@ -6251,8 +6298,8 @@
       <c r="W114" s="20"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="101"/>
-      <c r="C115" s="106"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="96"/>
       <c r="D115" s="4" t="s">
         <v>135</v>
       </c>
@@ -6290,8 +6337,8 @@
       <c r="W115" s="20"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="101"/>
-      <c r="C116" s="106"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="96"/>
       <c r="D116" s="4" t="s">
         <v>136</v>
       </c>
@@ -6329,8 +6376,8 @@
       <c r="W116" s="20"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="101"/>
-      <c r="C117" s="106" t="s">
+      <c r="B117" s="115"/>
+      <c r="C117" s="96" t="s">
         <v>129</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6370,8 +6417,8 @@
       <c r="W117" s="20"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="101"/>
-      <c r="C118" s="106"/>
+      <c r="B118" s="115"/>
+      <c r="C118" s="96"/>
       <c r="D118" s="4" t="s">
         <v>134</v>
       </c>
@@ -6409,8 +6456,8 @@
       <c r="W118" s="20"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="101"/>
-      <c r="C119" s="106"/>
+      <c r="B119" s="115"/>
+      <c r="C119" s="96"/>
       <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
@@ -6448,8 +6495,8 @@
       <c r="W119" s="20"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="101"/>
-      <c r="C120" s="106"/>
+      <c r="B120" s="115"/>
+      <c r="C120" s="96"/>
       <c r="D120" s="4" t="s">
         <v>136</v>
       </c>
@@ -6487,8 +6534,8 @@
       <c r="W120" s="20"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="101"/>
-      <c r="C121" s="106" t="s">
+      <c r="B121" s="115"/>
+      <c r="C121" s="96" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6528,8 +6575,8 @@
       <c r="W121" s="20"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="101"/>
-      <c r="C122" s="106"/>
+      <c r="B122" s="115"/>
+      <c r="C122" s="96"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
@@ -6567,8 +6614,8 @@
       <c r="W122" s="20"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="101"/>
-      <c r="C123" s="106"/>
+      <c r="B123" s="115"/>
+      <c r="C123" s="96"/>
       <c r="D123" s="4" t="s">
         <v>135</v>
       </c>
@@ -6606,8 +6653,8 @@
       <c r="W123" s="20"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="101"/>
-      <c r="C124" s="106"/>
+      <c r="B124" s="115"/>
+      <c r="C124" s="96"/>
       <c r="D124" s="4" t="s">
         <v>136</v>
       </c>
@@ -6645,8 +6692,8 @@
       <c r="W124" s="20"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="101"/>
-      <c r="C125" s="106" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="96" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -6686,8 +6733,8 @@
       <c r="W125" s="20"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="101"/>
-      <c r="C126" s="106"/>
+      <c r="B126" s="115"/>
+      <c r="C126" s="96"/>
       <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
@@ -6725,8 +6772,8 @@
       <c r="W126" s="20"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="101"/>
-      <c r="C127" s="106"/>
+      <c r="B127" s="115"/>
+      <c r="C127" s="96"/>
       <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
@@ -6764,8 +6811,8 @@
       <c r="W127" s="20"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="101"/>
-      <c r="C128" s="106"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="96"/>
       <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
@@ -6803,8 +6850,8 @@
       <c r="W128" s="20"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="101"/>
-      <c r="C129" s="106" t="s">
+      <c r="B129" s="115"/>
+      <c r="C129" s="96" t="s">
         <v>132</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -6844,8 +6891,8 @@
       <c r="W129" s="20"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="101"/>
-      <c r="C130" s="106"/>
+      <c r="B130" s="115"/>
+      <c r="C130" s="96"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -6883,8 +6930,8 @@
       <c r="W130" s="20"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="101"/>
-      <c r="C131" s="106"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="96"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -6922,8 +6969,8 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="107"/>
-      <c r="C132" s="117"/>
+      <c r="B132" s="117"/>
+      <c r="C132" s="118"/>
       <c r="D132" s="25" t="s">
         <v>136</v>
       </c>
@@ -6940,7 +6987,7 @@
         <v>0.25</v>
       </c>
       <c r="I132" s="21">
-        <f t="shared" ref="I132:I163" si="4">SUM(J132:W132)</f>
+        <f t="shared" ref="I132:I160" si="4">SUM(J132:W132)</f>
         <v>0</v>
       </c>
       <c r="J132" s="83">
@@ -6961,7 +7008,7 @@
       <c r="W132" s="26"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="103" t="s">
+      <c r="B133" s="100" t="s">
         <v>83</v>
       </c>
       <c r="C133" s="92" t="s">
@@ -7002,7 +7049,7 @@
       <c r="W133" s="57"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="104"/>
+      <c r="B134" s="101"/>
       <c r="C134" s="38" t="s">
         <v>89</v>
       </c>
@@ -7041,7 +7088,7 @@
       <c r="W134" s="20"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="104"/>
+      <c r="B135" s="101"/>
       <c r="C135" s="38" t="s">
         <v>90</v>
       </c>
@@ -7080,7 +7127,7 @@
       <c r="W135" s="20"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="104"/>
+      <c r="B136" s="101"/>
       <c r="C136" s="38" t="s">
         <v>91</v>
       </c>
@@ -7119,7 +7166,7 @@
       <c r="W136" s="20"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="104"/>
+      <c r="B137" s="101"/>
       <c r="C137" s="38" t="s">
         <v>143</v>
       </c>
@@ -7158,7 +7205,7 @@
       <c r="W137" s="20"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="104"/>
+      <c r="B138" s="101"/>
       <c r="C138" s="38" t="s">
         <v>140</v>
       </c>
@@ -7197,7 +7244,7 @@
       <c r="W138" s="20"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="104"/>
+      <c r="B139" s="101"/>
       <c r="C139" s="38" t="s">
         <v>142</v>
       </c>
@@ -7236,7 +7283,7 @@
       <c r="W139" s="20"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="104"/>
+      <c r="B140" s="101"/>
       <c r="C140" s="38" t="s">
         <v>141</v>
       </c>
@@ -7275,7 +7322,7 @@
       <c r="W140" s="20"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="104"/>
+      <c r="B141" s="101"/>
       <c r="C141" s="38" t="s">
         <v>92</v>
       </c>
@@ -7314,7 +7361,7 @@
       <c r="W141" s="20"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="104"/>
+      <c r="B142" s="101"/>
       <c r="C142" s="38" t="s">
         <v>93</v>
       </c>
@@ -7353,7 +7400,7 @@
       <c r="W142" s="20"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="104"/>
+      <c r="B143" s="101"/>
       <c r="C143" s="38" t="s">
         <v>94</v>
       </c>
@@ -7392,7 +7439,7 @@
       <c r="W143" s="20"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="104"/>
+      <c r="B144" s="101"/>
       <c r="C144" s="38" t="s">
         <v>98</v>
       </c>
@@ -7431,7 +7478,7 @@
       <c r="W144" s="20"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="105"/>
+      <c r="B145" s="102"/>
       <c r="C145" s="62" t="s">
         <v>99</v>
       </c>
@@ -7470,7 +7517,7 @@
       <c r="W145" s="26"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="100" t="s">
+      <c r="B146" s="114" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="72" t="s">
@@ -7511,7 +7558,7 @@
       <c r="W146" s="57"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="101"/>
+      <c r="B147" s="115"/>
       <c r="C147" s="71" t="s">
         <v>145</v>
       </c>
@@ -7550,7 +7597,7 @@
       <c r="W147" s="20"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="107"/>
+      <c r="B148" s="117"/>
       <c r="C148" s="73" t="s">
         <v>146</v>
       </c>
@@ -7589,7 +7636,7 @@
       <c r="W148" s="26"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="104" t="s">
+      <c r="B149" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="38" t="s">
@@ -7630,7 +7677,7 @@
       <c r="W149" s="70"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="104"/>
+      <c r="B150" s="101"/>
       <c r="C150" s="38" t="s">
         <v>138</v>
       </c>
@@ -7669,7 +7716,7 @@
       <c r="W150" s="70"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="104"/>
+      <c r="B151" s="101"/>
       <c r="C151" s="38" t="s">
         <v>139</v>
       </c>
@@ -7708,7 +7755,7 @@
       <c r="W151" s="70"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="104"/>
+      <c r="B152" s="101"/>
       <c r="C152" s="38" t="s">
         <v>147</v>
       </c>
@@ -7747,7 +7794,7 @@
       <c r="W152" s="20"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="104"/>
+      <c r="B153" s="101"/>
       <c r="C153" s="35" t="s">
         <v>84</v>
       </c>
@@ -7786,7 +7833,7 @@
       <c r="W153" s="20"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="104"/>
+      <c r="B154" s="101"/>
       <c r="C154" s="35" t="s">
         <v>85</v>
       </c>
@@ -7825,7 +7872,7 @@
       <c r="W154" s="20"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="104"/>
+      <c r="B155" s="101"/>
       <c r="C155" s="39" t="s">
         <v>87</v>
       </c>
@@ -7864,7 +7911,7 @@
       <c r="W155" s="29"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="104"/>
+      <c r="B156" s="101"/>
       <c r="C156" s="35" t="s">
         <v>86</v>
       </c>
@@ -7903,7 +7950,7 @@
       <c r="W156" s="29"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="104"/>
+      <c r="B157" s="101"/>
       <c r="C157" s="41" t="s">
         <v>104</v>
       </c>
@@ -7942,7 +7989,7 @@
       <c r="W157" s="29"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="104"/>
+      <c r="B158" s="101"/>
       <c r="C158" s="41" t="s">
         <v>137</v>
       </c>
@@ -7981,7 +8028,7 @@
       <c r="W158" s="29"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="104"/>
+      <c r="B159" s="101"/>
       <c r="C159" s="41" t="s">
         <v>105</v>
       </c>
@@ -8020,7 +8067,7 @@
       <c r="W159" s="29"/>
     </row>
     <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="105"/>
+      <c r="B160" s="102"/>
       <c r="C160" s="62" t="s">
         <v>100</v>
       </c>
@@ -8059,21 +8106,21 @@
       <c r="W160" s="26"/>
     </row>
     <row r="161" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="95" t="s">
+      <c r="B161" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="98"/>
-      <c r="D161" s="96"/>
-      <c r="E161" s="96"/>
-      <c r="F161" s="96"/>
-      <c r="G161" s="99"/>
+      <c r="C161" s="112"/>
+      <c r="D161" s="111"/>
+      <c r="E161" s="111"/>
+      <c r="F161" s="111"/>
+      <c r="G161" s="113"/>
       <c r="H161" s="40">
         <f>SUM(H4:H160)</f>
         <v>89.199999999999989</v>
       </c>
       <c r="I161" s="24">
         <f>SUM(I4:I160)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J161" s="24">
         <f>SUM(J4:J160)</f>
@@ -8081,7 +8128,7 @@
       </c>
       <c r="K161" s="24">
         <f t="shared" ref="K161:W161" si="5">SUM(K4:K160)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L161" s="24">
         <f t="shared" si="5"/>
@@ -8144,19 +8191,19 @@
       <c r="J162" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="K162" s="108"/>
-      <c r="L162" s="108"/>
-      <c r="M162" s="108"/>
-      <c r="N162" s="108"/>
-      <c r="O162" s="108"/>
-      <c r="P162" s="108"/>
-      <c r="Q162" s="108"/>
-      <c r="R162" s="108"/>
-      <c r="S162" s="108"/>
-      <c r="T162" s="108"/>
-      <c r="U162" s="108"/>
-      <c r="V162" s="108"/>
-      <c r="W162" s="109"/>
+      <c r="K162" s="98"/>
+      <c r="L162" s="98"/>
+      <c r="M162" s="98"/>
+      <c r="N162" s="98"/>
+      <c r="O162" s="98"/>
+      <c r="P162" s="98"/>
+      <c r="Q162" s="98"/>
+      <c r="R162" s="98"/>
+      <c r="S162" s="98"/>
+      <c r="T162" s="98"/>
+      <c r="U162" s="98"/>
+      <c r="V162" s="98"/>
+      <c r="W162" s="99"/>
     </row>
     <row r="163" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
@@ -8180,29 +8227,29 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="95" t="s">
+      <c r="H164" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="96"/>
+      <c r="I164" s="111"/>
       <c r="J164" s="10">
         <f>H161-J161</f>
         <v>89.199999999999989</v>
       </c>
       <c r="K164" s="10">
         <f>J164-K161</f>
-        <v>89.199999999999989</v>
+        <v>89.149999999999991</v>
       </c>
       <c r="L164" s="10">
         <f>K164-L161</f>
-        <v>89.199999999999989</v>
+        <v>89.149999999999991</v>
       </c>
       <c r="M164" s="10">
         <f>L164-M161</f>
-        <v>89.199999999999989</v>
+        <v>89.149999999999991</v>
       </c>
       <c r="N164" s="11">
         <f>M164-N161</f>
-        <v>89.199999999999989</v>
+        <v>89.149999999999991</v>
       </c>
     </row>
     <row r="165" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8229,15 +8276,15 @@
       <c r="H166" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="98"/>
-      <c r="J166" s="96">
+      <c r="I166" s="112"/>
+      <c r="J166" s="111">
         <f>H161-I161</f>
-        <v>89.199999999999989</v>
-      </c>
-      <c r="K166" s="96"/>
-      <c r="L166" s="96"/>
-      <c r="M166" s="96"/>
-      <c r="N166" s="99"/>
+        <v>89.149999999999991</v>
+      </c>
+      <c r="K166" s="111"/>
+      <c r="L166" s="111"/>
+      <c r="M166" s="111"/>
+      <c r="N166" s="113"/>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
@@ -8341,23 +8388,6 @@
     <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C16:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="J166:N166"/>
@@ -8374,6 +8404,23 @@
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="C81:C84"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C16:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C117:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1001,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,85 +1245,88 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,16 +1388,16 @@
                   <c:v>89.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.149999999999991</c:v>
+                  <c:v>88.266699999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.149999999999991</c:v>
+                  <c:v>88.266699999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.149999999999991</c:v>
+                  <c:v>88.266699999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.149999999999991</c:v>
+                  <c:v>88.266699999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1410,11 +1413,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1258213216"/>
-        <c:axId val="-1258201792"/>
+        <c:axId val="-1291761776"/>
+        <c:axId val="-1291761232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1258213216"/>
+        <c:axId val="-1291761776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1258201792"/>
+        <c:crossAx val="-1291761232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1431,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1258201792"/>
+        <c:axId val="-1291761232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1258213216"/>
+        <c:crossAx val="-1291761776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1815,22 +1818,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="99"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="112"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="64" t="s">
@@ -1901,7 +1904,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="106" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -1942,7 +1945,7 @@
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="101"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
@@ -1981,7 +1984,7 @@
       <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="101"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
@@ -2020,7 +2023,7 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="37" t="s">
         <v>103</v>
       </c>
@@ -2059,7 +2062,7 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="102"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="50" t="s">
         <v>112</v>
       </c>
@@ -2098,7 +2101,7 @@
       <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="106" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -2139,7 +2142,7 @@
       <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
@@ -2178,7 +2181,7 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="101"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="58" t="s">
         <v>113</v>
       </c>
@@ -2217,7 +2220,7 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="101"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="58" t="s">
         <v>114</v>
       </c>
@@ -2241,48 +2244,48 @@
       <c r="J12" s="82">
         <v>0</v>
       </c>
-      <c r="K12" s="120">
+      <c r="K12" s="96">
         <v>0.05</v>
       </c>
-      <c r="L12" s="120">
-        <v>0</v>
-      </c>
-      <c r="M12" s="120">
-        <v>0</v>
-      </c>
-      <c r="N12" s="120">
-        <v>0</v>
-      </c>
-      <c r="O12" s="120">
-        <v>0</v>
-      </c>
-      <c r="P12" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="120">
-        <v>0</v>
-      </c>
-      <c r="R12" s="120">
-        <v>0</v>
-      </c>
-      <c r="S12" s="120">
-        <v>0</v>
-      </c>
-      <c r="T12" s="120">
-        <v>0</v>
-      </c>
-      <c r="U12" s="120">
-        <v>0</v>
-      </c>
-      <c r="V12" s="120">
-        <v>0</v>
-      </c>
-      <c r="W12" s="121">
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="96">
+        <v>0</v>
+      </c>
+      <c r="N12" s="96">
+        <v>0</v>
+      </c>
+      <c r="O12" s="96">
+        <v>0</v>
+      </c>
+      <c r="P12" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="96">
+        <v>0</v>
+      </c>
+      <c r="R12" s="96">
+        <v>0</v>
+      </c>
+      <c r="S12" s="96">
+        <v>0</v>
+      </c>
+      <c r="T12" s="96">
+        <v>0</v>
+      </c>
+      <c r="U12" s="96">
+        <v>0</v>
+      </c>
+      <c r="V12" s="96">
+        <v>0</v>
+      </c>
+      <c r="W12" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="101"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="58" t="s">
         <v>108</v>
       </c>
@@ -2306,7 +2309,7 @@
       <c r="J13" s="82">
         <v>0</v>
       </c>
-      <c r="K13" s="119"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2321,7 +2324,7 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="102"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="59" t="s">
         <v>97</v>
       </c>
@@ -2360,7 +2363,7 @@
       <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="60" t="s">
@@ -2383,12 +2386,14 @@
       </c>
       <c r="I15" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.88329999999999997</v>
       </c>
       <c r="J15" s="81">
         <v>0</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="122">
+        <v>0.88329999999999997</v>
+      </c>
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="44"/>
@@ -2403,8 +2408,8 @@
       <c r="W15" s="57"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="115"/>
-      <c r="C16" s="105" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="116" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2444,8 +2449,8 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="115"/>
-      <c r="C17" s="106"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2483,8 +2488,8 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="115"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2522,8 +2527,8 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="115"/>
-      <c r="C19" s="106"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2561,8 +2566,8 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="115"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2600,8 +2605,8 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="115"/>
-      <c r="C21" s="106"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2639,8 +2644,8 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="115"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
@@ -2678,8 +2683,8 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="115"/>
-      <c r="C23" s="106"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
@@ -2717,8 +2722,8 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="115"/>
-      <c r="C24" s="106"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
@@ -2756,8 +2761,8 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="115"/>
-      <c r="C25" s="106"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
@@ -2795,8 +2800,8 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="115"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
@@ -2834,8 +2839,8 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="115"/>
-      <c r="C27" s="106"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="34" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2878,8 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="115"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="34" t="s">
         <v>42</v>
       </c>
@@ -2912,8 +2917,8 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="115"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
@@ -2951,8 +2956,8 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="115"/>
-      <c r="C30" s="106"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
@@ -2990,8 +2995,8 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="115"/>
-      <c r="C31" s="106"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
@@ -3029,8 +3034,8 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="115"/>
-      <c r="C32" s="106"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
@@ -3068,8 +3073,8 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="115"/>
-      <c r="C33" s="106"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
@@ -3107,8 +3112,8 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="115"/>
-      <c r="C34" s="106"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="34" t="s">
         <v>48</v>
       </c>
@@ -3146,8 +3151,8 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="115"/>
-      <c r="C35" s="106"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="34" t="s">
         <v>49</v>
       </c>
@@ -3185,8 +3190,8 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="115"/>
-      <c r="C36" s="106"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
@@ -3224,8 +3229,8 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="115"/>
-      <c r="C37" s="106"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="117"/>
       <c r="D37" s="34" t="s">
         <v>51</v>
       </c>
@@ -3263,8 +3268,8 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="115"/>
-      <c r="C38" s="106"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
@@ -3302,8 +3307,8 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="115"/>
-      <c r="C39" s="106"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="34" t="s">
         <v>53</v>
       </c>
@@ -3341,8 +3346,8 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="115"/>
-      <c r="C40" s="106"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="117"/>
       <c r="D40" s="34" t="s">
         <v>54</v>
       </c>
@@ -3380,8 +3385,8 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="115"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="117"/>
       <c r="D41" s="34" t="s">
         <v>55</v>
       </c>
@@ -3419,8 +3424,8 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="115"/>
-      <c r="C42" s="106"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="117"/>
       <c r="D42" s="34" t="s">
         <v>56</v>
       </c>
@@ -3458,8 +3463,8 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="115"/>
-      <c r="C43" s="106"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="117"/>
       <c r="D43" s="34" t="s">
         <v>57</v>
       </c>
@@ -3497,8 +3502,8 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="115"/>
-      <c r="C44" s="106"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="117"/>
       <c r="D44" s="34" t="s">
         <v>58</v>
       </c>
@@ -3536,8 +3541,8 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="115"/>
-      <c r="C45" s="106"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="117"/>
       <c r="D45" s="34" t="s">
         <v>59</v>
       </c>
@@ -3575,8 +3580,8 @@
       <c r="W45" s="20"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="115"/>
-      <c r="C46" s="106"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="117"/>
       <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3619,8 @@
       <c r="W46" s="20"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="115"/>
-      <c r="C47" s="106"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="117"/>
       <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
@@ -3653,8 +3658,8 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="115"/>
-      <c r="C48" s="106"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
@@ -3692,8 +3697,8 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="115"/>
-      <c r="C49" s="106"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="117"/>
       <c r="D49" s="34" t="s">
         <v>63</v>
       </c>
@@ -3731,8 +3736,8 @@
       <c r="W49" s="20"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="115"/>
-      <c r="C50" s="106"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="117"/>
       <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
@@ -3770,8 +3775,8 @@
       <c r="W50" s="20"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="115"/>
-      <c r="C51" s="106"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="34" t="s">
         <v>65</v>
       </c>
@@ -3809,8 +3814,8 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="115"/>
-      <c r="C52" s="106"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="117"/>
       <c r="D52" s="34" t="s">
         <v>66</v>
       </c>
@@ -3848,8 +3853,8 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="115"/>
-      <c r="C53" s="106"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="117"/>
       <c r="D53" s="34" t="s">
         <v>67</v>
       </c>
@@ -3887,8 +3892,8 @@
       <c r="W53" s="20"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="115"/>
-      <c r="C54" s="106"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="117"/>
       <c r="D54" s="34" t="s">
         <v>68</v>
       </c>
@@ -3926,8 +3931,8 @@
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="115"/>
-      <c r="C55" s="107"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="34" t="s">
         <v>69</v>
       </c>
@@ -3965,8 +3970,8 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="115"/>
-      <c r="C56" s="103" t="s">
+      <c r="B56" s="104"/>
+      <c r="C56" s="114" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="31" t="s">
@@ -4006,8 +4011,8 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="115"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
@@ -4045,8 +4050,8 @@
       <c r="W57" s="20"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="115"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
@@ -4084,8 +4089,8 @@
       <c r="W58" s="20"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="115"/>
-      <c r="C59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
@@ -4123,8 +4128,8 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="115"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
@@ -4162,8 +4167,8 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="115"/>
-      <c r="C61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="115"/>
       <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
@@ -4201,8 +4206,8 @@
       <c r="W61" s="20"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="116"/>
-      <c r="C62" s="104"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="115"/>
       <c r="D62" s="74" t="s">
         <v>33</v>
       </c>
@@ -4240,10 +4245,10 @@
       <c r="W62" s="29"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="100" t="s">
+      <c r="B63" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="119" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -4283,8 +4288,8 @@
       <c r="W63" s="57"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="101"/>
-      <c r="C64" s="106"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="117"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4322,8 +4327,8 @@
       <c r="W64" s="20"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="101"/>
-      <c r="C65" s="106"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="117"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4361,8 +4366,8 @@
       <c r="W65" s="20"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="101"/>
-      <c r="C66" s="107"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="31" t="s">
         <v>76</v>
       </c>
@@ -4400,7 +4405,7 @@
       <c r="W66" s="20"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="101"/>
+      <c r="B67" s="107"/>
       <c r="C67" s="35" t="s">
         <v>73</v>
       </c>
@@ -4439,7 +4444,7 @@
       <c r="W67" s="20"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="101"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="61" t="s">
         <v>81</v>
       </c>
@@ -4478,8 +4483,8 @@
       <c r="W68" s="20"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="101"/>
-      <c r="C69" s="105" t="s">
+      <c r="B69" s="107"/>
+      <c r="C69" s="116" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4519,8 +4524,8 @@
       <c r="W69" s="20"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="101"/>
-      <c r="C70" s="106"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="117"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4558,8 +4563,8 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="101"/>
-      <c r="C71" s="106"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="117"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4597,8 +4602,8 @@
       <c r="W71" s="20"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="102"/>
-      <c r="C72" s="109"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="120"/>
       <c r="D72" s="25" t="s">
         <v>78</v>
       </c>
@@ -4636,10 +4641,10 @@
       <c r="W72" s="26"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="114" t="s">
+      <c r="B73" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="95" t="s">
+      <c r="C73" s="121" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -4679,8 +4684,8 @@
       <c r="W73" s="57"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="115"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
@@ -4718,8 +4723,8 @@
       <c r="W74" s="20"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="115"/>
-      <c r="C75" s="96"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="4" t="s">
         <v>135</v>
       </c>
@@ -4757,8 +4762,8 @@
       <c r="W75" s="20"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="115"/>
-      <c r="C76" s="96"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="4" t="s">
         <v>136</v>
       </c>
@@ -4796,8 +4801,8 @@
       <c r="W76" s="20"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="115"/>
-      <c r="C77" s="96" t="s">
+      <c r="B77" s="104"/>
+      <c r="C77" s="109" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4837,8 +4842,8 @@
       <c r="W77" s="20"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="115"/>
-      <c r="C78" s="96"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="109"/>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
@@ -4876,8 +4881,8 @@
       <c r="W78" s="20"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="115"/>
-      <c r="C79" s="96"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="109"/>
       <c r="D79" s="4" t="s">
         <v>135</v>
       </c>
@@ -4915,8 +4920,8 @@
       <c r="W79" s="20"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="115"/>
-      <c r="C80" s="96"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
@@ -4954,8 +4959,8 @@
       <c r="W80" s="20"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="115"/>
-      <c r="C81" s="96" t="s">
+      <c r="B81" s="104"/>
+      <c r="C81" s="109" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -4995,8 +5000,8 @@
       <c r="W81" s="20"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="115"/>
-      <c r="C82" s="96"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
@@ -5034,8 +5039,8 @@
       <c r="W82" s="20"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="115"/>
-      <c r="C83" s="96"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="4" t="s">
         <v>135</v>
       </c>
@@ -5073,8 +5078,8 @@
       <c r="W83" s="20"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="115"/>
-      <c r="C84" s="96"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="109"/>
       <c r="D84" s="4" t="s">
         <v>136</v>
       </c>
@@ -5112,8 +5117,8 @@
       <c r="W84" s="20"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="115"/>
-      <c r="C85" s="96" t="s">
+      <c r="B85" s="104"/>
+      <c r="C85" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -5153,8 +5158,8 @@
       <c r="W85" s="20"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="115"/>
-      <c r="C86" s="96"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="109"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
@@ -5192,8 +5197,8 @@
       <c r="W86" s="20"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="115"/>
-      <c r="C87" s="96"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="109"/>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
@@ -5231,8 +5236,8 @@
       <c r="W87" s="20"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="115"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="109"/>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
@@ -5270,8 +5275,8 @@
       <c r="W88" s="20"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="115"/>
-      <c r="C89" s="96" t="s">
+      <c r="B89" s="104"/>
+      <c r="C89" s="109" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -5311,8 +5316,8 @@
       <c r="W89" s="20"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="115"/>
-      <c r="C90" s="96"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="109"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5350,8 +5355,8 @@
       <c r="W90" s="20"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="115"/>
-      <c r="C91" s="96"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="109"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5389,8 +5394,8 @@
       <c r="W91" s="20"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="115"/>
-      <c r="C92" s="96"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="109"/>
       <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
@@ -5428,8 +5433,8 @@
       <c r="W92" s="20"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="115"/>
-      <c r="C93" s="96" t="s">
+      <c r="B93" s="104"/>
+      <c r="C93" s="109" t="s">
         <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5469,8 +5474,8 @@
       <c r="W93" s="20"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="115"/>
-      <c r="C94" s="96"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="109"/>
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
@@ -5508,8 +5513,8 @@
       <c r="W94" s="20"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="115"/>
-      <c r="C95" s="96"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="109"/>
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
@@ -5547,8 +5552,8 @@
       <c r="W95" s="20"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="115"/>
-      <c r="C96" s="96"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="109"/>
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
@@ -5586,8 +5591,8 @@
       <c r="W96" s="20"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="115"/>
-      <c r="C97" s="96" t="s">
+      <c r="B97" s="104"/>
+      <c r="C97" s="109" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5627,8 +5632,8 @@
       <c r="W97" s="20"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="115"/>
-      <c r="C98" s="96"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="109"/>
       <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
@@ -5666,8 +5671,8 @@
       <c r="W98" s="20"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="115"/>
-      <c r="C99" s="96"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="4" t="s">
         <v>135</v>
       </c>
@@ -5705,8 +5710,8 @@
       <c r="W99" s="20"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="115"/>
-      <c r="C100" s="96"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="109"/>
       <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
@@ -5744,8 +5749,8 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="115"/>
-      <c r="C101" s="96" t="s">
+      <c r="B101" s="104"/>
+      <c r="C101" s="109" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5785,8 +5790,8 @@
       <c r="W101" s="20"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="115"/>
-      <c r="C102" s="96"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
@@ -5824,8 +5829,8 @@
       <c r="W102" s="20"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="115"/>
-      <c r="C103" s="96"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="4" t="s">
         <v>135</v>
       </c>
@@ -5863,8 +5868,8 @@
       <c r="W103" s="20"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="115"/>
-      <c r="C104" s="96"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
@@ -5902,8 +5907,8 @@
       <c r="W104" s="20"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="115"/>
-      <c r="C105" s="96" t="s">
+      <c r="B105" s="104"/>
+      <c r="C105" s="109" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5943,8 +5948,8 @@
       <c r="W105" s="20"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="115"/>
-      <c r="C106" s="96"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="109"/>
       <c r="D106" s="4" t="s">
         <v>134</v>
       </c>
@@ -5982,8 +5987,8 @@
       <c r="W106" s="20"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="115"/>
-      <c r="C107" s="96"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="109"/>
       <c r="D107" s="4" t="s">
         <v>135</v>
       </c>
@@ -6021,8 +6026,8 @@
       <c r="W107" s="20"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="115"/>
-      <c r="C108" s="96"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="109"/>
       <c r="D108" s="4" t="s">
         <v>136</v>
       </c>
@@ -6060,8 +6065,8 @@
       <c r="W108" s="20"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="115"/>
-      <c r="C109" s="96" t="s">
+      <c r="B109" s="104"/>
+      <c r="C109" s="109" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -6101,8 +6106,8 @@
       <c r="W109" s="20"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="115"/>
-      <c r="C110" s="96"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6140,8 +6145,8 @@
       <c r="W110" s="20"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="115"/>
-      <c r="C111" s="96"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="109"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6179,8 +6184,8 @@
       <c r="W111" s="20"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="115"/>
-      <c r="C112" s="96"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="109"/>
       <c r="D112" s="4" t="s">
         <v>136</v>
       </c>
@@ -6218,8 +6223,8 @@
       <c r="W112" s="20"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="115"/>
-      <c r="C113" s="96" t="s">
+      <c r="B113" s="104"/>
+      <c r="C113" s="109" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6259,8 +6264,8 @@
       <c r="W113" s="20"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="115"/>
-      <c r="C114" s="96"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="109"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
@@ -6298,8 +6303,8 @@
       <c r="W114" s="20"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="115"/>
-      <c r="C115" s="96"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="109"/>
       <c r="D115" s="4" t="s">
         <v>135</v>
       </c>
@@ -6337,8 +6342,8 @@
       <c r="W115" s="20"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="115"/>
-      <c r="C116" s="96"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="109"/>
       <c r="D116" s="4" t="s">
         <v>136</v>
       </c>
@@ -6376,8 +6381,8 @@
       <c r="W116" s="20"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="115"/>
-      <c r="C117" s="96" t="s">
+      <c r="B117" s="104"/>
+      <c r="C117" s="109" t="s">
         <v>129</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6417,8 +6422,8 @@
       <c r="W117" s="20"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="115"/>
-      <c r="C118" s="96"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="109"/>
       <c r="D118" s="4" t="s">
         <v>134</v>
       </c>
@@ -6456,8 +6461,8 @@
       <c r="W118" s="20"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="115"/>
-      <c r="C119" s="96"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="109"/>
       <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
@@ -6495,8 +6500,8 @@
       <c r="W119" s="20"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="115"/>
-      <c r="C120" s="96"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="109"/>
       <c r="D120" s="4" t="s">
         <v>136</v>
       </c>
@@ -6534,8 +6539,8 @@
       <c r="W120" s="20"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="115"/>
-      <c r="C121" s="96" t="s">
+      <c r="B121" s="104"/>
+      <c r="C121" s="109" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6575,8 +6580,8 @@
       <c r="W121" s="20"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="115"/>
-      <c r="C122" s="96"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="109"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
@@ -6614,8 +6619,8 @@
       <c r="W122" s="20"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="115"/>
-      <c r="C123" s="96"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="109"/>
       <c r="D123" s="4" t="s">
         <v>135</v>
       </c>
@@ -6653,8 +6658,8 @@
       <c r="W123" s="20"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="115"/>
-      <c r="C124" s="96"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="109"/>
       <c r="D124" s="4" t="s">
         <v>136</v>
       </c>
@@ -6692,8 +6697,8 @@
       <c r="W124" s="20"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="115"/>
-      <c r="C125" s="96" t="s">
+      <c r="B125" s="104"/>
+      <c r="C125" s="109" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -6733,8 +6738,8 @@
       <c r="W125" s="20"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="115"/>
-      <c r="C126" s="96"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="109"/>
       <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
@@ -6772,8 +6777,8 @@
       <c r="W126" s="20"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="115"/>
-      <c r="C127" s="96"/>
+      <c r="B127" s="104"/>
+      <c r="C127" s="109"/>
       <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
@@ -6811,8 +6816,8 @@
       <c r="W127" s="20"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="115"/>
-      <c r="C128" s="96"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="109"/>
       <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
@@ -6850,8 +6855,8 @@
       <c r="W128" s="20"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="115"/>
-      <c r="C129" s="96" t="s">
+      <c r="B129" s="104"/>
+      <c r="C129" s="109" t="s">
         <v>132</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -6891,8 +6896,8 @@
       <c r="W129" s="20"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="115"/>
-      <c r="C130" s="96"/>
+      <c r="B130" s="104"/>
+      <c r="C130" s="109"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -6930,8 +6935,8 @@
       <c r="W130" s="20"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="115"/>
-      <c r="C131" s="96"/>
+      <c r="B131" s="104"/>
+      <c r="C131" s="109"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -6969,8 +6974,8 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="117"/>
-      <c r="C132" s="118"/>
+      <c r="B132" s="110"/>
+      <c r="C132" s="113"/>
       <c r="D132" s="25" t="s">
         <v>136</v>
       </c>
@@ -7008,7 +7013,7 @@
       <c r="W132" s="26"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="100" t="s">
+      <c r="B133" s="106" t="s">
         <v>83</v>
       </c>
       <c r="C133" s="92" t="s">
@@ -7049,7 +7054,7 @@
       <c r="W133" s="57"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="101"/>
+      <c r="B134" s="107"/>
       <c r="C134" s="38" t="s">
         <v>89</v>
       </c>
@@ -7088,7 +7093,7 @@
       <c r="W134" s="20"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="101"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="38" t="s">
         <v>90</v>
       </c>
@@ -7127,7 +7132,7 @@
       <c r="W135" s="20"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="101"/>
+      <c r="B136" s="107"/>
       <c r="C136" s="38" t="s">
         <v>91</v>
       </c>
@@ -7166,7 +7171,7 @@
       <c r="W136" s="20"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="101"/>
+      <c r="B137" s="107"/>
       <c r="C137" s="38" t="s">
         <v>143</v>
       </c>
@@ -7205,7 +7210,7 @@
       <c r="W137" s="20"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="101"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="38" t="s">
         <v>140</v>
       </c>
@@ -7244,7 +7249,7 @@
       <c r="W138" s="20"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="101"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="38" t="s">
         <v>142</v>
       </c>
@@ -7283,7 +7288,7 @@
       <c r="W139" s="20"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="101"/>
+      <c r="B140" s="107"/>
       <c r="C140" s="38" t="s">
         <v>141</v>
       </c>
@@ -7322,7 +7327,7 @@
       <c r="W140" s="20"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="101"/>
+      <c r="B141" s="107"/>
       <c r="C141" s="38" t="s">
         <v>92</v>
       </c>
@@ -7361,7 +7366,7 @@
       <c r="W141" s="20"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="101"/>
+      <c r="B142" s="107"/>
       <c r="C142" s="38" t="s">
         <v>93</v>
       </c>
@@ -7400,7 +7405,7 @@
       <c r="W142" s="20"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="101"/>
+      <c r="B143" s="107"/>
       <c r="C143" s="38" t="s">
         <v>94</v>
       </c>
@@ -7439,7 +7444,7 @@
       <c r="W143" s="20"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="101"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="38" t="s">
         <v>98</v>
       </c>
@@ -7478,7 +7483,7 @@
       <c r="W144" s="20"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="102"/>
+      <c r="B145" s="108"/>
       <c r="C145" s="62" t="s">
         <v>99</v>
       </c>
@@ -7517,7 +7522,7 @@
       <c r="W145" s="26"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="114" t="s">
+      <c r="B146" s="103" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="72" t="s">
@@ -7558,7 +7563,7 @@
       <c r="W146" s="57"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="115"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="71" t="s">
         <v>145</v>
       </c>
@@ -7597,7 +7602,7 @@
       <c r="W147" s="20"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="117"/>
+      <c r="B148" s="110"/>
       <c r="C148" s="73" t="s">
         <v>146</v>
       </c>
@@ -7636,7 +7641,7 @@
       <c r="W148" s="26"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="101" t="s">
+      <c r="B149" s="107" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="38" t="s">
@@ -7677,7 +7682,7 @@
       <c r="W149" s="70"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="101"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="38" t="s">
         <v>138</v>
       </c>
@@ -7716,7 +7721,7 @@
       <c r="W150" s="70"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="101"/>
+      <c r="B151" s="107"/>
       <c r="C151" s="38" t="s">
         <v>139</v>
       </c>
@@ -7755,7 +7760,7 @@
       <c r="W151" s="70"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="101"/>
+      <c r="B152" s="107"/>
       <c r="C152" s="38" t="s">
         <v>147</v>
       </c>
@@ -7794,7 +7799,7 @@
       <c r="W152" s="20"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="101"/>
+      <c r="B153" s="107"/>
       <c r="C153" s="35" t="s">
         <v>84</v>
       </c>
@@ -7833,7 +7838,7 @@
       <c r="W153" s="20"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="101"/>
+      <c r="B154" s="107"/>
       <c r="C154" s="35" t="s">
         <v>85</v>
       </c>
@@ -7872,7 +7877,7 @@
       <c r="W154" s="20"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="101"/>
+      <c r="B155" s="107"/>
       <c r="C155" s="39" t="s">
         <v>87</v>
       </c>
@@ -7911,7 +7916,7 @@
       <c r="W155" s="29"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="101"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="35" t="s">
         <v>86</v>
       </c>
@@ -7950,7 +7955,7 @@
       <c r="W156" s="29"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="101"/>
+      <c r="B157" s="107"/>
       <c r="C157" s="41" t="s">
         <v>104</v>
       </c>
@@ -7989,7 +7994,7 @@
       <c r="W157" s="29"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="101"/>
+      <c r="B158" s="107"/>
       <c r="C158" s="41" t="s">
         <v>137</v>
       </c>
@@ -8028,7 +8033,7 @@
       <c r="W158" s="29"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="101"/>
+      <c r="B159" s="107"/>
       <c r="C159" s="41" t="s">
         <v>105</v>
       </c>
@@ -8067,7 +8072,7 @@
       <c r="W159" s="29"/>
     </row>
     <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="102"/>
+      <c r="B160" s="108"/>
       <c r="C160" s="62" t="s">
         <v>100</v>
       </c>
@@ -8106,21 +8111,21 @@
       <c r="W160" s="26"/>
     </row>
     <row r="161" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="110" t="s">
+      <c r="B161" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="112"/>
-      <c r="D161" s="111"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="111"/>
-      <c r="G161" s="113"/>
+      <c r="C161" s="101"/>
+      <c r="D161" s="99"/>
+      <c r="E161" s="99"/>
+      <c r="F161" s="99"/>
+      <c r="G161" s="102"/>
       <c r="H161" s="40">
         <f>SUM(H4:H160)</f>
         <v>89.199999999999989</v>
       </c>
       <c r="I161" s="24">
         <f>SUM(I4:I160)</f>
-        <v>0.05</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="J161" s="24">
         <f>SUM(J4:J160)</f>
@@ -8128,7 +8133,7 @@
       </c>
       <c r="K161" s="24">
         <f t="shared" ref="K161:W161" si="5">SUM(K4:K160)</f>
-        <v>0.05</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="L161" s="24">
         <f t="shared" si="5"/>
@@ -8188,22 +8193,22 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="97" t="s">
+      <c r="J162" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K162" s="98"/>
-      <c r="L162" s="98"/>
-      <c r="M162" s="98"/>
-      <c r="N162" s="98"/>
-      <c r="O162" s="98"/>
-      <c r="P162" s="98"/>
-      <c r="Q162" s="98"/>
-      <c r="R162" s="98"/>
-      <c r="S162" s="98"/>
-      <c r="T162" s="98"/>
-      <c r="U162" s="98"/>
-      <c r="V162" s="98"/>
-      <c r="W162" s="99"/>
+      <c r="K162" s="111"/>
+      <c r="L162" s="111"/>
+      <c r="M162" s="111"/>
+      <c r="N162" s="111"/>
+      <c r="O162" s="111"/>
+      <c r="P162" s="111"/>
+      <c r="Q162" s="111"/>
+      <c r="R162" s="111"/>
+      <c r="S162" s="111"/>
+      <c r="T162" s="111"/>
+      <c r="U162" s="111"/>
+      <c r="V162" s="111"/>
+      <c r="W162" s="112"/>
     </row>
     <row r="163" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
@@ -8227,29 +8232,29 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="110" t="s">
+      <c r="H164" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="111"/>
+      <c r="I164" s="99"/>
       <c r="J164" s="10">
         <f>H161-J161</f>
         <v>89.199999999999989</v>
       </c>
       <c r="K164" s="10">
         <f>J164-K161</f>
-        <v>89.149999999999991</v>
+        <v>88.266699999999986</v>
       </c>
       <c r="L164" s="10">
         <f>K164-L161</f>
-        <v>89.149999999999991</v>
+        <v>88.266699999999986</v>
       </c>
       <c r="M164" s="10">
         <f>L164-M161</f>
-        <v>89.149999999999991</v>
+        <v>88.266699999999986</v>
       </c>
       <c r="N164" s="11">
         <f>M164-N161</f>
-        <v>89.149999999999991</v>
+        <v>88.266699999999986</v>
       </c>
     </row>
     <row r="165" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8273,18 +8278,18 @@
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="H166" s="97" t="s">
+      <c r="H166" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="112"/>
-      <c r="J166" s="111">
+      <c r="I166" s="101"/>
+      <c r="J166" s="99">
         <f>H161-I161</f>
-        <v>89.149999999999991</v>
-      </c>
-      <c r="K166" s="111"/>
-      <c r="L166" s="111"/>
-      <c r="M166" s="111"/>
-      <c r="N166" s="113"/>
+        <v>88.266699999999986</v>
+      </c>
+      <c r="K166" s="99"/>
+      <c r="L166" s="99"/>
+      <c r="M166" s="99"/>
+      <c r="N166" s="102"/>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
@@ -8388,6 +8393,23 @@
     <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C16:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="J166:N166"/>
@@ -8404,23 +8426,6 @@
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="C81:C84"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C16:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C117:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1254,15 +1254,60 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,55 +1323,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,16 +1388,16 @@
                   <c:v>89.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.266699999999986</c:v>
+                  <c:v>87.766699999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.266699999999986</c:v>
+                  <c:v>87.766699999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.266699999999986</c:v>
+                  <c:v>87.766699999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.266699999999986</c:v>
+                  <c:v>87.766699999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,11 +1413,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1291761776"/>
-        <c:axId val="-1291761232"/>
+        <c:axId val="1036224592"/>
+        <c:axId val="1036214800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1291761776"/>
+        <c:axId val="1036224592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1291761232"/>
+        <c:crossAx val="1036214800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1291761232"/>
+        <c:axId val="1036214800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1291761776"/>
+        <c:crossAx val="1036224592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1818,22 +1818,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="112"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="64" t="s">
@@ -1904,7 +1904,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -1945,7 +1945,7 @@
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="107"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="37" t="s">
         <v>103</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="108"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="50" t="s">
         <v>112</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="104" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -2142,7 +2142,7 @@
       <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="107"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="58" t="s">
         <v>113</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="107"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="58" t="s">
         <v>114</v>
       </c>
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="107"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="58" t="s">
         <v>108</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="108"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="59" t="s">
         <v>97</v>
       </c>
@@ -2343,12 +2343,14 @@
       </c>
       <c r="I14" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="83">
         <v>0</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="25">
+        <v>0.5</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -2363,7 +2365,7 @@
       <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="118" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="60" t="s">
@@ -2391,7 +2393,7 @@
       <c r="J15" s="81">
         <v>0</v>
       </c>
-      <c r="K15" s="122">
+      <c r="K15" s="98">
         <v>0.88329999999999997</v>
       </c>
       <c r="L15" s="55"/>
@@ -2408,8 +2410,8 @@
       <c r="W15" s="57"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="104"/>
-      <c r="C16" s="116" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="109" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2449,8 +2451,8 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="104"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2488,8 +2490,8 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="117"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2527,8 +2529,8 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="104"/>
-      <c r="C19" s="117"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2566,8 +2568,8 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="104"/>
-      <c r="C20" s="117"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2605,8 +2607,8 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="104"/>
-      <c r="C21" s="117"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2644,8 +2646,8 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="104"/>
-      <c r="C22" s="117"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
@@ -2683,8 +2685,8 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
-      <c r="C23" s="117"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2724,8 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
-      <c r="C24" s="117"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
@@ -2761,8 +2763,8 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="104"/>
-      <c r="C25" s="117"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
@@ -2800,8 +2802,8 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="104"/>
-      <c r="C26" s="117"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
@@ -2839,8 +2841,8 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="104"/>
-      <c r="C27" s="117"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="34" t="s">
         <v>41</v>
       </c>
@@ -2878,8 +2880,8 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="104"/>
-      <c r="C28" s="117"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="34" t="s">
         <v>42</v>
       </c>
@@ -2917,8 +2919,8 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="104"/>
-      <c r="C29" s="117"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
@@ -2956,8 +2958,8 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="104"/>
-      <c r="C30" s="117"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
@@ -2995,8 +2997,8 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="104"/>
-      <c r="C31" s="117"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
@@ -3034,8 +3036,8 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="104"/>
-      <c r="C32" s="117"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
@@ -3073,8 +3075,8 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="104"/>
-      <c r="C33" s="117"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
@@ -3112,8 +3114,8 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="104"/>
-      <c r="C34" s="117"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="34" t="s">
         <v>48</v>
       </c>
@@ -3151,8 +3153,8 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="104"/>
-      <c r="C35" s="117"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="34" t="s">
         <v>49</v>
       </c>
@@ -3190,8 +3192,8 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="104"/>
-      <c r="C36" s="117"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
@@ -3229,8 +3231,8 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="104"/>
-      <c r="C37" s="117"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="34" t="s">
         <v>51</v>
       </c>
@@ -3268,8 +3270,8 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="104"/>
-      <c r="C38" s="117"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
@@ -3307,8 +3309,8 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="104"/>
-      <c r="C39" s="117"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="34" t="s">
         <v>53</v>
       </c>
@@ -3346,8 +3348,8 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="104"/>
-      <c r="C40" s="117"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="34" t="s">
         <v>54</v>
       </c>
@@ -3385,8 +3387,8 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="104"/>
-      <c r="C41" s="117"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="34" t="s">
         <v>55</v>
       </c>
@@ -3424,8 +3426,8 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="104"/>
-      <c r="C42" s="117"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="34" t="s">
         <v>56</v>
       </c>
@@ -3463,8 +3465,8 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="104"/>
-      <c r="C43" s="117"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="34" t="s">
         <v>57</v>
       </c>
@@ -3502,8 +3504,8 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="104"/>
-      <c r="C44" s="117"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="34" t="s">
         <v>58</v>
       </c>
@@ -3541,8 +3543,8 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="104"/>
-      <c r="C45" s="117"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="34" t="s">
         <v>59</v>
       </c>
@@ -3580,8 +3582,8 @@
       <c r="W45" s="20"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="104"/>
-      <c r="C46" s="117"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3621,8 @@
       <c r="W46" s="20"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="104"/>
-      <c r="C47" s="117"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
@@ -3658,8 +3660,8 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="104"/>
-      <c r="C48" s="117"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="110"/>
       <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
@@ -3697,8 +3699,8 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="104"/>
-      <c r="C49" s="117"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="34" t="s">
         <v>63</v>
       </c>
@@ -3736,8 +3738,8 @@
       <c r="W49" s="20"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="104"/>
-      <c r="C50" s="117"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
@@ -3775,8 +3777,8 @@
       <c r="W50" s="20"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="104"/>
-      <c r="C51" s="117"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="34" t="s">
         <v>65</v>
       </c>
@@ -3814,8 +3816,8 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="104"/>
-      <c r="C52" s="117"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="34" t="s">
         <v>66</v>
       </c>
@@ -3853,8 +3855,8 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="104"/>
-      <c r="C53" s="117"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="34" t="s">
         <v>67</v>
       </c>
@@ -3892,8 +3894,8 @@
       <c r="W53" s="20"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="104"/>
-      <c r="C54" s="117"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="34" t="s">
         <v>68</v>
       </c>
@@ -3931,8 +3933,8 @@
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="104"/>
-      <c r="C55" s="118"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="34" t="s">
         <v>69</v>
       </c>
@@ -3970,8 +3972,8 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="104"/>
-      <c r="C56" s="114" t="s">
+      <c r="B56" s="119"/>
+      <c r="C56" s="107" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="31" t="s">
@@ -4011,8 +4013,8 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="104"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="108"/>
       <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
@@ -4050,8 +4052,8 @@
       <c r="W57" s="20"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="104"/>
-      <c r="C58" s="115"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="108"/>
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
@@ -4089,8 +4091,8 @@
       <c r="W58" s="20"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="104"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="108"/>
       <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
@@ -4128,8 +4130,8 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="104"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="108"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
@@ -4167,8 +4169,8 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="104"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="108"/>
       <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
@@ -4206,8 +4208,8 @@
       <c r="W61" s="20"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="105"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="108"/>
       <c r="D62" s="74" t="s">
         <v>33</v>
       </c>
@@ -4245,10 +4247,10 @@
       <c r="W62" s="29"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="106" t="s">
+      <c r="B63" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="119" t="s">
+      <c r="C63" s="112" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -4288,8 +4290,8 @@
       <c r="W63" s="57"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="107"/>
-      <c r="C64" s="117"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4327,8 +4329,8 @@
       <c r="W64" s="20"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="107"/>
-      <c r="C65" s="117"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4366,8 +4368,8 @@
       <c r="W65" s="20"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="107"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="111"/>
       <c r="D66" s="31" t="s">
         <v>76</v>
       </c>
@@ -4405,7 +4407,7 @@
       <c r="W66" s="20"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="107"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="35" t="s">
         <v>73</v>
       </c>
@@ -4444,7 +4446,7 @@
       <c r="W67" s="20"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="107"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="61" t="s">
         <v>81</v>
       </c>
@@ -4483,8 +4485,8 @@
       <c r="W68" s="20"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="107"/>
-      <c r="C69" s="116" t="s">
+      <c r="B69" s="105"/>
+      <c r="C69" s="109" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4524,8 +4526,8 @@
       <c r="W69" s="20"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="107"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4563,8 +4565,8 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="107"/>
-      <c r="C71" s="117"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4602,8 +4604,8 @@
       <c r="W71" s="20"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="108"/>
-      <c r="C72" s="120"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="113"/>
       <c r="D72" s="25" t="s">
         <v>78</v>
       </c>
@@ -4641,10 +4643,10 @@
       <c r="W72" s="26"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="103" t="s">
+      <c r="B73" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="121" t="s">
+      <c r="C73" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -4684,8 +4686,8 @@
       <c r="W73" s="57"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="104"/>
-      <c r="C74" s="109"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="100"/>
       <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
@@ -4723,8 +4725,8 @@
       <c r="W74" s="20"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="104"/>
-      <c r="C75" s="109"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="100"/>
       <c r="D75" s="4" t="s">
         <v>135</v>
       </c>
@@ -4762,8 +4764,8 @@
       <c r="W75" s="20"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="104"/>
-      <c r="C76" s="109"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="100"/>
       <c r="D76" s="4" t="s">
         <v>136</v>
       </c>
@@ -4801,8 +4803,8 @@
       <c r="W76" s="20"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="104"/>
-      <c r="C77" s="109" t="s">
+      <c r="B77" s="119"/>
+      <c r="C77" s="100" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4842,8 +4844,8 @@
       <c r="W77" s="20"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="104"/>
-      <c r="C78" s="109"/>
+      <c r="B78" s="119"/>
+      <c r="C78" s="100"/>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
@@ -4881,8 +4883,8 @@
       <c r="W78" s="20"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="104"/>
-      <c r="C79" s="109"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="100"/>
       <c r="D79" s="4" t="s">
         <v>135</v>
       </c>
@@ -4920,8 +4922,8 @@
       <c r="W79" s="20"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="104"/>
-      <c r="C80" s="109"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="100"/>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
@@ -4959,8 +4961,8 @@
       <c r="W80" s="20"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="104"/>
-      <c r="C81" s="109" t="s">
+      <c r="B81" s="119"/>
+      <c r="C81" s="100" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -5000,8 +5002,8 @@
       <c r="W81" s="20"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="104"/>
-      <c r="C82" s="109"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="100"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
@@ -5039,8 +5041,8 @@
       <c r="W82" s="20"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="104"/>
-      <c r="C83" s="109"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="100"/>
       <c r="D83" s="4" t="s">
         <v>135</v>
       </c>
@@ -5078,8 +5080,8 @@
       <c r="W83" s="20"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="104"/>
-      <c r="C84" s="109"/>
+      <c r="B84" s="119"/>
+      <c r="C84" s="100"/>
       <c r="D84" s="4" t="s">
         <v>136</v>
       </c>
@@ -5117,8 +5119,8 @@
       <c r="W84" s="20"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="104"/>
-      <c r="C85" s="109" t="s">
+      <c r="B85" s="119"/>
+      <c r="C85" s="100" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -5158,8 +5160,8 @@
       <c r="W85" s="20"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="104"/>
-      <c r="C86" s="109"/>
+      <c r="B86" s="119"/>
+      <c r="C86" s="100"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
@@ -5197,8 +5199,8 @@
       <c r="W86" s="20"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="104"/>
-      <c r="C87" s="109"/>
+      <c r="B87" s="119"/>
+      <c r="C87" s="100"/>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
@@ -5236,8 +5238,8 @@
       <c r="W87" s="20"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="104"/>
-      <c r="C88" s="109"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="100"/>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
@@ -5275,8 +5277,8 @@
       <c r="W88" s="20"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="104"/>
-      <c r="C89" s="109" t="s">
+      <c r="B89" s="119"/>
+      <c r="C89" s="100" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -5316,8 +5318,8 @@
       <c r="W89" s="20"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="104"/>
-      <c r="C90" s="109"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="100"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5355,8 +5357,8 @@
       <c r="W90" s="20"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="104"/>
-      <c r="C91" s="109"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="100"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5394,8 +5396,8 @@
       <c r="W91" s="20"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="104"/>
-      <c r="C92" s="109"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="100"/>
       <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
@@ -5433,8 +5435,8 @@
       <c r="W92" s="20"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="104"/>
-      <c r="C93" s="109" t="s">
+      <c r="B93" s="119"/>
+      <c r="C93" s="100" t="s">
         <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5474,8 +5476,8 @@
       <c r="W93" s="20"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="104"/>
-      <c r="C94" s="109"/>
+      <c r="B94" s="119"/>
+      <c r="C94" s="100"/>
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
@@ -5513,8 +5515,8 @@
       <c r="W94" s="20"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="104"/>
-      <c r="C95" s="109"/>
+      <c r="B95" s="119"/>
+      <c r="C95" s="100"/>
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
@@ -5552,8 +5554,8 @@
       <c r="W95" s="20"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="104"/>
-      <c r="C96" s="109"/>
+      <c r="B96" s="119"/>
+      <c r="C96" s="100"/>
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
@@ -5591,8 +5593,8 @@
       <c r="W96" s="20"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="104"/>
-      <c r="C97" s="109" t="s">
+      <c r="B97" s="119"/>
+      <c r="C97" s="100" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5632,8 +5634,8 @@
       <c r="W97" s="20"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="104"/>
-      <c r="C98" s="109"/>
+      <c r="B98" s="119"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
@@ -5671,8 +5673,8 @@
       <c r="W98" s="20"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="104"/>
-      <c r="C99" s="109"/>
+      <c r="B99" s="119"/>
+      <c r="C99" s="100"/>
       <c r="D99" s="4" t="s">
         <v>135</v>
       </c>
@@ -5710,8 +5712,8 @@
       <c r="W99" s="20"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="104"/>
-      <c r="C100" s="109"/>
+      <c r="B100" s="119"/>
+      <c r="C100" s="100"/>
       <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
@@ -5749,8 +5751,8 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="104"/>
-      <c r="C101" s="109" t="s">
+      <c r="B101" s="119"/>
+      <c r="C101" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5790,8 +5792,8 @@
       <c r="W101" s="20"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="104"/>
-      <c r="C102" s="109"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="100"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
@@ -5829,8 +5831,8 @@
       <c r="W102" s="20"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="104"/>
-      <c r="C103" s="109"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="100"/>
       <c r="D103" s="4" t="s">
         <v>135</v>
       </c>
@@ -5868,8 +5870,8 @@
       <c r="W103" s="20"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="104"/>
-      <c r="C104" s="109"/>
+      <c r="B104" s="119"/>
+      <c r="C104" s="100"/>
       <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
@@ -5907,8 +5909,8 @@
       <c r="W104" s="20"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="104"/>
-      <c r="C105" s="109" t="s">
+      <c r="B105" s="119"/>
+      <c r="C105" s="100" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5948,8 +5950,8 @@
       <c r="W105" s="20"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="104"/>
-      <c r="C106" s="109"/>
+      <c r="B106" s="119"/>
+      <c r="C106" s="100"/>
       <c r="D106" s="4" t="s">
         <v>134</v>
       </c>
@@ -5987,8 +5989,8 @@
       <c r="W106" s="20"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="104"/>
-      <c r="C107" s="109"/>
+      <c r="B107" s="119"/>
+      <c r="C107" s="100"/>
       <c r="D107" s="4" t="s">
         <v>135</v>
       </c>
@@ -6026,8 +6028,8 @@
       <c r="W107" s="20"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="104"/>
-      <c r="C108" s="109"/>
+      <c r="B108" s="119"/>
+      <c r="C108" s="100"/>
       <c r="D108" s="4" t="s">
         <v>136</v>
       </c>
@@ -6065,8 +6067,8 @@
       <c r="W108" s="20"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="104"/>
-      <c r="C109" s="109" t="s">
+      <c r="B109" s="119"/>
+      <c r="C109" s="100" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -6106,8 +6108,8 @@
       <c r="W109" s="20"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="104"/>
-      <c r="C110" s="109"/>
+      <c r="B110" s="119"/>
+      <c r="C110" s="100"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6145,8 +6147,8 @@
       <c r="W110" s="20"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="104"/>
-      <c r="C111" s="109"/>
+      <c r="B111" s="119"/>
+      <c r="C111" s="100"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6184,8 +6186,8 @@
       <c r="W111" s="20"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="104"/>
-      <c r="C112" s="109"/>
+      <c r="B112" s="119"/>
+      <c r="C112" s="100"/>
       <c r="D112" s="4" t="s">
         <v>136</v>
       </c>
@@ -6223,8 +6225,8 @@
       <c r="W112" s="20"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="104"/>
-      <c r="C113" s="109" t="s">
+      <c r="B113" s="119"/>
+      <c r="C113" s="100" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6264,8 +6266,8 @@
       <c r="W113" s="20"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="104"/>
-      <c r="C114" s="109"/>
+      <c r="B114" s="119"/>
+      <c r="C114" s="100"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
@@ -6303,8 +6305,8 @@
       <c r="W114" s="20"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="104"/>
-      <c r="C115" s="109"/>
+      <c r="B115" s="119"/>
+      <c r="C115" s="100"/>
       <c r="D115" s="4" t="s">
         <v>135</v>
       </c>
@@ -6342,8 +6344,8 @@
       <c r="W115" s="20"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="104"/>
-      <c r="C116" s="109"/>
+      <c r="B116" s="119"/>
+      <c r="C116" s="100"/>
       <c r="D116" s="4" t="s">
         <v>136</v>
       </c>
@@ -6381,8 +6383,8 @@
       <c r="W116" s="20"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="104"/>
-      <c r="C117" s="109" t="s">
+      <c r="B117" s="119"/>
+      <c r="C117" s="100" t="s">
         <v>129</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6422,8 +6424,8 @@
       <c r="W117" s="20"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="104"/>
-      <c r="C118" s="109"/>
+      <c r="B118" s="119"/>
+      <c r="C118" s="100"/>
       <c r="D118" s="4" t="s">
         <v>134</v>
       </c>
@@ -6461,8 +6463,8 @@
       <c r="W118" s="20"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="104"/>
-      <c r="C119" s="109"/>
+      <c r="B119" s="119"/>
+      <c r="C119" s="100"/>
       <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
@@ -6500,8 +6502,8 @@
       <c r="W119" s="20"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="104"/>
-      <c r="C120" s="109"/>
+      <c r="B120" s="119"/>
+      <c r="C120" s="100"/>
       <c r="D120" s="4" t="s">
         <v>136</v>
       </c>
@@ -6539,8 +6541,8 @@
       <c r="W120" s="20"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="104"/>
-      <c r="C121" s="109" t="s">
+      <c r="B121" s="119"/>
+      <c r="C121" s="100" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6580,8 +6582,8 @@
       <c r="W121" s="20"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="104"/>
-      <c r="C122" s="109"/>
+      <c r="B122" s="119"/>
+      <c r="C122" s="100"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
@@ -6619,8 +6621,8 @@
       <c r="W122" s="20"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="104"/>
-      <c r="C123" s="109"/>
+      <c r="B123" s="119"/>
+      <c r="C123" s="100"/>
       <c r="D123" s="4" t="s">
         <v>135</v>
       </c>
@@ -6658,8 +6660,8 @@
       <c r="W123" s="20"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="104"/>
-      <c r="C124" s="109"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="100"/>
       <c r="D124" s="4" t="s">
         <v>136</v>
       </c>
@@ -6697,8 +6699,8 @@
       <c r="W124" s="20"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="104"/>
-      <c r="C125" s="109" t="s">
+      <c r="B125" s="119"/>
+      <c r="C125" s="100" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -6738,8 +6740,8 @@
       <c r="W125" s="20"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="104"/>
-      <c r="C126" s="109"/>
+      <c r="B126" s="119"/>
+      <c r="C126" s="100"/>
       <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
@@ -6777,8 +6779,8 @@
       <c r="W126" s="20"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="104"/>
-      <c r="C127" s="109"/>
+      <c r="B127" s="119"/>
+      <c r="C127" s="100"/>
       <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
@@ -6816,8 +6818,8 @@
       <c r="W127" s="20"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="104"/>
-      <c r="C128" s="109"/>
+      <c r="B128" s="119"/>
+      <c r="C128" s="100"/>
       <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
@@ -6855,8 +6857,8 @@
       <c r="W128" s="20"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="104"/>
-      <c r="C129" s="109" t="s">
+      <c r="B129" s="119"/>
+      <c r="C129" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -6896,8 +6898,8 @@
       <c r="W129" s="20"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="104"/>
-      <c r="C130" s="109"/>
+      <c r="B130" s="119"/>
+      <c r="C130" s="100"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -6935,8 +6937,8 @@
       <c r="W130" s="20"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="104"/>
-      <c r="C131" s="109"/>
+      <c r="B131" s="119"/>
+      <c r="C131" s="100"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -6974,8 +6976,8 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="110"/>
-      <c r="C132" s="113"/>
+      <c r="B132" s="121"/>
+      <c r="C132" s="122"/>
       <c r="D132" s="25" t="s">
         <v>136</v>
       </c>
@@ -7013,7 +7015,7 @@
       <c r="W132" s="26"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="106" t="s">
+      <c r="B133" s="104" t="s">
         <v>83</v>
       </c>
       <c r="C133" s="92" t="s">
@@ -7054,7 +7056,7 @@
       <c r="W133" s="57"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="107"/>
+      <c r="B134" s="105"/>
       <c r="C134" s="38" t="s">
         <v>89</v>
       </c>
@@ -7093,7 +7095,7 @@
       <c r="W134" s="20"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="107"/>
+      <c r="B135" s="105"/>
       <c r="C135" s="38" t="s">
         <v>90</v>
       </c>
@@ -7132,7 +7134,7 @@
       <c r="W135" s="20"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="107"/>
+      <c r="B136" s="105"/>
       <c r="C136" s="38" t="s">
         <v>91</v>
       </c>
@@ -7171,7 +7173,7 @@
       <c r="W136" s="20"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="107"/>
+      <c r="B137" s="105"/>
       <c r="C137" s="38" t="s">
         <v>143</v>
       </c>
@@ -7210,7 +7212,7 @@
       <c r="W137" s="20"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="107"/>
+      <c r="B138" s="105"/>
       <c r="C138" s="38" t="s">
         <v>140</v>
       </c>
@@ -7249,7 +7251,7 @@
       <c r="W138" s="20"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="107"/>
+      <c r="B139" s="105"/>
       <c r="C139" s="38" t="s">
         <v>142</v>
       </c>
@@ -7288,7 +7290,7 @@
       <c r="W139" s="20"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="107"/>
+      <c r="B140" s="105"/>
       <c r="C140" s="38" t="s">
         <v>141</v>
       </c>
@@ -7327,7 +7329,7 @@
       <c r="W140" s="20"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="107"/>
+      <c r="B141" s="105"/>
       <c r="C141" s="38" t="s">
         <v>92</v>
       </c>
@@ -7366,7 +7368,7 @@
       <c r="W141" s="20"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="107"/>
+      <c r="B142" s="105"/>
       <c r="C142" s="38" t="s">
         <v>93</v>
       </c>
@@ -7405,7 +7407,7 @@
       <c r="W142" s="20"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="107"/>
+      <c r="B143" s="105"/>
       <c r="C143" s="38" t="s">
         <v>94</v>
       </c>
@@ -7444,7 +7446,7 @@
       <c r="W143" s="20"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="107"/>
+      <c r="B144" s="105"/>
       <c r="C144" s="38" t="s">
         <v>98</v>
       </c>
@@ -7483,7 +7485,7 @@
       <c r="W144" s="20"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="108"/>
+      <c r="B145" s="106"/>
       <c r="C145" s="62" t="s">
         <v>99</v>
       </c>
@@ -7522,7 +7524,7 @@
       <c r="W145" s="26"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="103" t="s">
+      <c r="B146" s="118" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="72" t="s">
@@ -7563,7 +7565,7 @@
       <c r="W146" s="57"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="104"/>
+      <c r="B147" s="119"/>
       <c r="C147" s="71" t="s">
         <v>145</v>
       </c>
@@ -7602,7 +7604,7 @@
       <c r="W147" s="20"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="110"/>
+      <c r="B148" s="121"/>
       <c r="C148" s="73" t="s">
         <v>146</v>
       </c>
@@ -7641,7 +7643,7 @@
       <c r="W148" s="26"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="107" t="s">
+      <c r="B149" s="105" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="38" t="s">
@@ -7682,7 +7684,7 @@
       <c r="W149" s="70"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="107"/>
+      <c r="B150" s="105"/>
       <c r="C150" s="38" t="s">
         <v>138</v>
       </c>
@@ -7721,7 +7723,7 @@
       <c r="W150" s="70"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="107"/>
+      <c r="B151" s="105"/>
       <c r="C151" s="38" t="s">
         <v>139</v>
       </c>
@@ -7760,7 +7762,7 @@
       <c r="W151" s="70"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="107"/>
+      <c r="B152" s="105"/>
       <c r="C152" s="38" t="s">
         <v>147</v>
       </c>
@@ -7799,7 +7801,7 @@
       <c r="W152" s="20"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="107"/>
+      <c r="B153" s="105"/>
       <c r="C153" s="35" t="s">
         <v>84</v>
       </c>
@@ -7838,7 +7840,7 @@
       <c r="W153" s="20"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="107"/>
+      <c r="B154" s="105"/>
       <c r="C154" s="35" t="s">
         <v>85</v>
       </c>
@@ -7877,7 +7879,7 @@
       <c r="W154" s="20"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="107"/>
+      <c r="B155" s="105"/>
       <c r="C155" s="39" t="s">
         <v>87</v>
       </c>
@@ -7916,7 +7918,7 @@
       <c r="W155" s="29"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="107"/>
+      <c r="B156" s="105"/>
       <c r="C156" s="35" t="s">
         <v>86</v>
       </c>
@@ -7955,7 +7957,7 @@
       <c r="W156" s="29"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="107"/>
+      <c r="B157" s="105"/>
       <c r="C157" s="41" t="s">
         <v>104</v>
       </c>
@@ -7994,7 +7996,7 @@
       <c r="W157" s="29"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="107"/>
+      <c r="B158" s="105"/>
       <c r="C158" s="41" t="s">
         <v>137</v>
       </c>
@@ -8033,7 +8035,7 @@
       <c r="W158" s="29"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="107"/>
+      <c r="B159" s="105"/>
       <c r="C159" s="41" t="s">
         <v>105</v>
       </c>
@@ -8072,7 +8074,7 @@
       <c r="W159" s="29"/>
     </row>
     <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="108"/>
+      <c r="B160" s="106"/>
       <c r="C160" s="62" t="s">
         <v>100</v>
       </c>
@@ -8111,21 +8113,21 @@
       <c r="W160" s="26"/>
     </row>
     <row r="161" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="98" t="s">
+      <c r="B161" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="101"/>
-      <c r="D161" s="99"/>
-      <c r="E161" s="99"/>
-      <c r="F161" s="99"/>
-      <c r="G161" s="102"/>
+      <c r="C161" s="116"/>
+      <c r="D161" s="115"/>
+      <c r="E161" s="115"/>
+      <c r="F161" s="115"/>
+      <c r="G161" s="117"/>
       <c r="H161" s="40">
         <f>SUM(H4:H160)</f>
         <v>89.199999999999989</v>
       </c>
       <c r="I161" s="24">
         <f>SUM(I4:I160)</f>
-        <v>0.93330000000000002</v>
+        <v>1.4333</v>
       </c>
       <c r="J161" s="24">
         <f>SUM(J4:J160)</f>
@@ -8133,7 +8135,7 @@
       </c>
       <c r="K161" s="24">
         <f t="shared" ref="K161:W161" si="5">SUM(K4:K160)</f>
-        <v>0.93330000000000002</v>
+        <v>1.4333</v>
       </c>
       <c r="L161" s="24">
         <f t="shared" si="5"/>
@@ -8193,22 +8195,22 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="100" t="s">
+      <c r="J162" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K162" s="111"/>
-      <c r="L162" s="111"/>
-      <c r="M162" s="111"/>
-      <c r="N162" s="111"/>
-      <c r="O162" s="111"/>
-      <c r="P162" s="111"/>
-      <c r="Q162" s="111"/>
-      <c r="R162" s="111"/>
-      <c r="S162" s="111"/>
-      <c r="T162" s="111"/>
-      <c r="U162" s="111"/>
-      <c r="V162" s="111"/>
-      <c r="W162" s="112"/>
+      <c r="K162" s="102"/>
+      <c r="L162" s="102"/>
+      <c r="M162" s="102"/>
+      <c r="N162" s="102"/>
+      <c r="O162" s="102"/>
+      <c r="P162" s="102"/>
+      <c r="Q162" s="102"/>
+      <c r="R162" s="102"/>
+      <c r="S162" s="102"/>
+      <c r="T162" s="102"/>
+      <c r="U162" s="102"/>
+      <c r="V162" s="102"/>
+      <c r="W162" s="103"/>
     </row>
     <row r="163" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
@@ -8232,29 +8234,29 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="98" t="s">
+      <c r="H164" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="99"/>
+      <c r="I164" s="115"/>
       <c r="J164" s="10">
         <f>H161-J161</f>
         <v>89.199999999999989</v>
       </c>
       <c r="K164" s="10">
         <f>J164-K161</f>
-        <v>88.266699999999986</v>
+        <v>87.766699999999986</v>
       </c>
       <c r="L164" s="10">
         <f>K164-L161</f>
-        <v>88.266699999999986</v>
+        <v>87.766699999999986</v>
       </c>
       <c r="M164" s="10">
         <f>L164-M161</f>
-        <v>88.266699999999986</v>
+        <v>87.766699999999986</v>
       </c>
       <c r="N164" s="11">
         <f>M164-N161</f>
-        <v>88.266699999999986</v>
+        <v>87.766699999999986</v>
       </c>
     </row>
     <row r="165" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8278,18 +8280,18 @@
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="H166" s="100" t="s">
+      <c r="H166" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="101"/>
-      <c r="J166" s="99">
+      <c r="I166" s="116"/>
+      <c r="J166" s="115">
         <f>H161-I161</f>
-        <v>88.266699999999986</v>
-      </c>
-      <c r="K166" s="99"/>
-      <c r="L166" s="99"/>
-      <c r="M166" s="99"/>
-      <c r="N166" s="102"/>
+        <v>87.766699999999986</v>
+      </c>
+      <c r="K166" s="115"/>
+      <c r="L166" s="115"/>
+      <c r="M166" s="115"/>
+      <c r="N166" s="117"/>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
@@ -8393,23 +8395,6 @@
     <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C16:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="J166:N166"/>
@@ -8426,6 +8411,23 @@
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="C81:C84"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C16:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C117:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1142,9 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,78 +1254,87 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1361,6 +1367,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1388,21 +1395,26 @@
                   <c:v>89.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.766699999999986</c:v>
+                  <c:v>87.666699999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.766699999999986</c:v>
+                  <c:v>87.666699999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.766699999999986</c:v>
+                  <c:v>87.666699999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.766699999999986</c:v>
+                  <c:v>87.666699999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A091-4901-839C-4EC24FB5B5C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1452,6 +1464,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1790,74 +1803,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="57.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="103"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="64" t="s">
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="113"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="64" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="16">
@@ -1903,8 +1916,8 @@
         <v>43067</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="107" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -1914,7 +1927,7 @@
       <c r="E4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="88" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="44">
@@ -1927,7 +1940,7 @@
         <f t="shared" ref="I4:I35" si="0">SUM(J4:W4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4" s="93">
         <v>0</v>
       </c>
       <c r="K4" s="44"/>
@@ -1944,8 +1957,8 @@
       <c r="V4" s="46"/>
       <c r="W4" s="49"/>
     </row>
-    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="105"/>
+    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="108"/>
       <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
@@ -1953,7 +1966,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>111</v>
       </c>
       <c r="G5" s="4">
@@ -1962,11 +1975,11 @@
       <c r="H5" s="4">
         <v>0.5</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="82">
+      <c r="J5" s="81">
         <v>0</v>
       </c>
       <c r="K5" s="4"/>
@@ -1983,8 +1996,8 @@
       <c r="V5" s="18"/>
       <c r="W5" s="20"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="105"/>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="108"/>
       <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
@@ -1992,7 +2005,7 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="85" t="s">
         <v>111</v>
       </c>
       <c r="G6" s="4">
@@ -2001,11 +2014,11 @@
       <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="81">
         <v>0</v>
       </c>
       <c r="K6" s="4"/>
@@ -2022,8 +2035,8 @@
       <c r="V6" s="18"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="105"/>
+    <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="108"/>
       <c r="C7" s="37" t="s">
         <v>103</v>
       </c>
@@ -2031,7 +2044,7 @@
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="85" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="4">
@@ -2040,11 +2053,11 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="81">
         <v>0</v>
       </c>
       <c r="K7" s="4"/>
@@ -2061,8 +2074,8 @@
       <c r="V7" s="18"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="106"/>
+    <row r="8" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="109"/>
       <c r="C8" s="50" t="s">
         <v>112</v>
       </c>
@@ -2070,7 +2083,7 @@
       <c r="E8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="89" t="s">
         <v>111</v>
       </c>
       <c r="G8" s="25">
@@ -2083,7 +2096,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="82">
         <v>0</v>
       </c>
       <c r="K8" s="25"/>
@@ -2100,8 +2113,8 @@
       <c r="V8" s="23"/>
       <c r="W8" s="26"/>
     </row>
-    <row r="9" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
+    <row r="9" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="107" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -2111,7 +2124,7 @@
       <c r="E9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="74" t="s">
         <v>116</v>
       </c>
       <c r="G9" s="44">
@@ -2122,27 +2135,29 @@
       </c>
       <c r="I9" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="81">
-        <v>0</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105"/>
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="80">
+        <v>0</v>
+      </c>
+      <c r="K9" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="126"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="108"/>
       <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
@@ -2150,7 +2165,7 @@
       <c r="E10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G10" s="4">
@@ -2159,11 +2174,11 @@
       <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="81">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
@@ -2180,16 +2195,16 @@
       <c r="V10" s="18"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="105"/>
-      <c r="C11" s="58" t="s">
+    <row r="11" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="108"/>
+      <c r="C11" s="123" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G11" s="4">
@@ -2198,11 +2213,11 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="82">
+      <c r="J11" s="81">
         <v>0</v>
       </c>
       <c r="K11" s="4"/>
@@ -2219,16 +2234,16 @@
       <c r="V11" s="18"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="105"/>
-      <c r="C12" s="58" t="s">
+    <row r="12" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="108"/>
+      <c r="C12" s="123" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G12" s="4">
@@ -2237,63 +2252,63 @@
       <c r="H12" s="4">
         <v>0.2</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="62">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J12" s="82">
-        <v>0</v>
-      </c>
-      <c r="K12" s="96">
+      <c r="J12" s="81">
+        <v>0</v>
+      </c>
+      <c r="K12" s="95">
         <v>0.05</v>
       </c>
-      <c r="L12" s="96">
-        <v>0</v>
-      </c>
-      <c r="M12" s="96">
-        <v>0</v>
-      </c>
-      <c r="N12" s="96">
-        <v>0</v>
-      </c>
-      <c r="O12" s="96">
-        <v>0</v>
-      </c>
-      <c r="P12" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="96">
-        <v>0</v>
-      </c>
-      <c r="R12" s="96">
-        <v>0</v>
-      </c>
-      <c r="S12" s="96">
-        <v>0</v>
-      </c>
-      <c r="T12" s="96">
-        <v>0</v>
-      </c>
-      <c r="U12" s="96">
-        <v>0</v>
-      </c>
-      <c r="V12" s="96">
-        <v>0</v>
-      </c>
-      <c r="W12" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="105"/>
-      <c r="C13" s="58" t="s">
+      <c r="L12" s="95">
+        <v>0</v>
+      </c>
+      <c r="M12" s="95">
+        <v>0</v>
+      </c>
+      <c r="N12" s="95">
+        <v>0</v>
+      </c>
+      <c r="O12" s="95">
+        <v>0</v>
+      </c>
+      <c r="P12" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="95">
+        <v>0</v>
+      </c>
+      <c r="R12" s="95">
+        <v>0</v>
+      </c>
+      <c r="S12" s="95">
+        <v>0</v>
+      </c>
+      <c r="T12" s="95">
+        <v>0</v>
+      </c>
+      <c r="U12" s="95">
+        <v>0</v>
+      </c>
+      <c r="V12" s="95">
+        <v>0</v>
+      </c>
+      <c r="W12" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="108"/>
+      <c r="C13" s="98" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G13" s="4">
@@ -2302,14 +2317,14 @@
       <c r="H13" s="4">
         <v>0.2</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="82">
-        <v>0</v>
-      </c>
-      <c r="K13" s="95"/>
+      <c r="J13" s="81">
+        <v>0</v>
+      </c>
+      <c r="K13" s="94"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2323,16 +2338,16 @@
       <c r="V13" s="18"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="106"/>
-      <c r="C14" s="59" t="s">
+    <row r="14" spans="1:23" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="109"/>
+      <c r="C14" s="58" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G14" s="25">
@@ -2345,7 +2360,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="82">
         <v>0</v>
       </c>
       <c r="K14" s="25">
@@ -2364,11 +2379,11 @@
       <c r="V14" s="23"/>
       <c r="W14" s="26"/>
     </row>
-    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="118" t="s">
+    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="54" t="s">
@@ -2377,7 +2392,7 @@
       <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="77" t="s">
         <v>115</v>
       </c>
       <c r="G15" s="44">
@@ -2390,10 +2405,10 @@
         <f t="shared" si="0"/>
         <v>0.88329999999999997</v>
       </c>
-      <c r="J15" s="81">
-        <v>0</v>
-      </c>
-      <c r="K15" s="98">
+      <c r="J15" s="80">
+        <v>0</v>
+      </c>
+      <c r="K15" s="97">
         <v>0.88329999999999997</v>
       </c>
       <c r="L15" s="55"/>
@@ -2409,9 +2424,9 @@
       <c r="V15" s="56"/>
       <c r="W15" s="57"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="119"/>
-      <c r="C16" s="109" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="105"/>
+      <c r="C16" s="117" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2420,7 +2435,7 @@
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="4">
@@ -2429,11 +2444,11 @@
       <c r="H16" s="4">
         <v>1.2</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="81">
         <v>0</v>
       </c>
       <c r="K16" s="15"/>
@@ -2450,16 +2465,16 @@
       <c r="V16" s="18"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="119"/>
-      <c r="C17" s="110"/>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="105"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="4">
@@ -2468,11 +2483,11 @@
       <c r="H17" s="4">
         <v>1.2</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="81">
         <v>0</v>
       </c>
       <c r="K17" s="15"/>
@@ -2489,16 +2504,16 @@
       <c r="V17" s="18"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="119"/>
-      <c r="C18" s="110"/>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="105"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G18" s="4">
@@ -2507,11 +2522,11 @@
       <c r="H18" s="4">
         <v>1.2</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="82">
+      <c r="J18" s="81">
         <v>0</v>
       </c>
       <c r="K18" s="15"/>
@@ -2528,16 +2543,16 @@
       <c r="V18" s="18"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="119"/>
-      <c r="C19" s="110"/>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="105"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="4">
@@ -2546,11 +2561,11 @@
       <c r="H19" s="4">
         <v>1.2</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="81">
         <v>0</v>
       </c>
       <c r="K19" s="15"/>
@@ -2567,16 +2582,16 @@
       <c r="V19" s="18"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="119"/>
-      <c r="C20" s="110"/>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="105"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G20" s="4">
@@ -2585,11 +2600,11 @@
       <c r="H20" s="4">
         <v>1.2</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="82">
+      <c r="J20" s="81">
         <v>0</v>
       </c>
       <c r="K20" s="15"/>
@@ -2606,16 +2621,16 @@
       <c r="V20" s="18"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="119"/>
-      <c r="C21" s="110"/>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="105"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="F21" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G21" s="4">
@@ -2624,11 +2639,11 @@
       <c r="H21" s="4">
         <v>1.2</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="82">
+      <c r="J21" s="81">
         <v>0</v>
       </c>
       <c r="K21" s="15"/>
@@ -2645,16 +2660,16 @@
       <c r="V21" s="18"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="119"/>
-      <c r="C22" s="110"/>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="105"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="79" t="s">
+      <c r="F22" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G22" s="4">
@@ -2663,11 +2678,11 @@
       <c r="H22" s="4">
         <v>0.3</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="82">
+      <c r="J22" s="81">
         <v>0</v>
       </c>
       <c r="K22" s="15"/>
@@ -2684,16 +2699,16 @@
       <c r="V22" s="18"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="119"/>
-      <c r="C23" s="110"/>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="105"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G23" s="4">
@@ -2702,11 +2717,11 @@
       <c r="H23" s="4">
         <v>0.3</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="82">
+      <c r="J23" s="81">
         <v>0</v>
       </c>
       <c r="K23" s="15"/>
@@ -2723,16 +2738,16 @@
       <c r="V23" s="18"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="119"/>
-      <c r="C24" s="110"/>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="105"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="4">
@@ -2741,11 +2756,11 @@
       <c r="H24" s="4">
         <v>0.3</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="82">
+      <c r="J24" s="81">
         <v>0</v>
       </c>
       <c r="K24" s="15"/>
@@ -2762,16 +2777,16 @@
       <c r="V24" s="18"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="119"/>
-      <c r="C25" s="110"/>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="105"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G25" s="4">
@@ -2784,7 +2799,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="82">
+      <c r="J25" s="81">
         <v>0</v>
       </c>
       <c r="K25" s="15"/>
@@ -2801,16 +2816,16 @@
       <c r="V25" s="18"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="119"/>
-      <c r="C26" s="110"/>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="105"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G26" s="4">
@@ -2823,7 +2838,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="81">
         <v>0</v>
       </c>
       <c r="K26" s="15"/>
@@ -2840,16 +2855,16 @@
       <c r="V26" s="18"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="119"/>
-      <c r="C27" s="110"/>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="105"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="79" t="s">
+      <c r="F27" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G27" s="4">
@@ -2862,7 +2877,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="82">
+      <c r="J27" s="81">
         <v>0</v>
       </c>
       <c r="K27" s="15"/>
@@ -2879,16 +2894,16 @@
       <c r="V27" s="18"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="119"/>
-      <c r="C28" s="110"/>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="105"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="34" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G28" s="4">
@@ -2901,7 +2916,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="82">
+      <c r="J28" s="81">
         <v>0</v>
       </c>
       <c r="K28" s="15"/>
@@ -2918,16 +2933,16 @@
       <c r="V28" s="18"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="119"/>
-      <c r="C29" s="110"/>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="105"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="79" t="s">
+      <c r="F29" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G29" s="4">
@@ -2940,7 +2955,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="82">
+      <c r="J29" s="81">
         <v>0</v>
       </c>
       <c r="K29" s="15"/>
@@ -2957,16 +2972,16 @@
       <c r="V29" s="18"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="119"/>
-      <c r="C30" s="110"/>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="105"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="F30" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G30" s="4">
@@ -2979,7 +2994,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="82">
+      <c r="J30" s="81">
         <v>0</v>
       </c>
       <c r="K30" s="15"/>
@@ -2996,16 +3011,16 @@
       <c r="V30" s="18"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="119"/>
-      <c r="C31" s="110"/>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="105"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G31" s="4">
@@ -3018,7 +3033,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="82">
+      <c r="J31" s="81">
         <v>0</v>
       </c>
       <c r="K31" s="15"/>
@@ -3035,16 +3050,16 @@
       <c r="V31" s="18"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="119"/>
-      <c r="C32" s="110"/>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="105"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G32" s="4">
@@ -3057,7 +3072,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="82">
+      <c r="J32" s="81">
         <v>0</v>
       </c>
       <c r="K32" s="15"/>
@@ -3074,16 +3089,16 @@
       <c r="V32" s="18"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="119"/>
-      <c r="C33" s="110"/>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="105"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="4">
@@ -3096,7 +3111,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="82">
+      <c r="J33" s="81">
         <v>0</v>
       </c>
       <c r="K33" s="15"/>
@@ -3113,16 +3128,16 @@
       <c r="V33" s="18"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="119"/>
-      <c r="C34" s="110"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="105"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="34" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="79" t="s">
+      <c r="F34" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G34" s="4">
@@ -3135,7 +3150,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="82">
+      <c r="J34" s="81">
         <v>0</v>
       </c>
       <c r="K34" s="15"/>
@@ -3152,16 +3167,16 @@
       <c r="V34" s="18"/>
       <c r="W34" s="20"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="119"/>
-      <c r="C35" s="110"/>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="105"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="79" t="s">
+      <c r="F35" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G35" s="4">
@@ -3174,7 +3189,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="82">
+      <c r="J35" s="81">
         <v>0</v>
       </c>
       <c r="K35" s="15"/>
@@ -3191,16 +3206,16 @@
       <c r="V35" s="18"/>
       <c r="W35" s="20"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="119"/>
-      <c r="C36" s="110"/>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="105"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="79" t="s">
+      <c r="F36" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G36" s="4">
@@ -3213,7 +3228,7 @@
         <f t="shared" ref="I36:I67" si="1">SUM(J36:W36)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="82">
+      <c r="J36" s="81">
         <v>0</v>
       </c>
       <c r="K36" s="15"/>
@@ -3230,16 +3245,16 @@
       <c r="V36" s="18"/>
       <c r="W36" s="20"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="119"/>
-      <c r="C37" s="110"/>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="105"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="34" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G37" s="4">
@@ -3252,7 +3267,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="82">
+      <c r="J37" s="81">
         <v>0</v>
       </c>
       <c r="K37" s="15"/>
@@ -3269,16 +3284,16 @@
       <c r="V37" s="18"/>
       <c r="W37" s="20"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="119"/>
-      <c r="C38" s="110"/>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="105"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="79" t="s">
+      <c r="F38" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G38" s="4">
@@ -3291,7 +3306,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="82">
+      <c r="J38" s="81">
         <v>0</v>
       </c>
       <c r="K38" s="15"/>
@@ -3308,16 +3323,16 @@
       <c r="V38" s="18"/>
       <c r="W38" s="20"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="119"/>
-      <c r="C39" s="110"/>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="105"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G39" s="4">
@@ -3330,7 +3345,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="82">
+      <c r="J39" s="81">
         <v>0</v>
       </c>
       <c r="K39" s="15"/>
@@ -3347,16 +3362,16 @@
       <c r="V39" s="18"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="119"/>
-      <c r="C40" s="110"/>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="105"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G40" s="4">
@@ -3369,7 +3384,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="82">
+      <c r="J40" s="81">
         <v>0</v>
       </c>
       <c r="K40" s="15"/>
@@ -3386,16 +3401,16 @@
       <c r="V40" s="18"/>
       <c r="W40" s="20"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="119"/>
-      <c r="C41" s="110"/>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="105"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G41" s="4">
@@ -3408,7 +3423,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="82">
+      <c r="J41" s="81">
         <v>0</v>
       </c>
       <c r="K41" s="15"/>
@@ -3425,16 +3440,16 @@
       <c r="V41" s="18"/>
       <c r="W41" s="20"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="119"/>
-      <c r="C42" s="110"/>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="105"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="34" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G42" s="4">
@@ -3447,7 +3462,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="82">
+      <c r="J42" s="81">
         <v>0</v>
       </c>
       <c r="K42" s="15"/>
@@ -3464,16 +3479,16 @@
       <c r="V42" s="18"/>
       <c r="W42" s="20"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="119"/>
-      <c r="C43" s="110"/>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="105"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G43" s="4">
@@ -3486,7 +3501,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J43" s="82">
+      <c r="J43" s="81">
         <v>0</v>
       </c>
       <c r="K43" s="15"/>
@@ -3503,16 +3518,16 @@
       <c r="V43" s="18"/>
       <c r="W43" s="20"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="119"/>
-      <c r="C44" s="110"/>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="105"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="34" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G44" s="4">
@@ -3525,7 +3540,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J44" s="82">
+      <c r="J44" s="81">
         <v>0</v>
       </c>
       <c r="K44" s="15"/>
@@ -3542,16 +3557,16 @@
       <c r="V44" s="18"/>
       <c r="W44" s="20"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="119"/>
-      <c r="C45" s="110"/>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="105"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G45" s="4">
@@ -3564,7 +3579,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J45" s="82">
+      <c r="J45" s="81">
         <v>0</v>
       </c>
       <c r="K45" s="15"/>
@@ -3581,16 +3596,16 @@
       <c r="V45" s="18"/>
       <c r="W45" s="20"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="119"/>
-      <c r="C46" s="110"/>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="105"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G46" s="4">
@@ -3603,7 +3618,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J46" s="82">
+      <c r="J46" s="81">
         <v>0</v>
       </c>
       <c r="K46" s="15"/>
@@ -3620,16 +3635,16 @@
       <c r="V46" s="18"/>
       <c r="W46" s="20"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="119"/>
-      <c r="C47" s="110"/>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="105"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G47" s="4">
@@ -3642,7 +3657,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="82">
+      <c r="J47" s="81">
         <v>0</v>
       </c>
       <c r="K47" s="15"/>
@@ -3659,16 +3674,16 @@
       <c r="V47" s="18"/>
       <c r="W47" s="20"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="119"/>
-      <c r="C48" s="110"/>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="105"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="79" t="s">
+      <c r="F48" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G48" s="4">
@@ -3681,7 +3696,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J48" s="82">
+      <c r="J48" s="81">
         <v>0</v>
       </c>
       <c r="K48" s="15"/>
@@ -3698,16 +3713,16 @@
       <c r="V48" s="18"/>
       <c r="W48" s="20"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="119"/>
-      <c r="C49" s="110"/>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="105"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G49" s="4">
@@ -3720,7 +3735,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J49" s="82">
+      <c r="J49" s="81">
         <v>0</v>
       </c>
       <c r="K49" s="15"/>
@@ -3737,16 +3752,16 @@
       <c r="V49" s="18"/>
       <c r="W49" s="20"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="119"/>
-      <c r="C50" s="110"/>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="105"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="79" t="s">
+      <c r="F50" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G50" s="4">
@@ -3759,7 +3774,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J50" s="82">
+      <c r="J50" s="81">
         <v>0</v>
       </c>
       <c r="K50" s="15"/>
@@ -3776,16 +3791,16 @@
       <c r="V50" s="18"/>
       <c r="W50" s="20"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="119"/>
-      <c r="C51" s="110"/>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="105"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="34" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G51" s="4">
@@ -3798,7 +3813,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J51" s="82">
+      <c r="J51" s="81">
         <v>0</v>
       </c>
       <c r="K51" s="15"/>
@@ -3815,16 +3830,16 @@
       <c r="V51" s="18"/>
       <c r="W51" s="20"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="119"/>
-      <c r="C52" s="110"/>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="105"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="34" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="79" t="s">
+      <c r="F52" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G52" s="4">
@@ -3837,7 +3852,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J52" s="82">
+      <c r="J52" s="81">
         <v>0</v>
       </c>
       <c r="K52" s="15"/>
@@ -3854,16 +3869,16 @@
       <c r="V52" s="18"/>
       <c r="W52" s="20"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="119"/>
-      <c r="C53" s="110"/>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="105"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="34" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="79" t="s">
+      <c r="F53" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G53" s="4">
@@ -3876,7 +3891,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J53" s="82">
+      <c r="J53" s="81">
         <v>0</v>
       </c>
       <c r="K53" s="15"/>
@@ -3893,16 +3908,16 @@
       <c r="V53" s="18"/>
       <c r="W53" s="20"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="119"/>
-      <c r="C54" s="110"/>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="105"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="79" t="s">
+      <c r="F54" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G54" s="4">
@@ -3915,7 +3930,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J54" s="82">
+      <c r="J54" s="81">
         <v>0</v>
       </c>
       <c r="K54" s="15"/>
@@ -3932,16 +3947,16 @@
       <c r="V54" s="18"/>
       <c r="W54" s="20"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="119"/>
-      <c r="C55" s="111"/>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="105"/>
+      <c r="C55" s="119"/>
       <c r="D55" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G55" s="4">
@@ -3954,7 +3969,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J55" s="82">
+      <c r="J55" s="81">
         <v>0</v>
       </c>
       <c r="K55" s="15"/>
@@ -3971,9 +3986,9 @@
       <c r="V55" s="18"/>
       <c r="W55" s="20"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="119"/>
-      <c r="C56" s="107" t="s">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="105"/>
+      <c r="C56" s="115" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="31" t="s">
@@ -3982,7 +3997,7 @@
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="79" t="s">
+      <c r="F56" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G56" s="4">
@@ -3995,7 +4010,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J56" s="82">
+      <c r="J56" s="81">
         <v>0</v>
       </c>
       <c r="K56" s="15"/>
@@ -4012,16 +4027,16 @@
       <c r="V56" s="18"/>
       <c r="W56" s="20"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="119"/>
-      <c r="C57" s="108"/>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="105"/>
+      <c r="C57" s="116"/>
       <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="79" t="s">
+      <c r="F57" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G57" s="4">
@@ -4034,7 +4049,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J57" s="82">
+      <c r="J57" s="81">
         <v>0</v>
       </c>
       <c r="K57" s="15"/>
@@ -4051,16 +4066,16 @@
       <c r="V57" s="18"/>
       <c r="W57" s="20"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="119"/>
-      <c r="C58" s="108"/>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="105"/>
+      <c r="C58" s="116"/>
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="79" t="s">
+      <c r="F58" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G58" s="4">
@@ -4073,7 +4088,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="82">
+      <c r="J58" s="81">
         <v>0</v>
       </c>
       <c r="K58" s="15"/>
@@ -4090,16 +4105,16 @@
       <c r="V58" s="18"/>
       <c r="W58" s="20"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="119"/>
-      <c r="C59" s="108"/>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="105"/>
+      <c r="C59" s="116"/>
       <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="79" t="s">
+      <c r="F59" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G59" s="4">
@@ -4112,7 +4127,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J59" s="82">
+      <c r="J59" s="81">
         <v>0</v>
       </c>
       <c r="K59" s="15"/>
@@ -4129,16 +4144,16 @@
       <c r="V59" s="18"/>
       <c r="W59" s="20"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="119"/>
-      <c r="C60" s="108"/>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="105"/>
+      <c r="C60" s="116"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="79" t="s">
+      <c r="F60" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G60" s="4">
@@ -4151,7 +4166,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J60" s="82">
+      <c r="J60" s="81">
         <v>0</v>
       </c>
       <c r="K60" s="4"/>
@@ -4168,16 +4183,16 @@
       <c r="V60" s="18"/>
       <c r="W60" s="20"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="119"/>
-      <c r="C61" s="108"/>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="105"/>
+      <c r="C61" s="116"/>
       <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="79" t="s">
+      <c r="F61" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G61" s="4">
@@ -4190,7 +4205,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="82">
+      <c r="J61" s="81">
         <v>0</v>
       </c>
       <c r="K61" s="4"/>
@@ -4207,16 +4222,16 @@
       <c r="V61" s="18"/>
       <c r="W61" s="20"/>
     </row>
-    <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="120"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="74" t="s">
+    <row r="62" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="106"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="91" t="s">
+      <c r="F62" s="90" t="s">
         <v>115</v>
       </c>
       <c r="G62" s="8">
@@ -4225,11 +4240,11 @@
       <c r="H62" s="8">
         <v>1.2</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J62" s="85">
+      <c r="J62" s="84">
         <v>0</v>
       </c>
       <c r="K62" s="8"/>
@@ -4246,11 +4261,11 @@
       <c r="V62" s="27"/>
       <c r="W62" s="29"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="104" t="s">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="112" t="s">
+      <c r="C63" s="120" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -4259,7 +4274,7 @@
       <c r="E63" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="89" t="s">
+      <c r="F63" s="88" t="s">
         <v>111</v>
       </c>
       <c r="G63" s="44">
@@ -4272,7 +4287,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J63" s="81">
+      <c r="J63" s="80">
         <v>0</v>
       </c>
       <c r="K63" s="44"/>
@@ -4289,16 +4304,16 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="105"/>
-      <c r="C64" s="110"/>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="108"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="87" t="s">
+      <c r="F64" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G64" s="4">
@@ -4311,7 +4326,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J64" s="82">
+      <c r="J64" s="81">
         <v>0</v>
       </c>
       <c r="K64" s="4"/>
@@ -4328,16 +4343,16 @@
       <c r="V64" s="18"/>
       <c r="W64" s="20"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="105"/>
-      <c r="C65" s="110"/>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" s="108"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="87" t="s">
+      <c r="F65" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G65" s="4">
@@ -4350,7 +4365,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J65" s="82">
+      <c r="J65" s="81">
         <v>0</v>
       </c>
       <c r="K65" s="4"/>
@@ -4367,16 +4382,16 @@
       <c r="V65" s="18"/>
       <c r="W65" s="20"/>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="105"/>
-      <c r="C66" s="111"/>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="108"/>
+      <c r="C66" s="119"/>
       <c r="D66" s="31" t="s">
         <v>76</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G66" s="4">
@@ -4389,7 +4404,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J66" s="82">
+      <c r="J66" s="81">
         <v>0</v>
       </c>
       <c r="K66" s="4"/>
@@ -4406,8 +4421,8 @@
       <c r="V66" s="18"/>
       <c r="W66" s="20"/>
     </row>
-    <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="105"/>
+    <row r="67" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="108"/>
       <c r="C67" s="35" t="s">
         <v>73</v>
       </c>
@@ -4415,7 +4430,7 @@
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G67" s="4">
@@ -4428,7 +4443,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J67" s="82">
+      <c r="J67" s="81">
         <v>0</v>
       </c>
       <c r="K67" s="4"/>
@@ -4445,16 +4460,16 @@
       <c r="V67" s="18"/>
       <c r="W67" s="20"/>
     </row>
-    <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="105"/>
-      <c r="C68" s="61" t="s">
+    <row r="68" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="108"/>
+      <c r="C68" s="60" t="s">
         <v>81</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="87" t="s">
+      <c r="F68" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G68" s="4">
@@ -4467,7 +4482,7 @@
         <f t="shared" ref="I68:I99" si="2">SUM(J68:W68)</f>
         <v>0</v>
       </c>
-      <c r="J68" s="82">
+      <c r="J68" s="81">
         <v>0</v>
       </c>
       <c r="K68" s="4"/>
@@ -4484,9 +4499,9 @@
       <c r="V68" s="18"/>
       <c r="W68" s="20"/>
     </row>
-    <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="105"/>
-      <c r="C69" s="109" t="s">
+    <row r="69" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="108"/>
+      <c r="C69" s="117" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4495,7 +4510,7 @@
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="87" t="s">
+      <c r="F69" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="4">
@@ -4508,7 +4523,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J69" s="82">
+      <c r="J69" s="81">
         <v>0</v>
       </c>
       <c r="K69" s="4"/>
@@ -4525,16 +4540,16 @@
       <c r="V69" s="18"/>
       <c r="W69" s="20"/>
     </row>
-    <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="105"/>
-      <c r="C70" s="110"/>
+    <row r="70" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="108"/>
+      <c r="C70" s="118"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="87" t="s">
+      <c r="F70" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G70" s="4">
@@ -4547,7 +4562,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J70" s="82">
+      <c r="J70" s="81">
         <v>0</v>
       </c>
       <c r="K70" s="4"/>
@@ -4564,16 +4579,16 @@
       <c r="V70" s="18"/>
       <c r="W70" s="20"/>
     </row>
-    <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="105"/>
-      <c r="C71" s="110"/>
+    <row r="71" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="108"/>
+      <c r="C71" s="118"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="87" t="s">
+      <c r="F71" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G71" s="4">
@@ -4586,7 +4601,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J71" s="82">
+      <c r="J71" s="81">
         <v>0</v>
       </c>
       <c r="K71" s="4"/>
@@ -4603,16 +4618,16 @@
       <c r="V71" s="18"/>
       <c r="W71" s="20"/>
     </row>
-    <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="106"/>
-      <c r="C72" s="113"/>
+    <row r="72" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="109"/>
+      <c r="C72" s="121"/>
       <c r="D72" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="90" t="s">
+      <c r="F72" s="89" t="s">
         <v>111</v>
       </c>
       <c r="G72" s="25">
@@ -4625,7 +4640,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J72" s="83">
+      <c r="J72" s="82">
         <v>0</v>
       </c>
       <c r="K72" s="25"/>
@@ -4642,11 +4657,11 @@
       <c r="V72" s="23"/>
       <c r="W72" s="26"/>
     </row>
-    <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="118" t="s">
+    <row r="73" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="99" t="s">
+      <c r="C73" s="122" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -4655,7 +4670,7 @@
       <c r="E73" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="75" t="s">
+      <c r="F73" s="74" t="s">
         <v>116</v>
       </c>
       <c r="G73" s="44">
@@ -4668,7 +4683,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J73" s="81">
+      <c r="J73" s="80">
         <v>0</v>
       </c>
       <c r="K73" s="44"/>
@@ -4685,16 +4700,16 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="119"/>
-      <c r="C74" s="100"/>
+    <row r="74" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="105"/>
+      <c r="C74" s="110"/>
       <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="76" t="s">
+      <c r="F74" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G74" s="4">
@@ -4707,7 +4722,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="82">
+      <c r="J74" s="81">
         <v>0</v>
       </c>
       <c r="K74" s="4"/>
@@ -4724,16 +4739,16 @@
       <c r="V74" s="18"/>
       <c r="W74" s="20"/>
     </row>
-    <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="119"/>
-      <c r="C75" s="100"/>
+    <row r="75" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="105"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="76" t="s">
+      <c r="F75" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G75" s="4">
@@ -4746,7 +4761,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="82">
+      <c r="J75" s="81">
         <v>0</v>
       </c>
       <c r="K75" s="4"/>
@@ -4763,16 +4778,16 @@
       <c r="V75" s="18"/>
       <c r="W75" s="20"/>
     </row>
-    <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="119"/>
-      <c r="C76" s="100"/>
+    <row r="76" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="105"/>
+      <c r="C76" s="110"/>
       <c r="D76" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="76" t="s">
+      <c r="F76" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G76" s="4">
@@ -4785,7 +4800,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J76" s="82">
+      <c r="J76" s="81">
         <v>0</v>
       </c>
       <c r="K76" s="4"/>
@@ -4802,9 +4817,9 @@
       <c r="V76" s="18"/>
       <c r="W76" s="20"/>
     </row>
-    <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="119"/>
-      <c r="C77" s="100" t="s">
+    <row r="77" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="105"/>
+      <c r="C77" s="110" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4813,7 +4828,7 @@
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="F77" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G77" s="4">
@@ -4826,7 +4841,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J77" s="82">
+      <c r="J77" s="81">
         <v>0</v>
       </c>
       <c r="K77" s="4"/>
@@ -4843,16 +4858,16 @@
       <c r="V77" s="18"/>
       <c r="W77" s="20"/>
     </row>
-    <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="119"/>
-      <c r="C78" s="100"/>
+    <row r="78" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="105"/>
+      <c r="C78" s="110"/>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="76" t="s">
+      <c r="F78" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G78" s="4">
@@ -4865,7 +4880,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J78" s="82">
+      <c r="J78" s="81">
         <v>0</v>
       </c>
       <c r="K78" s="4"/>
@@ -4882,16 +4897,16 @@
       <c r="V78" s="18"/>
       <c r="W78" s="20"/>
     </row>
-    <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="119"/>
-      <c r="C79" s="100"/>
+    <row r="79" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="105"/>
+      <c r="C79" s="110"/>
       <c r="D79" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="76" t="s">
+      <c r="F79" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G79" s="4">
@@ -4904,7 +4919,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="82">
+      <c r="J79" s="81">
         <v>0</v>
       </c>
       <c r="K79" s="4"/>
@@ -4921,16 +4936,16 @@
       <c r="V79" s="18"/>
       <c r="W79" s="20"/>
     </row>
-    <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="119"/>
-      <c r="C80" s="100"/>
+    <row r="80" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="105"/>
+      <c r="C80" s="110"/>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="76" t="s">
+      <c r="F80" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G80" s="4">
@@ -4943,7 +4958,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J80" s="82">
+      <c r="J80" s="81">
         <v>0</v>
       </c>
       <c r="K80" s="4"/>
@@ -4960,9 +4975,9 @@
       <c r="V80" s="18"/>
       <c r="W80" s="20"/>
     </row>
-    <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="119"/>
-      <c r="C81" s="100" t="s">
+    <row r="81" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="105"/>
+      <c r="C81" s="110" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -4971,7 +4986,7 @@
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F81" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G81" s="4">
@@ -4984,7 +4999,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="82">
+      <c r="J81" s="81">
         <v>0</v>
       </c>
       <c r="K81" s="4"/>
@@ -5001,16 +5016,16 @@
       <c r="V81" s="18"/>
       <c r="W81" s="20"/>
     </row>
-    <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="119"/>
-      <c r="C82" s="100"/>
+    <row r="82" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="105"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="76" t="s">
+      <c r="F82" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G82" s="4">
@@ -5023,7 +5038,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="82">
+      <c r="J82" s="81">
         <v>0</v>
       </c>
       <c r="K82" s="4"/>
@@ -5040,16 +5055,16 @@
       <c r="V82" s="18"/>
       <c r="W82" s="20"/>
     </row>
-    <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="119"/>
-      <c r="C83" s="100"/>
+    <row r="83" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="105"/>
+      <c r="C83" s="110"/>
       <c r="D83" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G83" s="4">
@@ -5062,7 +5077,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J83" s="82">
+      <c r="J83" s="81">
         <v>0</v>
       </c>
       <c r="K83" s="4"/>
@@ -5079,16 +5094,16 @@
       <c r="V83" s="18"/>
       <c r="W83" s="20"/>
     </row>
-    <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="119"/>
-      <c r="C84" s="100"/>
+    <row r="84" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="105"/>
+      <c r="C84" s="110"/>
       <c r="D84" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="76" t="s">
+      <c r="F84" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G84" s="4">
@@ -5101,7 +5116,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="82">
+      <c r="J84" s="81">
         <v>0</v>
       </c>
       <c r="K84" s="4"/>
@@ -5118,9 +5133,9 @@
       <c r="V84" s="18"/>
       <c r="W84" s="20"/>
     </row>
-    <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="119"/>
-      <c r="C85" s="100" t="s">
+    <row r="85" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="105"/>
+      <c r="C85" s="110" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -5129,7 +5144,7 @@
       <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="76" t="s">
+      <c r="F85" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G85" s="4">
@@ -5142,7 +5157,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J85" s="82">
+      <c r="J85" s="81">
         <v>0</v>
       </c>
       <c r="K85" s="4"/>
@@ -5159,16 +5174,16 @@
       <c r="V85" s="18"/>
       <c r="W85" s="20"/>
     </row>
-    <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="119"/>
-      <c r="C86" s="100"/>
+    <row r="86" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="105"/>
+      <c r="C86" s="110"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F86" s="76" t="s">
+      <c r="F86" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G86" s="4">
@@ -5181,7 +5196,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J86" s="82">
+      <c r="J86" s="81">
         <v>0</v>
       </c>
       <c r="K86" s="4"/>
@@ -5198,16 +5213,16 @@
       <c r="V86" s="18"/>
       <c r="W86" s="20"/>
     </row>
-    <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="119"/>
-      <c r="C87" s="100"/>
+    <row r="87" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="105"/>
+      <c r="C87" s="110"/>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="76" t="s">
+      <c r="F87" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G87" s="4">
@@ -5220,7 +5235,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J87" s="82">
+      <c r="J87" s="81">
         <v>0</v>
       </c>
       <c r="K87" s="4"/>
@@ -5237,16 +5252,16 @@
       <c r="V87" s="18"/>
       <c r="W87" s="20"/>
     </row>
-    <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="119"/>
-      <c r="C88" s="100"/>
+    <row r="88" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="105"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="76" t="s">
+      <c r="F88" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G88" s="4">
@@ -5259,7 +5274,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J88" s="82">
+      <c r="J88" s="81">
         <v>0</v>
       </c>
       <c r="K88" s="4"/>
@@ -5276,9 +5291,9 @@
       <c r="V88" s="18"/>
       <c r="W88" s="20"/>
     </row>
-    <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="119"/>
-      <c r="C89" s="100" t="s">
+    <row r="89" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="105"/>
+      <c r="C89" s="110" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -5287,7 +5302,7 @@
       <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="76" t="s">
+      <c r="F89" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G89" s="4">
@@ -5300,7 +5315,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="82">
+      <c r="J89" s="81">
         <v>0</v>
       </c>
       <c r="K89" s="4"/>
@@ -5317,16 +5332,16 @@
       <c r="V89" s="18"/>
       <c r="W89" s="20"/>
     </row>
-    <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="119"/>
-      <c r="C90" s="100"/>
+    <row r="90" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="105"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="76" t="s">
+      <c r="F90" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G90" s="4">
@@ -5339,7 +5354,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J90" s="82">
+      <c r="J90" s="81">
         <v>0</v>
       </c>
       <c r="K90" s="4"/>
@@ -5356,16 +5371,16 @@
       <c r="V90" s="18"/>
       <c r="W90" s="20"/>
     </row>
-    <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="119"/>
-      <c r="C91" s="100"/>
+    <row r="91" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="105"/>
+      <c r="C91" s="110"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="76" t="s">
+      <c r="F91" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G91" s="4">
@@ -5378,7 +5393,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J91" s="82">
+      <c r="J91" s="81">
         <v>0</v>
       </c>
       <c r="K91" s="4"/>
@@ -5395,16 +5410,16 @@
       <c r="V91" s="18"/>
       <c r="W91" s="20"/>
     </row>
-    <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="119"/>
-      <c r="C92" s="100"/>
+    <row r="92" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="105"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="76" t="s">
+      <c r="F92" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G92" s="4">
@@ -5417,7 +5432,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J92" s="82">
+      <c r="J92" s="81">
         <v>0</v>
       </c>
       <c r="K92" s="4"/>
@@ -5434,9 +5449,9 @@
       <c r="V92" s="18"/>
       <c r="W92" s="20"/>
     </row>
-    <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="119"/>
-      <c r="C93" s="100" t="s">
+    <row r="93" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="105"/>
+      <c r="C93" s="110" t="s">
         <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5445,7 +5460,7 @@
       <c r="E93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="76" t="s">
+      <c r="F93" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G93" s="4">
@@ -5458,7 +5473,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J93" s="82">
+      <c r="J93" s="81">
         <v>0</v>
       </c>
       <c r="K93" s="4"/>
@@ -5475,16 +5490,16 @@
       <c r="V93" s="18"/>
       <c r="W93" s="20"/>
     </row>
-    <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="119"/>
-      <c r="C94" s="100"/>
+    <row r="94" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="105"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="76" t="s">
+      <c r="F94" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G94" s="4">
@@ -5497,7 +5512,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J94" s="82">
+      <c r="J94" s="81">
         <v>0</v>
       </c>
       <c r="K94" s="4"/>
@@ -5514,16 +5529,16 @@
       <c r="V94" s="18"/>
       <c r="W94" s="20"/>
     </row>
-    <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="119"/>
-      <c r="C95" s="100"/>
+    <row r="95" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="105"/>
+      <c r="C95" s="110"/>
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="76" t="s">
+      <c r="F95" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G95" s="4">
@@ -5536,7 +5551,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J95" s="82">
+      <c r="J95" s="81">
         <v>0</v>
       </c>
       <c r="K95" s="4"/>
@@ -5553,16 +5568,16 @@
       <c r="V95" s="18"/>
       <c r="W95" s="20"/>
     </row>
-    <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="119"/>
-      <c r="C96" s="100"/>
+    <row r="96" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="105"/>
+      <c r="C96" s="110"/>
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="76" t="s">
+      <c r="F96" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G96" s="4">
@@ -5575,7 +5590,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J96" s="82">
+      <c r="J96" s="81">
         <v>0</v>
       </c>
       <c r="K96" s="4"/>
@@ -5592,9 +5607,9 @@
       <c r="V96" s="18"/>
       <c r="W96" s="20"/>
     </row>
-    <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="119"/>
-      <c r="C97" s="100" t="s">
+    <row r="97" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="105"/>
+      <c r="C97" s="110" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5603,7 +5618,7 @@
       <c r="E97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="76" t="s">
+      <c r="F97" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G97" s="4">
@@ -5616,7 +5631,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J97" s="82">
+      <c r="J97" s="81">
         <v>0</v>
       </c>
       <c r="K97" s="4"/>
@@ -5633,16 +5648,16 @@
       <c r="V97" s="18"/>
       <c r="W97" s="20"/>
     </row>
-    <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="119"/>
-      <c r="C98" s="100"/>
+    <row r="98" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="105"/>
+      <c r="C98" s="110"/>
       <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F98" s="76" t="s">
+      <c r="F98" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G98" s="4">
@@ -5655,7 +5670,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J98" s="82">
+      <c r="J98" s="81">
         <v>0</v>
       </c>
       <c r="K98" s="4"/>
@@ -5672,16 +5687,16 @@
       <c r="V98" s="18"/>
       <c r="W98" s="20"/>
     </row>
-    <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="119"/>
-      <c r="C99" s="100"/>
+    <row r="99" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="105"/>
+      <c r="C99" s="110"/>
       <c r="D99" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="76" t="s">
+      <c r="F99" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G99" s="4">
@@ -5694,7 +5709,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J99" s="82">
+      <c r="J99" s="81">
         <v>0</v>
       </c>
       <c r="K99" s="4"/>
@@ -5711,16 +5726,16 @@
       <c r="V99" s="18"/>
       <c r="W99" s="20"/>
     </row>
-    <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="119"/>
-      <c r="C100" s="100"/>
+    <row r="100" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="105"/>
+      <c r="C100" s="110"/>
       <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="76" t="s">
+      <c r="F100" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G100" s="4">
@@ -5733,7 +5748,7 @@
         <f t="shared" ref="I100:I131" si="3">SUM(J100:W100)</f>
         <v>0</v>
       </c>
-      <c r="J100" s="82">
+      <c r="J100" s="81">
         <v>0</v>
       </c>
       <c r="K100" s="4"/>
@@ -5750,9 +5765,9 @@
       <c r="V100" s="18"/>
       <c r="W100" s="20"/>
     </row>
-    <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="119"/>
-      <c r="C101" s="100" t="s">
+    <row r="101" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="105"/>
+      <c r="C101" s="110" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5761,7 +5776,7 @@
       <c r="E101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="76" t="s">
+      <c r="F101" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G101" s="4">
@@ -5774,7 +5789,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J101" s="82">
+      <c r="J101" s="81">
         <v>0</v>
       </c>
       <c r="K101" s="4"/>
@@ -5791,16 +5806,16 @@
       <c r="V101" s="18"/>
       <c r="W101" s="20"/>
     </row>
-    <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="119"/>
-      <c r="C102" s="100"/>
+    <row r="102" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="105"/>
+      <c r="C102" s="110"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="76" t="s">
+      <c r="F102" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G102" s="4">
@@ -5813,7 +5828,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J102" s="82">
+      <c r="J102" s="81">
         <v>0</v>
       </c>
       <c r="K102" s="4"/>
@@ -5830,16 +5845,16 @@
       <c r="V102" s="18"/>
       <c r="W102" s="20"/>
     </row>
-    <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="119"/>
-      <c r="C103" s="100"/>
+    <row r="103" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="105"/>
+      <c r="C103" s="110"/>
       <c r="D103" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="76" t="s">
+      <c r="F103" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G103" s="4">
@@ -5852,7 +5867,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J103" s="82">
+      <c r="J103" s="81">
         <v>0</v>
       </c>
       <c r="K103" s="4"/>
@@ -5869,16 +5884,16 @@
       <c r="V103" s="18"/>
       <c r="W103" s="20"/>
     </row>
-    <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="119"/>
-      <c r="C104" s="100"/>
+    <row r="104" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="105"/>
+      <c r="C104" s="110"/>
       <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F104" s="76" t="s">
+      <c r="F104" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G104" s="4">
@@ -5891,7 +5906,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J104" s="82">
+      <c r="J104" s="81">
         <v>0</v>
       </c>
       <c r="K104" s="4"/>
@@ -5908,9 +5923,9 @@
       <c r="V104" s="18"/>
       <c r="W104" s="20"/>
     </row>
-    <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="119"/>
-      <c r="C105" s="100" t="s">
+    <row r="105" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="105"/>
+      <c r="C105" s="110" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5919,7 +5934,7 @@
       <c r="E105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="76" t="s">
+      <c r="F105" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G105" s="4">
@@ -5932,7 +5947,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J105" s="82">
+      <c r="J105" s="81">
         <v>0</v>
       </c>
       <c r="K105" s="4"/>
@@ -5949,16 +5964,16 @@
       <c r="V105" s="18"/>
       <c r="W105" s="20"/>
     </row>
-    <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="119"/>
-      <c r="C106" s="100"/>
+    <row r="106" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="105"/>
+      <c r="C106" s="110"/>
       <c r="D106" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="76" t="s">
+      <c r="F106" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G106" s="4">
@@ -5971,7 +5986,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J106" s="82">
+      <c r="J106" s="81">
         <v>0</v>
       </c>
       <c r="K106" s="4"/>
@@ -5988,16 +6003,16 @@
       <c r="V106" s="18"/>
       <c r="W106" s="20"/>
     </row>
-    <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="119"/>
-      <c r="C107" s="100"/>
+    <row r="107" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="105"/>
+      <c r="C107" s="110"/>
       <c r="D107" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="76" t="s">
+      <c r="F107" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G107" s="4">
@@ -6010,7 +6025,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J107" s="82">
+      <c r="J107" s="81">
         <v>0</v>
       </c>
       <c r="K107" s="4"/>
@@ -6027,16 +6042,16 @@
       <c r="V107" s="18"/>
       <c r="W107" s="20"/>
     </row>
-    <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="119"/>
-      <c r="C108" s="100"/>
+    <row r="108" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="105"/>
+      <c r="C108" s="110"/>
       <c r="D108" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="76" t="s">
+      <c r="F108" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G108" s="4">
@@ -6049,7 +6064,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J108" s="82">
+      <c r="J108" s="81">
         <v>0</v>
       </c>
       <c r="K108" s="4"/>
@@ -6066,9 +6081,9 @@
       <c r="V108" s="18"/>
       <c r="W108" s="20"/>
     </row>
-    <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="119"/>
-      <c r="C109" s="100" t="s">
+    <row r="109" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="105"/>
+      <c r="C109" s="110" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -6077,7 +6092,7 @@
       <c r="E109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="76" t="s">
+      <c r="F109" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G109" s="4">
@@ -6090,7 +6105,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J109" s="82">
+      <c r="J109" s="81">
         <v>0</v>
       </c>
       <c r="K109" s="4"/>
@@ -6107,16 +6122,16 @@
       <c r="V109" s="18"/>
       <c r="W109" s="20"/>
     </row>
-    <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="119"/>
-      <c r="C110" s="100"/>
+    <row r="110" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="105"/>
+      <c r="C110" s="110"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="76" t="s">
+      <c r="F110" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G110" s="4">
@@ -6129,7 +6144,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J110" s="82">
+      <c r="J110" s="81">
         <v>0</v>
       </c>
       <c r="K110" s="4"/>
@@ -6146,16 +6161,16 @@
       <c r="V110" s="18"/>
       <c r="W110" s="20"/>
     </row>
-    <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="119"/>
-      <c r="C111" s="100"/>
+    <row r="111" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="105"/>
+      <c r="C111" s="110"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="76" t="s">
+      <c r="F111" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G111" s="4">
@@ -6168,7 +6183,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J111" s="82">
+      <c r="J111" s="81">
         <v>0</v>
       </c>
       <c r="K111" s="4"/>
@@ -6185,16 +6200,16 @@
       <c r="V111" s="18"/>
       <c r="W111" s="20"/>
     </row>
-    <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="119"/>
-      <c r="C112" s="100"/>
+    <row r="112" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="105"/>
+      <c r="C112" s="110"/>
       <c r="D112" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F112" s="76" t="s">
+      <c r="F112" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G112" s="4">
@@ -6207,7 +6222,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J112" s="82">
+      <c r="J112" s="81">
         <v>0</v>
       </c>
       <c r="K112" s="4"/>
@@ -6224,9 +6239,9 @@
       <c r="V112" s="18"/>
       <c r="W112" s="20"/>
     </row>
-    <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="119"/>
-      <c r="C113" s="100" t="s">
+    <row r="113" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="105"/>
+      <c r="C113" s="110" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6235,7 +6250,7 @@
       <c r="E113" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="76" t="s">
+      <c r="F113" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G113" s="4">
@@ -6248,7 +6263,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J113" s="82">
+      <c r="J113" s="81">
         <v>0</v>
       </c>
       <c r="K113" s="4"/>
@@ -6265,16 +6280,16 @@
       <c r="V113" s="18"/>
       <c r="W113" s="20"/>
     </row>
-    <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="119"/>
-      <c r="C114" s="100"/>
+    <row r="114" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="105"/>
+      <c r="C114" s="110"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F114" s="76" t="s">
+      <c r="F114" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G114" s="4">
@@ -6287,7 +6302,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J114" s="82">
+      <c r="J114" s="81">
         <v>0</v>
       </c>
       <c r="K114" s="4"/>
@@ -6304,16 +6319,16 @@
       <c r="V114" s="18"/>
       <c r="W114" s="20"/>
     </row>
-    <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="119"/>
-      <c r="C115" s="100"/>
+    <row r="115" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="105"/>
+      <c r="C115" s="110"/>
       <c r="D115" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F115" s="76" t="s">
+      <c r="F115" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G115" s="4">
@@ -6326,7 +6341,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J115" s="82">
+      <c r="J115" s="81">
         <v>0</v>
       </c>
       <c r="K115" s="4"/>
@@ -6343,16 +6358,16 @@
       <c r="V115" s="18"/>
       <c r="W115" s="20"/>
     </row>
-    <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="119"/>
-      <c r="C116" s="100"/>
+    <row r="116" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="105"/>
+      <c r="C116" s="110"/>
       <c r="D116" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="76" t="s">
+      <c r="F116" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G116" s="4">
@@ -6365,7 +6380,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J116" s="82">
+      <c r="J116" s="81">
         <v>0</v>
       </c>
       <c r="K116" s="4"/>
@@ -6382,9 +6397,9 @@
       <c r="V116" s="18"/>
       <c r="W116" s="20"/>
     </row>
-    <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="119"/>
-      <c r="C117" s="100" t="s">
+    <row r="117" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="105"/>
+      <c r="C117" s="110" t="s">
         <v>129</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6393,7 +6408,7 @@
       <c r="E117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F117" s="76" t="s">
+      <c r="F117" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G117" s="4">
@@ -6406,7 +6421,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J117" s="82">
+      <c r="J117" s="81">
         <v>0</v>
       </c>
       <c r="K117" s="4"/>
@@ -6423,16 +6438,16 @@
       <c r="V117" s="18"/>
       <c r="W117" s="20"/>
     </row>
-    <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="119"/>
-      <c r="C118" s="100"/>
+    <row r="118" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="105"/>
+      <c r="C118" s="110"/>
       <c r="D118" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="76" t="s">
+      <c r="F118" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G118" s="4">
@@ -6445,7 +6460,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J118" s="82">
+      <c r="J118" s="81">
         <v>0</v>
       </c>
       <c r="K118" s="4"/>
@@ -6462,16 +6477,16 @@
       <c r="V118" s="18"/>
       <c r="W118" s="20"/>
     </row>
-    <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="119"/>
-      <c r="C119" s="100"/>
+    <row r="119" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="105"/>
+      <c r="C119" s="110"/>
       <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="76" t="s">
+      <c r="F119" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G119" s="4">
@@ -6484,7 +6499,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J119" s="82">
+      <c r="J119" s="81">
         <v>0</v>
       </c>
       <c r="K119" s="4"/>
@@ -6501,16 +6516,16 @@
       <c r="V119" s="18"/>
       <c r="W119" s="20"/>
     </row>
-    <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="119"/>
-      <c r="C120" s="100"/>
+    <row r="120" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="105"/>
+      <c r="C120" s="110"/>
       <c r="D120" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F120" s="76" t="s">
+      <c r="F120" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G120" s="4">
@@ -6523,7 +6538,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J120" s="82">
+      <c r="J120" s="81">
         <v>0</v>
       </c>
       <c r="K120" s="4"/>
@@ -6540,9 +6555,9 @@
       <c r="V120" s="18"/>
       <c r="W120" s="20"/>
     </row>
-    <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="119"/>
-      <c r="C121" s="100" t="s">
+    <row r="121" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="105"/>
+      <c r="C121" s="110" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6551,7 +6566,7 @@
       <c r="E121" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="76" t="s">
+      <c r="F121" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G121" s="4">
@@ -6564,7 +6579,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J121" s="82">
+      <c r="J121" s="81">
         <v>0</v>
       </c>
       <c r="K121" s="4"/>
@@ -6581,16 +6596,16 @@
       <c r="V121" s="18"/>
       <c r="W121" s="20"/>
     </row>
-    <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="119"/>
-      <c r="C122" s="100"/>
+    <row r="122" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="105"/>
+      <c r="C122" s="110"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F122" s="76" t="s">
+      <c r="F122" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G122" s="4">
@@ -6603,7 +6618,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J122" s="82">
+      <c r="J122" s="81">
         <v>0</v>
       </c>
       <c r="K122" s="4"/>
@@ -6620,16 +6635,16 @@
       <c r="V122" s="18"/>
       <c r="W122" s="20"/>
     </row>
-    <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="119"/>
-      <c r="C123" s="100"/>
+    <row r="123" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="105"/>
+      <c r="C123" s="110"/>
       <c r="D123" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="76" t="s">
+      <c r="F123" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G123" s="4">
@@ -6642,7 +6657,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J123" s="82">
+      <c r="J123" s="81">
         <v>0</v>
       </c>
       <c r="K123" s="4"/>
@@ -6659,16 +6674,16 @@
       <c r="V123" s="18"/>
       <c r="W123" s="20"/>
     </row>
-    <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="119"/>
-      <c r="C124" s="100"/>
+    <row r="124" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="105"/>
+      <c r="C124" s="110"/>
       <c r="D124" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F124" s="76" t="s">
+      <c r="F124" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G124" s="4">
@@ -6681,7 +6696,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J124" s="82">
+      <c r="J124" s="81">
         <v>0</v>
       </c>
       <c r="K124" s="4"/>
@@ -6698,9 +6713,9 @@
       <c r="V124" s="18"/>
       <c r="W124" s="20"/>
     </row>
-    <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="119"/>
-      <c r="C125" s="100" t="s">
+    <row r="125" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="105"/>
+      <c r="C125" s="110" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -6709,7 +6724,7 @@
       <c r="E125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="76" t="s">
+      <c r="F125" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G125" s="4">
@@ -6722,7 +6737,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J125" s="82">
+      <c r="J125" s="81">
         <v>0</v>
       </c>
       <c r="K125" s="4"/>
@@ -6739,16 +6754,16 @@
       <c r="V125" s="18"/>
       <c r="W125" s="20"/>
     </row>
-    <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="119"/>
-      <c r="C126" s="100"/>
+    <row r="126" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="105"/>
+      <c r="C126" s="110"/>
       <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F126" s="76" t="s">
+      <c r="F126" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G126" s="4">
@@ -6761,7 +6776,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J126" s="82">
+      <c r="J126" s="81">
         <v>0</v>
       </c>
       <c r="K126" s="4"/>
@@ -6778,16 +6793,16 @@
       <c r="V126" s="18"/>
       <c r="W126" s="20"/>
     </row>
-    <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="119"/>
-      <c r="C127" s="100"/>
+    <row r="127" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="105"/>
+      <c r="C127" s="110"/>
       <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F127" s="76" t="s">
+      <c r="F127" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G127" s="4">
@@ -6800,7 +6815,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J127" s="82">
+      <c r="J127" s="81">
         <v>0</v>
       </c>
       <c r="K127" s="4"/>
@@ -6817,16 +6832,16 @@
       <c r="V127" s="18"/>
       <c r="W127" s="20"/>
     </row>
-    <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="119"/>
-      <c r="C128" s="100"/>
+    <row r="128" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="105"/>
+      <c r="C128" s="110"/>
       <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F128" s="76" t="s">
+      <c r="F128" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G128" s="4">
@@ -6839,7 +6854,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J128" s="82">
+      <c r="J128" s="81">
         <v>0</v>
       </c>
       <c r="K128" s="4"/>
@@ -6856,9 +6871,9 @@
       <c r="V128" s="18"/>
       <c r="W128" s="20"/>
     </row>
-    <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="119"/>
-      <c r="C129" s="100" t="s">
+    <row r="129" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="105"/>
+      <c r="C129" s="110" t="s">
         <v>132</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -6867,7 +6882,7 @@
       <c r="E129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F129" s="76" t="s">
+      <c r="F129" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G129" s="4">
@@ -6880,7 +6895,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J129" s="82">
+      <c r="J129" s="81">
         <v>0</v>
       </c>
       <c r="K129" s="4"/>
@@ -6897,16 +6912,16 @@
       <c r="V129" s="18"/>
       <c r="W129" s="20"/>
     </row>
-    <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="119"/>
-      <c r="C130" s="100"/>
+    <row r="130" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="105"/>
+      <c r="C130" s="110"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="76" t="s">
+      <c r="F130" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G130" s="4">
@@ -6919,7 +6934,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J130" s="82">
+      <c r="J130" s="81">
         <v>0</v>
       </c>
       <c r="K130" s="4"/>
@@ -6936,16 +6951,16 @@
       <c r="V130" s="18"/>
       <c r="W130" s="20"/>
     </row>
-    <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="119"/>
-      <c r="C131" s="100"/>
+    <row r="131" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="105"/>
+      <c r="C131" s="110"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F131" s="76" t="s">
+      <c r="F131" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G131" s="4">
@@ -6958,7 +6973,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J131" s="82">
+      <c r="J131" s="81">
         <v>0</v>
       </c>
       <c r="K131" s="4"/>
@@ -6975,16 +6990,16 @@
       <c r="V131" s="18"/>
       <c r="W131" s="20"/>
     </row>
-    <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="121"/>
-      <c r="C132" s="122"/>
+    <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="111"/>
+      <c r="C132" s="114"/>
       <c r="D132" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E132" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F132" s="77" t="s">
+      <c r="F132" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G132" s="25">
@@ -6997,7 +7012,7 @@
         <f t="shared" ref="I132:I160" si="4">SUM(J132:W132)</f>
         <v>0</v>
       </c>
-      <c r="J132" s="83">
+      <c r="J132" s="82">
         <v>0</v>
       </c>
       <c r="K132" s="25"/>
@@ -7014,18 +7029,18 @@
       <c r="V132" s="23"/>
       <c r="W132" s="26"/>
     </row>
-    <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="104" t="s">
+    <row r="133" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C133" s="92" t="s">
+      <c r="C133" s="91" t="s">
         <v>95</v>
       </c>
       <c r="D133" s="44"/>
       <c r="E133" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="75" t="s">
+      <c r="F133" s="74" t="s">
         <v>116</v>
       </c>
       <c r="G133" s="44">
@@ -7038,7 +7053,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J133" s="81">
+      <c r="J133" s="80">
         <v>0</v>
       </c>
       <c r="K133" s="44"/>
@@ -7055,8 +7070,8 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="105"/>
+    <row r="134" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="108"/>
       <c r="C134" s="38" t="s">
         <v>89</v>
       </c>
@@ -7064,7 +7079,7 @@
       <c r="E134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F134" s="87" t="s">
+      <c r="F134" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G134" s="4">
@@ -7077,7 +7092,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J134" s="82">
+      <c r="J134" s="81">
         <v>0</v>
       </c>
       <c r="K134" s="4"/>
@@ -7094,8 +7109,8 @@
       <c r="V134" s="18"/>
       <c r="W134" s="20"/>
     </row>
-    <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="105"/>
+    <row r="135" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="108"/>
       <c r="C135" s="38" t="s">
         <v>90</v>
       </c>
@@ -7103,7 +7118,7 @@
       <c r="E135" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="87" t="s">
+      <c r="F135" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G135" s="4">
@@ -7116,7 +7131,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J135" s="82">
+      <c r="J135" s="81">
         <v>0</v>
       </c>
       <c r="K135" s="4"/>
@@ -7133,8 +7148,8 @@
       <c r="V135" s="18"/>
       <c r="W135" s="20"/>
     </row>
-    <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="105"/>
+    <row r="136" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="108"/>
       <c r="C136" s="38" t="s">
         <v>91</v>
       </c>
@@ -7142,7 +7157,7 @@
       <c r="E136" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F136" s="87" t="s">
+      <c r="F136" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G136" s="4">
@@ -7155,7 +7170,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J136" s="82">
+      <c r="J136" s="81">
         <v>0</v>
       </c>
       <c r="K136" s="4"/>
@@ -7172,8 +7187,8 @@
       <c r="V136" s="18"/>
       <c r="W136" s="20"/>
     </row>
-    <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="105"/>
+    <row r="137" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="108"/>
       <c r="C137" s="38" t="s">
         <v>143</v>
       </c>
@@ -7181,7 +7196,7 @@
       <c r="E137" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F137" s="87" t="s">
+      <c r="F137" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G137" s="4">
@@ -7194,7 +7209,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J137" s="82">
+      <c r="J137" s="81">
         <v>0</v>
       </c>
       <c r="K137" s="4"/>
@@ -7211,8 +7226,8 @@
       <c r="V137" s="18"/>
       <c r="W137" s="20"/>
     </row>
-    <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="105"/>
+    <row r="138" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="108"/>
       <c r="C138" s="38" t="s">
         <v>140</v>
       </c>
@@ -7220,7 +7235,7 @@
       <c r="E138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F138" s="87" t="s">
+      <c r="F138" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G138" s="4">
@@ -7233,7 +7248,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J138" s="82">
+      <c r="J138" s="81">
         <v>0</v>
       </c>
       <c r="K138" s="4"/>
@@ -7250,8 +7265,8 @@
       <c r="V138" s="18"/>
       <c r="W138" s="20"/>
     </row>
-    <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="105"/>
+    <row r="139" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="108"/>
       <c r="C139" s="38" t="s">
         <v>142</v>
       </c>
@@ -7259,7 +7274,7 @@
       <c r="E139" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="87" t="s">
+      <c r="F139" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G139" s="4">
@@ -7272,7 +7287,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J139" s="82">
+      <c r="J139" s="81">
         <v>0</v>
       </c>
       <c r="K139" s="4"/>
@@ -7289,8 +7304,8 @@
       <c r="V139" s="18"/>
       <c r="W139" s="20"/>
     </row>
-    <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="105"/>
+    <row r="140" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="108"/>
       <c r="C140" s="38" t="s">
         <v>141</v>
       </c>
@@ -7298,7 +7313,7 @@
       <c r="E140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F140" s="87" t="s">
+      <c r="F140" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G140" s="4">
@@ -7311,7 +7326,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J140" s="82">
+      <c r="J140" s="81">
         <v>0</v>
       </c>
       <c r="K140" s="4"/>
@@ -7328,8 +7343,8 @@
       <c r="V140" s="18"/>
       <c r="W140" s="20"/>
     </row>
-    <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="105"/>
+    <row r="141" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="108"/>
       <c r="C141" s="38" t="s">
         <v>92</v>
       </c>
@@ -7337,7 +7352,7 @@
       <c r="E141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="79" t="s">
+      <c r="F141" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G141" s="4">
@@ -7350,7 +7365,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J141" s="82">
+      <c r="J141" s="81">
         <v>0</v>
       </c>
       <c r="K141" s="4"/>
@@ -7367,8 +7382,8 @@
       <c r="V141" s="18"/>
       <c r="W141" s="20"/>
     </row>
-    <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="105"/>
+    <row r="142" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="108"/>
       <c r="C142" s="38" t="s">
         <v>93</v>
       </c>
@@ -7376,7 +7391,7 @@
       <c r="E142" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F142" s="79" t="s">
+      <c r="F142" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G142" s="4">
@@ -7389,7 +7404,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J142" s="82">
+      <c r="J142" s="81">
         <v>0</v>
       </c>
       <c r="K142" s="4"/>
@@ -7406,8 +7421,8 @@
       <c r="V142" s="18"/>
       <c r="W142" s="20"/>
     </row>
-    <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="105"/>
+    <row r="143" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="108"/>
       <c r="C143" s="38" t="s">
         <v>94</v>
       </c>
@@ -7415,7 +7430,7 @@
       <c r="E143" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F143" s="79" t="s">
+      <c r="F143" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G143" s="4">
@@ -7428,7 +7443,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J143" s="82">
+      <c r="J143" s="81">
         <v>0</v>
       </c>
       <c r="K143" s="4"/>
@@ -7445,8 +7460,8 @@
       <c r="V143" s="18"/>
       <c r="W143" s="20"/>
     </row>
-    <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="105"/>
+    <row r="144" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="108"/>
       <c r="C144" s="38" t="s">
         <v>98</v>
       </c>
@@ -7454,7 +7469,7 @@
       <c r="E144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F144" s="76" t="s">
+      <c r="F144" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G144" s="4">
@@ -7467,7 +7482,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J144" s="82">
+      <c r="J144" s="81">
         <v>0</v>
       </c>
       <c r="K144" s="4"/>
@@ -7484,16 +7499,16 @@
       <c r="V144" s="18"/>
       <c r="W144" s="20"/>
     </row>
-    <row r="145" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="106"/>
-      <c r="C145" s="62" t="s">
+    <row r="145" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="109"/>
+      <c r="C145" s="61" t="s">
         <v>99</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F145" s="80" t="s">
+      <c r="F145" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G145" s="25">
@@ -7506,7 +7521,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J145" s="83">
+      <c r="J145" s="82">
         <v>0</v>
       </c>
       <c r="K145" s="25"/>
@@ -7523,18 +7538,18 @@
       <c r="V145" s="23"/>
       <c r="W145" s="26"/>
     </row>
-    <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="118" t="s">
+    <row r="146" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="72" t="s">
+      <c r="C146" s="71" t="s">
         <v>135</v>
       </c>
       <c r="D146" s="44"/>
       <c r="E146" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F146" s="75" t="s">
+      <c r="F146" s="74" t="s">
         <v>116</v>
       </c>
       <c r="G146" s="44">
@@ -7543,11 +7558,11 @@
       <c r="H146" s="44">
         <v>0.1</v>
       </c>
-      <c r="I146" s="93">
+      <c r="I146" s="92">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J146" s="81">
+      <c r="J146" s="80">
         <v>0</v>
       </c>
       <c r="K146" s="44"/>
@@ -7564,16 +7579,16 @@
       <c r="V146" s="56"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="119"/>
-      <c r="C147" s="71" t="s">
+    <row r="147" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="105"/>
+      <c r="C147" s="70" t="s">
         <v>145</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F147" s="76" t="s">
+      <c r="F147" s="75" t="s">
         <v>116</v>
       </c>
       <c r="G147" s="4">
@@ -7582,11 +7597,11 @@
       <c r="H147" s="4">
         <v>0.75</v>
       </c>
-      <c r="I147" s="67">
+      <c r="I147" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J147" s="82">
+      <c r="J147" s="81">
         <v>0</v>
       </c>
       <c r="K147" s="4"/>
@@ -7603,16 +7618,16 @@
       <c r="V147" s="18"/>
       <c r="W147" s="20"/>
     </row>
-    <row r="148" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="121"/>
-      <c r="C148" s="73" t="s">
+    <row r="148" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="111"/>
+      <c r="C148" s="72" t="s">
         <v>146</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F148" s="77" t="s">
+      <c r="F148" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G148" s="25">
@@ -7625,7 +7640,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J148" s="83">
+      <c r="J148" s="82">
         <v>0</v>
       </c>
       <c r="K148" s="25"/>
@@ -7642,8 +7657,8 @@
       <c r="V148" s="23"/>
       <c r="W148" s="26"/>
     </row>
-    <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="105" t="s">
+    <row r="149" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="38" t="s">
@@ -7653,7 +7668,7 @@
       <c r="E149" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F149" s="86" t="s">
+      <c r="F149" s="85" t="s">
         <v>111</v>
       </c>
       <c r="G149" s="7">
@@ -7662,29 +7677,29 @@
       <c r="H149" s="7">
         <v>0.4</v>
       </c>
-      <c r="I149" s="66">
+      <c r="I149" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J149" s="84">
+      <c r="J149" s="83">
         <v>0</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-      <c r="O149" s="68"/>
-      <c r="P149" s="69"/>
-      <c r="Q149" s="68"/>
-      <c r="R149" s="68"/>
-      <c r="S149" s="68"/>
-      <c r="T149" s="68"/>
-      <c r="U149" s="68"/>
-      <c r="V149" s="68"/>
-      <c r="W149" s="70"/>
-    </row>
-    <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="105"/>
+      <c r="O149" s="67"/>
+      <c r="P149" s="68"/>
+      <c r="Q149" s="67"/>
+      <c r="R149" s="67"/>
+      <c r="S149" s="67"/>
+      <c r="T149" s="67"/>
+      <c r="U149" s="67"/>
+      <c r="V149" s="67"/>
+      <c r="W149" s="69"/>
+    </row>
+    <row r="150" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="108"/>
       <c r="C150" s="38" t="s">
         <v>138</v>
       </c>
@@ -7692,7 +7707,7 @@
       <c r="E150" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F150" s="87" t="s">
+      <c r="F150" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G150" s="7">
@@ -7705,25 +7720,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J150" s="84">
+      <c r="J150" s="83">
         <v>0</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="68"/>
-      <c r="P150" s="69"/>
-      <c r="Q150" s="68"/>
-      <c r="R150" s="68"/>
-      <c r="S150" s="68"/>
-      <c r="T150" s="68"/>
-      <c r="U150" s="68"/>
-      <c r="V150" s="68"/>
-      <c r="W150" s="70"/>
-    </row>
-    <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="105"/>
+      <c r="O150" s="67"/>
+      <c r="P150" s="68"/>
+      <c r="Q150" s="67"/>
+      <c r="R150" s="67"/>
+      <c r="S150" s="67"/>
+      <c r="T150" s="67"/>
+      <c r="U150" s="67"/>
+      <c r="V150" s="67"/>
+      <c r="W150" s="69"/>
+    </row>
+    <row r="151" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="108"/>
       <c r="C151" s="38" t="s">
         <v>139</v>
       </c>
@@ -7731,7 +7746,7 @@
       <c r="E151" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F151" s="87" t="s">
+      <c r="F151" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G151" s="7">
@@ -7744,25 +7759,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J151" s="84">
+      <c r="J151" s="83">
         <v>0</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-      <c r="O151" s="68"/>
-      <c r="P151" s="69"/>
-      <c r="Q151" s="68"/>
-      <c r="R151" s="68"/>
-      <c r="S151" s="68"/>
-      <c r="T151" s="68"/>
-      <c r="U151" s="68"/>
-      <c r="V151" s="68"/>
-      <c r="W151" s="70"/>
-    </row>
-    <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="105"/>
+      <c r="O151" s="67"/>
+      <c r="P151" s="68"/>
+      <c r="Q151" s="67"/>
+      <c r="R151" s="67"/>
+      <c r="S151" s="67"/>
+      <c r="T151" s="67"/>
+      <c r="U151" s="67"/>
+      <c r="V151" s="67"/>
+      <c r="W151" s="69"/>
+    </row>
+    <row r="152" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="108"/>
       <c r="C152" s="38" t="s">
         <v>147</v>
       </c>
@@ -7770,7 +7785,7 @@
       <c r="E152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F152" s="87" t="s">
+      <c r="F152" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G152" s="4">
@@ -7783,7 +7798,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J152" s="82">
+      <c r="J152" s="81">
         <v>0</v>
       </c>
       <c r="K152" s="4"/>
@@ -7800,8 +7815,8 @@
       <c r="V152" s="18"/>
       <c r="W152" s="20"/>
     </row>
-    <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="105"/>
+    <row r="153" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="108"/>
       <c r="C153" s="35" t="s">
         <v>84</v>
       </c>
@@ -7809,7 +7824,7 @@
       <c r="E153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F153" s="87" t="s">
+      <c r="F153" s="86" t="s">
         <v>111</v>
       </c>
       <c r="G153" s="4">
@@ -7822,7 +7837,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J153" s="82">
+      <c r="J153" s="81">
         <v>0</v>
       </c>
       <c r="K153" s="4"/>
@@ -7839,8 +7854,8 @@
       <c r="V153" s="18"/>
       <c r="W153" s="20"/>
     </row>
-    <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="105"/>
+    <row r="154" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="108"/>
       <c r="C154" s="35" t="s">
         <v>85</v>
       </c>
@@ -7848,7 +7863,7 @@
       <c r="E154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F154" s="79" t="s">
+      <c r="F154" s="78" t="s">
         <v>115</v>
       </c>
       <c r="G154" s="4">
@@ -7861,7 +7876,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J154" s="82">
+      <c r="J154" s="81">
         <v>0</v>
       </c>
       <c r="K154" s="4"/>
@@ -7878,8 +7893,8 @@
       <c r="V154" s="18"/>
       <c r="W154" s="20"/>
     </row>
-    <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="105"/>
+    <row r="155" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="108"/>
       <c r="C155" s="39" t="s">
         <v>87</v>
       </c>
@@ -7887,7 +7902,7 @@
       <c r="E155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="91" t="s">
+      <c r="F155" s="90" t="s">
         <v>115</v>
       </c>
       <c r="G155" s="8">
@@ -7900,7 +7915,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J155" s="85">
+      <c r="J155" s="84">
         <v>0</v>
       </c>
       <c r="K155" s="8"/>
@@ -7917,8 +7932,8 @@
       <c r="V155" s="27"/>
       <c r="W155" s="29"/>
     </row>
-    <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="105"/>
+    <row r="156" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="108"/>
       <c r="C156" s="35" t="s">
         <v>86</v>
       </c>
@@ -7926,7 +7941,7 @@
       <c r="E156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="88" t="s">
+      <c r="F156" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G156" s="8">
@@ -7939,7 +7954,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J156" s="85">
+      <c r="J156" s="84">
         <v>0</v>
       </c>
       <c r="K156" s="8"/>
@@ -7956,8 +7971,8 @@
       <c r="V156" s="27"/>
       <c r="W156" s="29"/>
     </row>
-    <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="105"/>
+    <row r="157" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="108"/>
       <c r="C157" s="41" t="s">
         <v>104</v>
       </c>
@@ -7965,7 +7980,7 @@
       <c r="E157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F157" s="88" t="s">
+      <c r="F157" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G157" s="8">
@@ -7978,7 +7993,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J157" s="85">
+      <c r="J157" s="84">
         <v>0</v>
       </c>
       <c r="K157" s="8"/>
@@ -7995,8 +8010,8 @@
       <c r="V157" s="27"/>
       <c r="W157" s="29"/>
     </row>
-    <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="105"/>
+    <row r="158" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="108"/>
       <c r="C158" s="41" t="s">
         <v>137</v>
       </c>
@@ -8004,7 +8019,7 @@
       <c r="E158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="91" t="s">
+      <c r="F158" s="90" t="s">
         <v>115</v>
       </c>
       <c r="G158" s="8">
@@ -8017,7 +8032,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J158" s="85">
+      <c r="J158" s="84">
         <v>0</v>
       </c>
       <c r="K158" s="8"/>
@@ -8034,8 +8049,8 @@
       <c r="V158" s="27"/>
       <c r="W158" s="29"/>
     </row>
-    <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="105"/>
+    <row r="159" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="108"/>
       <c r="C159" s="41" t="s">
         <v>105</v>
       </c>
@@ -8043,7 +8058,7 @@
       <c r="E159" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F159" s="88" t="s">
+      <c r="F159" s="87" t="s">
         <v>111</v>
       </c>
       <c r="G159" s="8">
@@ -8056,7 +8071,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J159" s="85">
+      <c r="J159" s="84">
         <v>0</v>
       </c>
       <c r="K159" s="8"/>
@@ -8073,16 +8088,16 @@
       <c r="V159" s="27"/>
       <c r="W159" s="29"/>
     </row>
-    <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="106"/>
-      <c r="C160" s="62" t="s">
+    <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="109"/>
+      <c r="C160" s="61" t="s">
         <v>100</v>
       </c>
       <c r="D160" s="51"/>
       <c r="E160" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F160" s="80" t="s">
+      <c r="F160" s="79" t="s">
         <v>115</v>
       </c>
       <c r="G160" s="25">
@@ -8095,7 +8110,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J160" s="83">
+      <c r="J160" s="82">
         <v>0</v>
       </c>
       <c r="K160" s="25"/>
@@ -8112,22 +8127,22 @@
       <c r="V160" s="23"/>
       <c r="W160" s="26"/>
     </row>
-    <row r="161" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="114" t="s">
+    <row r="161" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="116"/>
-      <c r="D161" s="115"/>
-      <c r="E161" s="115"/>
-      <c r="F161" s="115"/>
-      <c r="G161" s="117"/>
+      <c r="C161" s="102"/>
+      <c r="D161" s="100"/>
+      <c r="E161" s="100"/>
+      <c r="F161" s="100"/>
+      <c r="G161" s="103"/>
       <c r="H161" s="40">
         <f>SUM(H4:H160)</f>
         <v>89.199999999999989</v>
       </c>
       <c r="I161" s="24">
         <f>SUM(I4:I160)</f>
-        <v>1.4333</v>
+        <v>1.5333000000000001</v>
       </c>
       <c r="J161" s="24">
         <f>SUM(J4:J160)</f>
@@ -8135,7 +8150,7 @@
       </c>
       <c r="K161" s="24">
         <f t="shared" ref="K161:W161" si="5">SUM(K4:K160)</f>
-        <v>1.4333</v>
+        <v>1.5333000000000001</v>
       </c>
       <c r="L161" s="24">
         <f t="shared" si="5"/>
@@ -8186,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -8198,21 +8213,21 @@
       <c r="J162" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K162" s="102"/>
-      <c r="L162" s="102"/>
-      <c r="M162" s="102"/>
-      <c r="N162" s="102"/>
-      <c r="O162" s="102"/>
-      <c r="P162" s="102"/>
-      <c r="Q162" s="102"/>
-      <c r="R162" s="102"/>
-      <c r="S162" s="102"/>
-      <c r="T162" s="102"/>
-      <c r="U162" s="102"/>
-      <c r="V162" s="102"/>
-      <c r="W162" s="103"/>
-    </row>
-    <row r="163" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K162" s="112"/>
+      <c r="L162" s="112"/>
+      <c r="M162" s="112"/>
+      <c r="N162" s="112"/>
+      <c r="O162" s="112"/>
+      <c r="P162" s="112"/>
+      <c r="Q162" s="112"/>
+      <c r="R162" s="112"/>
+      <c r="S162" s="112"/>
+      <c r="T162" s="112"/>
+      <c r="U162" s="112"/>
+      <c r="V162" s="112"/>
+      <c r="W162" s="113"/>
+    </row>
+    <row r="163" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -8227,39 +8242,39 @@
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
     </row>
-    <row r="164" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="114" t="s">
+      <c r="H164" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="115"/>
+      <c r="I164" s="100"/>
       <c r="J164" s="10">
         <f>H161-J161</f>
         <v>89.199999999999989</v>
       </c>
       <c r="K164" s="10">
         <f>J164-K161</f>
-        <v>87.766699999999986</v>
+        <v>87.666699999999992</v>
       </c>
       <c r="L164" s="10">
         <f>K164-L161</f>
-        <v>87.766699999999986</v>
+        <v>87.666699999999992</v>
       </c>
       <c r="M164" s="10">
         <f>L164-M161</f>
-        <v>87.766699999999986</v>
+        <v>87.666699999999992</v>
       </c>
       <c r="N164" s="11">
         <f>M164-N161</f>
-        <v>87.766699999999986</v>
-      </c>
-    </row>
-    <row r="165" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87.666699999999992</v>
+      </c>
+    </row>
+    <row r="165" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -8274,7 +8289,7 @@
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
     </row>
-    <row r="166" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -8283,17 +8298,17 @@
       <c r="H166" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="116"/>
-      <c r="J166" s="115">
+      <c r="I166" s="102"/>
+      <c r="J166" s="100">
         <f>H161-I161</f>
-        <v>87.766699999999986</v>
-      </c>
-      <c r="K166" s="115"/>
-      <c r="L166" s="115"/>
-      <c r="M166" s="115"/>
-      <c r="N166" s="117"/>
-    </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.3">
+        <v>87.666699999999992</v>
+      </c>
+      <c r="K166" s="100"/>
+      <c r="L166" s="100"/>
+      <c r="M166" s="100"/>
+      <c r="N166" s="103"/>
+    </row>
+    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -8308,7 +8323,7 @@
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -8323,7 +8338,7 @@
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -8338,63 +8353,80 @@
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
     </row>
-    <row r="170" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
     </row>
-    <row r="173" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
     </row>
-    <row r="174" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
     </row>
-    <row r="175" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
     </row>
-    <row r="176" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
     </row>
-    <row r="177" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
     </row>
-    <row r="178" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
     </row>
-    <row r="179" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
     </row>
-    <row r="180" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
     </row>
-    <row r="181" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
     </row>
-    <row r="182" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
     </row>
-    <row r="183" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
     </row>
-    <row r="184" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
     </row>
-    <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C16:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="J166:N166"/>
@@ -8411,23 +8443,6 @@
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="C81:C84"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C16:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C117:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8441,7 +8456,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8453,7 +8468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,84 +1257,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,7 +1356,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1395,22 +1398,22 @@
                   <c:v>89.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.666699999999992</c:v>
+                  <c:v>85.816699999999983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.666699999999992</c:v>
+                  <c:v>85.816699999999983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.666699999999992</c:v>
+                  <c:v>85.816699999999983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.666699999999992</c:v>
+                  <c:v>85.816699999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A091-4901-839C-4EC24FB5B5C8}"/>
             </c:ext>
@@ -1425,11 +1428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1036224592"/>
-        <c:axId val="1036214800"/>
+        <c:axId val="958207744"/>
+        <c:axId val="958205568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1036224592"/>
+        <c:axId val="958207744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1036214800"/>
+        <c:crossAx val="958205568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1446,7 +1449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1036214800"/>
+        <c:axId val="958205568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1036224592"/>
+        <c:crossAx val="958207744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,52 +1806,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="57.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="101" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="113"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>7</v>
       </c>
@@ -1916,8 +1919,8 @@
         <v>43067</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="108" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -1957,8 +1960,8 @@
       <c r="V4" s="46"/>
       <c r="W4" s="49"/>
     </row>
-    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="108"/>
+    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="109"/>
       <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
@@ -1996,8 +1999,8 @@
       <c r="V5" s="18"/>
       <c r="W5" s="20"/>
     </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="108"/>
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="109"/>
       <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
@@ -2035,8 +2038,8 @@
       <c r="V6" s="18"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
+    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="109"/>
       <c r="C7" s="37" t="s">
         <v>103</v>
       </c>
@@ -2074,8 +2077,8 @@
       <c r="V7" s="18"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
+    <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="110"/>
       <c r="C8" s="50" t="s">
         <v>112</v>
       </c>
@@ -2113,8 +2116,8 @@
       <c r="V8" s="23"/>
       <c r="W8" s="26"/>
     </row>
-    <row r="9" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+    <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="108" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -2146,18 +2149,18 @@
       <c r="L9" s="97"/>
       <c r="M9" s="97"/>
       <c r="N9" s="97"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="126"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="102"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="109"/>
       <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
@@ -2195,9 +2198,9 @@
       <c r="V10" s="18"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="108"/>
-      <c r="C11" s="123" t="s">
+    <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="109"/>
+      <c r="C11" s="99" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="5"/>
@@ -2234,9 +2237,9 @@
       <c r="V11" s="18"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
-      <c r="C12" s="123" t="s">
+    <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="109"/>
+      <c r="C12" s="99" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="5"/>
@@ -2299,8 +2302,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="108"/>
+    <row r="13" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="109"/>
       <c r="C13" s="98" t="s">
         <v>108</v>
       </c>
@@ -2338,8 +2341,8 @@
       <c r="V13" s="18"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="110"/>
       <c r="C14" s="58" t="s">
         <v>97</v>
       </c>
@@ -2379,8 +2382,8 @@
       <c r="V14" s="23"/>
       <c r="W14" s="26"/>
     </row>
-    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="104" t="s">
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="122" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="59" t="s">
@@ -2424,9 +2427,9 @@
       <c r="V15" s="56"/>
       <c r="W15" s="57"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="105"/>
-      <c r="C16" s="117" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="123"/>
+      <c r="C16" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2465,9 +2468,9 @@
       <c r="V16" s="18"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
-      <c r="C17" s="118"/>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="123"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2504,9 +2507,9 @@
       <c r="V17" s="18"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
-      <c r="C18" s="118"/>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="123"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2543,9 +2546,9 @@
       <c r="V18" s="18"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
-      <c r="C19" s="118"/>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="123"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2582,9 +2585,9 @@
       <c r="V19" s="18"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
-      <c r="C20" s="118"/>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="123"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2621,9 +2624,9 @@
       <c r="V20" s="18"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="105"/>
-      <c r="C21" s="118"/>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="123"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2660,9 +2663,9 @@
       <c r="V21" s="18"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="105"/>
-      <c r="C22" s="118"/>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="123"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
@@ -2699,9 +2702,9 @@
       <c r="V22" s="18"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="105"/>
-      <c r="C23" s="118"/>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="123"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
@@ -2738,9 +2741,9 @@
       <c r="V23" s="18"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="105"/>
-      <c r="C24" s="118"/>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="123"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
@@ -2777,9 +2780,9 @@
       <c r="V24" s="18"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="105"/>
-      <c r="C25" s="118"/>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="123"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
@@ -2816,9 +2819,9 @@
       <c r="V25" s="18"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="105"/>
-      <c r="C26" s="118"/>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="123"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
@@ -2855,9 +2858,9 @@
       <c r="V26" s="18"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="105"/>
-      <c r="C27" s="118"/>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="123"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="34" t="s">
         <v>41</v>
       </c>
@@ -2894,9 +2897,9 @@
       <c r="V27" s="18"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="105"/>
-      <c r="C28" s="118"/>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="123"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="34" t="s">
         <v>42</v>
       </c>
@@ -2933,9 +2936,9 @@
       <c r="V28" s="18"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
-      <c r="C29" s="118"/>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="123"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
@@ -2972,9 +2975,9 @@
       <c r="V29" s="18"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="105"/>
-      <c r="C30" s="118"/>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="123"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
@@ -3011,9 +3014,9 @@
       <c r="V30" s="18"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="105"/>
-      <c r="C31" s="118"/>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="123"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
@@ -3050,9 +3053,9 @@
       <c r="V31" s="18"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="105"/>
-      <c r="C32" s="118"/>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="123"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
@@ -3089,9 +3092,9 @@
       <c r="V32" s="18"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="105"/>
-      <c r="C33" s="118"/>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33" s="123"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
@@ -3128,9 +3131,9 @@
       <c r="V33" s="18"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="105"/>
-      <c r="C34" s="118"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34" s="123"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="34" t="s">
         <v>48</v>
       </c>
@@ -3167,9 +3170,9 @@
       <c r="V34" s="18"/>
       <c r="W34" s="20"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="105"/>
-      <c r="C35" s="118"/>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" s="123"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="34" t="s">
         <v>49</v>
       </c>
@@ -3206,9 +3209,9 @@
       <c r="V35" s="18"/>
       <c r="W35" s="20"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="105"/>
-      <c r="C36" s="118"/>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="123"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
@@ -3245,9 +3248,9 @@
       <c r="V36" s="18"/>
       <c r="W36" s="20"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="105"/>
-      <c r="C37" s="118"/>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B37" s="123"/>
+      <c r="C37" s="114"/>
       <c r="D37" s="34" t="s">
         <v>51</v>
       </c>
@@ -3284,9 +3287,9 @@
       <c r="V37" s="18"/>
       <c r="W37" s="20"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="105"/>
-      <c r="C38" s="118"/>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B38" s="123"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
@@ -3323,9 +3326,9 @@
       <c r="V38" s="18"/>
       <c r="W38" s="20"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="105"/>
-      <c r="C39" s="118"/>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B39" s="123"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="34" t="s">
         <v>53</v>
       </c>
@@ -3362,9 +3365,9 @@
       <c r="V39" s="18"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="105"/>
-      <c r="C40" s="118"/>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B40" s="123"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="34" t="s">
         <v>54</v>
       </c>
@@ -3401,9 +3404,9 @@
       <c r="V40" s="18"/>
       <c r="W40" s="20"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="105"/>
-      <c r="C41" s="118"/>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B41" s="123"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="34" t="s">
         <v>55</v>
       </c>
@@ -3440,9 +3443,9 @@
       <c r="V41" s="18"/>
       <c r="W41" s="20"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="105"/>
-      <c r="C42" s="118"/>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B42" s="123"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="34" t="s">
         <v>56</v>
       </c>
@@ -3479,9 +3482,9 @@
       <c r="V42" s="18"/>
       <c r="W42" s="20"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="105"/>
-      <c r="C43" s="118"/>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B43" s="123"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="34" t="s">
         <v>57</v>
       </c>
@@ -3518,9 +3521,9 @@
       <c r="V43" s="18"/>
       <c r="W43" s="20"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="105"/>
-      <c r="C44" s="118"/>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B44" s="123"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="34" t="s">
         <v>58</v>
       </c>
@@ -3557,9 +3560,9 @@
       <c r="V44" s="18"/>
       <c r="W44" s="20"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="105"/>
-      <c r="C45" s="118"/>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B45" s="123"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="34" t="s">
         <v>59</v>
       </c>
@@ -3596,9 +3599,9 @@
       <c r="V45" s="18"/>
       <c r="W45" s="20"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="105"/>
-      <c r="C46" s="118"/>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B46" s="123"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
@@ -3635,9 +3638,9 @@
       <c r="V46" s="18"/>
       <c r="W46" s="20"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="105"/>
-      <c r="C47" s="118"/>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B47" s="123"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
@@ -3674,9 +3677,9 @@
       <c r="V47" s="18"/>
       <c r="W47" s="20"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="105"/>
-      <c r="C48" s="118"/>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B48" s="123"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
@@ -3713,9 +3716,9 @@
       <c r="V48" s="18"/>
       <c r="W48" s="20"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="105"/>
-      <c r="C49" s="118"/>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B49" s="123"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="34" t="s">
         <v>63</v>
       </c>
@@ -3752,9 +3755,9 @@
       <c r="V49" s="18"/>
       <c r="W49" s="20"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="105"/>
-      <c r="C50" s="118"/>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B50" s="123"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
@@ -3791,9 +3794,9 @@
       <c r="V50" s="18"/>
       <c r="W50" s="20"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="105"/>
-      <c r="C51" s="118"/>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B51" s="123"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="34" t="s">
         <v>65</v>
       </c>
@@ -3830,9 +3833,9 @@
       <c r="V51" s="18"/>
       <c r="W51" s="20"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="105"/>
-      <c r="C52" s="118"/>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B52" s="123"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="34" t="s">
         <v>66</v>
       </c>
@@ -3869,9 +3872,9 @@
       <c r="V52" s="18"/>
       <c r="W52" s="20"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="105"/>
-      <c r="C53" s="118"/>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B53" s="123"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="34" t="s">
         <v>67</v>
       </c>
@@ -3908,9 +3911,9 @@
       <c r="V53" s="18"/>
       <c r="W53" s="20"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="105"/>
-      <c r="C54" s="118"/>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B54" s="123"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="34" t="s">
         <v>68</v>
       </c>
@@ -3947,9 +3950,9 @@
       <c r="V54" s="18"/>
       <c r="W54" s="20"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="105"/>
-      <c r="C55" s="119"/>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B55" s="123"/>
+      <c r="C55" s="115"/>
       <c r="D55" s="34" t="s">
         <v>69</v>
       </c>
@@ -3986,9 +3989,9 @@
       <c r="V55" s="18"/>
       <c r="W55" s="20"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="105"/>
-      <c r="C56" s="115" t="s">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B56" s="123"/>
+      <c r="C56" s="111" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="31" t="s">
@@ -4027,9 +4030,9 @@
       <c r="V56" s="18"/>
       <c r="W56" s="20"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="105"/>
-      <c r="C57" s="116"/>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B57" s="123"/>
+      <c r="C57" s="112"/>
       <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
@@ -4066,9 +4069,9 @@
       <c r="V57" s="18"/>
       <c r="W57" s="20"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="105"/>
-      <c r="C58" s="116"/>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B58" s="123"/>
+      <c r="C58" s="112"/>
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
@@ -4105,9 +4108,9 @@
       <c r="V58" s="18"/>
       <c r="W58" s="20"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="105"/>
-      <c r="C59" s="116"/>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B59" s="123"/>
+      <c r="C59" s="112"/>
       <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
@@ -4144,9 +4147,9 @@
       <c r="V59" s="18"/>
       <c r="W59" s="20"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="105"/>
-      <c r="C60" s="116"/>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B60" s="123"/>
+      <c r="C60" s="112"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
@@ -4183,9 +4186,9 @@
       <c r="V60" s="18"/>
       <c r="W60" s="20"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="105"/>
-      <c r="C61" s="116"/>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B61" s="123"/>
+      <c r="C61" s="112"/>
       <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
@@ -4222,9 +4225,9 @@
       <c r="V61" s="18"/>
       <c r="W61" s="20"/>
     </row>
-    <row r="62" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="106"/>
-      <c r="C62" s="116"/>
+    <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="124"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="73" t="s">
         <v>33</v>
       </c>
@@ -4261,11 +4264,11 @@
       <c r="V62" s="27"/>
       <c r="W62" s="29"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="107" t="s">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B63" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="120" t="s">
+      <c r="C63" s="116" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -4304,9 +4307,9 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="108"/>
-      <c r="C64" s="118"/>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B64" s="109"/>
+      <c r="C64" s="114"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4343,9 +4346,9 @@
       <c r="V64" s="18"/>
       <c r="W64" s="20"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="108"/>
-      <c r="C65" s="118"/>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B65" s="109"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4382,9 +4385,9 @@
       <c r="V65" s="18"/>
       <c r="W65" s="20"/>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="108"/>
-      <c r="C66" s="119"/>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B66" s="109"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="31" t="s">
         <v>76</v>
       </c>
@@ -4421,8 +4424,8 @@
       <c r="V66" s="18"/>
       <c r="W66" s="20"/>
     </row>
-    <row r="67" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="108"/>
+    <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
+      <c r="B67" s="109"/>
       <c r="C67" s="35" t="s">
         <v>73</v>
       </c>
@@ -4460,8 +4463,8 @@
       <c r="V67" s="18"/>
       <c r="W67" s="20"/>
     </row>
-    <row r="68" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="108"/>
+    <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
+      <c r="B68" s="109"/>
       <c r="C68" s="60" t="s">
         <v>81</v>
       </c>
@@ -4499,9 +4502,9 @@
       <c r="V68" s="18"/>
       <c r="W68" s="20"/>
     </row>
-    <row r="69" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="108"/>
-      <c r="C69" s="117" t="s">
+    <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="109"/>
+      <c r="C69" s="113" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4540,9 +4543,9 @@
       <c r="V69" s="18"/>
       <c r="W69" s="20"/>
     </row>
-    <row r="70" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="108"/>
-      <c r="C70" s="118"/>
+    <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="109"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4579,9 +4582,9 @@
       <c r="V70" s="18"/>
       <c r="W70" s="20"/>
     </row>
-    <row r="71" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="108"/>
-      <c r="C71" s="118"/>
+    <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="109"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4618,9 +4621,9 @@
       <c r="V71" s="18"/>
       <c r="W71" s="20"/>
     </row>
-    <row r="72" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="109"/>
-      <c r="C72" s="121"/>
+    <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="110"/>
+      <c r="C72" s="117"/>
       <c r="D72" s="25" t="s">
         <v>78</v>
       </c>
@@ -4657,11 +4660,11 @@
       <c r="V72" s="23"/>
       <c r="W72" s="26"/>
     </row>
-    <row r="73" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="104" t="s">
+    <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="122" t="s">
+      <c r="C73" s="103" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -4700,9 +4703,9 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="105"/>
-      <c r="C74" s="110"/>
+    <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="123"/>
+      <c r="C74" s="104"/>
       <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
@@ -4739,9 +4742,9 @@
       <c r="V74" s="18"/>
       <c r="W74" s="20"/>
     </row>
-    <row r="75" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="105"/>
-      <c r="C75" s="110"/>
+    <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="123"/>
+      <c r="C75" s="104"/>
       <c r="D75" s="4" t="s">
         <v>135</v>
       </c>
@@ -4778,9 +4781,9 @@
       <c r="V75" s="18"/>
       <c r="W75" s="20"/>
     </row>
-    <row r="76" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="105"/>
-      <c r="C76" s="110"/>
+    <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="123"/>
+      <c r="C76" s="104"/>
       <c r="D76" s="4" t="s">
         <v>136</v>
       </c>
@@ -4817,9 +4820,9 @@
       <c r="V76" s="18"/>
       <c r="W76" s="20"/>
     </row>
-    <row r="77" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="105"/>
-      <c r="C77" s="110" t="s">
+    <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="123"/>
+      <c r="C77" s="104" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4858,9 +4861,9 @@
       <c r="V77" s="18"/>
       <c r="W77" s="20"/>
     </row>
-    <row r="78" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="105"/>
-      <c r="C78" s="110"/>
+    <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="123"/>
+      <c r="C78" s="104"/>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
@@ -4897,9 +4900,9 @@
       <c r="V78" s="18"/>
       <c r="W78" s="20"/>
     </row>
-    <row r="79" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="105"/>
-      <c r="C79" s="110"/>
+    <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="123"/>
+      <c r="C79" s="104"/>
       <c r="D79" s="4" t="s">
         <v>135</v>
       </c>
@@ -4936,9 +4939,9 @@
       <c r="V79" s="18"/>
       <c r="W79" s="20"/>
     </row>
-    <row r="80" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="105"/>
-      <c r="C80" s="110"/>
+    <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="123"/>
+      <c r="C80" s="104"/>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
@@ -4975,9 +4978,9 @@
       <c r="V80" s="18"/>
       <c r="W80" s="20"/>
     </row>
-    <row r="81" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="105"/>
-      <c r="C81" s="110" t="s">
+    <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="123"/>
+      <c r="C81" s="104" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -5016,9 +5019,9 @@
       <c r="V81" s="18"/>
       <c r="W81" s="20"/>
     </row>
-    <row r="82" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="105"/>
-      <c r="C82" s="110"/>
+    <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="123"/>
+      <c r="C82" s="104"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
@@ -5055,9 +5058,9 @@
       <c r="V82" s="18"/>
       <c r="W82" s="20"/>
     </row>
-    <row r="83" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="105"/>
-      <c r="C83" s="110"/>
+    <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="123"/>
+      <c r="C83" s="104"/>
       <c r="D83" s="4" t="s">
         <v>135</v>
       </c>
@@ -5094,9 +5097,9 @@
       <c r="V83" s="18"/>
       <c r="W83" s="20"/>
     </row>
-    <row r="84" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="105"/>
-      <c r="C84" s="110"/>
+    <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="123"/>
+      <c r="C84" s="104"/>
       <c r="D84" s="4" t="s">
         <v>136</v>
       </c>
@@ -5133,9 +5136,9 @@
       <c r="V84" s="18"/>
       <c r="W84" s="20"/>
     </row>
-    <row r="85" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="105"/>
-      <c r="C85" s="110" t="s">
+    <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="123"/>
+      <c r="C85" s="104" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -5174,9 +5177,9 @@
       <c r="V85" s="18"/>
       <c r="W85" s="20"/>
     </row>
-    <row r="86" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="105"/>
-      <c r="C86" s="110"/>
+    <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="123"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
@@ -5213,9 +5216,9 @@
       <c r="V86" s="18"/>
       <c r="W86" s="20"/>
     </row>
-    <row r="87" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="105"/>
-      <c r="C87" s="110"/>
+    <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="123"/>
+      <c r="C87" s="104"/>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
@@ -5252,9 +5255,9 @@
       <c r="V87" s="18"/>
       <c r="W87" s="20"/>
     </row>
-    <row r="88" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="105"/>
-      <c r="C88" s="110"/>
+    <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="123"/>
+      <c r="C88" s="104"/>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
@@ -5291,9 +5294,9 @@
       <c r="V88" s="18"/>
       <c r="W88" s="20"/>
     </row>
-    <row r="89" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="105"/>
-      <c r="C89" s="110" t="s">
+    <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="123"/>
+      <c r="C89" s="104" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -5332,9 +5335,9 @@
       <c r="V89" s="18"/>
       <c r="W89" s="20"/>
     </row>
-    <row r="90" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="105"/>
-      <c r="C90" s="110"/>
+    <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="123"/>
+      <c r="C90" s="104"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5371,9 +5374,9 @@
       <c r="V90" s="18"/>
       <c r="W90" s="20"/>
     </row>
-    <row r="91" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="105"/>
-      <c r="C91" s="110"/>
+    <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="123"/>
+      <c r="C91" s="104"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5410,9 +5413,9 @@
       <c r="V91" s="18"/>
       <c r="W91" s="20"/>
     </row>
-    <row r="92" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="105"/>
-      <c r="C92" s="110"/>
+    <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="123"/>
+      <c r="C92" s="104"/>
       <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
@@ -5449,9 +5452,9 @@
       <c r="V92" s="18"/>
       <c r="W92" s="20"/>
     </row>
-    <row r="93" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="105"/>
-      <c r="C93" s="110" t="s">
+    <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="123"/>
+      <c r="C93" s="104" t="s">
         <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5490,9 +5493,9 @@
       <c r="V93" s="18"/>
       <c r="W93" s="20"/>
     </row>
-    <row r="94" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="105"/>
-      <c r="C94" s="110"/>
+    <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="123"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
@@ -5529,9 +5532,9 @@
       <c r="V94" s="18"/>
       <c r="W94" s="20"/>
     </row>
-    <row r="95" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="105"/>
-      <c r="C95" s="110"/>
+    <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="123"/>
+      <c r="C95" s="104"/>
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
@@ -5568,9 +5571,9 @@
       <c r="V95" s="18"/>
       <c r="W95" s="20"/>
     </row>
-    <row r="96" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="105"/>
-      <c r="C96" s="110"/>
+    <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="123"/>
+      <c r="C96" s="104"/>
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
@@ -5607,9 +5610,9 @@
       <c r="V96" s="18"/>
       <c r="W96" s="20"/>
     </row>
-    <row r="97" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="105"/>
-      <c r="C97" s="110" t="s">
+    <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="123"/>
+      <c r="C97" s="104" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5648,9 +5651,9 @@
       <c r="V97" s="18"/>
       <c r="W97" s="20"/>
     </row>
-    <row r="98" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="105"/>
-      <c r="C98" s="110"/>
+    <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="123"/>
+      <c r="C98" s="104"/>
       <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
@@ -5687,9 +5690,9 @@
       <c r="V98" s="18"/>
       <c r="W98" s="20"/>
     </row>
-    <row r="99" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="105"/>
-      <c r="C99" s="110"/>
+    <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="123"/>
+      <c r="C99" s="104"/>
       <c r="D99" s="4" t="s">
         <v>135</v>
       </c>
@@ -5726,9 +5729,9 @@
       <c r="V99" s="18"/>
       <c r="W99" s="20"/>
     </row>
-    <row r="100" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="105"/>
-      <c r="C100" s="110"/>
+    <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="123"/>
+      <c r="C100" s="104"/>
       <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
@@ -5765,9 +5768,9 @@
       <c r="V100" s="18"/>
       <c r="W100" s="20"/>
     </row>
-    <row r="101" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="105"/>
-      <c r="C101" s="110" t="s">
+    <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="123"/>
+      <c r="C101" s="104" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5806,9 +5809,9 @@
       <c r="V101" s="18"/>
       <c r="W101" s="20"/>
     </row>
-    <row r="102" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="105"/>
-      <c r="C102" s="110"/>
+    <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="123"/>
+      <c r="C102" s="104"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
@@ -5845,9 +5848,9 @@
       <c r="V102" s="18"/>
       <c r="W102" s="20"/>
     </row>
-    <row r="103" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="105"/>
-      <c r="C103" s="110"/>
+    <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="123"/>
+      <c r="C103" s="104"/>
       <c r="D103" s="4" t="s">
         <v>135</v>
       </c>
@@ -5884,9 +5887,9 @@
       <c r="V103" s="18"/>
       <c r="W103" s="20"/>
     </row>
-    <row r="104" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="105"/>
-      <c r="C104" s="110"/>
+    <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="123"/>
+      <c r="C104" s="104"/>
       <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
@@ -5923,9 +5926,9 @@
       <c r="V104" s="18"/>
       <c r="W104" s="20"/>
     </row>
-    <row r="105" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="105"/>
-      <c r="C105" s="110" t="s">
+    <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="123"/>
+      <c r="C105" s="104" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5964,9 +5967,9 @@
       <c r="V105" s="18"/>
       <c r="W105" s="20"/>
     </row>
-    <row r="106" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="105"/>
-      <c r="C106" s="110"/>
+    <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="123"/>
+      <c r="C106" s="104"/>
       <c r="D106" s="4" t="s">
         <v>134</v>
       </c>
@@ -6003,9 +6006,9 @@
       <c r="V106" s="18"/>
       <c r="W106" s="20"/>
     </row>
-    <row r="107" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="105"/>
-      <c r="C107" s="110"/>
+    <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="123"/>
+      <c r="C107" s="104"/>
       <c r="D107" s="4" t="s">
         <v>135</v>
       </c>
@@ -6042,9 +6045,9 @@
       <c r="V107" s="18"/>
       <c r="W107" s="20"/>
     </row>
-    <row r="108" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="105"/>
-      <c r="C108" s="110"/>
+    <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="123"/>
+      <c r="C108" s="104"/>
       <c r="D108" s="4" t="s">
         <v>136</v>
       </c>
@@ -6081,9 +6084,9 @@
       <c r="V108" s="18"/>
       <c r="W108" s="20"/>
     </row>
-    <row r="109" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="105"/>
-      <c r="C109" s="110" t="s">
+    <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="123"/>
+      <c r="C109" s="104" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -6122,9 +6125,9 @@
       <c r="V109" s="18"/>
       <c r="W109" s="20"/>
     </row>
-    <row r="110" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="105"/>
-      <c r="C110" s="110"/>
+    <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="123"/>
+      <c r="C110" s="104"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6161,9 +6164,9 @@
       <c r="V110" s="18"/>
       <c r="W110" s="20"/>
     </row>
-    <row r="111" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="105"/>
-      <c r="C111" s="110"/>
+    <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="123"/>
+      <c r="C111" s="104"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6200,9 +6203,9 @@
       <c r="V111" s="18"/>
       <c r="W111" s="20"/>
     </row>
-    <row r="112" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="105"/>
-      <c r="C112" s="110"/>
+    <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="123"/>
+      <c r="C112" s="104"/>
       <c r="D112" s="4" t="s">
         <v>136</v>
       </c>
@@ -6239,9 +6242,9 @@
       <c r="V112" s="18"/>
       <c r="W112" s="20"/>
     </row>
-    <row r="113" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="105"/>
-      <c r="C113" s="110" t="s">
+    <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="123"/>
+      <c r="C113" s="104" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6280,9 +6283,9 @@
       <c r="V113" s="18"/>
       <c r="W113" s="20"/>
     </row>
-    <row r="114" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="105"/>
-      <c r="C114" s="110"/>
+    <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="123"/>
+      <c r="C114" s="104"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
@@ -6319,9 +6322,9 @@
       <c r="V114" s="18"/>
       <c r="W114" s="20"/>
     </row>
-    <row r="115" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="105"/>
-      <c r="C115" s="110"/>
+    <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="123"/>
+      <c r="C115" s="104"/>
       <c r="D115" s="4" t="s">
         <v>135</v>
       </c>
@@ -6358,9 +6361,9 @@
       <c r="V115" s="18"/>
       <c r="W115" s="20"/>
     </row>
-    <row r="116" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="105"/>
-      <c r="C116" s="110"/>
+    <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="123"/>
+      <c r="C116" s="104"/>
       <c r="D116" s="4" t="s">
         <v>136</v>
       </c>
@@ -6397,9 +6400,9 @@
       <c r="V116" s="18"/>
       <c r="W116" s="20"/>
     </row>
-    <row r="117" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="105"/>
-      <c r="C117" s="110" t="s">
+    <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="123"/>
+      <c r="C117" s="104" t="s">
         <v>129</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6438,9 +6441,9 @@
       <c r="V117" s="18"/>
       <c r="W117" s="20"/>
     </row>
-    <row r="118" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="105"/>
-      <c r="C118" s="110"/>
+    <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="123"/>
+      <c r="C118" s="104"/>
       <c r="D118" s="4" t="s">
         <v>134</v>
       </c>
@@ -6477,9 +6480,9 @@
       <c r="V118" s="18"/>
       <c r="W118" s="20"/>
     </row>
-    <row r="119" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="105"/>
-      <c r="C119" s="110"/>
+    <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="123"/>
+      <c r="C119" s="104"/>
       <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
@@ -6516,9 +6519,9 @@
       <c r="V119" s="18"/>
       <c r="W119" s="20"/>
     </row>
-    <row r="120" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="105"/>
-      <c r="C120" s="110"/>
+    <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="123"/>
+      <c r="C120" s="104"/>
       <c r="D120" s="4" t="s">
         <v>136</v>
       </c>
@@ -6555,9 +6558,9 @@
       <c r="V120" s="18"/>
       <c r="W120" s="20"/>
     </row>
-    <row r="121" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="105"/>
-      <c r="C121" s="110" t="s">
+    <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="123"/>
+      <c r="C121" s="104" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6596,9 +6599,9 @@
       <c r="V121" s="18"/>
       <c r="W121" s="20"/>
     </row>
-    <row r="122" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="105"/>
-      <c r="C122" s="110"/>
+    <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="123"/>
+      <c r="C122" s="104"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
@@ -6635,9 +6638,9 @@
       <c r="V122" s="18"/>
       <c r="W122" s="20"/>
     </row>
-    <row r="123" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="105"/>
-      <c r="C123" s="110"/>
+    <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="123"/>
+      <c r="C123" s="104"/>
       <c r="D123" s="4" t="s">
         <v>135</v>
       </c>
@@ -6674,9 +6677,9 @@
       <c r="V123" s="18"/>
       <c r="W123" s="20"/>
     </row>
-    <row r="124" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="105"/>
-      <c r="C124" s="110"/>
+    <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="123"/>
+      <c r="C124" s="104"/>
       <c r="D124" s="4" t="s">
         <v>136</v>
       </c>
@@ -6713,9 +6716,9 @@
       <c r="V124" s="18"/>
       <c r="W124" s="20"/>
     </row>
-    <row r="125" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="105"/>
-      <c r="C125" s="110" t="s">
+    <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="123"/>
+      <c r="C125" s="104" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -6754,9 +6757,9 @@
       <c r="V125" s="18"/>
       <c r="W125" s="20"/>
     </row>
-    <row r="126" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="105"/>
-      <c r="C126" s="110"/>
+    <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="123"/>
+      <c r="C126" s="104"/>
       <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
@@ -6793,9 +6796,9 @@
       <c r="V126" s="18"/>
       <c r="W126" s="20"/>
     </row>
-    <row r="127" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="105"/>
-      <c r="C127" s="110"/>
+    <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="123"/>
+      <c r="C127" s="104"/>
       <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
@@ -6832,9 +6835,9 @@
       <c r="V127" s="18"/>
       <c r="W127" s="20"/>
     </row>
-    <row r="128" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="105"/>
-      <c r="C128" s="110"/>
+    <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="123"/>
+      <c r="C128" s="104"/>
       <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
@@ -6871,9 +6874,9 @@
       <c r="V128" s="18"/>
       <c r="W128" s="20"/>
     </row>
-    <row r="129" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="105"/>
-      <c r="C129" s="110" t="s">
+    <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="123"/>
+      <c r="C129" s="104" t="s">
         <v>132</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -6912,9 +6915,9 @@
       <c r="V129" s="18"/>
       <c r="W129" s="20"/>
     </row>
-    <row r="130" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="105"/>
-      <c r="C130" s="110"/>
+    <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="123"/>
+      <c r="C130" s="104"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -6951,9 +6954,9 @@
       <c r="V130" s="18"/>
       <c r="W130" s="20"/>
     </row>
-    <row r="131" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="105"/>
-      <c r="C131" s="110"/>
+    <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="123"/>
+      <c r="C131" s="104"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -6990,9 +6993,9 @@
       <c r="V131" s="18"/>
       <c r="W131" s="20"/>
     </row>
-    <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="111"/>
-      <c r="C132" s="114"/>
+    <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="125"/>
+      <c r="C132" s="126"/>
       <c r="D132" s="25" t="s">
         <v>136</v>
       </c>
@@ -7029,8 +7032,8 @@
       <c r="V132" s="23"/>
       <c r="W132" s="26"/>
     </row>
-    <row r="133" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="107" t="s">
+    <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="108" t="s">
         <v>83</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7070,8 +7073,8 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="108"/>
+    <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="109"/>
       <c r="C134" s="38" t="s">
         <v>89</v>
       </c>
@@ -7109,8 +7112,8 @@
       <c r="V134" s="18"/>
       <c r="W134" s="20"/>
     </row>
-    <row r="135" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="108"/>
+    <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="109"/>
       <c r="C135" s="38" t="s">
         <v>90</v>
       </c>
@@ -7148,8 +7151,8 @@
       <c r="V135" s="18"/>
       <c r="W135" s="20"/>
     </row>
-    <row r="136" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="108"/>
+    <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="109"/>
       <c r="C136" s="38" t="s">
         <v>91</v>
       </c>
@@ -7187,8 +7190,8 @@
       <c r="V136" s="18"/>
       <c r="W136" s="20"/>
     </row>
-    <row r="137" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="108"/>
+    <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="109"/>
       <c r="C137" s="38" t="s">
         <v>143</v>
       </c>
@@ -7226,8 +7229,8 @@
       <c r="V137" s="18"/>
       <c r="W137" s="20"/>
     </row>
-    <row r="138" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="108"/>
+    <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="109"/>
       <c r="C138" s="38" t="s">
         <v>140</v>
       </c>
@@ -7265,8 +7268,8 @@
       <c r="V138" s="18"/>
       <c r="W138" s="20"/>
     </row>
-    <row r="139" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="108"/>
+    <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="109"/>
       <c r="C139" s="38" t="s">
         <v>142</v>
       </c>
@@ -7304,8 +7307,8 @@
       <c r="V139" s="18"/>
       <c r="W139" s="20"/>
     </row>
-    <row r="140" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="108"/>
+    <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="109"/>
       <c r="C140" s="38" t="s">
         <v>141</v>
       </c>
@@ -7343,8 +7346,8 @@
       <c r="V140" s="18"/>
       <c r="W140" s="20"/>
     </row>
-    <row r="141" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="108"/>
+    <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="109"/>
       <c r="C141" s="38" t="s">
         <v>92</v>
       </c>
@@ -7382,8 +7385,8 @@
       <c r="V141" s="18"/>
       <c r="W141" s="20"/>
     </row>
-    <row r="142" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="108"/>
+    <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="109"/>
       <c r="C142" s="38" t="s">
         <v>93</v>
       </c>
@@ -7421,8 +7424,8 @@
       <c r="V142" s="18"/>
       <c r="W142" s="20"/>
     </row>
-    <row r="143" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="108"/>
+    <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="109"/>
       <c r="C143" s="38" t="s">
         <v>94</v>
       </c>
@@ -7460,8 +7463,8 @@
       <c r="V143" s="18"/>
       <c r="W143" s="20"/>
     </row>
-    <row r="144" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="108"/>
+    <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="109"/>
       <c r="C144" s="38" t="s">
         <v>98</v>
       </c>
@@ -7499,8 +7502,8 @@
       <c r="V144" s="18"/>
       <c r="W144" s="20"/>
     </row>
-    <row r="145" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="109"/>
+    <row r="145" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="110"/>
       <c r="C145" s="61" t="s">
         <v>99</v>
       </c>
@@ -7538,8 +7541,8 @@
       <c r="V145" s="23"/>
       <c r="W145" s="26"/>
     </row>
-    <row r="146" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="104" t="s">
+    <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="122" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="71" t="s">
@@ -7579,8 +7582,8 @@
       <c r="V146" s="56"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="105"/>
+    <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="123"/>
       <c r="C147" s="70" t="s">
         <v>145</v>
       </c>
@@ -7618,8 +7621,8 @@
       <c r="V147" s="18"/>
       <c r="W147" s="20"/>
     </row>
-    <row r="148" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="111"/>
+    <row r="148" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="125"/>
       <c r="C148" s="72" t="s">
         <v>146</v>
       </c>
@@ -7657,8 +7660,8 @@
       <c r="V148" s="23"/>
       <c r="W148" s="26"/>
     </row>
-    <row r="149" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="108" t="s">
+    <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="109" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="38" t="s">
@@ -7698,8 +7701,8 @@
       <c r="V149" s="67"/>
       <c r="W149" s="69"/>
     </row>
-    <row r="150" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="108"/>
+    <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="109"/>
       <c r="C150" s="38" t="s">
         <v>138</v>
       </c>
@@ -7737,8 +7740,8 @@
       <c r="V150" s="67"/>
       <c r="W150" s="69"/>
     </row>
-    <row r="151" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="108"/>
+    <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="109"/>
       <c r="C151" s="38" t="s">
         <v>139</v>
       </c>
@@ -7776,8 +7779,8 @@
       <c r="V151" s="67"/>
       <c r="W151" s="69"/>
     </row>
-    <row r="152" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="108"/>
+    <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="109"/>
       <c r="C152" s="38" t="s">
         <v>147</v>
       </c>
@@ -7815,8 +7818,8 @@
       <c r="V152" s="18"/>
       <c r="W152" s="20"/>
     </row>
-    <row r="153" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="108"/>
+    <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="109"/>
       <c r="C153" s="35" t="s">
         <v>84</v>
       </c>
@@ -7854,8 +7857,8 @@
       <c r="V153" s="18"/>
       <c r="W153" s="20"/>
     </row>
-    <row r="154" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="108"/>
+    <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="109"/>
       <c r="C154" s="35" t="s">
         <v>85</v>
       </c>
@@ -7893,8 +7896,8 @@
       <c r="V154" s="18"/>
       <c r="W154" s="20"/>
     </row>
-    <row r="155" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="108"/>
+    <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="109"/>
       <c r="C155" s="39" t="s">
         <v>87</v>
       </c>
@@ -7932,8 +7935,8 @@
       <c r="V155" s="27"/>
       <c r="W155" s="29"/>
     </row>
-    <row r="156" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="108"/>
+    <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="109"/>
       <c r="C156" s="35" t="s">
         <v>86</v>
       </c>
@@ -7971,8 +7974,8 @@
       <c r="V156" s="27"/>
       <c r="W156" s="29"/>
     </row>
-    <row r="157" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="108"/>
+    <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="109"/>
       <c r="C157" s="41" t="s">
         <v>104</v>
       </c>
@@ -8010,8 +8013,8 @@
       <c r="V157" s="27"/>
       <c r="W157" s="29"/>
     </row>
-    <row r="158" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="108"/>
+    <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="109"/>
       <c r="C158" s="41" t="s">
         <v>137</v>
       </c>
@@ -8030,12 +8033,14 @@
       </c>
       <c r="I158" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="J158" s="84">
         <v>0</v>
       </c>
-      <c r="K158" s="8"/>
+      <c r="K158" s="127">
+        <v>1.85</v>
+      </c>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
@@ -8049,8 +8054,8 @@
       <c r="V158" s="27"/>
       <c r="W158" s="29"/>
     </row>
-    <row r="159" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="108"/>
+    <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="109"/>
       <c r="C159" s="41" t="s">
         <v>105</v>
       </c>
@@ -8088,8 +8093,8 @@
       <c r="V159" s="27"/>
       <c r="W159" s="29"/>
     </row>
-    <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="109"/>
+    <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="110"/>
       <c r="C160" s="61" t="s">
         <v>100</v>
       </c>
@@ -8127,22 +8132,22 @@
       <c r="V160" s="23"/>
       <c r="W160" s="26"/>
     </row>
-    <row r="161" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="99" t="s">
+    <row r="161" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="102"/>
-      <c r="D161" s="100"/>
-      <c r="E161" s="100"/>
-      <c r="F161" s="100"/>
-      <c r="G161" s="103"/>
+      <c r="C161" s="120"/>
+      <c r="D161" s="119"/>
+      <c r="E161" s="119"/>
+      <c r="F161" s="119"/>
+      <c r="G161" s="121"/>
       <c r="H161" s="40">
         <f>SUM(H4:H160)</f>
         <v>89.199999999999989</v>
       </c>
       <c r="I161" s="24">
         <f>SUM(I4:I160)</f>
-        <v>1.5333000000000001</v>
+        <v>3.3833000000000002</v>
       </c>
       <c r="J161" s="24">
         <f>SUM(J4:J160)</f>
@@ -8150,7 +8155,7 @@
       </c>
       <c r="K161" s="24">
         <f t="shared" ref="K161:W161" si="5">SUM(K4:K160)</f>
-        <v>1.5333000000000001</v>
+        <v>3.3833000000000002</v>
       </c>
       <c r="L161" s="24">
         <f t="shared" si="5"/>
@@ -8201,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -8210,24 +8215,24 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="101" t="s">
+      <c r="J162" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="K162" s="112"/>
-      <c r="L162" s="112"/>
-      <c r="M162" s="112"/>
-      <c r="N162" s="112"/>
-      <c r="O162" s="112"/>
-      <c r="P162" s="112"/>
-      <c r="Q162" s="112"/>
-      <c r="R162" s="112"/>
-      <c r="S162" s="112"/>
-      <c r="T162" s="112"/>
-      <c r="U162" s="112"/>
-      <c r="V162" s="112"/>
-      <c r="W162" s="113"/>
-    </row>
-    <row r="163" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K162" s="106"/>
+      <c r="L162" s="106"/>
+      <c r="M162" s="106"/>
+      <c r="N162" s="106"/>
+      <c r="O162" s="106"/>
+      <c r="P162" s="106"/>
+      <c r="Q162" s="106"/>
+      <c r="R162" s="106"/>
+      <c r="S162" s="106"/>
+      <c r="T162" s="106"/>
+      <c r="U162" s="106"/>
+      <c r="V162" s="106"/>
+      <c r="W162" s="107"/>
+    </row>
+    <row r="163" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -8242,39 +8247,39 @@
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
     </row>
-    <row r="164" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="99" t="s">
+      <c r="H164" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="100"/>
+      <c r="I164" s="119"/>
       <c r="J164" s="10">
         <f>H161-J161</f>
         <v>89.199999999999989</v>
       </c>
       <c r="K164" s="10">
         <f>J164-K161</f>
-        <v>87.666699999999992</v>
+        <v>85.816699999999983</v>
       </c>
       <c r="L164" s="10">
         <f>K164-L161</f>
-        <v>87.666699999999992</v>
+        <v>85.816699999999983</v>
       </c>
       <c r="M164" s="10">
         <f>L164-M161</f>
-        <v>87.666699999999992</v>
+        <v>85.816699999999983</v>
       </c>
       <c r="N164" s="11">
         <f>M164-N161</f>
-        <v>87.666699999999992</v>
-      </c>
-    </row>
-    <row r="165" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85.816699999999983</v>
+      </c>
+    </row>
+    <row r="165" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -8289,26 +8294,26 @@
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
     </row>
-    <row r="166" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="H166" s="101" t="s">
+      <c r="H166" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="102"/>
-      <c r="J166" s="100">
+      <c r="I166" s="120"/>
+      <c r="J166" s="119">
         <f>H161-I161</f>
-        <v>87.666699999999992</v>
-      </c>
-      <c r="K166" s="100"/>
-      <c r="L166" s="100"/>
-      <c r="M166" s="100"/>
-      <c r="N166" s="103"/>
-    </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+        <v>85.816699999999983</v>
+      </c>
+      <c r="K166" s="119"/>
+      <c r="L166" s="119"/>
+      <c r="M166" s="119"/>
+      <c r="N166" s="121"/>
+    </row>
+    <row r="167" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -8323,7 +8328,7 @@
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -8338,7 +8343,7 @@
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -8353,80 +8358,63 @@
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
     </row>
-    <row r="170" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
     </row>
-    <row r="173" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
     </row>
-    <row r="174" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
     </row>
-    <row r="175" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
     </row>
-    <row r="176" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
     </row>
-    <row r="177" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
     </row>
-    <row r="178" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
     </row>
-    <row r="179" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
     </row>
-    <row r="180" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
     </row>
-    <row r="181" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
     </row>
-    <row r="182" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
     </row>
-    <row r="183" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
     </row>
-    <row r="184" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
     </row>
-    <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C16:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="J166:N166"/>
@@ -8443,6 +8431,23 @@
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="C81:C84"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C16:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C117:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8456,7 +8461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8468,7 +8473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +545,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1001,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1263,79 +1269,85 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,16 +1410,16 @@
                   <c:v>89.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.816699999999983</c:v>
+                  <c:v>85.146699999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.816699999999983</c:v>
+                  <c:v>83.643699999999981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.816699999999983</c:v>
+                  <c:v>83.643699999999981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.816699999999983</c:v>
+                  <c:v>83.643699999999981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,11 +1440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="958207744"/>
-        <c:axId val="958205568"/>
+        <c:axId val="354753616"/>
+        <c:axId val="354747632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="958207744"/>
+        <c:axId val="354753616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="958205568"/>
+        <c:crossAx val="354747632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1449,7 +1461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="958205568"/>
+        <c:axId val="354747632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="958207744"/>
+        <c:crossAx val="354753616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,22 +1846,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="105" t="s">
+      <c r="J2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="118"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
@@ -1920,7 +1932,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="112" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -1946,7 +1958,9 @@
       <c r="J4" s="93">
         <v>0</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="80">
+        <v>0</v>
+      </c>
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -1961,7 +1975,7 @@
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="109"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
@@ -1985,7 +1999,9 @@
       <c r="J5" s="81">
         <v>0</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="81">
+        <v>0</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2000,7 +2016,7 @@
       <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="109"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
@@ -2024,7 +2040,9 @@
       <c r="J6" s="81">
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="81">
+        <v>0</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2039,7 +2057,7 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="37" t="s">
         <v>103</v>
       </c>
@@ -2063,7 +2081,9 @@
       <c r="J7" s="81">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="81">
+        <v>0</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2078,7 +2098,7 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="110"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="50" t="s">
         <v>112</v>
       </c>
@@ -2102,7 +2122,9 @@
       <c r="J8" s="82">
         <v>0</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="82">
+        <v>0</v>
+      </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
@@ -2117,7 +2139,7 @@
       <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="112" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -2160,7 +2182,7 @@
       <c r="W9" s="102"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="109"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
@@ -2184,7 +2206,9 @@
       <c r="J10" s="81">
         <v>0</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="81">
+        <v>0</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2199,7 +2223,7 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="99" t="s">
         <v>113</v>
       </c>
@@ -2223,7 +2247,9 @@
       <c r="J11" s="81">
         <v>0</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="81">
+        <v>0</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2238,7 +2264,7 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="109"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="99" t="s">
         <v>114</v>
       </c>
@@ -2303,7 +2329,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="98" t="s">
         <v>108</v>
       </c>
@@ -2342,7 +2368,7 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="58" t="s">
         <v>97</v>
       </c>
@@ -2361,15 +2387,17 @@
       </c>
       <c r="I14" s="24">
         <f t="shared" si="0"/>
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="J14" s="82">
+        <v>0</v>
+      </c>
+      <c r="K14" s="82">
         <v>0.5</v>
       </c>
-      <c r="J14" s="82">
-        <v>0</v>
-      </c>
-      <c r="K14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="128">
+        <v>1.5029999999999999</v>
+      </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="23"/>
@@ -2383,7 +2411,7 @@
       <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="109" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="59" t="s">
@@ -2428,8 +2456,8 @@
       <c r="W15" s="57"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="123"/>
-      <c r="C16" s="113" t="s">
+      <c r="B16" s="110"/>
+      <c r="C16" s="122" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2454,7 +2482,9 @@
       <c r="J16" s="81">
         <v>0</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="81">
+        <v>0</v>
+      </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="4"/>
@@ -2469,8 +2499,8 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="123"/>
-      <c r="C17" s="114"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2493,7 +2523,9 @@
       <c r="J17" s="81">
         <v>0</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="81">
+        <v>0</v>
+      </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="4"/>
@@ -2508,8 +2540,8 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="123"/>
-      <c r="C18" s="114"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2532,7 +2564,9 @@
       <c r="J18" s="81">
         <v>0</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="81">
+        <v>0</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="4"/>
@@ -2547,8 +2581,8 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="123"/>
-      <c r="C19" s="114"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2571,7 +2605,9 @@
       <c r="J19" s="81">
         <v>0</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="81">
+        <v>0</v>
+      </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="4"/>
@@ -2586,8 +2622,8 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="123"/>
-      <c r="C20" s="114"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2610,7 +2646,9 @@
       <c r="J20" s="81">
         <v>0</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="K20" s="81">
+        <v>0</v>
+      </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="4"/>
@@ -2625,8 +2663,8 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="123"/>
-      <c r="C21" s="114"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2649,7 +2687,9 @@
       <c r="J21" s="81">
         <v>0</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="81">
+        <v>0</v>
+      </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="4"/>
@@ -2664,8 +2704,8 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="123"/>
-      <c r="C22" s="114"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
@@ -2688,7 +2728,9 @@
       <c r="J22" s="81">
         <v>0</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="81">
+        <v>0</v>
+      </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="4"/>
@@ -2703,8 +2745,8 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="123"/>
-      <c r="C23" s="114"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
@@ -2727,7 +2769,9 @@
       <c r="J23" s="81">
         <v>0</v>
       </c>
-      <c r="K23" s="15"/>
+      <c r="K23" s="81">
+        <v>0</v>
+      </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="4"/>
@@ -2742,8 +2786,8 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="123"/>
-      <c r="C24" s="114"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
@@ -2766,7 +2810,9 @@
       <c r="J24" s="81">
         <v>0</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="81">
+        <v>0</v>
+      </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="4"/>
@@ -2781,8 +2827,8 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="123"/>
-      <c r="C25" s="114"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="34" t="s">
         <v>39</v>
       </c>
@@ -2805,7 +2851,9 @@
       <c r="J25" s="81">
         <v>0</v>
       </c>
-      <c r="K25" s="15"/>
+      <c r="K25" s="81">
+        <v>0</v>
+      </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="4"/>
@@ -2820,8 +2868,8 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="123"/>
-      <c r="C26" s="114"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
@@ -2844,7 +2892,9 @@
       <c r="J26" s="81">
         <v>0</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="81">
+        <v>0</v>
+      </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="4"/>
@@ -2859,8 +2909,8 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="123"/>
-      <c r="C27" s="114"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="34" t="s">
         <v>41</v>
       </c>
@@ -2883,7 +2933,9 @@
       <c r="J27" s="81">
         <v>0</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="81">
+        <v>0</v>
+      </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="4"/>
@@ -2898,8 +2950,8 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="123"/>
-      <c r="C28" s="114"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="34" t="s">
         <v>42</v>
       </c>
@@ -2922,7 +2974,9 @@
       <c r="J28" s="81">
         <v>0</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="81">
+        <v>0</v>
+      </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="4"/>
@@ -2937,8 +2991,8 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="123"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="34" t="s">
         <v>43</v>
       </c>
@@ -2961,7 +3015,9 @@
       <c r="J29" s="81">
         <v>0</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="K29" s="81">
+        <v>0</v>
+      </c>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="4"/>
@@ -2976,8 +3032,8 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="123"/>
-      <c r="C30" s="114"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
@@ -3000,7 +3056,9 @@
       <c r="J30" s="81">
         <v>0</v>
       </c>
-      <c r="K30" s="15"/>
+      <c r="K30" s="81">
+        <v>0</v>
+      </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
       <c r="N30" s="4"/>
@@ -3015,8 +3073,8 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="123"/>
-      <c r="C31" s="114"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
@@ -3039,7 +3097,9 @@
       <c r="J31" s="81">
         <v>0</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="81">
+        <v>0</v>
+      </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="4"/>
@@ -3054,8 +3114,8 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="123"/>
-      <c r="C32" s="114"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="34" t="s">
         <v>46</v>
       </c>
@@ -3078,7 +3138,9 @@
       <c r="J32" s="81">
         <v>0</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="81">
+        <v>0</v>
+      </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="4"/>
@@ -3093,8 +3155,8 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="123"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="34" t="s">
         <v>47</v>
       </c>
@@ -3117,7 +3179,9 @@
       <c r="J33" s="81">
         <v>0</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="81">
+        <v>0</v>
+      </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="4"/>
@@ -3132,8 +3196,8 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="123"/>
-      <c r="C34" s="114"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="34" t="s">
         <v>48</v>
       </c>
@@ -3156,7 +3220,9 @@
       <c r="J34" s="81">
         <v>0</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="81">
+        <v>0</v>
+      </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="4"/>
@@ -3171,8 +3237,8 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="123"/>
-      <c r="C35" s="114"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="34" t="s">
         <v>49</v>
       </c>
@@ -3195,7 +3261,9 @@
       <c r="J35" s="81">
         <v>0</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="81">
+        <v>0</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="4"/>
@@ -3210,8 +3278,8 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="123"/>
-      <c r="C36" s="114"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
@@ -3234,7 +3302,9 @@
       <c r="J36" s="81">
         <v>0</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="81">
+        <v>0</v>
+      </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="4"/>
@@ -3249,8 +3319,8 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="123"/>
-      <c r="C37" s="114"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="34" t="s">
         <v>51</v>
       </c>
@@ -3273,7 +3343,9 @@
       <c r="J37" s="81">
         <v>0</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="81">
+        <v>0</v>
+      </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="4"/>
@@ -3288,8 +3360,8 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="123"/>
-      <c r="C38" s="114"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
@@ -3312,7 +3384,9 @@
       <c r="J38" s="81">
         <v>0</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="81">
+        <v>0</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="4"/>
@@ -3327,8 +3401,8 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="123"/>
-      <c r="C39" s="114"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="34" t="s">
         <v>53</v>
       </c>
@@ -3351,7 +3425,9 @@
       <c r="J39" s="81">
         <v>0</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="81">
+        <v>0</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="4"/>
@@ -3366,8 +3442,8 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="123"/>
-      <c r="C40" s="114"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="34" t="s">
         <v>54</v>
       </c>
@@ -3390,7 +3466,9 @@
       <c r="J40" s="81">
         <v>0</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="81">
+        <v>0</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="4"/>
@@ -3405,8 +3483,8 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="123"/>
-      <c r="C41" s="114"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="34" t="s">
         <v>55</v>
       </c>
@@ -3429,7 +3507,9 @@
       <c r="J41" s="81">
         <v>0</v>
       </c>
-      <c r="K41" s="15"/>
+      <c r="K41" s="81">
+        <v>0</v>
+      </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="4"/>
@@ -3444,8 +3524,8 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="123"/>
-      <c r="C42" s="114"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="34" t="s">
         <v>56</v>
       </c>
@@ -3468,7 +3548,9 @@
       <c r="J42" s="81">
         <v>0</v>
       </c>
-      <c r="K42" s="15"/>
+      <c r="K42" s="81">
+        <v>0</v>
+      </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="4"/>
@@ -3483,8 +3565,8 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="123"/>
-      <c r="C43" s="114"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="34" t="s">
         <v>57</v>
       </c>
@@ -3507,7 +3589,9 @@
       <c r="J43" s="81">
         <v>0</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="81">
+        <v>0</v>
+      </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="4"/>
@@ -3522,8 +3606,8 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="123"/>
-      <c r="C44" s="114"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="34" t="s">
         <v>58</v>
       </c>
@@ -3546,7 +3630,9 @@
       <c r="J44" s="81">
         <v>0</v>
       </c>
-      <c r="K44" s="15"/>
+      <c r="K44" s="81">
+        <v>0</v>
+      </c>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="4"/>
@@ -3561,8 +3647,8 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="123"/>
-      <c r="C45" s="114"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="34" t="s">
         <v>59</v>
       </c>
@@ -3585,7 +3671,9 @@
       <c r="J45" s="81">
         <v>0</v>
       </c>
-      <c r="K45" s="15"/>
+      <c r="K45" s="81">
+        <v>0</v>
+      </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="4"/>
@@ -3600,8 +3688,8 @@
       <c r="W45" s="20"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="123"/>
-      <c r="C46" s="114"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="34" t="s">
         <v>60</v>
       </c>
@@ -3624,7 +3712,9 @@
       <c r="J46" s="81">
         <v>0</v>
       </c>
-      <c r="K46" s="15"/>
+      <c r="K46" s="81">
+        <v>0</v>
+      </c>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="4"/>
@@ -3639,8 +3729,8 @@
       <c r="W46" s="20"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="123"/>
-      <c r="C47" s="114"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="34" t="s">
         <v>61</v>
       </c>
@@ -3663,7 +3753,9 @@
       <c r="J47" s="81">
         <v>0</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="81">
+        <v>0</v>
+      </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="4"/>
@@ -3678,8 +3770,8 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="123"/>
-      <c r="C48" s="114"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
@@ -3702,7 +3794,9 @@
       <c r="J48" s="81">
         <v>0</v>
       </c>
-      <c r="K48" s="15"/>
+      <c r="K48" s="81">
+        <v>0</v>
+      </c>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="4"/>
@@ -3717,8 +3811,8 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="123"/>
-      <c r="C49" s="114"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="34" t="s">
         <v>63</v>
       </c>
@@ -3741,7 +3835,9 @@
       <c r="J49" s="81">
         <v>0</v>
       </c>
-      <c r="K49" s="15"/>
+      <c r="K49" s="81">
+        <v>0</v>
+      </c>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="4"/>
@@ -3756,8 +3852,8 @@
       <c r="W49" s="20"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="123"/>
-      <c r="C50" s="114"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
@@ -3780,7 +3876,9 @@
       <c r="J50" s="81">
         <v>0</v>
       </c>
-      <c r="K50" s="15"/>
+      <c r="K50" s="81">
+        <v>0</v>
+      </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="4"/>
@@ -3795,8 +3893,8 @@
       <c r="W50" s="20"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="123"/>
-      <c r="C51" s="114"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="34" t="s">
         <v>65</v>
       </c>
@@ -3819,7 +3917,9 @@
       <c r="J51" s="81">
         <v>0</v>
       </c>
-      <c r="K51" s="15"/>
+      <c r="K51" s="81">
+        <v>0</v>
+      </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="4"/>
@@ -3834,8 +3934,8 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="123"/>
-      <c r="C52" s="114"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="34" t="s">
         <v>66</v>
       </c>
@@ -3858,7 +3958,9 @@
       <c r="J52" s="81">
         <v>0</v>
       </c>
-      <c r="K52" s="15"/>
+      <c r="K52" s="81">
+        <v>0</v>
+      </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="4"/>
@@ -3873,8 +3975,8 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="123"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="34" t="s">
         <v>67</v>
       </c>
@@ -3897,7 +3999,9 @@
       <c r="J53" s="81">
         <v>0</v>
       </c>
-      <c r="K53" s="15"/>
+      <c r="K53" s="81">
+        <v>0</v>
+      </c>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
       <c r="N53" s="4"/>
@@ -3912,8 +4016,8 @@
       <c r="W53" s="20"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="123"/>
-      <c r="C54" s="114"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="34" t="s">
         <v>68</v>
       </c>
@@ -3936,7 +4040,9 @@
       <c r="J54" s="81">
         <v>0</v>
       </c>
-      <c r="K54" s="15"/>
+      <c r="K54" s="81">
+        <v>0</v>
+      </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
       <c r="N54" s="4"/>
@@ -3951,8 +4057,8 @@
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="123"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="34" t="s">
         <v>69</v>
       </c>
@@ -3975,7 +4081,9 @@
       <c r="J55" s="81">
         <v>0</v>
       </c>
-      <c r="K55" s="15"/>
+      <c r="K55" s="81">
+        <v>0</v>
+      </c>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="4"/>
@@ -3990,8 +4098,8 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="123"/>
-      <c r="C56" s="111" t="s">
+      <c r="B56" s="110"/>
+      <c r="C56" s="120" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="31" t="s">
@@ -4016,7 +4124,9 @@
       <c r="J56" s="81">
         <v>0</v>
       </c>
-      <c r="K56" s="15"/>
+      <c r="K56" s="81">
+        <v>0</v>
+      </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
       <c r="N56" s="4"/>
@@ -4031,8 +4141,8 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="123"/>
-      <c r="C57" s="112"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
@@ -4055,7 +4165,9 @@
       <c r="J57" s="81">
         <v>0</v>
       </c>
-      <c r="K57" s="15"/>
+      <c r="K57" s="81">
+        <v>0</v>
+      </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
       <c r="N57" s="4"/>
@@ -4070,8 +4182,8 @@
       <c r="W57" s="20"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="123"/>
-      <c r="C58" s="112"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
@@ -4094,7 +4206,9 @@
       <c r="J58" s="81">
         <v>0</v>
       </c>
-      <c r="K58" s="15"/>
+      <c r="K58" s="81">
+        <v>0</v>
+      </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
       <c r="N58" s="4"/>
@@ -4109,8 +4223,8 @@
       <c r="W58" s="20"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="123"/>
-      <c r="C59" s="112"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
@@ -4133,7 +4247,9 @@
       <c r="J59" s="81">
         <v>0</v>
       </c>
-      <c r="K59" s="15"/>
+      <c r="K59" s="81">
+        <v>0</v>
+      </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="4"/>
@@ -4148,8 +4264,8 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="123"/>
-      <c r="C60" s="112"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="121"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
@@ -4172,7 +4288,9 @@
       <c r="J60" s="81">
         <v>0</v>
       </c>
-      <c r="K60" s="4"/>
+      <c r="K60" s="81">
+        <v>0</v>
+      </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="15"/>
@@ -4187,8 +4305,8 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="123"/>
-      <c r="C61" s="112"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="121"/>
       <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
@@ -4211,7 +4329,9 @@
       <c r="J61" s="81">
         <v>0</v>
       </c>
-      <c r="K61" s="4"/>
+      <c r="K61" s="81">
+        <v>0</v>
+      </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4226,8 +4346,8 @@
       <c r="W61" s="20"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="124"/>
-      <c r="C62" s="112"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="121"/>
       <c r="D62" s="73" t="s">
         <v>33</v>
       </c>
@@ -4250,7 +4370,9 @@
       <c r="J62" s="84">
         <v>0</v>
       </c>
-      <c r="K62" s="8"/>
+      <c r="K62" s="84">
+        <v>0</v>
+      </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -4265,10 +4387,10 @@
       <c r="W62" s="29"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="116" t="s">
+      <c r="C63" s="125" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -4293,7 +4415,9 @@
       <c r="J63" s="80">
         <v>0</v>
       </c>
-      <c r="K63" s="44"/>
+      <c r="K63" s="80">
+        <v>0</v>
+      </c>
       <c r="L63" s="44"/>
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
@@ -4308,8 +4432,8 @@
       <c r="W63" s="57"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="109"/>
-      <c r="C64" s="114"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4332,7 +4456,9 @@
       <c r="J64" s="81">
         <v>0</v>
       </c>
-      <c r="K64" s="4"/>
+      <c r="K64" s="81">
+        <v>0</v>
+      </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -4347,8 +4473,8 @@
       <c r="W64" s="20"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="109"/>
-      <c r="C65" s="114"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4371,7 +4497,9 @@
       <c r="J65" s="81">
         <v>0</v>
       </c>
-      <c r="K65" s="4"/>
+      <c r="K65" s="81">
+        <v>0</v>
+      </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4386,8 +4514,8 @@
       <c r="W65" s="20"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="109"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="31" t="s">
         <v>76</v>
       </c>
@@ -4410,7 +4538,9 @@
       <c r="J66" s="81">
         <v>0</v>
       </c>
-      <c r="K66" s="4"/>
+      <c r="K66" s="81">
+        <v>0</v>
+      </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -4425,7 +4555,7 @@
       <c r="W66" s="20"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="109"/>
+      <c r="B67" s="113"/>
       <c r="C67" s="35" t="s">
         <v>73</v>
       </c>
@@ -4449,7 +4579,9 @@
       <c r="J67" s="81">
         <v>0</v>
       </c>
-      <c r="K67" s="4"/>
+      <c r="K67" s="81">
+        <v>0</v>
+      </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4464,7 +4596,7 @@
       <c r="W67" s="20"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="109"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="60" t="s">
         <v>81</v>
       </c>
@@ -4488,7 +4620,9 @@
       <c r="J68" s="81">
         <v>0</v>
       </c>
-      <c r="K68" s="4"/>
+      <c r="K68" s="81">
+        <v>0</v>
+      </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4503,8 +4637,8 @@
       <c r="W68" s="20"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="109"/>
-      <c r="C69" s="113" t="s">
+      <c r="B69" s="113"/>
+      <c r="C69" s="122" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4529,7 +4663,9 @@
       <c r="J69" s="81">
         <v>0</v>
       </c>
-      <c r="K69" s="4"/>
+      <c r="K69" s="81">
+        <v>0</v>
+      </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -4544,8 +4680,8 @@
       <c r="W69" s="20"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="109"/>
-      <c r="C70" s="114"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4568,7 +4704,9 @@
       <c r="J70" s="81">
         <v>0</v>
       </c>
-      <c r="K70" s="4"/>
+      <c r="K70" s="81">
+        <v>0</v>
+      </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4583,8 +4721,8 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="109"/>
-      <c r="C71" s="114"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4607,7 +4745,9 @@
       <c r="J71" s="81">
         <v>0</v>
       </c>
-      <c r="K71" s="4"/>
+      <c r="K71" s="81">
+        <v>0</v>
+      </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -4622,8 +4762,8 @@
       <c r="W71" s="20"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="110"/>
-      <c r="C72" s="117"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="126"/>
       <c r="D72" s="25" t="s">
         <v>78</v>
       </c>
@@ -4646,7 +4786,9 @@
       <c r="J72" s="82">
         <v>0</v>
       </c>
-      <c r="K72" s="25"/>
+      <c r="K72" s="82">
+        <v>0</v>
+      </c>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
       <c r="N72" s="25"/>
@@ -4661,10 +4803,10 @@
       <c r="W72" s="26"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="122" t="s">
+      <c r="B73" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="103" t="s">
+      <c r="C73" s="127" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -4689,7 +4831,9 @@
       <c r="J73" s="80">
         <v>0</v>
       </c>
-      <c r="K73" s="44"/>
+      <c r="K73" s="80">
+        <v>0</v>
+      </c>
       <c r="L73" s="44"/>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
@@ -4704,8 +4848,8 @@
       <c r="W73" s="57"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="123"/>
-      <c r="C74" s="104"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="115"/>
       <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
@@ -4728,7 +4872,9 @@
       <c r="J74" s="81">
         <v>0</v>
       </c>
-      <c r="K74" s="4"/>
+      <c r="K74" s="81">
+        <v>0</v>
+      </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -4743,8 +4889,8 @@
       <c r="W74" s="20"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="123"/>
-      <c r="C75" s="104"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="115"/>
       <c r="D75" s="4" t="s">
         <v>135</v>
       </c>
@@ -4762,12 +4908,14 @@
       </c>
       <c r="I75" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J75" s="81">
         <v>0</v>
       </c>
-      <c r="K75" s="4"/>
+      <c r="K75" s="129">
+        <v>0.67</v>
+      </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -4782,8 +4930,8 @@
       <c r="W75" s="20"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="123"/>
-      <c r="C76" s="104"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="115"/>
       <c r="D76" s="4" t="s">
         <v>136</v>
       </c>
@@ -4806,7 +4954,9 @@
       <c r="J76" s="81">
         <v>0</v>
       </c>
-      <c r="K76" s="4"/>
+      <c r="K76" s="81">
+        <v>0</v>
+      </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -4821,8 +4971,8 @@
       <c r="W76" s="20"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="123"/>
-      <c r="C77" s="104" t="s">
+      <c r="B77" s="110"/>
+      <c r="C77" s="115" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4847,7 +4997,9 @@
       <c r="J77" s="81">
         <v>0</v>
       </c>
-      <c r="K77" s="4"/>
+      <c r="K77" s="81">
+        <v>0</v>
+      </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -4862,8 +5014,8 @@
       <c r="W77" s="20"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="123"/>
-      <c r="C78" s="104"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="115"/>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
@@ -4886,7 +5038,9 @@
       <c r="J78" s="81">
         <v>0</v>
       </c>
-      <c r="K78" s="4"/>
+      <c r="K78" s="81">
+        <v>0</v>
+      </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4901,8 +5055,8 @@
       <c r="W78" s="20"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="123"/>
-      <c r="C79" s="104"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="115"/>
       <c r="D79" s="4" t="s">
         <v>135</v>
       </c>
@@ -4925,7 +5079,9 @@
       <c r="J79" s="81">
         <v>0</v>
       </c>
-      <c r="K79" s="4"/>
+      <c r="K79" s="81">
+        <v>0</v>
+      </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -4940,8 +5096,8 @@
       <c r="W79" s="20"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="123"/>
-      <c r="C80" s="104"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="115"/>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
@@ -4964,7 +5120,9 @@
       <c r="J80" s="81">
         <v>0</v>
       </c>
-      <c r="K80" s="4"/>
+      <c r="K80" s="81">
+        <v>0</v>
+      </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -4979,8 +5137,8 @@
       <c r="W80" s="20"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="123"/>
-      <c r="C81" s="104" t="s">
+      <c r="B81" s="110"/>
+      <c r="C81" s="115" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -5005,7 +5163,9 @@
       <c r="J81" s="81">
         <v>0</v>
       </c>
-      <c r="K81" s="4"/>
+      <c r="K81" s="81">
+        <v>0</v>
+      </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -5020,8 +5180,8 @@
       <c r="W81" s="20"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="123"/>
-      <c r="C82" s="104"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="115"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
@@ -5044,7 +5204,9 @@
       <c r="J82" s="81">
         <v>0</v>
       </c>
-      <c r="K82" s="4"/>
+      <c r="K82" s="81">
+        <v>0</v>
+      </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -5059,8 +5221,8 @@
       <c r="W82" s="20"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="123"/>
-      <c r="C83" s="104"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="115"/>
       <c r="D83" s="4" t="s">
         <v>135</v>
       </c>
@@ -5083,7 +5245,9 @@
       <c r="J83" s="81">
         <v>0</v>
       </c>
-      <c r="K83" s="4"/>
+      <c r="K83" s="81">
+        <v>0</v>
+      </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -5098,8 +5262,8 @@
       <c r="W83" s="20"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="123"/>
-      <c r="C84" s="104"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="115"/>
       <c r="D84" s="4" t="s">
         <v>136</v>
       </c>
@@ -5122,7 +5286,9 @@
       <c r="J84" s="81">
         <v>0</v>
       </c>
-      <c r="K84" s="4"/>
+      <c r="K84" s="81">
+        <v>0</v>
+      </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -5137,8 +5303,8 @@
       <c r="W84" s="20"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="123"/>
-      <c r="C85" s="104" t="s">
+      <c r="B85" s="110"/>
+      <c r="C85" s="115" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -5163,7 +5329,9 @@
       <c r="J85" s="81">
         <v>0</v>
       </c>
-      <c r="K85" s="4"/>
+      <c r="K85" s="81">
+        <v>0</v>
+      </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
@@ -5178,8 +5346,8 @@
       <c r="W85" s="20"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="123"/>
-      <c r="C86" s="104"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="115"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
@@ -5202,7 +5370,9 @@
       <c r="J86" s="81">
         <v>0</v>
       </c>
-      <c r="K86" s="4"/>
+      <c r="K86" s="81">
+        <v>0</v>
+      </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -5217,8 +5387,8 @@
       <c r="W86" s="20"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="123"/>
-      <c r="C87" s="104"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="115"/>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
@@ -5241,7 +5411,9 @@
       <c r="J87" s="81">
         <v>0</v>
       </c>
-      <c r="K87" s="4"/>
+      <c r="K87" s="81">
+        <v>0</v>
+      </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
@@ -5256,8 +5428,8 @@
       <c r="W87" s="20"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="123"/>
-      <c r="C88" s="104"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="115"/>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
@@ -5280,7 +5452,9 @@
       <c r="J88" s="81">
         <v>0</v>
       </c>
-      <c r="K88" s="4"/>
+      <c r="K88" s="81">
+        <v>0</v>
+      </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -5295,8 +5469,8 @@
       <c r="W88" s="20"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="123"/>
-      <c r="C89" s="104" t="s">
+      <c r="B89" s="110"/>
+      <c r="C89" s="115" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -5321,7 +5495,9 @@
       <c r="J89" s="81">
         <v>0</v>
       </c>
-      <c r="K89" s="4"/>
+      <c r="K89" s="81">
+        <v>0</v>
+      </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -5336,8 +5512,8 @@
       <c r="W89" s="20"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="123"/>
-      <c r="C90" s="104"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="115"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5360,7 +5536,9 @@
       <c r="J90" s="81">
         <v>0</v>
       </c>
-      <c r="K90" s="4"/>
+      <c r="K90" s="81">
+        <v>0</v>
+      </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -5375,8 +5553,8 @@
       <c r="W90" s="20"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="123"/>
-      <c r="C91" s="104"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="115"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5399,7 +5577,9 @@
       <c r="J91" s="81">
         <v>0</v>
       </c>
-      <c r="K91" s="4"/>
+      <c r="K91" s="81">
+        <v>0</v>
+      </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -5414,8 +5594,8 @@
       <c r="W91" s="20"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="123"/>
-      <c r="C92" s="104"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="115"/>
       <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
@@ -5438,7 +5618,9 @@
       <c r="J92" s="81">
         <v>0</v>
       </c>
-      <c r="K92" s="4"/>
+      <c r="K92" s="81">
+        <v>0</v>
+      </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
@@ -5453,8 +5635,8 @@
       <c r="W92" s="20"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="123"/>
-      <c r="C93" s="104" t="s">
+      <c r="B93" s="110"/>
+      <c r="C93" s="115" t="s">
         <v>123</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5479,7 +5661,9 @@
       <c r="J93" s="81">
         <v>0</v>
       </c>
-      <c r="K93" s="4"/>
+      <c r="K93" s="81">
+        <v>0</v>
+      </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -5494,8 +5678,8 @@
       <c r="W93" s="20"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="123"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="115"/>
       <c r="D94" s="4" t="s">
         <v>134</v>
       </c>
@@ -5518,7 +5702,9 @@
       <c r="J94" s="81">
         <v>0</v>
       </c>
-      <c r="K94" s="4"/>
+      <c r="K94" s="81">
+        <v>0</v>
+      </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -5533,8 +5719,8 @@
       <c r="W94" s="20"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="123"/>
-      <c r="C95" s="104"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="115"/>
       <c r="D95" s="4" t="s">
         <v>135</v>
       </c>
@@ -5557,7 +5743,9 @@
       <c r="J95" s="81">
         <v>0</v>
       </c>
-      <c r="K95" s="4"/>
+      <c r="K95" s="81">
+        <v>0</v>
+      </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
@@ -5572,8 +5760,8 @@
       <c r="W95" s="20"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="123"/>
-      <c r="C96" s="104"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="115"/>
       <c r="D96" s="4" t="s">
         <v>136</v>
       </c>
@@ -5596,7 +5784,9 @@
       <c r="J96" s="81">
         <v>0</v>
       </c>
-      <c r="K96" s="4"/>
+      <c r="K96" s="81">
+        <v>0</v>
+      </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
@@ -5611,8 +5801,8 @@
       <c r="W96" s="20"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="123"/>
-      <c r="C97" s="104" t="s">
+      <c r="B97" s="110"/>
+      <c r="C97" s="115" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5637,7 +5827,9 @@
       <c r="J97" s="81">
         <v>0</v>
       </c>
-      <c r="K97" s="4"/>
+      <c r="K97" s="81">
+        <v>0</v>
+      </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
@@ -5652,8 +5844,8 @@
       <c r="W97" s="20"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="123"/>
-      <c r="C98" s="104"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="115"/>
       <c r="D98" s="4" t="s">
         <v>134</v>
       </c>
@@ -5676,7 +5868,9 @@
       <c r="J98" s="81">
         <v>0</v>
       </c>
-      <c r="K98" s="4"/>
+      <c r="K98" s="81">
+        <v>0</v>
+      </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -5691,8 +5885,8 @@
       <c r="W98" s="20"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="123"/>
-      <c r="C99" s="104"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="4" t="s">
         <v>135</v>
       </c>
@@ -5715,7 +5909,9 @@
       <c r="J99" s="81">
         <v>0</v>
       </c>
-      <c r="K99" s="4"/>
+      <c r="K99" s="81">
+        <v>0</v>
+      </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
@@ -5730,8 +5926,8 @@
       <c r="W99" s="20"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="123"/>
-      <c r="C100" s="104"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="115"/>
       <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
@@ -5754,7 +5950,9 @@
       <c r="J100" s="81">
         <v>0</v>
       </c>
-      <c r="K100" s="4"/>
+      <c r="K100" s="81">
+        <v>0</v>
+      </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -5769,8 +5967,8 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="123"/>
-      <c r="C101" s="104" t="s">
+      <c r="B101" s="110"/>
+      <c r="C101" s="115" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5795,7 +5993,9 @@
       <c r="J101" s="81">
         <v>0</v>
       </c>
-      <c r="K101" s="4"/>
+      <c r="K101" s="81">
+        <v>0</v>
+      </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -5810,8 +6010,8 @@
       <c r="W101" s="20"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="123"/>
-      <c r="C102" s="104"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="115"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
@@ -5834,7 +6034,9 @@
       <c r="J102" s="81">
         <v>0</v>
       </c>
-      <c r="K102" s="4"/>
+      <c r="K102" s="81">
+        <v>0</v>
+      </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
@@ -5849,8 +6051,8 @@
       <c r="W102" s="20"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="123"/>
-      <c r="C103" s="104"/>
+      <c r="B103" s="110"/>
+      <c r="C103" s="115"/>
       <c r="D103" s="4" t="s">
         <v>135</v>
       </c>
@@ -5873,7 +6075,9 @@
       <c r="J103" s="81">
         <v>0</v>
       </c>
-      <c r="K103" s="4"/>
+      <c r="K103" s="81">
+        <v>0</v>
+      </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
@@ -5888,8 +6092,8 @@
       <c r="W103" s="20"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="123"/>
-      <c r="C104" s="104"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="115"/>
       <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
@@ -5912,7 +6116,9 @@
       <c r="J104" s="81">
         <v>0</v>
       </c>
-      <c r="K104" s="4"/>
+      <c r="K104" s="81">
+        <v>0</v>
+      </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -5927,8 +6133,8 @@
       <c r="W104" s="20"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="123"/>
-      <c r="C105" s="104" t="s">
+      <c r="B105" s="110"/>
+      <c r="C105" s="115" t="s">
         <v>126</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5953,7 +6159,9 @@
       <c r="J105" s="81">
         <v>0</v>
       </c>
-      <c r="K105" s="4"/>
+      <c r="K105" s="81">
+        <v>0</v>
+      </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -5968,8 +6176,8 @@
       <c r="W105" s="20"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="123"/>
-      <c r="C106" s="104"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="115"/>
       <c r="D106" s="4" t="s">
         <v>134</v>
       </c>
@@ -5992,7 +6200,9 @@
       <c r="J106" s="81">
         <v>0</v>
       </c>
-      <c r="K106" s="4"/>
+      <c r="K106" s="81">
+        <v>0</v>
+      </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -6007,8 +6217,8 @@
       <c r="W106" s="20"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="123"/>
-      <c r="C107" s="104"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="115"/>
       <c r="D107" s="4" t="s">
         <v>135</v>
       </c>
@@ -6031,7 +6241,9 @@
       <c r="J107" s="81">
         <v>0</v>
       </c>
-      <c r="K107" s="4"/>
+      <c r="K107" s="81">
+        <v>0</v>
+      </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
@@ -6046,8 +6258,8 @@
       <c r="W107" s="20"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="123"/>
-      <c r="C108" s="104"/>
+      <c r="B108" s="110"/>
+      <c r="C108" s="115"/>
       <c r="D108" s="4" t="s">
         <v>136</v>
       </c>
@@ -6070,7 +6282,9 @@
       <c r="J108" s="81">
         <v>0</v>
       </c>
-      <c r="K108" s="4"/>
+      <c r="K108" s="81">
+        <v>0</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -6085,8 +6299,8 @@
       <c r="W108" s="20"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="123"/>
-      <c r="C109" s="104" t="s">
+      <c r="B109" s="110"/>
+      <c r="C109" s="115" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -6111,7 +6325,9 @@
       <c r="J109" s="81">
         <v>0</v>
       </c>
-      <c r="K109" s="4"/>
+      <c r="K109" s="81">
+        <v>0</v>
+      </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -6126,8 +6342,8 @@
       <c r="W109" s="20"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="123"/>
-      <c r="C110" s="104"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="115"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6150,7 +6366,9 @@
       <c r="J110" s="81">
         <v>0</v>
       </c>
-      <c r="K110" s="4"/>
+      <c r="K110" s="81">
+        <v>0</v>
+      </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -6165,8 +6383,8 @@
       <c r="W110" s="20"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="123"/>
-      <c r="C111" s="104"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="115"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6189,7 +6407,9 @@
       <c r="J111" s="81">
         <v>0</v>
       </c>
-      <c r="K111" s="4"/>
+      <c r="K111" s="81">
+        <v>0</v>
+      </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -6204,8 +6424,8 @@
       <c r="W111" s="20"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="123"/>
-      <c r="C112" s="104"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="115"/>
       <c r="D112" s="4" t="s">
         <v>136</v>
       </c>
@@ -6228,7 +6448,9 @@
       <c r="J112" s="81">
         <v>0</v>
       </c>
-      <c r="K112" s="4"/>
+      <c r="K112" s="81">
+        <v>0</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -6243,8 +6465,8 @@
       <c r="W112" s="20"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="123"/>
-      <c r="C113" s="104" t="s">
+      <c r="B113" s="110"/>
+      <c r="C113" s="115" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6269,7 +6491,9 @@
       <c r="J113" s="81">
         <v>0</v>
       </c>
-      <c r="K113" s="4"/>
+      <c r="K113" s="81">
+        <v>0</v>
+      </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -6284,8 +6508,8 @@
       <c r="W113" s="20"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="123"/>
-      <c r="C114" s="104"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="115"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
@@ -6308,7 +6532,9 @@
       <c r="J114" s="81">
         <v>0</v>
       </c>
-      <c r="K114" s="4"/>
+      <c r="K114" s="81">
+        <v>0</v>
+      </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -6323,8 +6549,8 @@
       <c r="W114" s="20"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="123"/>
-      <c r="C115" s="104"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="115"/>
       <c r="D115" s="4" t="s">
         <v>135</v>
       </c>
@@ -6347,7 +6573,9 @@
       <c r="J115" s="81">
         <v>0</v>
       </c>
-      <c r="K115" s="4"/>
+      <c r="K115" s="81">
+        <v>0</v>
+      </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
@@ -6362,8 +6590,8 @@
       <c r="W115" s="20"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="123"/>
-      <c r="C116" s="104"/>
+      <c r="B116" s="110"/>
+      <c r="C116" s="115"/>
       <c r="D116" s="4" t="s">
         <v>136</v>
       </c>
@@ -6386,7 +6614,9 @@
       <c r="J116" s="81">
         <v>0</v>
       </c>
-      <c r="K116" s="4"/>
+      <c r="K116" s="81">
+        <v>0</v>
+      </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -6401,8 +6631,8 @@
       <c r="W116" s="20"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="123"/>
-      <c r="C117" s="104" t="s">
+      <c r="B117" s="110"/>
+      <c r="C117" s="115" t="s">
         <v>129</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6427,7 +6657,9 @@
       <c r="J117" s="81">
         <v>0</v>
       </c>
-      <c r="K117" s="4"/>
+      <c r="K117" s="81">
+        <v>0</v>
+      </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -6442,8 +6674,8 @@
       <c r="W117" s="20"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="123"/>
-      <c r="C118" s="104"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="115"/>
       <c r="D118" s="4" t="s">
         <v>134</v>
       </c>
@@ -6466,7 +6698,9 @@
       <c r="J118" s="81">
         <v>0</v>
       </c>
-      <c r="K118" s="4"/>
+      <c r="K118" s="81">
+        <v>0</v>
+      </c>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
@@ -6481,8 +6715,8 @@
       <c r="W118" s="20"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="123"/>
-      <c r="C119" s="104"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="115"/>
       <c r="D119" s="4" t="s">
         <v>135</v>
       </c>
@@ -6505,7 +6739,9 @@
       <c r="J119" s="81">
         <v>0</v>
       </c>
-      <c r="K119" s="4"/>
+      <c r="K119" s="81">
+        <v>0</v>
+      </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
@@ -6520,8 +6756,8 @@
       <c r="W119" s="20"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="123"/>
-      <c r="C120" s="104"/>
+      <c r="B120" s="110"/>
+      <c r="C120" s="115"/>
       <c r="D120" s="4" t="s">
         <v>136</v>
       </c>
@@ -6544,7 +6780,9 @@
       <c r="J120" s="81">
         <v>0</v>
       </c>
-      <c r="K120" s="4"/>
+      <c r="K120" s="81">
+        <v>0</v>
+      </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
@@ -6559,8 +6797,8 @@
       <c r="W120" s="20"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="123"/>
-      <c r="C121" s="104" t="s">
+      <c r="B121" s="110"/>
+      <c r="C121" s="115" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6585,7 +6823,9 @@
       <c r="J121" s="81">
         <v>0</v>
       </c>
-      <c r="K121" s="4"/>
+      <c r="K121" s="81">
+        <v>0</v>
+      </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
@@ -6600,8 +6840,8 @@
       <c r="W121" s="20"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="123"/>
-      <c r="C122" s="104"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="115"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
@@ -6624,7 +6864,9 @@
       <c r="J122" s="81">
         <v>0</v>
       </c>
-      <c r="K122" s="4"/>
+      <c r="K122" s="81">
+        <v>0</v>
+      </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
@@ -6639,8 +6881,8 @@
       <c r="W122" s="20"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="123"/>
-      <c r="C123" s="104"/>
+      <c r="B123" s="110"/>
+      <c r="C123" s="115"/>
       <c r="D123" s="4" t="s">
         <v>135</v>
       </c>
@@ -6663,7 +6905,9 @@
       <c r="J123" s="81">
         <v>0</v>
       </c>
-      <c r="K123" s="4"/>
+      <c r="K123" s="81">
+        <v>0</v>
+      </c>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
@@ -6678,8 +6922,8 @@
       <c r="W123" s="20"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="123"/>
-      <c r="C124" s="104"/>
+      <c r="B124" s="110"/>
+      <c r="C124" s="115"/>
       <c r="D124" s="4" t="s">
         <v>136</v>
       </c>
@@ -6702,7 +6946,9 @@
       <c r="J124" s="81">
         <v>0</v>
       </c>
-      <c r="K124" s="4"/>
+      <c r="K124" s="81">
+        <v>0</v>
+      </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
@@ -6717,8 +6963,8 @@
       <c r="W124" s="20"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="123"/>
-      <c r="C125" s="104" t="s">
+      <c r="B125" s="110"/>
+      <c r="C125" s="115" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -6743,7 +6989,9 @@
       <c r="J125" s="81">
         <v>0</v>
       </c>
-      <c r="K125" s="4"/>
+      <c r="K125" s="81">
+        <v>0</v>
+      </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
@@ -6758,8 +7006,8 @@
       <c r="W125" s="20"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="123"/>
-      <c r="C126" s="104"/>
+      <c r="B126" s="110"/>
+      <c r="C126" s="115"/>
       <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
@@ -6782,7 +7030,9 @@
       <c r="J126" s="81">
         <v>0</v>
       </c>
-      <c r="K126" s="4"/>
+      <c r="K126" s="81">
+        <v>0</v>
+      </c>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -6797,8 +7047,8 @@
       <c r="W126" s="20"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="123"/>
-      <c r="C127" s="104"/>
+      <c r="B127" s="110"/>
+      <c r="C127" s="115"/>
       <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
@@ -6821,7 +7071,9 @@
       <c r="J127" s="81">
         <v>0</v>
       </c>
-      <c r="K127" s="4"/>
+      <c r="K127" s="81">
+        <v>0</v>
+      </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
@@ -6836,8 +7088,8 @@
       <c r="W127" s="20"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="123"/>
-      <c r="C128" s="104"/>
+      <c r="B128" s="110"/>
+      <c r="C128" s="115"/>
       <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
@@ -6860,7 +7112,9 @@
       <c r="J128" s="81">
         <v>0</v>
       </c>
-      <c r="K128" s="4"/>
+      <c r="K128" s="81">
+        <v>0</v>
+      </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
@@ -6875,8 +7129,8 @@
       <c r="W128" s="20"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="123"/>
-      <c r="C129" s="104" t="s">
+      <c r="B129" s="110"/>
+      <c r="C129" s="115" t="s">
         <v>132</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -6901,7 +7155,9 @@
       <c r="J129" s="81">
         <v>0</v>
       </c>
-      <c r="K129" s="4"/>
+      <c r="K129" s="81">
+        <v>0</v>
+      </c>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
@@ -6916,8 +7172,8 @@
       <c r="W129" s="20"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="123"/>
-      <c r="C130" s="104"/>
+      <c r="B130" s="110"/>
+      <c r="C130" s="115"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -6940,7 +7196,9 @@
       <c r="J130" s="81">
         <v>0</v>
       </c>
-      <c r="K130" s="4"/>
+      <c r="K130" s="81">
+        <v>0</v>
+      </c>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
@@ -6955,8 +7213,8 @@
       <c r="W130" s="20"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="123"/>
-      <c r="C131" s="104"/>
+      <c r="B131" s="110"/>
+      <c r="C131" s="115"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -6979,7 +7237,9 @@
       <c r="J131" s="81">
         <v>0</v>
       </c>
-      <c r="K131" s="4"/>
+      <c r="K131" s="81">
+        <v>0</v>
+      </c>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
@@ -6994,8 +7254,8 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="125"/>
-      <c r="C132" s="126"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="119"/>
       <c r="D132" s="25" t="s">
         <v>136</v>
       </c>
@@ -7018,7 +7278,9 @@
       <c r="J132" s="82">
         <v>0</v>
       </c>
-      <c r="K132" s="25"/>
+      <c r="K132" s="82">
+        <v>0</v>
+      </c>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
       <c r="N132" s="25"/>
@@ -7033,7 +7295,7 @@
       <c r="W132" s="26"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="108" t="s">
+      <c r="B133" s="112" t="s">
         <v>83</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7059,7 +7321,9 @@
       <c r="J133" s="80">
         <v>0</v>
       </c>
-      <c r="K133" s="44"/>
+      <c r="K133" s="80">
+        <v>0</v>
+      </c>
       <c r="L133" s="44"/>
       <c r="M133" s="44"/>
       <c r="N133" s="44"/>
@@ -7074,7 +7338,7 @@
       <c r="W133" s="57"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="109"/>
+      <c r="B134" s="113"/>
       <c r="C134" s="38" t="s">
         <v>89</v>
       </c>
@@ -7098,7 +7362,9 @@
       <c r="J134" s="81">
         <v>0</v>
       </c>
-      <c r="K134" s="4"/>
+      <c r="K134" s="81">
+        <v>0</v>
+      </c>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -7113,7 +7379,7 @@
       <c r="W134" s="20"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="109"/>
+      <c r="B135" s="113"/>
       <c r="C135" s="38" t="s">
         <v>90</v>
       </c>
@@ -7137,7 +7403,9 @@
       <c r="J135" s="81">
         <v>0</v>
       </c>
-      <c r="K135" s="4"/>
+      <c r="K135" s="81">
+        <v>0</v>
+      </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
@@ -7152,7 +7420,7 @@
       <c r="W135" s="20"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="109"/>
+      <c r="B136" s="113"/>
       <c r="C136" s="38" t="s">
         <v>91</v>
       </c>
@@ -7176,7 +7444,9 @@
       <c r="J136" s="81">
         <v>0</v>
       </c>
-      <c r="K136" s="4"/>
+      <c r="K136" s="81">
+        <v>0</v>
+      </c>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
@@ -7191,7 +7461,7 @@
       <c r="W136" s="20"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="109"/>
+      <c r="B137" s="113"/>
       <c r="C137" s="38" t="s">
         <v>143</v>
       </c>
@@ -7215,7 +7485,9 @@
       <c r="J137" s="81">
         <v>0</v>
       </c>
-      <c r="K137" s="4"/>
+      <c r="K137" s="81">
+        <v>0</v>
+      </c>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
@@ -7230,7 +7502,7 @@
       <c r="W137" s="20"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="109"/>
+      <c r="B138" s="113"/>
       <c r="C138" s="38" t="s">
         <v>140</v>
       </c>
@@ -7254,7 +7526,9 @@
       <c r="J138" s="81">
         <v>0</v>
       </c>
-      <c r="K138" s="4"/>
+      <c r="K138" s="81">
+        <v>0</v>
+      </c>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
@@ -7269,7 +7543,7 @@
       <c r="W138" s="20"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="109"/>
+      <c r="B139" s="113"/>
       <c r="C139" s="38" t="s">
         <v>142</v>
       </c>
@@ -7293,7 +7567,9 @@
       <c r="J139" s="81">
         <v>0</v>
       </c>
-      <c r="K139" s="4"/>
+      <c r="K139" s="81">
+        <v>0</v>
+      </c>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
@@ -7308,7 +7584,7 @@
       <c r="W139" s="20"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="109"/>
+      <c r="B140" s="113"/>
       <c r="C140" s="38" t="s">
         <v>141</v>
       </c>
@@ -7332,7 +7608,9 @@
       <c r="J140" s="81">
         <v>0</v>
       </c>
-      <c r="K140" s="4"/>
+      <c r="K140" s="81">
+        <v>0</v>
+      </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
@@ -7347,7 +7625,7 @@
       <c r="W140" s="20"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="109"/>
+      <c r="B141" s="113"/>
       <c r="C141" s="38" t="s">
         <v>92</v>
       </c>
@@ -7371,7 +7649,9 @@
       <c r="J141" s="81">
         <v>0</v>
       </c>
-      <c r="K141" s="4"/>
+      <c r="K141" s="81">
+        <v>0</v>
+      </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
@@ -7386,7 +7666,7 @@
       <c r="W141" s="20"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="109"/>
+      <c r="B142" s="113"/>
       <c r="C142" s="38" t="s">
         <v>93</v>
       </c>
@@ -7410,7 +7690,9 @@
       <c r="J142" s="81">
         <v>0</v>
       </c>
-      <c r="K142" s="4"/>
+      <c r="K142" s="81">
+        <v>0</v>
+      </c>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
@@ -7425,7 +7707,7 @@
       <c r="W142" s="20"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="109"/>
+      <c r="B143" s="113"/>
       <c r="C143" s="38" t="s">
         <v>94</v>
       </c>
@@ -7449,7 +7731,9 @@
       <c r="J143" s="81">
         <v>0</v>
       </c>
-      <c r="K143" s="4"/>
+      <c r="K143" s="81">
+        <v>0</v>
+      </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
@@ -7464,7 +7748,7 @@
       <c r="W143" s="20"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="109"/>
+      <c r="B144" s="113"/>
       <c r="C144" s="38" t="s">
         <v>98</v>
       </c>
@@ -7488,7 +7772,9 @@
       <c r="J144" s="81">
         <v>0</v>
       </c>
-      <c r="K144" s="4"/>
+      <c r="K144" s="81">
+        <v>0</v>
+      </c>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
@@ -7503,7 +7789,7 @@
       <c r="W144" s="20"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="110"/>
+      <c r="B145" s="114"/>
       <c r="C145" s="61" t="s">
         <v>99</v>
       </c>
@@ -7527,7 +7813,9 @@
       <c r="J145" s="82">
         <v>0</v>
       </c>
-      <c r="K145" s="25"/>
+      <c r="K145" s="82">
+        <v>0</v>
+      </c>
       <c r="L145" s="25"/>
       <c r="M145" s="25"/>
       <c r="N145" s="25"/>
@@ -7542,7 +7830,7 @@
       <c r="W145" s="26"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="122" t="s">
+      <c r="B146" s="109" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="71" t="s">
@@ -7568,7 +7856,9 @@
       <c r="J146" s="80">
         <v>0</v>
       </c>
-      <c r="K146" s="44"/>
+      <c r="K146" s="80">
+        <v>0</v>
+      </c>
       <c r="L146" s="44"/>
       <c r="M146" s="44"/>
       <c r="N146" s="44"/>
@@ -7583,7 +7873,7 @@
       <c r="W146" s="57"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="123"/>
+      <c r="B147" s="110"/>
       <c r="C147" s="70" t="s">
         <v>145</v>
       </c>
@@ -7607,7 +7897,9 @@
       <c r="J147" s="81">
         <v>0</v>
       </c>
-      <c r="K147" s="4"/>
+      <c r="K147" s="81">
+        <v>0</v>
+      </c>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
@@ -7622,7 +7914,7 @@
       <c r="W147" s="20"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="125"/>
+      <c r="B148" s="116"/>
       <c r="C148" s="72" t="s">
         <v>146</v>
       </c>
@@ -7646,7 +7938,9 @@
       <c r="J148" s="82">
         <v>0</v>
       </c>
-      <c r="K148" s="25"/>
+      <c r="K148" s="82">
+        <v>0</v>
+      </c>
       <c r="L148" s="25"/>
       <c r="M148" s="25"/>
       <c r="N148" s="25"/>
@@ -7661,7 +7955,7 @@
       <c r="W148" s="26"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="109" t="s">
+      <c r="B149" s="113" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="38" t="s">
@@ -7687,7 +7981,9 @@
       <c r="J149" s="83">
         <v>0</v>
       </c>
-      <c r="K149" s="7"/>
+      <c r="K149" s="83">
+        <v>0</v>
+      </c>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
@@ -7702,7 +7998,7 @@
       <c r="W149" s="69"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="109"/>
+      <c r="B150" s="113"/>
       <c r="C150" s="38" t="s">
         <v>138</v>
       </c>
@@ -7726,7 +8022,9 @@
       <c r="J150" s="83">
         <v>0</v>
       </c>
-      <c r="K150" s="7"/>
+      <c r="K150" s="83">
+        <v>0</v>
+      </c>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
@@ -7741,7 +8039,7 @@
       <c r="W150" s="69"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="109"/>
+      <c r="B151" s="113"/>
       <c r="C151" s="38" t="s">
         <v>139</v>
       </c>
@@ -7765,7 +8063,9 @@
       <c r="J151" s="83">
         <v>0</v>
       </c>
-      <c r="K151" s="7"/>
+      <c r="K151" s="83">
+        <v>0</v>
+      </c>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
@@ -7780,7 +8080,7 @@
       <c r="W151" s="69"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="109"/>
+      <c r="B152" s="113"/>
       <c r="C152" s="38" t="s">
         <v>147</v>
       </c>
@@ -7804,7 +8104,9 @@
       <c r="J152" s="81">
         <v>0</v>
       </c>
-      <c r="K152" s="4"/>
+      <c r="K152" s="81">
+        <v>0</v>
+      </c>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
@@ -7819,7 +8121,7 @@
       <c r="W152" s="20"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="109"/>
+      <c r="B153" s="113"/>
       <c r="C153" s="35" t="s">
         <v>84</v>
       </c>
@@ -7843,7 +8145,9 @@
       <c r="J153" s="81">
         <v>0</v>
       </c>
-      <c r="K153" s="4"/>
+      <c r="K153" s="81">
+        <v>0</v>
+      </c>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
@@ -7858,7 +8162,7 @@
       <c r="W153" s="20"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="109"/>
+      <c r="B154" s="113"/>
       <c r="C154" s="35" t="s">
         <v>85</v>
       </c>
@@ -7882,7 +8186,9 @@
       <c r="J154" s="81">
         <v>0</v>
       </c>
-      <c r="K154" s="4"/>
+      <c r="K154" s="81">
+        <v>0</v>
+      </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -7897,7 +8203,7 @@
       <c r="W154" s="20"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="109"/>
+      <c r="B155" s="113"/>
       <c r="C155" s="39" t="s">
         <v>87</v>
       </c>
@@ -7921,7 +8227,9 @@
       <c r="J155" s="84">
         <v>0</v>
       </c>
-      <c r="K155" s="8"/>
+      <c r="K155" s="84">
+        <v>0</v>
+      </c>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
@@ -7936,7 +8244,7 @@
       <c r="W155" s="29"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="109"/>
+      <c r="B156" s="113"/>
       <c r="C156" s="35" t="s">
         <v>86</v>
       </c>
@@ -7960,7 +8268,9 @@
       <c r="J156" s="84">
         <v>0</v>
       </c>
-      <c r="K156" s="8"/>
+      <c r="K156" s="84">
+        <v>0</v>
+      </c>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
       <c r="N156" s="8"/>
@@ -7975,7 +8285,7 @@
       <c r="W156" s="29"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="109"/>
+      <c r="B157" s="113"/>
       <c r="C157" s="41" t="s">
         <v>104</v>
       </c>
@@ -7999,7 +8309,9 @@
       <c r="J157" s="84">
         <v>0</v>
       </c>
-      <c r="K157" s="8"/>
+      <c r="K157" s="84">
+        <v>0</v>
+      </c>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
       <c r="N157" s="8"/>
@@ -8014,7 +8326,7 @@
       <c r="W157" s="29"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="109"/>
+      <c r="B158" s="113"/>
       <c r="C158" s="41" t="s">
         <v>137</v>
       </c>
@@ -8038,7 +8350,7 @@
       <c r="J158" s="84">
         <v>0</v>
       </c>
-      <c r="K158" s="127">
+      <c r="K158" s="103">
         <v>1.85</v>
       </c>
       <c r="L158" s="8"/>
@@ -8055,7 +8367,7 @@
       <c r="W158" s="29"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="109"/>
+      <c r="B159" s="113"/>
       <c r="C159" s="41" t="s">
         <v>105</v>
       </c>
@@ -8079,7 +8391,9 @@
       <c r="J159" s="84">
         <v>0</v>
       </c>
-      <c r="K159" s="8"/>
+      <c r="K159" s="84">
+        <v>0</v>
+      </c>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
       <c r="N159" s="8"/>
@@ -8094,7 +8408,7 @@
       <c r="W159" s="29"/>
     </row>
     <row r="160" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="110"/>
+      <c r="B160" s="114"/>
       <c r="C160" s="61" t="s">
         <v>100</v>
       </c>
@@ -8118,7 +8432,9 @@
       <c r="J160" s="82">
         <v>0</v>
       </c>
-      <c r="K160" s="25"/>
+      <c r="K160" s="82">
+        <v>0</v>
+      </c>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
       <c r="N160" s="25"/>
@@ -8133,21 +8449,21 @@
       <c r="W160" s="26"/>
     </row>
     <row r="161" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="118" t="s">
+      <c r="B161" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="120"/>
-      <c r="D161" s="119"/>
-      <c r="E161" s="119"/>
-      <c r="F161" s="119"/>
-      <c r="G161" s="121"/>
+      <c r="C161" s="107"/>
+      <c r="D161" s="105"/>
+      <c r="E161" s="105"/>
+      <c r="F161" s="105"/>
+      <c r="G161" s="108"/>
       <c r="H161" s="40">
         <f>SUM(H4:H160)</f>
         <v>89.199999999999989</v>
       </c>
       <c r="I161" s="24">
         <f>SUM(I4:I160)</f>
-        <v>3.3833000000000002</v>
+        <v>5.5563000000000002</v>
       </c>
       <c r="J161" s="24">
         <f>SUM(J4:J160)</f>
@@ -8155,11 +8471,11 @@
       </c>
       <c r="K161" s="24">
         <f t="shared" ref="K161:W161" si="5">SUM(K4:K160)</f>
-        <v>3.3833000000000002</v>
+        <v>4.0533000000000001</v>
       </c>
       <c r="L161" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="M161" s="24">
         <f t="shared" si="5"/>
@@ -8215,22 +8531,22 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="105" t="s">
+      <c r="J162" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="K162" s="106"/>
-      <c r="L162" s="106"/>
-      <c r="M162" s="106"/>
-      <c r="N162" s="106"/>
-      <c r="O162" s="106"/>
-      <c r="P162" s="106"/>
-      <c r="Q162" s="106"/>
-      <c r="R162" s="106"/>
-      <c r="S162" s="106"/>
-      <c r="T162" s="106"/>
-      <c r="U162" s="106"/>
-      <c r="V162" s="106"/>
-      <c r="W162" s="107"/>
+      <c r="K162" s="117"/>
+      <c r="L162" s="117"/>
+      <c r="M162" s="117"/>
+      <c r="N162" s="117"/>
+      <c r="O162" s="117"/>
+      <c r="P162" s="117"/>
+      <c r="Q162" s="117"/>
+      <c r="R162" s="117"/>
+      <c r="S162" s="117"/>
+      <c r="T162" s="117"/>
+      <c r="U162" s="117"/>
+      <c r="V162" s="117"/>
+      <c r="W162" s="118"/>
     </row>
     <row r="163" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
@@ -8254,29 +8570,29 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="118" t="s">
+      <c r="H164" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I164" s="119"/>
+      <c r="I164" s="105"/>
       <c r="J164" s="10">
         <f>H161-J161</f>
         <v>89.199999999999989</v>
       </c>
       <c r="K164" s="10">
         <f>J164-K161</f>
-        <v>85.816699999999983</v>
+        <v>85.146699999999981</v>
       </c>
       <c r="L164" s="10">
         <f>K164-L161</f>
-        <v>85.816699999999983</v>
+        <v>83.643699999999981</v>
       </c>
       <c r="M164" s="10">
         <f>L164-M161</f>
-        <v>85.816699999999983</v>
+        <v>83.643699999999981</v>
       </c>
       <c r="N164" s="11">
         <f>M164-N161</f>
-        <v>85.816699999999983</v>
+        <v>83.643699999999981</v>
       </c>
     </row>
     <row r="165" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8300,18 +8616,18 @@
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="H166" s="105" t="s">
+      <c r="H166" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="120"/>
-      <c r="J166" s="119">
+      <c r="I166" s="107"/>
+      <c r="J166" s="105">
         <f>H161-I161</f>
-        <v>85.816699999999983</v>
-      </c>
-      <c r="K166" s="119"/>
-      <c r="L166" s="119"/>
-      <c r="M166" s="119"/>
-      <c r="N166" s="121"/>
+        <v>83.643699999999995</v>
+      </c>
+      <c r="K166" s="105"/>
+      <c r="L166" s="105"/>
+      <c r="M166" s="105"/>
+      <c r="N166" s="108"/>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
@@ -8415,6 +8731,23 @@
     <row r="185" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C16:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="J166:N166"/>
@@ -8431,23 +8764,6 @@
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="C81:C84"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C16:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C117:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1239,21 +1239,81 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,67 +1323,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,19 +1383,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>89.69999999999996</c:v>
+                  <c:v>96.499999999999829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.646699999999953</c:v>
+                  <c:v>92.446699999999822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.143699999999953</c:v>
+                  <c:v>90.443699999999822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.143699999999953</c:v>
+                  <c:v>87.493699999999819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.143699999999953</c:v>
+                  <c:v>87.493699999999819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,11 +1416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1221442368"/>
-        <c:axId val="-1221441824"/>
+        <c:axId val="-315111632"/>
+        <c:axId val="-315110000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1221442368"/>
+        <c:axId val="-315111632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1221441824"/>
+        <c:crossAx val="-315110000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1437,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1221441824"/>
+        <c:axId val="-315110000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1221442368"/>
+        <c:crossAx val="-315111632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J168" sqref="J168"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,22 +1822,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="93"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
@@ -1908,7 +1908,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="114" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -1937,7 +1937,7 @@
       <c r="K4" s="69">
         <v>0</v>
       </c>
-      <c r="L4" s="39"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
       <c r="O4" s="41"/>
@@ -1951,7 +1951,7 @@
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="35" t="s">
         <v>101</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="K5" s="70">
         <v>0</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="17"/>
@@ -1992,7 +1992,7 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="95"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="35" t="s">
         <v>102</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="K6" s="70">
         <v>0</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="17"/>
@@ -2033,7 +2033,7 @@
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="35" t="s">
         <v>103</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="K7" s="70">
         <v>0</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="17"/>
@@ -2074,7 +2074,7 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="96"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="45" t="s">
         <v>111</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="K8" s="71">
         <v>0</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="22"/>
@@ -2115,7 +2115,7 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2158,7 +2158,7 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="34" t="s">
         <v>107</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="K10" s="70">
         <v>0</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="17"/>
@@ -2199,7 +2199,7 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="83" t="s">
         <v>112</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="K11" s="70">
         <v>0</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="17"/>
@@ -2240,7 +2240,7 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="95"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="83" t="s">
         <v>113</v>
       </c>
@@ -2305,7 +2305,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="96"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2379,7 +2379,7 @@
       <c r="K14" s="82">
         <v>0.88329999999999997</v>
       </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="50"/>
       <c r="N14" s="39"/>
       <c r="O14" s="51"/>
@@ -2393,8 +2393,8 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="107"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="108" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2410,11 +2410,11 @@
         <v>2</v>
       </c>
       <c r="H15" s="4">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="J15" s="70">
         <v>0</v>
@@ -2422,8 +2422,12 @@
       <c r="K15" s="70">
         <v>0</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="14">
+        <v>2.95</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="17"/>
       <c r="P15" s="16"/>
@@ -2436,8 +2440,8 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-      <c r="C16" s="100"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I16" s="55">
         <f t="shared" si="0"/>
@@ -2463,7 +2467,7 @@
       <c r="K16" s="70">
         <v>0</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="14"/>
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
@@ -2477,8 +2481,8 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="107"/>
-      <c r="C17" s="100"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I17" s="55">
         <f t="shared" si="0"/>
@@ -2504,7 +2508,7 @@
       <c r="K17" s="70">
         <v>0</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="70"/>
       <c r="M17" s="14"/>
       <c r="N17" s="4"/>
       <c r="O17" s="17"/>
@@ -2518,8 +2522,8 @@
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="107"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I18" s="55">
         <f t="shared" si="0"/>
@@ -2545,7 +2549,7 @@
       <c r="K18" s="70">
         <v>0</v>
       </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="14"/>
       <c r="N18" s="4"/>
       <c r="O18" s="17"/>
@@ -2559,8 +2563,8 @@
       <c r="W18" s="19"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I19" s="55">
         <f t="shared" si="0"/>
@@ -2586,7 +2590,7 @@
       <c r="K19" s="70">
         <v>0</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="14"/>
       <c r="N19" s="4"/>
       <c r="O19" s="17"/>
@@ -2600,8 +2604,8 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="107"/>
-      <c r="C20" s="100"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2615,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I20" s="55">
         <f t="shared" si="0"/>
@@ -2627,7 +2631,7 @@
       <c r="K20" s="70">
         <v>0</v>
       </c>
-      <c r="L20" s="14"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="14"/>
       <c r="N20" s="4"/>
       <c r="O20" s="17"/>
@@ -2641,8 +2645,8 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="107"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="32" t="s">
         <v>36</v>
       </c>
@@ -2668,7 +2672,7 @@
       <c r="K21" s="70">
         <v>0</v>
       </c>
-      <c r="L21" s="14"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="14"/>
       <c r="N21" s="4"/>
       <c r="O21" s="17"/>
@@ -2682,8 +2686,8 @@
       <c r="W21" s="19"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="107"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="32" t="s">
         <v>37</v>
       </c>
@@ -2709,7 +2713,7 @@
       <c r="K22" s="70">
         <v>0</v>
       </c>
-      <c r="L22" s="14"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="14"/>
       <c r="N22" s="4"/>
       <c r="O22" s="17"/>
@@ -2723,8 +2727,8 @@
       <c r="W22" s="19"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="107"/>
-      <c r="C23" s="100"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="32" t="s">
         <v>38</v>
       </c>
@@ -2750,7 +2754,7 @@
       <c r="K23" s="70">
         <v>0</v>
       </c>
-      <c r="L23" s="14"/>
+      <c r="L23" s="70"/>
       <c r="M23" s="14"/>
       <c r="N23" s="4"/>
       <c r="O23" s="17"/>
@@ -2764,8 +2768,8 @@
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-      <c r="C24" s="100"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="32" t="s">
         <v>39</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="K24" s="70">
         <v>0</v>
       </c>
-      <c r="L24" s="14"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="14"/>
       <c r="N24" s="4"/>
       <c r="O24" s="17"/>
@@ -2805,8 +2809,8 @@
       <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="100"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
@@ -2832,7 +2836,7 @@
       <c r="K25" s="70">
         <v>0</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="14"/>
       <c r="N25" s="4"/>
       <c r="O25" s="17"/>
@@ -2846,8 +2850,8 @@
       <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="32" t="s">
         <v>41</v>
       </c>
@@ -2873,7 +2877,7 @@
       <c r="K26" s="70">
         <v>0</v>
       </c>
-      <c r="L26" s="14"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="14"/>
       <c r="N26" s="4"/>
       <c r="O26" s="17"/>
@@ -2887,8 +2891,8 @@
       <c r="W26" s="19"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="107"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="32" t="s">
         <v>42</v>
       </c>
@@ -2914,7 +2918,7 @@
       <c r="K27" s="70">
         <v>0</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="70"/>
       <c r="M27" s="14"/>
       <c r="N27" s="4"/>
       <c r="O27" s="17"/>
@@ -2928,8 +2932,8 @@
       <c r="W27" s="19"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="107"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="32" t="s">
         <v>43</v>
       </c>
@@ -2955,7 +2959,7 @@
       <c r="K28" s="70">
         <v>0</v>
       </c>
-      <c r="L28" s="14"/>
+      <c r="L28" s="70"/>
       <c r="M28" s="14"/>
       <c r="N28" s="4"/>
       <c r="O28" s="17"/>
@@ -2969,8 +2973,8 @@
       <c r="W28" s="19"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="32" t="s">
         <v>44</v>
       </c>
@@ -2996,7 +3000,7 @@
       <c r="K29" s="70">
         <v>0</v>
       </c>
-      <c r="L29" s="14"/>
+      <c r="L29" s="70"/>
       <c r="M29" s="14"/>
       <c r="N29" s="4"/>
       <c r="O29" s="17"/>
@@ -3010,8 +3014,8 @@
       <c r="W29" s="19"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="32" t="s">
         <v>45</v>
       </c>
@@ -3037,7 +3041,7 @@
       <c r="K30" s="70">
         <v>0</v>
       </c>
-      <c r="L30" s="14"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="14"/>
       <c r="N30" s="4"/>
       <c r="O30" s="17"/>
@@ -3051,8 +3055,8 @@
       <c r="W30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="107"/>
-      <c r="C31" s="100"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="32" t="s">
         <v>46</v>
       </c>
@@ -3078,7 +3082,7 @@
       <c r="K31" s="70">
         <v>0</v>
       </c>
-      <c r="L31" s="14"/>
+      <c r="L31" s="70"/>
       <c r="M31" s="14"/>
       <c r="N31" s="4"/>
       <c r="O31" s="17"/>
@@ -3092,8 +3096,8 @@
       <c r="W31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="107"/>
-      <c r="C32" s="100"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="32" t="s">
         <v>47</v>
       </c>
@@ -3119,7 +3123,7 @@
       <c r="K32" s="70">
         <v>0</v>
       </c>
-      <c r="L32" s="14"/>
+      <c r="L32" s="70"/>
       <c r="M32" s="14"/>
       <c r="N32" s="4"/>
       <c r="O32" s="17"/>
@@ -3133,8 +3137,8 @@
       <c r="W32" s="19"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="107"/>
-      <c r="C33" s="100"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="32" t="s">
         <v>48</v>
       </c>
@@ -3160,7 +3164,7 @@
       <c r="K33" s="70">
         <v>0</v>
       </c>
-      <c r="L33" s="14"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="14"/>
       <c r="N33" s="4"/>
       <c r="O33" s="17"/>
@@ -3174,8 +3178,8 @@
       <c r="W33" s="19"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="107"/>
-      <c r="C34" s="100"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="32" t="s">
         <v>49</v>
       </c>
@@ -3201,7 +3205,7 @@
       <c r="K34" s="70">
         <v>0</v>
       </c>
-      <c r="L34" s="14"/>
+      <c r="L34" s="70"/>
       <c r="M34" s="14"/>
       <c r="N34" s="4"/>
       <c r="O34" s="17"/>
@@ -3215,8 +3219,8 @@
       <c r="W34" s="19"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="107"/>
-      <c r="C35" s="100"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="32" t="s">
         <v>50</v>
       </c>
@@ -3242,7 +3246,7 @@
       <c r="K35" s="70">
         <v>0</v>
       </c>
-      <c r="L35" s="14"/>
+      <c r="L35" s="70"/>
       <c r="M35" s="14"/>
       <c r="N35" s="4"/>
       <c r="O35" s="17"/>
@@ -3256,8 +3260,8 @@
       <c r="W35" s="19"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="107"/>
-      <c r="C36" s="100"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
@@ -3283,7 +3287,7 @@
       <c r="K36" s="70">
         <v>0</v>
       </c>
-      <c r="L36" s="14"/>
+      <c r="L36" s="70"/>
       <c r="M36" s="14"/>
       <c r="N36" s="4"/>
       <c r="O36" s="17"/>
@@ -3297,8 +3301,8 @@
       <c r="W36" s="19"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="107"/>
-      <c r="C37" s="100"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="32" t="s">
         <v>52</v>
       </c>
@@ -3324,7 +3328,7 @@
       <c r="K37" s="70">
         <v>0</v>
       </c>
-      <c r="L37" s="14"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="14"/>
       <c r="N37" s="4"/>
       <c r="O37" s="17"/>
@@ -3338,8 +3342,8 @@
       <c r="W37" s="19"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="107"/>
-      <c r="C38" s="100"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="32" t="s">
         <v>53</v>
       </c>
@@ -3365,7 +3369,7 @@
       <c r="K38" s="70">
         <v>0</v>
       </c>
-      <c r="L38" s="14"/>
+      <c r="L38" s="70"/>
       <c r="M38" s="14"/>
       <c r="N38" s="4"/>
       <c r="O38" s="17"/>
@@ -3379,8 +3383,8 @@
       <c r="W38" s="19"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="107"/>
-      <c r="C39" s="100"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="32" t="s">
         <v>54</v>
       </c>
@@ -3406,7 +3410,7 @@
       <c r="K39" s="70">
         <v>0</v>
       </c>
-      <c r="L39" s="14"/>
+      <c r="L39" s="70"/>
       <c r="M39" s="14"/>
       <c r="N39" s="4"/>
       <c r="O39" s="17"/>
@@ -3420,8 +3424,8 @@
       <c r="W39" s="19"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="107"/>
-      <c r="C40" s="100"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="32" t="s">
         <v>55</v>
       </c>
@@ -3447,7 +3451,7 @@
       <c r="K40" s="70">
         <v>0</v>
       </c>
-      <c r="L40" s="14"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="14"/>
       <c r="N40" s="4"/>
       <c r="O40" s="17"/>
@@ -3461,8 +3465,8 @@
       <c r="W40" s="19"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="107"/>
-      <c r="C41" s="100"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="32" t="s">
         <v>56</v>
       </c>
@@ -3488,7 +3492,7 @@
       <c r="K41" s="70">
         <v>0</v>
       </c>
-      <c r="L41" s="14"/>
+      <c r="L41" s="70"/>
       <c r="M41" s="14"/>
       <c r="N41" s="4"/>
       <c r="O41" s="17"/>
@@ -3502,8 +3506,8 @@
       <c r="W41" s="19"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="107"/>
-      <c r="C42" s="100"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="32" t="s">
         <v>57</v>
       </c>
@@ -3529,7 +3533,7 @@
       <c r="K42" s="70">
         <v>0</v>
       </c>
-      <c r="L42" s="14"/>
+      <c r="L42" s="70"/>
       <c r="M42" s="14"/>
       <c r="N42" s="4"/>
       <c r="O42" s="17"/>
@@ -3543,8 +3547,8 @@
       <c r="W42" s="19"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="107"/>
-      <c r="C43" s="100"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="32" t="s">
         <v>58</v>
       </c>
@@ -3570,7 +3574,7 @@
       <c r="K43" s="70">
         <v>0</v>
       </c>
-      <c r="L43" s="14"/>
+      <c r="L43" s="70"/>
       <c r="M43" s="14"/>
       <c r="N43" s="4"/>
       <c r="O43" s="17"/>
@@ -3584,8 +3588,8 @@
       <c r="W43" s="19"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="107"/>
-      <c r="C44" s="100"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="32" t="s">
         <v>59</v>
       </c>
@@ -3611,7 +3615,7 @@
       <c r="K44" s="70">
         <v>0</v>
       </c>
-      <c r="L44" s="14"/>
+      <c r="L44" s="70"/>
       <c r="M44" s="14"/>
       <c r="N44" s="4"/>
       <c r="O44" s="17"/>
@@ -3625,8 +3629,8 @@
       <c r="W44" s="19"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="107"/>
-      <c r="C45" s="100"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="32" t="s">
         <v>60</v>
       </c>
@@ -3652,7 +3656,7 @@
       <c r="K45" s="70">
         <v>0</v>
       </c>
-      <c r="L45" s="14"/>
+      <c r="L45" s="70"/>
       <c r="M45" s="14"/>
       <c r="N45" s="4"/>
       <c r="O45" s="17"/>
@@ -3666,8 +3670,8 @@
       <c r="W45" s="19"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="107"/>
-      <c r="C46" s="100"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="32" t="s">
         <v>61</v>
       </c>
@@ -3693,7 +3697,7 @@
       <c r="K46" s="70">
         <v>0</v>
       </c>
-      <c r="L46" s="14"/>
+      <c r="L46" s="70"/>
       <c r="M46" s="14"/>
       <c r="N46" s="4"/>
       <c r="O46" s="17"/>
@@ -3707,8 +3711,8 @@
       <c r="W46" s="19"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="107"/>
-      <c r="C47" s="100"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="32" t="s">
         <v>62</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="K47" s="70">
         <v>0</v>
       </c>
-      <c r="L47" s="14"/>
+      <c r="L47" s="70"/>
       <c r="M47" s="14"/>
       <c r="N47" s="4"/>
       <c r="O47" s="17"/>
@@ -3748,8 +3752,8 @@
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="107"/>
-      <c r="C48" s="100"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="32" t="s">
         <v>63</v>
       </c>
@@ -3775,7 +3779,7 @@
       <c r="K48" s="70">
         <v>0</v>
       </c>
-      <c r="L48" s="14"/>
+      <c r="L48" s="70"/>
       <c r="M48" s="14"/>
       <c r="N48" s="4"/>
       <c r="O48" s="17"/>
@@ -3789,8 +3793,8 @@
       <c r="W48" s="19"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="107"/>
-      <c r="C49" s="100"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="32" t="s">
         <v>64</v>
       </c>
@@ -3816,7 +3820,7 @@
       <c r="K49" s="70">
         <v>0</v>
       </c>
-      <c r="L49" s="14"/>
+      <c r="L49" s="70"/>
       <c r="M49" s="14"/>
       <c r="N49" s="4"/>
       <c r="O49" s="17"/>
@@ -3830,8 +3834,8 @@
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="107"/>
-      <c r="C50" s="100"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="32" t="s">
         <v>65</v>
       </c>
@@ -3857,7 +3861,7 @@
       <c r="K50" s="70">
         <v>0</v>
       </c>
-      <c r="L50" s="14"/>
+      <c r="L50" s="70"/>
       <c r="M50" s="14"/>
       <c r="N50" s="4"/>
       <c r="O50" s="17"/>
@@ -3871,8 +3875,8 @@
       <c r="W50" s="19"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="107"/>
-      <c r="C51" s="100"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="32" t="s">
         <v>66</v>
       </c>
@@ -3898,7 +3902,7 @@
       <c r="K51" s="70">
         <v>0</v>
       </c>
-      <c r="L51" s="14"/>
+      <c r="L51" s="70"/>
       <c r="M51" s="14"/>
       <c r="N51" s="4"/>
       <c r="O51" s="17"/>
@@ -3912,8 +3916,8 @@
       <c r="W51" s="19"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="107"/>
-      <c r="C52" s="100"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="32" t="s">
         <v>67</v>
       </c>
@@ -3939,7 +3943,7 @@
       <c r="K52" s="70">
         <v>0</v>
       </c>
-      <c r="L52" s="14"/>
+      <c r="L52" s="70"/>
       <c r="M52" s="14"/>
       <c r="N52" s="4"/>
       <c r="O52" s="17"/>
@@ -3953,8 +3957,8 @@
       <c r="W52" s="19"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="107"/>
-      <c r="C53" s="100"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="32" t="s">
         <v>68</v>
       </c>
@@ -3980,7 +3984,7 @@
       <c r="K53" s="70">
         <v>0</v>
       </c>
-      <c r="L53" s="14"/>
+      <c r="L53" s="70"/>
       <c r="M53" s="14"/>
       <c r="N53" s="4"/>
       <c r="O53" s="17"/>
@@ -3994,8 +3998,8 @@
       <c r="W53" s="19"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="107"/>
-      <c r="C54" s="101"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="32" t="s">
         <v>69</v>
       </c>
@@ -4021,7 +4025,7 @@
       <c r="K54" s="70">
         <v>0</v>
       </c>
-      <c r="L54" s="14"/>
+      <c r="L54" s="70"/>
       <c r="M54" s="14"/>
       <c r="N54" s="4"/>
       <c r="O54" s="17"/>
@@ -4035,8 +4039,8 @@
       <c r="W54" s="19"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="107"/>
-      <c r="C55" s="97" t="s">
+      <c r="B55" s="90"/>
+      <c r="C55" s="106" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="29" t="s">
@@ -4064,7 +4068,7 @@
       <c r="K55" s="70">
         <v>0</v>
       </c>
-      <c r="L55" s="14"/>
+      <c r="L55" s="70"/>
       <c r="M55" s="14"/>
       <c r="N55" s="4"/>
       <c r="O55" s="17"/>
@@ -4078,8 +4082,8 @@
       <c r="W55" s="19"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="107"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="29" t="s">
         <v>29</v>
       </c>
@@ -4105,7 +4109,7 @@
       <c r="K56" s="70">
         <v>0</v>
       </c>
-      <c r="L56" s="14"/>
+      <c r="L56" s="70"/>
       <c r="M56" s="14"/>
       <c r="N56" s="4"/>
       <c r="O56" s="17"/>
@@ -4119,8 +4123,8 @@
       <c r="W56" s="19"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="107"/>
-      <c r="C57" s="98"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="29" t="s">
         <v>30</v>
       </c>
@@ -4146,7 +4150,7 @@
       <c r="K57" s="70">
         <v>0</v>
       </c>
-      <c r="L57" s="14"/>
+      <c r="L57" s="70"/>
       <c r="M57" s="14"/>
       <c r="N57" s="4"/>
       <c r="O57" s="17"/>
@@ -4160,8 +4164,8 @@
       <c r="W57" s="19"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="107"/>
-      <c r="C58" s="98"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="107"/>
       <c r="D58" s="29" t="s">
         <v>31</v>
       </c>
@@ -4187,7 +4191,7 @@
       <c r="K58" s="70">
         <v>0</v>
       </c>
-      <c r="L58" s="14"/>
+      <c r="L58" s="70"/>
       <c r="M58" s="14"/>
       <c r="N58" s="4"/>
       <c r="O58" s="17"/>
@@ -4201,8 +4205,8 @@
       <c r="W58" s="19"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="107"/>
-      <c r="C59" s="98"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
@@ -4228,7 +4232,7 @@
       <c r="K59" s="70">
         <v>0</v>
       </c>
-      <c r="L59" s="4"/>
+      <c r="L59" s="70"/>
       <c r="M59" s="4"/>
       <c r="N59" s="14"/>
       <c r="O59" s="17"/>
@@ -4242,8 +4246,8 @@
       <c r="W59" s="19"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="107"/>
-      <c r="C60" s="98"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="107"/>
       <c r="D60" s="29" t="s">
         <v>32</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="K60" s="70">
         <v>0</v>
       </c>
-      <c r="L60" s="4"/>
+      <c r="L60" s="70"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="17"/>
@@ -4283,8 +4287,8 @@
       <c r="W60" s="19"/>
     </row>
     <row r="61" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="108"/>
-      <c r="C61" s="98"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="107"/>
       <c r="D61" s="62" t="s">
         <v>33</v>
       </c>
@@ -4310,7 +4314,7 @@
       <c r="K61" s="72">
         <v>0</v>
       </c>
-      <c r="L61" s="8"/>
+      <c r="L61" s="72"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="26"/>
@@ -4324,10 +4328,10 @@
       <c r="W61" s="28"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="116" t="s">
+      <c r="C62" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="39" t="s">
@@ -4355,7 +4359,7 @@
       <c r="K62" s="69">
         <v>0</v>
       </c>
-      <c r="L62" s="39"/>
+      <c r="L62" s="69"/>
       <c r="M62" s="39"/>
       <c r="N62" s="39"/>
       <c r="O62" s="51"/>
@@ -4369,8 +4373,8 @@
       <c r="W62" s="52"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="107"/>
-      <c r="C63" s="115"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="4" t="s">
         <v>71</v>
       </c>
@@ -4396,7 +4400,7 @@
       <c r="K63" s="70">
         <v>0</v>
       </c>
-      <c r="L63" s="4"/>
+      <c r="L63" s="70"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="17"/>
@@ -4410,8 +4414,8 @@
       <c r="W63" s="19"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="107"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="4" t="s">
         <v>72</v>
       </c>
@@ -4437,7 +4441,7 @@
       <c r="K64" s="70">
         <v>0</v>
       </c>
-      <c r="L64" s="4"/>
+      <c r="L64" s="70"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="17"/>
@@ -4451,8 +4455,8 @@
       <c r="W64" s="19"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="107"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="29" t="s">
         <v>76</v>
       </c>
@@ -4478,7 +4482,7 @@
       <c r="K65" s="70">
         <v>0</v>
       </c>
-      <c r="L65" s="4"/>
+      <c r="L65" s="70"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="17"/>
@@ -4492,7 +4496,7 @@
       <c r="W65" s="19"/>
     </row>
     <row r="66" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B66" s="107"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="33" t="s">
         <v>73</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="K66" s="70">
         <v>0</v>
       </c>
-      <c r="L66" s="4"/>
+      <c r="L66" s="70"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="17"/>
@@ -4533,7 +4537,7 @@
       <c r="W66" s="19"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="107"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="33" t="s">
         <v>81</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="K67" s="70">
         <v>0</v>
       </c>
-      <c r="L67" s="4"/>
+      <c r="L67" s="70"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="17"/>
@@ -4574,8 +4578,8 @@
       <c r="W67" s="19"/>
     </row>
     <row r="68" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="107"/>
-      <c r="C68" s="115" t="s">
+      <c r="B68" s="90"/>
+      <c r="C68" s="112" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -4603,7 +4607,7 @@
       <c r="K68" s="70">
         <v>0</v>
       </c>
-      <c r="L68" s="4"/>
+      <c r="L68" s="70"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="17"/>
@@ -4617,8 +4621,8 @@
       <c r="W68" s="19"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="107"/>
-      <c r="C69" s="115"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="4" t="s">
         <v>75</v>
       </c>
@@ -4644,7 +4648,7 @@
       <c r="K69" s="70">
         <v>0</v>
       </c>
-      <c r="L69" s="4"/>
+      <c r="L69" s="70"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="17"/>
@@ -4658,8 +4662,8 @@
       <c r="W69" s="19"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="107"/>
-      <c r="C70" s="115"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="4" t="s">
         <v>77</v>
       </c>
@@ -4685,7 +4689,7 @@
       <c r="K70" s="70">
         <v>0</v>
       </c>
-      <c r="L70" s="4"/>
+      <c r="L70" s="70"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="17"/>
@@ -4699,8 +4703,8 @@
       <c r="W70" s="19"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="109"/>
-      <c r="C71" s="117"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="113"/>
       <c r="D71" s="24" t="s">
         <v>78</v>
       </c>
@@ -4726,7 +4730,7 @@
       <c r="K71" s="71">
         <v>0</v>
       </c>
-      <c r="L71" s="24"/>
+      <c r="L71" s="71"/>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
       <c r="O71" s="22"/>
@@ -4740,10 +4744,10 @@
       <c r="W71" s="25"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="106" t="s">
+      <c r="B72" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="89" t="s">
+      <c r="C72" s="117" t="s">
         <v>117</v>
       </c>
       <c r="D72" s="39" t="s">
@@ -4771,7 +4775,7 @@
       <c r="K72" s="69">
         <v>0</v>
       </c>
-      <c r="L72" s="39"/>
+      <c r="L72" s="69"/>
       <c r="M72" s="39"/>
       <c r="N72" s="39"/>
       <c r="O72" s="51"/>
@@ -4785,8 +4789,8 @@
       <c r="W72" s="52"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="107"/>
-      <c r="C73" s="90"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="4" t="s">
         <v>133</v>
       </c>
@@ -4812,7 +4816,7 @@
       <c r="K73" s="70">
         <v>0</v>
       </c>
-      <c r="L73" s="4"/>
+      <c r="L73" s="70"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="17"/>
@@ -4826,8 +4830,8 @@
       <c r="W73" s="19"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="107"/>
-      <c r="C74" s="90"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="102"/>
       <c r="D74" s="4" t="s">
         <v>156</v>
       </c>
@@ -4841,7 +4845,7 @@
       </c>
       <c r="J74" s="70"/>
       <c r="K74" s="70"/>
-      <c r="L74" s="4"/>
+      <c r="L74" s="70"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="17"/>
@@ -4855,8 +4859,8 @@
       <c r="W74" s="19"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="107"/>
-      <c r="C75" s="90"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="102"/>
       <c r="D75" s="4" t="s">
         <v>134</v>
       </c>
@@ -4882,7 +4886,7 @@
       <c r="K75" s="88">
         <v>0.67</v>
       </c>
-      <c r="L75" s="4"/>
+      <c r="L75" s="70"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="17"/>
@@ -4896,8 +4900,8 @@
       <c r="W75" s="19"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="107"/>
-      <c r="C76" s="90"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="102"/>
       <c r="D76" s="4" t="s">
         <v>135</v>
       </c>
@@ -4923,7 +4927,7 @@
       <c r="K76" s="70">
         <v>0</v>
       </c>
-      <c r="L76" s="4"/>
+      <c r="L76" s="70"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="17"/>
@@ -4937,8 +4941,8 @@
       <c r="W76" s="19"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="107"/>
-      <c r="C77" s="90" t="s">
+      <c r="B77" s="90"/>
+      <c r="C77" s="102" t="s">
         <v>118</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4966,7 +4970,7 @@
       <c r="K77" s="70">
         <v>0</v>
       </c>
-      <c r="L77" s="4"/>
+      <c r="L77" s="70"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="17"/>
@@ -4980,8 +4984,8 @@
       <c r="W77" s="19"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="107"/>
-      <c r="C78" s="90"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="4" t="s">
         <v>133</v>
       </c>
@@ -5007,7 +5011,7 @@
       <c r="K78" s="70">
         <v>0</v>
       </c>
-      <c r="L78" s="4"/>
+      <c r="L78" s="70"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="17"/>
@@ -5021,8 +5025,8 @@
       <c r="W78" s="19"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="107"/>
-      <c r="C79" s="90"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="4" t="s">
         <v>156</v>
       </c>
@@ -5036,7 +5040,7 @@
       </c>
       <c r="J79" s="70"/>
       <c r="K79" s="70"/>
-      <c r="L79" s="4"/>
+      <c r="L79" s="70"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="17"/>
@@ -5050,8 +5054,8 @@
       <c r="W79" s="19"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="107"/>
-      <c r="C80" s="90"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="102"/>
       <c r="D80" s="4" t="s">
         <v>134</v>
       </c>
@@ -5077,7 +5081,7 @@
       <c r="K80" s="70">
         <v>0</v>
       </c>
-      <c r="L80" s="4"/>
+      <c r="L80" s="70"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="17"/>
@@ -5091,8 +5095,8 @@
       <c r="W80" s="19"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="107"/>
-      <c r="C81" s="90"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="102"/>
       <c r="D81" s="4" t="s">
         <v>135</v>
       </c>
@@ -5118,7 +5122,7 @@
       <c r="K81" s="70">
         <v>0</v>
       </c>
-      <c r="L81" s="4"/>
+      <c r="L81" s="70"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="17"/>
@@ -5132,8 +5136,8 @@
       <c r="W81" s="19"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="107"/>
-      <c r="C82" s="90" t="s">
+      <c r="B82" s="90"/>
+      <c r="C82" s="102" t="s">
         <v>119</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -5161,7 +5165,7 @@
       <c r="K82" s="70">
         <v>0</v>
       </c>
-      <c r="L82" s="4"/>
+      <c r="L82" s="70"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="17"/>
@@ -5175,8 +5179,8 @@
       <c r="W82" s="19"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="107"/>
-      <c r="C83" s="90"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="102"/>
       <c r="D83" s="4" t="s">
         <v>133</v>
       </c>
@@ -5202,7 +5206,7 @@
       <c r="K83" s="70">
         <v>0</v>
       </c>
-      <c r="L83" s="4"/>
+      <c r="L83" s="70"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="17"/>
@@ -5216,8 +5220,8 @@
       <c r="W83" s="19"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="107"/>
-      <c r="C84" s="90"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="102"/>
       <c r="D84" s="4" t="s">
         <v>156</v>
       </c>
@@ -5231,7 +5235,7 @@
       </c>
       <c r="J84" s="70"/>
       <c r="K84" s="70"/>
-      <c r="L84" s="4"/>
+      <c r="L84" s="70"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="17"/>
@@ -5245,8 +5249,8 @@
       <c r="W84" s="19"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="107"/>
-      <c r="C85" s="90"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="4" t="s">
         <v>134</v>
       </c>
@@ -5272,7 +5276,7 @@
       <c r="K85" s="70">
         <v>0</v>
       </c>
-      <c r="L85" s="4"/>
+      <c r="L85" s="70"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="17"/>
@@ -5286,8 +5290,8 @@
       <c r="W85" s="19"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="107"/>
-      <c r="C86" s="90"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="102"/>
       <c r="D86" s="4" t="s">
         <v>135</v>
       </c>
@@ -5313,7 +5317,7 @@
       <c r="K86" s="70">
         <v>0</v>
       </c>
-      <c r="L86" s="4"/>
+      <c r="L86" s="70"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="17"/>
@@ -5327,8 +5331,8 @@
       <c r="W86" s="19"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="107"/>
-      <c r="C87" s="90" t="s">
+      <c r="B87" s="90"/>
+      <c r="C87" s="102" t="s">
         <v>120</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -5356,7 +5360,7 @@
       <c r="K87" s="70">
         <v>0</v>
       </c>
-      <c r="L87" s="4"/>
+      <c r="L87" s="70"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="17"/>
@@ -5370,8 +5374,8 @@
       <c r="W87" s="19"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="107"/>
-      <c r="C88" s="90"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="102"/>
       <c r="D88" s="4" t="s">
         <v>133</v>
       </c>
@@ -5397,7 +5401,7 @@
       <c r="K88" s="70">
         <v>0</v>
       </c>
-      <c r="L88" s="4"/>
+      <c r="L88" s="70"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="17"/>
@@ -5411,8 +5415,8 @@
       <c r="W88" s="19"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="107"/>
-      <c r="C89" s="90"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="102"/>
       <c r="D89" s="4" t="s">
         <v>156</v>
       </c>
@@ -5426,7 +5430,7 @@
       </c>
       <c r="J89" s="70"/>
       <c r="K89" s="70"/>
-      <c r="L89" s="4"/>
+      <c r="L89" s="70"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="17"/>
@@ -5440,8 +5444,8 @@
       <c r="W89" s="19"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="107"/>
-      <c r="C90" s="90"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5467,7 +5471,7 @@
       <c r="K90" s="70">
         <v>0</v>
       </c>
-      <c r="L90" s="4"/>
+      <c r="L90" s="70"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="17"/>
@@ -5481,8 +5485,8 @@
       <c r="W90" s="19"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="107"/>
-      <c r="C91" s="90"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5508,7 +5512,7 @@
       <c r="K91" s="70">
         <v>0</v>
       </c>
-      <c r="L91" s="4"/>
+      <c r="L91" s="70"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="17"/>
@@ -5522,8 +5526,8 @@
       <c r="W91" s="19"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="107"/>
-      <c r="C92" s="90" t="s">
+      <c r="B92" s="90"/>
+      <c r="C92" s="102" t="s">
         <v>121</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -5551,7 +5555,7 @@
       <c r="K92" s="70">
         <v>0</v>
       </c>
-      <c r="L92" s="4"/>
+      <c r="L92" s="70"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="17"/>
@@ -5565,8 +5569,8 @@
       <c r="W92" s="19"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="107"/>
-      <c r="C93" s="90"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="102"/>
       <c r="D93" s="4" t="s">
         <v>133</v>
       </c>
@@ -5592,7 +5596,7 @@
       <c r="K93" s="70">
         <v>0</v>
       </c>
-      <c r="L93" s="4"/>
+      <c r="L93" s="70"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="17"/>
@@ -5606,8 +5610,8 @@
       <c r="W93" s="19"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="107"/>
-      <c r="C94" s="90"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="4" t="s">
         <v>156</v>
       </c>
@@ -5621,7 +5625,7 @@
       </c>
       <c r="J94" s="70"/>
       <c r="K94" s="70"/>
-      <c r="L94" s="4"/>
+      <c r="L94" s="70"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="17"/>
@@ -5635,8 +5639,8 @@
       <c r="W94" s="19"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="107"/>
-      <c r="C95" s="90"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="102"/>
       <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
@@ -5662,7 +5666,7 @@
       <c r="K95" s="70">
         <v>0</v>
       </c>
-      <c r="L95" s="4"/>
+      <c r="L95" s="70"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="17"/>
@@ -5676,8 +5680,8 @@
       <c r="W95" s="19"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="107"/>
-      <c r="C96" s="90"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="102"/>
       <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
@@ -5703,7 +5707,7 @@
       <c r="K96" s="70">
         <v>0</v>
       </c>
-      <c r="L96" s="4"/>
+      <c r="L96" s="70"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="17"/>
@@ -5717,8 +5721,8 @@
       <c r="W96" s="19"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="107"/>
-      <c r="C97" s="90" t="s">
+      <c r="B97" s="90"/>
+      <c r="C97" s="102" t="s">
         <v>122</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5746,7 +5750,7 @@
       <c r="K97" s="70">
         <v>0</v>
       </c>
-      <c r="L97" s="4"/>
+      <c r="L97" s="70"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="17"/>
@@ -5760,8 +5764,8 @@
       <c r="W97" s="19"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="107"/>
-      <c r="C98" s="90"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="102"/>
       <c r="D98" s="4" t="s">
         <v>133</v>
       </c>
@@ -5787,7 +5791,7 @@
       <c r="K98" s="70">
         <v>0</v>
       </c>
-      <c r="L98" s="4"/>
+      <c r="L98" s="70"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="17"/>
@@ -5801,8 +5805,8 @@
       <c r="W98" s="19"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="107"/>
-      <c r="C99" s="90"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="102"/>
       <c r="D99" s="4" t="s">
         <v>156</v>
       </c>
@@ -5816,7 +5820,7 @@
       </c>
       <c r="J99" s="70"/>
       <c r="K99" s="70"/>
-      <c r="L99" s="4"/>
+      <c r="L99" s="70"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="17"/>
@@ -5830,8 +5834,8 @@
       <c r="W99" s="19"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="107"/>
-      <c r="C100" s="90"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="102"/>
       <c r="D100" s="4" t="s">
         <v>134</v>
       </c>
@@ -5857,7 +5861,7 @@
       <c r="K100" s="70">
         <v>0</v>
       </c>
-      <c r="L100" s="4"/>
+      <c r="L100" s="70"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="17"/>
@@ -5871,8 +5875,8 @@
       <c r="W100" s="19"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="107"/>
-      <c r="C101" s="90"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="102"/>
       <c r="D101" s="4" t="s">
         <v>135</v>
       </c>
@@ -5898,7 +5902,7 @@
       <c r="K101" s="70">
         <v>0</v>
       </c>
-      <c r="L101" s="4"/>
+      <c r="L101" s="70"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="17"/>
@@ -5912,8 +5916,8 @@
       <c r="W101" s="19"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="107"/>
-      <c r="C102" s="90" t="s">
+      <c r="B102" s="90"/>
+      <c r="C102" s="102" t="s">
         <v>123</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -5941,7 +5945,7 @@
       <c r="K102" s="70">
         <v>0</v>
       </c>
-      <c r="L102" s="4"/>
+      <c r="L102" s="70"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="17"/>
@@ -5955,8 +5959,8 @@
       <c r="W102" s="19"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="107"/>
-      <c r="C103" s="90"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="4" t="s">
         <v>133</v>
       </c>
@@ -5982,7 +5986,7 @@
       <c r="K103" s="70">
         <v>0</v>
       </c>
-      <c r="L103" s="4"/>
+      <c r="L103" s="70"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="17"/>
@@ -5996,8 +6000,8 @@
       <c r="W103" s="19"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="107"/>
-      <c r="C104" s="90"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="102"/>
       <c r="D104" s="4" t="s">
         <v>156</v>
       </c>
@@ -6011,7 +6015,7 @@
       </c>
       <c r="J104" s="70"/>
       <c r="K104" s="70"/>
-      <c r="L104" s="4"/>
+      <c r="L104" s="70"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="17"/>
@@ -6025,8 +6029,8 @@
       <c r="W104" s="19"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="107"/>
-      <c r="C105" s="90"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="102"/>
       <c r="D105" s="4" t="s">
         <v>134</v>
       </c>
@@ -6052,7 +6056,7 @@
       <c r="K105" s="70">
         <v>0</v>
       </c>
-      <c r="L105" s="4"/>
+      <c r="L105" s="70"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="17"/>
@@ -6066,8 +6070,8 @@
       <c r="W105" s="19"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="107"/>
-      <c r="C106" s="90"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="102"/>
       <c r="D106" s="4" t="s">
         <v>135</v>
       </c>
@@ -6093,7 +6097,7 @@
       <c r="K106" s="70">
         <v>0</v>
       </c>
-      <c r="L106" s="4"/>
+      <c r="L106" s="70"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="17"/>
@@ -6107,8 +6111,8 @@
       <c r="W106" s="19"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="107"/>
-      <c r="C107" s="90" t="s">
+      <c r="B107" s="90"/>
+      <c r="C107" s="102" t="s">
         <v>124</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -6136,7 +6140,7 @@
       <c r="K107" s="70">
         <v>0</v>
       </c>
-      <c r="L107" s="4"/>
+      <c r="L107" s="70"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="17"/>
@@ -6150,8 +6154,8 @@
       <c r="W107" s="19"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="107"/>
-      <c r="C108" s="90"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="4" t="s">
         <v>133</v>
       </c>
@@ -6177,7 +6181,7 @@
       <c r="K108" s="70">
         <v>0</v>
       </c>
-      <c r="L108" s="4"/>
+      <c r="L108" s="70"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="17"/>
@@ -6191,8 +6195,8 @@
       <c r="W108" s="19"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="107"/>
-      <c r="C109" s="90"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="102"/>
       <c r="D109" s="4" t="s">
         <v>156</v>
       </c>
@@ -6206,7 +6210,7 @@
       </c>
       <c r="J109" s="70"/>
       <c r="K109" s="70"/>
-      <c r="L109" s="4"/>
+      <c r="L109" s="70"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="17"/>
@@ -6220,8 +6224,8 @@
       <c r="W109" s="19"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="107"/>
-      <c r="C110" s="90"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="102"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6247,7 +6251,7 @@
       <c r="K110" s="70">
         <v>0</v>
       </c>
-      <c r="L110" s="4"/>
+      <c r="L110" s="70"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="17"/>
@@ -6261,8 +6265,8 @@
       <c r="W110" s="19"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="107"/>
-      <c r="C111" s="90"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="102"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6288,7 +6292,7 @@
       <c r="K111" s="70">
         <v>0</v>
       </c>
-      <c r="L111" s="4"/>
+      <c r="L111" s="70"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="17"/>
@@ -6302,8 +6306,8 @@
       <c r="W111" s="19"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="107"/>
-      <c r="C112" s="90" t="s">
+      <c r="B112" s="90"/>
+      <c r="C112" s="102" t="s">
         <v>125</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -6331,7 +6335,7 @@
       <c r="K112" s="70">
         <v>0</v>
       </c>
-      <c r="L112" s="4"/>
+      <c r="L112" s="70"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="17"/>
@@ -6345,8 +6349,8 @@
       <c r="W112" s="19"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="107"/>
-      <c r="C113" s="90"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="102"/>
       <c r="D113" s="4" t="s">
         <v>133</v>
       </c>
@@ -6372,7 +6376,7 @@
       <c r="K113" s="70">
         <v>0</v>
       </c>
-      <c r="L113" s="4"/>
+      <c r="L113" s="70"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="17"/>
@@ -6386,8 +6390,8 @@
       <c r="W113" s="19"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="107"/>
-      <c r="C114" s="90"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="102"/>
       <c r="D114" s="4" t="s">
         <v>156</v>
       </c>
@@ -6401,7 +6405,7 @@
       </c>
       <c r="J114" s="70"/>
       <c r="K114" s="70"/>
-      <c r="L114" s="4"/>
+      <c r="L114" s="70"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="17"/>
@@ -6415,8 +6419,8 @@
       <c r="W114" s="19"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="107"/>
-      <c r="C115" s="90"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="102"/>
       <c r="D115" s="4" t="s">
         <v>134</v>
       </c>
@@ -6442,7 +6446,7 @@
       <c r="K115" s="70">
         <v>0</v>
       </c>
-      <c r="L115" s="4"/>
+      <c r="L115" s="70"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="17"/>
@@ -6456,8 +6460,8 @@
       <c r="W115" s="19"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="107"/>
-      <c r="C116" s="90"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="102"/>
       <c r="D116" s="4" t="s">
         <v>135</v>
       </c>
@@ -6483,7 +6487,7 @@
       <c r="K116" s="70">
         <v>0</v>
       </c>
-      <c r="L116" s="4"/>
+      <c r="L116" s="70"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="17"/>
@@ -6497,8 +6501,8 @@
       <c r="W116" s="19"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="107"/>
-      <c r="C117" s="90" t="s">
+      <c r="B117" s="90"/>
+      <c r="C117" s="102" t="s">
         <v>126</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6526,7 +6530,7 @@
       <c r="K117" s="70">
         <v>0</v>
       </c>
-      <c r="L117" s="4"/>
+      <c r="L117" s="70"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="17"/>
@@ -6540,8 +6544,8 @@
       <c r="W117" s="19"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="107"/>
-      <c r="C118" s="90"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="102"/>
       <c r="D118" s="4" t="s">
         <v>133</v>
       </c>
@@ -6567,7 +6571,7 @@
       <c r="K118" s="70">
         <v>0</v>
       </c>
-      <c r="L118" s="4"/>
+      <c r="L118" s="70"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="17"/>
@@ -6581,8 +6585,8 @@
       <c r="W118" s="19"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="107"/>
-      <c r="C119" s="90"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="102"/>
       <c r="D119" s="4" t="s">
         <v>156</v>
       </c>
@@ -6596,7 +6600,7 @@
       </c>
       <c r="J119" s="70"/>
       <c r="K119" s="70"/>
-      <c r="L119" s="4"/>
+      <c r="L119" s="70"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="17"/>
@@ -6610,8 +6614,8 @@
       <c r="W119" s="19"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="107"/>
-      <c r="C120" s="90"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="4" t="s">
         <v>134</v>
       </c>
@@ -6637,7 +6641,7 @@
       <c r="K120" s="70">
         <v>0</v>
       </c>
-      <c r="L120" s="4"/>
+      <c r="L120" s="70"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="17"/>
@@ -6651,8 +6655,8 @@
       <c r="W120" s="19"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="107"/>
-      <c r="C121" s="90"/>
+      <c r="B121" s="90"/>
+      <c r="C121" s="102"/>
       <c r="D121" s="4" t="s">
         <v>135</v>
       </c>
@@ -6678,7 +6682,7 @@
       <c r="K121" s="70">
         <v>0</v>
       </c>
-      <c r="L121" s="4"/>
+      <c r="L121" s="70"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="17"/>
@@ -6692,8 +6696,8 @@
       <c r="W121" s="19"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="107"/>
-      <c r="C122" s="90" t="s">
+      <c r="B122" s="90"/>
+      <c r="C122" s="102" t="s">
         <v>127</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -6721,7 +6725,7 @@
       <c r="K122" s="70">
         <v>0</v>
       </c>
-      <c r="L122" s="4"/>
+      <c r="L122" s="70"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="17"/>
@@ -6735,8 +6739,8 @@
       <c r="W122" s="19"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="107"/>
-      <c r="C123" s="90"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="102"/>
       <c r="D123" s="4" t="s">
         <v>133</v>
       </c>
@@ -6762,7 +6766,7 @@
       <c r="K123" s="70">
         <v>0</v>
       </c>
-      <c r="L123" s="4"/>
+      <c r="L123" s="70"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="17"/>
@@ -6776,8 +6780,8 @@
       <c r="W123" s="19"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="107"/>
-      <c r="C124" s="90"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="102"/>
       <c r="D124" s="4" t="s">
         <v>156</v>
       </c>
@@ -6791,7 +6795,7 @@
       </c>
       <c r="J124" s="70"/>
       <c r="K124" s="70"/>
-      <c r="L124" s="4"/>
+      <c r="L124" s="70"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="17"/>
@@ -6805,8 +6809,8 @@
       <c r="W124" s="19"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="107"/>
-      <c r="C125" s="90"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="102"/>
       <c r="D125" s="4" t="s">
         <v>134</v>
       </c>
@@ -6832,7 +6836,7 @@
       <c r="K125" s="70">
         <v>0</v>
       </c>
-      <c r="L125" s="4"/>
+      <c r="L125" s="70"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="17"/>
@@ -6846,8 +6850,8 @@
       <c r="W125" s="19"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="107"/>
-      <c r="C126" s="90"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="102"/>
       <c r="D126" s="4" t="s">
         <v>135</v>
       </c>
@@ -6873,7 +6877,7 @@
       <c r="K126" s="70">
         <v>0</v>
       </c>
-      <c r="L126" s="4"/>
+      <c r="L126" s="70"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="17"/>
@@ -6887,8 +6891,8 @@
       <c r="W126" s="19"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="107"/>
-      <c r="C127" s="90" t="s">
+      <c r="B127" s="90"/>
+      <c r="C127" s="102" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -6916,7 +6920,7 @@
       <c r="K127" s="70">
         <v>0</v>
       </c>
-      <c r="L127" s="4"/>
+      <c r="L127" s="70"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="17"/>
@@ -6930,8 +6934,8 @@
       <c r="W127" s="19"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="107"/>
-      <c r="C128" s="90"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="4" t="s">
         <v>133</v>
       </c>
@@ -6957,7 +6961,7 @@
       <c r="K128" s="70">
         <v>0</v>
       </c>
-      <c r="L128" s="4"/>
+      <c r="L128" s="70"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="17"/>
@@ -6971,8 +6975,8 @@
       <c r="W128" s="19"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="107"/>
-      <c r="C129" s="90"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="102"/>
       <c r="D129" s="4" t="s">
         <v>156</v>
       </c>
@@ -6986,7 +6990,7 @@
       </c>
       <c r="J129" s="70"/>
       <c r="K129" s="70"/>
-      <c r="L129" s="4"/>
+      <c r="L129" s="70"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="17"/>
@@ -7000,8 +7004,8 @@
       <c r="W129" s="19"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="107"/>
-      <c r="C130" s="90"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="102"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -7027,7 +7031,7 @@
       <c r="K130" s="70">
         <v>0</v>
       </c>
-      <c r="L130" s="4"/>
+      <c r="L130" s="70"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="17"/>
@@ -7041,8 +7045,8 @@
       <c r="W130" s="19"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="107"/>
-      <c r="C131" s="90"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="102"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -7068,7 +7072,7 @@
       <c r="K131" s="70">
         <v>0</v>
       </c>
-      <c r="L131" s="4"/>
+      <c r="L131" s="70"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="17"/>
@@ -7082,8 +7086,8 @@
       <c r="W131" s="19"/>
     </row>
     <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="107"/>
-      <c r="C132" s="90" t="s">
+      <c r="B132" s="90"/>
+      <c r="C132" s="102" t="s">
         <v>129</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -7111,7 +7115,7 @@
       <c r="K132" s="70">
         <v>0</v>
       </c>
-      <c r="L132" s="4"/>
+      <c r="L132" s="70"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="17"/>
@@ -7125,8 +7129,8 @@
       <c r="W132" s="19"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="107"/>
-      <c r="C133" s="90"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="102"/>
       <c r="D133" s="4" t="s">
         <v>133</v>
       </c>
@@ -7152,7 +7156,7 @@
       <c r="K133" s="70">
         <v>0</v>
       </c>
-      <c r="L133" s="4"/>
+      <c r="L133" s="70"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="17"/>
@@ -7166,8 +7170,8 @@
       <c r="W133" s="19"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="107"/>
-      <c r="C134" s="90"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="102"/>
       <c r="D134" s="4" t="s">
         <v>156</v>
       </c>
@@ -7181,7 +7185,7 @@
       </c>
       <c r="J134" s="70"/>
       <c r="K134" s="70"/>
-      <c r="L134" s="4"/>
+      <c r="L134" s="70"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="17"/>
@@ -7195,8 +7199,8 @@
       <c r="W134" s="19"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="107"/>
-      <c r="C135" s="90"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="102"/>
       <c r="D135" s="4" t="s">
         <v>134</v>
       </c>
@@ -7222,7 +7226,7 @@
       <c r="K135" s="70">
         <v>0</v>
       </c>
-      <c r="L135" s="4"/>
+      <c r="L135" s="70"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="17"/>
@@ -7236,8 +7240,8 @@
       <c r="W135" s="19"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="107"/>
-      <c r="C136" s="90"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="102"/>
       <c r="D136" s="4" t="s">
         <v>135</v>
       </c>
@@ -7263,7 +7267,7 @@
       <c r="K136" s="70">
         <v>0</v>
       </c>
-      <c r="L136" s="4"/>
+      <c r="L136" s="70"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="17"/>
@@ -7277,8 +7281,8 @@
       <c r="W136" s="19"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="107"/>
-      <c r="C137" s="90" t="s">
+      <c r="B137" s="90"/>
+      <c r="C137" s="102" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -7306,7 +7310,7 @@
       <c r="K137" s="70">
         <v>0</v>
       </c>
-      <c r="L137" s="4"/>
+      <c r="L137" s="70"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="17"/>
@@ -7320,8 +7324,8 @@
       <c r="W137" s="19"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="107"/>
-      <c r="C138" s="90"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="102"/>
       <c r="D138" s="4" t="s">
         <v>133</v>
       </c>
@@ -7347,7 +7351,7 @@
       <c r="K138" s="70">
         <v>0</v>
       </c>
-      <c r="L138" s="4"/>
+      <c r="L138" s="70"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="17"/>
@@ -7361,8 +7365,8 @@
       <c r="W138" s="19"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="107"/>
-      <c r="C139" s="90"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="102"/>
       <c r="D139" s="4" t="s">
         <v>156</v>
       </c>
@@ -7376,7 +7380,7 @@
       </c>
       <c r="J139" s="70"/>
       <c r="K139" s="70"/>
-      <c r="L139" s="4"/>
+      <c r="L139" s="70"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="17"/>
@@ -7390,8 +7394,8 @@
       <c r="W139" s="19"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="107"/>
-      <c r="C140" s="90"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="102"/>
       <c r="D140" s="4" t="s">
         <v>134</v>
       </c>
@@ -7417,7 +7421,7 @@
       <c r="K140" s="70">
         <v>0</v>
       </c>
-      <c r="L140" s="4"/>
+      <c r="L140" s="70"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="17"/>
@@ -7431,8 +7435,8 @@
       <c r="W140" s="19"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="107"/>
-      <c r="C141" s="90"/>
+      <c r="B141" s="90"/>
+      <c r="C141" s="102"/>
       <c r="D141" s="4" t="s">
         <v>135</v>
       </c>
@@ -7458,7 +7462,7 @@
       <c r="K141" s="70">
         <v>0</v>
       </c>
-      <c r="L141" s="4"/>
+      <c r="L141" s="70"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="17"/>
@@ -7472,8 +7476,8 @@
       <c r="W141" s="19"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="107"/>
-      <c r="C142" s="90" t="s">
+      <c r="B142" s="90"/>
+      <c r="C142" s="102" t="s">
         <v>131</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -7501,7 +7505,7 @@
       <c r="K142" s="70">
         <v>0</v>
       </c>
-      <c r="L142" s="4"/>
+      <c r="L142" s="70"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="17"/>
@@ -7515,8 +7519,8 @@
       <c r="W142" s="19"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="107"/>
-      <c r="C143" s="90"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="4" t="s">
         <v>133</v>
       </c>
@@ -7542,7 +7546,7 @@
       <c r="K143" s="70">
         <v>0</v>
       </c>
-      <c r="L143" s="4"/>
+      <c r="L143" s="70"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="17"/>
@@ -7556,8 +7560,8 @@
       <c r="W143" s="19"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="107"/>
-      <c r="C144" s="90"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="4" t="s">
         <v>156</v>
       </c>
@@ -7571,7 +7575,7 @@
       </c>
       <c r="J144" s="70"/>
       <c r="K144" s="70"/>
-      <c r="L144" s="4"/>
+      <c r="L144" s="70"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="17"/>
@@ -7585,8 +7589,8 @@
       <c r="W144" s="19"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="107"/>
-      <c r="C145" s="90"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="102"/>
       <c r="D145" s="4" t="s">
         <v>134</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>0.1</v>
       </c>
       <c r="I145" s="6">
-        <f t="shared" ref="I106:I145" si="4">SUM(J145:W145)</f>
+        <f t="shared" ref="I145" si="4">SUM(J145:W145)</f>
         <v>0</v>
       </c>
       <c r="J145" s="70">
@@ -7612,7 +7616,7 @@
       <c r="K145" s="70">
         <v>0</v>
       </c>
-      <c r="L145" s="4"/>
+      <c r="L145" s="70"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="17"/>
@@ -7626,8 +7630,8 @@
       <c r="W145" s="19"/>
     </row>
     <row r="146" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="109"/>
-      <c r="C146" s="110"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="105"/>
       <c r="D146" s="24" t="s">
         <v>135</v>
       </c>
@@ -7653,7 +7657,7 @@
       <c r="K146" s="71">
         <v>0</v>
       </c>
-      <c r="L146" s="24"/>
+      <c r="L146" s="71"/>
       <c r="M146" s="24"/>
       <c r="N146" s="24"/>
       <c r="O146" s="22"/>
@@ -7667,7 +7671,7 @@
       <c r="W146" s="25"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="106" t="s">
+      <c r="B147" s="89" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="78" t="s">
@@ -7696,7 +7700,7 @@
       <c r="K147" s="69">
         <v>0</v>
       </c>
-      <c r="L147" s="39"/>
+      <c r="L147" s="69"/>
       <c r="M147" s="39"/>
       <c r="N147" s="39"/>
       <c r="O147" s="51"/>
@@ -7710,7 +7714,7 @@
       <c r="W147" s="52"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="107"/>
+      <c r="B148" s="90"/>
       <c r="C148" s="33" t="s">
         <v>89</v>
       </c>
@@ -7737,7 +7741,7 @@
       <c r="K148" s="70">
         <v>0</v>
       </c>
-      <c r="L148" s="4"/>
+      <c r="L148" s="70"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="17"/>
@@ -7751,7 +7755,7 @@
       <c r="W148" s="19"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="107"/>
+      <c r="B149" s="90"/>
       <c r="C149" s="33" t="s">
         <v>90</v>
       </c>
@@ -7778,7 +7782,7 @@
       <c r="K149" s="70">
         <v>0</v>
       </c>
-      <c r="L149" s="4"/>
+      <c r="L149" s="70"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="17"/>
@@ -7792,7 +7796,7 @@
       <c r="W149" s="19"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="107"/>
+      <c r="B150" s="90"/>
       <c r="C150" s="33" t="s">
         <v>91</v>
       </c>
@@ -7819,7 +7823,7 @@
       <c r="K150" s="70">
         <v>0</v>
       </c>
-      <c r="L150" s="4"/>
+      <c r="L150" s="70"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="17"/>
@@ -7833,7 +7837,7 @@
       <c r="W150" s="19"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="107"/>
+      <c r="B151" s="90"/>
       <c r="C151" s="33" t="s">
         <v>142</v>
       </c>
@@ -7860,7 +7864,7 @@
       <c r="K151" s="70">
         <v>0</v>
       </c>
-      <c r="L151" s="4"/>
+      <c r="L151" s="70"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="17"/>
@@ -7874,7 +7878,7 @@
       <c r="W151" s="19"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="107"/>
+      <c r="B152" s="90"/>
       <c r="C152" s="33" t="s">
         <v>139</v>
       </c>
@@ -7901,7 +7905,7 @@
       <c r="K152" s="70">
         <v>0</v>
       </c>
-      <c r="L152" s="4"/>
+      <c r="L152" s="70"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="17"/>
@@ -7915,7 +7919,7 @@
       <c r="W152" s="19"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="107"/>
+      <c r="B153" s="90"/>
       <c r="C153" s="33" t="s">
         <v>141</v>
       </c>
@@ -7942,7 +7946,7 @@
       <c r="K153" s="70">
         <v>0</v>
       </c>
-      <c r="L153" s="4"/>
+      <c r="L153" s="70"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="17"/>
@@ -7956,7 +7960,7 @@
       <c r="W153" s="19"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="107"/>
+      <c r="B154" s="90"/>
       <c r="C154" s="33" t="s">
         <v>140</v>
       </c>
@@ -7983,7 +7987,7 @@
       <c r="K154" s="70">
         <v>0</v>
       </c>
-      <c r="L154" s="4"/>
+      <c r="L154" s="70"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="17"/>
@@ -7997,7 +8001,7 @@
       <c r="W154" s="19"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="107"/>
+      <c r="B155" s="90"/>
       <c r="C155" s="33" t="s">
         <v>92</v>
       </c>
@@ -8024,7 +8028,7 @@
       <c r="K155" s="70">
         <v>0</v>
       </c>
-      <c r="L155" s="4"/>
+      <c r="L155" s="70"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="17"/>
@@ -8038,7 +8042,7 @@
       <c r="W155" s="19"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="107"/>
+      <c r="B156" s="90"/>
       <c r="C156" s="33" t="s">
         <v>93</v>
       </c>
@@ -8065,7 +8069,7 @@
       <c r="K156" s="70">
         <v>0</v>
       </c>
-      <c r="L156" s="4"/>
+      <c r="L156" s="70"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="17"/>
@@ -8079,7 +8083,7 @@
       <c r="W156" s="19"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="107"/>
+      <c r="B157" s="90"/>
       <c r="C157" s="33" t="s">
         <v>94</v>
       </c>
@@ -8106,7 +8110,7 @@
       <c r="K157" s="70">
         <v>0</v>
       </c>
-      <c r="L157" s="4"/>
+      <c r="L157" s="70"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="17"/>
@@ -8120,7 +8124,7 @@
       <c r="W157" s="19"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="107"/>
+      <c r="B158" s="90"/>
       <c r="C158" s="33" t="s">
         <v>98</v>
       </c>
@@ -8147,7 +8151,7 @@
       <c r="K158" s="70">
         <v>0</v>
       </c>
-      <c r="L158" s="4"/>
+      <c r="L158" s="70"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="17"/>
@@ -8161,7 +8165,7 @@
       <c r="W158" s="19"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="109"/>
+      <c r="B159" s="91"/>
       <c r="C159" s="61" t="s">
         <v>99</v>
       </c>
@@ -8188,7 +8192,7 @@
       <c r="K159" s="71">
         <v>0</v>
       </c>
-      <c r="L159" s="24"/>
+      <c r="L159" s="71"/>
       <c r="M159" s="24"/>
       <c r="N159" s="24"/>
       <c r="O159" s="22"/>
@@ -8202,7 +8206,7 @@
       <c r="W159" s="25"/>
     </row>
     <row r="160" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="106" t="s">
+      <c r="B160" s="89" t="s">
         <v>143</v>
       </c>
       <c r="C160" s="60" t="s">
@@ -8231,7 +8235,7 @@
       <c r="K160" s="69">
         <v>0</v>
       </c>
-      <c r="L160" s="39"/>
+      <c r="L160" s="69"/>
       <c r="M160" s="39"/>
       <c r="N160" s="39"/>
       <c r="O160" s="51"/>
@@ -8245,7 +8249,7 @@
       <c r="W160" s="52"/>
     </row>
     <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="107"/>
+      <c r="B161" s="90"/>
       <c r="C161" s="59" t="s">
         <v>144</v>
       </c>
@@ -8272,7 +8276,7 @@
       <c r="K161" s="70">
         <v>0</v>
       </c>
-      <c r="L161" s="4"/>
+      <c r="L161" s="70"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
       <c r="O161" s="17"/>
@@ -8286,7 +8290,7 @@
       <c r="W161" s="19"/>
     </row>
     <row r="162" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="109"/>
+      <c r="B162" s="91"/>
       <c r="C162" s="61" t="s">
         <v>145</v>
       </c>
@@ -8313,7 +8317,7 @@
       <c r="K162" s="71">
         <v>0</v>
       </c>
-      <c r="L162" s="24"/>
+      <c r="L162" s="71"/>
       <c r="M162" s="24"/>
       <c r="N162" s="24"/>
       <c r="O162" s="22"/>
@@ -8327,7 +8331,7 @@
       <c r="W162" s="25"/>
     </row>
     <row r="163" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="106" t="s">
+      <c r="B163" s="89" t="s">
         <v>148</v>
       </c>
       <c r="C163" s="60" t="s">
@@ -8352,7 +8356,7 @@
       </c>
       <c r="J163" s="69"/>
       <c r="K163" s="69"/>
-      <c r="L163" s="39"/>
+      <c r="L163" s="69"/>
       <c r="M163" s="39"/>
       <c r="N163" s="39"/>
       <c r="O163" s="51"/>
@@ -8366,7 +8370,7 @@
       <c r="W163" s="52"/>
     </row>
     <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="107"/>
+      <c r="B164" s="90"/>
       <c r="C164" s="59" t="s">
         <v>150</v>
       </c>
@@ -8389,7 +8393,7 @@
       </c>
       <c r="J164" s="70"/>
       <c r="K164" s="70"/>
-      <c r="L164" s="4"/>
+      <c r="L164" s="70"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="17"/>
@@ -8403,7 +8407,7 @@
       <c r="W164" s="19"/>
     </row>
     <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="107"/>
+      <c r="B165" s="90"/>
       <c r="C165" s="59" t="s">
         <v>151</v>
       </c>
@@ -8426,7 +8430,7 @@
       </c>
       <c r="J165" s="70"/>
       <c r="K165" s="70"/>
-      <c r="L165" s="4"/>
+      <c r="L165" s="70"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="17"/>
@@ -8440,7 +8444,7 @@
       <c r="W165" s="19"/>
     </row>
     <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="107"/>
+      <c r="B166" s="90"/>
       <c r="C166" s="59" t="s">
         <v>152</v>
       </c>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="J166" s="70"/>
       <c r="K166" s="70"/>
-      <c r="L166" s="4"/>
+      <c r="L166" s="70"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="17"/>
@@ -8477,7 +8481,7 @@
       <c r="W166" s="19"/>
     </row>
     <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="107"/>
+      <c r="B167" s="90"/>
       <c r="C167" s="59" t="s">
         <v>153</v>
       </c>
@@ -8500,7 +8504,7 @@
       </c>
       <c r="J167" s="70"/>
       <c r="K167" s="70"/>
-      <c r="L167" s="4"/>
+      <c r="L167" s="70"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="17"/>
@@ -8514,7 +8518,7 @@
       <c r="W167" s="19"/>
     </row>
     <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="107"/>
+      <c r="B168" s="90"/>
       <c r="C168" s="59" t="s">
         <v>154</v>
       </c>
@@ -8537,7 +8541,7 @@
       </c>
       <c r="J168" s="70"/>
       <c r="K168" s="70"/>
-      <c r="L168" s="4"/>
+      <c r="L168" s="70"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
       <c r="O168" s="17"/>
@@ -8551,7 +8555,7 @@
       <c r="W168" s="19"/>
     </row>
     <row r="169" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="109"/>
+      <c r="B169" s="91"/>
       <c r="C169" s="61" t="s">
         <v>155</v>
       </c>
@@ -8574,7 +8578,7 @@
       </c>
       <c r="J169" s="71"/>
       <c r="K169" s="71"/>
-      <c r="L169" s="24"/>
+      <c r="L169" s="71"/>
       <c r="M169" s="24"/>
       <c r="N169" s="24"/>
       <c r="O169" s="22"/>
@@ -8588,7 +8592,7 @@
       <c r="W169" s="25"/>
     </row>
     <row r="170" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="106" t="s">
+      <c r="B170" s="89" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="54" t="s">
@@ -8617,7 +8621,7 @@
       <c r="K170" s="69">
         <v>0</v>
       </c>
-      <c r="L170" s="39"/>
+      <c r="L170" s="69"/>
       <c r="M170" s="39"/>
       <c r="N170" s="39"/>
       <c r="O170" s="51"/>
@@ -8631,7 +8635,7 @@
       <c r="W170" s="52"/>
     </row>
     <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="107"/>
+      <c r="B171" s="90"/>
       <c r="C171" s="33" t="s">
         <v>137</v>
       </c>
@@ -8658,7 +8662,7 @@
       <c r="K171" s="70">
         <v>0</v>
       </c>
-      <c r="L171" s="4"/>
+      <c r="L171" s="70"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="17"/>
@@ -8672,7 +8676,7 @@
       <c r="W171" s="19"/>
     </row>
     <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="107"/>
+      <c r="B172" s="90"/>
       <c r="C172" s="33" t="s">
         <v>138</v>
       </c>
@@ -8699,7 +8703,7 @@
       <c r="K172" s="70">
         <v>0</v>
       </c>
-      <c r="L172" s="4"/>
+      <c r="L172" s="70"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="17"/>
@@ -8713,7 +8717,7 @@
       <c r="W172" s="19"/>
     </row>
     <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="107"/>
+      <c r="B173" s="90"/>
       <c r="C173" s="33" t="s">
         <v>146</v>
       </c>
@@ -8740,7 +8744,7 @@
       <c r="K173" s="70">
         <v>0</v>
       </c>
-      <c r="L173" s="4"/>
+      <c r="L173" s="70"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="17"/>
@@ -8754,7 +8758,7 @@
       <c r="W173" s="19"/>
     </row>
     <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="107"/>
+      <c r="B174" s="90"/>
       <c r="C174" s="33" t="s">
         <v>84</v>
       </c>
@@ -8781,7 +8785,7 @@
       <c r="K174" s="70">
         <v>0</v>
       </c>
-      <c r="L174" s="4"/>
+      <c r="L174" s="70"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="17"/>
@@ -8795,7 +8799,7 @@
       <c r="W174" s="19"/>
     </row>
     <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="107"/>
+      <c r="B175" s="90"/>
       <c r="C175" s="33" t="s">
         <v>85</v>
       </c>
@@ -8822,7 +8826,7 @@
       <c r="K175" s="70">
         <v>0</v>
       </c>
-      <c r="L175" s="4"/>
+      <c r="L175" s="70"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="17"/>
@@ -8836,7 +8840,7 @@
       <c r="W175" s="19"/>
     </row>
     <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="107"/>
+      <c r="B176" s="90"/>
       <c r="C176" s="33" t="s">
         <v>87</v>
       </c>
@@ -8863,7 +8867,7 @@
       <c r="K176" s="70">
         <v>0</v>
       </c>
-      <c r="L176" s="4"/>
+      <c r="L176" s="70"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="17"/>
@@ -8877,7 +8881,7 @@
       <c r="W176" s="19"/>
     </row>
     <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="107"/>
+      <c r="B177" s="90"/>
       <c r="C177" s="33" t="s">
         <v>86</v>
       </c>
@@ -8904,7 +8908,7 @@
       <c r="K177" s="70">
         <v>0</v>
       </c>
-      <c r="L177" s="4"/>
+      <c r="L177" s="70"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="17"/>
@@ -8918,7 +8922,7 @@
       <c r="W177" s="19"/>
     </row>
     <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="107"/>
+      <c r="B178" s="90"/>
       <c r="C178" s="33" t="s">
         <v>104</v>
       </c>
@@ -8945,7 +8949,7 @@
       <c r="K178" s="70">
         <v>0</v>
       </c>
-      <c r="L178" s="4"/>
+      <c r="L178" s="70"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="17"/>
@@ -8959,7 +8963,7 @@
       <c r="W178" s="19"/>
     </row>
     <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="107"/>
+      <c r="B179" s="90"/>
       <c r="C179" s="33" t="s">
         <v>136</v>
       </c>
@@ -8986,7 +8990,7 @@
       <c r="K179" s="80">
         <v>1.85</v>
       </c>
-      <c r="L179" s="4"/>
+      <c r="L179" s="70"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="17"/>
@@ -9000,7 +9004,7 @@
       <c r="W179" s="19"/>
     </row>
     <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="107"/>
+      <c r="B180" s="90"/>
       <c r="C180" s="33" t="s">
         <v>105</v>
       </c>
@@ -9027,7 +9031,7 @@
       <c r="K180" s="70">
         <v>0</v>
       </c>
-      <c r="L180" s="4"/>
+      <c r="L180" s="70"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="17"/>
@@ -9041,7 +9045,7 @@
       <c r="W180" s="19"/>
     </row>
     <row r="181" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="109"/>
+      <c r="B181" s="91"/>
       <c r="C181" s="61" t="s">
         <v>100</v>
       </c>
@@ -9068,7 +9072,7 @@
       <c r="K181" s="71">
         <v>0</v>
       </c>
-      <c r="L181" s="24"/>
+      <c r="L181" s="71"/>
       <c r="M181" s="24"/>
       <c r="N181" s="24"/>
       <c r="O181" s="22"/>
@@ -9082,76 +9086,76 @@
       <c r="W181" s="25"/>
     </row>
     <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="111" t="s">
+      <c r="B182" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="112"/>
-      <c r="D182" s="113"/>
-      <c r="E182" s="113"/>
-      <c r="F182" s="113"/>
-      <c r="G182" s="114"/>
+      <c r="C182" s="99"/>
+      <c r="D182" s="100"/>
+      <c r="E182" s="100"/>
+      <c r="F182" s="100"/>
+      <c r="G182" s="101"/>
       <c r="H182" s="36">
-        <f>SUM(H4:H181)</f>
-        <v>89.69999999999996</v>
+        <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
+        <v>96.499999999999829</v>
       </c>
       <c r="I182" s="23">
-        <f>SUM(I4:I181)</f>
-        <v>5.5563000000000002</v>
+        <f t="shared" si="6"/>
+        <v>9.0062999999999995</v>
       </c>
       <c r="J182" s="23">
-        <f>SUM(J4:J181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K182" s="23">
-        <f>SUM(K4:K181)</f>
+        <f t="shared" si="6"/>
         <v>4.0533000000000001</v>
       </c>
       <c r="L182" s="23">
-        <f>SUM(L4:L181)</f>
-        <v>1.5029999999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.0030000000000001</v>
       </c>
       <c r="M182" s="23">
-        <f>SUM(M4:M181)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.95</v>
       </c>
       <c r="N182" s="23">
-        <f>SUM(N4:N181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O182" s="23">
-        <f>SUM(O4:O181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P182" s="23">
-        <f>SUM(P4:P181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q182" s="23">
-        <f>SUM(Q4:Q181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R182" s="23">
-        <f>SUM(R4:R181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S182" s="23">
-        <f>SUM(S4:S181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T182" s="23">
-        <f>SUM(T4:T181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U182" s="23">
-        <f>SUM(U4:U181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V182" s="23">
-        <f>SUM(V4:V181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W182" s="30">
-        <f>SUM(W4:W181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9164,22 +9168,22 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="91" t="s">
+      <c r="J183" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K183" s="92"/>
-      <c r="L183" s="92"/>
-      <c r="M183" s="92"/>
-      <c r="N183" s="92"/>
-      <c r="O183" s="92"/>
-      <c r="P183" s="92"/>
-      <c r="Q183" s="92"/>
-      <c r="R183" s="92"/>
-      <c r="S183" s="92"/>
-      <c r="T183" s="92"/>
-      <c r="U183" s="92"/>
-      <c r="V183" s="92"/>
-      <c r="W183" s="93"/>
+      <c r="K183" s="103"/>
+      <c r="L183" s="103"/>
+      <c r="M183" s="103"/>
+      <c r="N183" s="103"/>
+      <c r="O183" s="103"/>
+      <c r="P183" s="103"/>
+      <c r="Q183" s="103"/>
+      <c r="R183" s="103"/>
+      <c r="S183" s="103"/>
+      <c r="T183" s="103"/>
+      <c r="U183" s="103"/>
+      <c r="V183" s="103"/>
+      <c r="W183" s="104"/>
     </row>
     <row r="184" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B184" s="2"/>
@@ -9203,29 +9207,29 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="102" t="s">
+      <c r="H185" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I185" s="103"/>
+      <c r="I185" s="93"/>
       <c r="J185" s="9">
         <f>H182-J182</f>
-        <v>89.69999999999996</v>
+        <v>96.499999999999829</v>
       </c>
       <c r="K185" s="9">
         <f>J185-K182</f>
-        <v>85.646699999999953</v>
+        <v>92.446699999999822</v>
       </c>
       <c r="L185" s="9">
         <f>K185-L182</f>
-        <v>84.143699999999953</v>
+        <v>90.443699999999822</v>
       </c>
       <c r="M185" s="9">
         <f>L185-M182</f>
-        <v>84.143699999999953</v>
+        <v>87.493699999999819</v>
       </c>
       <c r="N185" s="10">
         <f>M185-N182</f>
-        <v>84.143699999999953</v>
+        <v>87.493699999999819</v>
       </c>
     </row>
     <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9249,18 +9253,18 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
-      <c r="H187" s="91" t="s">
+      <c r="H187" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="104"/>
-      <c r="J187" s="103">
+      <c r="I187" s="95"/>
+      <c r="J187" s="93">
         <f>H182-I182</f>
-        <v>84.143699999999967</v>
-      </c>
-      <c r="K187" s="103"/>
-      <c r="L187" s="103"/>
-      <c r="M187" s="103"/>
-      <c r="N187" s="105"/>
+        <v>87.493699999999833</v>
+      </c>
+      <c r="K187" s="93"/>
+      <c r="L187" s="93"/>
+      <c r="M187" s="93"/>
+      <c r="N187" s="96"/>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
@@ -9364,6 +9368,24 @@
     <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="C15:C54"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C81"/>
     <mergeCell ref="B163:B169"/>
     <mergeCell ref="H185:I185"/>
     <mergeCell ref="H187:I187"/>
@@ -9380,24 +9402,6 @@
     <mergeCell ref="C142:C146"/>
     <mergeCell ref="C92:C96"/>
     <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="C15:C54"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C127:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1239,6 +1239,18 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,15 +1260,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,52 +1323,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,7 +1358,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1392,10 +1391,10 @@
                   <c:v>90.443699999999822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.493699999999819</c:v>
+                  <c:v>86.876699999999829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.493699999999819</c:v>
+                  <c:v>86.876699999999829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,11 +1415,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-315111632"/>
-        <c:axId val="-315110000"/>
+        <c:axId val="442743984"/>
+        <c:axId val="442742352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-315111632"/>
+        <c:axId val="442743984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-315110000"/>
+        <c:crossAx val="442742352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1437,7 +1436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-315110000"/>
+        <c:axId val="442742352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,14 +1447,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-315111632"/>
+        <c:crossAx val="442743984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1795,7 +1793,7 @@
   <dimension ref="A1:W206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,22 +1820,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="92"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
@@ -1908,7 +1906,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -1951,7 +1949,7 @@
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="35" t="s">
         <v>101</v>
       </c>
@@ -1992,7 +1990,7 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="115"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="35" t="s">
         <v>102</v>
       </c>
@@ -2033,7 +2031,7 @@
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="115"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="35" t="s">
         <v>103</v>
       </c>
@@ -2074,7 +2072,7 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="116"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="45" t="s">
         <v>111</v>
       </c>
@@ -2115,7 +2113,7 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="104" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2158,7 +2156,7 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="115"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="34" t="s">
         <v>107</v>
       </c>
@@ -2199,7 +2197,7 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="83" t="s">
         <v>112</v>
       </c>
@@ -2240,7 +2238,7 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="115"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="83" t="s">
         <v>113</v>
       </c>
@@ -2305,7 +2303,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="116"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2348,7 +2346,7 @@
       <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="93" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2393,8 +2391,8 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="98" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2414,7 +2412,7 @@
       </c>
       <c r="I15" s="55">
         <f t="shared" si="0"/>
-        <v>3.45</v>
+        <v>4.0670000000000002</v>
       </c>
       <c r="J15" s="70">
         <v>0</v>
@@ -2425,8 +2423,8 @@
       <c r="L15" s="70">
         <v>0.5</v>
       </c>
-      <c r="M15" s="14">
-        <v>2.95</v>
+      <c r="M15" s="80">
+        <v>3.5670000000000002</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="17"/>
@@ -2440,8 +2438,8 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
-      <c r="C16" s="109"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2481,8 +2479,8 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2522,8 +2520,8 @@
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
-      <c r="C18" s="109"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2563,8 +2561,8 @@
       <c r="W18" s="19"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="90"/>
-      <c r="C19" s="109"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2604,8 +2602,8 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
-      <c r="C20" s="109"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2645,8 +2643,8 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="32" t="s">
         <v>36</v>
       </c>
@@ -2686,8 +2684,8 @@
       <c r="W21" s="19"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
-      <c r="C22" s="109"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="32" t="s">
         <v>37</v>
       </c>
@@ -2727,8 +2725,8 @@
       <c r="W22" s="19"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="109"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="32" t="s">
         <v>38</v>
       </c>
@@ -2768,8 +2766,8 @@
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="90"/>
-      <c r="C24" s="109"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="32" t="s">
         <v>39</v>
       </c>
@@ -2809,8 +2807,8 @@
       <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
-      <c r="C25" s="109"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
@@ -2850,8 +2848,8 @@
       <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="90"/>
-      <c r="C26" s="109"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="32" t="s">
         <v>41</v>
       </c>
@@ -2891,8 +2889,8 @@
       <c r="W26" s="19"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="90"/>
-      <c r="C27" s="109"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="32" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +2930,8 @@
       <c r="W27" s="19"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="90"/>
-      <c r="C28" s="109"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="32" t="s">
         <v>43</v>
       </c>
@@ -2973,8 +2971,8 @@
       <c r="W28" s="19"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="90"/>
-      <c r="C29" s="109"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="32" t="s">
         <v>44</v>
       </c>
@@ -3014,8 +3012,8 @@
       <c r="W29" s="19"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="90"/>
-      <c r="C30" s="109"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="32" t="s">
         <v>45</v>
       </c>
@@ -3055,8 +3053,8 @@
       <c r="W30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="90"/>
-      <c r="C31" s="109"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="32" t="s">
         <v>46</v>
       </c>
@@ -3096,8 +3094,8 @@
       <c r="W31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="90"/>
-      <c r="C32" s="109"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="32" t="s">
         <v>47</v>
       </c>
@@ -3137,8 +3135,8 @@
       <c r="W32" s="19"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
-      <c r="C33" s="109"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="32" t="s">
         <v>48</v>
       </c>
@@ -3178,8 +3176,8 @@
       <c r="W33" s="19"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="90"/>
-      <c r="C34" s="109"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="32" t="s">
         <v>49</v>
       </c>
@@ -3219,8 +3217,8 @@
       <c r="W34" s="19"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="90"/>
-      <c r="C35" s="109"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="32" t="s">
         <v>50</v>
       </c>
@@ -3260,8 +3258,8 @@
       <c r="W35" s="19"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="90"/>
-      <c r="C36" s="109"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
@@ -3301,8 +3299,8 @@
       <c r="W36" s="19"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="90"/>
-      <c r="C37" s="109"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="32" t="s">
         <v>52</v>
       </c>
@@ -3342,8 +3340,8 @@
       <c r="W37" s="19"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="90"/>
-      <c r="C38" s="109"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="32" t="s">
         <v>53</v>
       </c>
@@ -3383,8 +3381,8 @@
       <c r="W38" s="19"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="90"/>
-      <c r="C39" s="109"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="32" t="s">
         <v>54</v>
       </c>
@@ -3424,8 +3422,8 @@
       <c r="W39" s="19"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="90"/>
-      <c r="C40" s="109"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="32" t="s">
         <v>55</v>
       </c>
@@ -3465,8 +3463,8 @@
       <c r="W40" s="19"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="90"/>
-      <c r="C41" s="109"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="32" t="s">
         <v>56</v>
       </c>
@@ -3506,8 +3504,8 @@
       <c r="W41" s="19"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="90"/>
-      <c r="C42" s="109"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="32" t="s">
         <v>57</v>
       </c>
@@ -3547,8 +3545,8 @@
       <c r="W42" s="19"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
-      <c r="C43" s="109"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="32" t="s">
         <v>58</v>
       </c>
@@ -3588,8 +3586,8 @@
       <c r="W43" s="19"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
-      <c r="C44" s="109"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="32" t="s">
         <v>59</v>
       </c>
@@ -3629,8 +3627,8 @@
       <c r="W44" s="19"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="109"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="32" t="s">
         <v>60</v>
       </c>
@@ -3670,8 +3668,8 @@
       <c r="W45" s="19"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
-      <c r="C46" s="109"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="32" t="s">
         <v>61</v>
       </c>
@@ -3711,8 +3709,8 @@
       <c r="W46" s="19"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="90"/>
-      <c r="C47" s="109"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="32" t="s">
         <v>62</v>
       </c>
@@ -3752,8 +3750,8 @@
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="90"/>
-      <c r="C48" s="109"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="32" t="s">
         <v>63</v>
       </c>
@@ -3793,8 +3791,8 @@
       <c r="W48" s="19"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="90"/>
-      <c r="C49" s="109"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="32" t="s">
         <v>64</v>
       </c>
@@ -3834,8 +3832,8 @@
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="90"/>
-      <c r="C50" s="109"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="32" t="s">
         <v>65</v>
       </c>
@@ -3875,8 +3873,8 @@
       <c r="W50" s="19"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="90"/>
-      <c r="C51" s="109"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="32" t="s">
         <v>66</v>
       </c>
@@ -3916,8 +3914,8 @@
       <c r="W51" s="19"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="90"/>
-      <c r="C52" s="109"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="32" t="s">
         <v>67</v>
       </c>
@@ -3957,8 +3955,8 @@
       <c r="W52" s="19"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="90"/>
-      <c r="C53" s="109"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="32" t="s">
         <v>68</v>
       </c>
@@ -3998,8 +3996,8 @@
       <c r="W53" s="19"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="90"/>
-      <c r="C54" s="110"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="32" t="s">
         <v>69</v>
       </c>
@@ -4039,8 +4037,8 @@
       <c r="W54" s="19"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="90"/>
-      <c r="C55" s="106" t="s">
+      <c r="B55" s="94"/>
+      <c r="C55" s="96" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="29" t="s">
@@ -4082,8 +4080,8 @@
       <c r="W55" s="19"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="90"/>
-      <c r="C56" s="107"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="29" t="s">
         <v>29</v>
       </c>
@@ -4123,8 +4121,8 @@
       <c r="W56" s="19"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="90"/>
-      <c r="C57" s="107"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="29" t="s">
         <v>30</v>
       </c>
@@ -4164,8 +4162,8 @@
       <c r="W57" s="19"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="90"/>
-      <c r="C58" s="107"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="29" t="s">
         <v>31</v>
       </c>
@@ -4205,8 +4203,8 @@
       <c r="W58" s="19"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="90"/>
-      <c r="C59" s="107"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
@@ -4246,8 +4244,8 @@
       <c r="W59" s="19"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="90"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="29" t="s">
         <v>32</v>
       </c>
@@ -4287,8 +4285,8 @@
       <c r="W60" s="19"/>
     </row>
     <row r="61" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="97"/>
-      <c r="C61" s="107"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="62" t="s">
         <v>33</v>
       </c>
@@ -4328,10 +4326,10 @@
       <c r="W61" s="28"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="111" t="s">
+      <c r="C62" s="101" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="39" t="s">
@@ -4373,8 +4371,8 @@
       <c r="W62" s="52"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="90"/>
-      <c r="C63" s="112"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="4" t="s">
         <v>71</v>
       </c>
@@ -4414,8 +4412,8 @@
       <c r="W63" s="19"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="90"/>
-      <c r="C64" s="112"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="102"/>
       <c r="D64" s="4" t="s">
         <v>72</v>
       </c>
@@ -4455,8 +4453,8 @@
       <c r="W64" s="19"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="90"/>
-      <c r="C65" s="112"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="102"/>
       <c r="D65" s="29" t="s">
         <v>76</v>
       </c>
@@ -4496,7 +4494,7 @@
       <c r="W65" s="19"/>
     </row>
     <row r="66" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B66" s="90"/>
+      <c r="B66" s="94"/>
       <c r="C66" s="33" t="s">
         <v>73</v>
       </c>
@@ -4537,7 +4535,7 @@
       <c r="W66" s="19"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="90"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="33" t="s">
         <v>81</v>
       </c>
@@ -4578,8 +4576,8 @@
       <c r="W67" s="19"/>
     </row>
     <row r="68" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="90"/>
-      <c r="C68" s="112" t="s">
+      <c r="B68" s="94"/>
+      <c r="C68" s="102" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -4621,8 +4619,8 @@
       <c r="W68" s="19"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="90"/>
-      <c r="C69" s="112"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="102"/>
       <c r="D69" s="4" t="s">
         <v>75</v>
       </c>
@@ -4662,8 +4660,8 @@
       <c r="W69" s="19"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="90"/>
-      <c r="C70" s="112"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="102"/>
       <c r="D70" s="4" t="s">
         <v>77</v>
       </c>
@@ -4703,8 +4701,8 @@
       <c r="W70" s="19"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="91"/>
-      <c r="C71" s="113"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="24" t="s">
         <v>78</v>
       </c>
@@ -4744,10 +4742,10 @@
       <c r="W71" s="25"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="117" t="s">
+      <c r="C72" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D72" s="39" t="s">
@@ -4789,8 +4787,8 @@
       <c r="W72" s="52"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="90"/>
-      <c r="C73" s="102"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="4" t="s">
         <v>133</v>
       </c>
@@ -4830,8 +4828,8 @@
       <c r="W73" s="19"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="90"/>
-      <c r="C74" s="102"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="4" t="s">
         <v>156</v>
       </c>
@@ -4859,8 +4857,8 @@
       <c r="W74" s="19"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="90"/>
-      <c r="C75" s="102"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="4" t="s">
         <v>134</v>
       </c>
@@ -4900,8 +4898,8 @@
       <c r="W75" s="19"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="90"/>
-      <c r="C76" s="102"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="4" t="s">
         <v>135</v>
       </c>
@@ -4941,8 +4939,8 @@
       <c r="W76" s="19"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="90"/>
-      <c r="C77" s="102" t="s">
+      <c r="B77" s="94"/>
+      <c r="C77" s="89" t="s">
         <v>118</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4984,8 +4982,8 @@
       <c r="W77" s="19"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="90"/>
-      <c r="C78" s="102"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="4" t="s">
         <v>133</v>
       </c>
@@ -5025,8 +5023,8 @@
       <c r="W78" s="19"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="90"/>
-      <c r="C79" s="102"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="89"/>
       <c r="D79" s="4" t="s">
         <v>156</v>
       </c>
@@ -5054,8 +5052,8 @@
       <c r="W79" s="19"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="90"/>
-      <c r="C80" s="102"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="4" t="s">
         <v>134</v>
       </c>
@@ -5095,8 +5093,8 @@
       <c r="W80" s="19"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="90"/>
-      <c r="C81" s="102"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="4" t="s">
         <v>135</v>
       </c>
@@ -5136,8 +5134,8 @@
       <c r="W81" s="19"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="90"/>
-      <c r="C82" s="102" t="s">
+      <c r="B82" s="94"/>
+      <c r="C82" s="89" t="s">
         <v>119</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -5179,8 +5177,8 @@
       <c r="W82" s="19"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="90"/>
-      <c r="C83" s="102"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="4" t="s">
         <v>133</v>
       </c>
@@ -5220,8 +5218,8 @@
       <c r="W83" s="19"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="90"/>
-      <c r="C84" s="102"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="4" t="s">
         <v>156</v>
       </c>
@@ -5249,8 +5247,8 @@
       <c r="W84" s="19"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="90"/>
-      <c r="C85" s="102"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="4" t="s">
         <v>134</v>
       </c>
@@ -5290,8 +5288,8 @@
       <c r="W85" s="19"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="90"/>
-      <c r="C86" s="102"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="4" t="s">
         <v>135</v>
       </c>
@@ -5331,8 +5329,8 @@
       <c r="W86" s="19"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="90"/>
-      <c r="C87" s="102" t="s">
+      <c r="B87" s="94"/>
+      <c r="C87" s="89" t="s">
         <v>120</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -5374,8 +5372,8 @@
       <c r="W87" s="19"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="90"/>
-      <c r="C88" s="102"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="4" t="s">
         <v>133</v>
       </c>
@@ -5415,8 +5413,8 @@
       <c r="W88" s="19"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="90"/>
-      <c r="C89" s="102"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="4" t="s">
         <v>156</v>
       </c>
@@ -5444,8 +5442,8 @@
       <c r="W89" s="19"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="90"/>
-      <c r="C90" s="102"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="89"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5485,8 +5483,8 @@
       <c r="W90" s="19"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="90"/>
-      <c r="C91" s="102"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="89"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5526,8 +5524,8 @@
       <c r="W91" s="19"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="90"/>
-      <c r="C92" s="102" t="s">
+      <c r="B92" s="94"/>
+      <c r="C92" s="89" t="s">
         <v>121</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -5569,8 +5567,8 @@
       <c r="W92" s="19"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="90"/>
-      <c r="C93" s="102"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="4" t="s">
         <v>133</v>
       </c>
@@ -5610,8 +5608,8 @@
       <c r="W93" s="19"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="90"/>
-      <c r="C94" s="102"/>
+      <c r="B94" s="94"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="4" t="s">
         <v>156</v>
       </c>
@@ -5639,8 +5637,8 @@
       <c r="W94" s="19"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="90"/>
-      <c r="C95" s="102"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="89"/>
       <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
@@ -5680,8 +5678,8 @@
       <c r="W95" s="19"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="90"/>
-      <c r="C96" s="102"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="89"/>
       <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
@@ -5721,8 +5719,8 @@
       <c r="W96" s="19"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="90"/>
-      <c r="C97" s="102" t="s">
+      <c r="B97" s="94"/>
+      <c r="C97" s="89" t="s">
         <v>122</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5764,8 +5762,8 @@
       <c r="W97" s="19"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="90"/>
-      <c r="C98" s="102"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="4" t="s">
         <v>133</v>
       </c>
@@ -5805,8 +5803,8 @@
       <c r="W98" s="19"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="90"/>
-      <c r="C99" s="102"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="89"/>
       <c r="D99" s="4" t="s">
         <v>156</v>
       </c>
@@ -5834,8 +5832,8 @@
       <c r="W99" s="19"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="90"/>
-      <c r="C100" s="102"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="89"/>
       <c r="D100" s="4" t="s">
         <v>134</v>
       </c>
@@ -5875,8 +5873,8 @@
       <c r="W100" s="19"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="90"/>
-      <c r="C101" s="102"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="89"/>
       <c r="D101" s="4" t="s">
         <v>135</v>
       </c>
@@ -5916,8 +5914,8 @@
       <c r="W101" s="19"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="90"/>
-      <c r="C102" s="102" t="s">
+      <c r="B102" s="94"/>
+      <c r="C102" s="89" t="s">
         <v>123</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -5959,8 +5957,8 @@
       <c r="W102" s="19"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="90"/>
-      <c r="C103" s="102"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="89"/>
       <c r="D103" s="4" t="s">
         <v>133</v>
       </c>
@@ -6000,8 +5998,8 @@
       <c r="W103" s="19"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="90"/>
-      <c r="C104" s="102"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="4" t="s">
         <v>156</v>
       </c>
@@ -6029,8 +6027,8 @@
       <c r="W104" s="19"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="90"/>
-      <c r="C105" s="102"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="89"/>
       <c r="D105" s="4" t="s">
         <v>134</v>
       </c>
@@ -6070,8 +6068,8 @@
       <c r="W105" s="19"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="90"/>
-      <c r="C106" s="102"/>
+      <c r="B106" s="94"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="4" t="s">
         <v>135</v>
       </c>
@@ -6111,8 +6109,8 @@
       <c r="W106" s="19"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="90"/>
-      <c r="C107" s="102" t="s">
+      <c r="B107" s="94"/>
+      <c r="C107" s="89" t="s">
         <v>124</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -6154,8 +6152,8 @@
       <c r="W107" s="19"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="90"/>
-      <c r="C108" s="102"/>
+      <c r="B108" s="94"/>
+      <c r="C108" s="89"/>
       <c r="D108" s="4" t="s">
         <v>133</v>
       </c>
@@ -6195,8 +6193,8 @@
       <c r="W108" s="19"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="90"/>
-      <c r="C109" s="102"/>
+      <c r="B109" s="94"/>
+      <c r="C109" s="89"/>
       <c r="D109" s="4" t="s">
         <v>156</v>
       </c>
@@ -6224,8 +6222,8 @@
       <c r="W109" s="19"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="90"/>
-      <c r="C110" s="102"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="89"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6265,8 +6263,8 @@
       <c r="W110" s="19"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="90"/>
-      <c r="C111" s="102"/>
+      <c r="B111" s="94"/>
+      <c r="C111" s="89"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6306,8 +6304,8 @@
       <c r="W111" s="19"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="90"/>
-      <c r="C112" s="102" t="s">
+      <c r="B112" s="94"/>
+      <c r="C112" s="89" t="s">
         <v>125</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -6349,8 +6347,8 @@
       <c r="W112" s="19"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="90"/>
-      <c r="C113" s="102"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="89"/>
       <c r="D113" s="4" t="s">
         <v>133</v>
       </c>
@@ -6390,8 +6388,8 @@
       <c r="W113" s="19"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="90"/>
-      <c r="C114" s="102"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="89"/>
       <c r="D114" s="4" t="s">
         <v>156</v>
       </c>
@@ -6419,8 +6417,8 @@
       <c r="W114" s="19"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="90"/>
-      <c r="C115" s="102"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="89"/>
       <c r="D115" s="4" t="s">
         <v>134</v>
       </c>
@@ -6460,8 +6458,8 @@
       <c r="W115" s="19"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="90"/>
-      <c r="C116" s="102"/>
+      <c r="B116" s="94"/>
+      <c r="C116" s="89"/>
       <c r="D116" s="4" t="s">
         <v>135</v>
       </c>
@@ -6501,8 +6499,8 @@
       <c r="W116" s="19"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="90"/>
-      <c r="C117" s="102" t="s">
+      <c r="B117" s="94"/>
+      <c r="C117" s="89" t="s">
         <v>126</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6544,8 +6542,8 @@
       <c r="W117" s="19"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="90"/>
-      <c r="C118" s="102"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="4" t="s">
         <v>133</v>
       </c>
@@ -6585,8 +6583,8 @@
       <c r="W118" s="19"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="90"/>
-      <c r="C119" s="102"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="89"/>
       <c r="D119" s="4" t="s">
         <v>156</v>
       </c>
@@ -6614,8 +6612,8 @@
       <c r="W119" s="19"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="90"/>
-      <c r="C120" s="102"/>
+      <c r="B120" s="94"/>
+      <c r="C120" s="89"/>
       <c r="D120" s="4" t="s">
         <v>134</v>
       </c>
@@ -6655,8 +6653,8 @@
       <c r="W120" s="19"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="90"/>
-      <c r="C121" s="102"/>
+      <c r="B121" s="94"/>
+      <c r="C121" s="89"/>
       <c r="D121" s="4" t="s">
         <v>135</v>
       </c>
@@ -6696,8 +6694,8 @@
       <c r="W121" s="19"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="90"/>
-      <c r="C122" s="102" t="s">
+      <c r="B122" s="94"/>
+      <c r="C122" s="89" t="s">
         <v>127</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -6739,8 +6737,8 @@
       <c r="W122" s="19"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="90"/>
-      <c r="C123" s="102"/>
+      <c r="B123" s="94"/>
+      <c r="C123" s="89"/>
       <c r="D123" s="4" t="s">
         <v>133</v>
       </c>
@@ -6780,8 +6778,8 @@
       <c r="W123" s="19"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="90"/>
-      <c r="C124" s="102"/>
+      <c r="B124" s="94"/>
+      <c r="C124" s="89"/>
       <c r="D124" s="4" t="s">
         <v>156</v>
       </c>
@@ -6809,8 +6807,8 @@
       <c r="W124" s="19"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="90"/>
-      <c r="C125" s="102"/>
+      <c r="B125" s="94"/>
+      <c r="C125" s="89"/>
       <c r="D125" s="4" t="s">
         <v>134</v>
       </c>
@@ -6850,8 +6848,8 @@
       <c r="W125" s="19"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="90"/>
-      <c r="C126" s="102"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="89"/>
       <c r="D126" s="4" t="s">
         <v>135</v>
       </c>
@@ -6891,8 +6889,8 @@
       <c r="W126" s="19"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="90"/>
-      <c r="C127" s="102" t="s">
+      <c r="B127" s="94"/>
+      <c r="C127" s="89" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -6934,8 +6932,8 @@
       <c r="W127" s="19"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="90"/>
-      <c r="C128" s="102"/>
+      <c r="B128" s="94"/>
+      <c r="C128" s="89"/>
       <c r="D128" s="4" t="s">
         <v>133</v>
       </c>
@@ -6975,8 +6973,8 @@
       <c r="W128" s="19"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="90"/>
-      <c r="C129" s="102"/>
+      <c r="B129" s="94"/>
+      <c r="C129" s="89"/>
       <c r="D129" s="4" t="s">
         <v>156</v>
       </c>
@@ -7004,8 +7002,8 @@
       <c r="W129" s="19"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="90"/>
-      <c r="C130" s="102"/>
+      <c r="B130" s="94"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -7045,8 +7043,8 @@
       <c r="W130" s="19"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="90"/>
-      <c r="C131" s="102"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="89"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -7086,8 +7084,8 @@
       <c r="W131" s="19"/>
     </row>
     <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="90"/>
-      <c r="C132" s="102" t="s">
+      <c r="B132" s="94"/>
+      <c r="C132" s="89" t="s">
         <v>129</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -7129,8 +7127,8 @@
       <c r="W132" s="19"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="90"/>
-      <c r="C133" s="102"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="89"/>
       <c r="D133" s="4" t="s">
         <v>133</v>
       </c>
@@ -7170,8 +7168,8 @@
       <c r="W133" s="19"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="90"/>
-      <c r="C134" s="102"/>
+      <c r="B134" s="94"/>
+      <c r="C134" s="89"/>
       <c r="D134" s="4" t="s">
         <v>156</v>
       </c>
@@ -7199,8 +7197,8 @@
       <c r="W134" s="19"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="90"/>
-      <c r="C135" s="102"/>
+      <c r="B135" s="94"/>
+      <c r="C135" s="89"/>
       <c r="D135" s="4" t="s">
         <v>134</v>
       </c>
@@ -7240,8 +7238,8 @@
       <c r="W135" s="19"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="90"/>
-      <c r="C136" s="102"/>
+      <c r="B136" s="94"/>
+      <c r="C136" s="89"/>
       <c r="D136" s="4" t="s">
         <v>135</v>
       </c>
@@ -7281,8 +7279,8 @@
       <c r="W136" s="19"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="90"/>
-      <c r="C137" s="102" t="s">
+      <c r="B137" s="94"/>
+      <c r="C137" s="89" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -7324,8 +7322,8 @@
       <c r="W137" s="19"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="90"/>
-      <c r="C138" s="102"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="89"/>
       <c r="D138" s="4" t="s">
         <v>133</v>
       </c>
@@ -7365,8 +7363,8 @@
       <c r="W138" s="19"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="90"/>
-      <c r="C139" s="102"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="89"/>
       <c r="D139" s="4" t="s">
         <v>156</v>
       </c>
@@ -7394,8 +7392,8 @@
       <c r="W139" s="19"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="90"/>
-      <c r="C140" s="102"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="89"/>
       <c r="D140" s="4" t="s">
         <v>134</v>
       </c>
@@ -7435,8 +7433,8 @@
       <c r="W140" s="19"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="90"/>
-      <c r="C141" s="102"/>
+      <c r="B141" s="94"/>
+      <c r="C141" s="89"/>
       <c r="D141" s="4" t="s">
         <v>135</v>
       </c>
@@ -7476,8 +7474,8 @@
       <c r="W141" s="19"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="90"/>
-      <c r="C142" s="102" t="s">
+      <c r="B142" s="94"/>
+      <c r="C142" s="89" t="s">
         <v>131</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -7519,8 +7517,8 @@
       <c r="W142" s="19"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="90"/>
-      <c r="C143" s="102"/>
+      <c r="B143" s="94"/>
+      <c r="C143" s="89"/>
       <c r="D143" s="4" t="s">
         <v>133</v>
       </c>
@@ -7560,8 +7558,8 @@
       <c r="W143" s="19"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="90"/>
-      <c r="C144" s="102"/>
+      <c r="B144" s="94"/>
+      <c r="C144" s="89"/>
       <c r="D144" s="4" t="s">
         <v>156</v>
       </c>
@@ -7589,8 +7587,8 @@
       <c r="W144" s="19"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="90"/>
-      <c r="C145" s="102"/>
+      <c r="B145" s="94"/>
+      <c r="C145" s="89"/>
       <c r="D145" s="4" t="s">
         <v>134</v>
       </c>
@@ -7630,8 +7628,8 @@
       <c r="W145" s="19"/>
     </row>
     <row r="146" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="91"/>
-      <c r="C146" s="105"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="117"/>
       <c r="D146" s="24" t="s">
         <v>135</v>
       </c>
@@ -7671,7 +7669,7 @@
       <c r="W146" s="25"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="89" t="s">
+      <c r="B147" s="93" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="78" t="s">
@@ -7714,7 +7712,7 @@
       <c r="W147" s="52"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="90"/>
+      <c r="B148" s="94"/>
       <c r="C148" s="33" t="s">
         <v>89</v>
       </c>
@@ -7755,7 +7753,7 @@
       <c r="W148" s="19"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="90"/>
+      <c r="B149" s="94"/>
       <c r="C149" s="33" t="s">
         <v>90</v>
       </c>
@@ -7796,7 +7794,7 @@
       <c r="W149" s="19"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="90"/>
+      <c r="B150" s="94"/>
       <c r="C150" s="33" t="s">
         <v>91</v>
       </c>
@@ -7837,7 +7835,7 @@
       <c r="W150" s="19"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="90"/>
+      <c r="B151" s="94"/>
       <c r="C151" s="33" t="s">
         <v>142</v>
       </c>
@@ -7878,7 +7876,7 @@
       <c r="W151" s="19"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="90"/>
+      <c r="B152" s="94"/>
       <c r="C152" s="33" t="s">
         <v>139</v>
       </c>
@@ -7919,7 +7917,7 @@
       <c r="W152" s="19"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="90"/>
+      <c r="B153" s="94"/>
       <c r="C153" s="33" t="s">
         <v>141</v>
       </c>
@@ -7960,7 +7958,7 @@
       <c r="W153" s="19"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="90"/>
+      <c r="B154" s="94"/>
       <c r="C154" s="33" t="s">
         <v>140</v>
       </c>
@@ -8001,7 +7999,7 @@
       <c r="W154" s="19"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="90"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="33" t="s">
         <v>92</v>
       </c>
@@ -8042,7 +8040,7 @@
       <c r="W155" s="19"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="90"/>
+      <c r="B156" s="94"/>
       <c r="C156" s="33" t="s">
         <v>93</v>
       </c>
@@ -8083,7 +8081,7 @@
       <c r="W156" s="19"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="90"/>
+      <c r="B157" s="94"/>
       <c r="C157" s="33" t="s">
         <v>94</v>
       </c>
@@ -8124,7 +8122,7 @@
       <c r="W157" s="19"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="90"/>
+      <c r="B158" s="94"/>
       <c r="C158" s="33" t="s">
         <v>98</v>
       </c>
@@ -8165,7 +8163,7 @@
       <c r="W158" s="19"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="91"/>
+      <c r="B159" s="95"/>
       <c r="C159" s="61" t="s">
         <v>99</v>
       </c>
@@ -8206,7 +8204,7 @@
       <c r="W159" s="25"/>
     </row>
     <row r="160" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="89" t="s">
+      <c r="B160" s="93" t="s">
         <v>143</v>
       </c>
       <c r="C160" s="60" t="s">
@@ -8249,7 +8247,7 @@
       <c r="W160" s="52"/>
     </row>
     <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="90"/>
+      <c r="B161" s="94"/>
       <c r="C161" s="59" t="s">
         <v>144</v>
       </c>
@@ -8290,7 +8288,7 @@
       <c r="W161" s="19"/>
     </row>
     <row r="162" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="91"/>
+      <c r="B162" s="95"/>
       <c r="C162" s="61" t="s">
         <v>145</v>
       </c>
@@ -8331,7 +8329,7 @@
       <c r="W162" s="25"/>
     </row>
     <row r="163" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="89" t="s">
+      <c r="B163" s="93" t="s">
         <v>148</v>
       </c>
       <c r="C163" s="60" t="s">
@@ -8370,7 +8368,7 @@
       <c r="W163" s="52"/>
     </row>
     <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="90"/>
+      <c r="B164" s="94"/>
       <c r="C164" s="59" t="s">
         <v>150</v>
       </c>
@@ -8407,7 +8405,7 @@
       <c r="W164" s="19"/>
     </row>
     <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="90"/>
+      <c r="B165" s="94"/>
       <c r="C165" s="59" t="s">
         <v>151</v>
       </c>
@@ -8444,7 +8442,7 @@
       <c r="W165" s="19"/>
     </row>
     <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="90"/>
+      <c r="B166" s="94"/>
       <c r="C166" s="59" t="s">
         <v>152</v>
       </c>
@@ -8481,7 +8479,7 @@
       <c r="W166" s="19"/>
     </row>
     <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="90"/>
+      <c r="B167" s="94"/>
       <c r="C167" s="59" t="s">
         <v>153</v>
       </c>
@@ -8518,7 +8516,7 @@
       <c r="W167" s="19"/>
     </row>
     <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="90"/>
+      <c r="B168" s="94"/>
       <c r="C168" s="59" t="s">
         <v>154</v>
       </c>
@@ -8555,7 +8553,7 @@
       <c r="W168" s="19"/>
     </row>
     <row r="169" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="91"/>
+      <c r="B169" s="95"/>
       <c r="C169" s="61" t="s">
         <v>155</v>
       </c>
@@ -8592,7 +8590,7 @@
       <c r="W169" s="25"/>
     </row>
     <row r="170" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="89" t="s">
+      <c r="B170" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="54" t="s">
@@ -8635,7 +8633,7 @@
       <c r="W170" s="52"/>
     </row>
     <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="90"/>
+      <c r="B171" s="94"/>
       <c r="C171" s="33" t="s">
         <v>137</v>
       </c>
@@ -8676,7 +8674,7 @@
       <c r="W171" s="19"/>
     </row>
     <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="90"/>
+      <c r="B172" s="94"/>
       <c r="C172" s="33" t="s">
         <v>138</v>
       </c>
@@ -8717,7 +8715,7 @@
       <c r="W172" s="19"/>
     </row>
     <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="90"/>
+      <c r="B173" s="94"/>
       <c r="C173" s="33" t="s">
         <v>146</v>
       </c>
@@ -8758,7 +8756,7 @@
       <c r="W173" s="19"/>
     </row>
     <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="90"/>
+      <c r="B174" s="94"/>
       <c r="C174" s="33" t="s">
         <v>84</v>
       </c>
@@ -8799,7 +8797,7 @@
       <c r="W174" s="19"/>
     </row>
     <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="90"/>
+      <c r="B175" s="94"/>
       <c r="C175" s="33" t="s">
         <v>85</v>
       </c>
@@ -8840,7 +8838,7 @@
       <c r="W175" s="19"/>
     </row>
     <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="90"/>
+      <c r="B176" s="94"/>
       <c r="C176" s="33" t="s">
         <v>87</v>
       </c>
@@ -8881,7 +8879,7 @@
       <c r="W176" s="19"/>
     </row>
     <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="90"/>
+      <c r="B177" s="94"/>
       <c r="C177" s="33" t="s">
         <v>86</v>
       </c>
@@ -8922,7 +8920,7 @@
       <c r="W177" s="19"/>
     </row>
     <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="90"/>
+      <c r="B178" s="94"/>
       <c r="C178" s="33" t="s">
         <v>104</v>
       </c>
@@ -8963,7 +8961,7 @@
       <c r="W178" s="19"/>
     </row>
     <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="90"/>
+      <c r="B179" s="94"/>
       <c r="C179" s="33" t="s">
         <v>136</v>
       </c>
@@ -9004,7 +9002,7 @@
       <c r="W179" s="19"/>
     </row>
     <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="90"/>
+      <c r="B180" s="94"/>
       <c r="C180" s="33" t="s">
         <v>105</v>
       </c>
@@ -9045,7 +9043,7 @@
       <c r="W180" s="19"/>
     </row>
     <row r="181" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="91"/>
+      <c r="B181" s="95"/>
       <c r="C181" s="61" t="s">
         <v>100</v>
       </c>
@@ -9086,21 +9084,21 @@
       <c r="W181" s="25"/>
     </row>
     <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="98" t="s">
+      <c r="B182" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="99"/>
-      <c r="D182" s="100"/>
-      <c r="E182" s="100"/>
-      <c r="F182" s="100"/>
-      <c r="G182" s="101"/>
+      <c r="C182" s="114"/>
+      <c r="D182" s="115"/>
+      <c r="E182" s="115"/>
+      <c r="F182" s="115"/>
+      <c r="G182" s="116"/>
       <c r="H182" s="36">
         <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
         <v>96.499999999999829</v>
       </c>
       <c r="I182" s="23">
         <f t="shared" si="6"/>
-        <v>9.0062999999999995</v>
+        <v>9.6233000000000004</v>
       </c>
       <c r="J182" s="23">
         <f t="shared" si="6"/>
@@ -9116,7 +9114,7 @@
       </c>
       <c r="M182" s="23">
         <f t="shared" si="6"/>
-        <v>2.95</v>
+        <v>3.5670000000000002</v>
       </c>
       <c r="N182" s="23">
         <f t="shared" si="6"/>
@@ -9168,22 +9166,22 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="94" t="s">
+      <c r="J183" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="K183" s="103"/>
-      <c r="L183" s="103"/>
-      <c r="M183" s="103"/>
-      <c r="N183" s="103"/>
-      <c r="O183" s="103"/>
-      <c r="P183" s="103"/>
-      <c r="Q183" s="103"/>
-      <c r="R183" s="103"/>
-      <c r="S183" s="103"/>
-      <c r="T183" s="103"/>
-      <c r="U183" s="103"/>
-      <c r="V183" s="103"/>
-      <c r="W183" s="104"/>
+      <c r="K183" s="91"/>
+      <c r="L183" s="91"/>
+      <c r="M183" s="91"/>
+      <c r="N183" s="91"/>
+      <c r="O183" s="91"/>
+      <c r="P183" s="91"/>
+      <c r="Q183" s="91"/>
+      <c r="R183" s="91"/>
+      <c r="S183" s="91"/>
+      <c r="T183" s="91"/>
+      <c r="U183" s="91"/>
+      <c r="V183" s="91"/>
+      <c r="W183" s="92"/>
     </row>
     <row r="184" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B184" s="2"/>
@@ -9207,10 +9205,10 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="92" t="s">
+      <c r="H185" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="I185" s="93"/>
+      <c r="I185" s="109"/>
       <c r="J185" s="9">
         <f>H182-J182</f>
         <v>96.499999999999829</v>
@@ -9225,11 +9223,11 @@
       </c>
       <c r="M185" s="9">
         <f>L185-M182</f>
-        <v>87.493699999999819</v>
+        <v>86.876699999999829</v>
       </c>
       <c r="N185" s="10">
         <f>M185-N182</f>
-        <v>87.493699999999819</v>
+        <v>86.876699999999829</v>
       </c>
     </row>
     <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9253,18 +9251,18 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
-      <c r="H187" s="94" t="s">
+      <c r="H187" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="95"/>
-      <c r="J187" s="93">
+      <c r="I187" s="110"/>
+      <c r="J187" s="109">
         <f>H182-I182</f>
-        <v>87.493699999999833</v>
-      </c>
-      <c r="K187" s="93"/>
-      <c r="L187" s="93"/>
-      <c r="M187" s="93"/>
-      <c r="N187" s="96"/>
+        <v>86.876699999999829</v>
+      </c>
+      <c r="K187" s="109"/>
+      <c r="L187" s="109"/>
+      <c r="M187" s="109"/>
+      <c r="N187" s="111"/>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
@@ -9368,24 +9366,6 @@
     <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="C15:C54"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C81"/>
     <mergeCell ref="B163:B169"/>
     <mergeCell ref="H185:I185"/>
     <mergeCell ref="H187:I187"/>
@@ -9402,6 +9382,24 @@
     <mergeCell ref="C142:C146"/>
     <mergeCell ref="C92:C96"/>
     <mergeCell ref="C87:C91"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="C15:C54"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C127:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
   <si>
     <t>Subtarea</t>
   </si>
@@ -492,6 +492,24 @@
   </si>
   <si>
     <t>Implementar entrada secreta (Opertura)</t>
+  </si>
+  <si>
+    <t>Horas David</t>
+  </si>
+  <si>
+    <t>Horas Alex</t>
+  </si>
+  <si>
+    <t>Horas Carlos</t>
+  </si>
+  <si>
+    <t>Reales</t>
+  </si>
+  <si>
+    <t>Estimadas</t>
+  </si>
+  <si>
+    <t>Restantes</t>
   </si>
 </sst>
 </file>
@@ -621,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1009,11 +1027,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1239,25 +1270,55 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,35 +1357,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,6 +1398,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1415,11 +1456,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="442743984"/>
-        <c:axId val="442742352"/>
+        <c:axId val="-1516873760"/>
+        <c:axId val="-1516873216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="442743984"/>
+        <c:axId val="-1516873760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442742352"/>
+        <c:crossAx val="-1516873216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442742352"/>
+        <c:axId val="-1516873216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,13 +1488,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442743984"/>
+        <c:crossAx val="-1516873760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1792,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,22 +1862,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="92"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
@@ -1906,7 +1948,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="114" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -1949,7 +1991,7 @@
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="105"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="35" t="s">
         <v>101</v>
       </c>
@@ -1990,7 +2032,7 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="105"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="35" t="s">
         <v>102</v>
       </c>
@@ -2031,7 +2073,7 @@
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="105"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="35" t="s">
         <v>103</v>
       </c>
@@ -2072,7 +2114,7 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="106"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="45" t="s">
         <v>111</v>
       </c>
@@ -2113,7 +2155,7 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2156,7 +2198,7 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="34" t="s">
         <v>107</v>
       </c>
@@ -2197,7 +2239,7 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="105"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="83" t="s">
         <v>112</v>
       </c>
@@ -2238,7 +2280,7 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="105"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="83" t="s">
         <v>113</v>
       </c>
@@ -2303,7 +2345,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="106"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2346,7 +2388,7 @@
       <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2391,8 +2433,8 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="94"/>
-      <c r="C15" s="98" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="108" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2438,8 +2480,8 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="94"/>
-      <c r="C16" s="99"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2479,8 +2521,8 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="94"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2520,8 +2562,8 @@
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="94"/>
-      <c r="C18" s="99"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2561,8 +2603,8 @@
       <c r="W18" s="19"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="94"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2602,8 +2644,8 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="94"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2643,8 +2685,8 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="94"/>
-      <c r="C21" s="99"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="32" t="s">
         <v>36</v>
       </c>
@@ -2684,8 +2726,8 @@
       <c r="W21" s="19"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="94"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="32" t="s">
         <v>37</v>
       </c>
@@ -2725,8 +2767,8 @@
       <c r="W22" s="19"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="94"/>
-      <c r="C23" s="99"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="32" t="s">
         <v>38</v>
       </c>
@@ -2766,8 +2808,8 @@
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="94"/>
-      <c r="C24" s="99"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="32" t="s">
         <v>39</v>
       </c>
@@ -2807,8 +2849,8 @@
       <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="94"/>
-      <c r="C25" s="99"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
@@ -2848,8 +2890,8 @@
       <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="94"/>
-      <c r="C26" s="99"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="32" t="s">
         <v>41</v>
       </c>
@@ -2889,8 +2931,8 @@
       <c r="W26" s="19"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="94"/>
-      <c r="C27" s="99"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="32" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +2972,8 @@
       <c r="W27" s="19"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="94"/>
-      <c r="C28" s="99"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="32" t="s">
         <v>43</v>
       </c>
@@ -2971,8 +3013,8 @@
       <c r="W28" s="19"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="94"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="32" t="s">
         <v>44</v>
       </c>
@@ -3012,8 +3054,8 @@
       <c r="W29" s="19"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="94"/>
-      <c r="C30" s="99"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="32" t="s">
         <v>45</v>
       </c>
@@ -3053,8 +3095,8 @@
       <c r="W30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="94"/>
-      <c r="C31" s="99"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="32" t="s">
         <v>46</v>
       </c>
@@ -3094,8 +3136,8 @@
       <c r="W31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="94"/>
-      <c r="C32" s="99"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="32" t="s">
         <v>47</v>
       </c>
@@ -3135,8 +3177,8 @@
       <c r="W32" s="19"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="94"/>
-      <c r="C33" s="99"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="32" t="s">
         <v>48</v>
       </c>
@@ -3176,8 +3218,8 @@
       <c r="W33" s="19"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="94"/>
-      <c r="C34" s="99"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="32" t="s">
         <v>49</v>
       </c>
@@ -3217,8 +3259,8 @@
       <c r="W34" s="19"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="94"/>
-      <c r="C35" s="99"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="32" t="s">
         <v>50</v>
       </c>
@@ -3258,8 +3300,8 @@
       <c r="W35" s="19"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="94"/>
-      <c r="C36" s="99"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
@@ -3299,8 +3341,8 @@
       <c r="W36" s="19"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="94"/>
-      <c r="C37" s="99"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="32" t="s">
         <v>52</v>
       </c>
@@ -3340,8 +3382,8 @@
       <c r="W37" s="19"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="94"/>
-      <c r="C38" s="99"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="32" t="s">
         <v>53</v>
       </c>
@@ -3381,8 +3423,8 @@
       <c r="W38" s="19"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="94"/>
-      <c r="C39" s="99"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="32" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3464,8 @@
       <c r="W39" s="19"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="94"/>
-      <c r="C40" s="99"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="32" t="s">
         <v>55</v>
       </c>
@@ -3463,8 +3505,8 @@
       <c r="W40" s="19"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="94"/>
-      <c r="C41" s="99"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="32" t="s">
         <v>56</v>
       </c>
@@ -3504,8 +3546,8 @@
       <c r="W41" s="19"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="94"/>
-      <c r="C42" s="99"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="32" t="s">
         <v>57</v>
       </c>
@@ -3545,8 +3587,8 @@
       <c r="W42" s="19"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="94"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="32" t="s">
         <v>58</v>
       </c>
@@ -3586,8 +3628,8 @@
       <c r="W43" s="19"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="94"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="32" t="s">
         <v>59</v>
       </c>
@@ -3627,8 +3669,8 @@
       <c r="W44" s="19"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="94"/>
-      <c r="C45" s="99"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="32" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3710,8 @@
       <c r="W45" s="19"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="94"/>
-      <c r="C46" s="99"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="32" t="s">
         <v>61</v>
       </c>
@@ -3709,8 +3751,8 @@
       <c r="W46" s="19"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="94"/>
-      <c r="C47" s="99"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="32" t="s">
         <v>62</v>
       </c>
@@ -3750,8 +3792,8 @@
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="94"/>
-      <c r="C48" s="99"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="32" t="s">
         <v>63</v>
       </c>
@@ -3791,8 +3833,8 @@
       <c r="W48" s="19"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="94"/>
-      <c r="C49" s="99"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="32" t="s">
         <v>64</v>
       </c>
@@ -3832,8 +3874,8 @@
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="94"/>
-      <c r="C50" s="99"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="32" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +3915,8 @@
       <c r="W50" s="19"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="94"/>
-      <c r="C51" s="99"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="32" t="s">
         <v>66</v>
       </c>
@@ -3914,8 +3956,8 @@
       <c r="W51" s="19"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="94"/>
-      <c r="C52" s="99"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="32" t="s">
         <v>67</v>
       </c>
@@ -3955,8 +3997,8 @@
       <c r="W52" s="19"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="94"/>
-      <c r="C53" s="99"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="32" t="s">
         <v>68</v>
       </c>
@@ -3996,8 +4038,8 @@
       <c r="W53" s="19"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="94"/>
-      <c r="C54" s="100"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="32" t="s">
         <v>69</v>
       </c>
@@ -4037,8 +4079,8 @@
       <c r="W54" s="19"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="94"/>
-      <c r="C55" s="96" t="s">
+      <c r="B55" s="90"/>
+      <c r="C55" s="106" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="29" t="s">
@@ -4080,8 +4122,8 @@
       <c r="W55" s="19"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="94"/>
-      <c r="C56" s="97"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="29" t="s">
         <v>29</v>
       </c>
@@ -4121,8 +4163,8 @@
       <c r="W56" s="19"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="94"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="29" t="s">
         <v>30</v>
       </c>
@@ -4162,8 +4204,8 @@
       <c r="W57" s="19"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="94"/>
-      <c r="C58" s="97"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="107"/>
       <c r="D58" s="29" t="s">
         <v>31</v>
       </c>
@@ -4203,8 +4245,8 @@
       <c r="W58" s="19"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="94"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
@@ -4244,8 +4286,8 @@
       <c r="W59" s="19"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="94"/>
-      <c r="C60" s="97"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="107"/>
       <c r="D60" s="29" t="s">
         <v>32</v>
       </c>
@@ -4285,8 +4327,8 @@
       <c r="W60" s="19"/>
     </row>
     <row r="61" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="112"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="107"/>
       <c r="D61" s="62" t="s">
         <v>33</v>
       </c>
@@ -4326,10 +4368,10 @@
       <c r="W61" s="28"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="111" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="39" t="s">
@@ -4371,8 +4413,8 @@
       <c r="W62" s="52"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="94"/>
-      <c r="C63" s="102"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="4" t="s">
         <v>71</v>
       </c>
@@ -4412,8 +4454,8 @@
       <c r="W63" s="19"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="94"/>
-      <c r="C64" s="102"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="4" t="s">
         <v>72</v>
       </c>
@@ -4453,8 +4495,8 @@
       <c r="W64" s="19"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="94"/>
-      <c r="C65" s="102"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="29" t="s">
         <v>76</v>
       </c>
@@ -4494,7 +4536,7 @@
       <c r="W65" s="19"/>
     </row>
     <row r="66" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B66" s="94"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="33" t="s">
         <v>73</v>
       </c>
@@ -4535,7 +4577,7 @@
       <c r="W66" s="19"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="94"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="33" t="s">
         <v>81</v>
       </c>
@@ -4576,8 +4618,8 @@
       <c r="W67" s="19"/>
     </row>
     <row r="68" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="94"/>
-      <c r="C68" s="102" t="s">
+      <c r="B68" s="90"/>
+      <c r="C68" s="112" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -4619,8 +4661,8 @@
       <c r="W68" s="19"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="94"/>
-      <c r="C69" s="102"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="4" t="s">
         <v>75</v>
       </c>
@@ -4660,8 +4702,8 @@
       <c r="W69" s="19"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="94"/>
-      <c r="C70" s="102"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="4" t="s">
         <v>77</v>
       </c>
@@ -4701,8 +4743,8 @@
       <c r="W70" s="19"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="95"/>
-      <c r="C71" s="103"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="113"/>
       <c r="D71" s="24" t="s">
         <v>78</v>
       </c>
@@ -4742,10 +4784,10 @@
       <c r="W71" s="25"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="117" t="s">
         <v>117</v>
       </c>
       <c r="D72" s="39" t="s">
@@ -4787,8 +4829,8 @@
       <c r="W72" s="52"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="94"/>
-      <c r="C73" s="89"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="4" t="s">
         <v>133</v>
       </c>
@@ -4828,8 +4870,8 @@
       <c r="W73" s="19"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="94"/>
-      <c r="C74" s="89"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="102"/>
       <c r="D74" s="4" t="s">
         <v>156</v>
       </c>
@@ -4857,8 +4899,8 @@
       <c r="W74" s="19"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="94"/>
-      <c r="C75" s="89"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="102"/>
       <c r="D75" s="4" t="s">
         <v>134</v>
       </c>
@@ -4898,8 +4940,8 @@
       <c r="W75" s="19"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="94"/>
-      <c r="C76" s="89"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="102"/>
       <c r="D76" s="4" t="s">
         <v>135</v>
       </c>
@@ -4939,8 +4981,8 @@
       <c r="W76" s="19"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="94"/>
-      <c r="C77" s="89" t="s">
+      <c r="B77" s="90"/>
+      <c r="C77" s="102" t="s">
         <v>118</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -4982,8 +5024,8 @@
       <c r="W77" s="19"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="94"/>
-      <c r="C78" s="89"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="4" t="s">
         <v>133</v>
       </c>
@@ -5023,8 +5065,8 @@
       <c r="W78" s="19"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="94"/>
-      <c r="C79" s="89"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="4" t="s">
         <v>156</v>
       </c>
@@ -5052,8 +5094,8 @@
       <c r="W79" s="19"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="94"/>
-      <c r="C80" s="89"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="102"/>
       <c r="D80" s="4" t="s">
         <v>134</v>
       </c>
@@ -5093,8 +5135,8 @@
       <c r="W80" s="19"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="94"/>
-      <c r="C81" s="89"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="102"/>
       <c r="D81" s="4" t="s">
         <v>135</v>
       </c>
@@ -5134,8 +5176,8 @@
       <c r="W81" s="19"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="94"/>
-      <c r="C82" s="89" t="s">
+      <c r="B82" s="90"/>
+      <c r="C82" s="102" t="s">
         <v>119</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -5177,8 +5219,8 @@
       <c r="W82" s="19"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="94"/>
-      <c r="C83" s="89"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="102"/>
       <c r="D83" s="4" t="s">
         <v>133</v>
       </c>
@@ -5218,8 +5260,8 @@
       <c r="W83" s="19"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="94"/>
-      <c r="C84" s="89"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="102"/>
       <c r="D84" s="4" t="s">
         <v>156</v>
       </c>
@@ -5247,8 +5289,8 @@
       <c r="W84" s="19"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="94"/>
-      <c r="C85" s="89"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="4" t="s">
         <v>134</v>
       </c>
@@ -5288,8 +5330,8 @@
       <c r="W85" s="19"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="94"/>
-      <c r="C86" s="89"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="102"/>
       <c r="D86" s="4" t="s">
         <v>135</v>
       </c>
@@ -5329,8 +5371,8 @@
       <c r="W86" s="19"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="94"/>
-      <c r="C87" s="89" t="s">
+      <c r="B87" s="90"/>
+      <c r="C87" s="102" t="s">
         <v>120</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -5372,8 +5414,8 @@
       <c r="W87" s="19"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="94"/>
-      <c r="C88" s="89"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="102"/>
       <c r="D88" s="4" t="s">
         <v>133</v>
       </c>
@@ -5413,8 +5455,8 @@
       <c r="W88" s="19"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="94"/>
-      <c r="C89" s="89"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="102"/>
       <c r="D89" s="4" t="s">
         <v>156</v>
       </c>
@@ -5442,8 +5484,8 @@
       <c r="W89" s="19"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="94"/>
-      <c r="C90" s="89"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5483,8 +5525,8 @@
       <c r="W90" s="19"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="94"/>
-      <c r="C91" s="89"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5524,8 +5566,8 @@
       <c r="W91" s="19"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="94"/>
-      <c r="C92" s="89" t="s">
+      <c r="B92" s="90"/>
+      <c r="C92" s="102" t="s">
         <v>121</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -5567,8 +5609,8 @@
       <c r="W92" s="19"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="94"/>
-      <c r="C93" s="89"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="102"/>
       <c r="D93" s="4" t="s">
         <v>133</v>
       </c>
@@ -5608,8 +5650,8 @@
       <c r="W93" s="19"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="94"/>
-      <c r="C94" s="89"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="4" t="s">
         <v>156</v>
       </c>
@@ -5637,8 +5679,8 @@
       <c r="W94" s="19"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="94"/>
-      <c r="C95" s="89"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="102"/>
       <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
@@ -5678,8 +5720,8 @@
       <c r="W95" s="19"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="94"/>
-      <c r="C96" s="89"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="102"/>
       <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
@@ -5719,8 +5761,8 @@
       <c r="W96" s="19"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="94"/>
-      <c r="C97" s="89" t="s">
+      <c r="B97" s="90"/>
+      <c r="C97" s="102" t="s">
         <v>122</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5762,8 +5804,8 @@
       <c r="W97" s="19"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="94"/>
-      <c r="C98" s="89"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="102"/>
       <c r="D98" s="4" t="s">
         <v>133</v>
       </c>
@@ -5803,8 +5845,8 @@
       <c r="W98" s="19"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="94"/>
-      <c r="C99" s="89"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="102"/>
       <c r="D99" s="4" t="s">
         <v>156</v>
       </c>
@@ -5832,8 +5874,8 @@
       <c r="W99" s="19"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="94"/>
-      <c r="C100" s="89"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="102"/>
       <c r="D100" s="4" t="s">
         <v>134</v>
       </c>
@@ -5873,8 +5915,8 @@
       <c r="W100" s="19"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="94"/>
-      <c r="C101" s="89"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="102"/>
       <c r="D101" s="4" t="s">
         <v>135</v>
       </c>
@@ -5914,8 +5956,8 @@
       <c r="W101" s="19"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="94"/>
-      <c r="C102" s="89" t="s">
+      <c r="B102" s="90"/>
+      <c r="C102" s="102" t="s">
         <v>123</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -5957,8 +5999,8 @@
       <c r="W102" s="19"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="94"/>
-      <c r="C103" s="89"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="4" t="s">
         <v>133</v>
       </c>
@@ -5998,8 +6040,8 @@
       <c r="W103" s="19"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="94"/>
-      <c r="C104" s="89"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="102"/>
       <c r="D104" s="4" t="s">
         <v>156</v>
       </c>
@@ -6027,8 +6069,8 @@
       <c r="W104" s="19"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="94"/>
-      <c r="C105" s="89"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="102"/>
       <c r="D105" s="4" t="s">
         <v>134</v>
       </c>
@@ -6068,8 +6110,8 @@
       <c r="W105" s="19"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="94"/>
-      <c r="C106" s="89"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="102"/>
       <c r="D106" s="4" t="s">
         <v>135</v>
       </c>
@@ -6109,8 +6151,8 @@
       <c r="W106" s="19"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="94"/>
-      <c r="C107" s="89" t="s">
+      <c r="B107" s="90"/>
+      <c r="C107" s="102" t="s">
         <v>124</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -6152,8 +6194,8 @@
       <c r="W107" s="19"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="94"/>
-      <c r="C108" s="89"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="4" t="s">
         <v>133</v>
       </c>
@@ -6193,8 +6235,8 @@
       <c r="W108" s="19"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="94"/>
-      <c r="C109" s="89"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="102"/>
       <c r="D109" s="4" t="s">
         <v>156</v>
       </c>
@@ -6222,8 +6264,8 @@
       <c r="W109" s="19"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="94"/>
-      <c r="C110" s="89"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="102"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6263,8 +6305,8 @@
       <c r="W110" s="19"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="94"/>
-      <c r="C111" s="89"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="102"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6304,8 +6346,8 @@
       <c r="W111" s="19"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="94"/>
-      <c r="C112" s="89" t="s">
+      <c r="B112" s="90"/>
+      <c r="C112" s="102" t="s">
         <v>125</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -6347,8 +6389,8 @@
       <c r="W112" s="19"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="94"/>
-      <c r="C113" s="89"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="102"/>
       <c r="D113" s="4" t="s">
         <v>133</v>
       </c>
@@ -6388,8 +6430,8 @@
       <c r="W113" s="19"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="94"/>
-      <c r="C114" s="89"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="102"/>
       <c r="D114" s="4" t="s">
         <v>156</v>
       </c>
@@ -6417,8 +6459,8 @@
       <c r="W114" s="19"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="94"/>
-      <c r="C115" s="89"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="102"/>
       <c r="D115" s="4" t="s">
         <v>134</v>
       </c>
@@ -6458,8 +6500,8 @@
       <c r="W115" s="19"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="94"/>
-      <c r="C116" s="89"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="102"/>
       <c r="D116" s="4" t="s">
         <v>135</v>
       </c>
@@ -6499,8 +6541,8 @@
       <c r="W116" s="19"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="94"/>
-      <c r="C117" s="89" t="s">
+      <c r="B117" s="90"/>
+      <c r="C117" s="102" t="s">
         <v>126</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6542,8 +6584,8 @@
       <c r="W117" s="19"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="94"/>
-      <c r="C118" s="89"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="102"/>
       <c r="D118" s="4" t="s">
         <v>133</v>
       </c>
@@ -6583,8 +6625,8 @@
       <c r="W118" s="19"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="94"/>
-      <c r="C119" s="89"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="102"/>
       <c r="D119" s="4" t="s">
         <v>156</v>
       </c>
@@ -6612,8 +6654,8 @@
       <c r="W119" s="19"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="94"/>
-      <c r="C120" s="89"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="4" t="s">
         <v>134</v>
       </c>
@@ -6653,8 +6695,8 @@
       <c r="W120" s="19"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="94"/>
-      <c r="C121" s="89"/>
+      <c r="B121" s="90"/>
+      <c r="C121" s="102"/>
       <c r="D121" s="4" t="s">
         <v>135</v>
       </c>
@@ -6694,8 +6736,8 @@
       <c r="W121" s="19"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="94"/>
-      <c r="C122" s="89" t="s">
+      <c r="B122" s="90"/>
+      <c r="C122" s="102" t="s">
         <v>127</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -6737,8 +6779,8 @@
       <c r="W122" s="19"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="94"/>
-      <c r="C123" s="89"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="102"/>
       <c r="D123" s="4" t="s">
         <v>133</v>
       </c>
@@ -6778,8 +6820,8 @@
       <c r="W123" s="19"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="94"/>
-      <c r="C124" s="89"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="102"/>
       <c r="D124" s="4" t="s">
         <v>156</v>
       </c>
@@ -6807,8 +6849,8 @@
       <c r="W124" s="19"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="94"/>
-      <c r="C125" s="89"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="102"/>
       <c r="D125" s="4" t="s">
         <v>134</v>
       </c>
@@ -6848,8 +6890,8 @@
       <c r="W125" s="19"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="94"/>
-      <c r="C126" s="89"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="102"/>
       <c r="D126" s="4" t="s">
         <v>135</v>
       </c>
@@ -6889,8 +6931,8 @@
       <c r="W126" s="19"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="94"/>
-      <c r="C127" s="89" t="s">
+      <c r="B127" s="90"/>
+      <c r="C127" s="102" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -6932,8 +6974,8 @@
       <c r="W127" s="19"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="94"/>
-      <c r="C128" s="89"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="4" t="s">
         <v>133</v>
       </c>
@@ -6973,8 +7015,8 @@
       <c r="W128" s="19"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="94"/>
-      <c r="C129" s="89"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="102"/>
       <c r="D129" s="4" t="s">
         <v>156</v>
       </c>
@@ -7002,8 +7044,8 @@
       <c r="W129" s="19"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="94"/>
-      <c r="C130" s="89"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="102"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -7043,8 +7085,8 @@
       <c r="W130" s="19"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="94"/>
-      <c r="C131" s="89"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="102"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -7084,8 +7126,8 @@
       <c r="W131" s="19"/>
     </row>
     <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="94"/>
-      <c r="C132" s="89" t="s">
+      <c r="B132" s="90"/>
+      <c r="C132" s="102" t="s">
         <v>129</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -7127,8 +7169,8 @@
       <c r="W132" s="19"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="94"/>
-      <c r="C133" s="89"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="102"/>
       <c r="D133" s="4" t="s">
         <v>133</v>
       </c>
@@ -7168,8 +7210,8 @@
       <c r="W133" s="19"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="94"/>
-      <c r="C134" s="89"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="102"/>
       <c r="D134" s="4" t="s">
         <v>156</v>
       </c>
@@ -7197,8 +7239,8 @@
       <c r="W134" s="19"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="94"/>
-      <c r="C135" s="89"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="102"/>
       <c r="D135" s="4" t="s">
         <v>134</v>
       </c>
@@ -7238,8 +7280,8 @@
       <c r="W135" s="19"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="94"/>
-      <c r="C136" s="89"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="102"/>
       <c r="D136" s="4" t="s">
         <v>135</v>
       </c>
@@ -7279,8 +7321,8 @@
       <c r="W136" s="19"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="94"/>
-      <c r="C137" s="89" t="s">
+      <c r="B137" s="90"/>
+      <c r="C137" s="102" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -7322,8 +7364,8 @@
       <c r="W137" s="19"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="94"/>
-      <c r="C138" s="89"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="102"/>
       <c r="D138" s="4" t="s">
         <v>133</v>
       </c>
@@ -7363,8 +7405,8 @@
       <c r="W138" s="19"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="94"/>
-      <c r="C139" s="89"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="102"/>
       <c r="D139" s="4" t="s">
         <v>156</v>
       </c>
@@ -7392,8 +7434,8 @@
       <c r="W139" s="19"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="94"/>
-      <c r="C140" s="89"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="102"/>
       <c r="D140" s="4" t="s">
         <v>134</v>
       </c>
@@ -7433,8 +7475,8 @@
       <c r="W140" s="19"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="94"/>
-      <c r="C141" s="89"/>
+      <c r="B141" s="90"/>
+      <c r="C141" s="102"/>
       <c r="D141" s="4" t="s">
         <v>135</v>
       </c>
@@ -7474,8 +7516,8 @@
       <c r="W141" s="19"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="94"/>
-      <c r="C142" s="89" t="s">
+      <c r="B142" s="90"/>
+      <c r="C142" s="102" t="s">
         <v>131</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -7517,8 +7559,8 @@
       <c r="W142" s="19"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="94"/>
-      <c r="C143" s="89"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="4" t="s">
         <v>133</v>
       </c>
@@ -7558,8 +7600,8 @@
       <c r="W143" s="19"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="94"/>
-      <c r="C144" s="89"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="4" t="s">
         <v>156</v>
       </c>
@@ -7587,8 +7629,8 @@
       <c r="W144" s="19"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="94"/>
-      <c r="C145" s="89"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="102"/>
       <c r="D145" s="4" t="s">
         <v>134</v>
       </c>
@@ -7628,8 +7670,8 @@
       <c r="W145" s="19"/>
     </row>
     <row r="146" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="95"/>
-      <c r="C146" s="117"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="105"/>
       <c r="D146" s="24" t="s">
         <v>135</v>
       </c>
@@ -7669,7 +7711,7 @@
       <c r="W146" s="25"/>
     </row>
     <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="93" t="s">
+      <c r="B147" s="89" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="78" t="s">
@@ -7712,7 +7754,7 @@
       <c r="W147" s="52"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="94"/>
+      <c r="B148" s="90"/>
       <c r="C148" s="33" t="s">
         <v>89</v>
       </c>
@@ -7753,7 +7795,7 @@
       <c r="W148" s="19"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="94"/>
+      <c r="B149" s="90"/>
       <c r="C149" s="33" t="s">
         <v>90</v>
       </c>
@@ -7794,7 +7836,7 @@
       <c r="W149" s="19"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="94"/>
+      <c r="B150" s="90"/>
       <c r="C150" s="33" t="s">
         <v>91</v>
       </c>
@@ -7835,7 +7877,7 @@
       <c r="W150" s="19"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="94"/>
+      <c r="B151" s="90"/>
       <c r="C151" s="33" t="s">
         <v>142</v>
       </c>
@@ -7876,7 +7918,7 @@
       <c r="W151" s="19"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="94"/>
+      <c r="B152" s="90"/>
       <c r="C152" s="33" t="s">
         <v>139</v>
       </c>
@@ -7917,7 +7959,7 @@
       <c r="W152" s="19"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="94"/>
+      <c r="B153" s="90"/>
       <c r="C153" s="33" t="s">
         <v>141</v>
       </c>
@@ -7958,7 +8000,7 @@
       <c r="W153" s="19"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="94"/>
+      <c r="B154" s="90"/>
       <c r="C154" s="33" t="s">
         <v>140</v>
       </c>
@@ -7999,7 +8041,7 @@
       <c r="W154" s="19"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="94"/>
+      <c r="B155" s="90"/>
       <c r="C155" s="33" t="s">
         <v>92</v>
       </c>
@@ -8040,7 +8082,7 @@
       <c r="W155" s="19"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="94"/>
+      <c r="B156" s="90"/>
       <c r="C156" s="33" t="s">
         <v>93</v>
       </c>
@@ -8081,7 +8123,7 @@
       <c r="W156" s="19"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="94"/>
+      <c r="B157" s="90"/>
       <c r="C157" s="33" t="s">
         <v>94</v>
       </c>
@@ -8122,7 +8164,7 @@
       <c r="W157" s="19"/>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="94"/>
+      <c r="B158" s="90"/>
       <c r="C158" s="33" t="s">
         <v>98</v>
       </c>
@@ -8163,7 +8205,7 @@
       <c r="W158" s="19"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="95"/>
+      <c r="B159" s="91"/>
       <c r="C159" s="61" t="s">
         <v>99</v>
       </c>
@@ -8204,7 +8246,7 @@
       <c r="W159" s="25"/>
     </row>
     <row r="160" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="93" t="s">
+      <c r="B160" s="89" t="s">
         <v>143</v>
       </c>
       <c r="C160" s="60" t="s">
@@ -8247,7 +8289,7 @@
       <c r="W160" s="52"/>
     </row>
     <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="94"/>
+      <c r="B161" s="90"/>
       <c r="C161" s="59" t="s">
         <v>144</v>
       </c>
@@ -8288,7 +8330,7 @@
       <c r="W161" s="19"/>
     </row>
     <row r="162" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="95"/>
+      <c r="B162" s="91"/>
       <c r="C162" s="61" t="s">
         <v>145</v>
       </c>
@@ -8329,7 +8371,7 @@
       <c r="W162" s="25"/>
     </row>
     <row r="163" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="93" t="s">
+      <c r="B163" s="89" t="s">
         <v>148</v>
       </c>
       <c r="C163" s="60" t="s">
@@ -8368,7 +8410,7 @@
       <c r="W163" s="52"/>
     </row>
     <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="94"/>
+      <c r="B164" s="90"/>
       <c r="C164" s="59" t="s">
         <v>150</v>
       </c>
@@ -8405,7 +8447,7 @@
       <c r="W164" s="19"/>
     </row>
     <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="94"/>
+      <c r="B165" s="90"/>
       <c r="C165" s="59" t="s">
         <v>151</v>
       </c>
@@ -8442,7 +8484,7 @@
       <c r="W165" s="19"/>
     </row>
     <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="94"/>
+      <c r="B166" s="90"/>
       <c r="C166" s="59" t="s">
         <v>152</v>
       </c>
@@ -8479,7 +8521,7 @@
       <c r="W166" s="19"/>
     </row>
     <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="94"/>
+      <c r="B167" s="90"/>
       <c r="C167" s="59" t="s">
         <v>153</v>
       </c>
@@ -8516,7 +8558,7 @@
       <c r="W167" s="19"/>
     </row>
     <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="94"/>
+      <c r="B168" s="90"/>
       <c r="C168" s="59" t="s">
         <v>154</v>
       </c>
@@ -8553,7 +8595,7 @@
       <c r="W168" s="19"/>
     </row>
     <row r="169" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="95"/>
+      <c r="B169" s="91"/>
       <c r="C169" s="61" t="s">
         <v>155</v>
       </c>
@@ -8590,7 +8632,7 @@
       <c r="W169" s="25"/>
     </row>
     <row r="170" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="93" t="s">
+      <c r="B170" s="89" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="54" t="s">
@@ -8633,7 +8675,7 @@
       <c r="W170" s="52"/>
     </row>
     <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="94"/>
+      <c r="B171" s="90"/>
       <c r="C171" s="33" t="s">
         <v>137</v>
       </c>
@@ -8674,7 +8716,7 @@
       <c r="W171" s="19"/>
     </row>
     <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="94"/>
+      <c r="B172" s="90"/>
       <c r="C172" s="33" t="s">
         <v>138</v>
       </c>
@@ -8715,7 +8757,7 @@
       <c r="W172" s="19"/>
     </row>
     <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="94"/>
+      <c r="B173" s="90"/>
       <c r="C173" s="33" t="s">
         <v>146</v>
       </c>
@@ -8756,7 +8798,7 @@
       <c r="W173" s="19"/>
     </row>
     <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="94"/>
+      <c r="B174" s="90"/>
       <c r="C174" s="33" t="s">
         <v>84</v>
       </c>
@@ -8797,7 +8839,7 @@
       <c r="W174" s="19"/>
     </row>
     <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="94"/>
+      <c r="B175" s="90"/>
       <c r="C175" s="33" t="s">
         <v>85</v>
       </c>
@@ -8838,7 +8880,7 @@
       <c r="W175" s="19"/>
     </row>
     <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="94"/>
+      <c r="B176" s="90"/>
       <c r="C176" s="33" t="s">
         <v>87</v>
       </c>
@@ -8879,7 +8921,7 @@
       <c r="W176" s="19"/>
     </row>
     <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="94"/>
+      <c r="B177" s="90"/>
       <c r="C177" s="33" t="s">
         <v>86</v>
       </c>
@@ -8920,7 +8962,7 @@
       <c r="W177" s="19"/>
     </row>
     <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="94"/>
+      <c r="B178" s="90"/>
       <c r="C178" s="33" t="s">
         <v>104</v>
       </c>
@@ -8961,7 +9003,7 @@
       <c r="W178" s="19"/>
     </row>
     <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="94"/>
+      <c r="B179" s="90"/>
       <c r="C179" s="33" t="s">
         <v>136</v>
       </c>
@@ -9002,7 +9044,7 @@
       <c r="W179" s="19"/>
     </row>
     <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="94"/>
+      <c r="B180" s="90"/>
       <c r="C180" s="33" t="s">
         <v>105</v>
       </c>
@@ -9043,7 +9085,7 @@
       <c r="W180" s="19"/>
     </row>
     <row r="181" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="95"/>
+      <c r="B181" s="91"/>
       <c r="C181" s="61" t="s">
         <v>100</v>
       </c>
@@ -9084,14 +9126,14 @@
       <c r="W181" s="25"/>
     </row>
     <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="113" t="s">
+      <c r="B182" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="114"/>
-      <c r="D182" s="115"/>
-      <c r="E182" s="115"/>
-      <c r="F182" s="115"/>
-      <c r="G182" s="116"/>
+      <c r="C182" s="99"/>
+      <c r="D182" s="100"/>
+      <c r="E182" s="100"/>
+      <c r="F182" s="100"/>
+      <c r="G182" s="101"/>
       <c r="H182" s="36">
         <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
         <v>96.499999999999829</v>
@@ -9166,28 +9208,33 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="90" t="s">
+      <c r="J183" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K183" s="91"/>
-      <c r="L183" s="91"/>
-      <c r="M183" s="91"/>
-      <c r="N183" s="91"/>
-      <c r="O183" s="91"/>
-      <c r="P183" s="91"/>
-      <c r="Q183" s="91"/>
-      <c r="R183" s="91"/>
-      <c r="S183" s="91"/>
-      <c r="T183" s="91"/>
-      <c r="U183" s="91"/>
-      <c r="V183" s="91"/>
-      <c r="W183" s="92"/>
-    </row>
-    <row r="184" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="K183" s="103"/>
+      <c r="L183" s="103"/>
+      <c r="M183" s="103"/>
+      <c r="N183" s="103"/>
+      <c r="O183" s="103"/>
+      <c r="P183" s="103"/>
+      <c r="Q183" s="103"/>
+      <c r="R183" s="103"/>
+      <c r="S183" s="103"/>
+      <c r="T183" s="103"/>
+      <c r="U183" s="103"/>
+      <c r="V183" s="103"/>
+      <c r="W183" s="104"/>
+    </row>
+    <row r="184" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C184" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
@@ -9199,16 +9246,27 @@
       <c r="N184" s="3"/>
     </row>
     <row r="185" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
+      <c r="B185" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C185" s="120">
+        <f>SUM(H181,H179,H175:H176,H163:H169,H159,H155:H157,H12:H61,H10)</f>
+        <v>46.899999999999984</v>
+      </c>
+      <c r="D185" s="4">
+        <f>SUM(I10,I12,I13,I14,I15:I61,I155:I157,I159,I163:I169,I175:I176,I179,I181)</f>
+        <v>8.8533000000000008</v>
+      </c>
+      <c r="E185" s="4">
+        <f>SUM(C185,-D185)</f>
+        <v>38.046699999999987</v>
+      </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="108" t="s">
+      <c r="H185" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I185" s="109"/>
+      <c r="I185" s="93"/>
       <c r="J185" s="9">
         <f>H182-J182</f>
         <v>96.499999999999829</v>
@@ -9231,10 +9289,21 @@
       </c>
     </row>
     <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+      <c r="B186" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186" s="5">
+        <f>SUM(H160:H162,H158,H72:H147,H11,H9)</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="D186" s="5">
+        <f>SUM(I9,I11,I72:I147,I158,I160:I162)</f>
+        <v>0.77</v>
+      </c>
+      <c r="E186" s="5">
+        <f>SUM(C186,-D186)</f>
+        <v>24.430000000000003</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -9246,23 +9315,34 @@
       <c r="N186" s="3"/>
     </row>
     <row r="187" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+      <c r="B187" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C187" s="4">
+        <f>SUM(H180,H178,H177,H170:H174,H148:H154,H62:H71,H4:H8)</f>
+        <v>24.4</v>
+      </c>
+      <c r="D187" s="5">
+        <f>SUM(I180,I177:I178,I170:I174,I148:I154,I62:I71,I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="E187" s="5">
+        <f>SUM(C187,-D187)</f>
+        <v>24.4</v>
+      </c>
       <c r="F187" s="3"/>
-      <c r="H187" s="90" t="s">
+      <c r="H187" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="110"/>
-      <c r="J187" s="109">
+      <c r="I187" s="95"/>
+      <c r="J187" s="93">
         <f>H182-I182</f>
         <v>86.876699999999829</v>
       </c>
-      <c r="K187" s="109"/>
-      <c r="L187" s="109"/>
-      <c r="M187" s="109"/>
-      <c r="N187" s="111"/>
+      <c r="K187" s="93"/>
+      <c r="L187" s="93"/>
+      <c r="M187" s="93"/>
+      <c r="N187" s="96"/>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
@@ -9366,6 +9446,24 @@
     <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="C15:C54"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C81"/>
     <mergeCell ref="B163:B169"/>
     <mergeCell ref="H185:I185"/>
     <mergeCell ref="H187:I187"/>
@@ -9382,24 +9480,6 @@
     <mergeCell ref="C142:C146"/>
     <mergeCell ref="C92:C96"/>
     <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="C15:C54"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C127:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bichito\Desktop\Alex\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -491,9 +491,6 @@
     <t>Sonido bomba</t>
   </si>
   <si>
-    <t>Implementar entrada secreta (Opertura)</t>
-  </si>
-  <si>
     <t>Horas David</t>
   </si>
   <si>
@@ -510,12 +507,15 @@
   </si>
   <si>
     <t>Restantes</t>
+  </si>
+  <si>
+    <t>Implementar entrada secreta (Apertura)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1270,6 +1270,27 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,15 +1300,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,63 +1363,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,7 +1387,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1398,7 +1401,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1432,16 +1434,16 @@
                   <c:v>90.443699999999822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.876699999999829</c:v>
+                  <c:v>86.066699999999827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.876699999999829</c:v>
+                  <c:v>86.066699999999827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A091-4901-839C-4EC24FB5B5C8}"/>
             </c:ext>
@@ -1495,7 +1497,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1527,7 +1528,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1621,6 +1628,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1656,6 +1680,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1831,55 +1872,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" topLeftCell="E101" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80:W80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="57.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="94" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="95"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
@@ -1947,8 +1988,8 @@
         <v>43067</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="114" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="107" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -1990,8 +2031,8 @@
       <c r="V4" s="41"/>
       <c r="W4" s="44"/>
     </row>
-    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115"/>
+    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="108"/>
       <c r="C5" s="35" t="s">
         <v>101</v>
       </c>
@@ -2031,8 +2072,8 @@
       <c r="V5" s="17"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="115"/>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="108"/>
       <c r="C6" s="35" t="s">
         <v>102</v>
       </c>
@@ -2072,8 +2113,8 @@
       <c r="V6" s="17"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="115"/>
+    <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="108"/>
       <c r="C7" s="35" t="s">
         <v>103</v>
       </c>
@@ -2113,8 +2154,8 @@
       <c r="V7" s="17"/>
       <c r="W7" s="19"/>
     </row>
-    <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="116"/>
+    <row r="8" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="109"/>
       <c r="C8" s="45" t="s">
         <v>111</v>
       </c>
@@ -2154,8 +2195,8 @@
       <c r="V8" s="22"/>
       <c r="W8" s="25"/>
     </row>
-    <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="114" t="s">
+    <row r="9" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="107" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2197,8 +2238,8 @@
       <c r="V9" s="84"/>
       <c r="W9" s="86"/>
     </row>
-    <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="115"/>
+    <row r="10" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="108"/>
       <c r="C10" s="34" t="s">
         <v>107</v>
       </c>
@@ -2238,8 +2279,8 @@
       <c r="V10" s="17"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115"/>
+    <row r="11" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="108"/>
       <c r="C11" s="83" t="s">
         <v>112</v>
       </c>
@@ -2279,8 +2320,8 @@
       <c r="V11" s="17"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="115"/>
+    <row r="12" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="108"/>
       <c r="C12" s="83" t="s">
         <v>113</v>
       </c>
@@ -2344,8 +2385,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="116"/>
+    <row r="13" spans="1:23" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="109"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2387,8 +2428,8 @@
       <c r="V13" s="22"/>
       <c r="W13" s="25"/>
     </row>
-    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="89" t="s">
+    <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="96" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2432,9 +2473,9 @@
       <c r="V14" s="51"/>
       <c r="W14" s="52"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="108" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="97"/>
+      <c r="C15" s="101" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2479,9 +2520,9 @@
       <c r="V15" s="17"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
-      <c r="C16" s="109"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="97"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2520,9 +2561,9 @@
       <c r="V16" s="17"/>
       <c r="W16" s="19"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="109"/>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="97"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2561,9 +2602,9 @@
       <c r="V17" s="17"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
-      <c r="C18" s="109"/>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="97"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2602,9 +2643,9 @@
       <c r="V18" s="17"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="90"/>
-      <c r="C19" s="109"/>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="97"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2643,9 +2684,9 @@
       <c r="V19" s="17"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
-      <c r="C20" s="109"/>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="97"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2684,9 +2725,9 @@
       <c r="V20" s="17"/>
       <c r="W20" s="19"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
-      <c r="C21" s="109"/>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="97"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="32" t="s">
         <v>36</v>
       </c>
@@ -2725,9 +2766,9 @@
       <c r="V21" s="17"/>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
-      <c r="C22" s="109"/>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="97"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="32" t="s">
         <v>37</v>
       </c>
@@ -2766,9 +2807,9 @@
       <c r="V22" s="17"/>
       <c r="W22" s="19"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="109"/>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="97"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="32" t="s">
         <v>38</v>
       </c>
@@ -2807,9 +2848,9 @@
       <c r="V23" s="17"/>
       <c r="W23" s="19"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="90"/>
-      <c r="C24" s="109"/>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="97"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="32" t="s">
         <v>39</v>
       </c>
@@ -2848,9 +2889,9 @@
       <c r="V24" s="17"/>
       <c r="W24" s="19"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
-      <c r="C25" s="109"/>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="97"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
@@ -2889,9 +2930,9 @@
       <c r="V25" s="17"/>
       <c r="W25" s="19"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="90"/>
-      <c r="C26" s="109"/>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="97"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="32" t="s">
         <v>41</v>
       </c>
@@ -2930,9 +2971,9 @@
       <c r="V26" s="17"/>
       <c r="W26" s="19"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="90"/>
-      <c r="C27" s="109"/>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="97"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="32" t="s">
         <v>42</v>
       </c>
@@ -2971,9 +3012,9 @@
       <c r="V27" s="17"/>
       <c r="W27" s="19"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="90"/>
-      <c r="C28" s="109"/>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="97"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="32" t="s">
         <v>43</v>
       </c>
@@ -3012,9 +3053,9 @@
       <c r="V28" s="17"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="90"/>
-      <c r="C29" s="109"/>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="97"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="32" t="s">
         <v>44</v>
       </c>
@@ -3053,9 +3094,9 @@
       <c r="V29" s="17"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="90"/>
-      <c r="C30" s="109"/>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="97"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="32" t="s">
         <v>45</v>
       </c>
@@ -3094,9 +3135,9 @@
       <c r="V30" s="17"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="90"/>
-      <c r="C31" s="109"/>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="97"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="32" t="s">
         <v>46</v>
       </c>
@@ -3135,9 +3176,9 @@
       <c r="V31" s="17"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="90"/>
-      <c r="C32" s="109"/>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="97"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="32" t="s">
         <v>47</v>
       </c>
@@ -3176,9 +3217,9 @@
       <c r="V32" s="17"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
-      <c r="C33" s="109"/>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="97"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="32" t="s">
         <v>48</v>
       </c>
@@ -3217,9 +3258,9 @@
       <c r="V33" s="17"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="90"/>
-      <c r="C34" s="109"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="97"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="32" t="s">
         <v>49</v>
       </c>
@@ -3258,9 +3299,9 @@
       <c r="V34" s="17"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="90"/>
-      <c r="C35" s="109"/>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="97"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="32" t="s">
         <v>50</v>
       </c>
@@ -3299,9 +3340,9 @@
       <c r="V35" s="17"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="90"/>
-      <c r="C36" s="109"/>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="97"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
@@ -3340,9 +3381,9 @@
       <c r="V36" s="17"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="90"/>
-      <c r="C37" s="109"/>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="97"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="32" t="s">
         <v>52</v>
       </c>
@@ -3381,9 +3422,9 @@
       <c r="V37" s="17"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="90"/>
-      <c r="C38" s="109"/>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="97"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="32" t="s">
         <v>53</v>
       </c>
@@ -3422,9 +3463,9 @@
       <c r="V38" s="17"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="90"/>
-      <c r="C39" s="109"/>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="97"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="32" t="s">
         <v>54</v>
       </c>
@@ -3463,9 +3504,9 @@
       <c r="V39" s="17"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="90"/>
-      <c r="C40" s="109"/>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="97"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="32" t="s">
         <v>55</v>
       </c>
@@ -3504,9 +3545,9 @@
       <c r="V40" s="17"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="90"/>
-      <c r="C41" s="109"/>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="97"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="32" t="s">
         <v>56</v>
       </c>
@@ -3545,9 +3586,9 @@
       <c r="V41" s="17"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="90"/>
-      <c r="C42" s="109"/>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="97"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="32" t="s">
         <v>57</v>
       </c>
@@ -3586,9 +3627,9 @@
       <c r="V42" s="17"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
-      <c r="C43" s="109"/>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="97"/>
+      <c r="C43" s="102"/>
       <c r="D43" s="32" t="s">
         <v>58</v>
       </c>
@@ -3627,9 +3668,9 @@
       <c r="V43" s="17"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
-      <c r="C44" s="109"/>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="97"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="32" t="s">
         <v>59</v>
       </c>
@@ -3668,9 +3709,9 @@
       <c r="V44" s="17"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="109"/>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="97"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="32" t="s">
         <v>60</v>
       </c>
@@ -3709,9 +3750,9 @@
       <c r="V45" s="17"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
-      <c r="C46" s="109"/>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="97"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="32" t="s">
         <v>61</v>
       </c>
@@ -3750,9 +3791,9 @@
       <c r="V46" s="17"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="90"/>
-      <c r="C47" s="109"/>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="97"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="32" t="s">
         <v>62</v>
       </c>
@@ -3791,9 +3832,9 @@
       <c r="V47" s="17"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="90"/>
-      <c r="C48" s="109"/>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="97"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="32" t="s">
         <v>63</v>
       </c>
@@ -3832,9 +3873,9 @@
       <c r="V48" s="17"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="90"/>
-      <c r="C49" s="109"/>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="97"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="32" t="s">
         <v>64</v>
       </c>
@@ -3873,9 +3914,9 @@
       <c r="V49" s="17"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="90"/>
-      <c r="C50" s="109"/>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="97"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="32" t="s">
         <v>65</v>
       </c>
@@ -3914,9 +3955,9 @@
       <c r="V50" s="17"/>
       <c r="W50" s="19"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="90"/>
-      <c r="C51" s="109"/>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="97"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="32" t="s">
         <v>66</v>
       </c>
@@ -3955,9 +3996,9 @@
       <c r="V51" s="17"/>
       <c r="W51" s="19"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="90"/>
-      <c r="C52" s="109"/>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="97"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="32" t="s">
         <v>67</v>
       </c>
@@ -3996,9 +4037,9 @@
       <c r="V52" s="17"/>
       <c r="W52" s="19"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="90"/>
-      <c r="C53" s="109"/>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="97"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="32" t="s">
         <v>68</v>
       </c>
@@ -4037,9 +4078,9 @@
       <c r="V53" s="17"/>
       <c r="W53" s="19"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="90"/>
-      <c r="C54" s="110"/>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="97"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="32" t="s">
         <v>69</v>
       </c>
@@ -4078,9 +4119,9 @@
       <c r="V54" s="17"/>
       <c r="W54" s="19"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="90"/>
-      <c r="C55" s="106" t="s">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="97"/>
+      <c r="C55" s="99" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="29" t="s">
@@ -4121,9 +4162,9 @@
       <c r="V55" s="17"/>
       <c r="W55" s="19"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="90"/>
-      <c r="C56" s="107"/>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="97"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="29" t="s">
         <v>29</v>
       </c>
@@ -4162,9 +4203,9 @@
       <c r="V56" s="17"/>
       <c r="W56" s="19"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="90"/>
-      <c r="C57" s="107"/>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="97"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="29" t="s">
         <v>30</v>
       </c>
@@ -4203,9 +4244,9 @@
       <c r="V57" s="17"/>
       <c r="W57" s="19"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="90"/>
-      <c r="C58" s="107"/>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="97"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="29" t="s">
         <v>31</v>
       </c>
@@ -4244,9 +4285,9 @@
       <c r="V58" s="17"/>
       <c r="W58" s="19"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="90"/>
-      <c r="C59" s="107"/>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="97"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
@@ -4285,9 +4326,9 @@
       <c r="V59" s="17"/>
       <c r="W59" s="19"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="90"/>
-      <c r="C60" s="107"/>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="97"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="29" t="s">
         <v>32</v>
       </c>
@@ -4326,9 +4367,9 @@
       <c r="V60" s="17"/>
       <c r="W60" s="19"/>
     </row>
-    <row r="61" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="97"/>
-      <c r="C61" s="107"/>
+    <row r="61" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="115"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="62" t="s">
         <v>33</v>
       </c>
@@ -4367,11 +4408,11 @@
       <c r="V61" s="26"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B62" s="89" t="s">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="111" t="s">
+      <c r="C62" s="104" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="39" t="s">
@@ -4412,9 +4453,9 @@
       <c r="V62" s="51"/>
       <c r="W62" s="52"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="90"/>
-      <c r="C63" s="112"/>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="97"/>
+      <c r="C63" s="105"/>
       <c r="D63" s="4" t="s">
         <v>71</v>
       </c>
@@ -4453,9 +4494,9 @@
       <c r="V63" s="17"/>
       <c r="W63" s="19"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="90"/>
-      <c r="C64" s="112"/>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="97"/>
+      <c r="C64" s="105"/>
       <c r="D64" s="4" t="s">
         <v>72</v>
       </c>
@@ -4494,9 +4535,9 @@
       <c r="V64" s="17"/>
       <c r="W64" s="19"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="90"/>
-      <c r="C65" s="112"/>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" s="97"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="29" t="s">
         <v>76</v>
       </c>
@@ -4535,8 +4576,8 @@
       <c r="V65" s="17"/>
       <c r="W65" s="19"/>
     </row>
-    <row r="66" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B66" s="90"/>
+    <row r="66" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="97"/>
       <c r="C66" s="33" t="s">
         <v>73</v>
       </c>
@@ -4576,8 +4617,8 @@
       <c r="V66" s="17"/>
       <c r="W66" s="19"/>
     </row>
-    <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="90"/>
+    <row r="67" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="97"/>
       <c r="C67" s="33" t="s">
         <v>81</v>
       </c>
@@ -4617,9 +4658,9 @@
       <c r="V67" s="17"/>
       <c r="W67" s="19"/>
     </row>
-    <row r="68" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="90"/>
-      <c r="C68" s="112" t="s">
+    <row r="68" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="97"/>
+      <c r="C68" s="105" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -4660,9 +4701,9 @@
       <c r="V68" s="17"/>
       <c r="W68" s="19"/>
     </row>
-    <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="90"/>
-      <c r="C69" s="112"/>
+    <row r="69" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="97"/>
+      <c r="C69" s="105"/>
       <c r="D69" s="4" t="s">
         <v>75</v>
       </c>
@@ -4701,9 +4742,9 @@
       <c r="V69" s="17"/>
       <c r="W69" s="19"/>
     </row>
-    <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="90"/>
-      <c r="C70" s="112"/>
+    <row r="70" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="97"/>
+      <c r="C70" s="105"/>
       <c r="D70" s="4" t="s">
         <v>77</v>
       </c>
@@ -4742,9 +4783,9 @@
       <c r="V70" s="17"/>
       <c r="W70" s="19"/>
     </row>
-    <row r="71" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="91"/>
-      <c r="C71" s="113"/>
+    <row r="71" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="98"/>
+      <c r="C71" s="106"/>
       <c r="D71" s="24" t="s">
         <v>78</v>
       </c>
@@ -4783,11 +4824,11 @@
       <c r="V71" s="22"/>
       <c r="W71" s="25"/>
     </row>
-    <row r="72" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="89" t="s">
+    <row r="72" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="117" t="s">
+      <c r="C72" s="110" t="s">
         <v>117</v>
       </c>
       <c r="D72" s="39" t="s">
@@ -4828,9 +4869,9 @@
       <c r="V72" s="51"/>
       <c r="W72" s="52"/>
     </row>
-    <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="90"/>
-      <c r="C73" s="102"/>
+    <row r="73" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="97"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="4" t="s">
         <v>133</v>
       </c>
@@ -4869,11 +4910,11 @@
       <c r="V73" s="17"/>
       <c r="W73" s="19"/>
     </row>
-    <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="90"/>
-      <c r="C74" s="102"/>
+    <row r="74" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="97"/>
+      <c r="C74" s="92"/>
       <c r="D74" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="64"/>
@@ -4898,9 +4939,9 @@
       <c r="V74" s="17"/>
       <c r="W74" s="19"/>
     </row>
-    <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="90"/>
-      <c r="C75" s="102"/>
+    <row r="75" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="97"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="4" t="s">
         <v>134</v>
       </c>
@@ -4926,22 +4967,22 @@
       <c r="K75" s="88">
         <v>0.67</v>
       </c>
-      <c r="L75" s="70"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="19"/>
-    </row>
-    <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="90"/>
-      <c r="C76" s="102"/>
+      <c r="L75" s="80"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="121"/>
+      <c r="P75" s="122"/>
+      <c r="Q75" s="121"/>
+      <c r="R75" s="121"/>
+      <c r="S75" s="121"/>
+      <c r="T75" s="121"/>
+      <c r="U75" s="121"/>
+      <c r="V75" s="121"/>
+      <c r="W75" s="123"/>
+    </row>
+    <row r="76" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="97"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="4" t="s">
         <v>135</v>
       </c>
@@ -4980,9 +5021,9 @@
       <c r="V76" s="17"/>
       <c r="W76" s="19"/>
     </row>
-    <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="90"/>
-      <c r="C77" s="102" t="s">
+    <row r="77" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="97"/>
+      <c r="C77" s="92" t="s">
         <v>118</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -5023,9 +5064,9 @@
       <c r="V77" s="17"/>
       <c r="W77" s="19"/>
     </row>
-    <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="90"/>
-      <c r="C78" s="102"/>
+    <row r="78" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="97"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="4" t="s">
         <v>133</v>
       </c>
@@ -5064,11 +5105,11 @@
       <c r="V78" s="17"/>
       <c r="W78" s="19"/>
     </row>
-    <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="90"/>
-      <c r="C79" s="102"/>
+    <row r="79" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="97"/>
+      <c r="C79" s="92"/>
       <c r="D79" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="64"/>
@@ -5093,9 +5134,9 @@
       <c r="V79" s="17"/>
       <c r="W79" s="19"/>
     </row>
-    <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="90"/>
-      <c r="C80" s="102"/>
+    <row r="80" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="97"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="4" t="s">
         <v>134</v>
       </c>
@@ -5113,7 +5154,7 @@
       </c>
       <c r="I80" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J80" s="70">
         <v>0</v>
@@ -5122,21 +5163,23 @@
         <v>0</v>
       </c>
       <c r="L80" s="70"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="19"/>
-    </row>
-    <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="90"/>
-      <c r="C81" s="102"/>
+      <c r="M80" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="N80" s="80"/>
+      <c r="O80" s="121"/>
+      <c r="P80" s="122"/>
+      <c r="Q80" s="121"/>
+      <c r="R80" s="121"/>
+      <c r="S80" s="121"/>
+      <c r="T80" s="121"/>
+      <c r="U80" s="121"/>
+      <c r="V80" s="121"/>
+      <c r="W80" s="123"/>
+    </row>
+    <row r="81" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="97"/>
+      <c r="C81" s="92"/>
       <c r="D81" s="4" t="s">
         <v>135</v>
       </c>
@@ -5175,9 +5218,9 @@
       <c r="V81" s="17"/>
       <c r="W81" s="19"/>
     </row>
-    <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="90"/>
-      <c r="C82" s="102" t="s">
+    <row r="82" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="97"/>
+      <c r="C82" s="92" t="s">
         <v>119</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -5218,9 +5261,9 @@
       <c r="V82" s="17"/>
       <c r="W82" s="19"/>
     </row>
-    <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="90"/>
-      <c r="C83" s="102"/>
+    <row r="83" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="97"/>
+      <c r="C83" s="92"/>
       <c r="D83" s="4" t="s">
         <v>133</v>
       </c>
@@ -5259,11 +5302,11 @@
       <c r="V83" s="17"/>
       <c r="W83" s="19"/>
     </row>
-    <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="90"/>
-      <c r="C84" s="102"/>
+    <row r="84" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="97"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="64"/>
@@ -5288,9 +5331,9 @@
       <c r="V84" s="17"/>
       <c r="W84" s="19"/>
     </row>
-    <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="90"/>
-      <c r="C85" s="102"/>
+    <row r="85" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="97"/>
+      <c r="C85" s="92"/>
       <c r="D85" s="4" t="s">
         <v>134</v>
       </c>
@@ -5308,7 +5351,7 @@
       </c>
       <c r="I85" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J85" s="70">
         <v>0</v>
@@ -5317,21 +5360,23 @@
         <v>0</v>
       </c>
       <c r="L85" s="70"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="19"/>
-    </row>
-    <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="90"/>
-      <c r="C86" s="102"/>
+      <c r="M85" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N85" s="80"/>
+      <c r="O85" s="121"/>
+      <c r="P85" s="122"/>
+      <c r="Q85" s="121"/>
+      <c r="R85" s="121"/>
+      <c r="S85" s="121"/>
+      <c r="T85" s="121"/>
+      <c r="U85" s="121"/>
+      <c r="V85" s="121"/>
+      <c r="W85" s="123"/>
+    </row>
+    <row r="86" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="97"/>
+      <c r="C86" s="92"/>
       <c r="D86" s="4" t="s">
         <v>135</v>
       </c>
@@ -5370,9 +5415,9 @@
       <c r="V86" s="17"/>
       <c r="W86" s="19"/>
     </row>
-    <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="90"/>
-      <c r="C87" s="102" t="s">
+    <row r="87" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="97"/>
+      <c r="C87" s="92" t="s">
         <v>120</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -5413,9 +5458,9 @@
       <c r="V87" s="17"/>
       <c r="W87" s="19"/>
     </row>
-    <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="90"/>
-      <c r="C88" s="102"/>
+    <row r="88" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="97"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="4" t="s">
         <v>133</v>
       </c>
@@ -5454,11 +5499,11 @@
       <c r="V88" s="17"/>
       <c r="W88" s="19"/>
     </row>
-    <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="90"/>
-      <c r="C89" s="102"/>
+    <row r="89" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="97"/>
+      <c r="C89" s="92"/>
       <c r="D89" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="64"/>
@@ -5483,9 +5528,9 @@
       <c r="V89" s="17"/>
       <c r="W89" s="19"/>
     </row>
-    <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="90"/>
-      <c r="C90" s="102"/>
+    <row r="90" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="97"/>
+      <c r="C90" s="92"/>
       <c r="D90" s="4" t="s">
         <v>134</v>
       </c>
@@ -5503,7 +5548,7 @@
       </c>
       <c r="I90" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J90" s="70">
         <v>0</v>
@@ -5512,21 +5557,23 @@
         <v>0</v>
       </c>
       <c r="L90" s="70"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="19"/>
-    </row>
-    <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="90"/>
-      <c r="C91" s="102"/>
+      <c r="M90" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N90" s="80"/>
+      <c r="O90" s="121"/>
+      <c r="P90" s="122"/>
+      <c r="Q90" s="121"/>
+      <c r="R90" s="121"/>
+      <c r="S90" s="121"/>
+      <c r="T90" s="121"/>
+      <c r="U90" s="121"/>
+      <c r="V90" s="121"/>
+      <c r="W90" s="123"/>
+    </row>
+    <row r="91" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="97"/>
+      <c r="C91" s="92"/>
       <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5565,9 +5612,9 @@
       <c r="V91" s="17"/>
       <c r="W91" s="19"/>
     </row>
-    <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="90"/>
-      <c r="C92" s="102" t="s">
+    <row r="92" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="97"/>
+      <c r="C92" s="92" t="s">
         <v>121</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -5608,9 +5655,9 @@
       <c r="V92" s="17"/>
       <c r="W92" s="19"/>
     </row>
-    <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="90"/>
-      <c r="C93" s="102"/>
+    <row r="93" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="97"/>
+      <c r="C93" s="92"/>
       <c r="D93" s="4" t="s">
         <v>133</v>
       </c>
@@ -5649,11 +5696,11 @@
       <c r="V93" s="17"/>
       <c r="W93" s="19"/>
     </row>
-    <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="90"/>
-      <c r="C94" s="102"/>
+    <row r="94" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="97"/>
+      <c r="C94" s="92"/>
       <c r="D94" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="64"/>
@@ -5678,9 +5725,9 @@
       <c r="V94" s="17"/>
       <c r="W94" s="19"/>
     </row>
-    <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="90"/>
-      <c r="C95" s="102"/>
+    <row r="95" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="97"/>
+      <c r="C95" s="92"/>
       <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
@@ -5698,7 +5745,7 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J95" s="70">
         <v>0</v>
@@ -5707,21 +5754,23 @@
         <v>0</v>
       </c>
       <c r="L95" s="70"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="19"/>
-    </row>
-    <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="90"/>
-      <c r="C96" s="102"/>
+      <c r="M95" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N95" s="80"/>
+      <c r="O95" s="121"/>
+      <c r="P95" s="122"/>
+      <c r="Q95" s="121"/>
+      <c r="R95" s="121"/>
+      <c r="S95" s="121"/>
+      <c r="T95" s="121"/>
+      <c r="U95" s="121"/>
+      <c r="V95" s="121"/>
+      <c r="W95" s="123"/>
+    </row>
+    <row r="96" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="97"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
@@ -5760,9 +5809,9 @@
       <c r="V96" s="17"/>
       <c r="W96" s="19"/>
     </row>
-    <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="90"/>
-      <c r="C97" s="102" t="s">
+    <row r="97" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="97"/>
+      <c r="C97" s="92" t="s">
         <v>122</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -5803,9 +5852,9 @@
       <c r="V97" s="17"/>
       <c r="W97" s="19"/>
     </row>
-    <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="90"/>
-      <c r="C98" s="102"/>
+    <row r="98" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="97"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="4" t="s">
         <v>133</v>
       </c>
@@ -5844,11 +5893,11 @@
       <c r="V98" s="17"/>
       <c r="W98" s="19"/>
     </row>
-    <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="90"/>
-      <c r="C99" s="102"/>
+    <row r="99" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="97"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="64"/>
@@ -5873,9 +5922,9 @@
       <c r="V99" s="17"/>
       <c r="W99" s="19"/>
     </row>
-    <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="90"/>
-      <c r="C100" s="102"/>
+    <row r="100" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="97"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="4" t="s">
         <v>134</v>
       </c>
@@ -5893,7 +5942,7 @@
       </c>
       <c r="I100" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J100" s="70">
         <v>0</v>
@@ -5902,21 +5951,23 @@
         <v>0</v>
       </c>
       <c r="L100" s="70"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="19"/>
-    </row>
-    <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="90"/>
-      <c r="C101" s="102"/>
+      <c r="M100" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N100" s="80"/>
+      <c r="O100" s="121"/>
+      <c r="P100" s="122"/>
+      <c r="Q100" s="121"/>
+      <c r="R100" s="121"/>
+      <c r="S100" s="121"/>
+      <c r="T100" s="121"/>
+      <c r="U100" s="121"/>
+      <c r="V100" s="121"/>
+      <c r="W100" s="123"/>
+    </row>
+    <row r="101" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="97"/>
+      <c r="C101" s="92"/>
       <c r="D101" s="4" t="s">
         <v>135</v>
       </c>
@@ -5955,9 +6006,9 @@
       <c r="V101" s="17"/>
       <c r="W101" s="19"/>
     </row>
-    <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="90"/>
-      <c r="C102" s="102" t="s">
+    <row r="102" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="97"/>
+      <c r="C102" s="92" t="s">
         <v>123</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -5998,9 +6049,9 @@
       <c r="V102" s="17"/>
       <c r="W102" s="19"/>
     </row>
-    <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="90"/>
-      <c r="C103" s="102"/>
+    <row r="103" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="97"/>
+      <c r="C103" s="92"/>
       <c r="D103" s="4" t="s">
         <v>133</v>
       </c>
@@ -6039,11 +6090,11 @@
       <c r="V103" s="17"/>
       <c r="W103" s="19"/>
     </row>
-    <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="90"/>
-      <c r="C104" s="102"/>
+    <row r="104" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="97"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="64"/>
@@ -6068,9 +6119,9 @@
       <c r="V104" s="17"/>
       <c r="W104" s="19"/>
     </row>
-    <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="90"/>
-      <c r="C105" s="102"/>
+    <row r="105" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="97"/>
+      <c r="C105" s="92"/>
       <c r="D105" s="4" t="s">
         <v>134</v>
       </c>
@@ -6088,7 +6139,7 @@
       </c>
       <c r="I105" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J105" s="70">
         <v>0</v>
@@ -6097,21 +6148,23 @@
         <v>0</v>
       </c>
       <c r="L105" s="70"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="19"/>
-    </row>
-    <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="90"/>
-      <c r="C106" s="102"/>
+      <c r="M105" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N105" s="80"/>
+      <c r="O105" s="121"/>
+      <c r="P105" s="122"/>
+      <c r="Q105" s="121"/>
+      <c r="R105" s="121"/>
+      <c r="S105" s="121"/>
+      <c r="T105" s="121"/>
+      <c r="U105" s="121"/>
+      <c r="V105" s="121"/>
+      <c r="W105" s="123"/>
+    </row>
+    <row r="106" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="97"/>
+      <c r="C106" s="92"/>
       <c r="D106" s="4" t="s">
         <v>135</v>
       </c>
@@ -6150,9 +6203,9 @@
       <c r="V106" s="17"/>
       <c r="W106" s="19"/>
     </row>
-    <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="90"/>
-      <c r="C107" s="102" t="s">
+    <row r="107" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="97"/>
+      <c r="C107" s="92" t="s">
         <v>124</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -6193,9 +6246,9 @@
       <c r="V107" s="17"/>
       <c r="W107" s="19"/>
     </row>
-    <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="90"/>
-      <c r="C108" s="102"/>
+    <row r="108" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="97"/>
+      <c r="C108" s="92"/>
       <c r="D108" s="4" t="s">
         <v>133</v>
       </c>
@@ -6234,11 +6287,11 @@
       <c r="V108" s="17"/>
       <c r="W108" s="19"/>
     </row>
-    <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="90"/>
-      <c r="C109" s="102"/>
+    <row r="109" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="97"/>
+      <c r="C109" s="92"/>
       <c r="D109" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="64"/>
@@ -6263,9 +6316,9 @@
       <c r="V109" s="17"/>
       <c r="W109" s="19"/>
     </row>
-    <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="90"/>
-      <c r="C110" s="102"/>
+    <row r="110" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="97"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="4" t="s">
         <v>134</v>
       </c>
@@ -6283,7 +6336,7 @@
       </c>
       <c r="I110" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J110" s="70">
         <v>0</v>
@@ -6292,21 +6345,23 @@
         <v>0</v>
       </c>
       <c r="L110" s="70"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="19"/>
-    </row>
-    <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="90"/>
-      <c r="C111" s="102"/>
+      <c r="M110" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N110" s="80"/>
+      <c r="O110" s="121"/>
+      <c r="P110" s="122"/>
+      <c r="Q110" s="121"/>
+      <c r="R110" s="121"/>
+      <c r="S110" s="121"/>
+      <c r="T110" s="121"/>
+      <c r="U110" s="121"/>
+      <c r="V110" s="121"/>
+      <c r="W110" s="123"/>
+    </row>
+    <row r="111" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="97"/>
+      <c r="C111" s="92"/>
       <c r="D111" s="4" t="s">
         <v>135</v>
       </c>
@@ -6345,9 +6400,9 @@
       <c r="V111" s="17"/>
       <c r="W111" s="19"/>
     </row>
-    <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="90"/>
-      <c r="C112" s="102" t="s">
+    <row r="112" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="97"/>
+      <c r="C112" s="92" t="s">
         <v>125</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -6388,9 +6443,9 @@
       <c r="V112" s="17"/>
       <c r="W112" s="19"/>
     </row>
-    <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="90"/>
-      <c r="C113" s="102"/>
+    <row r="113" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="97"/>
+      <c r="C113" s="92"/>
       <c r="D113" s="4" t="s">
         <v>133</v>
       </c>
@@ -6429,11 +6484,11 @@
       <c r="V113" s="17"/>
       <c r="W113" s="19"/>
     </row>
-    <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="90"/>
-      <c r="C114" s="102"/>
+    <row r="114" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="97"/>
+      <c r="C114" s="92"/>
       <c r="D114" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="64"/>
@@ -6458,9 +6513,9 @@
       <c r="V114" s="17"/>
       <c r="W114" s="19"/>
     </row>
-    <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="90"/>
-      <c r="C115" s="102"/>
+    <row r="115" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="97"/>
+      <c r="C115" s="92"/>
       <c r="D115" s="4" t="s">
         <v>134</v>
       </c>
@@ -6478,7 +6533,7 @@
       </c>
       <c r="I115" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J115" s="70">
         <v>0</v>
@@ -6487,21 +6542,23 @@
         <v>0</v>
       </c>
       <c r="L115" s="70"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="17"/>
-      <c r="R115" s="17"/>
-      <c r="S115" s="17"/>
-      <c r="T115" s="17"/>
-      <c r="U115" s="17"/>
-      <c r="V115" s="17"/>
-      <c r="W115" s="19"/>
-    </row>
-    <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="90"/>
-      <c r="C116" s="102"/>
+      <c r="M115" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N115" s="80"/>
+      <c r="O115" s="121"/>
+      <c r="P115" s="122"/>
+      <c r="Q115" s="121"/>
+      <c r="R115" s="121"/>
+      <c r="S115" s="121"/>
+      <c r="T115" s="121"/>
+      <c r="U115" s="121"/>
+      <c r="V115" s="121"/>
+      <c r="W115" s="123"/>
+    </row>
+    <row r="116" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="97"/>
+      <c r="C116" s="92"/>
       <c r="D116" s="4" t="s">
         <v>135</v>
       </c>
@@ -6540,9 +6597,9 @@
       <c r="V116" s="17"/>
       <c r="W116" s="19"/>
     </row>
-    <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="90"/>
-      <c r="C117" s="102" t="s">
+    <row r="117" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="97"/>
+      <c r="C117" s="92" t="s">
         <v>126</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -6583,9 +6640,9 @@
       <c r="V117" s="17"/>
       <c r="W117" s="19"/>
     </row>
-    <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="90"/>
-      <c r="C118" s="102"/>
+    <row r="118" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="97"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="4" t="s">
         <v>133</v>
       </c>
@@ -6624,11 +6681,11 @@
       <c r="V118" s="17"/>
       <c r="W118" s="19"/>
     </row>
-    <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="90"/>
-      <c r="C119" s="102"/>
+    <row r="119" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="97"/>
+      <c r="C119" s="92"/>
       <c r="D119" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="64"/>
@@ -6653,9 +6710,9 @@
       <c r="V119" s="17"/>
       <c r="W119" s="19"/>
     </row>
-    <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="90"/>
-      <c r="C120" s="102"/>
+    <row r="120" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="97"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="4" t="s">
         <v>134</v>
       </c>
@@ -6673,7 +6730,7 @@
       </c>
       <c r="I120" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J120" s="70">
         <v>0</v>
@@ -6682,21 +6739,23 @@
         <v>0</v>
       </c>
       <c r="L120" s="70"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="17"/>
-      <c r="R120" s="17"/>
-      <c r="S120" s="17"/>
-      <c r="T120" s="17"/>
-      <c r="U120" s="17"/>
-      <c r="V120" s="17"/>
-      <c r="W120" s="19"/>
-    </row>
-    <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="90"/>
-      <c r="C121" s="102"/>
+      <c r="M120" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N120" s="80"/>
+      <c r="O120" s="121"/>
+      <c r="P120" s="122"/>
+      <c r="Q120" s="121"/>
+      <c r="R120" s="121"/>
+      <c r="S120" s="121"/>
+      <c r="T120" s="121"/>
+      <c r="U120" s="121"/>
+      <c r="V120" s="121"/>
+      <c r="W120" s="123"/>
+    </row>
+    <row r="121" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="97"/>
+      <c r="C121" s="92"/>
       <c r="D121" s="4" t="s">
         <v>135</v>
       </c>
@@ -6735,9 +6794,9 @@
       <c r="V121" s="17"/>
       <c r="W121" s="19"/>
     </row>
-    <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="90"/>
-      <c r="C122" s="102" t="s">
+    <row r="122" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="97"/>
+      <c r="C122" s="92" t="s">
         <v>127</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -6778,9 +6837,9 @@
       <c r="V122" s="17"/>
       <c r="W122" s="19"/>
     </row>
-    <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="90"/>
-      <c r="C123" s="102"/>
+    <row r="123" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="97"/>
+      <c r="C123" s="92"/>
       <c r="D123" s="4" t="s">
         <v>133</v>
       </c>
@@ -6819,11 +6878,11 @@
       <c r="V123" s="17"/>
       <c r="W123" s="19"/>
     </row>
-    <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="90"/>
-      <c r="C124" s="102"/>
+    <row r="124" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="97"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="64"/>
@@ -6848,9 +6907,9 @@
       <c r="V124" s="17"/>
       <c r="W124" s="19"/>
     </row>
-    <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="90"/>
-      <c r="C125" s="102"/>
+    <row r="125" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="97"/>
+      <c r="C125" s="92"/>
       <c r="D125" s="4" t="s">
         <v>134</v>
       </c>
@@ -6868,7 +6927,7 @@
       </c>
       <c r="I125" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J125" s="70">
         <v>0</v>
@@ -6877,21 +6936,23 @@
         <v>0</v>
       </c>
       <c r="L125" s="70"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="17"/>
-      <c r="R125" s="17"/>
-      <c r="S125" s="17"/>
-      <c r="T125" s="17"/>
-      <c r="U125" s="17"/>
-      <c r="V125" s="17"/>
-      <c r="W125" s="19"/>
-    </row>
-    <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="90"/>
-      <c r="C126" s="102"/>
+      <c r="M125" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N125" s="80"/>
+      <c r="O125" s="121"/>
+      <c r="P125" s="122"/>
+      <c r="Q125" s="121"/>
+      <c r="R125" s="121"/>
+      <c r="S125" s="121"/>
+      <c r="T125" s="121"/>
+      <c r="U125" s="121"/>
+      <c r="V125" s="121"/>
+      <c r="W125" s="123"/>
+    </row>
+    <row r="126" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="97"/>
+      <c r="C126" s="92"/>
       <c r="D126" s="4" t="s">
         <v>135</v>
       </c>
@@ -6930,9 +6991,9 @@
       <c r="V126" s="17"/>
       <c r="W126" s="19"/>
     </row>
-    <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="90"/>
-      <c r="C127" s="102" t="s">
+    <row r="127" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="97"/>
+      <c r="C127" s="92" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -6973,9 +7034,9 @@
       <c r="V127" s="17"/>
       <c r="W127" s="19"/>
     </row>
-    <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="90"/>
-      <c r="C128" s="102"/>
+    <row r="128" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="97"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="4" t="s">
         <v>133</v>
       </c>
@@ -7014,11 +7075,11 @@
       <c r="V128" s="17"/>
       <c r="W128" s="19"/>
     </row>
-    <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="90"/>
-      <c r="C129" s="102"/>
+    <row r="129" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="97"/>
+      <c r="C129" s="92"/>
       <c r="D129" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="64"/>
@@ -7043,9 +7104,9 @@
       <c r="V129" s="17"/>
       <c r="W129" s="19"/>
     </row>
-    <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="90"/>
-      <c r="C130" s="102"/>
+    <row r="130" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="97"/>
+      <c r="C130" s="92"/>
       <c r="D130" s="4" t="s">
         <v>134</v>
       </c>
@@ -7063,7 +7124,7 @@
       </c>
       <c r="I130" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J130" s="70">
         <v>0</v>
@@ -7072,21 +7133,23 @@
         <v>0</v>
       </c>
       <c r="L130" s="70"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="17"/>
-      <c r="R130" s="17"/>
-      <c r="S130" s="17"/>
-      <c r="T130" s="17"/>
-      <c r="U130" s="17"/>
-      <c r="V130" s="17"/>
-      <c r="W130" s="19"/>
-    </row>
-    <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="90"/>
-      <c r="C131" s="102"/>
+      <c r="M130" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N130" s="80"/>
+      <c r="O130" s="121"/>
+      <c r="P130" s="122"/>
+      <c r="Q130" s="121"/>
+      <c r="R130" s="121"/>
+      <c r="S130" s="121"/>
+      <c r="T130" s="121"/>
+      <c r="U130" s="121"/>
+      <c r="V130" s="121"/>
+      <c r="W130" s="123"/>
+    </row>
+    <row r="131" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="97"/>
+      <c r="C131" s="92"/>
       <c r="D131" s="4" t="s">
         <v>135</v>
       </c>
@@ -7125,9 +7188,9 @@
       <c r="V131" s="17"/>
       <c r="W131" s="19"/>
     </row>
-    <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="90"/>
-      <c r="C132" s="102" t="s">
+    <row r="132" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="97"/>
+      <c r="C132" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -7168,9 +7231,9 @@
       <c r="V132" s="17"/>
       <c r="W132" s="19"/>
     </row>
-    <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="90"/>
-      <c r="C133" s="102"/>
+    <row r="133" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="97"/>
+      <c r="C133" s="92"/>
       <c r="D133" s="4" t="s">
         <v>133</v>
       </c>
@@ -7209,11 +7272,11 @@
       <c r="V133" s="17"/>
       <c r="W133" s="19"/>
     </row>
-    <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="90"/>
-      <c r="C134" s="102"/>
+    <row r="134" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="97"/>
+      <c r="C134" s="92"/>
       <c r="D134" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="64"/>
@@ -7238,9 +7301,9 @@
       <c r="V134" s="17"/>
       <c r="W134" s="19"/>
     </row>
-    <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="90"/>
-      <c r="C135" s="102"/>
+    <row r="135" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="97"/>
+      <c r="C135" s="92"/>
       <c r="D135" s="4" t="s">
         <v>134</v>
       </c>
@@ -7258,7 +7321,7 @@
       </c>
       <c r="I135" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J135" s="70">
         <v>0</v>
@@ -7267,21 +7330,23 @@
         <v>0</v>
       </c>
       <c r="L135" s="70"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="16"/>
-      <c r="Q135" s="17"/>
-      <c r="R135" s="17"/>
-      <c r="S135" s="17"/>
-      <c r="T135" s="17"/>
-      <c r="U135" s="17"/>
-      <c r="V135" s="17"/>
-      <c r="W135" s="19"/>
-    </row>
-    <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="90"/>
-      <c r="C136" s="102"/>
+      <c r="M135" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N135" s="80"/>
+      <c r="O135" s="121"/>
+      <c r="P135" s="122"/>
+      <c r="Q135" s="121"/>
+      <c r="R135" s="121"/>
+      <c r="S135" s="121"/>
+      <c r="T135" s="121"/>
+      <c r="U135" s="121"/>
+      <c r="V135" s="121"/>
+      <c r="W135" s="123"/>
+    </row>
+    <row r="136" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="97"/>
+      <c r="C136" s="92"/>
       <c r="D136" s="4" t="s">
         <v>135</v>
       </c>
@@ -7320,9 +7385,9 @@
       <c r="V136" s="17"/>
       <c r="W136" s="19"/>
     </row>
-    <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="90"/>
-      <c r="C137" s="102" t="s">
+    <row r="137" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="97"/>
+      <c r="C137" s="92" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -7363,9 +7428,9 @@
       <c r="V137" s="17"/>
       <c r="W137" s="19"/>
     </row>
-    <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="90"/>
-      <c r="C138" s="102"/>
+    <row r="138" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="97"/>
+      <c r="C138" s="92"/>
       <c r="D138" s="4" t="s">
         <v>133</v>
       </c>
@@ -7404,11 +7469,11 @@
       <c r="V138" s="17"/>
       <c r="W138" s="19"/>
     </row>
-    <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="90"/>
-      <c r="C139" s="102"/>
+    <row r="139" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="97"/>
+      <c r="C139" s="92"/>
       <c r="D139" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="64"/>
@@ -7433,9 +7498,9 @@
       <c r="V139" s="17"/>
       <c r="W139" s="19"/>
     </row>
-    <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="90"/>
-      <c r="C140" s="102"/>
+    <row r="140" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="97"/>
+      <c r="C140" s="92"/>
       <c r="D140" s="4" t="s">
         <v>134</v>
       </c>
@@ -7453,7 +7518,7 @@
       </c>
       <c r="I140" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J140" s="70">
         <v>0</v>
@@ -7462,21 +7527,23 @@
         <v>0</v>
       </c>
       <c r="L140" s="70"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="16"/>
-      <c r="Q140" s="17"/>
-      <c r="R140" s="17"/>
-      <c r="S140" s="17"/>
-      <c r="T140" s="17"/>
-      <c r="U140" s="17"/>
-      <c r="V140" s="17"/>
-      <c r="W140" s="19"/>
-    </row>
-    <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="90"/>
-      <c r="C141" s="102"/>
+      <c r="M140" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N140" s="80"/>
+      <c r="O140" s="121"/>
+      <c r="P140" s="122"/>
+      <c r="Q140" s="121"/>
+      <c r="R140" s="121"/>
+      <c r="S140" s="121"/>
+      <c r="T140" s="121"/>
+      <c r="U140" s="121"/>
+      <c r="V140" s="121"/>
+      <c r="W140" s="123"/>
+    </row>
+    <row r="141" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="97"/>
+      <c r="C141" s="92"/>
       <c r="D141" s="4" t="s">
         <v>135</v>
       </c>
@@ -7515,9 +7582,9 @@
       <c r="V141" s="17"/>
       <c r="W141" s="19"/>
     </row>
-    <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="90"/>
-      <c r="C142" s="102" t="s">
+    <row r="142" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="97"/>
+      <c r="C142" s="92" t="s">
         <v>131</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -7558,9 +7625,9 @@
       <c r="V142" s="17"/>
       <c r="W142" s="19"/>
     </row>
-    <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="90"/>
-      <c r="C143" s="102"/>
+    <row r="143" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="97"/>
+      <c r="C143" s="92"/>
       <c r="D143" s="4" t="s">
         <v>133</v>
       </c>
@@ -7599,11 +7666,11 @@
       <c r="V143" s="17"/>
       <c r="W143" s="19"/>
     </row>
-    <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="90"/>
-      <c r="C144" s="102"/>
+    <row r="144" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="97"/>
+      <c r="C144" s="92"/>
       <c r="D144" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="64"/>
@@ -7628,9 +7695,9 @@
       <c r="V144" s="17"/>
       <c r="W144" s="19"/>
     </row>
-    <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="90"/>
-      <c r="C145" s="102"/>
+    <row r="145" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="97"/>
+      <c r="C145" s="92"/>
       <c r="D145" s="4" t="s">
         <v>134</v>
       </c>
@@ -7648,7 +7715,7 @@
       </c>
       <c r="I145" s="6">
         <f t="shared" ref="I145" si="4">SUM(J145:W145)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J145" s="70">
         <v>0</v>
@@ -7657,21 +7724,23 @@
         <v>0</v>
       </c>
       <c r="L145" s="70"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="16"/>
-      <c r="Q145" s="17"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="17"/>
-      <c r="T145" s="17"/>
-      <c r="U145" s="17"/>
-      <c r="V145" s="17"/>
-      <c r="W145" s="19"/>
-    </row>
-    <row r="146" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="91"/>
-      <c r="C146" s="105"/>
+      <c r="M145" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N145" s="80"/>
+      <c r="O145" s="121"/>
+      <c r="P145" s="122"/>
+      <c r="Q145" s="121"/>
+      <c r="R145" s="121"/>
+      <c r="S145" s="121"/>
+      <c r="T145" s="121"/>
+      <c r="U145" s="121"/>
+      <c r="V145" s="121"/>
+      <c r="W145" s="123"/>
+    </row>
+    <row r="146" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="98"/>
+      <c r="C146" s="120"/>
       <c r="D146" s="24" t="s">
         <v>135</v>
       </c>
@@ -7710,8 +7779,8 @@
       <c r="V146" s="22"/>
       <c r="W146" s="25"/>
     </row>
-    <row r="147" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="89" t="s">
+    <row r="147" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="96" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="78" t="s">
@@ -7753,8 +7822,8 @@
       <c r="V147" s="51"/>
       <c r="W147" s="52"/>
     </row>
-    <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="90"/>
+    <row r="148" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="97"/>
       <c r="C148" s="33" t="s">
         <v>89</v>
       </c>
@@ -7794,8 +7863,8 @@
       <c r="V148" s="17"/>
       <c r="W148" s="19"/>
     </row>
-    <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="90"/>
+    <row r="149" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="97"/>
       <c r="C149" s="33" t="s">
         <v>90</v>
       </c>
@@ -7835,8 +7904,8 @@
       <c r="V149" s="17"/>
       <c r="W149" s="19"/>
     </row>
-    <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="90"/>
+    <row r="150" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="97"/>
       <c r="C150" s="33" t="s">
         <v>91</v>
       </c>
@@ -7876,8 +7945,8 @@
       <c r="V150" s="17"/>
       <c r="W150" s="19"/>
     </row>
-    <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="90"/>
+    <row r="151" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="97"/>
       <c r="C151" s="33" t="s">
         <v>142</v>
       </c>
@@ -7917,8 +7986,8 @@
       <c r="V151" s="17"/>
       <c r="W151" s="19"/>
     </row>
-    <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="90"/>
+    <row r="152" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="97"/>
       <c r="C152" s="33" t="s">
         <v>139</v>
       </c>
@@ -7958,8 +8027,8 @@
       <c r="V152" s="17"/>
       <c r="W152" s="19"/>
     </row>
-    <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="90"/>
+    <row r="153" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="97"/>
       <c r="C153" s="33" t="s">
         <v>141</v>
       </c>
@@ -7999,8 +8068,8 @@
       <c r="V153" s="17"/>
       <c r="W153" s="19"/>
     </row>
-    <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="90"/>
+    <row r="154" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="97"/>
       <c r="C154" s="33" t="s">
         <v>140</v>
       </c>
@@ -8040,8 +8109,8 @@
       <c r="V154" s="17"/>
       <c r="W154" s="19"/>
     </row>
-    <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="90"/>
+    <row r="155" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="97"/>
       <c r="C155" s="33" t="s">
         <v>92</v>
       </c>
@@ -8081,8 +8150,8 @@
       <c r="V155" s="17"/>
       <c r="W155" s="19"/>
     </row>
-    <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="90"/>
+    <row r="156" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="97"/>
       <c r="C156" s="33" t="s">
         <v>93</v>
       </c>
@@ -8122,8 +8191,8 @@
       <c r="V156" s="17"/>
       <c r="W156" s="19"/>
     </row>
-    <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="90"/>
+    <row r="157" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="97"/>
       <c r="C157" s="33" t="s">
         <v>94</v>
       </c>
@@ -8163,8 +8232,8 @@
       <c r="V157" s="17"/>
       <c r="W157" s="19"/>
     </row>
-    <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="90"/>
+    <row r="158" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="97"/>
       <c r="C158" s="33" t="s">
         <v>98</v>
       </c>
@@ -8204,8 +8273,8 @@
       <c r="V158" s="17"/>
       <c r="W158" s="19"/>
     </row>
-    <row r="159" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="91"/>
+    <row r="159" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="98"/>
       <c r="C159" s="61" t="s">
         <v>99</v>
       </c>
@@ -8245,8 +8314,8 @@
       <c r="V159" s="22"/>
       <c r="W159" s="25"/>
     </row>
-    <row r="160" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="89" t="s">
+    <row r="160" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="96" t="s">
         <v>143</v>
       </c>
       <c r="C160" s="60" t="s">
@@ -8288,8 +8357,8 @@
       <c r="V160" s="51"/>
       <c r="W160" s="52"/>
     </row>
-    <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="90"/>
+    <row r="161" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="97"/>
       <c r="C161" s="59" t="s">
         <v>144</v>
       </c>
@@ -8329,8 +8398,8 @@
       <c r="V161" s="17"/>
       <c r="W161" s="19"/>
     </row>
-    <row r="162" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="91"/>
+    <row r="162" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="98"/>
       <c r="C162" s="61" t="s">
         <v>145</v>
       </c>
@@ -8370,8 +8439,8 @@
       <c r="V162" s="22"/>
       <c r="W162" s="25"/>
     </row>
-    <row r="163" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="89" t="s">
+    <row r="163" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="96" t="s">
         <v>148</v>
       </c>
       <c r="C163" s="60" t="s">
@@ -8409,8 +8478,8 @@
       <c r="V163" s="51"/>
       <c r="W163" s="52"/>
     </row>
-    <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="90"/>
+    <row r="164" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="97"/>
       <c r="C164" s="59" t="s">
         <v>150</v>
       </c>
@@ -8446,8 +8515,8 @@
       <c r="V164" s="17"/>
       <c r="W164" s="19"/>
     </row>
-    <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="90"/>
+    <row r="165" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="97"/>
       <c r="C165" s="59" t="s">
         <v>151</v>
       </c>
@@ -8483,8 +8552,8 @@
       <c r="V165" s="17"/>
       <c r="W165" s="19"/>
     </row>
-    <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="90"/>
+    <row r="166" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="97"/>
       <c r="C166" s="59" t="s">
         <v>152</v>
       </c>
@@ -8520,8 +8589,8 @@
       <c r="V166" s="17"/>
       <c r="W166" s="19"/>
     </row>
-    <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="90"/>
+    <row r="167" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="97"/>
       <c r="C167" s="59" t="s">
         <v>153</v>
       </c>
@@ -8557,8 +8626,8 @@
       <c r="V167" s="17"/>
       <c r="W167" s="19"/>
     </row>
-    <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="90"/>
+    <row r="168" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="97"/>
       <c r="C168" s="59" t="s">
         <v>154</v>
       </c>
@@ -8594,8 +8663,8 @@
       <c r="V168" s="17"/>
       <c r="W168" s="19"/>
     </row>
-    <row r="169" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="91"/>
+    <row r="169" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="98"/>
       <c r="C169" s="61" t="s">
         <v>155</v>
       </c>
@@ -8631,8 +8700,8 @@
       <c r="V169" s="22"/>
       <c r="W169" s="25"/>
     </row>
-    <row r="170" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="89" t="s">
+    <row r="170" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="54" t="s">
@@ -8674,8 +8743,8 @@
       <c r="V170" s="51"/>
       <c r="W170" s="52"/>
     </row>
-    <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="90"/>
+    <row r="171" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="97"/>
       <c r="C171" s="33" t="s">
         <v>137</v>
       </c>
@@ -8715,8 +8784,8 @@
       <c r="V171" s="17"/>
       <c r="W171" s="19"/>
     </row>
-    <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="90"/>
+    <row r="172" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="97"/>
       <c r="C172" s="33" t="s">
         <v>138</v>
       </c>
@@ -8756,8 +8825,8 @@
       <c r="V172" s="17"/>
       <c r="W172" s="19"/>
     </row>
-    <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="90"/>
+    <row r="173" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="97"/>
       <c r="C173" s="33" t="s">
         <v>146</v>
       </c>
@@ -8797,8 +8866,8 @@
       <c r="V173" s="17"/>
       <c r="W173" s="19"/>
     </row>
-    <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="90"/>
+    <row r="174" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="97"/>
       <c r="C174" s="33" t="s">
         <v>84</v>
       </c>
@@ -8838,8 +8907,8 @@
       <c r="V174" s="17"/>
       <c r="W174" s="19"/>
     </row>
-    <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="90"/>
+    <row r="175" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="97"/>
       <c r="C175" s="33" t="s">
         <v>85</v>
       </c>
@@ -8879,8 +8948,8 @@
       <c r="V175" s="17"/>
       <c r="W175" s="19"/>
     </row>
-    <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="90"/>
+    <row r="176" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="97"/>
       <c r="C176" s="33" t="s">
         <v>87</v>
       </c>
@@ -8920,8 +8989,8 @@
       <c r="V176" s="17"/>
       <c r="W176" s="19"/>
     </row>
-    <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="90"/>
+    <row r="177" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="97"/>
       <c r="C177" s="33" t="s">
         <v>86</v>
       </c>
@@ -8961,8 +9030,8 @@
       <c r="V177" s="17"/>
       <c r="W177" s="19"/>
     </row>
-    <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="90"/>
+    <row r="178" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="97"/>
       <c r="C178" s="33" t="s">
         <v>104</v>
       </c>
@@ -9002,8 +9071,8 @@
       <c r="V178" s="17"/>
       <c r="W178" s="19"/>
     </row>
-    <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="90"/>
+    <row r="179" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="97"/>
       <c r="C179" s="33" t="s">
         <v>136</v>
       </c>
@@ -9043,8 +9112,8 @@
       <c r="V179" s="17"/>
       <c r="W179" s="19"/>
     </row>
-    <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="90"/>
+    <row r="180" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="97"/>
       <c r="C180" s="33" t="s">
         <v>105</v>
       </c>
@@ -9084,8 +9153,8 @@
       <c r="V180" s="17"/>
       <c r="W180" s="19"/>
     </row>
-    <row r="181" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="91"/>
+    <row r="181" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="98"/>
       <c r="C181" s="61" t="s">
         <v>100</v>
       </c>
@@ -9125,22 +9194,22 @@
       <c r="V181" s="22"/>
       <c r="W181" s="25"/>
     </row>
-    <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="98" t="s">
+    <row r="182" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="99"/>
-      <c r="D182" s="100"/>
-      <c r="E182" s="100"/>
-      <c r="F182" s="100"/>
-      <c r="G182" s="101"/>
+      <c r="C182" s="117"/>
+      <c r="D182" s="118"/>
+      <c r="E182" s="118"/>
+      <c r="F182" s="118"/>
+      <c r="G182" s="119"/>
       <c r="H182" s="36">
         <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
         <v>96.499999999999829</v>
       </c>
       <c r="I182" s="23">
         <f t="shared" si="6"/>
-        <v>9.6233000000000004</v>
+        <v>10.433299999999996</v>
       </c>
       <c r="J182" s="23">
         <f t="shared" si="6"/>
@@ -9156,7 +9225,7 @@
       </c>
       <c r="M182" s="23">
         <f t="shared" si="6"/>
-        <v>3.5670000000000002</v>
+        <v>4.3769999999999971</v>
       </c>
       <c r="N182" s="23">
         <f t="shared" si="6"/>
@@ -9199,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -9208,32 +9277,32 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="94" t="s">
+      <c r="J183" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="K183" s="103"/>
-      <c r="L183" s="103"/>
-      <c r="M183" s="103"/>
-      <c r="N183" s="103"/>
-      <c r="O183" s="103"/>
-      <c r="P183" s="103"/>
-      <c r="Q183" s="103"/>
-      <c r="R183" s="103"/>
-      <c r="S183" s="103"/>
-      <c r="T183" s="103"/>
-      <c r="U183" s="103"/>
-      <c r="V183" s="103"/>
-      <c r="W183" s="104"/>
-    </row>
-    <row r="184" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K183" s="94"/>
+      <c r="L183" s="94"/>
+      <c r="M183" s="94"/>
+      <c r="N183" s="94"/>
+      <c r="O183" s="94"/>
+      <c r="P183" s="94"/>
+      <c r="Q183" s="94"/>
+      <c r="R183" s="94"/>
+      <c r="S183" s="94"/>
+      <c r="T183" s="94"/>
+      <c r="U183" s="94"/>
+      <c r="V183" s="94"/>
+      <c r="W183" s="95"/>
+    </row>
+    <row r="184" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C184" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -9245,11 +9314,11 @@
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
     </row>
-    <row r="185" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="C185" s="120">
+    <row r="185" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" s="91">
         <f>SUM(H181,H179,H175:H176,H163:H169,H159,H155:H157,H12:H61,H10)</f>
         <v>46.899999999999984</v>
       </c>
@@ -9263,10 +9332,10 @@
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="92" t="s">
+      <c r="H185" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I185" s="93"/>
+      <c r="I185" s="112"/>
       <c r="J185" s="9">
         <f>H182-J182</f>
         <v>96.499999999999829</v>
@@ -9281,16 +9350,16 @@
       </c>
       <c r="M185" s="9">
         <f>L185-M182</f>
-        <v>86.876699999999829</v>
+        <v>86.066699999999827</v>
       </c>
       <c r="N185" s="10">
         <f>M185-N182</f>
-        <v>86.876699999999829</v>
-      </c>
-    </row>
-    <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="119" t="s">
-        <v>158</v>
+        <v>86.066699999999827</v>
+      </c>
+    </row>
+    <row r="186" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="90" t="s">
+        <v>157</v>
       </c>
       <c r="C186" s="5">
         <f>SUM(H160:H162,H158,H72:H147,H11,H9)</f>
@@ -9298,11 +9367,11 @@
       </c>
       <c r="D186" s="5">
         <f>SUM(I9,I11,I72:I147,I158,I160:I162)</f>
-        <v>0.77</v>
+        <v>1.5800000000000003</v>
       </c>
       <c r="E186" s="5">
         <f>SUM(C186,-D186)</f>
-        <v>24.430000000000003</v>
+        <v>23.62</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -9314,9 +9383,9 @@
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
     </row>
-    <row r="187" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="119" t="s">
-        <v>159</v>
+    <row r="187" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="90" t="s">
+        <v>158</v>
       </c>
       <c r="C187" s="4">
         <f>SUM(H180,H178,H177,H170:H174,H148:H154,H62:H71,H4:H8)</f>
@@ -9331,20 +9400,20 @@
         <v>24.4</v>
       </c>
       <c r="F187" s="3"/>
-      <c r="H187" s="94" t="s">
+      <c r="H187" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="95"/>
-      <c r="J187" s="93">
+      <c r="I187" s="113"/>
+      <c r="J187" s="112">
         <f>H182-I182</f>
-        <v>86.876699999999829</v>
-      </c>
-      <c r="K187" s="93"/>
-      <c r="L187" s="93"/>
-      <c r="M187" s="93"/>
-      <c r="N187" s="96"/>
-    </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.3">
+        <v>86.066699999999827</v>
+      </c>
+      <c r="K187" s="112"/>
+      <c r="L187" s="112"/>
+      <c r="M187" s="112"/>
+      <c r="N187" s="114"/>
+    </row>
+    <row r="188" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -9359,7 +9428,7 @@
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
     </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -9374,7 +9443,7 @@
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
     </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -9389,81 +9458,63 @@
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
     </row>
-    <row r="191" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
     </row>
-    <row r="194" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
     </row>
-    <row r="195" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
     </row>
-    <row r="196" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
     </row>
-    <row r="197" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
     </row>
-    <row r="198" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
     </row>
-    <row r="199" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
     </row>
-    <row r="200" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
     </row>
-    <row r="201" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
     </row>
-    <row r="202" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
     </row>
-    <row r="203" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
     </row>
-    <row r="204" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
     </row>
-    <row r="205" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
     </row>
-    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="C15:C54"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C81"/>
     <mergeCell ref="B163:B169"/>
     <mergeCell ref="H185:I185"/>
     <mergeCell ref="H187:I187"/>
@@ -9480,6 +9531,24 @@
     <mergeCell ref="C142:C146"/>
     <mergeCell ref="C92:C96"/>
     <mergeCell ref="C87:C91"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="C15:C54"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C127:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9488,24 +9557,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bichito\Desktop\Alex\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="164">
   <si>
     <t>Subtarea</t>
   </si>
@@ -510,12 +510,15 @@
   </si>
   <si>
     <t>Implementar entrada secreta (Apertura)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Drop </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1279,10 +1282,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,13 +1336,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1336,39 +1375,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,7 +1393,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1401,6 +1407,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1420,30 +1427,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$185:$N$185</c:f>
+              <c:f>Hoja1!$J$186:$N$186</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>96.499999999999829</c:v>
+                  <c:v>97.499999999999829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.446699999999822</c:v>
+                  <c:v>93.446699999999822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.443699999999822</c:v>
+                  <c:v>91.443699999999822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.066699999999827</c:v>
+                  <c:v>86.76669999999983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.066699999999827</c:v>
+                  <c:v>86.76669999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A091-4901-839C-4EC24FB5B5C8}"/>
             </c:ext>
@@ -1458,11 +1465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1516873760"/>
-        <c:axId val="-1516873216"/>
+        <c:axId val="-136778560"/>
+        <c:axId val="-137793984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516873760"/>
+        <c:axId val="-136778560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1516873216"/>
+        <c:crossAx val="-137793984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1479,7 +1486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516873216"/>
+        <c:axId val="-137793984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,13 +1497,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1516873760"/>
+        <c:crossAx val="-136778560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1517,13 +1525,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>394175</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>103350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>153296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1531,7 +1539,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,23 +1636,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1680,23 +1671,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1872,55 +1846,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E101" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80:W80"/>
+    <sheetView tabSelected="1" topLeftCell="C157" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="57.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="93" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="95"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
@@ -1988,8 +1962,8 @@
         <v>43067</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2009,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="40">
-        <f t="shared" ref="I4:I34" si="0">SUM(J4:W4)</f>
+        <f t="shared" ref="I4:I35" si="0">SUM(J4:W4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="79">
@@ -2018,7 +1992,9 @@
       <c r="K4" s="69">
         <v>0</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="69">
+        <v>0</v>
+      </c>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
       <c r="O4" s="41"/>
@@ -2031,8 +2007,8 @@
       <c r="V4" s="41"/>
       <c r="W4" s="44"/>
     </row>
-    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="108"/>
+    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="122"/>
       <c r="C5" s="35" t="s">
         <v>101</v>
       </c>
@@ -2059,7 +2035,9 @@
       <c r="K5" s="70">
         <v>0</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="70">
+        <v>0</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="17"/>
@@ -2072,8 +2050,8 @@
       <c r="V5" s="17"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="108"/>
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="122"/>
       <c r="C6" s="35" t="s">
         <v>102</v>
       </c>
@@ -2100,7 +2078,9 @@
       <c r="K6" s="70">
         <v>0</v>
       </c>
-      <c r="L6" s="70"/>
+      <c r="L6" s="70">
+        <v>0</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="17"/>
@@ -2113,8 +2093,8 @@
       <c r="V6" s="17"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
+    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="122"/>
       <c r="C7" s="35" t="s">
         <v>103</v>
       </c>
@@ -2141,7 +2121,9 @@
       <c r="K7" s="70">
         <v>0</v>
       </c>
-      <c r="L7" s="70"/>
+      <c r="L7" s="70">
+        <v>0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="17"/>
@@ -2154,8 +2136,8 @@
       <c r="V7" s="17"/>
       <c r="W7" s="19"/>
     </row>
-    <row r="8" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
+    <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="123"/>
       <c r="C8" s="45" t="s">
         <v>111</v>
       </c>
@@ -2182,7 +2164,9 @@
       <c r="K8" s="71">
         <v>0</v>
       </c>
-      <c r="L8" s="71"/>
+      <c r="L8" s="71">
+        <v>0</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="22"/>
@@ -2195,8 +2179,8 @@
       <c r="V8" s="22"/>
       <c r="W8" s="25"/>
     </row>
-    <row r="9" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+    <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="121" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2225,7 +2209,9 @@
       <c r="K9" s="82">
         <v>0.1</v>
       </c>
-      <c r="L9" s="82"/>
+      <c r="L9" s="82">
+        <v>0</v>
+      </c>
       <c r="M9" s="82"/>
       <c r="N9" s="82"/>
       <c r="O9" s="84"/>
@@ -2238,8 +2224,8 @@
       <c r="V9" s="84"/>
       <c r="W9" s="86"/>
     </row>
-    <row r="10" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108"/>
+    <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="122"/>
       <c r="C10" s="34" t="s">
         <v>107</v>
       </c>
@@ -2266,7 +2252,9 @@
       <c r="K10" s="70">
         <v>0</v>
       </c>
-      <c r="L10" s="70"/>
+      <c r="L10" s="70">
+        <v>0</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="17"/>
@@ -2279,8 +2267,8 @@
       <c r="V10" s="17"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="108"/>
+    <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="122"/>
       <c r="C11" s="83" t="s">
         <v>112</v>
       </c>
@@ -2307,7 +2295,9 @@
       <c r="K11" s="70">
         <v>0</v>
       </c>
-      <c r="L11" s="70"/>
+      <c r="L11" s="70">
+        <v>0</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="17"/>
@@ -2320,8 +2310,8 @@
       <c r="V11" s="17"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
+    <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="122"/>
       <c r="C12" s="83" t="s">
         <v>113</v>
       </c>
@@ -2385,8 +2375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
+    <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="123"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2428,7 +2418,7 @@
       <c r="V13" s="22"/>
       <c r="W13" s="25"/>
     </row>
-    <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="96" t="s">
         <v>15</v>
       </c>
@@ -2460,7 +2450,9 @@
       <c r="K14" s="82">
         <v>0.88329999999999997</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="69">
+        <v>0</v>
+      </c>
       <c r="M14" s="50"/>
       <c r="N14" s="39"/>
       <c r="O14" s="51"/>
@@ -2473,9 +2465,9 @@
       <c r="V14" s="51"/>
       <c r="W14" s="52"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B15" s="97"/>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="115" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2520,9 +2512,9 @@
       <c r="V15" s="17"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" s="97"/>
-      <c r="C16" s="102"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2548,7 +2540,9 @@
       <c r="K16" s="70">
         <v>0</v>
       </c>
-      <c r="L16" s="70"/>
+      <c r="L16" s="70">
+        <v>0</v>
+      </c>
       <c r="M16" s="14"/>
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
@@ -2561,9 +2555,9 @@
       <c r="V16" s="17"/>
       <c r="W16" s="19"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="97"/>
-      <c r="C17" s="102"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2589,7 +2583,9 @@
       <c r="K17" s="70">
         <v>0</v>
       </c>
-      <c r="L17" s="70"/>
+      <c r="L17" s="70">
+        <v>0</v>
+      </c>
       <c r="M17" s="14"/>
       <c r="N17" s="4"/>
       <c r="O17" s="17"/>
@@ -2602,9 +2598,9 @@
       <c r="V17" s="17"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="97"/>
-      <c r="C18" s="102"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2630,7 +2626,9 @@
       <c r="K18" s="70">
         <v>0</v>
       </c>
-      <c r="L18" s="70"/>
+      <c r="L18" s="70">
+        <v>0</v>
+      </c>
       <c r="M18" s="14"/>
       <c r="N18" s="4"/>
       <c r="O18" s="17"/>
@@ -2643,9 +2641,9 @@
       <c r="V18" s="17"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="97"/>
-      <c r="C19" s="102"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2671,7 +2669,9 @@
       <c r="K19" s="70">
         <v>0</v>
       </c>
-      <c r="L19" s="70"/>
+      <c r="L19" s="70">
+        <v>0</v>
+      </c>
       <c r="M19" s="14"/>
       <c r="N19" s="4"/>
       <c r="O19" s="17"/>
@@ -2684,11 +2684,11 @@
       <c r="V19" s="17"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="97"/>
-      <c r="C20" s="102"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
@@ -2697,10 +2697,10 @@
         <v>114</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="55">
         <f t="shared" si="0"/>
@@ -2712,7 +2712,9 @@
       <c r="K20" s="70">
         <v>0</v>
       </c>
-      <c r="L20" s="70"/>
+      <c r="L20" s="70">
+        <v>0</v>
+      </c>
       <c r="M20" s="14"/>
       <c r="N20" s="4"/>
       <c r="O20" s="17"/>
@@ -2725,11 +2727,11 @@
       <c r="V20" s="17"/>
       <c r="W20" s="19"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="97"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="32" t="s">
-        <v>36</v>
+      <c r="C21" s="116"/>
+      <c r="D21" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -2738,10 +2740,10 @@
         <v>114</v>
       </c>
       <c r="G21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="4">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="55">
         <f t="shared" si="0"/>
@@ -2753,7 +2755,9 @@
       <c r="K21" s="70">
         <v>0</v>
       </c>
-      <c r="L21" s="70"/>
+      <c r="L21" s="70">
+        <v>0</v>
+      </c>
       <c r="M21" s="14"/>
       <c r="N21" s="4"/>
       <c r="O21" s="17"/>
@@ -2766,11 +2770,11 @@
       <c r="V21" s="17"/>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="97"/>
-      <c r="C22" s="102"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
@@ -2794,7 +2798,9 @@
       <c r="K22" s="70">
         <v>0</v>
       </c>
-      <c r="L22" s="70"/>
+      <c r="L22" s="70">
+        <v>0</v>
+      </c>
       <c r="M22" s="14"/>
       <c r="N22" s="4"/>
       <c r="O22" s="17"/>
@@ -2807,11 +2813,11 @@
       <c r="V22" s="17"/>
       <c r="W22" s="19"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="97"/>
-      <c r="C23" s="102"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
@@ -2835,7 +2841,9 @@
       <c r="K23" s="70">
         <v>0</v>
       </c>
-      <c r="L23" s="70"/>
+      <c r="L23" s="70">
+        <v>0</v>
+      </c>
       <c r="M23" s="14"/>
       <c r="N23" s="4"/>
       <c r="O23" s="17"/>
@@ -2848,11 +2856,11 @@
       <c r="V23" s="17"/>
       <c r="W23" s="19"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="97"/>
-      <c r="C24" s="102"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>8</v>
@@ -2866,7 +2874,7 @@
       <c r="H24" s="4">
         <v>0.3</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2876,7 +2884,9 @@
       <c r="K24" s="70">
         <v>0</v>
       </c>
-      <c r="L24" s="70"/>
+      <c r="L24" s="70">
+        <v>0</v>
+      </c>
       <c r="M24" s="14"/>
       <c r="N24" s="4"/>
       <c r="O24" s="17"/>
@@ -2889,11 +2899,11 @@
       <c r="V24" s="17"/>
       <c r="W24" s="19"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="97"/>
-      <c r="C25" s="102"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
@@ -2917,7 +2927,9 @@
       <c r="K25" s="70">
         <v>0</v>
       </c>
-      <c r="L25" s="70"/>
+      <c r="L25" s="70">
+        <v>0</v>
+      </c>
       <c r="M25" s="14"/>
       <c r="N25" s="4"/>
       <c r="O25" s="17"/>
@@ -2930,11 +2942,11 @@
       <c r="V25" s="17"/>
       <c r="W25" s="19"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="97"/>
-      <c r="C26" s="102"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
@@ -2958,7 +2970,9 @@
       <c r="K26" s="70">
         <v>0</v>
       </c>
-      <c r="L26" s="70"/>
+      <c r="L26" s="70">
+        <v>0</v>
+      </c>
       <c r="M26" s="14"/>
       <c r="N26" s="4"/>
       <c r="O26" s="17"/>
@@ -2971,11 +2985,11 @@
       <c r="V26" s="17"/>
       <c r="W26" s="19"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="97"/>
-      <c r="C27" s="102"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>8</v>
@@ -2999,7 +3013,9 @@
       <c r="K27" s="70">
         <v>0</v>
       </c>
-      <c r="L27" s="70"/>
+      <c r="L27" s="70">
+        <v>0</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="4"/>
       <c r="O27" s="17"/>
@@ -3012,11 +3028,11 @@
       <c r="V27" s="17"/>
       <c r="W27" s="19"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="97"/>
-      <c r="C28" s="102"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>8</v>
@@ -3040,7 +3056,9 @@
       <c r="K28" s="70">
         <v>0</v>
       </c>
-      <c r="L28" s="70"/>
+      <c r="L28" s="70">
+        <v>0</v>
+      </c>
       <c r="M28" s="14"/>
       <c r="N28" s="4"/>
       <c r="O28" s="17"/>
@@ -3053,11 +3071,11 @@
       <c r="V28" s="17"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="97"/>
-      <c r="C29" s="102"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
@@ -3081,7 +3099,9 @@
       <c r="K29" s="70">
         <v>0</v>
       </c>
-      <c r="L29" s="70"/>
+      <c r="L29" s="70">
+        <v>0</v>
+      </c>
       <c r="M29" s="14"/>
       <c r="N29" s="4"/>
       <c r="O29" s="17"/>
@@ -3094,11 +3114,11 @@
       <c r="V29" s="17"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="97"/>
-      <c r="C30" s="102"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
@@ -3122,7 +3142,9 @@
       <c r="K30" s="70">
         <v>0</v>
       </c>
-      <c r="L30" s="70"/>
+      <c r="L30" s="70">
+        <v>0</v>
+      </c>
       <c r="M30" s="14"/>
       <c r="N30" s="4"/>
       <c r="O30" s="17"/>
@@ -3135,11 +3157,11 @@
       <c r="V30" s="17"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="97"/>
-      <c r="C31" s="102"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -3163,7 +3185,9 @@
       <c r="K31" s="70">
         <v>0</v>
       </c>
-      <c r="L31" s="70"/>
+      <c r="L31" s="70">
+        <v>0</v>
+      </c>
       <c r="M31" s="14"/>
       <c r="N31" s="4"/>
       <c r="O31" s="17"/>
@@ -3176,11 +3200,11 @@
       <c r="V31" s="17"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="97"/>
-      <c r="C32" s="102"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
@@ -3204,7 +3228,9 @@
       <c r="K32" s="70">
         <v>0</v>
       </c>
-      <c r="L32" s="70"/>
+      <c r="L32" s="70">
+        <v>0</v>
+      </c>
       <c r="M32" s="14"/>
       <c r="N32" s="4"/>
       <c r="O32" s="17"/>
@@ -3217,11 +3243,11 @@
       <c r="V32" s="17"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="97"/>
-      <c r="C33" s="102"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
@@ -3245,7 +3271,9 @@
       <c r="K33" s="70">
         <v>0</v>
       </c>
-      <c r="L33" s="70"/>
+      <c r="L33" s="70">
+        <v>0</v>
+      </c>
       <c r="M33" s="14"/>
       <c r="N33" s="4"/>
       <c r="O33" s="17"/>
@@ -3258,11 +3286,11 @@
       <c r="V33" s="17"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="97"/>
-      <c r="C34" s="102"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>8</v>
@@ -3286,7 +3314,9 @@
       <c r="K34" s="70">
         <v>0</v>
       </c>
-      <c r="L34" s="70"/>
+      <c r="L34" s="70">
+        <v>0</v>
+      </c>
       <c r="M34" s="14"/>
       <c r="N34" s="4"/>
       <c r="O34" s="17"/>
@@ -3299,11 +3329,11 @@
       <c r="V34" s="17"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="97"/>
-      <c r="C35" s="102"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
@@ -3318,7 +3348,7 @@
         <v>0.3</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" ref="I35:I66" si="1">SUM(J35:W35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35" s="70">
@@ -3327,7 +3357,9 @@
       <c r="K35" s="70">
         <v>0</v>
       </c>
-      <c r="L35" s="70"/>
+      <c r="L35" s="70">
+        <v>0</v>
+      </c>
       <c r="M35" s="14"/>
       <c r="N35" s="4"/>
       <c r="O35" s="17"/>
@@ -3340,11 +3372,11 @@
       <c r="V35" s="17"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="97"/>
-      <c r="C36" s="102"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
@@ -3359,7 +3391,7 @@
         <v>0.3</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I36:I67" si="1">SUM(J36:W36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="70">
@@ -3368,7 +3400,9 @@
       <c r="K36" s="70">
         <v>0</v>
       </c>
-      <c r="L36" s="70"/>
+      <c r="L36" s="70">
+        <v>0</v>
+      </c>
       <c r="M36" s="14"/>
       <c r="N36" s="4"/>
       <c r="O36" s="17"/>
@@ -3381,11 +3415,11 @@
       <c r="V36" s="17"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="97"/>
-      <c r="C37" s="102"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>8</v>
@@ -3409,7 +3443,9 @@
       <c r="K37" s="70">
         <v>0</v>
       </c>
-      <c r="L37" s="70"/>
+      <c r="L37" s="70">
+        <v>0</v>
+      </c>
       <c r="M37" s="14"/>
       <c r="N37" s="4"/>
       <c r="O37" s="17"/>
@@ -3422,11 +3458,11 @@
       <c r="V37" s="17"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="97"/>
-      <c r="C38" s="102"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>8</v>
@@ -3450,7 +3486,9 @@
       <c r="K38" s="70">
         <v>0</v>
       </c>
-      <c r="L38" s="70"/>
+      <c r="L38" s="70">
+        <v>0</v>
+      </c>
       <c r="M38" s="14"/>
       <c r="N38" s="4"/>
       <c r="O38" s="17"/>
@@ -3463,11 +3501,11 @@
       <c r="V38" s="17"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="97"/>
-      <c r="C39" s="102"/>
+      <c r="C39" s="116"/>
       <c r="D39" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
@@ -3491,7 +3529,9 @@
       <c r="K39" s="70">
         <v>0</v>
       </c>
-      <c r="L39" s="70"/>
+      <c r="L39" s="70">
+        <v>0</v>
+      </c>
       <c r="M39" s="14"/>
       <c r="N39" s="4"/>
       <c r="O39" s="17"/>
@@ -3504,11 +3544,11 @@
       <c r="V39" s="17"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="97"/>
-      <c r="C40" s="102"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
@@ -3532,7 +3572,9 @@
       <c r="K40" s="70">
         <v>0</v>
       </c>
-      <c r="L40" s="70"/>
+      <c r="L40" s="70">
+        <v>0</v>
+      </c>
       <c r="M40" s="14"/>
       <c r="N40" s="4"/>
       <c r="O40" s="17"/>
@@ -3545,11 +3587,11 @@
       <c r="V40" s="17"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="97"/>
-      <c r="C41" s="102"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>8</v>
@@ -3573,7 +3615,9 @@
       <c r="K41" s="70">
         <v>0</v>
       </c>
-      <c r="L41" s="70"/>
+      <c r="L41" s="70">
+        <v>0</v>
+      </c>
       <c r="M41" s="14"/>
       <c r="N41" s="4"/>
       <c r="O41" s="17"/>
@@ -3586,11 +3630,11 @@
       <c r="V41" s="17"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="97"/>
-      <c r="C42" s="102"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
@@ -3614,7 +3658,9 @@
       <c r="K42" s="70">
         <v>0</v>
       </c>
-      <c r="L42" s="70"/>
+      <c r="L42" s="70">
+        <v>0</v>
+      </c>
       <c r="M42" s="14"/>
       <c r="N42" s="4"/>
       <c r="O42" s="17"/>
@@ -3627,11 +3673,11 @@
       <c r="V42" s="17"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="97"/>
-      <c r="C43" s="102"/>
+      <c r="C43" s="116"/>
       <c r="D43" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
@@ -3655,7 +3701,9 @@
       <c r="K43" s="70">
         <v>0</v>
       </c>
-      <c r="L43" s="70"/>
+      <c r="L43" s="70">
+        <v>0</v>
+      </c>
       <c r="M43" s="14"/>
       <c r="N43" s="4"/>
       <c r="O43" s="17"/>
@@ -3668,11 +3716,11 @@
       <c r="V43" s="17"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="97"/>
-      <c r="C44" s="102"/>
+      <c r="C44" s="116"/>
       <c r="D44" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>8</v>
@@ -3696,7 +3744,9 @@
       <c r="K44" s="70">
         <v>0</v>
       </c>
-      <c r="L44" s="70"/>
+      <c r="L44" s="70">
+        <v>0</v>
+      </c>
       <c r="M44" s="14"/>
       <c r="N44" s="4"/>
       <c r="O44" s="17"/>
@@ -3709,11 +3759,11 @@
       <c r="V44" s="17"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="97"/>
-      <c r="C45" s="102"/>
+      <c r="C45" s="116"/>
       <c r="D45" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>8</v>
@@ -3737,7 +3787,9 @@
       <c r="K45" s="70">
         <v>0</v>
       </c>
-      <c r="L45" s="70"/>
+      <c r="L45" s="70">
+        <v>0</v>
+      </c>
       <c r="M45" s="14"/>
       <c r="N45" s="4"/>
       <c r="O45" s="17"/>
@@ -3750,11 +3802,11 @@
       <c r="V45" s="17"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="97"/>
-      <c r="C46" s="102"/>
+      <c r="C46" s="116"/>
       <c r="D46" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>8</v>
@@ -3778,7 +3830,9 @@
       <c r="K46" s="70">
         <v>0</v>
       </c>
-      <c r="L46" s="70"/>
+      <c r="L46" s="70">
+        <v>0</v>
+      </c>
       <c r="M46" s="14"/>
       <c r="N46" s="4"/>
       <c r="O46" s="17"/>
@@ -3791,11 +3845,11 @@
       <c r="V46" s="17"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="97"/>
-      <c r="C47" s="102"/>
+      <c r="C47" s="116"/>
       <c r="D47" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>8</v>
@@ -3819,7 +3873,9 @@
       <c r="K47" s="70">
         <v>0</v>
       </c>
-      <c r="L47" s="70"/>
+      <c r="L47" s="70">
+        <v>0</v>
+      </c>
       <c r="M47" s="14"/>
       <c r="N47" s="4"/>
       <c r="O47" s="17"/>
@@ -3832,11 +3888,11 @@
       <c r="V47" s="17"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="97"/>
-      <c r="C48" s="102"/>
+      <c r="C48" s="116"/>
       <c r="D48" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
@@ -3860,7 +3916,9 @@
       <c r="K48" s="70">
         <v>0</v>
       </c>
-      <c r="L48" s="70"/>
+      <c r="L48" s="70">
+        <v>0</v>
+      </c>
       <c r="M48" s="14"/>
       <c r="N48" s="4"/>
       <c r="O48" s="17"/>
@@ -3873,11 +3931,11 @@
       <c r="V48" s="17"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="97"/>
-      <c r="C49" s="102"/>
+      <c r="C49" s="116"/>
       <c r="D49" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
@@ -3901,7 +3959,9 @@
       <c r="K49" s="70">
         <v>0</v>
       </c>
-      <c r="L49" s="70"/>
+      <c r="L49" s="70">
+        <v>0</v>
+      </c>
       <c r="M49" s="14"/>
       <c r="N49" s="4"/>
       <c r="O49" s="17"/>
@@ -3914,11 +3974,11 @@
       <c r="V49" s="17"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="97"/>
-      <c r="C50" s="102"/>
+      <c r="C50" s="116"/>
       <c r="D50" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>8</v>
@@ -3942,7 +4002,9 @@
       <c r="K50" s="70">
         <v>0</v>
       </c>
-      <c r="L50" s="70"/>
+      <c r="L50" s="70">
+        <v>0</v>
+      </c>
       <c r="M50" s="14"/>
       <c r="N50" s="4"/>
       <c r="O50" s="17"/>
@@ -3955,11 +4017,11 @@
       <c r="V50" s="17"/>
       <c r="W50" s="19"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="97"/>
-      <c r="C51" s="102"/>
+      <c r="C51" s="116"/>
       <c r="D51" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
@@ -3983,7 +4045,9 @@
       <c r="K51" s="70">
         <v>0</v>
       </c>
-      <c r="L51" s="70"/>
+      <c r="L51" s="70">
+        <v>0</v>
+      </c>
       <c r="M51" s="14"/>
       <c r="N51" s="4"/>
       <c r="O51" s="17"/>
@@ -3996,11 +4060,11 @@
       <c r="V51" s="17"/>
       <c r="W51" s="19"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="97"/>
-      <c r="C52" s="102"/>
+      <c r="C52" s="116"/>
       <c r="D52" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>8</v>
@@ -4024,7 +4088,9 @@
       <c r="K52" s="70">
         <v>0</v>
       </c>
-      <c r="L52" s="70"/>
+      <c r="L52" s="70">
+        <v>0</v>
+      </c>
       <c r="M52" s="14"/>
       <c r="N52" s="4"/>
       <c r="O52" s="17"/>
@@ -4037,11 +4103,11 @@
       <c r="V52" s="17"/>
       <c r="W52" s="19"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="97"/>
-      <c r="C53" s="102"/>
+      <c r="C53" s="116"/>
       <c r="D53" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
@@ -4065,7 +4131,9 @@
       <c r="K53" s="70">
         <v>0</v>
       </c>
-      <c r="L53" s="70"/>
+      <c r="L53" s="70">
+        <v>0</v>
+      </c>
       <c r="M53" s="14"/>
       <c r="N53" s="4"/>
       <c r="O53" s="17"/>
@@ -4078,11 +4146,11 @@
       <c r="V53" s="17"/>
       <c r="W53" s="19"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="97"/>
-      <c r="C54" s="103"/>
+      <c r="C54" s="116"/>
       <c r="D54" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
@@ -4106,7 +4174,9 @@
       <c r="K54" s="70">
         <v>0</v>
       </c>
-      <c r="L54" s="70"/>
+      <c r="L54" s="70">
+        <v>0</v>
+      </c>
       <c r="M54" s="14"/>
       <c r="N54" s="4"/>
       <c r="O54" s="17"/>
@@ -4119,13 +4189,11 @@
       <c r="V54" s="17"/>
       <c r="W54" s="19"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="97"/>
-      <c r="C55" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>28</v>
+      <c r="C55" s="117"/>
+      <c r="D55" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
@@ -4134,10 +4202,10 @@
         <v>114</v>
       </c>
       <c r="G55" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55" s="4">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="1"/>
@@ -4149,7 +4217,9 @@
       <c r="K55" s="70">
         <v>0</v>
       </c>
-      <c r="L55" s="70"/>
+      <c r="L55" s="70">
+        <v>0</v>
+      </c>
       <c r="M55" s="14"/>
       <c r="N55" s="4"/>
       <c r="O55" s="17"/>
@@ -4162,11 +4232,13 @@
       <c r="V55" s="17"/>
       <c r="W55" s="19"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="97"/>
-      <c r="C56" s="100"/>
+      <c r="C56" s="113" t="s">
+        <v>26</v>
+      </c>
       <c r="D56" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>8</v>
@@ -4175,7 +4247,7 @@
         <v>114</v>
       </c>
       <c r="G56" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H56" s="4">
         <v>1.2</v>
@@ -4190,7 +4262,9 @@
       <c r="K56" s="70">
         <v>0</v>
       </c>
-      <c r="L56" s="70"/>
+      <c r="L56" s="70">
+        <v>0</v>
+      </c>
       <c r="M56" s="14"/>
       <c r="N56" s="4"/>
       <c r="O56" s="17"/>
@@ -4203,11 +4277,11 @@
       <c r="V56" s="17"/>
       <c r="W56" s="19"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="97"/>
-      <c r="C57" s="100"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>8</v>
@@ -4216,7 +4290,7 @@
         <v>114</v>
       </c>
       <c r="G57" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H57" s="4">
         <v>1.2</v>
@@ -4231,7 +4305,9 @@
       <c r="K57" s="70">
         <v>0</v>
       </c>
-      <c r="L57" s="70"/>
+      <c r="L57" s="70">
+        <v>0</v>
+      </c>
       <c r="M57" s="14"/>
       <c r="N57" s="4"/>
       <c r="O57" s="17"/>
@@ -4244,11 +4320,11 @@
       <c r="V57" s="17"/>
       <c r="W57" s="19"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="97"/>
-      <c r="C58" s="100"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
@@ -4257,7 +4333,7 @@
         <v>114</v>
       </c>
       <c r="G58" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H58" s="4">
         <v>1.2</v>
@@ -4272,7 +4348,9 @@
       <c r="K58" s="70">
         <v>0</v>
       </c>
-      <c r="L58" s="70"/>
+      <c r="L58" s="70">
+        <v>0</v>
+      </c>
       <c r="M58" s="14"/>
       <c r="N58" s="4"/>
       <c r="O58" s="17"/>
@@ -4285,11 +4363,11 @@
       <c r="V58" s="17"/>
       <c r="W58" s="19"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="97"/>
-      <c r="C59" s="100"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
@@ -4298,7 +4376,7 @@
         <v>114</v>
       </c>
       <c r="G59" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H59" s="4">
         <v>1.2</v>
@@ -4313,11 +4391,13 @@
       <c r="K59" s="70">
         <v>0</v>
       </c>
-      <c r="L59" s="70"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="14"/>
+      <c r="L59" s="70">
+        <v>0</v>
+      </c>
+      <c r="M59" s="14"/>
+      <c r="N59" s="4"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="18"/>
+      <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
       <c r="S59" s="17"/>
@@ -4326,11 +4406,11 @@
       <c r="V59" s="17"/>
       <c r="W59" s="19"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B60" s="97"/>
-      <c r="C60" s="100"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
@@ -4339,7 +4419,7 @@
         <v>114</v>
       </c>
       <c r="G60" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H60" s="4">
         <v>1.2</v>
@@ -4354,11 +4434,13 @@
       <c r="K60" s="70">
         <v>0</v>
       </c>
-      <c r="L60" s="70"/>
+      <c r="L60" s="70">
+        <v>0</v>
+      </c>
       <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
+      <c r="N60" s="14"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="16"/>
+      <c r="P60" s="18"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
       <c r="S60" s="17"/>
@@ -4367,141 +4449,147 @@
       <c r="V60" s="17"/>
       <c r="W60" s="19"/>
     </row>
-    <row r="61" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="115"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="62" t="s">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B61" s="97"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" s="4">
+        <v>8</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="70">
+        <v>0</v>
+      </c>
+      <c r="K61" s="70">
+        <v>0</v>
+      </c>
+      <c r="L61" s="70">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="19"/>
+    </row>
+    <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="104"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="77" t="s">
+      <c r="E62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="8">
-        <v>6</v>
-      </c>
-      <c r="H61" s="8">
+      <c r="G62" s="8">
+        <v>8</v>
+      </c>
+      <c r="H62" s="8">
         <v>1.2</v>
       </c>
-      <c r="I61" s="58">
+      <c r="I62" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="72">
-        <v>0</v>
-      </c>
-      <c r="K61" s="72">
-        <v>0</v>
-      </c>
-      <c r="L61" s="72"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="28"/>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="96" t="s">
+      <c r="J62" s="72">
+        <v>0</v>
+      </c>
+      <c r="K62" s="72">
+        <v>0</v>
+      </c>
+      <c r="L62" s="72">
+        <v>0</v>
+      </c>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="28"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B63" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="104" t="s">
+      <c r="C63" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D63" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="75" t="s">
+      <c r="E63" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="G62" s="39">
+      <c r="G63" s="39">
         <v>2</v>
       </c>
-      <c r="H62" s="39">
+      <c r="H63" s="39">
         <v>0.1</v>
       </c>
-      <c r="I62" s="40">
+      <c r="I63" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J62" s="69">
-        <v>0</v>
-      </c>
-      <c r="K62" s="69">
-        <v>0</v>
-      </c>
-      <c r="L62" s="69"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="52"/>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="97"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="4" t="s">
+      <c r="J63" s="69">
+        <v>0</v>
+      </c>
+      <c r="K63" s="69">
+        <v>0</v>
+      </c>
+      <c r="L63" s="69">
+        <v>0</v>
+      </c>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="52"/>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B64" s="97"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="G63" s="4">
-        <v>3</v>
-      </c>
-      <c r="H63" s="4">
-        <v>2</v>
-      </c>
-      <c r="I63" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="70">
-        <v>0</v>
-      </c>
-      <c r="K63" s="70">
-        <v>0</v>
-      </c>
-      <c r="L63" s="70"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="19"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="97"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E64" s="4" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="F64" s="74" t="s">
         <v>110</v>
@@ -4510,7 +4598,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="1"/>
@@ -4522,7 +4610,9 @@
       <c r="K64" s="70">
         <v>0</v>
       </c>
-      <c r="L64" s="70"/>
+      <c r="L64" s="70">
+        <v>0</v>
+      </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="17"/>
@@ -4535,14 +4625,14 @@
       <c r="V64" s="17"/>
       <c r="W64" s="19"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B65" s="97"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="29" t="s">
-        <v>76</v>
+      <c r="C65" s="119"/>
+      <c r="D65" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F65" s="74" t="s">
         <v>110</v>
@@ -4551,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="1"/>
@@ -4563,7 +4653,9 @@
       <c r="K65" s="70">
         <v>0</v>
       </c>
-      <c r="L65" s="70"/>
+      <c r="L65" s="70">
+        <v>0</v>
+      </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="17"/>
@@ -4576,12 +4668,12 @@
       <c r="V65" s="17"/>
       <c r="W65" s="19"/>
     </row>
-    <row r="66" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B66" s="97"/>
-      <c r="C66" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="29"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
@@ -4589,10 +4681,10 @@
         <v>110</v>
       </c>
       <c r="G66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" si="1"/>
@@ -4604,7 +4696,9 @@
       <c r="K66" s="70">
         <v>0</v>
       </c>
-      <c r="L66" s="70"/>
+      <c r="L66" s="70">
+        <v>0</v>
+      </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="17"/>
@@ -4617,12 +4711,12 @@
       <c r="V66" s="17"/>
       <c r="W66" s="19"/>
     </row>
-    <row r="67" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
       <c r="B67" s="97"/>
       <c r="C67" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D67" s="29"/>
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
@@ -4630,13 +4724,13 @@
         <v>110</v>
       </c>
       <c r="G67" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" ref="I67:I130" si="2">SUM(J67:W67)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J67" s="70">
@@ -4645,7 +4739,9 @@
       <c r="K67" s="70">
         <v>0</v>
       </c>
-      <c r="L67" s="70"/>
+      <c r="L67" s="70">
+        <v>0</v>
+      </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="17"/>
@@ -4658,14 +4754,12 @@
       <c r="V67" s="17"/>
       <c r="W67" s="19"/>
     </row>
-    <row r="68" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
       <c r="B68" s="97"/>
-      <c r="C68" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="C68" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
@@ -4676,10 +4770,10 @@
         <v>4</v>
       </c>
       <c r="H68" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I68:I131" si="2">SUM(J68:W68)</f>
         <v>0</v>
       </c>
       <c r="J68" s="70">
@@ -4688,7 +4782,9 @@
       <c r="K68" s="70">
         <v>0</v>
       </c>
-      <c r="L68" s="70"/>
+      <c r="L68" s="70">
+        <v>0</v>
+      </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="17"/>
@@ -4701,11 +4797,13 @@
       <c r="V68" s="17"/>
       <c r="W68" s="19"/>
     </row>
-    <row r="69" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="97"/>
-      <c r="C69" s="105"/>
+      <c r="C69" s="119" t="s">
+        <v>80</v>
+      </c>
       <c r="D69" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>8</v>
@@ -4717,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="4">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="2"/>
@@ -4729,7 +4827,9 @@
       <c r="K69" s="70">
         <v>0</v>
       </c>
-      <c r="L69" s="70"/>
+      <c r="L69" s="70">
+        <v>0</v>
+      </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="17"/>
@@ -4742,11 +4842,11 @@
       <c r="V69" s="17"/>
       <c r="W69" s="19"/>
     </row>
-    <row r="70" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="97"/>
-      <c r="C70" s="105"/>
+      <c r="C70" s="119"/>
       <c r="D70" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>8</v>
@@ -4758,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="H70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="2"/>
@@ -4770,7 +4870,9 @@
       <c r="K70" s="70">
         <v>0</v>
       </c>
-      <c r="L70" s="70"/>
+      <c r="L70" s="70">
+        <v>0</v>
+      </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="17"/>
@@ -4783,150 +4885,170 @@
       <c r="V70" s="17"/>
       <c r="W70" s="19"/>
     </row>
-    <row r="71" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="98"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="24" t="s">
+    <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="97"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71" s="4">
+        <v>4</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="70">
+        <v>0</v>
+      </c>
+      <c r="K71" s="70">
+        <v>0</v>
+      </c>
+      <c r="L71" s="70">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="19"/>
+    </row>
+    <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="98"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="76" t="s">
+      <c r="E72" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="G71" s="24">
+      <c r="G72" s="24">
         <v>4</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H72" s="24">
         <v>0.3</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I72" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J71" s="71">
-        <v>0</v>
-      </c>
-      <c r="K71" s="71">
-        <v>0</v>
-      </c>
-      <c r="L71" s="71"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="22"/>
-      <c r="T71" s="22"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="25"/>
-    </row>
-    <row r="72" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="96" t="s">
+      <c r="J72" s="71">
+        <v>0</v>
+      </c>
+      <c r="K72" s="71">
+        <v>0</v>
+      </c>
+      <c r="L72" s="71">
+        <v>0</v>
+      </c>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="25"/>
+    </row>
+    <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="110" t="s">
+      <c r="C73" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D73" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="63" t="s">
+      <c r="E73" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G73" s="39">
         <v>3</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H73" s="39">
         <v>1</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I73" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J72" s="69">
-        <v>0</v>
-      </c>
-      <c r="K72" s="69">
-        <v>0</v>
-      </c>
-      <c r="L72" s="69"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="51"/>
-      <c r="R72" s="51"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
-      <c r="W72" s="52"/>
-    </row>
-    <row r="73" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="97"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="4" t="s">
+      <c r="J73" s="69">
+        <v>0</v>
+      </c>
+      <c r="K73" s="69">
+        <v>0</v>
+      </c>
+      <c r="L73" s="69">
+        <v>0</v>
+      </c>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="51"/>
+      <c r="W73" s="52"/>
+    </row>
+    <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="97"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="64" t="s">
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G74" s="4">
         <v>3</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H74" s="4">
         <v>1.5</v>
       </c>
-      <c r="I73" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="70">
-        <v>0</v>
-      </c>
-      <c r="K73" s="70">
-        <v>0</v>
-      </c>
-      <c r="L73" s="70"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="19"/>
-    </row>
-    <row r="74" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="97"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
       <c r="I74" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
+      <c r="J74" s="70">
+        <v>0</v>
+      </c>
+      <c r="K74" s="70">
+        <v>0</v>
+      </c>
+      <c r="L74" s="70">
+        <v>0</v>
+      </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="17"/>
@@ -4939,52 +5061,46 @@
       <c r="V74" s="17"/>
       <c r="W74" s="19"/>
     </row>
-    <row r="75" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="97"/>
-      <c r="C75" s="92"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" s="4">
-        <v>1</v>
-      </c>
-      <c r="H75" s="4">
-        <v>0.25</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="6">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="J75" s="70">
         <v>0</v>
       </c>
-      <c r="K75" s="88">
-        <v>0.67</v>
-      </c>
-      <c r="L75" s="80"/>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="121"/>
-      <c r="P75" s="122"/>
-      <c r="Q75" s="121"/>
-      <c r="R75" s="121"/>
-      <c r="S75" s="121"/>
-      <c r="T75" s="121"/>
-      <c r="U75" s="121"/>
-      <c r="V75" s="121"/>
-      <c r="W75" s="123"/>
-    </row>
-    <row r="76" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="70">
+        <v>0</v>
+      </c>
+      <c r="L75" s="70">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="19"/>
+    </row>
+    <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="97"/>
-      <c r="C76" s="92"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>8</v>
@@ -4993,41 +5109,41 @@
         <v>115</v>
       </c>
       <c r="G76" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J76" s="70">
         <v>0</v>
       </c>
-      <c r="K76" s="70">
-        <v>0</v>
-      </c>
-      <c r="L76" s="70"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="19"/>
-    </row>
-    <row r="77" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="88">
+        <v>0.67</v>
+      </c>
+      <c r="L76" s="80">
+        <v>0</v>
+      </c>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="93"/>
+      <c r="S76" s="93"/>
+      <c r="T76" s="93"/>
+      <c r="U76" s="93"/>
+      <c r="V76" s="93"/>
+      <c r="W76" s="95"/>
+    </row>
+    <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="97"/>
-      <c r="C77" s="92" t="s">
-        <v>118</v>
-      </c>
+      <c r="C77" s="109"/>
       <c r="D77" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
@@ -5036,10 +5152,10 @@
         <v>115</v>
       </c>
       <c r="G77" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" si="2"/>
@@ -5051,7 +5167,9 @@
       <c r="K77" s="70">
         <v>0</v>
       </c>
-      <c r="L77" s="70"/>
+      <c r="L77" s="70">
+        <v>0</v>
+      </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="17"/>
@@ -5064,11 +5182,13 @@
       <c r="V77" s="17"/>
       <c r="W77" s="19"/>
     </row>
-    <row r="78" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="97"/>
-      <c r="C78" s="92"/>
+      <c r="C78" s="109" t="s">
+        <v>118</v>
+      </c>
       <c r="D78" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
@@ -5080,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" si="2"/>
@@ -5092,7 +5212,9 @@
       <c r="K78" s="70">
         <v>0</v>
       </c>
-      <c r="L78" s="70"/>
+      <c r="L78" s="70">
+        <v>0</v>
+      </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="17"/>
@@ -5105,23 +5227,37 @@
       <c r="V78" s="17"/>
       <c r="W78" s="19"/>
     </row>
-    <row r="79" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="97"/>
-      <c r="C79" s="92"/>
+      <c r="C79" s="109"/>
       <c r="D79" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79" s="4">
+        <v>3</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I79" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
+      <c r="J79" s="70">
+        <v>0</v>
+      </c>
+      <c r="K79" s="70">
+        <v>0</v>
+      </c>
+      <c r="L79" s="70">
+        <v>0</v>
+      </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="17"/>
@@ -5134,27 +5270,19 @@
       <c r="V79" s="17"/>
       <c r="W79" s="19"/>
     </row>
-    <row r="80" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="97"/>
-      <c r="C80" s="92"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G80" s="4">
-        <v>1</v>
-      </c>
-      <c r="H80" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
       <c r="I80" s="6">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J80" s="70">
         <v>0</v>
@@ -5162,26 +5290,26 @@
       <c r="K80" s="70">
         <v>0</v>
       </c>
-      <c r="L80" s="70"/>
-      <c r="M80" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="N80" s="80"/>
-      <c r="O80" s="121"/>
-      <c r="P80" s="122"/>
-      <c r="Q80" s="121"/>
-      <c r="R80" s="121"/>
-      <c r="S80" s="121"/>
-      <c r="T80" s="121"/>
-      <c r="U80" s="121"/>
-      <c r="V80" s="121"/>
-      <c r="W80" s="123"/>
-    </row>
-    <row r="81" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="70">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="19"/>
+    </row>
+    <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="97"/>
-      <c r="C81" s="92"/>
+      <c r="C81" s="109"/>
       <c r="D81" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
@@ -5190,14 +5318,14 @@
         <v>115</v>
       </c>
       <c r="G81" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J81" s="70">
         <v>0</v>
@@ -5205,26 +5333,28 @@
       <c r="K81" s="70">
         <v>0</v>
       </c>
-      <c r="L81" s="70"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="17"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="19"/>
-    </row>
-    <row r="82" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="70">
+        <v>0</v>
+      </c>
+      <c r="M81" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="N81" s="80"/>
+      <c r="O81" s="93"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="93"/>
+      <c r="S81" s="93"/>
+      <c r="T81" s="93"/>
+      <c r="U81" s="93"/>
+      <c r="V81" s="93"/>
+      <c r="W81" s="95"/>
+    </row>
+    <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="97"/>
-      <c r="C82" s="92" t="s">
-        <v>119</v>
-      </c>
+      <c r="C82" s="109"/>
       <c r="D82" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
@@ -5233,7 +5363,7 @@
         <v>115</v>
       </c>
       <c r="G82" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" s="4">
         <v>0.25</v>
@@ -5248,7 +5378,9 @@
       <c r="K82" s="70">
         <v>0</v>
       </c>
-      <c r="L82" s="70"/>
+      <c r="L82" s="70">
+        <v>0</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="17"/>
@@ -5261,11 +5393,13 @@
       <c r="V82" s="17"/>
       <c r="W82" s="19"/>
     </row>
-    <row r="83" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="97"/>
-      <c r="C83" s="92"/>
+      <c r="C83" s="109" t="s">
+        <v>119</v>
+      </c>
       <c r="D83" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
@@ -5277,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" si="2"/>
@@ -5289,7 +5423,9 @@
       <c r="K83" s="70">
         <v>0</v>
       </c>
-      <c r="L83" s="70"/>
+      <c r="L83" s="70">
+        <v>0</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="17"/>
@@ -5302,23 +5438,37 @@
       <c r="V83" s="17"/>
       <c r="W83" s="19"/>
     </row>
-    <row r="84" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="97"/>
-      <c r="C84" s="92"/>
+      <c r="C84" s="109"/>
       <c r="D84" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" s="4">
+        <v>3</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I84" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
+      <c r="J84" s="70">
+        <v>0</v>
+      </c>
+      <c r="K84" s="70">
+        <v>0</v>
+      </c>
+      <c r="L84" s="70">
+        <v>0</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="17"/>
@@ -5331,27 +5481,19 @@
       <c r="V84" s="17"/>
       <c r="W84" s="19"/>
     </row>
-    <row r="85" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="97"/>
-      <c r="C85" s="92"/>
+      <c r="C85" s="109"/>
       <c r="D85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G85" s="4">
-        <v>1</v>
-      </c>
-      <c r="H85" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J85" s="70">
         <v>0</v>
@@ -5359,26 +5501,26 @@
       <c r="K85" s="70">
         <v>0</v>
       </c>
-      <c r="L85" s="70"/>
-      <c r="M85" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N85" s="80"/>
-      <c r="O85" s="121"/>
-      <c r="P85" s="122"/>
-      <c r="Q85" s="121"/>
-      <c r="R85" s="121"/>
-      <c r="S85" s="121"/>
-      <c r="T85" s="121"/>
-      <c r="U85" s="121"/>
-      <c r="V85" s="121"/>
-      <c r="W85" s="123"/>
-    </row>
-    <row r="86" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="70">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="19"/>
+    </row>
+    <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="97"/>
-      <c r="C86" s="92"/>
+      <c r="C86" s="109"/>
       <c r="D86" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
@@ -5387,14 +5529,14 @@
         <v>115</v>
       </c>
       <c r="G86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J86" s="70">
         <v>0</v>
@@ -5402,26 +5544,28 @@
       <c r="K86" s="70">
         <v>0</v>
       </c>
-      <c r="L86" s="70"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="17"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="19"/>
-    </row>
-    <row r="87" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="70">
+        <v>0</v>
+      </c>
+      <c r="M86" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N86" s="80"/>
+      <c r="O86" s="93"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="93"/>
+      <c r="R86" s="93"/>
+      <c r="S86" s="93"/>
+      <c r="T86" s="93"/>
+      <c r="U86" s="93"/>
+      <c r="V86" s="93"/>
+      <c r="W86" s="95"/>
+    </row>
+    <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="97"/>
-      <c r="C87" s="92" t="s">
-        <v>120</v>
-      </c>
+      <c r="C87" s="109"/>
       <c r="D87" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
@@ -5430,7 +5574,7 @@
         <v>115</v>
       </c>
       <c r="G87" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" s="4">
         <v>0.25</v>
@@ -5445,7 +5589,9 @@
       <c r="K87" s="70">
         <v>0</v>
       </c>
-      <c r="L87" s="70"/>
+      <c r="L87" s="70">
+        <v>0</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="17"/>
@@ -5458,11 +5604,13 @@
       <c r="V87" s="17"/>
       <c r="W87" s="19"/>
     </row>
-    <row r="88" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="97"/>
-      <c r="C88" s="92"/>
+      <c r="C88" s="109" t="s">
+        <v>120</v>
+      </c>
       <c r="D88" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
@@ -5474,7 +5622,7 @@
         <v>3</v>
       </c>
       <c r="H88" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" si="2"/>
@@ -5486,7 +5634,9 @@
       <c r="K88" s="70">
         <v>0</v>
       </c>
-      <c r="L88" s="70"/>
+      <c r="L88" s="70">
+        <v>0</v>
+      </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="17"/>
@@ -5499,23 +5649,37 @@
       <c r="V88" s="17"/>
       <c r="W88" s="19"/>
     </row>
-    <row r="89" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="97"/>
-      <c r="C89" s="92"/>
+      <c r="C89" s="109"/>
       <c r="D89" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" s="4">
+        <v>3</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I89" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
-      <c r="L89" s="70"/>
+      <c r="J89" s="70">
+        <v>0</v>
+      </c>
+      <c r="K89" s="70">
+        <v>0</v>
+      </c>
+      <c r="L89" s="70">
+        <v>0</v>
+      </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="17"/>
@@ -5528,27 +5692,19 @@
       <c r="V89" s="17"/>
       <c r="W89" s="19"/>
     </row>
-    <row r="90" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="97"/>
-      <c r="C90" s="92"/>
+      <c r="C90" s="109"/>
       <c r="D90" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J90" s="70">
         <v>0</v>
@@ -5556,26 +5712,26 @@
       <c r="K90" s="70">
         <v>0</v>
       </c>
-      <c r="L90" s="70"/>
-      <c r="M90" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N90" s="80"/>
-      <c r="O90" s="121"/>
-      <c r="P90" s="122"/>
-      <c r="Q90" s="121"/>
-      <c r="R90" s="121"/>
-      <c r="S90" s="121"/>
-      <c r="T90" s="121"/>
-      <c r="U90" s="121"/>
-      <c r="V90" s="121"/>
-      <c r="W90" s="123"/>
-    </row>
-    <row r="91" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L90" s="70">
+        <v>0</v>
+      </c>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="19"/>
+    </row>
+    <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="97"/>
-      <c r="C91" s="92"/>
+      <c r="C91" s="109"/>
       <c r="D91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
@@ -5584,14 +5740,14 @@
         <v>115</v>
       </c>
       <c r="G91" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I91" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J91" s="70">
         <v>0</v>
@@ -5599,26 +5755,28 @@
       <c r="K91" s="70">
         <v>0</v>
       </c>
-      <c r="L91" s="70"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="19"/>
-    </row>
-    <row r="92" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L91" s="70">
+        <v>0</v>
+      </c>
+      <c r="M91" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N91" s="80"/>
+      <c r="O91" s="93"/>
+      <c r="P91" s="94"/>
+      <c r="Q91" s="93"/>
+      <c r="R91" s="93"/>
+      <c r="S91" s="93"/>
+      <c r="T91" s="93"/>
+      <c r="U91" s="93"/>
+      <c r="V91" s="93"/>
+      <c r="W91" s="95"/>
+    </row>
+    <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="97"/>
-      <c r="C92" s="92" t="s">
-        <v>121</v>
-      </c>
+      <c r="C92" s="109"/>
       <c r="D92" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
@@ -5627,7 +5785,7 @@
         <v>115</v>
       </c>
       <c r="G92" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" s="4">
         <v>0.25</v>
@@ -5642,7 +5800,9 @@
       <c r="K92" s="70">
         <v>0</v>
       </c>
-      <c r="L92" s="70"/>
+      <c r="L92" s="70">
+        <v>0</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="17"/>
@@ -5655,11 +5815,13 @@
       <c r="V92" s="17"/>
       <c r="W92" s="19"/>
     </row>
-    <row r="93" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="97"/>
-      <c r="C93" s="92"/>
+      <c r="C93" s="109" t="s">
+        <v>121</v>
+      </c>
       <c r="D93" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>8</v>
@@ -5671,7 +5833,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I93" s="6">
         <f t="shared" si="2"/>
@@ -5683,7 +5845,9 @@
       <c r="K93" s="70">
         <v>0</v>
       </c>
-      <c r="L93" s="70"/>
+      <c r="L93" s="70">
+        <v>0</v>
+      </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="17"/>
@@ -5696,23 +5860,37 @@
       <c r="V93" s="17"/>
       <c r="W93" s="19"/>
     </row>
-    <row r="94" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="97"/>
-      <c r="C94" s="92"/>
+      <c r="C94" s="109"/>
       <c r="D94" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" s="4">
+        <v>3</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I94" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J94" s="70"/>
-      <c r="K94" s="70"/>
-      <c r="L94" s="70"/>
+      <c r="J94" s="70">
+        <v>0</v>
+      </c>
+      <c r="K94" s="70">
+        <v>0</v>
+      </c>
+      <c r="L94" s="70">
+        <v>0</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="17"/>
@@ -5725,27 +5903,19 @@
       <c r="V94" s="17"/>
       <c r="W94" s="19"/>
     </row>
-    <row r="95" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="97"/>
-      <c r="C95" s="92"/>
+      <c r="C95" s="109"/>
       <c r="D95" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1</v>
-      </c>
-      <c r="H95" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="6">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J95" s="70">
         <v>0</v>
@@ -5753,26 +5923,26 @@
       <c r="K95" s="70">
         <v>0</v>
       </c>
-      <c r="L95" s="70"/>
-      <c r="M95" s="80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N95" s="80"/>
-      <c r="O95" s="121"/>
-      <c r="P95" s="122"/>
-      <c r="Q95" s="121"/>
-      <c r="R95" s="121"/>
-      <c r="S95" s="121"/>
-      <c r="T95" s="121"/>
-      <c r="U95" s="121"/>
-      <c r="V95" s="121"/>
-      <c r="W95" s="123"/>
-    </row>
-    <row r="96" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="70">
+        <v>0</v>
+      </c>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="19"/>
+    </row>
+    <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="97"/>
-      <c r="C96" s="92"/>
+      <c r="C96" s="109"/>
       <c r="D96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>8</v>
@@ -5781,14 +5951,14 @@
         <v>115</v>
       </c>
       <c r="G96" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J96" s="70">
         <v>0</v>
@@ -5796,26 +5966,28 @@
       <c r="K96" s="70">
         <v>0</v>
       </c>
-      <c r="L96" s="70"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="19"/>
-    </row>
-    <row r="97" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L96" s="70">
+        <v>0</v>
+      </c>
+      <c r="M96" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N96" s="80"/>
+      <c r="O96" s="93"/>
+      <c r="P96" s="94"/>
+      <c r="Q96" s="93"/>
+      <c r="R96" s="93"/>
+      <c r="S96" s="93"/>
+      <c r="T96" s="93"/>
+      <c r="U96" s="93"/>
+      <c r="V96" s="93"/>
+      <c r="W96" s="95"/>
+    </row>
+    <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="97"/>
-      <c r="C97" s="92" t="s">
-        <v>122</v>
-      </c>
+      <c r="C97" s="109"/>
       <c r="D97" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>8</v>
@@ -5824,7 +5996,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" s="4">
         <v>0.25</v>
@@ -5839,7 +6011,9 @@
       <c r="K97" s="70">
         <v>0</v>
       </c>
-      <c r="L97" s="70"/>
+      <c r="L97" s="70">
+        <v>0</v>
+      </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="17"/>
@@ -5852,11 +6026,13 @@
       <c r="V97" s="17"/>
       <c r="W97" s="19"/>
     </row>
-    <row r="98" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="97"/>
-      <c r="C98" s="92"/>
+      <c r="C98" s="109" t="s">
+        <v>122</v>
+      </c>
       <c r="D98" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>8</v>
@@ -5868,7 +6044,7 @@
         <v>3</v>
       </c>
       <c r="H98" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I98" s="6">
         <f t="shared" si="2"/>
@@ -5880,7 +6056,9 @@
       <c r="K98" s="70">
         <v>0</v>
       </c>
-      <c r="L98" s="70"/>
+      <c r="L98" s="70">
+        <v>0</v>
+      </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="17"/>
@@ -5893,23 +6071,37 @@
       <c r="V98" s="17"/>
       <c r="W98" s="19"/>
     </row>
-    <row r="99" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="97"/>
-      <c r="C99" s="92"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="4">
+        <v>3</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I99" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
+      <c r="J99" s="70">
+        <v>0</v>
+      </c>
+      <c r="K99" s="70">
+        <v>0</v>
+      </c>
+      <c r="L99" s="70">
+        <v>0</v>
+      </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="17"/>
@@ -5922,27 +6114,19 @@
       <c r="V99" s="17"/>
       <c r="W99" s="19"/>
     </row>
-    <row r="100" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="97"/>
-      <c r="C100" s="92"/>
+      <c r="C100" s="109"/>
       <c r="D100" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" s="4">
-        <v>1</v>
-      </c>
-      <c r="H100" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="6">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J100" s="70">
         <v>0</v>
@@ -5950,26 +6134,26 @@
       <c r="K100" s="70">
         <v>0</v>
       </c>
-      <c r="L100" s="70"/>
-      <c r="M100" s="80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N100" s="80"/>
-      <c r="O100" s="121"/>
-      <c r="P100" s="122"/>
-      <c r="Q100" s="121"/>
-      <c r="R100" s="121"/>
-      <c r="S100" s="121"/>
-      <c r="T100" s="121"/>
-      <c r="U100" s="121"/>
-      <c r="V100" s="121"/>
-      <c r="W100" s="123"/>
-    </row>
-    <row r="101" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="70">
+        <v>0</v>
+      </c>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="19"/>
+    </row>
+    <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="97"/>
-      <c r="C101" s="92"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>8</v>
@@ -5978,14 +6162,14 @@
         <v>115</v>
       </c>
       <c r="G101" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I101" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J101" s="70">
         <v>0</v>
@@ -5993,26 +6177,28 @@
       <c r="K101" s="70">
         <v>0</v>
       </c>
-      <c r="L101" s="70"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="19"/>
-    </row>
-    <row r="102" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="70">
+        <v>0</v>
+      </c>
+      <c r="M101" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N101" s="80"/>
+      <c r="O101" s="93"/>
+      <c r="P101" s="94"/>
+      <c r="Q101" s="93"/>
+      <c r="R101" s="93"/>
+      <c r="S101" s="93"/>
+      <c r="T101" s="93"/>
+      <c r="U101" s="93"/>
+      <c r="V101" s="93"/>
+      <c r="W101" s="95"/>
+    </row>
+    <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="97"/>
-      <c r="C102" s="92" t="s">
-        <v>123</v>
-      </c>
+      <c r="C102" s="109"/>
       <c r="D102" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
@@ -6021,7 +6207,7 @@
         <v>115</v>
       </c>
       <c r="G102" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" s="4">
         <v>0.25</v>
@@ -6036,7 +6222,9 @@
       <c r="K102" s="70">
         <v>0</v>
       </c>
-      <c r="L102" s="70"/>
+      <c r="L102" s="70">
+        <v>0</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="17"/>
@@ -6049,11 +6237,13 @@
       <c r="V102" s="17"/>
       <c r="W102" s="19"/>
     </row>
-    <row r="103" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="97"/>
-      <c r="C103" s="92"/>
+      <c r="C103" s="109" t="s">
+        <v>123</v>
+      </c>
       <c r="D103" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>8</v>
@@ -6065,7 +6255,7 @@
         <v>3</v>
       </c>
       <c r="H103" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I103" s="6">
         <f t="shared" si="2"/>
@@ -6077,7 +6267,9 @@
       <c r="K103" s="70">
         <v>0</v>
       </c>
-      <c r="L103" s="70"/>
+      <c r="L103" s="70">
+        <v>0</v>
+      </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="17"/>
@@ -6090,23 +6282,37 @@
       <c r="V103" s="17"/>
       <c r="W103" s="19"/>
     </row>
-    <row r="104" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="97"/>
-      <c r="C104" s="92"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" s="4">
+        <v>3</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I104" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="70"/>
+      <c r="J104" s="70">
+        <v>0</v>
+      </c>
+      <c r="K104" s="70">
+        <v>0</v>
+      </c>
+      <c r="L104" s="70">
+        <v>0</v>
+      </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="17"/>
@@ -6119,27 +6325,19 @@
       <c r="V104" s="17"/>
       <c r="W104" s="19"/>
     </row>
-    <row r="105" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="97"/>
-      <c r="C105" s="92"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" s="4">
-        <v>1</v>
-      </c>
-      <c r="H105" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
       <c r="I105" s="6">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J105" s="70">
         <v>0</v>
@@ -6147,26 +6345,26 @@
       <c r="K105" s="70">
         <v>0</v>
       </c>
-      <c r="L105" s="70"/>
-      <c r="M105" s="80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N105" s="80"/>
-      <c r="O105" s="121"/>
-      <c r="P105" s="122"/>
-      <c r="Q105" s="121"/>
-      <c r="R105" s="121"/>
-      <c r="S105" s="121"/>
-      <c r="T105" s="121"/>
-      <c r="U105" s="121"/>
-      <c r="V105" s="121"/>
-      <c r="W105" s="123"/>
-    </row>
-    <row r="106" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L105" s="70">
+        <v>0</v>
+      </c>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="19"/>
+    </row>
+    <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="97"/>
-      <c r="C106" s="92"/>
+      <c r="C106" s="109"/>
       <c r="D106" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>8</v>
@@ -6175,14 +6373,14 @@
         <v>115</v>
       </c>
       <c r="G106" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I106" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J106" s="70">
         <v>0</v>
@@ -6190,26 +6388,28 @@
       <c r="K106" s="70">
         <v>0</v>
       </c>
-      <c r="L106" s="70"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="17"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="19"/>
-    </row>
-    <row r="107" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L106" s="70">
+        <v>0</v>
+      </c>
+      <c r="M106" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N106" s="80"/>
+      <c r="O106" s="93"/>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="93"/>
+      <c r="R106" s="93"/>
+      <c r="S106" s="93"/>
+      <c r="T106" s="93"/>
+      <c r="U106" s="93"/>
+      <c r="V106" s="93"/>
+      <c r="W106" s="95"/>
+    </row>
+    <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="97"/>
-      <c r="C107" s="92" t="s">
-        <v>124</v>
-      </c>
+      <c r="C107" s="109"/>
       <c r="D107" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>8</v>
@@ -6218,7 +6418,7 @@
         <v>115</v>
       </c>
       <c r="G107" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" s="4">
         <v>0.25</v>
@@ -6233,7 +6433,9 @@
       <c r="K107" s="70">
         <v>0</v>
       </c>
-      <c r="L107" s="70"/>
+      <c r="L107" s="70">
+        <v>0</v>
+      </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="17"/>
@@ -6246,11 +6448,13 @@
       <c r="V107" s="17"/>
       <c r="W107" s="19"/>
     </row>
-    <row r="108" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="97"/>
-      <c r="C108" s="92"/>
+      <c r="C108" s="109" t="s">
+        <v>124</v>
+      </c>
       <c r="D108" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>8</v>
@@ -6262,7 +6466,7 @@
         <v>3</v>
       </c>
       <c r="H108" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I108" s="6">
         <f t="shared" si="2"/>
@@ -6274,7 +6478,9 @@
       <c r="K108" s="70">
         <v>0</v>
       </c>
-      <c r="L108" s="70"/>
+      <c r="L108" s="70">
+        <v>0</v>
+      </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="17"/>
@@ -6287,23 +6493,37 @@
       <c r="V108" s="17"/>
       <c r="W108" s="19"/>
     </row>
-    <row r="109" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="97"/>
-      <c r="C109" s="92"/>
+      <c r="C109" s="109"/>
       <c r="D109" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" s="4">
+        <v>3</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I109" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="70"/>
+      <c r="J109" s="70">
+        <v>0</v>
+      </c>
+      <c r="K109" s="70">
+        <v>0</v>
+      </c>
+      <c r="L109" s="70">
+        <v>0</v>
+      </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="17"/>
@@ -6316,27 +6536,19 @@
       <c r="V109" s="17"/>
       <c r="W109" s="19"/>
     </row>
-    <row r="110" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="97"/>
-      <c r="C110" s="92"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G110" s="4">
-        <v>1</v>
-      </c>
-      <c r="H110" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J110" s="70">
         <v>0</v>
@@ -6344,26 +6556,26 @@
       <c r="K110" s="70">
         <v>0</v>
       </c>
-      <c r="L110" s="70"/>
-      <c r="M110" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N110" s="80"/>
-      <c r="O110" s="121"/>
-      <c r="P110" s="122"/>
-      <c r="Q110" s="121"/>
-      <c r="R110" s="121"/>
-      <c r="S110" s="121"/>
-      <c r="T110" s="121"/>
-      <c r="U110" s="121"/>
-      <c r="V110" s="121"/>
-      <c r="W110" s="123"/>
-    </row>
-    <row r="111" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="70">
+        <v>0</v>
+      </c>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="19"/>
+    </row>
+    <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="97"/>
-      <c r="C111" s="92"/>
+      <c r="C111" s="109"/>
       <c r="D111" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>8</v>
@@ -6372,14 +6584,14 @@
         <v>115</v>
       </c>
       <c r="G111" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I111" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J111" s="70">
         <v>0</v>
@@ -6387,26 +6599,28 @@
       <c r="K111" s="70">
         <v>0</v>
       </c>
-      <c r="L111" s="70"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="16"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="17"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="19"/>
-    </row>
-    <row r="112" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L111" s="70">
+        <v>0</v>
+      </c>
+      <c r="M111" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N111" s="80"/>
+      <c r="O111" s="93"/>
+      <c r="P111" s="94"/>
+      <c r="Q111" s="93"/>
+      <c r="R111" s="93"/>
+      <c r="S111" s="93"/>
+      <c r="T111" s="93"/>
+      <c r="U111" s="93"/>
+      <c r="V111" s="93"/>
+      <c r="W111" s="95"/>
+    </row>
+    <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="97"/>
-      <c r="C112" s="92" t="s">
-        <v>125</v>
-      </c>
+      <c r="C112" s="109"/>
       <c r="D112" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>8</v>
@@ -6415,7 +6629,7 @@
         <v>115</v>
       </c>
       <c r="G112" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" s="4">
         <v>0.25</v>
@@ -6430,7 +6644,9 @@
       <c r="K112" s="70">
         <v>0</v>
       </c>
-      <c r="L112" s="70"/>
+      <c r="L112" s="70">
+        <v>0</v>
+      </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="17"/>
@@ -6443,11 +6659,13 @@
       <c r="V112" s="17"/>
       <c r="W112" s="19"/>
     </row>
-    <row r="113" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="97"/>
-      <c r="C113" s="92"/>
+      <c r="C113" s="109" t="s">
+        <v>125</v>
+      </c>
       <c r="D113" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>8</v>
@@ -6459,7 +6677,7 @@
         <v>3</v>
       </c>
       <c r="H113" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I113" s="6">
         <f t="shared" si="2"/>
@@ -6471,7 +6689,9 @@
       <c r="K113" s="70">
         <v>0</v>
       </c>
-      <c r="L113" s="70"/>
+      <c r="L113" s="70">
+        <v>0</v>
+      </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="17"/>
@@ -6484,23 +6704,37 @@
       <c r="V113" s="17"/>
       <c r="W113" s="19"/>
     </row>
-    <row r="114" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="97"/>
-      <c r="C114" s="92"/>
+      <c r="C114" s="109"/>
       <c r="D114" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G114" s="4">
+        <v>3</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I114" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J114" s="70"/>
-      <c r="K114" s="70"/>
-      <c r="L114" s="70"/>
+      <c r="J114" s="70">
+        <v>0</v>
+      </c>
+      <c r="K114" s="70">
+        <v>0</v>
+      </c>
+      <c r="L114" s="70">
+        <v>0</v>
+      </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="17"/>
@@ -6513,27 +6747,19 @@
       <c r="V114" s="17"/>
       <c r="W114" s="19"/>
     </row>
-    <row r="115" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="97"/>
-      <c r="C115" s="92"/>
+      <c r="C115" s="109"/>
       <c r="D115" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1</v>
-      </c>
-      <c r="H115" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
       <c r="I115" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J115" s="70">
         <v>0</v>
@@ -6541,26 +6767,26 @@
       <c r="K115" s="70">
         <v>0</v>
       </c>
-      <c r="L115" s="70"/>
-      <c r="M115" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N115" s="80"/>
-      <c r="O115" s="121"/>
-      <c r="P115" s="122"/>
-      <c r="Q115" s="121"/>
-      <c r="R115" s="121"/>
-      <c r="S115" s="121"/>
-      <c r="T115" s="121"/>
-      <c r="U115" s="121"/>
-      <c r="V115" s="121"/>
-      <c r="W115" s="123"/>
-    </row>
-    <row r="116" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L115" s="70">
+        <v>0</v>
+      </c>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="17"/>
+      <c r="V115" s="17"/>
+      <c r="W115" s="19"/>
+    </row>
+    <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="97"/>
-      <c r="C116" s="92"/>
+      <c r="C116" s="109"/>
       <c r="D116" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>8</v>
@@ -6569,14 +6795,14 @@
         <v>115</v>
       </c>
       <c r="G116" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I116" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J116" s="70">
         <v>0</v>
@@ -6584,26 +6810,28 @@
       <c r="K116" s="70">
         <v>0</v>
       </c>
-      <c r="L116" s="70"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="17"/>
-      <c r="S116" s="17"/>
-      <c r="T116" s="17"/>
-      <c r="U116" s="17"/>
-      <c r="V116" s="17"/>
-      <c r="W116" s="19"/>
-    </row>
-    <row r="117" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L116" s="70">
+        <v>0</v>
+      </c>
+      <c r="M116" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N116" s="80"/>
+      <c r="O116" s="93"/>
+      <c r="P116" s="94"/>
+      <c r="Q116" s="93"/>
+      <c r="R116" s="93"/>
+      <c r="S116" s="93"/>
+      <c r="T116" s="93"/>
+      <c r="U116" s="93"/>
+      <c r="V116" s="93"/>
+      <c r="W116" s="95"/>
+    </row>
+    <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="97"/>
-      <c r="C117" s="92" t="s">
-        <v>126</v>
-      </c>
+      <c r="C117" s="109"/>
       <c r="D117" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>8</v>
@@ -6612,7 +6840,7 @@
         <v>115</v>
       </c>
       <c r="G117" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117" s="4">
         <v>0.25</v>
@@ -6627,7 +6855,9 @@
       <c r="K117" s="70">
         <v>0</v>
       </c>
-      <c r="L117" s="70"/>
+      <c r="L117" s="70">
+        <v>0</v>
+      </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="17"/>
@@ -6640,11 +6870,13 @@
       <c r="V117" s="17"/>
       <c r="W117" s="19"/>
     </row>
-    <row r="118" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="97"/>
-      <c r="C118" s="92"/>
+      <c r="C118" s="109" t="s">
+        <v>126</v>
+      </c>
       <c r="D118" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>8</v>
@@ -6656,7 +6888,7 @@
         <v>3</v>
       </c>
       <c r="H118" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I118" s="6">
         <f t="shared" si="2"/>
@@ -6668,7 +6900,9 @@
       <c r="K118" s="70">
         <v>0</v>
       </c>
-      <c r="L118" s="70"/>
+      <c r="L118" s="70">
+        <v>0</v>
+      </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="17"/>
@@ -6681,23 +6915,37 @@
       <c r="V118" s="17"/>
       <c r="W118" s="19"/>
     </row>
-    <row r="119" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="97"/>
-      <c r="C119" s="92"/>
+      <c r="C119" s="109"/>
       <c r="D119" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G119" s="4">
+        <v>3</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I119" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J119" s="70"/>
-      <c r="K119" s="70"/>
-      <c r="L119" s="70"/>
+      <c r="J119" s="70">
+        <v>0</v>
+      </c>
+      <c r="K119" s="70">
+        <v>0</v>
+      </c>
+      <c r="L119" s="70">
+        <v>0</v>
+      </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="17"/>
@@ -6710,27 +6958,19 @@
       <c r="V119" s="17"/>
       <c r="W119" s="19"/>
     </row>
-    <row r="120" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="97"/>
-      <c r="C120" s="92"/>
+      <c r="C120" s="109"/>
       <c r="D120" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1</v>
-      </c>
-      <c r="H120" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
       <c r="I120" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J120" s="70">
         <v>0</v>
@@ -6738,26 +6978,26 @@
       <c r="K120" s="70">
         <v>0</v>
       </c>
-      <c r="L120" s="70"/>
-      <c r="M120" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N120" s="80"/>
-      <c r="O120" s="121"/>
-      <c r="P120" s="122"/>
-      <c r="Q120" s="121"/>
-      <c r="R120" s="121"/>
-      <c r="S120" s="121"/>
-      <c r="T120" s="121"/>
-      <c r="U120" s="121"/>
-      <c r="V120" s="121"/>
-      <c r="W120" s="123"/>
-    </row>
-    <row r="121" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L120" s="70">
+        <v>0</v>
+      </c>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="19"/>
+    </row>
+    <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="97"/>
-      <c r="C121" s="92"/>
+      <c r="C121" s="109"/>
       <c r="D121" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>8</v>
@@ -6766,14 +7006,14 @@
         <v>115</v>
       </c>
       <c r="G121" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I121" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J121" s="70">
         <v>0</v>
@@ -6781,26 +7021,28 @@
       <c r="K121" s="70">
         <v>0</v>
       </c>
-      <c r="L121" s="70"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="19"/>
-    </row>
-    <row r="122" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="70">
+        <v>0</v>
+      </c>
+      <c r="M121" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N121" s="80"/>
+      <c r="O121" s="93"/>
+      <c r="P121" s="94"/>
+      <c r="Q121" s="93"/>
+      <c r="R121" s="93"/>
+      <c r="S121" s="93"/>
+      <c r="T121" s="93"/>
+      <c r="U121" s="93"/>
+      <c r="V121" s="93"/>
+      <c r="W121" s="95"/>
+    </row>
+    <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="97"/>
-      <c r="C122" s="92" t="s">
-        <v>127</v>
-      </c>
+      <c r="C122" s="109"/>
       <c r="D122" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>8</v>
@@ -6809,7 +7051,7 @@
         <v>115</v>
       </c>
       <c r="G122" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H122" s="4">
         <v>0.25</v>
@@ -6824,7 +7066,9 @@
       <c r="K122" s="70">
         <v>0</v>
       </c>
-      <c r="L122" s="70"/>
+      <c r="L122" s="70">
+        <v>0</v>
+      </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="17"/>
@@ -6837,11 +7081,13 @@
       <c r="V122" s="17"/>
       <c r="W122" s="19"/>
     </row>
-    <row r="123" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="97"/>
-      <c r="C123" s="92"/>
+      <c r="C123" s="109" t="s">
+        <v>127</v>
+      </c>
       <c r="D123" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>8</v>
@@ -6853,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="H123" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I123" s="6">
         <f t="shared" si="2"/>
@@ -6865,7 +7111,9 @@
       <c r="K123" s="70">
         <v>0</v>
       </c>
-      <c r="L123" s="70"/>
+      <c r="L123" s="70">
+        <v>0</v>
+      </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="17"/>
@@ -6878,23 +7126,37 @@
       <c r="V123" s="17"/>
       <c r="W123" s="19"/>
     </row>
-    <row r="124" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="97"/>
-      <c r="C124" s="92"/>
+      <c r="C124" s="109"/>
       <c r="D124" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G124" s="4">
+        <v>3</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I124" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J124" s="70"/>
-      <c r="K124" s="70"/>
-      <c r="L124" s="70"/>
+      <c r="J124" s="70">
+        <v>0</v>
+      </c>
+      <c r="K124" s="70">
+        <v>0</v>
+      </c>
+      <c r="L124" s="70">
+        <v>0</v>
+      </c>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="17"/>
@@ -6907,27 +7169,19 @@
       <c r="V124" s="17"/>
       <c r="W124" s="19"/>
     </row>
-    <row r="125" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="97"/>
-      <c r="C125" s="92"/>
+      <c r="C125" s="109"/>
       <c r="D125" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G125" s="4">
-        <v>1</v>
-      </c>
-      <c r="H125" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="64"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
       <c r="I125" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J125" s="70">
         <v>0</v>
@@ -6935,26 +7189,26 @@
       <c r="K125" s="70">
         <v>0</v>
       </c>
-      <c r="L125" s="70"/>
-      <c r="M125" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N125" s="80"/>
-      <c r="O125" s="121"/>
-      <c r="P125" s="122"/>
-      <c r="Q125" s="121"/>
-      <c r="R125" s="121"/>
-      <c r="S125" s="121"/>
-      <c r="T125" s="121"/>
-      <c r="U125" s="121"/>
-      <c r="V125" s="121"/>
-      <c r="W125" s="123"/>
-    </row>
-    <row r="126" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L125" s="70">
+        <v>0</v>
+      </c>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="17"/>
+      <c r="R125" s="17"/>
+      <c r="S125" s="17"/>
+      <c r="T125" s="17"/>
+      <c r="U125" s="17"/>
+      <c r="V125" s="17"/>
+      <c r="W125" s="19"/>
+    </row>
+    <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="97"/>
-      <c r="C126" s="92"/>
+      <c r="C126" s="109"/>
       <c r="D126" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>8</v>
@@ -6963,14 +7217,14 @@
         <v>115</v>
       </c>
       <c r="G126" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I126" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J126" s="70">
         <v>0</v>
@@ -6978,26 +7232,28 @@
       <c r="K126" s="70">
         <v>0</v>
       </c>
-      <c r="L126" s="70"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="17"/>
-      <c r="R126" s="17"/>
-      <c r="S126" s="17"/>
-      <c r="T126" s="17"/>
-      <c r="U126" s="17"/>
-      <c r="V126" s="17"/>
-      <c r="W126" s="19"/>
-    </row>
-    <row r="127" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L126" s="70">
+        <v>0</v>
+      </c>
+      <c r="M126" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N126" s="80"/>
+      <c r="O126" s="93"/>
+      <c r="P126" s="94"/>
+      <c r="Q126" s="93"/>
+      <c r="R126" s="93"/>
+      <c r="S126" s="93"/>
+      <c r="T126" s="93"/>
+      <c r="U126" s="93"/>
+      <c r="V126" s="93"/>
+      <c r="W126" s="95"/>
+    </row>
+    <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="97"/>
-      <c r="C127" s="92" t="s">
-        <v>128</v>
-      </c>
+      <c r="C127" s="109"/>
       <c r="D127" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>8</v>
@@ -7006,7 +7262,7 @@
         <v>115</v>
       </c>
       <c r="G127" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" s="4">
         <v>0.25</v>
@@ -7021,7 +7277,9 @@
       <c r="K127" s="70">
         <v>0</v>
       </c>
-      <c r="L127" s="70"/>
+      <c r="L127" s="70">
+        <v>0</v>
+      </c>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="17"/>
@@ -7034,11 +7292,13 @@
       <c r="V127" s="17"/>
       <c r="W127" s="19"/>
     </row>
-    <row r="128" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="97"/>
-      <c r="C128" s="92"/>
+      <c r="C128" s="109" t="s">
+        <v>128</v>
+      </c>
       <c r="D128" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>8</v>
@@ -7050,7 +7310,7 @@
         <v>3</v>
       </c>
       <c r="H128" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I128" s="6">
         <f t="shared" si="2"/>
@@ -7062,7 +7322,9 @@
       <c r="K128" s="70">
         <v>0</v>
       </c>
-      <c r="L128" s="70"/>
+      <c r="L128" s="70">
+        <v>0</v>
+      </c>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="17"/>
@@ -7075,23 +7337,37 @@
       <c r="V128" s="17"/>
       <c r="W128" s="19"/>
     </row>
-    <row r="129" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="97"/>
-      <c r="C129" s="92"/>
+      <c r="C129" s="109"/>
       <c r="D129" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G129" s="4">
+        <v>3</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I129" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J129" s="70"/>
-      <c r="K129" s="70"/>
-      <c r="L129" s="70"/>
+      <c r="J129" s="70">
+        <v>0</v>
+      </c>
+      <c r="K129" s="70">
+        <v>0</v>
+      </c>
+      <c r="L129" s="70">
+        <v>0</v>
+      </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="17"/>
@@ -7104,27 +7380,19 @@
       <c r="V129" s="17"/>
       <c r="W129" s="19"/>
     </row>
-    <row r="130" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="97"/>
-      <c r="C130" s="92"/>
+      <c r="C130" s="109"/>
       <c r="D130" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G130" s="4">
-        <v>1</v>
-      </c>
-      <c r="H130" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
       <c r="I130" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J130" s="70">
         <v>0</v>
@@ -7132,26 +7400,26 @@
       <c r="K130" s="70">
         <v>0</v>
       </c>
-      <c r="L130" s="70"/>
-      <c r="M130" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N130" s="80"/>
-      <c r="O130" s="121"/>
-      <c r="P130" s="122"/>
-      <c r="Q130" s="121"/>
-      <c r="R130" s="121"/>
-      <c r="S130" s="121"/>
-      <c r="T130" s="121"/>
-      <c r="U130" s="121"/>
-      <c r="V130" s="121"/>
-      <c r="W130" s="123"/>
-    </row>
-    <row r="131" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="70">
+        <v>0</v>
+      </c>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="17"/>
+      <c r="R130" s="17"/>
+      <c r="S130" s="17"/>
+      <c r="T130" s="17"/>
+      <c r="U130" s="17"/>
+      <c r="V130" s="17"/>
+      <c r="W130" s="19"/>
+    </row>
+    <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="97"/>
-      <c r="C131" s="92"/>
+      <c r="C131" s="109"/>
       <c r="D131" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>8</v>
@@ -7160,14 +7428,14 @@
         <v>115</v>
       </c>
       <c r="G131" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I131" s="6">
-        <f t="shared" ref="I131:I144" si="3">SUM(J131:W131)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="J131" s="70">
         <v>0</v>
@@ -7175,26 +7443,28 @@
       <c r="K131" s="70">
         <v>0</v>
       </c>
-      <c r="L131" s="70"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="16"/>
-      <c r="Q131" s="17"/>
-      <c r="R131" s="17"/>
-      <c r="S131" s="17"/>
-      <c r="T131" s="17"/>
-      <c r="U131" s="17"/>
-      <c r="V131" s="17"/>
-      <c r="W131" s="19"/>
-    </row>
-    <row r="132" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L131" s="70">
+        <v>0</v>
+      </c>
+      <c r="M131" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N131" s="80"/>
+      <c r="O131" s="93"/>
+      <c r="P131" s="94"/>
+      <c r="Q131" s="93"/>
+      <c r="R131" s="93"/>
+      <c r="S131" s="93"/>
+      <c r="T131" s="93"/>
+      <c r="U131" s="93"/>
+      <c r="V131" s="93"/>
+      <c r="W131" s="95"/>
+    </row>
+    <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="97"/>
-      <c r="C132" s="92" t="s">
-        <v>129</v>
-      </c>
+      <c r="C132" s="109"/>
       <c r="D132" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>8</v>
@@ -7203,13 +7473,13 @@
         <v>115</v>
       </c>
       <c r="G132" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132" s="4">
         <v>0.25</v>
       </c>
       <c r="I132" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I132:I145" si="3">SUM(J132:W132)</f>
         <v>0</v>
       </c>
       <c r="J132" s="70">
@@ -7218,7 +7488,9 @@
       <c r="K132" s="70">
         <v>0</v>
       </c>
-      <c r="L132" s="70"/>
+      <c r="L132" s="70">
+        <v>0</v>
+      </c>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="17"/>
@@ -7231,11 +7503,13 @@
       <c r="V132" s="17"/>
       <c r="W132" s="19"/>
     </row>
-    <row r="133" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="97"/>
-      <c r="C133" s="92"/>
+      <c r="C133" s="109" t="s">
+        <v>129</v>
+      </c>
       <c r="D133" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>8</v>
@@ -7247,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="H133" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I133" s="6">
         <f t="shared" si="3"/>
@@ -7259,7 +7533,9 @@
       <c r="K133" s="70">
         <v>0</v>
       </c>
-      <c r="L133" s="70"/>
+      <c r="L133" s="70">
+        <v>0</v>
+      </c>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="17"/>
@@ -7272,23 +7548,37 @@
       <c r="V133" s="17"/>
       <c r="W133" s="19"/>
     </row>
-    <row r="134" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="97"/>
-      <c r="C134" s="92"/>
+      <c r="C134" s="109"/>
       <c r="D134" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G134" s="4">
+        <v>3</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I134" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="70"/>
+      <c r="J134" s="70">
+        <v>0</v>
+      </c>
+      <c r="K134" s="70">
+        <v>0</v>
+      </c>
+      <c r="L134" s="70">
+        <v>0</v>
+      </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="17"/>
@@ -7301,27 +7591,19 @@
       <c r="V134" s="17"/>
       <c r="W134" s="19"/>
     </row>
-    <row r="135" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="97"/>
-      <c r="C135" s="92"/>
+      <c r="C135" s="109"/>
       <c r="D135" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G135" s="4">
-        <v>1</v>
-      </c>
-      <c r="H135" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="64"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
       <c r="I135" s="6">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J135" s="70">
         <v>0</v>
@@ -7329,26 +7611,26 @@
       <c r="K135" s="70">
         <v>0</v>
       </c>
-      <c r="L135" s="70"/>
-      <c r="M135" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N135" s="80"/>
-      <c r="O135" s="121"/>
-      <c r="P135" s="122"/>
-      <c r="Q135" s="121"/>
-      <c r="R135" s="121"/>
-      <c r="S135" s="121"/>
-      <c r="T135" s="121"/>
-      <c r="U135" s="121"/>
-      <c r="V135" s="121"/>
-      <c r="W135" s="123"/>
-    </row>
-    <row r="136" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="70">
+        <v>0</v>
+      </c>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="16"/>
+      <c r="Q135" s="17"/>
+      <c r="R135" s="17"/>
+      <c r="S135" s="17"/>
+      <c r="T135" s="17"/>
+      <c r="U135" s="17"/>
+      <c r="V135" s="17"/>
+      <c r="W135" s="19"/>
+    </row>
+    <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="97"/>
-      <c r="C136" s="92"/>
+      <c r="C136" s="109"/>
       <c r="D136" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>8</v>
@@ -7357,14 +7639,14 @@
         <v>115</v>
       </c>
       <c r="G136" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I136" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J136" s="70">
         <v>0</v>
@@ -7372,26 +7654,28 @@
       <c r="K136" s="70">
         <v>0</v>
       </c>
-      <c r="L136" s="70"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="17"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17"/>
-      <c r="T136" s="17"/>
-      <c r="U136" s="17"/>
-      <c r="V136" s="17"/>
-      <c r="W136" s="19"/>
-    </row>
-    <row r="137" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="70">
+        <v>0</v>
+      </c>
+      <c r="M136" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N136" s="80"/>
+      <c r="O136" s="93"/>
+      <c r="P136" s="94"/>
+      <c r="Q136" s="93"/>
+      <c r="R136" s="93"/>
+      <c r="S136" s="93"/>
+      <c r="T136" s="93"/>
+      <c r="U136" s="93"/>
+      <c r="V136" s="93"/>
+      <c r="W136" s="95"/>
+    </row>
+    <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="97"/>
-      <c r="C137" s="92" t="s">
-        <v>130</v>
-      </c>
+      <c r="C137" s="109"/>
       <c r="D137" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>8</v>
@@ -7400,7 +7684,7 @@
         <v>115</v>
       </c>
       <c r="G137" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H137" s="4">
         <v>0.25</v>
@@ -7415,7 +7699,9 @@
       <c r="K137" s="70">
         <v>0</v>
       </c>
-      <c r="L137" s="70"/>
+      <c r="L137" s="70">
+        <v>0</v>
+      </c>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="17"/>
@@ -7428,11 +7714,13 @@
       <c r="V137" s="17"/>
       <c r="W137" s="19"/>
     </row>
-    <row r="138" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="97"/>
-      <c r="C138" s="92"/>
+      <c r="C138" s="109" t="s">
+        <v>130</v>
+      </c>
       <c r="D138" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>8</v>
@@ -7444,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="H138" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I138" s="6">
         <f t="shared" si="3"/>
@@ -7456,7 +7744,9 @@
       <c r="K138" s="70">
         <v>0</v>
       </c>
-      <c r="L138" s="70"/>
+      <c r="L138" s="70">
+        <v>0</v>
+      </c>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="17"/>
@@ -7469,23 +7759,37 @@
       <c r="V138" s="17"/>
       <c r="W138" s="19"/>
     </row>
-    <row r="139" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="97"/>
-      <c r="C139" s="92"/>
+      <c r="C139" s="109"/>
       <c r="D139" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G139" s="4">
+        <v>3</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I139" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J139" s="70"/>
-      <c r="K139" s="70"/>
-      <c r="L139" s="70"/>
+      <c r="J139" s="70">
+        <v>0</v>
+      </c>
+      <c r="K139" s="70">
+        <v>0</v>
+      </c>
+      <c r="L139" s="70">
+        <v>0</v>
+      </c>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="17"/>
@@ -7498,27 +7802,19 @@
       <c r="V139" s="17"/>
       <c r="W139" s="19"/>
     </row>
-    <row r="140" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="97"/>
-      <c r="C140" s="92"/>
+      <c r="C140" s="109"/>
       <c r="D140" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G140" s="4">
-        <v>1</v>
-      </c>
-      <c r="H140" s="4">
-        <v>0.1</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
       <c r="I140" s="6">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J140" s="70">
         <v>0</v>
@@ -7526,26 +7822,26 @@
       <c r="K140" s="70">
         <v>0</v>
       </c>
-      <c r="L140" s="70"/>
-      <c r="M140" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N140" s="80"/>
-      <c r="O140" s="121"/>
-      <c r="P140" s="122"/>
-      <c r="Q140" s="121"/>
-      <c r="R140" s="121"/>
-      <c r="S140" s="121"/>
-      <c r="T140" s="121"/>
-      <c r="U140" s="121"/>
-      <c r="V140" s="121"/>
-      <c r="W140" s="123"/>
-    </row>
-    <row r="141" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L140" s="70">
+        <v>0</v>
+      </c>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="17"/>
+      <c r="R140" s="17"/>
+      <c r="S140" s="17"/>
+      <c r="T140" s="17"/>
+      <c r="U140" s="17"/>
+      <c r="V140" s="17"/>
+      <c r="W140" s="19"/>
+    </row>
+    <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="97"/>
-      <c r="C141" s="92"/>
+      <c r="C141" s="109"/>
       <c r="D141" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>8</v>
@@ -7554,14 +7850,14 @@
         <v>115</v>
       </c>
       <c r="G141" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I141" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J141" s="70">
         <v>0</v>
@@ -7569,26 +7865,28 @@
       <c r="K141" s="70">
         <v>0</v>
       </c>
-      <c r="L141" s="70"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="16"/>
-      <c r="Q141" s="17"/>
-      <c r="R141" s="17"/>
-      <c r="S141" s="17"/>
-      <c r="T141" s="17"/>
-      <c r="U141" s="17"/>
-      <c r="V141" s="17"/>
-      <c r="W141" s="19"/>
-    </row>
-    <row r="142" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L141" s="70">
+        <v>0</v>
+      </c>
+      <c r="M141" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N141" s="80"/>
+      <c r="O141" s="93"/>
+      <c r="P141" s="94"/>
+      <c r="Q141" s="93"/>
+      <c r="R141" s="93"/>
+      <c r="S141" s="93"/>
+      <c r="T141" s="93"/>
+      <c r="U141" s="93"/>
+      <c r="V141" s="93"/>
+      <c r="W141" s="95"/>
+    </row>
+    <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="97"/>
-      <c r="C142" s="92" t="s">
-        <v>131</v>
-      </c>
+      <c r="C142" s="109"/>
       <c r="D142" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>8</v>
@@ -7597,7 +7895,7 @@
         <v>115</v>
       </c>
       <c r="G142" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142" s="4">
         <v>0.25</v>
@@ -7612,7 +7910,9 @@
       <c r="K142" s="70">
         <v>0</v>
       </c>
-      <c r="L142" s="70"/>
+      <c r="L142" s="70">
+        <v>0</v>
+      </c>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="17"/>
@@ -7625,11 +7925,13 @@
       <c r="V142" s="17"/>
       <c r="W142" s="19"/>
     </row>
-    <row r="143" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="97"/>
-      <c r="C143" s="92"/>
+      <c r="C143" s="109" t="s">
+        <v>131</v>
+      </c>
       <c r="D143" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>8</v>
@@ -7641,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="H143" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I143" s="6">
         <f t="shared" si="3"/>
@@ -7653,7 +7955,9 @@
       <c r="K143" s="70">
         <v>0</v>
       </c>
-      <c r="L143" s="70"/>
+      <c r="L143" s="70">
+        <v>0</v>
+      </c>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="17"/>
@@ -7666,23 +7970,37 @@
       <c r="V143" s="17"/>
       <c r="W143" s="19"/>
     </row>
-    <row r="144" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="97"/>
-      <c r="C144" s="92"/>
+      <c r="C144" s="109"/>
       <c r="D144" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G144" s="4">
+        <v>3</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I144" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J144" s="70"/>
-      <c r="K144" s="70"/>
-      <c r="L144" s="70"/>
+      <c r="J144" s="70">
+        <v>0</v>
+      </c>
+      <c r="K144" s="70">
+        <v>0</v>
+      </c>
+      <c r="L144" s="70">
+        <v>0</v>
+      </c>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="17"/>
@@ -7695,178 +8013,178 @@
       <c r="V144" s="17"/>
       <c r="W144" s="19"/>
     </row>
-    <row r="145" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="97"/>
-      <c r="C145" s="92"/>
+      <c r="C145" s="109"/>
       <c r="D145" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="64"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="70">
+        <v>0</v>
+      </c>
+      <c r="K145" s="70">
+        <v>0</v>
+      </c>
+      <c r="L145" s="70">
+        <v>0</v>
+      </c>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="16"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="19"/>
+    </row>
+    <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="97"/>
+      <c r="C146" s="109"/>
+      <c r="D146" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" s="64" t="s">
+      <c r="E146" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G146" s="4">
         <v>1</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H146" s="4">
         <v>0.1</v>
       </c>
-      <c r="I145" s="6">
-        <f t="shared" ref="I145" si="4">SUM(J145:W145)</f>
+      <c r="I146" s="6">
+        <f t="shared" ref="I146" si="4">SUM(J146:W146)</f>
         <v>0.02</v>
       </c>
-      <c r="J145" s="70">
-        <v>0</v>
-      </c>
-      <c r="K145" s="70">
-        <v>0</v>
-      </c>
-      <c r="L145" s="70"/>
-      <c r="M145" s="80">
+      <c r="J146" s="70">
+        <v>0</v>
+      </c>
+      <c r="K146" s="70">
+        <v>0</v>
+      </c>
+      <c r="L146" s="70">
+        <v>0</v>
+      </c>
+      <c r="M146" s="80">
         <v>0.02</v>
       </c>
-      <c r="N145" s="80"/>
-      <c r="O145" s="121"/>
-      <c r="P145" s="122"/>
-      <c r="Q145" s="121"/>
-      <c r="R145" s="121"/>
-      <c r="S145" s="121"/>
-      <c r="T145" s="121"/>
-      <c r="U145" s="121"/>
-      <c r="V145" s="121"/>
-      <c r="W145" s="123"/>
-    </row>
-    <row r="146" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="98"/>
-      <c r="C146" s="120"/>
-      <c r="D146" s="24" t="s">
+      <c r="N146" s="80"/>
+      <c r="O146" s="93"/>
+      <c r="P146" s="94"/>
+      <c r="Q146" s="93"/>
+      <c r="R146" s="93"/>
+      <c r="S146" s="93"/>
+      <c r="T146" s="93"/>
+      <c r="U146" s="93"/>
+      <c r="V146" s="93"/>
+      <c r="W146" s="95"/>
+    </row>
+    <row r="147" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="98"/>
+      <c r="C147" s="112"/>
+      <c r="D147" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E146" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" s="65" t="s">
+      <c r="E147" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G146" s="24">
+      <c r="G147" s="24">
         <v>2</v>
       </c>
-      <c r="H146" s="24">
+      <c r="H147" s="24">
         <v>0.25</v>
       </c>
-      <c r="I146" s="20">
-        <f t="shared" ref="I146:I181" si="5">SUM(J146:W146)</f>
-        <v>0</v>
-      </c>
-      <c r="J146" s="71">
-        <v>0</v>
-      </c>
-      <c r="K146" s="71">
-        <v>0</v>
-      </c>
-      <c r="L146" s="71"/>
-      <c r="M146" s="24"/>
-      <c r="N146" s="24"/>
-      <c r="O146" s="22"/>
-      <c r="P146" s="21"/>
-      <c r="Q146" s="22"/>
-      <c r="R146" s="22"/>
-      <c r="S146" s="22"/>
-      <c r="T146" s="22"/>
-      <c r="U146" s="22"/>
-      <c r="V146" s="22"/>
-      <c r="W146" s="25"/>
-    </row>
-    <row r="147" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="96" t="s">
+      <c r="I147" s="20">
+        <f t="shared" ref="I147:I182" si="5">SUM(J147:W147)</f>
+        <v>0</v>
+      </c>
+      <c r="J147" s="71">
+        <v>0</v>
+      </c>
+      <c r="K147" s="71">
+        <v>0</v>
+      </c>
+      <c r="L147" s="71">
+        <v>0</v>
+      </c>
+      <c r="M147" s="24"/>
+      <c r="N147" s="24"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="21"/>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="22"/>
+      <c r="S147" s="22"/>
+      <c r="T147" s="22"/>
+      <c r="U147" s="22"/>
+      <c r="V147" s="22"/>
+      <c r="W147" s="25"/>
+    </row>
+    <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C147" s="78" t="s">
+      <c r="C148" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" s="63" t="s">
+      <c r="D148" s="39"/>
+      <c r="E148" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="G147" s="39">
+      <c r="G148" s="39">
         <v>3</v>
       </c>
-      <c r="H147" s="39">
+      <c r="H148" s="39">
         <v>3</v>
       </c>
-      <c r="I147" s="40">
+      <c r="I148" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J147" s="69">
-        <v>0</v>
-      </c>
-      <c r="K147" s="69">
-        <v>0</v>
-      </c>
-      <c r="L147" s="69"/>
-      <c r="M147" s="39"/>
-      <c r="N147" s="39"/>
-      <c r="O147" s="51"/>
-      <c r="P147" s="41"/>
-      <c r="Q147" s="51"/>
-      <c r="R147" s="51"/>
-      <c r="S147" s="51"/>
-      <c r="T147" s="51"/>
-      <c r="U147" s="51"/>
-      <c r="V147" s="51"/>
-      <c r="W147" s="52"/>
-    </row>
-    <row r="148" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="97"/>
-      <c r="C148" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="G148" s="4">
-        <v>3</v>
-      </c>
-      <c r="H148" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="I148" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="70">
-        <v>0</v>
-      </c>
-      <c r="K148" s="70">
-        <v>0</v>
-      </c>
-      <c r="L148" s="70"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="16"/>
-      <c r="Q148" s="17"/>
-      <c r="R148" s="17"/>
-      <c r="S148" s="17"/>
-      <c r="T148" s="17"/>
-      <c r="U148" s="17"/>
-      <c r="V148" s="17"/>
-      <c r="W148" s="19"/>
-    </row>
-    <row r="149" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J148" s="69">
+        <v>0</v>
+      </c>
+      <c r="K148" s="69">
+        <v>0</v>
+      </c>
+      <c r="L148" s="69">
+        <v>0</v>
+      </c>
+      <c r="M148" s="39"/>
+      <c r="N148" s="39"/>
+      <c r="O148" s="51"/>
+      <c r="P148" s="41"/>
+      <c r="Q148" s="51"/>
+      <c r="R148" s="51"/>
+      <c r="S148" s="51"/>
+      <c r="T148" s="51"/>
+      <c r="U148" s="51"/>
+      <c r="V148" s="51"/>
+      <c r="W148" s="52"/>
+    </row>
+    <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="97"/>
       <c r="C149" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
@@ -7891,7 +8209,9 @@
       <c r="K149" s="70">
         <v>0</v>
       </c>
-      <c r="L149" s="70"/>
+      <c r="L149" s="70">
+        <v>0</v>
+      </c>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="17"/>
@@ -7904,10 +8224,10 @@
       <c r="V149" s="17"/>
       <c r="W149" s="19"/>
     </row>
-    <row r="150" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="97"/>
       <c r="C150" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
@@ -7932,7 +8252,9 @@
       <c r="K150" s="70">
         <v>0</v>
       </c>
-      <c r="L150" s="70"/>
+      <c r="L150" s="70">
+        <v>0</v>
+      </c>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="17"/>
@@ -7945,10 +8267,10 @@
       <c r="V150" s="17"/>
       <c r="W150" s="19"/>
     </row>
-    <row r="151" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="97"/>
       <c r="C151" s="33" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
@@ -7973,7 +8295,9 @@
       <c r="K151" s="70">
         <v>0</v>
       </c>
-      <c r="L151" s="70"/>
+      <c r="L151" s="70">
+        <v>0</v>
+      </c>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="17"/>
@@ -7986,10 +8310,10 @@
       <c r="V151" s="17"/>
       <c r="W151" s="19"/>
     </row>
-    <row r="152" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="97"/>
       <c r="C152" s="33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
@@ -8014,7 +8338,9 @@
       <c r="K152" s="70">
         <v>0</v>
       </c>
-      <c r="L152" s="70"/>
+      <c r="L152" s="70">
+        <v>0</v>
+      </c>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="17"/>
@@ -8027,10 +8353,10 @@
       <c r="V152" s="17"/>
       <c r="W152" s="19"/>
     </row>
-    <row r="153" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="97"/>
       <c r="C153" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
@@ -8055,7 +8381,9 @@
       <c r="K153" s="70">
         <v>0</v>
       </c>
-      <c r="L153" s="70"/>
+      <c r="L153" s="70">
+        <v>0</v>
+      </c>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="17"/>
@@ -8068,10 +8396,10 @@
       <c r="V153" s="17"/>
       <c r="W153" s="19"/>
     </row>
-    <row r="154" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="97"/>
       <c r="C154" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
@@ -8096,7 +8424,9 @@
       <c r="K154" s="70">
         <v>0</v>
       </c>
-      <c r="L154" s="70"/>
+      <c r="L154" s="70">
+        <v>0</v>
+      </c>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="17"/>
@@ -8109,20 +8439,20 @@
       <c r="V154" s="17"/>
       <c r="W154" s="19"/>
     </row>
-    <row r="155" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="97"/>
       <c r="C155" s="33" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="67" t="s">
-        <v>114</v>
+      <c r="F155" s="74" t="s">
+        <v>110</v>
       </c>
       <c r="G155" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155" s="4">
         <v>0.3</v>
@@ -8137,7 +8467,9 @@
       <c r="K155" s="70">
         <v>0</v>
       </c>
-      <c r="L155" s="70"/>
+      <c r="L155" s="70">
+        <v>0</v>
+      </c>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="17"/>
@@ -8150,10 +8482,10 @@
       <c r="V155" s="17"/>
       <c r="W155" s="19"/>
     </row>
-    <row r="156" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="97"/>
       <c r="C156" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
@@ -8178,7 +8510,9 @@
       <c r="K156" s="70">
         <v>0</v>
       </c>
-      <c r="L156" s="70"/>
+      <c r="L156" s="70">
+        <v>0</v>
+      </c>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="17"/>
@@ -8191,10 +8525,10 @@
       <c r="V156" s="17"/>
       <c r="W156" s="19"/>
     </row>
-    <row r="157" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="97"/>
       <c r="C157" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
@@ -8204,14 +8538,14 @@
         <v>114</v>
       </c>
       <c r="G157" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157" s="4">
         <v>0.3</v>
       </c>
       <c r="I157" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J157" s="70">
         <v>0</v>
@@ -8219,36 +8553,60 @@
       <c r="K157" s="70">
         <v>0</v>
       </c>
-      <c r="L157" s="70"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="16"/>
-      <c r="Q157" s="17"/>
-      <c r="R157" s="17"/>
-      <c r="S157" s="17"/>
-      <c r="T157" s="17"/>
-      <c r="U157" s="17"/>
-      <c r="V157" s="17"/>
-      <c r="W157" s="19"/>
-    </row>
-    <row r="158" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L157" s="70">
+        <v>0</v>
+      </c>
+      <c r="M157" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="N157" s="80">
+        <v>0</v>
+      </c>
+      <c r="O157" s="80">
+        <v>0</v>
+      </c>
+      <c r="P157" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="80">
+        <v>0</v>
+      </c>
+      <c r="R157" s="80">
+        <v>0</v>
+      </c>
+      <c r="S157" s="80">
+        <v>0</v>
+      </c>
+      <c r="T157" s="80">
+        <v>0</v>
+      </c>
+      <c r="U157" s="80">
+        <v>0</v>
+      </c>
+      <c r="V157" s="80">
+        <v>0</v>
+      </c>
+      <c r="W157" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="97"/>
       <c r="C158" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="64" t="s">
-        <v>115</v>
+      <c r="F158" s="67" t="s">
+        <v>114</v>
       </c>
       <c r="G158" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I158" s="6">
         <f t="shared" si="5"/>
@@ -8260,7 +8618,9 @@
       <c r="K158" s="70">
         <v>0</v>
       </c>
-      <c r="L158" s="70"/>
+      <c r="L158" s="70">
+        <v>0</v>
+      </c>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="17"/>
@@ -8273,252 +8633,272 @@
       <c r="V158" s="17"/>
       <c r="W158" s="19"/>
     </row>
-    <row r="159" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="98"/>
-      <c r="C159" s="61" t="s">
+    <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="97"/>
+      <c r="C159" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G159" s="4">
+        <v>2</v>
+      </c>
+      <c r="H159" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I159" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="70">
+        <v>0</v>
+      </c>
+      <c r="K159" s="70">
+        <v>0</v>
+      </c>
+      <c r="L159" s="70">
+        <v>0</v>
+      </c>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="16"/>
+      <c r="Q159" s="17"/>
+      <c r="R159" s="17"/>
+      <c r="S159" s="17"/>
+      <c r="T159" s="17"/>
+      <c r="U159" s="17"/>
+      <c r="V159" s="17"/>
+      <c r="W159" s="19"/>
+    </row>
+    <row r="160" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="98"/>
+      <c r="C160" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" s="68" t="s">
+      <c r="D160" s="24"/>
+      <c r="E160" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G159" s="24">
+      <c r="G160" s="24">
         <v>4</v>
       </c>
-      <c r="H159" s="24">
+      <c r="H160" s="24">
         <v>0.2</v>
       </c>
-      <c r="I159" s="20">
+      <c r="I160" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J159" s="71">
-        <v>0</v>
-      </c>
-      <c r="K159" s="71">
-        <v>0</v>
-      </c>
-      <c r="L159" s="71"/>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="22"/>
-      <c r="P159" s="21"/>
-      <c r="Q159" s="22"/>
-      <c r="R159" s="22"/>
-      <c r="S159" s="22"/>
-      <c r="T159" s="22"/>
-      <c r="U159" s="22"/>
-      <c r="V159" s="22"/>
-      <c r="W159" s="25"/>
-    </row>
-    <row r="160" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="96" t="s">
+      <c r="J160" s="71">
+        <v>0</v>
+      </c>
+      <c r="K160" s="71">
+        <v>0</v>
+      </c>
+      <c r="L160" s="71">
+        <v>0</v>
+      </c>
+      <c r="M160" s="24"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="22"/>
+      <c r="P160" s="21"/>
+      <c r="Q160" s="22"/>
+      <c r="R160" s="22"/>
+      <c r="S160" s="22"/>
+      <c r="T160" s="22"/>
+      <c r="U160" s="22"/>
+      <c r="V160" s="22"/>
+      <c r="W160" s="25"/>
+    </row>
+    <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="C160" s="60" t="s">
+      <c r="C161" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="63" t="s">
+      <c r="D161" s="39"/>
+      <c r="E161" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="G160" s="39">
+      <c r="G161" s="39">
         <v>7</v>
       </c>
-      <c r="H160" s="39">
+      <c r="H161" s="39">
         <v>0.1</v>
       </c>
-      <c r="I160" s="40">
+      <c r="I161" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J160" s="69">
-        <v>0</v>
-      </c>
-      <c r="K160" s="69">
-        <v>0</v>
-      </c>
-      <c r="L160" s="69"/>
-      <c r="M160" s="39"/>
-      <c r="N160" s="39"/>
-      <c r="O160" s="51"/>
-      <c r="P160" s="41"/>
-      <c r="Q160" s="51"/>
-      <c r="R160" s="51"/>
-      <c r="S160" s="51"/>
-      <c r="T160" s="51"/>
-      <c r="U160" s="51"/>
-      <c r="V160" s="51"/>
-      <c r="W160" s="52"/>
-    </row>
-    <row r="161" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="97"/>
-      <c r="C161" s="59" t="s">
+      <c r="J161" s="69">
+        <v>0</v>
+      </c>
+      <c r="K161" s="69">
+        <v>0</v>
+      </c>
+      <c r="L161" s="69">
+        <v>0</v>
+      </c>
+      <c r="M161" s="39"/>
+      <c r="N161" s="39"/>
+      <c r="O161" s="51"/>
+      <c r="P161" s="41"/>
+      <c r="Q161" s="51"/>
+      <c r="R161" s="51"/>
+      <c r="S161" s="51"/>
+      <c r="T161" s="51"/>
+      <c r="U161" s="51"/>
+      <c r="V161" s="51"/>
+      <c r="W161" s="52"/>
+    </row>
+    <row r="162" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="97"/>
+      <c r="C162" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="64" t="s">
+      <c r="D162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G162" s="4">
         <v>7</v>
       </c>
-      <c r="H161" s="4">
+      <c r="H162" s="4">
         <v>0.75</v>
       </c>
-      <c r="I161" s="6">
+      <c r="I162" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J161" s="70">
-        <v>0</v>
-      </c>
-      <c r="K161" s="70">
-        <v>0</v>
-      </c>
-      <c r="L161" s="70"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="17"/>
-      <c r="P161" s="16"/>
-      <c r="Q161" s="17"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="17"/>
-      <c r="T161" s="17"/>
-      <c r="U161" s="17"/>
-      <c r="V161" s="17"/>
-      <c r="W161" s="19"/>
-    </row>
-    <row r="162" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="98"/>
-      <c r="C162" s="61" t="s">
+      <c r="J162" s="70">
+        <v>0</v>
+      </c>
+      <c r="K162" s="70">
+        <v>0</v>
+      </c>
+      <c r="L162" s="70">
+        <v>0</v>
+      </c>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="16"/>
+      <c r="Q162" s="17"/>
+      <c r="R162" s="17"/>
+      <c r="S162" s="17"/>
+      <c r="T162" s="17"/>
+      <c r="U162" s="17"/>
+      <c r="V162" s="17"/>
+      <c r="W162" s="19"/>
+    </row>
+    <row r="163" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="98"/>
+      <c r="C163" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" s="65" t="s">
+      <c r="D163" s="24"/>
+      <c r="E163" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G162" s="24">
+      <c r="G163" s="24">
         <v>7</v>
       </c>
-      <c r="H162" s="24">
+      <c r="H163" s="24">
         <v>0.5</v>
       </c>
-      <c r="I162" s="20">
+      <c r="I163" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J162" s="71">
-        <v>0</v>
-      </c>
-      <c r="K162" s="71">
-        <v>0</v>
-      </c>
-      <c r="L162" s="71"/>
-      <c r="M162" s="24"/>
-      <c r="N162" s="24"/>
-      <c r="O162" s="22"/>
-      <c r="P162" s="21"/>
-      <c r="Q162" s="22"/>
-      <c r="R162" s="22"/>
-      <c r="S162" s="22"/>
-      <c r="T162" s="22"/>
-      <c r="U162" s="22"/>
-      <c r="V162" s="22"/>
-      <c r="W162" s="25"/>
-    </row>
-    <row r="163" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="96" t="s">
+      <c r="J163" s="71">
+        <v>0</v>
+      </c>
+      <c r="K163" s="71">
+        <v>0</v>
+      </c>
+      <c r="L163" s="71">
+        <v>0</v>
+      </c>
+      <c r="M163" s="24"/>
+      <c r="N163" s="24"/>
+      <c r="O163" s="22"/>
+      <c r="P163" s="21"/>
+      <c r="Q163" s="22"/>
+      <c r="R163" s="22"/>
+      <c r="S163" s="22"/>
+      <c r="T163" s="22"/>
+      <c r="U163" s="22"/>
+      <c r="V163" s="22"/>
+      <c r="W163" s="25"/>
+    </row>
+    <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="C163" s="60" t="s">
+      <c r="C164" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39" t="s">
+      <c r="D164" s="39"/>
+      <c r="E164" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F163" s="66" t="s">
+      <c r="F164" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="G163" s="39">
+      <c r="G164" s="39">
         <v>5</v>
       </c>
-      <c r="H163" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="I163" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="69"/>
-      <c r="K163" s="69"/>
-      <c r="L163" s="69"/>
-      <c r="M163" s="39"/>
-      <c r="N163" s="39"/>
-      <c r="O163" s="51"/>
-      <c r="P163" s="41"/>
-      <c r="Q163" s="51"/>
-      <c r="R163" s="51"/>
-      <c r="S163" s="51"/>
-      <c r="T163" s="51"/>
-      <c r="U163" s="51"/>
-      <c r="V163" s="51"/>
-      <c r="W163" s="52"/>
-    </row>
-    <row r="164" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="97"/>
-      <c r="C164" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F164" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="G164" s="4">
-        <v>7</v>
-      </c>
-      <c r="H164" s="4">
+      <c r="H164" s="39">
         <v>0.1</v>
       </c>
       <c r="I164" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J164" s="70"/>
-      <c r="K164" s="70"/>
-      <c r="L164" s="70"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="17"/>
-      <c r="P164" s="16"/>
-      <c r="Q164" s="17"/>
-      <c r="R164" s="17"/>
-      <c r="S164" s="17"/>
-      <c r="T164" s="17"/>
-      <c r="U164" s="17"/>
-      <c r="V164" s="17"/>
-      <c r="W164" s="19"/>
-    </row>
-    <row r="165" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J164" s="69">
+        <v>0</v>
+      </c>
+      <c r="K164" s="69">
+        <v>0</v>
+      </c>
+      <c r="L164" s="69">
+        <v>0</v>
+      </c>
+      <c r="M164" s="39"/>
+      <c r="N164" s="39"/>
+      <c r="O164" s="51"/>
+      <c r="P164" s="41"/>
+      <c r="Q164" s="51"/>
+      <c r="R164" s="51"/>
+      <c r="S164" s="51"/>
+      <c r="T164" s="51"/>
+      <c r="U164" s="51"/>
+      <c r="V164" s="51"/>
+      <c r="W164" s="52"/>
+    </row>
+    <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="97"/>
       <c r="C165" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
@@ -8537,9 +8917,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J165" s="70"/>
-      <c r="K165" s="70"/>
-      <c r="L165" s="70"/>
+      <c r="J165" s="70">
+        <v>0</v>
+      </c>
+      <c r="K165" s="70">
+        <v>0</v>
+      </c>
+      <c r="L165" s="70">
+        <v>0</v>
+      </c>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="17"/>
@@ -8552,10 +8938,10 @@
       <c r="V165" s="17"/>
       <c r="W165" s="19"/>
     </row>
-    <row r="166" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="97"/>
       <c r="C166" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
@@ -8574,9 +8960,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J166" s="70"/>
-      <c r="K166" s="70"/>
-      <c r="L166" s="70"/>
+      <c r="J166" s="70">
+        <v>0</v>
+      </c>
+      <c r="K166" s="70">
+        <v>0</v>
+      </c>
+      <c r="L166" s="70">
+        <v>0</v>
+      </c>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="17"/>
@@ -8589,10 +8981,10 @@
       <c r="V166" s="17"/>
       <c r="W166" s="19"/>
     </row>
-    <row r="167" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="97"/>
       <c r="C167" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
@@ -8611,9 +9003,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J167" s="70"/>
-      <c r="K167" s="70"/>
-      <c r="L167" s="70"/>
+      <c r="J167" s="70">
+        <v>0</v>
+      </c>
+      <c r="K167" s="70">
+        <v>0</v>
+      </c>
+      <c r="L167" s="70">
+        <v>0</v>
+      </c>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="17"/>
@@ -8626,10 +9024,10 @@
       <c r="V167" s="17"/>
       <c r="W167" s="19"/>
     </row>
-    <row r="168" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="97"/>
       <c r="C168" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
@@ -8648,9 +9046,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J168" s="70"/>
-      <c r="K168" s="70"/>
-      <c r="L168" s="70"/>
+      <c r="J168" s="70">
+        <v>0</v>
+      </c>
+      <c r="K168" s="70">
+        <v>0</v>
+      </c>
+      <c r="L168" s="70">
+        <v>0</v>
+      </c>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
       <c r="O168" s="17"/>
@@ -8663,131 +9067,141 @@
       <c r="V168" s="17"/>
       <c r="W168" s="19"/>
     </row>
-    <row r="169" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="98"/>
-      <c r="C169" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24" t="s">
+    <row r="169" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="97"/>
+      <c r="C169" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F169" s="68" t="s">
+      <c r="F169" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="G169" s="24">
+      <c r="G169" s="4">
         <v>7</v>
       </c>
-      <c r="H169" s="24">
+      <c r="H169" s="4">
         <v>0.1</v>
       </c>
       <c r="I169" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J169" s="71"/>
-      <c r="K169" s="71"/>
-      <c r="L169" s="71"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="22"/>
-      <c r="P169" s="21"/>
-      <c r="Q169" s="22"/>
-      <c r="R169" s="22"/>
-      <c r="S169" s="22"/>
-      <c r="T169" s="22"/>
-      <c r="U169" s="22"/>
-      <c r="V169" s="22"/>
-      <c r="W169" s="25"/>
-    </row>
-    <row r="170" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="96" t="s">
+      <c r="J169" s="70">
+        <v>0</v>
+      </c>
+      <c r="K169" s="70">
+        <v>0</v>
+      </c>
+      <c r="L169" s="70">
+        <v>0</v>
+      </c>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="17"/>
+      <c r="P169" s="16"/>
+      <c r="Q169" s="17"/>
+      <c r="R169" s="17"/>
+      <c r="S169" s="17"/>
+      <c r="T169" s="17"/>
+      <c r="U169" s="17"/>
+      <c r="V169" s="17"/>
+      <c r="W169" s="19"/>
+    </row>
+    <row r="170" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="98"/>
+      <c r="C170" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F170" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G170" s="24">
+        <v>7</v>
+      </c>
+      <c r="H170" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="I170" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="71">
+        <v>0</v>
+      </c>
+      <c r="K170" s="71">
+        <v>0</v>
+      </c>
+      <c r="L170" s="71">
+        <v>0</v>
+      </c>
+      <c r="M170" s="24"/>
+      <c r="N170" s="24"/>
+      <c r="O170" s="22"/>
+      <c r="P170" s="21"/>
+      <c r="Q170" s="22"/>
+      <c r="R170" s="22"/>
+      <c r="S170" s="22"/>
+      <c r="T170" s="22"/>
+      <c r="U170" s="22"/>
+      <c r="V170" s="22"/>
+      <c r="W170" s="25"/>
+    </row>
+    <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C170" s="54" t="s">
+      <c r="C171" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" s="75" t="s">
+      <c r="D171" s="39"/>
+      <c r="E171" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="G170" s="39">
+      <c r="G171" s="39">
         <v>3</v>
       </c>
-      <c r="H170" s="39">
+      <c r="H171" s="39">
         <v>0.4</v>
       </c>
-      <c r="I170" s="40">
+      <c r="I171" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J170" s="69">
-        <v>0</v>
-      </c>
-      <c r="K170" s="69">
-        <v>0</v>
-      </c>
-      <c r="L170" s="69"/>
-      <c r="M170" s="39"/>
-      <c r="N170" s="39"/>
-      <c r="O170" s="51"/>
-      <c r="P170" s="41"/>
-      <c r="Q170" s="51"/>
-      <c r="R170" s="51"/>
-      <c r="S170" s="51"/>
-      <c r="T170" s="51"/>
-      <c r="U170" s="51"/>
-      <c r="V170" s="51"/>
-      <c r="W170" s="52"/>
-    </row>
-    <row r="171" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="97"/>
-      <c r="C171" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="G171" s="4">
-        <v>3</v>
-      </c>
-      <c r="H171" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="I171" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="70">
-        <v>0</v>
-      </c>
-      <c r="K171" s="70">
-        <v>0</v>
-      </c>
-      <c r="L171" s="70"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="17"/>
-      <c r="P171" s="16"/>
-      <c r="Q171" s="17"/>
-      <c r="R171" s="17"/>
-      <c r="S171" s="17"/>
-      <c r="T171" s="17"/>
-      <c r="U171" s="17"/>
-      <c r="V171" s="17"/>
-      <c r="W171" s="19"/>
-    </row>
-    <row r="172" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J171" s="69">
+        <v>0</v>
+      </c>
+      <c r="K171" s="69">
+        <v>0</v>
+      </c>
+      <c r="L171" s="69">
+        <v>0</v>
+      </c>
+      <c r="M171" s="39"/>
+      <c r="N171" s="39"/>
+      <c r="O171" s="51"/>
+      <c r="P171" s="41"/>
+      <c r="Q171" s="51"/>
+      <c r="R171" s="51"/>
+      <c r="S171" s="51"/>
+      <c r="T171" s="51"/>
+      <c r="U171" s="51"/>
+      <c r="V171" s="51"/>
+      <c r="W171" s="52"/>
+    </row>
+    <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="97"/>
       <c r="C172" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
@@ -8812,7 +9226,9 @@
       <c r="K172" s="70">
         <v>0</v>
       </c>
-      <c r="L172" s="70"/>
+      <c r="L172" s="70">
+        <v>0</v>
+      </c>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="17"/>
@@ -8825,10 +9241,10 @@
       <c r="V172" s="17"/>
       <c r="W172" s="19"/>
     </row>
-    <row r="173" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="97"/>
       <c r="C173" s="33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
@@ -8853,7 +9269,9 @@
       <c r="K173" s="70">
         <v>0</v>
       </c>
-      <c r="L173" s="70"/>
+      <c r="L173" s="70">
+        <v>0</v>
+      </c>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="17"/>
@@ -8866,12 +9284,12 @@
       <c r="V173" s="17"/>
       <c r="W173" s="19"/>
     </row>
-    <row r="174" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="97"/>
       <c r="C174" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D174" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
         <v>8</v>
       </c>
@@ -8894,7 +9312,9 @@
       <c r="K174" s="70">
         <v>0</v>
       </c>
-      <c r="L174" s="70"/>
+      <c r="L174" s="70">
+        <v>0</v>
+      </c>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="17"/>
@@ -8907,17 +9327,17 @@
       <c r="V174" s="17"/>
       <c r="W174" s="19"/>
     </row>
-    <row r="175" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="97"/>
       <c r="C175" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F175" s="67" t="s">
-        <v>114</v>
+      <c r="F175" s="74" t="s">
+        <v>110</v>
       </c>
       <c r="G175" s="4">
         <v>3</v>
@@ -8935,7 +9355,9 @@
       <c r="K175" s="70">
         <v>0</v>
       </c>
-      <c r="L175" s="70"/>
+      <c r="L175" s="70">
+        <v>0</v>
+      </c>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="17"/>
@@ -8948,10 +9370,10 @@
       <c r="V175" s="17"/>
       <c r="W175" s="19"/>
     </row>
-    <row r="176" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="97"/>
       <c r="C176" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="4" t="s">
@@ -8961,7 +9383,7 @@
         <v>114</v>
       </c>
       <c r="G176" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H176" s="4">
         <v>0.4</v>
@@ -8976,7 +9398,9 @@
       <c r="K176" s="70">
         <v>0</v>
       </c>
-      <c r="L176" s="70"/>
+      <c r="L176" s="70">
+        <v>0</v>
+      </c>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="17"/>
@@ -8989,23 +9413,23 @@
       <c r="V176" s="17"/>
       <c r="W176" s="19"/>
     </row>
-    <row r="177" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="97"/>
       <c r="C177" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F177" s="74" t="s">
-        <v>110</v>
+      <c r="F177" s="67" t="s">
+        <v>114</v>
       </c>
       <c r="G177" s="4">
         <v>5</v>
       </c>
       <c r="H177" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I177" s="6">
         <f t="shared" si="5"/>
@@ -9017,7 +9441,9 @@
       <c r="K177" s="70">
         <v>0</v>
       </c>
-      <c r="L177" s="70"/>
+      <c r="L177" s="70">
+        <v>0</v>
+      </c>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="17"/>
@@ -9030,10 +9456,10 @@
       <c r="V177" s="17"/>
       <c r="W177" s="19"/>
     </row>
-    <row r="178" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="97"/>
       <c r="C178" s="33" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="4" t="s">
@@ -9043,10 +9469,10 @@
         <v>110</v>
       </c>
       <c r="G178" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H178" s="4">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="I178" s="6">
         <f t="shared" si="5"/>
@@ -9058,7 +9484,9 @@
       <c r="K178" s="70">
         <v>0</v>
       </c>
-      <c r="L178" s="70"/>
+      <c r="L178" s="70">
+        <v>0</v>
+      </c>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="17"/>
@@ -9071,35 +9499,37 @@
       <c r="V178" s="17"/>
       <c r="W178" s="19"/>
     </row>
-    <row r="179" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="97"/>
       <c r="C179" s="33" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F179" s="67" t="s">
-        <v>114</v>
+      <c r="F179" s="74" t="s">
+        <v>110</v>
       </c>
       <c r="G179" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179" s="4">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="I179" s="6">
         <f t="shared" si="5"/>
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="J179" s="70">
         <v>0</v>
       </c>
-      <c r="K179" s="80">
-        <v>1.85</v>
-      </c>
-      <c r="L179" s="70"/>
+      <c r="K179" s="70">
+        <v>0</v>
+      </c>
+      <c r="L179" s="70">
+        <v>0</v>
+      </c>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="17"/>
@@ -9112,35 +9542,37 @@
       <c r="V179" s="17"/>
       <c r="W179" s="19"/>
     </row>
-    <row r="180" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="97"/>
       <c r="C180" s="33" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F180" s="74" t="s">
-        <v>110</v>
+      <c r="F180" s="67" t="s">
+        <v>114</v>
       </c>
       <c r="G180" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="J180" s="70">
         <v>0</v>
       </c>
-      <c r="K180" s="70">
-        <v>0</v>
-      </c>
-      <c r="L180" s="70"/>
+      <c r="K180" s="80">
+        <v>1.85</v>
+      </c>
+      <c r="L180" s="70">
+        <v>0</v>
+      </c>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="17"/>
@@ -9153,282 +9585,312 @@
       <c r="V180" s="17"/>
       <c r="W180" s="19"/>
     </row>
-    <row r="181" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="98"/>
-      <c r="C181" s="61" t="s">
+    <row r="181" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="97"/>
+      <c r="C181" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G181" s="4">
+        <v>2</v>
+      </c>
+      <c r="H181" s="4">
+        <v>2</v>
+      </c>
+      <c r="I181" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="70">
+        <v>0</v>
+      </c>
+      <c r="K181" s="70">
+        <v>0</v>
+      </c>
+      <c r="L181" s="70">
+        <v>0</v>
+      </c>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="17"/>
+      <c r="P181" s="16"/>
+      <c r="Q181" s="17"/>
+      <c r="R181" s="17"/>
+      <c r="S181" s="17"/>
+      <c r="T181" s="17"/>
+      <c r="U181" s="17"/>
+      <c r="V181" s="17"/>
+      <c r="W181" s="19"/>
+    </row>
+    <row r="182" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="98"/>
+      <c r="C182" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D181" s="46"/>
-      <c r="E181" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F181" s="68" t="s">
+      <c r="D182" s="46"/>
+      <c r="E182" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G181" s="24">
+      <c r="G182" s="24">
         <v>3</v>
       </c>
-      <c r="H181" s="24">
+      <c r="H182" s="24">
         <v>1.5</v>
       </c>
-      <c r="I181" s="20">
+      <c r="I182" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J181" s="71">
-        <v>0</v>
-      </c>
-      <c r="K181" s="71">
-        <v>0</v>
-      </c>
-      <c r="L181" s="71"/>
-      <c r="M181" s="24"/>
-      <c r="N181" s="24"/>
-      <c r="O181" s="22"/>
-      <c r="P181" s="21"/>
-      <c r="Q181" s="22"/>
-      <c r="R181" s="22"/>
-      <c r="S181" s="22"/>
-      <c r="T181" s="22"/>
-      <c r="U181" s="22"/>
-      <c r="V181" s="22"/>
-      <c r="W181" s="25"/>
-    </row>
-    <row r="182" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="116" t="s">
+      <c r="J182" s="71">
+        <v>0</v>
+      </c>
+      <c r="K182" s="71">
+        <v>0</v>
+      </c>
+      <c r="L182" s="71">
+        <v>0</v>
+      </c>
+      <c r="M182" s="24"/>
+      <c r="N182" s="24"/>
+      <c r="O182" s="22"/>
+      <c r="P182" s="21"/>
+      <c r="Q182" s="22"/>
+      <c r="R182" s="22"/>
+      <c r="S182" s="22"/>
+      <c r="T182" s="22"/>
+      <c r="U182" s="22"/>
+      <c r="V182" s="22"/>
+      <c r="W182" s="25"/>
+    </row>
+    <row r="183" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="117"/>
-      <c r="D182" s="118"/>
-      <c r="E182" s="118"/>
-      <c r="F182" s="118"/>
-      <c r="G182" s="119"/>
-      <c r="H182" s="36">
-        <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
-        <v>96.499999999999829</v>
-      </c>
-      <c r="I182" s="23">
+      <c r="C183" s="106"/>
+      <c r="D183" s="107"/>
+      <c r="E183" s="107"/>
+      <c r="F183" s="107"/>
+      <c r="G183" s="108"/>
+      <c r="H183" s="36">
+        <f t="shared" ref="H183:W183" si="6">SUM(H4:H182)</f>
+        <v>97.499999999999829</v>
+      </c>
+      <c r="I183" s="23">
         <f t="shared" si="6"/>
-        <v>10.433299999999996</v>
-      </c>
-      <c r="J182" s="23">
+        <v>10.733299999999996</v>
+      </c>
+      <c r="J183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K182" s="23">
+      <c r="K183" s="23">
         <f t="shared" si="6"/>
         <v>4.0533000000000001</v>
       </c>
-      <c r="L182" s="23">
+      <c r="L183" s="92">
         <f t="shared" si="6"/>
         <v>2.0030000000000001</v>
       </c>
-      <c r="M182" s="23">
+      <c r="M183" s="23">
         <f t="shared" si="6"/>
-        <v>4.3769999999999971</v>
-      </c>
-      <c r="N182" s="23">
+        <v>4.6769999999999969</v>
+      </c>
+      <c r="N183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O182" s="23">
+      <c r="O183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P182" s="23">
+      <c r="P183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q182" s="23">
+      <c r="Q183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R182" s="23">
+      <c r="R183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S182" s="23">
+      <c r="S183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T182" s="23">
+      <c r="T183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U182" s="23">
+      <c r="U183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V182" s="23">
+      <c r="V183" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W182" s="30">
+      <c r="W183" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="K183" s="94"/>
-      <c r="L183" s="94"/>
-      <c r="M183" s="94"/>
-      <c r="N183" s="94"/>
-      <c r="O183" s="94"/>
-      <c r="P183" s="94"/>
-      <c r="Q183" s="94"/>
-      <c r="R183" s="94"/>
-      <c r="S183" s="94"/>
-      <c r="T183" s="94"/>
-      <c r="U183" s="94"/>
-      <c r="V183" s="94"/>
-      <c r="W183" s="95"/>
-    </row>
-    <row r="184" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>161</v>
-      </c>
+    <row r="184" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-    </row>
-    <row r="185" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="89" t="s">
-        <v>156</v>
-      </c>
-      <c r="C185" s="91">
-        <f>SUM(H181,H179,H175:H176,H163:H169,H159,H155:H157,H12:H61,H10)</f>
-        <v>46.899999999999984</v>
-      </c>
-      <c r="D185" s="4">
-        <f>SUM(I10,I12,I13,I14,I15:I61,I155:I157,I159,I163:I169,I175:I176,I179,I181)</f>
-        <v>8.8533000000000008</v>
-      </c>
-      <c r="E185" s="4">
-        <f>SUM(C185,-D185)</f>
-        <v>38.046699999999987</v>
+      <c r="J184" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="K184" s="110"/>
+      <c r="L184" s="110"/>
+      <c r="M184" s="110"/>
+      <c r="N184" s="110"/>
+      <c r="O184" s="110"/>
+      <c r="P184" s="110"/>
+      <c r="Q184" s="110"/>
+      <c r="R184" s="110"/>
+      <c r="S184" s="110"/>
+      <c r="T184" s="110"/>
+      <c r="U184" s="110"/>
+      <c r="V184" s="110"/>
+      <c r="W184" s="111"/>
+    </row>
+    <row r="185" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C185" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="111" t="s">
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+    </row>
+    <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186" s="91">
+        <f>SUM(H182,H180,H176:H177,H164:H170,H160,H156:H158,H12:H62,H10)</f>
+        <v>47.899999999999977</v>
+      </c>
+      <c r="D186" s="4">
+        <f>SUM(I10,I12,I13,I14,I15:I62,I156:I158,I160,I164:I170,I176:I177,I180,I182)</f>
+        <v>9.1532999999999998</v>
+      </c>
+      <c r="E186" s="4">
+        <f>SUM(C186,-D186)</f>
+        <v>38.746699999999976</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="I185" s="112"/>
-      <c r="J185" s="9">
-        <f>H182-J182</f>
-        <v>96.499999999999829</v>
-      </c>
-      <c r="K185" s="9">
-        <f>J185-K182</f>
-        <v>92.446699999999822</v>
-      </c>
-      <c r="L185" s="9">
-        <f>K185-L182</f>
-        <v>90.443699999999822</v>
-      </c>
-      <c r="M185" s="9">
-        <f>L185-M182</f>
-        <v>86.066699999999827</v>
-      </c>
-      <c r="N185" s="10">
-        <f>M185-N182</f>
-        <v>86.066699999999827</v>
-      </c>
-    </row>
-    <row r="186" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="90" t="s">
+      <c r="I186" s="100"/>
+      <c r="J186" s="9">
+        <f>H183-J183</f>
+        <v>97.499999999999829</v>
+      </c>
+      <c r="K186" s="9">
+        <f>J186-K183</f>
+        <v>93.446699999999822</v>
+      </c>
+      <c r="L186" s="9">
+        <f>K186-L183</f>
+        <v>91.443699999999822</v>
+      </c>
+      <c r="M186" s="9">
+        <f>L186-M183</f>
+        <v>86.76669999999983</v>
+      </c>
+      <c r="N186" s="10">
+        <f>M186-N183</f>
+        <v>86.76669999999983</v>
+      </c>
+    </row>
+    <row r="187" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C186" s="5">
-        <f>SUM(H160:H162,H158,H72:H147,H11,H9)</f>
+      <c r="C187" s="5">
+        <f>SUM(H161:H163,H159,H73:H148,H11,H9)</f>
         <v>25.200000000000003</v>
       </c>
-      <c r="D186" s="5">
-        <f>SUM(I9,I11,I72:I147,I158,I160:I162)</f>
+      <c r="D187" s="5">
+        <f>SUM(I9,I11,I73:I148,I159,I161:I163)</f>
         <v>1.5800000000000003</v>
-      </c>
-      <c r="E186" s="5">
-        <f>SUM(C186,-D186)</f>
-        <v>23.62</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
-      <c r="M186" s="3"/>
-      <c r="N186" s="3"/>
-    </row>
-    <row r="187" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="C187" s="4">
-        <f>SUM(H180,H178,H177,H170:H174,H148:H154,H62:H71,H4:H8)</f>
-        <v>24.4</v>
-      </c>
-      <c r="D187" s="5">
-        <f>SUM(I180,I177:I178,I170:I174,I148:I154,I62:I71,I4:I8)</f>
-        <v>0</v>
       </c>
       <c r="E187" s="5">
         <f>SUM(C187,-D187)</f>
+        <v>23.62</v>
+      </c>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+    </row>
+    <row r="188" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188" s="4">
+        <f>SUM(H181,H179,H178,H171:H175,H149:H155,H63:H72,H4:H8)</f>
         <v>24.4</v>
       </c>
-      <c r="F187" s="3"/>
-      <c r="H187" s="93" t="s">
+      <c r="D188" s="5">
+        <f>SUM(I181,I178:I179,I171:I175,I149:I155,I63:I72,I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="E188" s="5">
+        <f>SUM(C188,-D188)</f>
+        <v>24.4</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="H188" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="113"/>
-      <c r="J187" s="112">
-        <f>H182-I182</f>
-        <v>86.066699999999827</v>
-      </c>
-      <c r="K187" s="112"/>
-      <c r="L187" s="112"/>
-      <c r="M187" s="112"/>
-      <c r="N187" s="114"/>
-    </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-    </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I188" s="102"/>
+      <c r="J188" s="100">
+        <f>H183-I183</f>
+        <v>86.76669999999983</v>
+      </c>
+      <c r="K188" s="100"/>
+      <c r="L188" s="100"/>
+      <c r="M188" s="100"/>
+      <c r="N188" s="103"/>
+    </row>
+    <row r="189" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -9443,7 +9905,7 @@
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
     </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -9458,97 +9920,112 @@
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
     </row>
-    <row r="191" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
-    </row>
-    <row r="194" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+    </row>
+    <row r="192" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
     </row>
-    <row r="195" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
     </row>
-    <row r="196" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
     </row>
-    <row r="197" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
     </row>
-    <row r="198" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
     </row>
-    <row r="199" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
     </row>
-    <row r="200" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
     </row>
-    <row r="201" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
     </row>
-    <row r="202" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
     </row>
-    <row r="203" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
     </row>
-    <row r="204" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
     </row>
-    <row r="205" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
     </row>
-    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
+    </row>
+    <row r="207" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:N187"/>
-    <mergeCell ref="B14:B61"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B170:B181"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="J183:W183"/>
-    <mergeCell ref="B72:B146"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C83:C87"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="C15:C54"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C15:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:N188"/>
+    <mergeCell ref="B14:B62"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="J184:W184"/>
+    <mergeCell ref="B73:B147"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C88:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9557,24 +10034,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
   <si>
     <t>Subtarea</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t xml:space="preserve">No dejar a Link atacar hasta recoger espada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementar rebotar proyectiles de enemigos </t>
   </si>
   <si>
     <t>Despliegue/Pliegue del Inventario</t>
@@ -1288,46 +1285,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,7 +1297,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1373,6 +1340,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,24 +1424,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$186:$N$186</c:f>
+              <c:f>Hoja1!$J$185:$N$185</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>97.499999999999829</c:v>
+                  <c:v>95.999999999999829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.446699999999822</c:v>
+                  <c:v>91.946699999999822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.443699999999822</c:v>
+                  <c:v>89.943699999999822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.76669999999983</c:v>
+                  <c:v>85.26669999999983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.76669999999983</c:v>
+                  <c:v>85.26669999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,11 +1462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-136778560"/>
-        <c:axId val="-137793984"/>
+        <c:axId val="327264544"/>
+        <c:axId val="327258016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-136778560"/>
+        <c:axId val="327264544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-137793984"/>
+        <c:crossAx val="327258016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-137793984"/>
+        <c:axId val="327258016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-136778560"/>
+        <c:crossAx val="327264544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1525,13 +1522,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>394175</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>103350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>153296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1539,7 +1536,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W207"/>
+  <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C157" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,22 +1874,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
@@ -1963,7 +1960,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -1974,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="39">
         <v>1</v>
@@ -2008,16 +2005,16 @@
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -2051,16 +2048,16 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4">
         <v>2</v>
@@ -2094,16 +2091,16 @@
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -2137,16 +2134,16 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="123"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="24">
         <v>2</v>
@@ -2180,8 +2177,8 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="121" t="s">
-        <v>106</v>
+      <c r="B9" s="111" t="s">
+        <v>105</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>96</v>
@@ -2191,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="39">
         <v>3</v>
@@ -2225,16 +2222,16 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="4">
         <v>4</v>
@@ -2268,16 +2265,16 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -2311,16 +2308,16 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -2376,7 +2373,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="123"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2385,7 +2382,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="24">
         <v>2</v>
@@ -2419,7 +2416,7 @@
       <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2432,7 +2429,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="39">
         <v>1</v>
@@ -2466,8 +2463,8 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2477,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -2513,8 +2510,8 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
@@ -2556,8 +2553,8 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="97"/>
-      <c r="C17" s="116"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2565,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
@@ -2599,8 +2596,8 @@
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="97"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2608,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
@@ -2642,8 +2639,8 @@
       <c r="W18" s="19"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="97"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2651,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
@@ -2685,16 +2682,16 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="97"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="4">
         <v>6</v>
@@ -2728,8 +2725,8 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="97"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2737,7 +2734,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
@@ -2771,8 +2768,8 @@
       <c r="W21" s="19"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="97"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="32" t="s">
         <v>36</v>
       </c>
@@ -2780,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
@@ -2814,8 +2811,8 @@
       <c r="W22" s="19"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="97"/>
-      <c r="C23" s="116"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="32" t="s">
         <v>37</v>
       </c>
@@ -2823,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="4">
         <v>4</v>
@@ -2857,8 +2854,8 @@
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="97"/>
-      <c r="C24" s="116"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="106"/>
       <c r="D24" s="32" t="s">
         <v>38</v>
       </c>
@@ -2866,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="4">
         <v>4</v>
@@ -2900,8 +2897,8 @@
       <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="97"/>
-      <c r="C25" s="116"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="32" t="s">
         <v>39</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="4">
         <v>4</v>
@@ -2943,8 +2940,8 @@
       <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="97"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
@@ -2952,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="4">
         <v>4</v>
@@ -2986,8 +2983,8 @@
       <c r="W26" s="19"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="97"/>
-      <c r="C27" s="116"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="32" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
@@ -3029,8 +3026,8 @@
       <c r="W27" s="19"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="97"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="32" t="s">
         <v>42</v>
       </c>
@@ -3038,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="4">
         <v>4</v>
@@ -3072,8 +3069,8 @@
       <c r="W28" s="19"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="97"/>
-      <c r="C29" s="116"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="32" t="s">
         <v>43</v>
       </c>
@@ -3081,7 +3078,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="4">
         <v>4</v>
@@ -3115,8 +3112,8 @@
       <c r="W29" s="19"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="97"/>
-      <c r="C30" s="116"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="32" t="s">
         <v>44</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -3158,8 +3155,8 @@
       <c r="W30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="97"/>
-      <c r="C31" s="116"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="32" t="s">
         <v>45</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -3201,8 +3198,8 @@
       <c r="W31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="97"/>
-      <c r="C32" s="116"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="32" t="s">
         <v>46</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
@@ -3244,8 +3241,8 @@
       <c r="W32" s="19"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="97"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="32" t="s">
         <v>47</v>
       </c>
@@ -3253,7 +3250,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" s="4">
         <v>4</v>
@@ -3287,8 +3284,8 @@
       <c r="W33" s="19"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="97"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="32" t="s">
         <v>48</v>
       </c>
@@ -3296,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="4">
         <v>4</v>
@@ -3330,8 +3327,8 @@
       <c r="W34" s="19"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="97"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="32" t="s">
         <v>49</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" s="4">
         <v>4</v>
@@ -3373,8 +3370,8 @@
       <c r="W35" s="19"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="97"/>
-      <c r="C36" s="116"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="32" t="s">
         <v>50</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>8</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="4">
         <v>4</v>
@@ -3416,8 +3413,8 @@
       <c r="W36" s="19"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="97"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="32" t="s">
         <v>51</v>
       </c>
@@ -3425,7 +3422,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="4">
         <v>4</v>
@@ -3459,8 +3456,8 @@
       <c r="W37" s="19"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="97"/>
-      <c r="C38" s="116"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3468,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G38" s="4">
         <v>4</v>
@@ -3502,8 +3499,8 @@
       <c r="W38" s="19"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="97"/>
-      <c r="C39" s="116"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="32" t="s">
         <v>53</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="4">
         <v>4</v>
@@ -3545,8 +3542,8 @@
       <c r="W39" s="19"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="97"/>
-      <c r="C40" s="116"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="106"/>
       <c r="D40" s="32" t="s">
         <v>54</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="4">
         <v>4</v>
@@ -3588,8 +3585,8 @@
       <c r="W40" s="19"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="97"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="32" t="s">
         <v>55</v>
       </c>
@@ -3597,7 +3594,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="4">
         <v>4</v>
@@ -3631,8 +3628,8 @@
       <c r="W41" s="19"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="97"/>
-      <c r="C42" s="116"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="32" t="s">
         <v>56</v>
       </c>
@@ -3640,7 +3637,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="4">
         <v>4</v>
@@ -3674,8 +3671,8 @@
       <c r="W42" s="19"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="97"/>
-      <c r="C43" s="116"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="32" t="s">
         <v>57</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="4">
         <v>4</v>
@@ -3717,8 +3714,8 @@
       <c r="W43" s="19"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="97"/>
-      <c r="C44" s="116"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="32" t="s">
         <v>58</v>
       </c>
@@ -3726,7 +3723,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G44" s="4">
         <v>4</v>
@@ -3760,8 +3757,8 @@
       <c r="W44" s="19"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="97"/>
-      <c r="C45" s="116"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="32" t="s">
         <v>59</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="4">
         <v>4</v>
@@ -3803,8 +3800,8 @@
       <c r="W45" s="19"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="97"/>
-      <c r="C46" s="116"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="32" t="s">
         <v>60</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="4">
         <v>4</v>
@@ -3846,8 +3843,8 @@
       <c r="W46" s="19"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="97"/>
-      <c r="C47" s="116"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="32" t="s">
         <v>61</v>
       </c>
@@ -3855,7 +3852,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47" s="4">
         <v>4</v>
@@ -3889,8 +3886,8 @@
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="97"/>
-      <c r="C48" s="116"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="32" t="s">
         <v>62</v>
       </c>
@@ -3898,7 +3895,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G48" s="4">
         <v>4</v>
@@ -3932,8 +3929,8 @@
       <c r="W48" s="19"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="97"/>
-      <c r="C49" s="116"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="32" t="s">
         <v>63</v>
       </c>
@@ -3941,7 +3938,7 @@
         <v>8</v>
       </c>
       <c r="F49" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G49" s="4">
         <v>4</v>
@@ -3975,8 +3972,8 @@
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="97"/>
-      <c r="C50" s="116"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="32" t="s">
         <v>64</v>
       </c>
@@ -3984,7 +3981,7 @@
         <v>8</v>
       </c>
       <c r="F50" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" s="4">
         <v>4</v>
@@ -4018,8 +4015,8 @@
       <c r="W50" s="19"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="97"/>
-      <c r="C51" s="116"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="32" t="s">
         <v>65</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G51" s="4">
         <v>4</v>
@@ -4061,8 +4058,8 @@
       <c r="W51" s="19"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="97"/>
-      <c r="C52" s="116"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="106"/>
       <c r="D52" s="32" t="s">
         <v>66</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="F52" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G52" s="4">
         <v>4</v>
@@ -4104,8 +4101,8 @@
       <c r="W52" s="19"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="97"/>
-      <c r="C53" s="116"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="32" t="s">
         <v>67</v>
       </c>
@@ -4113,7 +4110,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" s="4">
         <v>4</v>
@@ -4147,8 +4144,8 @@
       <c r="W53" s="19"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="97"/>
-      <c r="C54" s="116"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="32" t="s">
         <v>68</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G54" s="4">
         <v>4</v>
@@ -4190,8 +4187,8 @@
       <c r="W54" s="19"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="97"/>
-      <c r="C55" s="117"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="32" t="s">
         <v>69</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>8</v>
       </c>
       <c r="F55" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G55" s="4">
         <v>4</v>
@@ -4233,8 +4230,8 @@
       <c r="W55" s="19"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="97"/>
-      <c r="C56" s="113" t="s">
+      <c r="B56" s="101"/>
+      <c r="C56" s="103" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="29" t="s">
@@ -4244,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" s="4">
         <v>8</v>
@@ -4278,8 +4275,8 @@
       <c r="W56" s="19"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="97"/>
-      <c r="C57" s="114"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="29" t="s">
         <v>29</v>
       </c>
@@ -4287,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57" s="4">
         <v>8</v>
@@ -4321,8 +4318,8 @@
       <c r="W57" s="19"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="97"/>
-      <c r="C58" s="114"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>8</v>
       </c>
       <c r="F58" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" s="4">
         <v>8</v>
@@ -4364,8 +4361,8 @@
       <c r="W58" s="19"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="97"/>
-      <c r="C59" s="114"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="29" t="s">
         <v>31</v>
       </c>
@@ -4373,7 +4370,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G59" s="4">
         <v>8</v>
@@ -4407,8 +4404,8 @@
       <c r="W59" s="19"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="97"/>
-      <c r="C60" s="114"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="29" t="s">
         <v>34</v>
       </c>
@@ -4416,7 +4413,7 @@
         <v>8</v>
       </c>
       <c r="F60" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G60" s="4">
         <v>8</v>
@@ -4450,8 +4447,8 @@
       <c r="W60" s="19"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="97"/>
-      <c r="C61" s="114"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="29" t="s">
         <v>32</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G61" s="4">
         <v>8</v>
@@ -4493,8 +4490,8 @@
       <c r="W61" s="19"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="104"/>
-      <c r="C62" s="114"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="62" t="s">
         <v>33</v>
       </c>
@@ -4502,7 +4499,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" s="8">
         <v>8</v>
@@ -4536,10 +4533,10 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="118" t="s">
+      <c r="C63" s="108" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="39" t="s">
@@ -4549,7 +4546,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G63" s="39">
         <v>2</v>
@@ -4583,8 +4580,8 @@
       <c r="W63" s="52"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="97"/>
-      <c r="C64" s="119"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4592,7 +4589,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G64" s="4">
         <v>3</v>
@@ -4626,16 +4623,16 @@
       <c r="W64" s="19"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="97"/>
-      <c r="C65" s="119"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="74" t="s">
         <v>109</v>
-      </c>
-      <c r="F65" s="74" t="s">
-        <v>110</v>
       </c>
       <c r="G65" s="4">
         <v>3</v>
@@ -4669,8 +4666,8 @@
       <c r="W65" s="19"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="97"/>
-      <c r="C66" s="119"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="29" t="s">
         <v>76</v>
       </c>
@@ -4678,7 +4675,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G66" s="4">
         <v>3</v>
@@ -4712,7 +4709,7 @@
       <c r="W66" s="19"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="97"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="33" t="s">
         <v>73</v>
       </c>
@@ -4721,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G67" s="4">
         <v>2</v>
@@ -4755,7 +4752,7 @@
       <c r="W67" s="19"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="97"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="33" t="s">
         <v>81</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G68" s="4">
         <v>4</v>
@@ -4798,8 +4795,8 @@
       <c r="W68" s="19"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="97"/>
-      <c r="C69" s="119" t="s">
+      <c r="B69" s="101"/>
+      <c r="C69" s="109" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4809,7 +4806,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" s="4">
         <v>4</v>
@@ -4843,8 +4840,8 @@
       <c r="W69" s="19"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="97"/>
-      <c r="C70" s="119"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="F70" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G70" s="4">
         <v>4</v>
@@ -4886,8 +4883,8 @@
       <c r="W70" s="19"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="97"/>
-      <c r="C71" s="119"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="109"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4895,7 +4892,7 @@
         <v>8</v>
       </c>
       <c r="F71" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G71" s="4">
         <v>4</v>
@@ -4929,8 +4926,8 @@
       <c r="W71" s="19"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="98"/>
-      <c r="C72" s="120"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="110"/>
       <c r="D72" s="24" t="s">
         <v>78</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>8</v>
       </c>
       <c r="F72" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G72" s="24">
         <v>4</v>
@@ -4972,20 +4969,20 @@
       <c r="W72" s="25"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="96" t="s">
+      <c r="B73" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="C73" s="124" t="s">
-        <v>117</v>
-      </c>
       <c r="D73" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G73" s="39">
         <v>3</v>
@@ -5019,16 +5016,16 @@
       <c r="W73" s="52"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="97"/>
-      <c r="C74" s="109"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G74" s="4">
         <v>3</v>
@@ -5062,10 +5059,10 @@
       <c r="W74" s="19"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="97"/>
-      <c r="C75" s="109"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="64"/>
@@ -5097,16 +5094,16 @@
       <c r="W75" s="19"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="97"/>
-      <c r="C76" s="109"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G76" s="4">
         <v>1</v>
@@ -5140,16 +5137,16 @@
       <c r="W76" s="95"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="97"/>
-      <c r="C77" s="109"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G77" s="4">
         <v>2</v>
@@ -5183,18 +5180,18 @@
       <c r="W77" s="19"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="97"/>
-      <c r="C78" s="109" t="s">
-        <v>118</v>
+      <c r="B78" s="101"/>
+      <c r="C78" s="96" t="s">
+        <v>117</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G78" s="4">
         <v>3</v>
@@ -5228,16 +5225,16 @@
       <c r="W78" s="19"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="97"/>
-      <c r="C79" s="109"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="96"/>
       <c r="D79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G79" s="4">
         <v>3</v>
@@ -5271,10 +5268,10 @@
       <c r="W79" s="19"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="97"/>
-      <c r="C80" s="109"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="96"/>
       <c r="D80" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="64"/>
@@ -5306,16 +5303,16 @@
       <c r="W80" s="19"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="97"/>
-      <c r="C81" s="109"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="96"/>
       <c r="D81" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G81" s="4">
         <v>1</v>
@@ -5351,16 +5348,16 @@
       <c r="W81" s="95"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="97"/>
-      <c r="C82" s="109"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G82" s="4">
         <v>2</v>
@@ -5394,18 +5391,18 @@
       <c r="W82" s="19"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="97"/>
-      <c r="C83" s="109" t="s">
-        <v>119</v>
+      <c r="B83" s="101"/>
+      <c r="C83" s="96" t="s">
+        <v>118</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G83" s="4">
         <v>3</v>
@@ -5439,16 +5436,16 @@
       <c r="W83" s="19"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="97"/>
-      <c r="C84" s="109"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="96"/>
       <c r="D84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F84" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G84" s="4">
         <v>3</v>
@@ -5482,10 +5479,10 @@
       <c r="W84" s="19"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="97"/>
-      <c r="C85" s="109"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="96"/>
       <c r="D85" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="64"/>
@@ -5517,16 +5514,16 @@
       <c r="W85" s="19"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="97"/>
-      <c r="C86" s="109"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G86" s="4">
         <v>1</v>
@@ -5562,16 +5559,16 @@
       <c r="W86" s="95"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="97"/>
-      <c r="C87" s="109"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="96"/>
       <c r="D87" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F87" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G87" s="4">
         <v>2</v>
@@ -5605,18 +5602,18 @@
       <c r="W87" s="19"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="97"/>
-      <c r="C88" s="109" t="s">
-        <v>120</v>
+      <c r="B88" s="101"/>
+      <c r="C88" s="96" t="s">
+        <v>119</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G88" s="4">
         <v>3</v>
@@ -5650,16 +5647,16 @@
       <c r="W88" s="19"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="97"/>
-      <c r="C89" s="109"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="96"/>
       <c r="D89" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G89" s="4">
         <v>3</v>
@@ -5693,10 +5690,10 @@
       <c r="W89" s="19"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="97"/>
-      <c r="C90" s="109"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="64"/>
@@ -5728,16 +5725,16 @@
       <c r="W90" s="19"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="97"/>
-      <c r="C91" s="109"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="96"/>
       <c r="D91" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G91" s="4">
         <v>1</v>
@@ -5773,16 +5770,16 @@
       <c r="W91" s="95"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="97"/>
-      <c r="C92" s="109"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="96"/>
       <c r="D92" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F92" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G92" s="4">
         <v>2</v>
@@ -5816,18 +5813,18 @@
       <c r="W92" s="19"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="97"/>
-      <c r="C93" s="109" t="s">
-        <v>121</v>
+      <c r="B93" s="101"/>
+      <c r="C93" s="96" t="s">
+        <v>120</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F93" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G93" s="4">
         <v>3</v>
@@ -5861,16 +5858,16 @@
       <c r="W93" s="19"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="97"/>
-      <c r="C94" s="109"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G94" s="4">
         <v>3</v>
@@ -5904,10 +5901,10 @@
       <c r="W94" s="19"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="97"/>
-      <c r="C95" s="109"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="96"/>
       <c r="D95" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="64"/>
@@ -5939,16 +5936,16 @@
       <c r="W95" s="19"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="97"/>
-      <c r="C96" s="109"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="96"/>
       <c r="D96" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F96" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G96" s="4">
         <v>1</v>
@@ -5984,16 +5981,16 @@
       <c r="W96" s="95"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="97"/>
-      <c r="C97" s="109"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="96"/>
       <c r="D97" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G97" s="4">
         <v>2</v>
@@ -6027,18 +6024,18 @@
       <c r="W97" s="19"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="97"/>
-      <c r="C98" s="109" t="s">
-        <v>122</v>
+      <c r="B98" s="101"/>
+      <c r="C98" s="96" t="s">
+        <v>121</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F98" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G98" s="4">
         <v>3</v>
@@ -6072,16 +6069,16 @@
       <c r="W98" s="19"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="97"/>
-      <c r="C99" s="109"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="96"/>
       <c r="D99" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F99" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G99" s="4">
         <v>3</v>
@@ -6115,10 +6112,10 @@
       <c r="W99" s="19"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="97"/>
-      <c r="C100" s="109"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="96"/>
       <c r="D100" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="64"/>
@@ -6150,16 +6147,16 @@
       <c r="W100" s="19"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="97"/>
-      <c r="C101" s="109"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="96"/>
       <c r="D101" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G101" s="4">
         <v>1</v>
@@ -6195,16 +6192,16 @@
       <c r="W101" s="95"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="97"/>
-      <c r="C102" s="109"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F102" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G102" s="4">
         <v>2</v>
@@ -6238,18 +6235,18 @@
       <c r="W102" s="19"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="97"/>
-      <c r="C103" s="109" t="s">
-        <v>123</v>
+      <c r="B103" s="101"/>
+      <c r="C103" s="96" t="s">
+        <v>122</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F103" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G103" s="4">
         <v>3</v>
@@ -6283,16 +6280,16 @@
       <c r="W103" s="19"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="97"/>
-      <c r="C104" s="109"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G104" s="4">
         <v>3</v>
@@ -6326,10 +6323,10 @@
       <c r="W104" s="19"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="97"/>
-      <c r="C105" s="109"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="96"/>
       <c r="D105" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="64"/>
@@ -6361,16 +6358,16 @@
       <c r="W105" s="19"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="97"/>
-      <c r="C106" s="109"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="96"/>
       <c r="D106" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F106" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G106" s="4">
         <v>1</v>
@@ -6406,16 +6403,16 @@
       <c r="W106" s="95"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="97"/>
-      <c r="C107" s="109"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="96"/>
       <c r="D107" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G107" s="4">
         <v>2</v>
@@ -6449,18 +6446,18 @@
       <c r="W107" s="19"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="97"/>
-      <c r="C108" s="109" t="s">
-        <v>124</v>
+      <c r="B108" s="101"/>
+      <c r="C108" s="96" t="s">
+        <v>123</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F108" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G108" s="4">
         <v>3</v>
@@ -6494,16 +6491,16 @@
       <c r="W108" s="19"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="97"/>
-      <c r="C109" s="109"/>
+      <c r="B109" s="101"/>
+      <c r="C109" s="96"/>
       <c r="D109" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G109" s="4">
         <v>3</v>
@@ -6537,10 +6534,10 @@
       <c r="W109" s="19"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="97"/>
-      <c r="C110" s="109"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="96"/>
       <c r="D110" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="64"/>
@@ -6572,16 +6569,16 @@
       <c r="W110" s="19"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="97"/>
-      <c r="C111" s="109"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="96"/>
       <c r="D111" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G111" s="4">
         <v>1</v>
@@ -6617,16 +6614,16 @@
       <c r="W111" s="95"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="97"/>
-      <c r="C112" s="109"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="96"/>
       <c r="D112" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G112" s="4">
         <v>2</v>
@@ -6660,18 +6657,18 @@
       <c r="W112" s="19"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="97"/>
-      <c r="C113" s="109" t="s">
-        <v>125</v>
+      <c r="B113" s="101"/>
+      <c r="C113" s="96" t="s">
+        <v>124</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F113" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G113" s="4">
         <v>3</v>
@@ -6705,16 +6702,16 @@
       <c r="W113" s="19"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="97"/>
-      <c r="C114" s="109"/>
+      <c r="B114" s="101"/>
+      <c r="C114" s="96"/>
       <c r="D114" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F114" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G114" s="4">
         <v>3</v>
@@ -6748,10 +6745,10 @@
       <c r="W114" s="19"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="97"/>
-      <c r="C115" s="109"/>
+      <c r="B115" s="101"/>
+      <c r="C115" s="96"/>
       <c r="D115" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="64"/>
@@ -6783,16 +6780,16 @@
       <c r="W115" s="19"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="97"/>
-      <c r="C116" s="109"/>
+      <c r="B116" s="101"/>
+      <c r="C116" s="96"/>
       <c r="D116" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F116" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G116" s="4">
         <v>1</v>
@@ -6828,16 +6825,16 @@
       <c r="W116" s="95"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="97"/>
-      <c r="C117" s="109"/>
+      <c r="B117" s="101"/>
+      <c r="C117" s="96"/>
       <c r="D117" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G117" s="4">
         <v>2</v>
@@ -6871,18 +6868,18 @@
       <c r="W117" s="19"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="97"/>
-      <c r="C118" s="109" t="s">
-        <v>126</v>
+      <c r="B118" s="101"/>
+      <c r="C118" s="96" t="s">
+        <v>125</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F118" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G118" s="4">
         <v>3</v>
@@ -6916,16 +6913,16 @@
       <c r="W118" s="19"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="97"/>
-      <c r="C119" s="109"/>
+      <c r="B119" s="101"/>
+      <c r="C119" s="96"/>
       <c r="D119" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G119" s="4">
         <v>3</v>
@@ -6959,10 +6956,10 @@
       <c r="W119" s="19"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="97"/>
-      <c r="C120" s="109"/>
+      <c r="B120" s="101"/>
+      <c r="C120" s="96"/>
       <c r="D120" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="64"/>
@@ -6994,16 +6991,16 @@
       <c r="W120" s="19"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="97"/>
-      <c r="C121" s="109"/>
+      <c r="B121" s="101"/>
+      <c r="C121" s="96"/>
       <c r="D121" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F121" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G121" s="4">
         <v>1</v>
@@ -7039,16 +7036,16 @@
       <c r="W121" s="95"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="97"/>
-      <c r="C122" s="109"/>
+      <c r="B122" s="101"/>
+      <c r="C122" s="96"/>
       <c r="D122" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G122" s="4">
         <v>2</v>
@@ -7082,18 +7079,18 @@
       <c r="W122" s="19"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="97"/>
-      <c r="C123" s="109" t="s">
-        <v>127</v>
+      <c r="B123" s="101"/>
+      <c r="C123" s="96" t="s">
+        <v>126</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F123" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G123" s="4">
         <v>3</v>
@@ -7127,16 +7124,16 @@
       <c r="W123" s="19"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="97"/>
-      <c r="C124" s="109"/>
+      <c r="B124" s="101"/>
+      <c r="C124" s="96"/>
       <c r="D124" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F124" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G124" s="4">
         <v>3</v>
@@ -7170,10 +7167,10 @@
       <c r="W124" s="19"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="97"/>
-      <c r="C125" s="109"/>
+      <c r="B125" s="101"/>
+      <c r="C125" s="96"/>
       <c r="D125" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="64"/>
@@ -7205,16 +7202,16 @@
       <c r="W125" s="19"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="97"/>
-      <c r="C126" s="109"/>
+      <c r="B126" s="101"/>
+      <c r="C126" s="96"/>
       <c r="D126" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F126" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G126" s="4">
         <v>1</v>
@@ -7250,16 +7247,16 @@
       <c r="W126" s="95"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="97"/>
-      <c r="C127" s="109"/>
+      <c r="B127" s="101"/>
+      <c r="C127" s="96"/>
       <c r="D127" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F127" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G127" s="4">
         <v>2</v>
@@ -7293,18 +7290,18 @@
       <c r="W127" s="19"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="97"/>
-      <c r="C128" s="109" t="s">
-        <v>128</v>
+      <c r="B128" s="101"/>
+      <c r="C128" s="96" t="s">
+        <v>127</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G128" s="4">
         <v>3</v>
@@ -7338,16 +7335,16 @@
       <c r="W128" s="19"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="97"/>
-      <c r="C129" s="109"/>
+      <c r="B129" s="101"/>
+      <c r="C129" s="96"/>
       <c r="D129" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F129" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G129" s="4">
         <v>3</v>
@@ -7381,10 +7378,10 @@
       <c r="W129" s="19"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="97"/>
-      <c r="C130" s="109"/>
+      <c r="B130" s="101"/>
+      <c r="C130" s="96"/>
       <c r="D130" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="64"/>
@@ -7416,16 +7413,16 @@
       <c r="W130" s="19"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="97"/>
-      <c r="C131" s="109"/>
+      <c r="B131" s="101"/>
+      <c r="C131" s="96"/>
       <c r="D131" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G131" s="4">
         <v>1</v>
@@ -7461,16 +7458,16 @@
       <c r="W131" s="95"/>
     </row>
     <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="97"/>
-      <c r="C132" s="109"/>
+      <c r="B132" s="101"/>
+      <c r="C132" s="96"/>
       <c r="D132" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F132" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G132" s="4">
         <v>2</v>
@@ -7504,18 +7501,18 @@
       <c r="W132" s="19"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="97"/>
-      <c r="C133" s="109" t="s">
-        <v>129</v>
+      <c r="B133" s="101"/>
+      <c r="C133" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F133" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G133" s="4">
         <v>3</v>
@@ -7549,16 +7546,16 @@
       <c r="W133" s="19"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="97"/>
-      <c r="C134" s="109"/>
+      <c r="B134" s="101"/>
+      <c r="C134" s="96"/>
       <c r="D134" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F134" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G134" s="4">
         <v>3</v>
@@ -7592,10 +7589,10 @@
       <c r="W134" s="19"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="97"/>
-      <c r="C135" s="109"/>
+      <c r="B135" s="101"/>
+      <c r="C135" s="96"/>
       <c r="D135" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="64"/>
@@ -7627,16 +7624,16 @@
       <c r="W135" s="19"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="97"/>
-      <c r="C136" s="109"/>
+      <c r="B136" s="101"/>
+      <c r="C136" s="96"/>
       <c r="D136" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F136" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G136" s="4">
         <v>1</v>
@@ -7672,16 +7669,16 @@
       <c r="W136" s="95"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="97"/>
-      <c r="C137" s="109"/>
+      <c r="B137" s="101"/>
+      <c r="C137" s="96"/>
       <c r="D137" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F137" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G137" s="4">
         <v>2</v>
@@ -7715,18 +7712,18 @@
       <c r="W137" s="19"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="97"/>
-      <c r="C138" s="109" t="s">
-        <v>130</v>
+      <c r="B138" s="101"/>
+      <c r="C138" s="96" t="s">
+        <v>129</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G138" s="4">
         <v>3</v>
@@ -7760,16 +7757,16 @@
       <c r="W138" s="19"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="97"/>
-      <c r="C139" s="109"/>
+      <c r="B139" s="101"/>
+      <c r="C139" s="96"/>
       <c r="D139" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F139" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G139" s="4">
         <v>3</v>
@@ -7803,10 +7800,10 @@
       <c r="W139" s="19"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="97"/>
-      <c r="C140" s="109"/>
+      <c r="B140" s="101"/>
+      <c r="C140" s="96"/>
       <c r="D140" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="64"/>
@@ -7838,16 +7835,16 @@
       <c r="W140" s="19"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="97"/>
-      <c r="C141" s="109"/>
+      <c r="B141" s="101"/>
+      <c r="C141" s="96"/>
       <c r="D141" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G141" s="4">
         <v>1</v>
@@ -7883,16 +7880,16 @@
       <c r="W141" s="95"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="97"/>
-      <c r="C142" s="109"/>
+      <c r="B142" s="101"/>
+      <c r="C142" s="96"/>
       <c r="D142" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F142" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G142" s="4">
         <v>2</v>
@@ -7926,18 +7923,18 @@
       <c r="W142" s="19"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="97"/>
-      <c r="C143" s="109" t="s">
+      <c r="B143" s="101"/>
+      <c r="C143" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E143" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F143" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G143" s="4">
         <v>3</v>
@@ -7971,16 +7968,16 @@
       <c r="W143" s="19"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="97"/>
-      <c r="C144" s="109"/>
+      <c r="B144" s="101"/>
+      <c r="C144" s="96"/>
       <c r="D144" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G144" s="4">
         <v>3</v>
@@ -8014,10 +8011,10 @@
       <c r="W144" s="19"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="97"/>
-      <c r="C145" s="109"/>
+      <c r="B145" s="101"/>
+      <c r="C145" s="96"/>
       <c r="D145" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="64"/>
@@ -8049,16 +8046,16 @@
       <c r="W145" s="19"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="97"/>
-      <c r="C146" s="109"/>
+      <c r="B146" s="101"/>
+      <c r="C146" s="96"/>
       <c r="D146" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F146" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G146" s="4">
         <v>1</v>
@@ -8094,16 +8091,16 @@
       <c r="W146" s="95"/>
     </row>
     <row r="147" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="98"/>
-      <c r="C147" s="112"/>
+      <c r="B147" s="102"/>
+      <c r="C147" s="124"/>
       <c r="D147" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G147" s="24">
         <v>2</v>
@@ -8112,7 +8109,7 @@
         <v>0.25</v>
       </c>
       <c r="I147" s="20">
-        <f t="shared" ref="I147:I182" si="5">SUM(J147:W147)</f>
+        <f t="shared" ref="I147:I181" si="5">SUM(J147:W147)</f>
         <v>0</v>
       </c>
       <c r="J147" s="71">
@@ -8137,7 +8134,7 @@
       <c r="W147" s="25"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="96" t="s">
+      <c r="B148" s="100" t="s">
         <v>83</v>
       </c>
       <c r="C148" s="78" t="s">
@@ -8148,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G148" s="39">
         <v>3</v>
@@ -8182,7 +8179,7 @@
       <c r="W148" s="52"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="97"/>
+      <c r="B149" s="101"/>
       <c r="C149" s="33" t="s">
         <v>89</v>
       </c>
@@ -8191,7 +8188,7 @@
         <v>8</v>
       </c>
       <c r="F149" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G149" s="4">
         <v>3</v>
@@ -8225,7 +8222,7 @@
       <c r="W149" s="19"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="97"/>
+      <c r="B150" s="101"/>
       <c r="C150" s="33" t="s">
         <v>90</v>
       </c>
@@ -8234,7 +8231,7 @@
         <v>8</v>
       </c>
       <c r="F150" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G150" s="4">
         <v>3</v>
@@ -8268,7 +8265,7 @@
       <c r="W150" s="19"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="97"/>
+      <c r="B151" s="101"/>
       <c r="C151" s="33" t="s">
         <v>91</v>
       </c>
@@ -8277,7 +8274,7 @@
         <v>8</v>
       </c>
       <c r="F151" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G151" s="4">
         <v>3</v>
@@ -8311,16 +8308,16 @@
       <c r="W151" s="19"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="97"/>
+      <c r="B152" s="101"/>
       <c r="C152" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F152" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G152" s="4">
         <v>3</v>
@@ -8354,16 +8351,16 @@
       <c r="W152" s="19"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="97"/>
+      <c r="B153" s="101"/>
       <c r="C153" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F153" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G153" s="4">
         <v>3</v>
@@ -8397,16 +8394,16 @@
       <c r="W153" s="19"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="97"/>
+      <c r="B154" s="101"/>
       <c r="C154" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F154" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G154" s="4">
         <v>3</v>
@@ -8440,16 +8437,16 @@
       <c r="W154" s="19"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="97"/>
+      <c r="B155" s="101"/>
       <c r="C155" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F155" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G155" s="4">
         <v>3</v>
@@ -8483,7 +8480,7 @@
       <c r="W155" s="19"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="97"/>
+      <c r="B156" s="101"/>
       <c r="C156" s="33" t="s">
         <v>92</v>
       </c>
@@ -8492,7 +8489,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G156" s="4">
         <v>2</v>
@@ -8526,7 +8523,7 @@
       <c r="W156" s="19"/>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="97"/>
+      <c r="B157" s="101"/>
       <c r="C157" s="33" t="s">
         <v>93</v>
       </c>
@@ -8535,7 +8532,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G157" s="4">
         <v>2</v>
@@ -8591,7 +8588,7 @@
       </c>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="97"/>
+      <c r="B158" s="101"/>
       <c r="C158" s="33" t="s">
         <v>94</v>
       </c>
@@ -8600,7 +8597,7 @@
         <v>8</v>
       </c>
       <c r="F158" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G158" s="4">
         <v>3</v>
@@ -8634,7 +8631,7 @@
       <c r="W158" s="19"/>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="97"/>
+      <c r="B159" s="101"/>
       <c r="C159" s="33" t="s">
         <v>98</v>
       </c>
@@ -8643,7 +8640,7 @@
         <v>8</v>
       </c>
       <c r="F159" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G159" s="4">
         <v>2</v>
@@ -8677,7 +8674,7 @@
       <c r="W159" s="19"/>
     </row>
     <row r="160" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="98"/>
+      <c r="B160" s="102"/>
       <c r="C160" s="61" t="s">
         <v>99</v>
       </c>
@@ -8686,7 +8683,7 @@
         <v>8</v>
       </c>
       <c r="F160" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G160" s="24">
         <v>4</v>
@@ -8720,18 +8717,18 @@
       <c r="W160" s="25"/>
     </row>
     <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="96" t="s">
-        <v>143</v>
+      <c r="B161" s="100" t="s">
+        <v>142</v>
       </c>
       <c r="C161" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D161" s="39"/>
       <c r="E161" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F161" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G161" s="39">
         <v>7</v>
@@ -8765,16 +8762,16 @@
       <c r="W161" s="52"/>
     </row>
     <row r="162" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="97"/>
+      <c r="B162" s="101"/>
       <c r="C162" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G162" s="4">
         <v>7</v>
@@ -8808,16 +8805,16 @@
       <c r="W162" s="19"/>
     </row>
     <row r="163" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="98"/>
+      <c r="B163" s="102"/>
       <c r="C163" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D163" s="24"/>
       <c r="E163" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F163" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G163" s="24">
         <v>7</v>
@@ -8851,18 +8848,18 @@
       <c r="W163" s="25"/>
     </row>
     <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="96" t="s">
+      <c r="B164" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="C164" s="60" t="s">
         <v>148</v>
-      </c>
-      <c r="C164" s="60" t="s">
-        <v>149</v>
       </c>
       <c r="D164" s="39"/>
       <c r="E164" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F164" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G164" s="39">
         <v>5</v>
@@ -8896,16 +8893,16 @@
       <c r="W164" s="52"/>
     </row>
     <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="97"/>
+      <c r="B165" s="101"/>
       <c r="C165" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F165" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G165" s="4">
         <v>7</v>
@@ -8939,16 +8936,16 @@
       <c r="W165" s="19"/>
     </row>
     <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="97"/>
+      <c r="B166" s="101"/>
       <c r="C166" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F166" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G166" s="4">
         <v>7</v>
@@ -8982,16 +8979,16 @@
       <c r="W166" s="19"/>
     </row>
     <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="97"/>
+      <c r="B167" s="101"/>
       <c r="C167" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F167" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G167" s="4">
         <v>7</v>
@@ -9025,16 +9022,16 @@
       <c r="W167" s="19"/>
     </row>
     <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="97"/>
+      <c r="B168" s="101"/>
       <c r="C168" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F168" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G168" s="4">
         <v>7</v>
@@ -9068,16 +9065,16 @@
       <c r="W168" s="19"/>
     </row>
     <row r="169" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="97"/>
+      <c r="B169" s="101"/>
       <c r="C169" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F169" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G169" s="4">
         <v>7</v>
@@ -9111,16 +9108,16 @@
       <c r="W169" s="19"/>
     </row>
     <row r="170" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="98"/>
+      <c r="B170" s="102"/>
       <c r="C170" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D170" s="24"/>
       <c r="E170" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F170" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G170" s="24">
         <v>7</v>
@@ -9154,7 +9151,7 @@
       <c r="W170" s="25"/>
     </row>
     <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="96" t="s">
+      <c r="B171" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C171" s="54" t="s">
@@ -9165,7 +9162,7 @@
         <v>8</v>
       </c>
       <c r="F171" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G171" s="39">
         <v>3</v>
@@ -9199,16 +9196,16 @@
       <c r="W171" s="52"/>
     </row>
     <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="97"/>
+      <c r="B172" s="101"/>
       <c r="C172" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G172" s="4">
         <v>3</v>
@@ -9242,16 +9239,16 @@
       <c r="W172" s="19"/>
     </row>
     <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="97"/>
+      <c r="B173" s="101"/>
       <c r="C173" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F173" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G173" s="4">
         <v>3</v>
@@ -9285,16 +9282,16 @@
       <c r="W173" s="19"/>
     </row>
     <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="97"/>
+      <c r="B174" s="101"/>
       <c r="C174" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G174" s="4">
         <v>3</v>
@@ -9328,7 +9325,7 @@
       <c r="W174" s="19"/>
     </row>
     <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="97"/>
+      <c r="B175" s="101"/>
       <c r="C175" s="33" t="s">
         <v>84</v>
       </c>
@@ -9337,7 +9334,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G175" s="4">
         <v>3</v>
@@ -9371,7 +9368,7 @@
       <c r="W175" s="19"/>
     </row>
     <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="97"/>
+      <c r="B176" s="101"/>
       <c r="C176" s="33" t="s">
         <v>85</v>
       </c>
@@ -9380,7 +9377,7 @@
         <v>8</v>
       </c>
       <c r="F176" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G176" s="4">
         <v>3</v>
@@ -9414,7 +9411,7 @@
       <c r="W176" s="19"/>
     </row>
     <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="97"/>
+      <c r="B177" s="101"/>
       <c r="C177" s="33" t="s">
         <v>87</v>
       </c>
@@ -9423,7 +9420,7 @@
         <v>8</v>
       </c>
       <c r="F177" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G177" s="4">
         <v>5</v>
@@ -9457,7 +9454,7 @@
       <c r="W177" s="19"/>
     </row>
     <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="97"/>
+      <c r="B178" s="101"/>
       <c r="C178" s="33" t="s">
         <v>86</v>
       </c>
@@ -9466,7 +9463,7 @@
         <v>8</v>
       </c>
       <c r="F178" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G178" s="4">
         <v>5</v>
@@ -9500,16 +9497,16 @@
       <c r="W178" s="19"/>
     </row>
     <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="97"/>
+      <c r="B179" s="101"/>
       <c r="C179" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F179" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G179" s="4">
         <v>3</v>
@@ -9543,16 +9540,16 @@
       <c r="W179" s="19"/>
     </row>
     <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="97"/>
+      <c r="B180" s="101"/>
       <c r="C180" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G180" s="4">
         <v>1</v>
@@ -9570,7 +9567,7 @@
       <c r="K180" s="80">
         <v>1.85</v>
       </c>
-      <c r="L180" s="70">
+      <c r="L180" s="80">
         <v>0</v>
       </c>
       <c r="M180" s="4"/>
@@ -9586,16 +9583,16 @@
       <c r="W180" s="19"/>
     </row>
     <row r="181" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="97"/>
+      <c r="B181" s="101"/>
       <c r="C181" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F181" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G181" s="4">
         <v>2</v>
@@ -9628,267 +9625,239 @@
       <c r="V181" s="17"/>
       <c r="W181" s="19"/>
     </row>
-    <row r="182" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="98"/>
-      <c r="C182" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D182" s="46"/>
-      <c r="E182" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="G182" s="24">
-        <v>3</v>
-      </c>
-      <c r="H182" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="I182" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="71">
-        <v>0</v>
-      </c>
-      <c r="K182" s="71">
-        <v>0</v>
-      </c>
-      <c r="L182" s="71">
-        <v>0</v>
-      </c>
-      <c r="M182" s="24"/>
-      <c r="N182" s="24"/>
-      <c r="O182" s="22"/>
-      <c r="P182" s="21"/>
-      <c r="Q182" s="22"/>
-      <c r="R182" s="22"/>
-      <c r="S182" s="22"/>
-      <c r="T182" s="22"/>
-      <c r="U182" s="22"/>
-      <c r="V182" s="22"/>
-      <c r="W182" s="25"/>
-    </row>
-    <row r="183" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="105" t="s">
+    <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="106"/>
-      <c r="D183" s="107"/>
-      <c r="E183" s="107"/>
-      <c r="F183" s="107"/>
-      <c r="G183" s="108"/>
-      <c r="H183" s="36">
-        <f t="shared" ref="H183:W183" si="6">SUM(H4:H182)</f>
-        <v>97.499999999999829</v>
-      </c>
-      <c r="I183" s="23">
-        <f t="shared" si="6"/>
+      <c r="C182" s="121"/>
+      <c r="D182" s="122"/>
+      <c r="E182" s="122"/>
+      <c r="F182" s="122"/>
+      <c r="G182" s="123"/>
+      <c r="H182" s="36">
+        <f>SUM(H4:H181)</f>
+        <v>95.999999999999829</v>
+      </c>
+      <c r="I182" s="23">
+        <f>SUM(I4:I181)</f>
         <v>10.733299999999996</v>
       </c>
-      <c r="J183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K183" s="23">
-        <f t="shared" si="6"/>
+      <c r="J182" s="23">
+        <f>SUM(J4:J181)</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="23">
+        <f>SUM(K4:K181)</f>
         <v>4.0533000000000001</v>
       </c>
-      <c r="L183" s="92">
-        <f t="shared" si="6"/>
+      <c r="L182" s="92">
+        <f>SUM(L4:L181)</f>
         <v>2.0030000000000001</v>
       </c>
-      <c r="M183" s="23">
-        <f t="shared" si="6"/>
+      <c r="M182" s="23">
+        <f>SUM(M4:M181)</f>
         <v>4.6769999999999969</v>
       </c>
-      <c r="N183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V183" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W183" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="N182" s="23">
+        <f>SUM(N4:N181)</f>
+        <v>0</v>
+      </c>
+      <c r="O182" s="23">
+        <f>SUM(O4:O181)</f>
+        <v>0</v>
+      </c>
+      <c r="P182" s="23">
+        <f>SUM(P4:P181)</f>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="23">
+        <f>SUM(Q4:Q181)</f>
+        <v>0</v>
+      </c>
+      <c r="R182" s="23">
+        <f>SUM(R4:R181)</f>
+        <v>0</v>
+      </c>
+      <c r="S182" s="23">
+        <f>SUM(S4:S181)</f>
+        <v>0</v>
+      </c>
+      <c r="T182" s="23">
+        <f>SUM(T4:T181)</f>
+        <v>0</v>
+      </c>
+      <c r="U182" s="23">
+        <f>SUM(U4:U181)</f>
+        <v>0</v>
+      </c>
+      <c r="V182" s="23">
+        <f>SUM(V4:V181)</f>
+        <v>0</v>
+      </c>
+      <c r="W182" s="30">
+        <f>SUM(W4:W181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="K183" s="98"/>
+      <c r="L183" s="98"/>
+      <c r="M183" s="98"/>
+      <c r="N183" s="98"/>
+      <c r="O183" s="98"/>
+      <c r="P183" s="98"/>
+      <c r="Q183" s="98"/>
+      <c r="R183" s="98"/>
+      <c r="S183" s="98"/>
+      <c r="T183" s="98"/>
+      <c r="U183" s="98"/>
+      <c r="V183" s="98"/>
+      <c r="W183" s="99"/>
+    </row>
+    <row r="184" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C184" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
-      <c r="J184" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="K184" s="110"/>
-      <c r="L184" s="110"/>
-      <c r="M184" s="110"/>
-      <c r="N184" s="110"/>
-      <c r="O184" s="110"/>
-      <c r="P184" s="110"/>
-      <c r="Q184" s="110"/>
-      <c r="R184" s="110"/>
-      <c r="S184" s="110"/>
-      <c r="T184" s="110"/>
-      <c r="U184" s="110"/>
-      <c r="V184" s="110"/>
-      <c r="W184" s="111"/>
-    </row>
-    <row r="185" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C185" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>161</v>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+    </row>
+    <row r="185" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C185" s="91">
+        <f>SUM(H180,H176:H177,H164:H170,H160,H156:H158,H12:H62,H10)</f>
+        <v>46.399999999999991</v>
+      </c>
+      <c r="D185" s="4">
+        <f>SUM(I10,I12,I13,I14,I15:I62,I156:I158,I160,I164:I170,I176:I177,I180)</f>
+        <v>9.1532999999999998</v>
+      </c>
+      <c r="E185" s="4">
+        <f>SUM(C185,-D185)</f>
+        <v>37.24669999999999</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
+      <c r="H185" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" s="116"/>
+      <c r="J185" s="9">
+        <f>H182-J182</f>
+        <v>95.999999999999829</v>
+      </c>
+      <c r="K185" s="9">
+        <f>J185-K182</f>
+        <v>91.946699999999822</v>
+      </c>
+      <c r="L185" s="9">
+        <f>K185-L182</f>
+        <v>89.943699999999822</v>
+      </c>
+      <c r="M185" s="9">
+        <f>L185-M182</f>
+        <v>85.26669999999983</v>
+      </c>
+      <c r="N185" s="10">
+        <f>M185-N182</f>
+        <v>85.26669999999983</v>
+      </c>
     </row>
     <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="89" t="s">
+      <c r="B186" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C186" s="91">
-        <f>SUM(H182,H180,H176:H177,H164:H170,H160,H156:H158,H12:H62,H10)</f>
-        <v>47.899999999999977</v>
-      </c>
-      <c r="D186" s="4">
-        <f>SUM(I10,I12,I13,I14,I15:I62,I156:I158,I160,I164:I170,I176:I177,I180,I182)</f>
-        <v>9.1532999999999998</v>
-      </c>
-      <c r="E186" s="4">
+      <c r="C186" s="5">
+        <f>SUM(H161:H163,H159,H73:H148,H11,H9)</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="D186" s="5">
+        <f>SUM(I9,I11,I73:I148,I159,I161:I163)</f>
+        <v>1.5800000000000003</v>
+      </c>
+      <c r="E186" s="5">
         <f>SUM(C186,-D186)</f>
-        <v>38.746699999999976</v>
-      </c>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="I186" s="100"/>
-      <c r="J186" s="9">
-        <f>H183-J183</f>
-        <v>97.499999999999829</v>
-      </c>
-      <c r="K186" s="9">
-        <f>J186-K183</f>
-        <v>93.446699999999822</v>
-      </c>
-      <c r="L186" s="9">
-        <f>K186-L183</f>
-        <v>91.443699999999822</v>
-      </c>
-      <c r="M186" s="9">
-        <f>L186-M183</f>
-        <v>86.76669999999983</v>
-      </c>
-      <c r="N186" s="10">
-        <f>M186-N183</f>
-        <v>86.76669999999983</v>
-      </c>
+        <v>23.62</v>
+      </c>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
     </row>
     <row r="187" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B187" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C187" s="5">
-        <f>SUM(H161:H163,H159,H73:H148,H11,H9)</f>
-        <v>25.200000000000003</v>
+      <c r="C187" s="4">
+        <f>SUM(H181,H179,H178,H171:H175,H149:H155,H63:H72,H4:H8)</f>
+        <v>24.4</v>
       </c>
       <c r="D187" s="5">
-        <f>SUM(I9,I11,I73:I148,I159,I161:I163)</f>
-        <v>1.5800000000000003</v>
+        <f>SUM(I181,I178:I179,I171:I175,I149:I155,I63:I72,I4:I8)</f>
+        <v>0</v>
       </c>
       <c r="E187" s="5">
         <f>SUM(C187,-D187)</f>
-        <v>23.62</v>
+        <v>24.4</v>
       </c>
       <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
-    </row>
-    <row r="188" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="C188" s="4">
-        <f>SUM(H181,H179,H178,H171:H175,H149:H155,H63:H72,H4:H8)</f>
-        <v>24.4</v>
-      </c>
-      <c r="D188" s="5">
-        <f>SUM(I181,I178:I179,I171:I175,I149:I155,I63:I72,I4:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="E188" s="5">
-        <f>SUM(C188,-D188)</f>
-        <v>24.4</v>
-      </c>
+      <c r="H187" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" s="117"/>
+      <c r="J187" s="116">
+        <f>H182-I182</f>
+        <v>85.26669999999983</v>
+      </c>
+      <c r="K187" s="116"/>
+      <c r="L187" s="116"/>
+      <c r="M187" s="116"/>
+      <c r="N187" s="118"/>
+    </row>
+    <row r="188" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
       <c r="F188" s="3"/>
-      <c r="H188" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" s="102"/>
-      <c r="J188" s="100">
-        <f>H183-I183</f>
-        <v>86.76669999999983</v>
-      </c>
-      <c r="K188" s="100"/>
-      <c r="L188" s="100"/>
-      <c r="M188" s="100"/>
-      <c r="N188" s="103"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
     </row>
     <row r="189" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
@@ -9920,23 +9889,12 @@
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
     </row>
-    <row r="191" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-    </row>
+    <row r="191" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="192" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+    </row>
     <row r="194" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -9985,20 +9943,25 @@
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
     </row>
-    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
-    </row>
-    <row r="207" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:N187"/>
+    <mergeCell ref="B14:B62"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B171:B181"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="J183:W183"/>
+    <mergeCell ref="B73:B147"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C88:C92"/>
     <mergeCell ref="C83:C87"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="B63:B72"/>
@@ -10010,22 +9973,13 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C73:C77"/>
     <mergeCell ref="C78:C82"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:N188"/>
-    <mergeCell ref="B14:B62"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="J184:W184"/>
-    <mergeCell ref="B73:B147"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C128:C132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1285,10 +1285,46 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,13 +1333,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,36 +1370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,10 +1438,10 @@
                   <c:v>89.943699999999822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.26669999999983</c:v>
+                  <c:v>85.032699999999821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.26669999999983</c:v>
+                  <c:v>85.032699999999821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,11 +1462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="327264544"/>
-        <c:axId val="327258016"/>
+        <c:axId val="-1083270528"/>
+        <c:axId val="-1083260192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="327264544"/>
+        <c:axId val="-1083270528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327258016"/>
+        <c:crossAx val="-1083260192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327258016"/>
+        <c:axId val="-1083260192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327264544"/>
+        <c:crossAx val="-1083270528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,22 +1874,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="99"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
@@ -1960,7 +1960,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2005,7 +2005,7 @@
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="35" t="s">
         <v>100</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="35" t="s">
         <v>101</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="35" t="s">
         <v>102</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="113"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="45" t="s">
         <v>110</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="121" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2222,7 +2222,7 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="34" t="s">
         <v>106</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="112"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="83" t="s">
         <v>111</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="112"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="83" t="s">
         <v>112</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="113"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="96" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2463,8 +2463,8 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="105" t="s">
+      <c r="B15" s="97"/>
+      <c r="C15" s="115" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2510,8 +2510,8 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="101"/>
-      <c r="C16" s="106"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2553,8 +2553,8 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="101"/>
-      <c r="C17" s="106"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2596,8 +2596,8 @@
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="101"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2639,8 +2639,8 @@
       <c r="W18" s="19"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="106"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2682,8 +2682,8 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="101"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="101"/>
-      <c r="C21" s="106"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2768,8 +2768,8 @@
       <c r="W21" s="19"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="101"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="32" t="s">
         <v>36</v>
       </c>
@@ -2811,8 +2811,8 @@
       <c r="W22" s="19"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="101"/>
-      <c r="C23" s="106"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="32" t="s">
         <v>37</v>
       </c>
@@ -2854,8 +2854,8 @@
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="101"/>
-      <c r="C24" s="106"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="32" t="s">
         <v>38</v>
       </c>
@@ -2897,8 +2897,8 @@
       <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
-      <c r="C25" s="106"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="32" t="s">
         <v>39</v>
       </c>
@@ -2940,8 +2940,8 @@
       <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="101"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
@@ -2983,8 +2983,8 @@
       <c r="W26" s="19"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="101"/>
-      <c r="C27" s="106"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3026,8 +3026,8 @@
       <c r="W27" s="19"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="101"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="32" t="s">
         <v>42</v>
       </c>
@@ -3069,8 +3069,8 @@
       <c r="W28" s="19"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="101"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="32" t="s">
         <v>43</v>
       </c>
@@ -3112,8 +3112,8 @@
       <c r="W29" s="19"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="101"/>
-      <c r="C30" s="106"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="32" t="s">
         <v>44</v>
       </c>
@@ -3155,8 +3155,8 @@
       <c r="W30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="101"/>
-      <c r="C31" s="106"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="32" t="s">
         <v>45</v>
       </c>
@@ -3198,8 +3198,8 @@
       <c r="W31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="101"/>
-      <c r="C32" s="106"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="32" t="s">
         <v>46</v>
       </c>
@@ -3241,8 +3241,8 @@
       <c r="W32" s="19"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="101"/>
-      <c r="C33" s="106"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="32" t="s">
         <v>47</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="W33" s="19"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="101"/>
-      <c r="C34" s="106"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="32" t="s">
         <v>48</v>
       </c>
@@ -3327,8 +3327,8 @@
       <c r="W34" s="19"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="101"/>
-      <c r="C35" s="106"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="32" t="s">
         <v>49</v>
       </c>
@@ -3370,8 +3370,8 @@
       <c r="W35" s="19"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="101"/>
-      <c r="C36" s="106"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="32" t="s">
         <v>50</v>
       </c>
@@ -3413,8 +3413,8 @@
       <c r="W36" s="19"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="101"/>
-      <c r="C37" s="106"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="32" t="s">
         <v>51</v>
       </c>
@@ -3456,8 +3456,8 @@
       <c r="W37" s="19"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="101"/>
-      <c r="C38" s="106"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3499,8 +3499,8 @@
       <c r="W38" s="19"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="101"/>
-      <c r="C39" s="106"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="116"/>
       <c r="D39" s="32" t="s">
         <v>53</v>
       </c>
@@ -3542,8 +3542,8 @@
       <c r="W39" s="19"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="101"/>
-      <c r="C40" s="106"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="32" t="s">
         <v>54</v>
       </c>
@@ -3585,8 +3585,8 @@
       <c r="W40" s="19"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="101"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="32" t="s">
         <v>55</v>
       </c>
@@ -3628,8 +3628,8 @@
       <c r="W41" s="19"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="101"/>
-      <c r="C42" s="106"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="32" t="s">
         <v>56</v>
       </c>
@@ -3671,8 +3671,8 @@
       <c r="W42" s="19"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="101"/>
-      <c r="C43" s="106"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="116"/>
       <c r="D43" s="32" t="s">
         <v>57</v>
       </c>
@@ -3714,8 +3714,8 @@
       <c r="W43" s="19"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="101"/>
-      <c r="C44" s="106"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="116"/>
       <c r="D44" s="32" t="s">
         <v>58</v>
       </c>
@@ -3757,8 +3757,8 @@
       <c r="W44" s="19"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="101"/>
-      <c r="C45" s="106"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="116"/>
       <c r="D45" s="32" t="s">
         <v>59</v>
       </c>
@@ -3800,8 +3800,8 @@
       <c r="W45" s="19"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="101"/>
-      <c r="C46" s="106"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="116"/>
       <c r="D46" s="32" t="s">
         <v>60</v>
       </c>
@@ -3843,8 +3843,8 @@
       <c r="W46" s="19"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="101"/>
-      <c r="C47" s="106"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="116"/>
       <c r="D47" s="32" t="s">
         <v>61</v>
       </c>
@@ -3886,8 +3886,8 @@
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="101"/>
-      <c r="C48" s="106"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="116"/>
       <c r="D48" s="32" t="s">
         <v>62</v>
       </c>
@@ -3929,8 +3929,8 @@
       <c r="W48" s="19"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="101"/>
-      <c r="C49" s="106"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="116"/>
       <c r="D49" s="32" t="s">
         <v>63</v>
       </c>
@@ -3972,8 +3972,8 @@
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="101"/>
-      <c r="C50" s="106"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="116"/>
       <c r="D50" s="32" t="s">
         <v>64</v>
       </c>
@@ -4015,8 +4015,8 @@
       <c r="W50" s="19"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="101"/>
-      <c r="C51" s="106"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="116"/>
       <c r="D51" s="32" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4058,8 @@
       <c r="W51" s="19"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="101"/>
-      <c r="C52" s="106"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="116"/>
       <c r="D52" s="32" t="s">
         <v>66</v>
       </c>
@@ -4101,8 +4101,8 @@
       <c r="W52" s="19"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="101"/>
-      <c r="C53" s="106"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="116"/>
       <c r="D53" s="32" t="s">
         <v>67</v>
       </c>
@@ -4144,8 +4144,8 @@
       <c r="W53" s="19"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="101"/>
-      <c r="C54" s="106"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="116"/>
       <c r="D54" s="32" t="s">
         <v>68</v>
       </c>
@@ -4187,8 +4187,8 @@
       <c r="W54" s="19"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="101"/>
-      <c r="C55" s="107"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="117"/>
       <c r="D55" s="32" t="s">
         <v>69</v>
       </c>
@@ -4230,8 +4230,8 @@
       <c r="W55" s="19"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="101"/>
-      <c r="C56" s="103" t="s">
+      <c r="B56" s="97"/>
+      <c r="C56" s="113" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="29" t="s">
@@ -4275,8 +4275,8 @@
       <c r="W56" s="19"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="101"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="29" t="s">
         <v>29</v>
       </c>
@@ -4318,8 +4318,8 @@
       <c r="W57" s="19"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="101"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
@@ -4361,8 +4361,8 @@
       <c r="W58" s="19"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="101"/>
-      <c r="C59" s="104"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="29" t="s">
         <v>31</v>
       </c>
@@ -4404,8 +4404,8 @@
       <c r="W59" s="19"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="101"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="29" t="s">
         <v>34</v>
       </c>
@@ -4447,8 +4447,8 @@
       <c r="W60" s="19"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="101"/>
-      <c r="C61" s="104"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="114"/>
       <c r="D61" s="29" t="s">
         <v>32</v>
       </c>
@@ -4490,8 +4490,8 @@
       <c r="W61" s="19"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="119"/>
-      <c r="C62" s="104"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="114"/>
       <c r="D62" s="62" t="s">
         <v>33</v>
       </c>
@@ -4533,10 +4533,10 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="100" t="s">
+      <c r="B63" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="118" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="39" t="s">
@@ -4580,8 +4580,8 @@
       <c r="W63" s="52"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="101"/>
-      <c r="C64" s="109"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="119"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4623,8 @@
       <c r="W64" s="19"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="101"/>
-      <c r="C65" s="109"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="119"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4666,8 +4666,8 @@
       <c r="W65" s="19"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="101"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="119"/>
       <c r="D66" s="29" t="s">
         <v>76</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="W66" s="19"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="101"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="33" t="s">
         <v>73</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="W67" s="19"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="101"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="33" t="s">
         <v>81</v>
       </c>
@@ -4795,8 +4795,8 @@
       <c r="W68" s="19"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="101"/>
-      <c r="C69" s="109" t="s">
+      <c r="B69" s="97"/>
+      <c r="C69" s="119" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4840,8 +4840,8 @@
       <c r="W69" s="19"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="101"/>
-      <c r="C70" s="109"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="119"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4883,8 +4883,8 @@
       <c r="W70" s="19"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="101"/>
-      <c r="C71" s="109"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="119"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4926,8 +4926,8 @@
       <c r="W71" s="19"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="102"/>
-      <c r="C72" s="110"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="120"/>
       <c r="D72" s="24" t="s">
         <v>78</v>
       </c>
@@ -4969,10 +4969,10 @@
       <c r="W72" s="25"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="100" t="s">
+      <c r="B73" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="124" t="s">
         <v>116</v>
       </c>
       <c r="D73" s="39" t="s">
@@ -5016,8 +5016,8 @@
       <c r="W73" s="52"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="101"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="4" t="s">
         <v>132</v>
       </c>
@@ -5059,8 +5059,8 @@
       <c r="W74" s="19"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="101"/>
-      <c r="C75" s="96"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="4" t="s">
         <v>161</v>
       </c>
@@ -5094,8 +5094,8 @@
       <c r="W75" s="19"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="101"/>
-      <c r="C76" s="96"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="4" t="s">
         <v>133</v>
       </c>
@@ -5137,8 +5137,8 @@
       <c r="W76" s="95"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="101"/>
-      <c r="C77" s="96"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="109"/>
       <c r="D77" s="4" t="s">
         <v>134</v>
       </c>
@@ -5180,8 +5180,8 @@
       <c r="W77" s="19"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="101"/>
-      <c r="C78" s="96" t="s">
+      <c r="B78" s="97"/>
+      <c r="C78" s="109" t="s">
         <v>117</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -5225,8 +5225,8 @@
       <c r="W78" s="19"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="101"/>
-      <c r="C79" s="96"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="109"/>
       <c r="D79" s="4" t="s">
         <v>132</v>
       </c>
@@ -5268,8 +5268,8 @@
       <c r="W79" s="19"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="101"/>
-      <c r="C80" s="96"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="4" t="s">
         <v>161</v>
       </c>
@@ -5303,8 +5303,8 @@
       <c r="W80" s="19"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="101"/>
-      <c r="C81" s="96"/>
+      <c r="B81" s="97"/>
+      <c r="C81" s="109"/>
       <c r="D81" s="4" t="s">
         <v>133</v>
       </c>
@@ -5348,8 +5348,8 @@
       <c r="W81" s="95"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="101"/>
-      <c r="C82" s="96"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
@@ -5391,8 +5391,8 @@
       <c r="W82" s="19"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="101"/>
-      <c r="C83" s="96" t="s">
+      <c r="B83" s="97"/>
+      <c r="C83" s="109" t="s">
         <v>118</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -5436,8 +5436,8 @@
       <c r="W83" s="19"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="101"/>
-      <c r="C84" s="96"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="109"/>
       <c r="D84" s="4" t="s">
         <v>132</v>
       </c>
@@ -5479,8 +5479,8 @@
       <c r="W84" s="19"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="101"/>
-      <c r="C85" s="96"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="109"/>
       <c r="D85" s="4" t="s">
         <v>161</v>
       </c>
@@ -5514,8 +5514,8 @@
       <c r="W85" s="19"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="101"/>
-      <c r="C86" s="96"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="109"/>
       <c r="D86" s="4" t="s">
         <v>133</v>
       </c>
@@ -5559,8 +5559,8 @@
       <c r="W86" s="95"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="101"/>
-      <c r="C87" s="96"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="109"/>
       <c r="D87" s="4" t="s">
         <v>134</v>
       </c>
@@ -5602,8 +5602,8 @@
       <c r="W87" s="19"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="101"/>
-      <c r="C88" s="96" t="s">
+      <c r="B88" s="97"/>
+      <c r="C88" s="109" t="s">
         <v>119</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -5647,8 +5647,8 @@
       <c r="W88" s="19"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="101"/>
-      <c r="C89" s="96"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="109"/>
       <c r="D89" s="4" t="s">
         <v>132</v>
       </c>
@@ -5690,8 +5690,8 @@
       <c r="W89" s="19"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="101"/>
-      <c r="C90" s="96"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="109"/>
       <c r="D90" s="4" t="s">
         <v>161</v>
       </c>
@@ -5725,8 +5725,8 @@
       <c r="W90" s="19"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="101"/>
-      <c r="C91" s="96"/>
+      <c r="B91" s="97"/>
+      <c r="C91" s="109"/>
       <c r="D91" s="4" t="s">
         <v>133</v>
       </c>
@@ -5770,8 +5770,8 @@
       <c r="W91" s="95"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="101"/>
-      <c r="C92" s="96"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="109"/>
       <c r="D92" s="4" t="s">
         <v>134</v>
       </c>
@@ -5813,8 +5813,8 @@
       <c r="W92" s="19"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="101"/>
-      <c r="C93" s="96" t="s">
+      <c r="B93" s="97"/>
+      <c r="C93" s="109" t="s">
         <v>120</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5858,8 +5858,8 @@
       <c r="W93" s="19"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="101"/>
-      <c r="C94" s="96"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="109"/>
       <c r="D94" s="4" t="s">
         <v>132</v>
       </c>
@@ -5901,8 +5901,8 @@
       <c r="W94" s="19"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="101"/>
-      <c r="C95" s="96"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="109"/>
       <c r="D95" s="4" t="s">
         <v>161</v>
       </c>
@@ -5936,8 +5936,8 @@
       <c r="W95" s="19"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="101"/>
-      <c r="C96" s="96"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="109"/>
       <c r="D96" s="4" t="s">
         <v>133</v>
       </c>
@@ -5981,8 +5981,8 @@
       <c r="W96" s="95"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="101"/>
-      <c r="C97" s="96"/>
+      <c r="B97" s="97"/>
+      <c r="C97" s="109"/>
       <c r="D97" s="4" t="s">
         <v>134</v>
       </c>
@@ -6024,8 +6024,8 @@
       <c r="W97" s="19"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="101"/>
-      <c r="C98" s="96" t="s">
+      <c r="B98" s="97"/>
+      <c r="C98" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -6069,8 +6069,8 @@
       <c r="W98" s="19"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="101"/>
-      <c r="C99" s="96"/>
+      <c r="B99" s="97"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="4" t="s">
         <v>132</v>
       </c>
@@ -6112,8 +6112,8 @@
       <c r="W99" s="19"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="101"/>
-      <c r="C100" s="96"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="109"/>
       <c r="D100" s="4" t="s">
         <v>161</v>
       </c>
@@ -6147,8 +6147,8 @@
       <c r="W100" s="19"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="101"/>
-      <c r="C101" s="96"/>
+      <c r="B101" s="97"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="4" t="s">
         <v>133</v>
       </c>
@@ -6192,8 +6192,8 @@
       <c r="W101" s="95"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="101"/>
-      <c r="C102" s="96"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
@@ -6235,8 +6235,8 @@
       <c r="W102" s="19"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="101"/>
-      <c r="C103" s="96" t="s">
+      <c r="B103" s="97"/>
+      <c r="C103" s="109" t="s">
         <v>122</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -6280,8 +6280,8 @@
       <c r="W103" s="19"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="101"/>
-      <c r="C104" s="96"/>
+      <c r="B104" s="97"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="4" t="s">
         <v>132</v>
       </c>
@@ -6323,8 +6323,8 @@
       <c r="W104" s="19"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="101"/>
-      <c r="C105" s="96"/>
+      <c r="B105" s="97"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="4" t="s">
         <v>161</v>
       </c>
@@ -6358,8 +6358,8 @@
       <c r="W105" s="19"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="101"/>
-      <c r="C106" s="96"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="109"/>
       <c r="D106" s="4" t="s">
         <v>133</v>
       </c>
@@ -6403,8 +6403,8 @@
       <c r="W106" s="95"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="101"/>
-      <c r="C107" s="96"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="109"/>
       <c r="D107" s="4" t="s">
         <v>134</v>
       </c>
@@ -6446,8 +6446,8 @@
       <c r="W107" s="19"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="101"/>
-      <c r="C108" s="96" t="s">
+      <c r="B108" s="97"/>
+      <c r="C108" s="109" t="s">
         <v>123</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -6491,8 +6491,8 @@
       <c r="W108" s="19"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="101"/>
-      <c r="C109" s="96"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="109"/>
       <c r="D109" s="4" t="s">
         <v>132</v>
       </c>
@@ -6534,8 +6534,8 @@
       <c r="W109" s="19"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="101"/>
-      <c r="C110" s="96"/>
+      <c r="B110" s="97"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="4" t="s">
         <v>161</v>
       </c>
@@ -6569,8 +6569,8 @@
       <c r="W110" s="19"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="101"/>
-      <c r="C111" s="96"/>
+      <c r="B111" s="97"/>
+      <c r="C111" s="109"/>
       <c r="D111" s="4" t="s">
         <v>133</v>
       </c>
@@ -6614,8 +6614,8 @@
       <c r="W111" s="95"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="101"/>
-      <c r="C112" s="96"/>
+      <c r="B112" s="97"/>
+      <c r="C112" s="109"/>
       <c r="D112" s="4" t="s">
         <v>134</v>
       </c>
@@ -6657,8 +6657,8 @@
       <c r="W112" s="19"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="101"/>
-      <c r="C113" s="96" t="s">
+      <c r="B113" s="97"/>
+      <c r="C113" s="109" t="s">
         <v>124</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6702,8 +6702,8 @@
       <c r="W113" s="19"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="101"/>
-      <c r="C114" s="96"/>
+      <c r="B114" s="97"/>
+      <c r="C114" s="109"/>
       <c r="D114" s="4" t="s">
         <v>132</v>
       </c>
@@ -6745,8 +6745,8 @@
       <c r="W114" s="19"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="101"/>
-      <c r="C115" s="96"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="109"/>
       <c r="D115" s="4" t="s">
         <v>161</v>
       </c>
@@ -6780,8 +6780,8 @@
       <c r="W115" s="19"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="101"/>
-      <c r="C116" s="96"/>
+      <c r="B116" s="97"/>
+      <c r="C116" s="109"/>
       <c r="D116" s="4" t="s">
         <v>133</v>
       </c>
@@ -6825,8 +6825,8 @@
       <c r="W116" s="95"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="101"/>
-      <c r="C117" s="96"/>
+      <c r="B117" s="97"/>
+      <c r="C117" s="109"/>
       <c r="D117" s="4" t="s">
         <v>134</v>
       </c>
@@ -6868,8 +6868,8 @@
       <c r="W117" s="19"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="101"/>
-      <c r="C118" s="96" t="s">
+      <c r="B118" s="97"/>
+      <c r="C118" s="109" t="s">
         <v>125</v>
       </c>
       <c r="D118" s="4" t="s">
@@ -6913,8 +6913,8 @@
       <c r="W118" s="19"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="101"/>
-      <c r="C119" s="96"/>
+      <c r="B119" s="97"/>
+      <c r="C119" s="109"/>
       <c r="D119" s="4" t="s">
         <v>132</v>
       </c>
@@ -6956,8 +6956,8 @@
       <c r="W119" s="19"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="101"/>
-      <c r="C120" s="96"/>
+      <c r="B120" s="97"/>
+      <c r="C120" s="109"/>
       <c r="D120" s="4" t="s">
         <v>161</v>
       </c>
@@ -6991,8 +6991,8 @@
       <c r="W120" s="19"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="101"/>
-      <c r="C121" s="96"/>
+      <c r="B121" s="97"/>
+      <c r="C121" s="109"/>
       <c r="D121" s="4" t="s">
         <v>133</v>
       </c>
@@ -7036,8 +7036,8 @@
       <c r="W121" s="95"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="101"/>
-      <c r="C122" s="96"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="109"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
@@ -7079,8 +7079,8 @@
       <c r="W122" s="19"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="101"/>
-      <c r="C123" s="96" t="s">
+      <c r="B123" s="97"/>
+      <c r="C123" s="109" t="s">
         <v>126</v>
       </c>
       <c r="D123" s="4" t="s">
@@ -7124,8 +7124,8 @@
       <c r="W123" s="19"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="101"/>
-      <c r="C124" s="96"/>
+      <c r="B124" s="97"/>
+      <c r="C124" s="109"/>
       <c r="D124" s="4" t="s">
         <v>132</v>
       </c>
@@ -7167,8 +7167,8 @@
       <c r="W124" s="19"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="101"/>
-      <c r="C125" s="96"/>
+      <c r="B125" s="97"/>
+      <c r="C125" s="109"/>
       <c r="D125" s="4" t="s">
         <v>161</v>
       </c>
@@ -7202,8 +7202,8 @@
       <c r="W125" s="19"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="101"/>
-      <c r="C126" s="96"/>
+      <c r="B126" s="97"/>
+      <c r="C126" s="109"/>
       <c r="D126" s="4" t="s">
         <v>133</v>
       </c>
@@ -7247,8 +7247,8 @@
       <c r="W126" s="95"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="101"/>
-      <c r="C127" s="96"/>
+      <c r="B127" s="97"/>
+      <c r="C127" s="109"/>
       <c r="D127" s="4" t="s">
         <v>134</v>
       </c>
@@ -7290,8 +7290,8 @@
       <c r="W127" s="19"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="101"/>
-      <c r="C128" s="96" t="s">
+      <c r="B128" s="97"/>
+      <c r="C128" s="109" t="s">
         <v>127</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -7335,8 +7335,8 @@
       <c r="W128" s="19"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="101"/>
-      <c r="C129" s="96"/>
+      <c r="B129" s="97"/>
+      <c r="C129" s="109"/>
       <c r="D129" s="4" t="s">
         <v>132</v>
       </c>
@@ -7378,8 +7378,8 @@
       <c r="W129" s="19"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="101"/>
-      <c r="C130" s="96"/>
+      <c r="B130" s="97"/>
+      <c r="C130" s="109"/>
       <c r="D130" s="4" t="s">
         <v>161</v>
       </c>
@@ -7413,8 +7413,8 @@
       <c r="W130" s="19"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="101"/>
-      <c r="C131" s="96"/>
+      <c r="B131" s="97"/>
+      <c r="C131" s="109"/>
       <c r="D131" s="4" t="s">
         <v>133</v>
       </c>
@@ -7458,8 +7458,8 @@
       <c r="W131" s="95"/>
     </row>
     <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="101"/>
-      <c r="C132" s="96"/>
+      <c r="B132" s="97"/>
+      <c r="C132" s="109"/>
       <c r="D132" s="4" t="s">
         <v>134</v>
       </c>
@@ -7501,8 +7501,8 @@
       <c r="W132" s="19"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="101"/>
-      <c r="C133" s="96" t="s">
+      <c r="B133" s="97"/>
+      <c r="C133" s="109" t="s">
         <v>128</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -7546,8 +7546,8 @@
       <c r="W133" s="19"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="101"/>
-      <c r="C134" s="96"/>
+      <c r="B134" s="97"/>
+      <c r="C134" s="109"/>
       <c r="D134" s="4" t="s">
         <v>132</v>
       </c>
@@ -7589,8 +7589,8 @@
       <c r="W134" s="19"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="101"/>
-      <c r="C135" s="96"/>
+      <c r="B135" s="97"/>
+      <c r="C135" s="109"/>
       <c r="D135" s="4" t="s">
         <v>161</v>
       </c>
@@ -7624,8 +7624,8 @@
       <c r="W135" s="19"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="101"/>
-      <c r="C136" s="96"/>
+      <c r="B136" s="97"/>
+      <c r="C136" s="109"/>
       <c r="D136" s="4" t="s">
         <v>133</v>
       </c>
@@ -7669,8 +7669,8 @@
       <c r="W136" s="95"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="101"/>
-      <c r="C137" s="96"/>
+      <c r="B137" s="97"/>
+      <c r="C137" s="109"/>
       <c r="D137" s="4" t="s">
         <v>134</v>
       </c>
@@ -7712,8 +7712,8 @@
       <c r="W137" s="19"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="101"/>
-      <c r="C138" s="96" t="s">
+      <c r="B138" s="97"/>
+      <c r="C138" s="109" t="s">
         <v>129</v>
       </c>
       <c r="D138" s="4" t="s">
@@ -7757,8 +7757,8 @@
       <c r="W138" s="19"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="101"/>
-      <c r="C139" s="96"/>
+      <c r="B139" s="97"/>
+      <c r="C139" s="109"/>
       <c r="D139" s="4" t="s">
         <v>132</v>
       </c>
@@ -7800,8 +7800,8 @@
       <c r="W139" s="19"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="101"/>
-      <c r="C140" s="96"/>
+      <c r="B140" s="97"/>
+      <c r="C140" s="109"/>
       <c r="D140" s="4" t="s">
         <v>161</v>
       </c>
@@ -7835,8 +7835,8 @@
       <c r="W140" s="19"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="101"/>
-      <c r="C141" s="96"/>
+      <c r="B141" s="97"/>
+      <c r="C141" s="109"/>
       <c r="D141" s="4" t="s">
         <v>133</v>
       </c>
@@ -7880,8 +7880,8 @@
       <c r="W141" s="95"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="101"/>
-      <c r="C142" s="96"/>
+      <c r="B142" s="97"/>
+      <c r="C142" s="109"/>
       <c r="D142" s="4" t="s">
         <v>134</v>
       </c>
@@ -7923,8 +7923,8 @@
       <c r="W142" s="19"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="101"/>
-      <c r="C143" s="96" t="s">
+      <c r="B143" s="97"/>
+      <c r="C143" s="109" t="s">
         <v>130</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -7968,8 +7968,8 @@
       <c r="W143" s="19"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="101"/>
-      <c r="C144" s="96"/>
+      <c r="B144" s="97"/>
+      <c r="C144" s="109"/>
       <c r="D144" s="4" t="s">
         <v>132</v>
       </c>
@@ -8011,8 +8011,8 @@
       <c r="W144" s="19"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="101"/>
-      <c r="C145" s="96"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="109"/>
       <c r="D145" s="4" t="s">
         <v>161</v>
       </c>
@@ -8046,8 +8046,8 @@
       <c r="W145" s="19"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="101"/>
-      <c r="C146" s="96"/>
+      <c r="B146" s="97"/>
+      <c r="C146" s="109"/>
       <c r="D146" s="4" t="s">
         <v>133</v>
       </c>
@@ -8091,8 +8091,8 @@
       <c r="W146" s="95"/>
     </row>
     <row r="147" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="102"/>
-      <c r="C147" s="124"/>
+      <c r="B147" s="98"/>
+      <c r="C147" s="112"/>
       <c r="D147" s="24" t="s">
         <v>134</v>
       </c>
@@ -8134,7 +8134,7 @@
       <c r="W147" s="25"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="100" t="s">
+      <c r="B148" s="96" t="s">
         <v>83</v>
       </c>
       <c r="C148" s="78" t="s">
@@ -8179,7 +8179,7 @@
       <c r="W148" s="52"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="101"/>
+      <c r="B149" s="97"/>
       <c r="C149" s="33" t="s">
         <v>89</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="W149" s="19"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="101"/>
+      <c r="B150" s="97"/>
       <c r="C150" s="33" t="s">
         <v>90</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="W150" s="19"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="101"/>
+      <c r="B151" s="97"/>
       <c r="C151" s="33" t="s">
         <v>91</v>
       </c>
@@ -8308,7 +8308,7 @@
       <c r="W151" s="19"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="101"/>
+      <c r="B152" s="97"/>
       <c r="C152" s="33" t="s">
         <v>141</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="W152" s="19"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="101"/>
+      <c r="B153" s="97"/>
       <c r="C153" s="33" t="s">
         <v>138</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="W153" s="19"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="101"/>
+      <c r="B154" s="97"/>
       <c r="C154" s="33" t="s">
         <v>140</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="W154" s="19"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="101"/>
+      <c r="B155" s="97"/>
       <c r="C155" s="33" t="s">
         <v>139</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="W155" s="19"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="101"/>
+      <c r="B156" s="97"/>
       <c r="C156" s="33" t="s">
         <v>92</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I156" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J156" s="70">
         <v>0</v>
@@ -8510,20 +8510,42 @@
       <c r="L156" s="70">
         <v>0</v>
       </c>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="17"/>
-      <c r="P156" s="16"/>
-      <c r="Q156" s="17"/>
-      <c r="R156" s="17"/>
-      <c r="S156" s="17"/>
-      <c r="T156" s="17"/>
-      <c r="U156" s="17"/>
-      <c r="V156" s="17"/>
-      <c r="W156" s="19"/>
+      <c r="M156" s="80">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N156" s="80">
+        <v>0</v>
+      </c>
+      <c r="O156" s="80">
+        <v>0</v>
+      </c>
+      <c r="P156" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="80">
+        <v>0</v>
+      </c>
+      <c r="R156" s="80">
+        <v>0</v>
+      </c>
+      <c r="S156" s="80">
+        <v>0</v>
+      </c>
+      <c r="T156" s="80">
+        <v>0</v>
+      </c>
+      <c r="U156" s="80">
+        <v>0</v>
+      </c>
+      <c r="V156" s="80">
+        <v>0</v>
+      </c>
+      <c r="W156" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="101"/>
+      <c r="B157" s="97"/>
       <c r="C157" s="33" t="s">
         <v>93</v>
       </c>
@@ -8588,7 +8610,7 @@
       </c>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="101"/>
+      <c r="B158" s="97"/>
       <c r="C158" s="33" t="s">
         <v>94</v>
       </c>
@@ -8607,7 +8629,7 @@
       </c>
       <c r="I158" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J158" s="70">
         <v>0</v>
@@ -8618,20 +8640,42 @@
       <c r="L158" s="70">
         <v>0</v>
       </c>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="16"/>
-      <c r="Q158" s="17"/>
-      <c r="R158" s="17"/>
-      <c r="S158" s="17"/>
-      <c r="T158" s="17"/>
-      <c r="U158" s="17"/>
-      <c r="V158" s="17"/>
-      <c r="W158" s="19"/>
+      <c r="M158" s="80">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N158" s="80">
+        <v>0</v>
+      </c>
+      <c r="O158" s="80">
+        <v>0</v>
+      </c>
+      <c r="P158" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="80">
+        <v>0</v>
+      </c>
+      <c r="R158" s="80">
+        <v>0</v>
+      </c>
+      <c r="S158" s="80">
+        <v>0</v>
+      </c>
+      <c r="T158" s="80">
+        <v>0</v>
+      </c>
+      <c r="U158" s="80">
+        <v>0</v>
+      </c>
+      <c r="V158" s="80">
+        <v>0</v>
+      </c>
+      <c r="W158" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="101"/>
+      <c r="B159" s="97"/>
       <c r="C159" s="33" t="s">
         <v>98</v>
       </c>
@@ -8674,7 +8718,7 @@
       <c r="W159" s="19"/>
     </row>
     <row r="160" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="102"/>
+      <c r="B160" s="98"/>
       <c r="C160" s="61" t="s">
         <v>99</v>
       </c>
@@ -8717,7 +8761,7 @@
       <c r="W160" s="25"/>
     </row>
     <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="100" t="s">
+      <c r="B161" s="96" t="s">
         <v>142</v>
       </c>
       <c r="C161" s="60" t="s">
@@ -8762,7 +8806,7 @@
       <c r="W161" s="52"/>
     </row>
     <row r="162" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="101"/>
+      <c r="B162" s="97"/>
       <c r="C162" s="59" t="s">
         <v>143</v>
       </c>
@@ -8805,7 +8849,7 @@
       <c r="W162" s="19"/>
     </row>
     <row r="163" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="102"/>
+      <c r="B163" s="98"/>
       <c r="C163" s="61" t="s">
         <v>144</v>
       </c>
@@ -8848,7 +8892,7 @@
       <c r="W163" s="25"/>
     </row>
     <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="100" t="s">
+      <c r="B164" s="96" t="s">
         <v>147</v>
       </c>
       <c r="C164" s="60" t="s">
@@ -8893,7 +8937,7 @@
       <c r="W164" s="52"/>
     </row>
     <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="101"/>
+      <c r="B165" s="97"/>
       <c r="C165" s="59" t="s">
         <v>149</v>
       </c>
@@ -8936,7 +8980,7 @@
       <c r="W165" s="19"/>
     </row>
     <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="101"/>
+      <c r="B166" s="97"/>
       <c r="C166" s="59" t="s">
         <v>150</v>
       </c>
@@ -8979,7 +9023,7 @@
       <c r="W166" s="19"/>
     </row>
     <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="101"/>
+      <c r="B167" s="97"/>
       <c r="C167" s="59" t="s">
         <v>151</v>
       </c>
@@ -9022,7 +9066,7 @@
       <c r="W167" s="19"/>
     </row>
     <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="101"/>
+      <c r="B168" s="97"/>
       <c r="C168" s="59" t="s">
         <v>152</v>
       </c>
@@ -9065,7 +9109,7 @@
       <c r="W168" s="19"/>
     </row>
     <row r="169" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="101"/>
+      <c r="B169" s="97"/>
       <c r="C169" s="59" t="s">
         <v>153</v>
       </c>
@@ -9108,7 +9152,7 @@
       <c r="W169" s="19"/>
     </row>
     <row r="170" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="102"/>
+      <c r="B170" s="98"/>
       <c r="C170" s="61" t="s">
         <v>154</v>
       </c>
@@ -9151,7 +9195,7 @@
       <c r="W170" s="25"/>
     </row>
     <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="100" t="s">
+      <c r="B171" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C171" s="54" t="s">
@@ -9196,7 +9240,7 @@
       <c r="W171" s="52"/>
     </row>
     <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="101"/>
+      <c r="B172" s="97"/>
       <c r="C172" s="33" t="s">
         <v>136</v>
       </c>
@@ -9239,7 +9283,7 @@
       <c r="W172" s="19"/>
     </row>
     <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="101"/>
+      <c r="B173" s="97"/>
       <c r="C173" s="33" t="s">
         <v>137</v>
       </c>
@@ -9282,7 +9326,7 @@
       <c r="W173" s="19"/>
     </row>
     <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="101"/>
+      <c r="B174" s="97"/>
       <c r="C174" s="33" t="s">
         <v>145</v>
       </c>
@@ -9325,7 +9369,7 @@
       <c r="W174" s="19"/>
     </row>
     <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="101"/>
+      <c r="B175" s="97"/>
       <c r="C175" s="33" t="s">
         <v>84</v>
       </c>
@@ -9368,7 +9412,7 @@
       <c r="W175" s="19"/>
     </row>
     <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="101"/>
+      <c r="B176" s="97"/>
       <c r="C176" s="33" t="s">
         <v>85</v>
       </c>
@@ -9411,7 +9455,7 @@
       <c r="W176" s="19"/>
     </row>
     <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="101"/>
+      <c r="B177" s="97"/>
       <c r="C177" s="33" t="s">
         <v>87</v>
       </c>
@@ -9454,7 +9498,7 @@
       <c r="W177" s="19"/>
     </row>
     <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="101"/>
+      <c r="B178" s="97"/>
       <c r="C178" s="33" t="s">
         <v>86</v>
       </c>
@@ -9497,7 +9541,7 @@
       <c r="W178" s="19"/>
     </row>
     <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="101"/>
+      <c r="B179" s="97"/>
       <c r="C179" s="33" t="s">
         <v>103</v>
       </c>
@@ -9540,7 +9584,7 @@
       <c r="W179" s="19"/>
     </row>
     <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="101"/>
+      <c r="B180" s="97"/>
       <c r="C180" s="33" t="s">
         <v>135</v>
       </c>
@@ -9583,7 +9627,7 @@
       <c r="W180" s="19"/>
     </row>
     <row r="181" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="101"/>
+      <c r="B181" s="97"/>
       <c r="C181" s="33" t="s">
         <v>104</v>
       </c>
@@ -9626,76 +9670,76 @@
       <c r="W181" s="19"/>
     </row>
     <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="120" t="s">
+      <c r="B182" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="121"/>
-      <c r="D182" s="122"/>
-      <c r="E182" s="122"/>
-      <c r="F182" s="122"/>
-      <c r="G182" s="123"/>
+      <c r="C182" s="106"/>
+      <c r="D182" s="107"/>
+      <c r="E182" s="107"/>
+      <c r="F182" s="107"/>
+      <c r="G182" s="108"/>
       <c r="H182" s="36">
-        <f>SUM(H4:H181)</f>
+        <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
         <v>95.999999999999829</v>
       </c>
       <c r="I182" s="23">
-        <f>SUM(I4:I181)</f>
-        <v>10.733299999999996</v>
+        <f t="shared" si="6"/>
+        <v>10.967299999999998</v>
       </c>
       <c r="J182" s="23">
-        <f>SUM(J4:J181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K182" s="23">
-        <f>SUM(K4:K181)</f>
+        <f t="shared" si="6"/>
         <v>4.0533000000000001</v>
       </c>
       <c r="L182" s="92">
-        <f>SUM(L4:L181)</f>
+        <f t="shared" si="6"/>
         <v>2.0030000000000001</v>
       </c>
       <c r="M182" s="23">
-        <f>SUM(M4:M181)</f>
-        <v>4.6769999999999969</v>
+        <f t="shared" si="6"/>
+        <v>4.9109999999999969</v>
       </c>
       <c r="N182" s="23">
-        <f>SUM(N4:N181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O182" s="23">
-        <f>SUM(O4:O181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P182" s="23">
-        <f>SUM(P4:P181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q182" s="23">
-        <f>SUM(Q4:Q181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R182" s="23">
-        <f>SUM(R4:R181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S182" s="23">
-        <f>SUM(S4:S181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T182" s="23">
-        <f>SUM(T4:T181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U182" s="23">
-        <f>SUM(U4:U181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V182" s="23">
-        <f>SUM(V4:V181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W182" s="30">
-        <f>SUM(W4:W181)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9708,22 +9752,22 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="97" t="s">
+      <c r="J183" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K183" s="98"/>
-      <c r="L183" s="98"/>
-      <c r="M183" s="98"/>
-      <c r="N183" s="98"/>
-      <c r="O183" s="98"/>
-      <c r="P183" s="98"/>
-      <c r="Q183" s="98"/>
-      <c r="R183" s="98"/>
-      <c r="S183" s="98"/>
-      <c r="T183" s="98"/>
-      <c r="U183" s="98"/>
-      <c r="V183" s="98"/>
-      <c r="W183" s="99"/>
+      <c r="K183" s="110"/>
+      <c r="L183" s="110"/>
+      <c r="M183" s="110"/>
+      <c r="N183" s="110"/>
+      <c r="O183" s="110"/>
+      <c r="P183" s="110"/>
+      <c r="Q183" s="110"/>
+      <c r="R183" s="110"/>
+      <c r="S183" s="110"/>
+      <c r="T183" s="110"/>
+      <c r="U183" s="110"/>
+      <c r="V183" s="110"/>
+      <c r="W183" s="111"/>
     </row>
     <row r="184" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C184" s="59" t="s">
@@ -9755,18 +9799,18 @@
       </c>
       <c r="D185" s="4">
         <f>SUM(I10,I12,I13,I14,I15:I62,I156:I158,I160,I164:I170,I176:I177,I180)</f>
-        <v>9.1532999999999998</v>
+        <v>9.3872999999999998</v>
       </c>
       <c r="E185" s="4">
         <f>SUM(C185,-D185)</f>
-        <v>37.24669999999999</v>
+        <v>37.012699999999995</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="115" t="s">
+      <c r="H185" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="I185" s="116"/>
+      <c r="I185" s="100"/>
       <c r="J185" s="9">
         <f>H182-J182</f>
         <v>95.999999999999829</v>
@@ -9781,11 +9825,11 @@
       </c>
       <c r="M185" s="9">
         <f>L185-M182</f>
-        <v>85.26669999999983</v>
+        <v>85.032699999999821</v>
       </c>
       <c r="N185" s="10">
         <f>M185-N182</f>
-        <v>85.26669999999983</v>
+        <v>85.032699999999821</v>
       </c>
     </row>
     <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9831,18 +9875,18 @@
         <v>24.4</v>
       </c>
       <c r="F187" s="3"/>
-      <c r="H187" s="97" t="s">
+      <c r="H187" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="117"/>
-      <c r="J187" s="116">
+      <c r="I187" s="102"/>
+      <c r="J187" s="100">
         <f>H182-I182</f>
-        <v>85.26669999999983</v>
-      </c>
-      <c r="K187" s="116"/>
-      <c r="L187" s="116"/>
-      <c r="M187" s="116"/>
-      <c r="N187" s="118"/>
+        <v>85.032699999999835</v>
+      </c>
+      <c r="K187" s="100"/>
+      <c r="L187" s="100"/>
+      <c r="M187" s="100"/>
+      <c r="N187" s="103"/>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
@@ -9946,6 +9990,24 @@
     <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C15:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C82"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="H185:I185"/>
     <mergeCell ref="H187:I187"/>
@@ -9962,24 +10024,6 @@
     <mergeCell ref="C143:C147"/>
     <mergeCell ref="C93:C97"/>
     <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C15:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C128:C132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1285,46 +1285,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,7 +1297,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1370,6 +1340,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,10 +1438,10 @@
                   <c:v>89.943699999999822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.032699999999821</c:v>
+                  <c:v>83.802699999999831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.032699999999821</c:v>
+                  <c:v>83.802699999999831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,11 +1462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1083270528"/>
-        <c:axId val="-1083260192"/>
+        <c:axId val="-1503445520"/>
+        <c:axId val="-1503444432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1083270528"/>
+        <c:axId val="-1503445520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1083260192"/>
+        <c:crossAx val="-1503444432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083260192"/>
+        <c:axId val="-1503444432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1083270528"/>
+        <c:crossAx val="-1503445520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,22 +1874,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
@@ -1960,7 +1960,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2005,7 +2005,7 @@
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="35" t="s">
         <v>100</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="35" t="s">
         <v>101</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="35" t="s">
         <v>102</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="123"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="45" t="s">
         <v>110</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="111" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2222,7 +2222,7 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="34" t="s">
         <v>106</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="83" t="s">
         <v>111</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="83" t="s">
         <v>112</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="123"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2463,8 +2463,8 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2510,8 +2510,8 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="I16" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="J16" s="70">
         <v>0</v>
@@ -2540,7 +2540,9 @@
       <c r="L16" s="70">
         <v>0</v>
       </c>
-      <c r="M16" s="14"/>
+      <c r="M16" s="70">
+        <v>1.23</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
       <c r="P16" s="16"/>
@@ -2553,8 +2555,8 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="97"/>
-      <c r="C17" s="116"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2596,8 +2598,8 @@
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="97"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2639,8 +2641,8 @@
       <c r="W18" s="19"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="97"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2682,8 +2684,8 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="97"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
@@ -2725,8 +2727,8 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="97"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2768,8 +2770,8 @@
       <c r="W21" s="19"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="97"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="32" t="s">
         <v>36</v>
       </c>
@@ -2811,8 +2813,8 @@
       <c r="W22" s="19"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="97"/>
-      <c r="C23" s="116"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="32" t="s">
         <v>37</v>
       </c>
@@ -2854,8 +2856,8 @@
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="97"/>
-      <c r="C24" s="116"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="106"/>
       <c r="D24" s="32" t="s">
         <v>38</v>
       </c>
@@ -2897,8 +2899,8 @@
       <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="97"/>
-      <c r="C25" s="116"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="32" t="s">
         <v>39</v>
       </c>
@@ -2940,8 +2942,8 @@
       <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="97"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
@@ -2983,8 +2985,8 @@
       <c r="W26" s="19"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="97"/>
-      <c r="C27" s="116"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3026,8 +3028,8 @@
       <c r="W27" s="19"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="97"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="32" t="s">
         <v>42</v>
       </c>
@@ -3069,8 +3071,8 @@
       <c r="W28" s="19"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="97"/>
-      <c r="C29" s="116"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="32" t="s">
         <v>43</v>
       </c>
@@ -3112,8 +3114,8 @@
       <c r="W29" s="19"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="97"/>
-      <c r="C30" s="116"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="32" t="s">
         <v>44</v>
       </c>
@@ -3155,8 +3157,8 @@
       <c r="W30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="97"/>
-      <c r="C31" s="116"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="32" t="s">
         <v>45</v>
       </c>
@@ -3198,8 +3200,8 @@
       <c r="W31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="97"/>
-      <c r="C32" s="116"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="32" t="s">
         <v>46</v>
       </c>
@@ -3241,8 +3243,8 @@
       <c r="W32" s="19"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="97"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="32" t="s">
         <v>47</v>
       </c>
@@ -3284,8 +3286,8 @@
       <c r="W33" s="19"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="97"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="32" t="s">
         <v>48</v>
       </c>
@@ -3327,8 +3329,8 @@
       <c r="W34" s="19"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="97"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="32" t="s">
         <v>49</v>
       </c>
@@ -3370,8 +3372,8 @@
       <c r="W35" s="19"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="97"/>
-      <c r="C36" s="116"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="32" t="s">
         <v>50</v>
       </c>
@@ -3413,8 +3415,8 @@
       <c r="W36" s="19"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="97"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="32" t="s">
         <v>51</v>
       </c>
@@ -3456,8 +3458,8 @@
       <c r="W37" s="19"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="97"/>
-      <c r="C38" s="116"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3499,8 +3501,8 @@
       <c r="W38" s="19"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="97"/>
-      <c r="C39" s="116"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="32" t="s">
         <v>53</v>
       </c>
@@ -3542,8 +3544,8 @@
       <c r="W39" s="19"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="97"/>
-      <c r="C40" s="116"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="106"/>
       <c r="D40" s="32" t="s">
         <v>54</v>
       </c>
@@ -3585,8 +3587,8 @@
       <c r="W40" s="19"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="97"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="32" t="s">
         <v>55</v>
       </c>
@@ -3628,8 +3630,8 @@
       <c r="W41" s="19"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="97"/>
-      <c r="C42" s="116"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="32" t="s">
         <v>56</v>
       </c>
@@ -3671,8 +3673,8 @@
       <c r="W42" s="19"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="97"/>
-      <c r="C43" s="116"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="32" t="s">
         <v>57</v>
       </c>
@@ -3714,8 +3716,8 @@
       <c r="W43" s="19"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="97"/>
-      <c r="C44" s="116"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="32" t="s">
         <v>58</v>
       </c>
@@ -3757,8 +3759,8 @@
       <c r="W44" s="19"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="97"/>
-      <c r="C45" s="116"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="32" t="s">
         <v>59</v>
       </c>
@@ -3800,8 +3802,8 @@
       <c r="W45" s="19"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="97"/>
-      <c r="C46" s="116"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="32" t="s">
         <v>60</v>
       </c>
@@ -3843,8 +3845,8 @@
       <c r="W46" s="19"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="97"/>
-      <c r="C47" s="116"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="32" t="s">
         <v>61</v>
       </c>
@@ -3886,8 +3888,8 @@
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="97"/>
-      <c r="C48" s="116"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="32" t="s">
         <v>62</v>
       </c>
@@ -3929,8 +3931,8 @@
       <c r="W48" s="19"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="97"/>
-      <c r="C49" s="116"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="32" t="s">
         <v>63</v>
       </c>
@@ -3972,8 +3974,8 @@
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="97"/>
-      <c r="C50" s="116"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="32" t="s">
         <v>64</v>
       </c>
@@ -4015,8 +4017,8 @@
       <c r="W50" s="19"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="97"/>
-      <c r="C51" s="116"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="32" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4060,8 @@
       <c r="W51" s="19"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="97"/>
-      <c r="C52" s="116"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="106"/>
       <c r="D52" s="32" t="s">
         <v>66</v>
       </c>
@@ -4101,8 +4103,8 @@
       <c r="W52" s="19"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="97"/>
-      <c r="C53" s="116"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="32" t="s">
         <v>67</v>
       </c>
@@ -4144,8 +4146,8 @@
       <c r="W53" s="19"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="97"/>
-      <c r="C54" s="116"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="32" t="s">
         <v>68</v>
       </c>
@@ -4187,8 +4189,8 @@
       <c r="W54" s="19"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="97"/>
-      <c r="C55" s="117"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="32" t="s">
         <v>69</v>
       </c>
@@ -4230,8 +4232,8 @@
       <c r="W55" s="19"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="97"/>
-      <c r="C56" s="113" t="s">
+      <c r="B56" s="101"/>
+      <c r="C56" s="103" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="29" t="s">
@@ -4275,8 +4277,8 @@
       <c r="W56" s="19"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="97"/>
-      <c r="C57" s="114"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="29" t="s">
         <v>29</v>
       </c>
@@ -4318,8 +4320,8 @@
       <c r="W57" s="19"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="97"/>
-      <c r="C58" s="114"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
@@ -4361,8 +4363,8 @@
       <c r="W58" s="19"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="97"/>
-      <c r="C59" s="114"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="29" t="s">
         <v>31</v>
       </c>
@@ -4404,8 +4406,8 @@
       <c r="W59" s="19"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="97"/>
-      <c r="C60" s="114"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="29" t="s">
         <v>34</v>
       </c>
@@ -4447,8 +4449,8 @@
       <c r="W60" s="19"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="97"/>
-      <c r="C61" s="114"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="29" t="s">
         <v>32</v>
       </c>
@@ -4490,8 +4492,8 @@
       <c r="W61" s="19"/>
     </row>
     <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="104"/>
-      <c r="C62" s="114"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="62" t="s">
         <v>33</v>
       </c>
@@ -4533,10 +4535,10 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="118" t="s">
+      <c r="C63" s="108" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="39" t="s">
@@ -4580,8 +4582,8 @@
       <c r="W63" s="52"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="97"/>
-      <c r="C64" s="119"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4625,8 @@
       <c r="W64" s="19"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="97"/>
-      <c r="C65" s="119"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4666,8 +4668,8 @@
       <c r="W65" s="19"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="97"/>
-      <c r="C66" s="119"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="29" t="s">
         <v>76</v>
       </c>
@@ -4709,7 +4711,7 @@
       <c r="W66" s="19"/>
     </row>
     <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="97"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="33" t="s">
         <v>73</v>
       </c>
@@ -4752,7 +4754,7 @@
       <c r="W67" s="19"/>
     </row>
     <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="97"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="33" t="s">
         <v>81</v>
       </c>
@@ -4795,8 +4797,8 @@
       <c r="W68" s="19"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="97"/>
-      <c r="C69" s="119" t="s">
+      <c r="B69" s="101"/>
+      <c r="C69" s="109" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4840,8 +4842,8 @@
       <c r="W69" s="19"/>
     </row>
     <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="97"/>
-      <c r="C70" s="119"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4883,8 +4885,8 @@
       <c r="W70" s="19"/>
     </row>
     <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="97"/>
-      <c r="C71" s="119"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="109"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4926,8 +4928,8 @@
       <c r="W71" s="19"/>
     </row>
     <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="98"/>
-      <c r="C72" s="120"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="110"/>
       <c r="D72" s="24" t="s">
         <v>78</v>
       </c>
@@ -4969,10 +4971,10 @@
       <c r="W72" s="25"/>
     </row>
     <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="96" t="s">
+      <c r="B73" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="124" t="s">
+      <c r="C73" s="114" t="s">
         <v>116</v>
       </c>
       <c r="D73" s="39" t="s">
@@ -5016,8 +5018,8 @@
       <c r="W73" s="52"/>
     </row>
     <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="97"/>
-      <c r="C74" s="109"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="4" t="s">
         <v>132</v>
       </c>
@@ -5059,8 +5061,8 @@
       <c r="W74" s="19"/>
     </row>
     <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="97"/>
-      <c r="C75" s="109"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="4" t="s">
         <v>161</v>
       </c>
@@ -5094,8 +5096,8 @@
       <c r="W75" s="19"/>
     </row>
     <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="97"/>
-      <c r="C76" s="109"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="4" t="s">
         <v>133</v>
       </c>
@@ -5137,8 +5139,8 @@
       <c r="W76" s="95"/>
     </row>
     <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="97"/>
-      <c r="C77" s="109"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="4" t="s">
         <v>134</v>
       </c>
@@ -5180,8 +5182,8 @@
       <c r="W77" s="19"/>
     </row>
     <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="97"/>
-      <c r="C78" s="109" t="s">
+      <c r="B78" s="101"/>
+      <c r="C78" s="96" t="s">
         <v>117</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -5225,8 +5227,8 @@
       <c r="W78" s="19"/>
     </row>
     <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="97"/>
-      <c r="C79" s="109"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="96"/>
       <c r="D79" s="4" t="s">
         <v>132</v>
       </c>
@@ -5268,8 +5270,8 @@
       <c r="W79" s="19"/>
     </row>
     <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="97"/>
-      <c r="C80" s="109"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="96"/>
       <c r="D80" s="4" t="s">
         <v>161</v>
       </c>
@@ -5303,8 +5305,8 @@
       <c r="W80" s="19"/>
     </row>
     <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="97"/>
-      <c r="C81" s="109"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="96"/>
       <c r="D81" s="4" t="s">
         <v>133</v>
       </c>
@@ -5348,8 +5350,8 @@
       <c r="W81" s="95"/>
     </row>
     <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="97"/>
-      <c r="C82" s="109"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="4" t="s">
         <v>134</v>
       </c>
@@ -5391,8 +5393,8 @@
       <c r="W82" s="19"/>
     </row>
     <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="97"/>
-      <c r="C83" s="109" t="s">
+      <c r="B83" s="101"/>
+      <c r="C83" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -5436,8 +5438,8 @@
       <c r="W83" s="19"/>
     </row>
     <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="97"/>
-      <c r="C84" s="109"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="96"/>
       <c r="D84" s="4" t="s">
         <v>132</v>
       </c>
@@ -5479,8 +5481,8 @@
       <c r="W84" s="19"/>
     </row>
     <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="97"/>
-      <c r="C85" s="109"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="96"/>
       <c r="D85" s="4" t="s">
         <v>161</v>
       </c>
@@ -5514,8 +5516,8 @@
       <c r="W85" s="19"/>
     </row>
     <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="97"/>
-      <c r="C86" s="109"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="4" t="s">
         <v>133</v>
       </c>
@@ -5559,8 +5561,8 @@
       <c r="W86" s="95"/>
     </row>
     <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="97"/>
-      <c r="C87" s="109"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="96"/>
       <c r="D87" s="4" t="s">
         <v>134</v>
       </c>
@@ -5602,8 +5604,8 @@
       <c r="W87" s="19"/>
     </row>
     <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="97"/>
-      <c r="C88" s="109" t="s">
+      <c r="B88" s="101"/>
+      <c r="C88" s="96" t="s">
         <v>119</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -5647,8 +5649,8 @@
       <c r="W88" s="19"/>
     </row>
     <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="97"/>
-      <c r="C89" s="109"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="96"/>
       <c r="D89" s="4" t="s">
         <v>132</v>
       </c>
@@ -5690,8 +5692,8 @@
       <c r="W89" s="19"/>
     </row>
     <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="97"/>
-      <c r="C90" s="109"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="4" t="s">
         <v>161</v>
       </c>
@@ -5725,8 +5727,8 @@
       <c r="W90" s="19"/>
     </row>
     <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="97"/>
-      <c r="C91" s="109"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="96"/>
       <c r="D91" s="4" t="s">
         <v>133</v>
       </c>
@@ -5770,8 +5772,8 @@
       <c r="W91" s="95"/>
     </row>
     <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="97"/>
-      <c r="C92" s="109"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="96"/>
       <c r="D92" s="4" t="s">
         <v>134</v>
       </c>
@@ -5813,8 +5815,8 @@
       <c r="W92" s="19"/>
     </row>
     <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="97"/>
-      <c r="C93" s="109" t="s">
+      <c r="B93" s="101"/>
+      <c r="C93" s="96" t="s">
         <v>120</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -5858,8 +5860,8 @@
       <c r="W93" s="19"/>
     </row>
     <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="97"/>
-      <c r="C94" s="109"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="4" t="s">
         <v>132</v>
       </c>
@@ -5901,8 +5903,8 @@
       <c r="W94" s="19"/>
     </row>
     <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="97"/>
-      <c r="C95" s="109"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="96"/>
       <c r="D95" s="4" t="s">
         <v>161</v>
       </c>
@@ -5936,8 +5938,8 @@
       <c r="W95" s="19"/>
     </row>
     <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="97"/>
-      <c r="C96" s="109"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="96"/>
       <c r="D96" s="4" t="s">
         <v>133</v>
       </c>
@@ -5981,8 +5983,8 @@
       <c r="W96" s="95"/>
     </row>
     <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="97"/>
-      <c r="C97" s="109"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="96"/>
       <c r="D97" s="4" t="s">
         <v>134</v>
       </c>
@@ -6024,8 +6026,8 @@
       <c r="W97" s="19"/>
     </row>
     <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="97"/>
-      <c r="C98" s="109" t="s">
+      <c r="B98" s="101"/>
+      <c r="C98" s="96" t="s">
         <v>121</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -6069,8 +6071,8 @@
       <c r="W98" s="19"/>
     </row>
     <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="97"/>
-      <c r="C99" s="109"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="96"/>
       <c r="D99" s="4" t="s">
         <v>132</v>
       </c>
@@ -6112,8 +6114,8 @@
       <c r="W99" s="19"/>
     </row>
     <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="97"/>
-      <c r="C100" s="109"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="96"/>
       <c r="D100" s="4" t="s">
         <v>161</v>
       </c>
@@ -6147,8 +6149,8 @@
       <c r="W100" s="19"/>
     </row>
     <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="97"/>
-      <c r="C101" s="109"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="96"/>
       <c r="D101" s="4" t="s">
         <v>133</v>
       </c>
@@ -6192,8 +6194,8 @@
       <c r="W101" s="95"/>
     </row>
     <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="97"/>
-      <c r="C102" s="109"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
@@ -6235,8 +6237,8 @@
       <c r="W102" s="19"/>
     </row>
     <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="97"/>
-      <c r="C103" s="109" t="s">
+      <c r="B103" s="101"/>
+      <c r="C103" s="96" t="s">
         <v>122</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -6280,8 +6282,8 @@
       <c r="W103" s="19"/>
     </row>
     <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="97"/>
-      <c r="C104" s="109"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="4" t="s">
         <v>132</v>
       </c>
@@ -6323,8 +6325,8 @@
       <c r="W104" s="19"/>
     </row>
     <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="97"/>
-      <c r="C105" s="109"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="96"/>
       <c r="D105" s="4" t="s">
         <v>161</v>
       </c>
@@ -6358,8 +6360,8 @@
       <c r="W105" s="19"/>
     </row>
     <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="97"/>
-      <c r="C106" s="109"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="96"/>
       <c r="D106" s="4" t="s">
         <v>133</v>
       </c>
@@ -6403,8 +6405,8 @@
       <c r="W106" s="95"/>
     </row>
     <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="97"/>
-      <c r="C107" s="109"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="96"/>
       <c r="D107" s="4" t="s">
         <v>134</v>
       </c>
@@ -6446,8 +6448,8 @@
       <c r="W107" s="19"/>
     </row>
     <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="97"/>
-      <c r="C108" s="109" t="s">
+      <c r="B108" s="101"/>
+      <c r="C108" s="96" t="s">
         <v>123</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -6491,8 +6493,8 @@
       <c r="W108" s="19"/>
     </row>
     <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="97"/>
-      <c r="C109" s="109"/>
+      <c r="B109" s="101"/>
+      <c r="C109" s="96"/>
       <c r="D109" s="4" t="s">
         <v>132</v>
       </c>
@@ -6534,8 +6536,8 @@
       <c r="W109" s="19"/>
     </row>
     <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="97"/>
-      <c r="C110" s="109"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="96"/>
       <c r="D110" s="4" t="s">
         <v>161</v>
       </c>
@@ -6569,8 +6571,8 @@
       <c r="W110" s="19"/>
     </row>
     <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="97"/>
-      <c r="C111" s="109"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="96"/>
       <c r="D111" s="4" t="s">
         <v>133</v>
       </c>
@@ -6614,8 +6616,8 @@
       <c r="W111" s="95"/>
     </row>
     <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="97"/>
-      <c r="C112" s="109"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="96"/>
       <c r="D112" s="4" t="s">
         <v>134</v>
       </c>
@@ -6657,8 +6659,8 @@
       <c r="W112" s="19"/>
     </row>
     <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="97"/>
-      <c r="C113" s="109" t="s">
+      <c r="B113" s="101"/>
+      <c r="C113" s="96" t="s">
         <v>124</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -6702,8 +6704,8 @@
       <c r="W113" s="19"/>
     </row>
     <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="97"/>
-      <c r="C114" s="109"/>
+      <c r="B114" s="101"/>
+      <c r="C114" s="96"/>
       <c r="D114" s="4" t="s">
         <v>132</v>
       </c>
@@ -6745,8 +6747,8 @@
       <c r="W114" s="19"/>
     </row>
     <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="97"/>
-      <c r="C115" s="109"/>
+      <c r="B115" s="101"/>
+      <c r="C115" s="96"/>
       <c r="D115" s="4" t="s">
         <v>161</v>
       </c>
@@ -6780,8 +6782,8 @@
       <c r="W115" s="19"/>
     </row>
     <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="97"/>
-      <c r="C116" s="109"/>
+      <c r="B116" s="101"/>
+      <c r="C116" s="96"/>
       <c r="D116" s="4" t="s">
         <v>133</v>
       </c>
@@ -6825,8 +6827,8 @@
       <c r="W116" s="95"/>
     </row>
     <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="97"/>
-      <c r="C117" s="109"/>
+      <c r="B117" s="101"/>
+      <c r="C117" s="96"/>
       <c r="D117" s="4" t="s">
         <v>134</v>
       </c>
@@ -6868,8 +6870,8 @@
       <c r="W117" s="19"/>
     </row>
     <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="97"/>
-      <c r="C118" s="109" t="s">
+      <c r="B118" s="101"/>
+      <c r="C118" s="96" t="s">
         <v>125</v>
       </c>
       <c r="D118" s="4" t="s">
@@ -6913,8 +6915,8 @@
       <c r="W118" s="19"/>
     </row>
     <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="97"/>
-      <c r="C119" s="109"/>
+      <c r="B119" s="101"/>
+      <c r="C119" s="96"/>
       <c r="D119" s="4" t="s">
         <v>132</v>
       </c>
@@ -6956,8 +6958,8 @@
       <c r="W119" s="19"/>
     </row>
     <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="97"/>
-      <c r="C120" s="109"/>
+      <c r="B120" s="101"/>
+      <c r="C120" s="96"/>
       <c r="D120" s="4" t="s">
         <v>161</v>
       </c>
@@ -6991,8 +6993,8 @@
       <c r="W120" s="19"/>
     </row>
     <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="97"/>
-      <c r="C121" s="109"/>
+      <c r="B121" s="101"/>
+      <c r="C121" s="96"/>
       <c r="D121" s="4" t="s">
         <v>133</v>
       </c>
@@ -7036,8 +7038,8 @@
       <c r="W121" s="95"/>
     </row>
     <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="97"/>
-      <c r="C122" s="109"/>
+      <c r="B122" s="101"/>
+      <c r="C122" s="96"/>
       <c r="D122" s="4" t="s">
         <v>134</v>
       </c>
@@ -7079,8 +7081,8 @@
       <c r="W122" s="19"/>
     </row>
     <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="97"/>
-      <c r="C123" s="109" t="s">
+      <c r="B123" s="101"/>
+      <c r="C123" s="96" t="s">
         <v>126</v>
       </c>
       <c r="D123" s="4" t="s">
@@ -7124,8 +7126,8 @@
       <c r="W123" s="19"/>
     </row>
     <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="97"/>
-      <c r="C124" s="109"/>
+      <c r="B124" s="101"/>
+      <c r="C124" s="96"/>
       <c r="D124" s="4" t="s">
         <v>132</v>
       </c>
@@ -7167,8 +7169,8 @@
       <c r="W124" s="19"/>
     </row>
     <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="97"/>
-      <c r="C125" s="109"/>
+      <c r="B125" s="101"/>
+      <c r="C125" s="96"/>
       <c r="D125" s="4" t="s">
         <v>161</v>
       </c>
@@ -7202,8 +7204,8 @@
       <c r="W125" s="19"/>
     </row>
     <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="97"/>
-      <c r="C126" s="109"/>
+      <c r="B126" s="101"/>
+      <c r="C126" s="96"/>
       <c r="D126" s="4" t="s">
         <v>133</v>
       </c>
@@ -7247,8 +7249,8 @@
       <c r="W126" s="95"/>
     </row>
     <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="97"/>
-      <c r="C127" s="109"/>
+      <c r="B127" s="101"/>
+      <c r="C127" s="96"/>
       <c r="D127" s="4" t="s">
         <v>134</v>
       </c>
@@ -7290,8 +7292,8 @@
       <c r="W127" s="19"/>
     </row>
     <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="97"/>
-      <c r="C128" s="109" t="s">
+      <c r="B128" s="101"/>
+      <c r="C128" s="96" t="s">
         <v>127</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -7335,8 +7337,8 @@
       <c r="W128" s="19"/>
     </row>
     <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="97"/>
-      <c r="C129" s="109"/>
+      <c r="B129" s="101"/>
+      <c r="C129" s="96"/>
       <c r="D129" s="4" t="s">
         <v>132</v>
       </c>
@@ -7378,8 +7380,8 @@
       <c r="W129" s="19"/>
     </row>
     <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="97"/>
-      <c r="C130" s="109"/>
+      <c r="B130" s="101"/>
+      <c r="C130" s="96"/>
       <c r="D130" s="4" t="s">
         <v>161</v>
       </c>
@@ -7413,8 +7415,8 @@
       <c r="W130" s="19"/>
     </row>
     <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="97"/>
-      <c r="C131" s="109"/>
+      <c r="B131" s="101"/>
+      <c r="C131" s="96"/>
       <c r="D131" s="4" t="s">
         <v>133</v>
       </c>
@@ -7458,8 +7460,8 @@
       <c r="W131" s="95"/>
     </row>
     <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="97"/>
-      <c r="C132" s="109"/>
+      <c r="B132" s="101"/>
+      <c r="C132" s="96"/>
       <c r="D132" s="4" t="s">
         <v>134</v>
       </c>
@@ -7501,8 +7503,8 @@
       <c r="W132" s="19"/>
     </row>
     <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="97"/>
-      <c r="C133" s="109" t="s">
+      <c r="B133" s="101"/>
+      <c r="C133" s="96" t="s">
         <v>128</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -7546,8 +7548,8 @@
       <c r="W133" s="19"/>
     </row>
     <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="97"/>
-      <c r="C134" s="109"/>
+      <c r="B134" s="101"/>
+      <c r="C134" s="96"/>
       <c r="D134" s="4" t="s">
         <v>132</v>
       </c>
@@ -7589,8 +7591,8 @@
       <c r="W134" s="19"/>
     </row>
     <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="97"/>
-      <c r="C135" s="109"/>
+      <c r="B135" s="101"/>
+      <c r="C135" s="96"/>
       <c r="D135" s="4" t="s">
         <v>161</v>
       </c>
@@ -7624,8 +7626,8 @@
       <c r="W135" s="19"/>
     </row>
     <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="97"/>
-      <c r="C136" s="109"/>
+      <c r="B136" s="101"/>
+      <c r="C136" s="96"/>
       <c r="D136" s="4" t="s">
         <v>133</v>
       </c>
@@ -7669,8 +7671,8 @@
       <c r="W136" s="95"/>
     </row>
     <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="97"/>
-      <c r="C137" s="109"/>
+      <c r="B137" s="101"/>
+      <c r="C137" s="96"/>
       <c r="D137" s="4" t="s">
         <v>134</v>
       </c>
@@ -7712,8 +7714,8 @@
       <c r="W137" s="19"/>
     </row>
     <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="97"/>
-      <c r="C138" s="109" t="s">
+      <c r="B138" s="101"/>
+      <c r="C138" s="96" t="s">
         <v>129</v>
       </c>
       <c r="D138" s="4" t="s">
@@ -7757,8 +7759,8 @@
       <c r="W138" s="19"/>
     </row>
     <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="97"/>
-      <c r="C139" s="109"/>
+      <c r="B139" s="101"/>
+      <c r="C139" s="96"/>
       <c r="D139" s="4" t="s">
         <v>132</v>
       </c>
@@ -7800,8 +7802,8 @@
       <c r="W139" s="19"/>
     </row>
     <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="97"/>
-      <c r="C140" s="109"/>
+      <c r="B140" s="101"/>
+      <c r="C140" s="96"/>
       <c r="D140" s="4" t="s">
         <v>161</v>
       </c>
@@ -7835,8 +7837,8 @@
       <c r="W140" s="19"/>
     </row>
     <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="97"/>
-      <c r="C141" s="109"/>
+      <c r="B141" s="101"/>
+      <c r="C141" s="96"/>
       <c r="D141" s="4" t="s">
         <v>133</v>
       </c>
@@ -7880,8 +7882,8 @@
       <c r="W141" s="95"/>
     </row>
     <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="97"/>
-      <c r="C142" s="109"/>
+      <c r="B142" s="101"/>
+      <c r="C142" s="96"/>
       <c r="D142" s="4" t="s">
         <v>134</v>
       </c>
@@ -7923,8 +7925,8 @@
       <c r="W142" s="19"/>
     </row>
     <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="97"/>
-      <c r="C143" s="109" t="s">
+      <c r="B143" s="101"/>
+      <c r="C143" s="96" t="s">
         <v>130</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -7968,8 +7970,8 @@
       <c r="W143" s="19"/>
     </row>
     <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="97"/>
-      <c r="C144" s="109"/>
+      <c r="B144" s="101"/>
+      <c r="C144" s="96"/>
       <c r="D144" s="4" t="s">
         <v>132</v>
       </c>
@@ -8011,8 +8013,8 @@
       <c r="W144" s="19"/>
     </row>
     <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="97"/>
-      <c r="C145" s="109"/>
+      <c r="B145" s="101"/>
+      <c r="C145" s="96"/>
       <c r="D145" s="4" t="s">
         <v>161</v>
       </c>
@@ -8046,8 +8048,8 @@
       <c r="W145" s="19"/>
     </row>
     <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="97"/>
-      <c r="C146" s="109"/>
+      <c r="B146" s="101"/>
+      <c r="C146" s="96"/>
       <c r="D146" s="4" t="s">
         <v>133</v>
       </c>
@@ -8091,8 +8093,8 @@
       <c r="W146" s="95"/>
     </row>
     <row r="147" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="98"/>
-      <c r="C147" s="112"/>
+      <c r="B147" s="102"/>
+      <c r="C147" s="124"/>
       <c r="D147" s="24" t="s">
         <v>134</v>
       </c>
@@ -8134,7 +8136,7 @@
       <c r="W147" s="25"/>
     </row>
     <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="96" t="s">
+      <c r="B148" s="100" t="s">
         <v>83</v>
       </c>
       <c r="C148" s="78" t="s">
@@ -8179,7 +8181,7 @@
       <c r="W148" s="52"/>
     </row>
     <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="97"/>
+      <c r="B149" s="101"/>
       <c r="C149" s="33" t="s">
         <v>89</v>
       </c>
@@ -8222,7 +8224,7 @@
       <c r="W149" s="19"/>
     </row>
     <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="97"/>
+      <c r="B150" s="101"/>
       <c r="C150" s="33" t="s">
         <v>90</v>
       </c>
@@ -8265,7 +8267,7 @@
       <c r="W150" s="19"/>
     </row>
     <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="97"/>
+      <c r="B151" s="101"/>
       <c r="C151" s="33" t="s">
         <v>91</v>
       </c>
@@ -8308,7 +8310,7 @@
       <c r="W151" s="19"/>
     </row>
     <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="97"/>
+      <c r="B152" s="101"/>
       <c r="C152" s="33" t="s">
         <v>141</v>
       </c>
@@ -8351,7 +8353,7 @@
       <c r="W152" s="19"/>
     </row>
     <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="97"/>
+      <c r="B153" s="101"/>
       <c r="C153" s="33" t="s">
         <v>138</v>
       </c>
@@ -8394,7 +8396,7 @@
       <c r="W153" s="19"/>
     </row>
     <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="97"/>
+      <c r="B154" s="101"/>
       <c r="C154" s="33" t="s">
         <v>140</v>
       </c>
@@ -8437,7 +8439,7 @@
       <c r="W154" s="19"/>
     </row>
     <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="97"/>
+      <c r="B155" s="101"/>
       <c r="C155" s="33" t="s">
         <v>139</v>
       </c>
@@ -8480,7 +8482,7 @@
       <c r="W155" s="19"/>
     </row>
     <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="97"/>
+      <c r="B156" s="101"/>
       <c r="C156" s="33" t="s">
         <v>92</v>
       </c>
@@ -8545,7 +8547,7 @@
       </c>
     </row>
     <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="97"/>
+      <c r="B157" s="101"/>
       <c r="C157" s="33" t="s">
         <v>93</v>
       </c>
@@ -8610,7 +8612,7 @@
       </c>
     </row>
     <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="97"/>
+      <c r="B158" s="101"/>
       <c r="C158" s="33" t="s">
         <v>94</v>
       </c>
@@ -8675,7 +8677,7 @@
       </c>
     </row>
     <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="97"/>
+      <c r="B159" s="101"/>
       <c r="C159" s="33" t="s">
         <v>98</v>
       </c>
@@ -8718,7 +8720,7 @@
       <c r="W159" s="19"/>
     </row>
     <row r="160" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="98"/>
+      <c r="B160" s="102"/>
       <c r="C160" s="61" t="s">
         <v>99</v>
       </c>
@@ -8761,7 +8763,7 @@
       <c r="W160" s="25"/>
     </row>
     <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="96" t="s">
+      <c r="B161" s="100" t="s">
         <v>142</v>
       </c>
       <c r="C161" s="60" t="s">
@@ -8806,7 +8808,7 @@
       <c r="W161" s="52"/>
     </row>
     <row r="162" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="97"/>
+      <c r="B162" s="101"/>
       <c r="C162" s="59" t="s">
         <v>143</v>
       </c>
@@ -8849,7 +8851,7 @@
       <c r="W162" s="19"/>
     </row>
     <row r="163" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="98"/>
+      <c r="B163" s="102"/>
       <c r="C163" s="61" t="s">
         <v>144</v>
       </c>
@@ -8892,7 +8894,7 @@
       <c r="W163" s="25"/>
     </row>
     <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="96" t="s">
+      <c r="B164" s="100" t="s">
         <v>147</v>
       </c>
       <c r="C164" s="60" t="s">
@@ -8937,7 +8939,7 @@
       <c r="W164" s="52"/>
     </row>
     <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="97"/>
+      <c r="B165" s="101"/>
       <c r="C165" s="59" t="s">
         <v>149</v>
       </c>
@@ -8980,7 +8982,7 @@
       <c r="W165" s="19"/>
     </row>
     <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="97"/>
+      <c r="B166" s="101"/>
       <c r="C166" s="59" t="s">
         <v>150</v>
       </c>
@@ -9023,7 +9025,7 @@
       <c r="W166" s="19"/>
     </row>
     <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="97"/>
+      <c r="B167" s="101"/>
       <c r="C167" s="59" t="s">
         <v>151</v>
       </c>
@@ -9066,7 +9068,7 @@
       <c r="W167" s="19"/>
     </row>
     <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="97"/>
+      <c r="B168" s="101"/>
       <c r="C168" s="59" t="s">
         <v>152</v>
       </c>
@@ -9109,7 +9111,7 @@
       <c r="W168" s="19"/>
     </row>
     <row r="169" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="97"/>
+      <c r="B169" s="101"/>
       <c r="C169" s="59" t="s">
         <v>153</v>
       </c>
@@ -9152,7 +9154,7 @@
       <c r="W169" s="19"/>
     </row>
     <row r="170" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="98"/>
+      <c r="B170" s="102"/>
       <c r="C170" s="61" t="s">
         <v>154</v>
       </c>
@@ -9195,7 +9197,7 @@
       <c r="W170" s="25"/>
     </row>
     <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="96" t="s">
+      <c r="B171" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C171" s="54" t="s">
@@ -9240,7 +9242,7 @@
       <c r="W171" s="52"/>
     </row>
     <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="97"/>
+      <c r="B172" s="101"/>
       <c r="C172" s="33" t="s">
         <v>136</v>
       </c>
@@ -9283,7 +9285,7 @@
       <c r="W172" s="19"/>
     </row>
     <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="97"/>
+      <c r="B173" s="101"/>
       <c r="C173" s="33" t="s">
         <v>137</v>
       </c>
@@ -9326,7 +9328,7 @@
       <c r="W173" s="19"/>
     </row>
     <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="97"/>
+      <c r="B174" s="101"/>
       <c r="C174" s="33" t="s">
         <v>145</v>
       </c>
@@ -9369,7 +9371,7 @@
       <c r="W174" s="19"/>
     </row>
     <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="97"/>
+      <c r="B175" s="101"/>
       <c r="C175" s="33" t="s">
         <v>84</v>
       </c>
@@ -9412,7 +9414,7 @@
       <c r="W175" s="19"/>
     </row>
     <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="97"/>
+      <c r="B176" s="101"/>
       <c r="C176" s="33" t="s">
         <v>85</v>
       </c>
@@ -9455,7 +9457,7 @@
       <c r="W176" s="19"/>
     </row>
     <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="97"/>
+      <c r="B177" s="101"/>
       <c r="C177" s="33" t="s">
         <v>87</v>
       </c>
@@ -9498,7 +9500,7 @@
       <c r="W177" s="19"/>
     </row>
     <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="97"/>
+      <c r="B178" s="101"/>
       <c r="C178" s="33" t="s">
         <v>86</v>
       </c>
@@ -9541,7 +9543,7 @@
       <c r="W178" s="19"/>
     </row>
     <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="97"/>
+      <c r="B179" s="101"/>
       <c r="C179" s="33" t="s">
         <v>103</v>
       </c>
@@ -9584,7 +9586,7 @@
       <c r="W179" s="19"/>
     </row>
     <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="97"/>
+      <c r="B180" s="101"/>
       <c r="C180" s="33" t="s">
         <v>135</v>
       </c>
@@ -9627,7 +9629,7 @@
       <c r="W180" s="19"/>
     </row>
     <row r="181" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="97"/>
+      <c r="B181" s="101"/>
       <c r="C181" s="33" t="s">
         <v>104</v>
       </c>
@@ -9670,21 +9672,21 @@
       <c r="W181" s="19"/>
     </row>
     <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="105" t="s">
+      <c r="B182" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="106"/>
-      <c r="D182" s="107"/>
-      <c r="E182" s="107"/>
-      <c r="F182" s="107"/>
-      <c r="G182" s="108"/>
+      <c r="C182" s="121"/>
+      <c r="D182" s="122"/>
+      <c r="E182" s="122"/>
+      <c r="F182" s="122"/>
+      <c r="G182" s="123"/>
       <c r="H182" s="36">
         <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
         <v>95.999999999999829</v>
       </c>
       <c r="I182" s="23">
         <f t="shared" si="6"/>
-        <v>10.967299999999998</v>
+        <v>12.197299999999998</v>
       </c>
       <c r="J182" s="23">
         <f t="shared" si="6"/>
@@ -9700,7 +9702,7 @@
       </c>
       <c r="M182" s="23">
         <f t="shared" si="6"/>
-        <v>4.9109999999999969</v>
+        <v>6.1409999999999973</v>
       </c>
       <c r="N182" s="23">
         <f t="shared" si="6"/>
@@ -9752,22 +9754,22 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="101" t="s">
+      <c r="J183" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="K183" s="110"/>
-      <c r="L183" s="110"/>
-      <c r="M183" s="110"/>
-      <c r="N183" s="110"/>
-      <c r="O183" s="110"/>
-      <c r="P183" s="110"/>
-      <c r="Q183" s="110"/>
-      <c r="R183" s="110"/>
-      <c r="S183" s="110"/>
-      <c r="T183" s="110"/>
-      <c r="U183" s="110"/>
-      <c r="V183" s="110"/>
-      <c r="W183" s="111"/>
+      <c r="K183" s="98"/>
+      <c r="L183" s="98"/>
+      <c r="M183" s="98"/>
+      <c r="N183" s="98"/>
+      <c r="O183" s="98"/>
+      <c r="P183" s="98"/>
+      <c r="Q183" s="98"/>
+      <c r="R183" s="98"/>
+      <c r="S183" s="98"/>
+      <c r="T183" s="98"/>
+      <c r="U183" s="98"/>
+      <c r="V183" s="98"/>
+      <c r="W183" s="99"/>
     </row>
     <row r="184" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C184" s="59" t="s">
@@ -9799,18 +9801,18 @@
       </c>
       <c r="D185" s="4">
         <f>SUM(I10,I12,I13,I14,I15:I62,I156:I158,I160,I164:I170,I176:I177,I180)</f>
-        <v>9.3872999999999998</v>
+        <v>10.617300000000002</v>
       </c>
       <c r="E185" s="4">
         <f>SUM(C185,-D185)</f>
-        <v>37.012699999999995</v>
+        <v>35.782699999999991</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="99" t="s">
+      <c r="H185" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="I185" s="100"/>
+      <c r="I185" s="116"/>
       <c r="J185" s="9">
         <f>H182-J182</f>
         <v>95.999999999999829</v>
@@ -9825,11 +9827,11 @@
       </c>
       <c r="M185" s="9">
         <f>L185-M182</f>
-        <v>85.032699999999821</v>
+        <v>83.802699999999831</v>
       </c>
       <c r="N185" s="10">
         <f>M185-N182</f>
-        <v>85.032699999999821</v>
+        <v>83.802699999999831</v>
       </c>
     </row>
     <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9875,18 +9877,18 @@
         <v>24.4</v>
       </c>
       <c r="F187" s="3"/>
-      <c r="H187" s="101" t="s">
+      <c r="H187" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="102"/>
-      <c r="J187" s="100">
+      <c r="I187" s="117"/>
+      <c r="J187" s="116">
         <f>H182-I182</f>
-        <v>85.032699999999835</v>
-      </c>
-      <c r="K187" s="100"/>
-      <c r="L187" s="100"/>
-      <c r="M187" s="100"/>
-      <c r="N187" s="103"/>
+        <v>83.802699999999831</v>
+      </c>
+      <c r="K187" s="116"/>
+      <c r="L187" s="116"/>
+      <c r="M187" s="116"/>
+      <c r="N187" s="118"/>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
@@ -9990,24 +9992,6 @@
     <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C15:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C78:C82"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="H185:I185"/>
     <mergeCell ref="H187:I187"/>
@@ -10024,6 +10008,24 @@
     <mergeCell ref="C143:C147"/>
     <mergeCell ref="C93:C97"/>
     <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C15:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C128:C132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="165">
   <si>
     <t>Subtarea</t>
   </si>
@@ -510,12 +510,18 @@
   </si>
   <si>
     <t xml:space="preserve">Random Drop </t>
+  </si>
+  <si>
+    <t>Trigger para volver al overworld</t>
+  </si>
+  <si>
+    <t>Limitar el movimiento por la sala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1040,11 +1046,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1276,25 +1319,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,6 +1335,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,36 +1403,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,7 +1442,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1424,7 +1476,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$185:$N$185</c:f>
+              <c:f>Hoja1!$J$215:$N$215</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1441,13 +1493,13 @@
                   <c:v>83.802699999999831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.802699999999831</c:v>
+                  <c:v>82.042699999999826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A091-4901-839C-4EC24FB5B5C8}"/>
             </c:ext>
@@ -1521,22 +1573,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>394175</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>103350</xdr:rowOff>
+      <xdr:colOff>532721</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>120667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>153296</xdr:rowOff>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>32068</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,54 +1896,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W206"/>
+  <dimension ref="A1:W236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="57.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="97" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="99"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
@@ -1959,8 +2011,8 @@
         <v>43067</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="111" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="117" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2004,8 +2056,8 @@
       <c r="V4" s="41"/>
       <c r="W4" s="44"/>
     </row>
-    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112"/>
+    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="118"/>
       <c r="C5" s="35" t="s">
         <v>100</v>
       </c>
@@ -2047,8 +2099,8 @@
       <c r="V5" s="17"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="118"/>
       <c r="C6" s="35" t="s">
         <v>101</v>
       </c>
@@ -2090,8 +2142,8 @@
       <c r="V6" s="17"/>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112"/>
+    <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="118"/>
       <c r="C7" s="35" t="s">
         <v>102</v>
       </c>
@@ -2133,8 +2185,8 @@
       <c r="V7" s="17"/>
       <c r="W7" s="19"/>
     </row>
-    <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="113"/>
+    <row r="8" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="119"/>
       <c r="C8" s="45" t="s">
         <v>110</v>
       </c>
@@ -2176,8 +2228,8 @@
       <c r="V8" s="22"/>
       <c r="W8" s="25"/>
     </row>
-    <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+    <row r="9" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="117" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2221,8 +2273,8 @@
       <c r="V9" s="84"/>
       <c r="W9" s="86"/>
     </row>
-    <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112"/>
+    <row r="10" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="118"/>
       <c r="C10" s="34" t="s">
         <v>106</v>
       </c>
@@ -2264,8 +2316,8 @@
       <c r="V10" s="17"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="112"/>
+    <row r="11" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="118"/>
       <c r="C11" s="83" t="s">
         <v>111</v>
       </c>
@@ -2307,8 +2359,8 @@
       <c r="V11" s="17"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="112"/>
+    <row r="12" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="118"/>
       <c r="C12" s="83" t="s">
         <v>112</v>
       </c>
@@ -2372,8 +2424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="113"/>
+    <row r="13" spans="1:23" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="119"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2415,8 +2467,8 @@
       <c r="V13" s="22"/>
       <c r="W13" s="25"/>
     </row>
-    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="100" t="s">
+    <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="96" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2462,9 +2514,9 @@
       <c r="V14" s="51"/>
       <c r="W14" s="52"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="105" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="97"/>
+      <c r="C15" s="111" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2509,9 +2561,9 @@
       <c r="V15" s="17"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="101"/>
-      <c r="C16" s="106"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="97"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2554,9 +2606,9 @@
       <c r="V16" s="17"/>
       <c r="W16" s="19"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="101"/>
-      <c r="C17" s="106"/>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="97"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2597,9 +2649,9 @@
       <c r="V17" s="17"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="101"/>
-      <c r="C18" s="106"/>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="97"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2640,9 +2692,9 @@
       <c r="V18" s="17"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="106"/>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="97"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2683,9 +2735,9 @@
       <c r="V19" s="17"/>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="101"/>
-      <c r="C20" s="106"/>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="97"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
@@ -2726,9 +2778,9 @@
       <c r="V20" s="17"/>
       <c r="W20" s="19"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="101"/>
-      <c r="C21" s="106"/>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="97"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2769,9 +2821,9 @@
       <c r="V21" s="17"/>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="101"/>
-      <c r="C22" s="106"/>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="97"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="32" t="s">
         <v>36</v>
       </c>
@@ -2812,9 +2864,9 @@
       <c r="V22" s="17"/>
       <c r="W22" s="19"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="101"/>
-      <c r="C23" s="106"/>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="97"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="32" t="s">
         <v>37</v>
       </c>
@@ -2855,9 +2907,9 @@
       <c r="V23" s="17"/>
       <c r="W23" s="19"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="101"/>
-      <c r="C24" s="106"/>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="97"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="32" t="s">
         <v>38</v>
       </c>
@@ -2898,9 +2950,9 @@
       <c r="V24" s="17"/>
       <c r="W24" s="19"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
-      <c r="C25" s="106"/>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="97"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="32" t="s">
         <v>39</v>
       </c>
@@ -2941,9 +2993,9 @@
       <c r="V25" s="17"/>
       <c r="W25" s="19"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="101"/>
-      <c r="C26" s="106"/>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="97"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
@@ -2984,9 +3036,9 @@
       <c r="V26" s="17"/>
       <c r="W26" s="19"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="101"/>
-      <c r="C27" s="106"/>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="97"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3027,9 +3079,9 @@
       <c r="V27" s="17"/>
       <c r="W27" s="19"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="101"/>
-      <c r="C28" s="106"/>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="97"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="32" t="s">
         <v>42</v>
       </c>
@@ -3070,9 +3122,9 @@
       <c r="V28" s="17"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="101"/>
-      <c r="C29" s="106"/>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="97"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="32" t="s">
         <v>43</v>
       </c>
@@ -3113,9 +3165,9 @@
       <c r="V29" s="17"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="101"/>
-      <c r="C30" s="106"/>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="97"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="32" t="s">
         <v>44</v>
       </c>
@@ -3156,9 +3208,9 @@
       <c r="V30" s="17"/>
       <c r="W30" s="19"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="101"/>
-      <c r="C31" s="106"/>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="97"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="32" t="s">
         <v>45</v>
       </c>
@@ -3199,9 +3251,9 @@
       <c r="V31" s="17"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="101"/>
-      <c r="C32" s="106"/>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="97"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="32" t="s">
         <v>46</v>
       </c>
@@ -3242,9 +3294,9 @@
       <c r="V32" s="17"/>
       <c r="W32" s="19"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="101"/>
-      <c r="C33" s="106"/>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="97"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="32" t="s">
         <v>47</v>
       </c>
@@ -3285,9 +3337,9 @@
       <c r="V33" s="17"/>
       <c r="W33" s="19"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="101"/>
-      <c r="C34" s="106"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="97"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="32" t="s">
         <v>48</v>
       </c>
@@ -3328,9 +3380,9 @@
       <c r="V34" s="17"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="101"/>
-      <c r="C35" s="106"/>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="97"/>
+      <c r="C35" s="112"/>
       <c r="D35" s="32" t="s">
         <v>49</v>
       </c>
@@ -3371,9 +3423,9 @@
       <c r="V35" s="17"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="101"/>
-      <c r="C36" s="106"/>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="97"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="32" t="s">
         <v>50</v>
       </c>
@@ -3414,9 +3466,9 @@
       <c r="V36" s="17"/>
       <c r="W36" s="19"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="101"/>
-      <c r="C37" s="106"/>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="97"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="32" t="s">
         <v>51</v>
       </c>
@@ -3457,9 +3509,9 @@
       <c r="V37" s="17"/>
       <c r="W37" s="19"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="101"/>
-      <c r="C38" s="106"/>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="97"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3500,9 +3552,9 @@
       <c r="V38" s="17"/>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="101"/>
-      <c r="C39" s="106"/>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="97"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="32" t="s">
         <v>53</v>
       </c>
@@ -3543,9 +3595,9 @@
       <c r="V39" s="17"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="101"/>
-      <c r="C40" s="106"/>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="97"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="32" t="s">
         <v>54</v>
       </c>
@@ -3586,9 +3638,9 @@
       <c r="V40" s="17"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="101"/>
-      <c r="C41" s="106"/>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="97"/>
+      <c r="C41" s="112"/>
       <c r="D41" s="32" t="s">
         <v>55</v>
       </c>
@@ -3629,9 +3681,9 @@
       <c r="V41" s="17"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="101"/>
-      <c r="C42" s="106"/>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="97"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="32" t="s">
         <v>56</v>
       </c>
@@ -3672,9 +3724,9 @@
       <c r="V42" s="17"/>
       <c r="W42" s="19"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="101"/>
-      <c r="C43" s="106"/>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="97"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="32" t="s">
         <v>57</v>
       </c>
@@ -3715,9 +3767,9 @@
       <c r="V43" s="17"/>
       <c r="W43" s="19"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="101"/>
-      <c r="C44" s="106"/>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="97"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="32" t="s">
         <v>58</v>
       </c>
@@ -3758,9 +3810,9 @@
       <c r="V44" s="17"/>
       <c r="W44" s="19"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="101"/>
-      <c r="C45" s="106"/>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="97"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="32" t="s">
         <v>59</v>
       </c>
@@ -3801,9 +3853,9 @@
       <c r="V45" s="17"/>
       <c r="W45" s="19"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="101"/>
-      <c r="C46" s="106"/>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="97"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="32" t="s">
         <v>60</v>
       </c>
@@ -3844,9 +3896,9 @@
       <c r="V46" s="17"/>
       <c r="W46" s="19"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="101"/>
-      <c r="C47" s="106"/>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="97"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="32" t="s">
         <v>61</v>
       </c>
@@ -3887,9 +3939,9 @@
       <c r="V47" s="17"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B48" s="101"/>
-      <c r="C48" s="106"/>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="97"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="32" t="s">
         <v>62</v>
       </c>
@@ -3930,9 +3982,9 @@
       <c r="V48" s="17"/>
       <c r="W48" s="19"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="101"/>
-      <c r="C49" s="106"/>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="97"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="32" t="s">
         <v>63</v>
       </c>
@@ -3973,9 +4025,9 @@
       <c r="V49" s="17"/>
       <c r="W49" s="19"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="101"/>
-      <c r="C50" s="106"/>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="97"/>
+      <c r="C50" s="112"/>
       <c r="D50" s="32" t="s">
         <v>64</v>
       </c>
@@ -4016,9 +4068,9 @@
       <c r="V50" s="17"/>
       <c r="W50" s="19"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="101"/>
-      <c r="C51" s="106"/>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="97"/>
+      <c r="C51" s="112"/>
       <c r="D51" s="32" t="s">
         <v>65</v>
       </c>
@@ -4059,9 +4111,9 @@
       <c r="V51" s="17"/>
       <c r="W51" s="19"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="101"/>
-      <c r="C52" s="106"/>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="97"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="32" t="s">
         <v>66</v>
       </c>
@@ -4102,9 +4154,9 @@
       <c r="V52" s="17"/>
       <c r="W52" s="19"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="101"/>
-      <c r="C53" s="106"/>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="97"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="32" t="s">
         <v>67</v>
       </c>
@@ -4145,9 +4197,9 @@
       <c r="V53" s="17"/>
       <c r="W53" s="19"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="101"/>
-      <c r="C54" s="106"/>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="97"/>
+      <c r="C54" s="112"/>
       <c r="D54" s="32" t="s">
         <v>68</v>
       </c>
@@ -4188,9 +4240,9 @@
       <c r="V54" s="17"/>
       <c r="W54" s="19"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="101"/>
-      <c r="C55" s="107"/>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="97"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="32" t="s">
         <v>69</v>
       </c>
@@ -4231,9 +4283,9 @@
       <c r="V55" s="17"/>
       <c r="W55" s="19"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="101"/>
-      <c r="C56" s="103" t="s">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="97"/>
+      <c r="C56" s="109" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="29" t="s">
@@ -4276,9 +4328,9 @@
       <c r="V56" s="17"/>
       <c r="W56" s="19"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="101"/>
-      <c r="C57" s="104"/>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="97"/>
+      <c r="C57" s="110"/>
       <c r="D57" s="29" t="s">
         <v>29</v>
       </c>
@@ -4319,9 +4371,9 @@
       <c r="V57" s="17"/>
       <c r="W57" s="19"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="101"/>
-      <c r="C58" s="104"/>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="97"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
@@ -4362,9 +4414,9 @@
       <c r="V58" s="17"/>
       <c r="W58" s="19"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="101"/>
-      <c r="C59" s="104"/>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="97"/>
+      <c r="C59" s="110"/>
       <c r="D59" s="29" t="s">
         <v>31</v>
       </c>
@@ -4405,9 +4457,9 @@
       <c r="V59" s="17"/>
       <c r="W59" s="19"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="101"/>
-      <c r="C60" s="104"/>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="97"/>
+      <c r="C60" s="110"/>
       <c r="D60" s="29" t="s">
         <v>34</v>
       </c>
@@ -4448,9 +4500,9 @@
       <c r="V60" s="17"/>
       <c r="W60" s="19"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="101"/>
-      <c r="C61" s="104"/>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="97"/>
+      <c r="C61" s="110"/>
       <c r="D61" s="29" t="s">
         <v>32</v>
       </c>
@@ -4491,9 +4543,9 @@
       <c r="V61" s="17"/>
       <c r="W61" s="19"/>
     </row>
-    <row r="62" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="119"/>
-      <c r="C62" s="104"/>
+    <row r="62" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="104"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="62" t="s">
         <v>33</v>
       </c>
@@ -4534,11 +4586,11 @@
       <c r="V62" s="26"/>
       <c r="W62" s="28"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B63" s="100" t="s">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="114" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="39" t="s">
@@ -4581,9 +4633,9 @@
       <c r="V63" s="51"/>
       <c r="W63" s="52"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="101"/>
-      <c r="C64" s="109"/>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="97"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4624,9 +4676,9 @@
       <c r="V64" s="17"/>
       <c r="W64" s="19"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="101"/>
-      <c r="C65" s="109"/>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" s="97"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4667,9 +4719,9 @@
       <c r="V65" s="17"/>
       <c r="W65" s="19"/>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="101"/>
-      <c r="C66" s="109"/>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="97"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="29" t="s">
         <v>76</v>
       </c>
@@ -4710,8 +4762,8 @@
       <c r="V66" s="17"/>
       <c r="W66" s="19"/>
     </row>
-    <row r="67" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="101"/>
+    <row r="67" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="97"/>
       <c r="C67" s="33" t="s">
         <v>73</v>
       </c>
@@ -4753,8 +4805,8 @@
       <c r="V67" s="17"/>
       <c r="W67" s="19"/>
     </row>
-    <row r="68" spans="2:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="101"/>
+    <row r="68" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="97"/>
       <c r="C68" s="33" t="s">
         <v>81</v>
       </c>
@@ -4772,7 +4824,7 @@
         <v>0.5</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" ref="I68:I131" si="2">SUM(J68:W68)</f>
+        <f t="shared" ref="I68:I153" si="2">SUM(J68:W68)</f>
         <v>0</v>
       </c>
       <c r="J68" s="70">
@@ -4796,9 +4848,9 @@
       <c r="V68" s="17"/>
       <c r="W68" s="19"/>
     </row>
-    <row r="69" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="101"/>
-      <c r="C69" s="109" t="s">
+    <row r="69" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="97"/>
+      <c r="C69" s="115" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4841,9 +4893,9 @@
       <c r="V69" s="17"/>
       <c r="W69" s="19"/>
     </row>
-    <row r="70" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="101"/>
-      <c r="C70" s="109"/>
+    <row r="70" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="97"/>
+      <c r="C70" s="115"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4884,9 +4936,9 @@
       <c r="V70" s="17"/>
       <c r="W70" s="19"/>
     </row>
-    <row r="71" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="101"/>
-      <c r="C71" s="109"/>
+    <row r="71" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="97"/>
+      <c r="C71" s="115"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4927,9 +4979,9 @@
       <c r="V71" s="17"/>
       <c r="W71" s="19"/>
     </row>
-    <row r="72" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="102"/>
-      <c r="C72" s="110"/>
+    <row r="72" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="98"/>
+      <c r="C72" s="116"/>
       <c r="D72" s="24" t="s">
         <v>78</v>
       </c>
@@ -4970,11 +5022,11 @@
       <c r="V72" s="22"/>
       <c r="W72" s="25"/>
     </row>
-    <row r="73" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="100" t="s">
+    <row r="73" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="120" t="s">
         <v>116</v>
       </c>
       <c r="D73" s="39" t="s">
@@ -4994,7 +5046,7 @@
       </c>
       <c r="I73" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J73" s="69">
         <v>0</v>
@@ -5006,20 +5058,22 @@
         <v>0</v>
       </c>
       <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="51"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="51"/>
-      <c r="S73" s="51"/>
-      <c r="T73" s="51"/>
-      <c r="U73" s="51"/>
-      <c r="V73" s="51"/>
-      <c r="W73" s="52"/>
-    </row>
-    <row r="74" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="101"/>
-      <c r="C74" s="96"/>
+      <c r="N73" s="82">
+        <v>1.01</v>
+      </c>
+      <c r="O73" s="84"/>
+      <c r="P73" s="85"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="84"/>
+      <c r="T73" s="84"/>
+      <c r="U73" s="84"/>
+      <c r="V73" s="84"/>
+      <c r="W73" s="86"/>
+    </row>
+    <row r="74" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="97"/>
+      <c r="C74" s="105"/>
       <c r="D74" s="4" t="s">
         <v>132</v>
       </c>
@@ -5060,15 +5114,21 @@
       <c r="V74" s="17"/>
       <c r="W74" s="19"/>
     </row>
-    <row r="75" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="101"/>
-      <c r="C75" s="96"/>
+    <row r="75" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="97"/>
+      <c r="C75" s="105"/>
       <c r="D75" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="4">
+        <v>3</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="6">
         <f t="shared" si="2"/>
@@ -5095,9 +5155,9 @@
       <c r="V75" s="17"/>
       <c r="W75" s="19"/>
     </row>
-    <row r="76" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="101"/>
-      <c r="C76" s="96"/>
+    <row r="76" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="97"/>
+      <c r="C76" s="105"/>
       <c r="D76" s="4" t="s">
         <v>133</v>
       </c>
@@ -5128,21 +5188,21 @@
       </c>
       <c r="M76" s="80"/>
       <c r="N76" s="80"/>
-      <c r="O76" s="93"/>
-      <c r="P76" s="94"/>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="93"/>
-      <c r="S76" s="93"/>
-      <c r="T76" s="93"/>
-      <c r="U76" s="93"/>
-      <c r="V76" s="93"/>
-      <c r="W76" s="95"/>
-    </row>
-    <row r="77" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="101"/>
-      <c r="C77" s="96"/>
+      <c r="O76" s="92"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="92"/>
+      <c r="R76" s="92"/>
+      <c r="S76" s="92"/>
+      <c r="T76" s="92"/>
+      <c r="U76" s="92"/>
+      <c r="V76" s="92"/>
+      <c r="W76" s="94"/>
+    </row>
+    <row r="77" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="97"/>
+      <c r="C77" s="105"/>
       <c r="D77" s="4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
@@ -5151,43 +5211,30 @@
         <v>114</v>
       </c>
       <c r="G77" s="4">
-        <v>2</v>
-      </c>
-      <c r="H77" s="4">
-        <v>1</v>
-      </c>
-      <c r="I77" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="70">
-        <v>0</v>
-      </c>
-      <c r="K77" s="70">
-        <v>0</v>
-      </c>
-      <c r="L77" s="70">
-        <v>0</v>
-      </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="19"/>
-    </row>
-    <row r="78" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="101"/>
-      <c r="C78" s="96" t="s">
-        <v>117</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="80"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="92"/>
+      <c r="P77" s="93"/>
+      <c r="Q77" s="92"/>
+      <c r="R77" s="92"/>
+      <c r="S77" s="92"/>
+      <c r="T77" s="92"/>
+      <c r="U77" s="92"/>
+      <c r="V77" s="92"/>
+      <c r="W77" s="94"/>
+    </row>
+    <row r="78" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="97"/>
+      <c r="C78" s="105"/>
       <c r="D78" s="4" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
@@ -5198,39 +5245,28 @@
       <c r="G78" s="4">
         <v>3</v>
       </c>
-      <c r="H78" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I78" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="70">
-        <v>0</v>
-      </c>
-      <c r="K78" s="70">
-        <v>0</v>
-      </c>
-      <c r="L78" s="70">
-        <v>0</v>
-      </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="19"/>
-    </row>
-    <row r="79" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="101"/>
-      <c r="C79" s="96"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="80"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="93"/>
+      <c r="Q78" s="92"/>
+      <c r="R78" s="92"/>
+      <c r="S78" s="92"/>
+      <c r="T78" s="92"/>
+      <c r="U78" s="92"/>
+      <c r="V78" s="92"/>
+      <c r="W78" s="94"/>
+    </row>
+    <row r="79" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="97"/>
+      <c r="C79" s="105"/>
       <c r="D79" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
@@ -5239,14 +5275,14 @@
         <v>114</v>
       </c>
       <c r="G79" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J79" s="70">
         <v>0</v>
@@ -5257,8 +5293,10 @@
       <c r="L79" s="70">
         <v>0</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
+      <c r="M79" s="70"/>
+      <c r="N79" s="70">
+        <v>0.5</v>
+      </c>
       <c r="O79" s="17"/>
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
@@ -5269,19 +5307,29 @@
       <c r="V79" s="17"/>
       <c r="W79" s="19"/>
     </row>
-    <row r="80" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="101"/>
-      <c r="C80" s="96"/>
+    <row r="80" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="97"/>
+      <c r="C80" s="105" t="s">
+        <v>117</v>
+      </c>
       <c r="D80" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="4">
+        <v>3</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0.25</v>
+      </c>
       <c r="I80" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J80" s="70">
         <v>0</v>
@@ -5293,22 +5341,24 @@
         <v>0</v>
       </c>
       <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="19"/>
-    </row>
-    <row r="81" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="101"/>
-      <c r="C81" s="96"/>
+      <c r="N80" s="80">
+        <v>0.25</v>
+      </c>
+      <c r="O80" s="92"/>
+      <c r="P80" s="93"/>
+      <c r="Q80" s="92"/>
+      <c r="R80" s="92"/>
+      <c r="S80" s="92"/>
+      <c r="T80" s="92"/>
+      <c r="U80" s="92"/>
+      <c r="V80" s="92"/>
+      <c r="W80" s="94"/>
+    </row>
+    <row r="81" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="97"/>
+      <c r="C81" s="105"/>
       <c r="D81" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
@@ -5317,14 +5367,14 @@
         <v>114</v>
       </c>
       <c r="G81" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J81" s="70">
         <v>0</v>
@@ -5335,25 +5385,23 @@
       <c r="L81" s="70">
         <v>0</v>
       </c>
-      <c r="M81" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="N81" s="80"/>
-      <c r="O81" s="93"/>
-      <c r="P81" s="94"/>
-      <c r="Q81" s="93"/>
-      <c r="R81" s="93"/>
-      <c r="S81" s="93"/>
-      <c r="T81" s="93"/>
-      <c r="U81" s="93"/>
-      <c r="V81" s="93"/>
-      <c r="W81" s="95"/>
-    </row>
-    <row r="82" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="101"/>
-      <c r="C82" s="96"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="19"/>
+    </row>
+    <row r="82" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="97"/>
+      <c r="C82" s="105"/>
       <c r="D82" s="4" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
@@ -5362,11 +5410,9 @@
         <v>114</v>
       </c>
       <c r="G82" s="4">
-        <v>2</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0.25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H82" s="4"/>
       <c r="I82" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5392,13 +5438,11 @@
       <c r="V82" s="17"/>
       <c r="W82" s="19"/>
     </row>
-    <row r="83" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="101"/>
-      <c r="C83" s="96" t="s">
-        <v>118</v>
-      </c>
+    <row r="83" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="97"/>
+      <c r="C83" s="105"/>
       <c r="D83" s="4" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
@@ -5409,22 +5453,11 @@
       <c r="G83" s="4">
         <v>3</v>
       </c>
-      <c r="H83" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I83" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="70">
-        <v>0</v>
-      </c>
-      <c r="K83" s="70">
-        <v>0</v>
-      </c>
-      <c r="L83" s="70">
-        <v>0</v>
-      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="70"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="17"/>
@@ -5437,11 +5470,11 @@
       <c r="V83" s="17"/>
       <c r="W83" s="19"/>
     </row>
-    <row r="84" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="101"/>
-      <c r="C84" s="96"/>
+    <row r="84" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="97"/>
+      <c r="C84" s="105"/>
       <c r="D84" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>8</v>
@@ -5452,22 +5485,11 @@
       <c r="G84" s="4">
         <v>3</v>
       </c>
-      <c r="H84" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I84" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="70">
-        <v>0</v>
-      </c>
-      <c r="K84" s="70">
-        <v>0</v>
-      </c>
-      <c r="L84" s="70">
-        <v>0</v>
-      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="17"/>
@@ -5480,19 +5502,27 @@
       <c r="V84" s="17"/>
       <c r="W84" s="19"/>
     </row>
-    <row r="85" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="101"/>
-      <c r="C85" s="96"/>
+    <row r="85" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="97"/>
+      <c r="C85" s="105"/>
       <c r="D85" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0.1</v>
+      </c>
       <c r="I85" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J85" s="70">
         <v>0</v>
@@ -5503,23 +5533,25 @@
       <c r="L85" s="70">
         <v>0</v>
       </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="19"/>
-    </row>
-    <row r="86" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="101"/>
-      <c r="C86" s="96"/>
+      <c r="M85" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="N85" s="80"/>
+      <c r="O85" s="92"/>
+      <c r="P85" s="93"/>
+      <c r="Q85" s="92"/>
+      <c r="R85" s="92"/>
+      <c r="S85" s="92"/>
+      <c r="T85" s="92"/>
+      <c r="U85" s="92"/>
+      <c r="V85" s="92"/>
+      <c r="W85" s="94"/>
+    </row>
+    <row r="86" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="97"/>
+      <c r="C86" s="105"/>
       <c r="D86" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
@@ -5528,14 +5560,14 @@
         <v>114</v>
       </c>
       <c r="G86" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J86" s="70">
         <v>0</v>
@@ -5546,25 +5578,25 @@
       <c r="L86" s="70">
         <v>0</v>
       </c>
-      <c r="M86" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N86" s="80"/>
-      <c r="O86" s="93"/>
-      <c r="P86" s="94"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="93"/>
-      <c r="S86" s="93"/>
-      <c r="T86" s="93"/>
-      <c r="U86" s="93"/>
-      <c r="V86" s="93"/>
-      <c r="W86" s="95"/>
-    </row>
-    <row r="87" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="101"/>
-      <c r="C87" s="96"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="19"/>
+    </row>
+    <row r="87" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="97"/>
+      <c r="C87" s="105" t="s">
+        <v>118</v>
+      </c>
       <c r="D87" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
@@ -5573,7 +5605,7 @@
         <v>114</v>
       </c>
       <c r="G87" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" s="4">
         <v>0.25</v>
@@ -5603,13 +5635,11 @@
       <c r="V87" s="17"/>
       <c r="W87" s="19"/>
     </row>
-    <row r="88" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="101"/>
-      <c r="C88" s="96" t="s">
-        <v>119</v>
-      </c>
+    <row r="88" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="97"/>
+      <c r="C88" s="105"/>
       <c r="D88" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
@@ -5621,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="H88" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" si="2"/>
@@ -5648,11 +5678,11 @@
       <c r="V88" s="17"/>
       <c r="W88" s="19"/>
     </row>
-    <row r="89" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="101"/>
-      <c r="C89" s="96"/>
+    <row r="89" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="97"/>
+      <c r="C89" s="105"/>
       <c r="D89" s="4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>8</v>
@@ -5663,9 +5693,7 @@
       <c r="G89" s="4">
         <v>3</v>
       </c>
-      <c r="H89" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="H89" s="4"/>
       <c r="I89" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5691,19 +5719,27 @@
       <c r="V89" s="17"/>
       <c r="W89" s="19"/>
     </row>
-    <row r="90" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="101"/>
-      <c r="C90" s="96"/>
+    <row r="90" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="97"/>
+      <c r="C90" s="105"/>
       <c r="D90" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0.1</v>
+      </c>
       <c r="I90" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J90" s="70">
         <v>0</v>
@@ -5714,23 +5750,25 @@
       <c r="L90" s="70">
         <v>0</v>
       </c>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="19"/>
-    </row>
-    <row r="91" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="101"/>
-      <c r="C91" s="96"/>
+      <c r="M90" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N90" s="80"/>
+      <c r="O90" s="92"/>
+      <c r="P90" s="93"/>
+      <c r="Q90" s="92"/>
+      <c r="R90" s="92"/>
+      <c r="S90" s="92"/>
+      <c r="T90" s="92"/>
+      <c r="U90" s="92"/>
+      <c r="V90" s="92"/>
+      <c r="W90" s="94"/>
+    </row>
+    <row r="91" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="97"/>
+      <c r="C91" s="105"/>
       <c r="D91" s="4" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
@@ -5739,43 +5777,30 @@
         <v>114</v>
       </c>
       <c r="G91" s="4">
-        <v>1</v>
-      </c>
-      <c r="H91" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I91" s="6">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="J91" s="70">
-        <v>0</v>
-      </c>
-      <c r="K91" s="70">
-        <v>0</v>
-      </c>
-      <c r="L91" s="70">
-        <v>0</v>
-      </c>
-      <c r="M91" s="80">
-        <v>0.02</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="80"/>
       <c r="N91" s="80"/>
-      <c r="O91" s="93"/>
-      <c r="P91" s="94"/>
-      <c r="Q91" s="93"/>
-      <c r="R91" s="93"/>
-      <c r="S91" s="93"/>
-      <c r="T91" s="93"/>
-      <c r="U91" s="93"/>
-      <c r="V91" s="93"/>
-      <c r="W91" s="95"/>
-    </row>
-    <row r="92" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="101"/>
-      <c r="C92" s="96"/>
+      <c r="O91" s="92"/>
+      <c r="P91" s="93"/>
+      <c r="Q91" s="92"/>
+      <c r="R91" s="92"/>
+      <c r="S91" s="92"/>
+      <c r="T91" s="92"/>
+      <c r="U91" s="92"/>
+      <c r="V91" s="92"/>
+      <c r="W91" s="94"/>
+    </row>
+    <row r="92" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="97"/>
+      <c r="C92" s="105"/>
       <c r="D92" s="4" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
@@ -5784,43 +5809,30 @@
         <v>114</v>
       </c>
       <c r="G92" s="4">
-        <v>2</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I92" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="70">
-        <v>0</v>
-      </c>
-      <c r="K92" s="70">
-        <v>0</v>
-      </c>
-      <c r="L92" s="70">
-        <v>0</v>
-      </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="19"/>
-    </row>
-    <row r="93" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="101"/>
-      <c r="C93" s="96" t="s">
-        <v>120</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="80"/>
+      <c r="O92" s="92"/>
+      <c r="P92" s="93"/>
+      <c r="Q92" s="92"/>
+      <c r="R92" s="92"/>
+      <c r="S92" s="92"/>
+      <c r="T92" s="92"/>
+      <c r="U92" s="92"/>
+      <c r="V92" s="92"/>
+      <c r="W92" s="94"/>
+    </row>
+    <row r="93" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="97"/>
+      <c r="C93" s="105"/>
       <c r="D93" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>8</v>
@@ -5829,7 +5841,7 @@
         <v>114</v>
       </c>
       <c r="G93" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H93" s="4">
         <v>0.25</v>
@@ -5859,11 +5871,13 @@
       <c r="V93" s="17"/>
       <c r="W93" s="19"/>
     </row>
-    <row r="94" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="101"/>
-      <c r="C94" s="96"/>
+    <row r="94" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="97"/>
+      <c r="C94" s="105" t="s">
+        <v>119</v>
+      </c>
       <c r="D94" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>8</v>
@@ -5875,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="H94" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I94" s="6">
         <f t="shared" si="2"/>
@@ -5902,16 +5916,24 @@
       <c r="V94" s="17"/>
       <c r="W94" s="19"/>
     </row>
-    <row r="95" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="101"/>
-      <c r="C95" s="96"/>
+    <row r="95" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="97"/>
+      <c r="C95" s="105"/>
       <c r="D95" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G95" s="4">
+        <v>3</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I95" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5937,11 +5959,11 @@
       <c r="V95" s="17"/>
       <c r="W95" s="19"/>
     </row>
-    <row r="96" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="101"/>
-      <c r="C96" s="96"/>
+    <row r="96" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="97"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="4" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>8</v>
@@ -5950,14 +5972,12 @@
         <v>114</v>
       </c>
       <c r="G96" s="4">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4">
-        <v>0.1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H96" s="4"/>
       <c r="I96" s="6">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J96" s="70">
         <v>0</v>
@@ -5968,25 +5988,23 @@
       <c r="L96" s="70">
         <v>0</v>
       </c>
-      <c r="M96" s="80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N96" s="80"/>
-      <c r="O96" s="93"/>
-      <c r="P96" s="94"/>
-      <c r="Q96" s="93"/>
-      <c r="R96" s="93"/>
-      <c r="S96" s="93"/>
-      <c r="T96" s="93"/>
-      <c r="U96" s="93"/>
-      <c r="V96" s="93"/>
-      <c r="W96" s="95"/>
-    </row>
-    <row r="97" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="101"/>
-      <c r="C97" s="96"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="19"/>
+    </row>
+    <row r="97" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="97"/>
+      <c r="C97" s="105"/>
       <c r="D97" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>8</v>
@@ -5995,14 +6013,14 @@
         <v>114</v>
       </c>
       <c r="G97" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I97" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J97" s="70">
         <v>0</v>
@@ -6013,25 +6031,25 @@
       <c r="L97" s="70">
         <v>0</v>
       </c>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="19"/>
-    </row>
-    <row r="98" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="101"/>
-      <c r="C98" s="96" t="s">
-        <v>121</v>
-      </c>
+      <c r="M97" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N97" s="80"/>
+      <c r="O97" s="92"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="92"/>
+      <c r="R97" s="92"/>
+      <c r="S97" s="92"/>
+      <c r="T97" s="92"/>
+      <c r="U97" s="92"/>
+      <c r="V97" s="92"/>
+      <c r="W97" s="94"/>
+    </row>
+    <row r="98" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="97"/>
+      <c r="C98" s="105"/>
       <c r="D98" s="4" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>8</v>
@@ -6042,39 +6060,28 @@
       <c r="G98" s="4">
         <v>3</v>
       </c>
-      <c r="H98" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I98" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="70">
-        <v>0</v>
-      </c>
-      <c r="K98" s="70">
-        <v>0</v>
-      </c>
-      <c r="L98" s="70">
-        <v>0</v>
-      </c>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="17"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="19"/>
-    </row>
-    <row r="99" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="101"/>
-      <c r="C99" s="96"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="80"/>
+      <c r="N98" s="80"/>
+      <c r="O98" s="92"/>
+      <c r="P98" s="93"/>
+      <c r="Q98" s="92"/>
+      <c r="R98" s="92"/>
+      <c r="S98" s="92"/>
+      <c r="T98" s="92"/>
+      <c r="U98" s="92"/>
+      <c r="V98" s="92"/>
+      <c r="W98" s="94"/>
+    </row>
+    <row r="99" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="97"/>
+      <c r="C99" s="105"/>
       <c r="D99" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>8</v>
@@ -6085,44 +6092,41 @@
       <c r="G99" s="4">
         <v>3</v>
       </c>
-      <c r="H99" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I99" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="70">
-        <v>0</v>
-      </c>
-      <c r="K99" s="70">
-        <v>0</v>
-      </c>
-      <c r="L99" s="70">
-        <v>0</v>
-      </c>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="19"/>
-    </row>
-    <row r="100" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="101"/>
-      <c r="C100" s="96"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="80"/>
+      <c r="N99" s="80"/>
+      <c r="O99" s="92"/>
+      <c r="P99" s="93"/>
+      <c r="Q99" s="92"/>
+      <c r="R99" s="92"/>
+      <c r="S99" s="92"/>
+      <c r="T99" s="92"/>
+      <c r="U99" s="92"/>
+      <c r="V99" s="92"/>
+      <c r="W99" s="94"/>
+    </row>
+    <row r="100" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="97"/>
+      <c r="C100" s="105"/>
       <c r="D100" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0.25</v>
+      </c>
       <c r="I100" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6148,11 +6152,13 @@
       <c r="V100" s="17"/>
       <c r="W100" s="19"/>
     </row>
-    <row r="101" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="101"/>
-      <c r="C101" s="96"/>
+    <row r="101" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="97"/>
+      <c r="C101" s="105" t="s">
+        <v>120</v>
+      </c>
       <c r="D101" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>8</v>
@@ -6161,14 +6167,14 @@
         <v>114</v>
       </c>
       <c r="G101" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I101" s="6">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J101" s="70">
         <v>0</v>
@@ -6179,25 +6185,23 @@
       <c r="L101" s="70">
         <v>0</v>
       </c>
-      <c r="M101" s="80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N101" s="80"/>
-      <c r="O101" s="93"/>
-      <c r="P101" s="94"/>
-      <c r="Q101" s="93"/>
-      <c r="R101" s="93"/>
-      <c r="S101" s="93"/>
-      <c r="T101" s="93"/>
-      <c r="U101" s="93"/>
-      <c r="V101" s="93"/>
-      <c r="W101" s="95"/>
-    </row>
-    <row r="102" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="101"/>
-      <c r="C102" s="96"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="19"/>
+    </row>
+    <row r="102" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="97"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
@@ -6206,10 +6210,10 @@
         <v>114</v>
       </c>
       <c r="G102" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I102" s="6">
         <f t="shared" si="2"/>
@@ -6236,13 +6240,11 @@
       <c r="V102" s="17"/>
       <c r="W102" s="19"/>
     </row>
-    <row r="103" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="101"/>
-      <c r="C103" s="96" t="s">
-        <v>122</v>
-      </c>
+    <row r="103" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="97"/>
+      <c r="C103" s="105"/>
       <c r="D103" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>8</v>
@@ -6253,9 +6255,7 @@
       <c r="G103" s="4">
         <v>3</v>
       </c>
-      <c r="H103" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="H103" s="4"/>
       <c r="I103" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6281,11 +6281,11 @@
       <c r="V103" s="17"/>
       <c r="W103" s="19"/>
     </row>
-    <row r="104" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="101"/>
-      <c r="C104" s="96"/>
+    <row r="104" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="97"/>
+      <c r="C104" s="105"/>
       <c r="D104" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>8</v>
@@ -6294,14 +6294,14 @@
         <v>114</v>
       </c>
       <c r="G104" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104" s="4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I104" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J104" s="70">
         <v>0</v>
@@ -6312,58 +6312,57 @@
       <c r="L104" s="70">
         <v>0</v>
       </c>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="17"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="19"/>
-    </row>
-    <row r="105" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="101"/>
-      <c r="C105" s="96"/>
+      <c r="M104" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N104" s="80"/>
+      <c r="O104" s="92"/>
+      <c r="P104" s="93"/>
+      <c r="Q104" s="92"/>
+      <c r="R104" s="92"/>
+      <c r="S104" s="92"/>
+      <c r="T104" s="92"/>
+      <c r="U104" s="92"/>
+      <c r="V104" s="92"/>
+      <c r="W104" s="94"/>
+    </row>
+    <row r="105" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="97"/>
+      <c r="C105" s="105"/>
       <c r="D105" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G105" s="4">
+        <v>3</v>
+      </c>
       <c r="H105" s="4"/>
-      <c r="I105" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="70">
-        <v>0</v>
-      </c>
-      <c r="K105" s="70">
-        <v>0</v>
-      </c>
-      <c r="L105" s="70">
-        <v>0</v>
-      </c>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="19"/>
-    </row>
-    <row r="106" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="101"/>
-      <c r="C106" s="96"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="80"/>
+      <c r="N105" s="80"/>
+      <c r="O105" s="92"/>
+      <c r="P105" s="93"/>
+      <c r="Q105" s="92"/>
+      <c r="R105" s="92"/>
+      <c r="S105" s="92"/>
+      <c r="T105" s="92"/>
+      <c r="U105" s="92"/>
+      <c r="V105" s="92"/>
+      <c r="W105" s="94"/>
+    </row>
+    <row r="106" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="97"/>
+      <c r="C106" s="105"/>
       <c r="D106" s="4" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>8</v>
@@ -6372,41 +6371,28 @@
         <v>114</v>
       </c>
       <c r="G106" s="4">
-        <v>1</v>
-      </c>
-      <c r="H106" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I106" s="6">
-        <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J106" s="70">
-        <v>0</v>
-      </c>
-      <c r="K106" s="70">
-        <v>0</v>
-      </c>
-      <c r="L106" s="70">
-        <v>0</v>
-      </c>
-      <c r="M106" s="80">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="70"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="80"/>
       <c r="N106" s="80"/>
-      <c r="O106" s="93"/>
-      <c r="P106" s="94"/>
-      <c r="Q106" s="93"/>
-      <c r="R106" s="93"/>
-      <c r="S106" s="93"/>
-      <c r="T106" s="93"/>
-      <c r="U106" s="93"/>
-      <c r="V106" s="93"/>
-      <c r="W106" s="95"/>
-    </row>
-    <row r="107" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="101"/>
-      <c r="C107" s="96"/>
+      <c r="O106" s="92"/>
+      <c r="P106" s="93"/>
+      <c r="Q106" s="92"/>
+      <c r="R106" s="92"/>
+      <c r="S106" s="92"/>
+      <c r="T106" s="92"/>
+      <c r="U106" s="92"/>
+      <c r="V106" s="92"/>
+      <c r="W106" s="94"/>
+    </row>
+    <row r="107" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="97"/>
+      <c r="C107" s="105"/>
       <c r="D107" s="4" t="s">
         <v>134</v>
       </c>
@@ -6447,10 +6433,10 @@
       <c r="V107" s="17"/>
       <c r="W107" s="19"/>
     </row>
-    <row r="108" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="101"/>
-      <c r="C108" s="96" t="s">
-        <v>123</v>
+    <row r="108" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="97"/>
+      <c r="C108" s="105" t="s">
+        <v>121</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>131</v>
@@ -6492,9 +6478,9 @@
       <c r="V108" s="17"/>
       <c r="W108" s="19"/>
     </row>
-    <row r="109" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="101"/>
-      <c r="C109" s="96"/>
+    <row r="109" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="97"/>
+      <c r="C109" s="105"/>
       <c r="D109" s="4" t="s">
         <v>132</v>
       </c>
@@ -6535,15 +6521,21 @@
       <c r="V109" s="17"/>
       <c r="W109" s="19"/>
     </row>
-    <row r="110" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="101"/>
-      <c r="C110" s="96"/>
+    <row r="110" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="97"/>
+      <c r="C110" s="105"/>
       <c r="D110" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G110" s="4">
+        <v>3</v>
+      </c>
       <c r="H110" s="4"/>
       <c r="I110" s="6">
         <f t="shared" si="2"/>
@@ -6570,9 +6562,9 @@
       <c r="V110" s="17"/>
       <c r="W110" s="19"/>
     </row>
-    <row r="111" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="101"/>
-      <c r="C111" s="96"/>
+    <row r="111" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="97"/>
+      <c r="C111" s="105"/>
       <c r="D111" s="4" t="s">
         <v>133</v>
       </c>
@@ -6590,7 +6582,7 @@
       </c>
       <c r="I111" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J111" s="70">
         <v>0</v>
@@ -6602,24 +6594,24 @@
         <v>0</v>
       </c>
       <c r="M111" s="80">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N111" s="80"/>
-      <c r="O111" s="93"/>
-      <c r="P111" s="94"/>
-      <c r="Q111" s="93"/>
-      <c r="R111" s="93"/>
-      <c r="S111" s="93"/>
-      <c r="T111" s="93"/>
-      <c r="U111" s="93"/>
-      <c r="V111" s="93"/>
-      <c r="W111" s="95"/>
-    </row>
-    <row r="112" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="101"/>
-      <c r="C112" s="96"/>
+      <c r="O111" s="92"/>
+      <c r="P111" s="93"/>
+      <c r="Q111" s="92"/>
+      <c r="R111" s="92"/>
+      <c r="S111" s="92"/>
+      <c r="T111" s="92"/>
+      <c r="U111" s="92"/>
+      <c r="V111" s="92"/>
+      <c r="W111" s="94"/>
+    </row>
+    <row r="112" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="97"/>
+      <c r="C112" s="105"/>
       <c r="D112" s="4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>8</v>
@@ -6628,43 +6620,30 @@
         <v>114</v>
       </c>
       <c r="G112" s="4">
-        <v>2</v>
-      </c>
-      <c r="H112" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I112" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="70">
-        <v>0</v>
-      </c>
-      <c r="K112" s="70">
-        <v>0</v>
-      </c>
-      <c r="L112" s="70">
-        <v>0</v>
-      </c>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="17"/>
-      <c r="T112" s="17"/>
-      <c r="U112" s="17"/>
-      <c r="V112" s="17"/>
-      <c r="W112" s="19"/>
-    </row>
-    <row r="113" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="101"/>
-      <c r="C113" s="96" t="s">
-        <v>124</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="80"/>
+      <c r="N112" s="80"/>
+      <c r="O112" s="92"/>
+      <c r="P112" s="93"/>
+      <c r="Q112" s="92"/>
+      <c r="R112" s="92"/>
+      <c r="S112" s="92"/>
+      <c r="T112" s="92"/>
+      <c r="U112" s="92"/>
+      <c r="V112" s="92"/>
+      <c r="W112" s="94"/>
+    </row>
+    <row r="113" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="97"/>
+      <c r="C113" s="105"/>
       <c r="D113" s="4" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>8</v>
@@ -6675,39 +6654,28 @@
       <c r="G113" s="4">
         <v>3</v>
       </c>
-      <c r="H113" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I113" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="70">
-        <v>0</v>
-      </c>
-      <c r="K113" s="70">
-        <v>0</v>
-      </c>
-      <c r="L113" s="70">
-        <v>0</v>
-      </c>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="17"/>
-      <c r="S113" s="17"/>
-      <c r="T113" s="17"/>
-      <c r="U113" s="17"/>
-      <c r="V113" s="17"/>
-      <c r="W113" s="19"/>
-    </row>
-    <row r="114" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="101"/>
-      <c r="C114" s="96"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="80"/>
+      <c r="O113" s="92"/>
+      <c r="P113" s="93"/>
+      <c r="Q113" s="92"/>
+      <c r="R113" s="92"/>
+      <c r="S113" s="92"/>
+      <c r="T113" s="92"/>
+      <c r="U113" s="92"/>
+      <c r="V113" s="92"/>
+      <c r="W113" s="94"/>
+    </row>
+    <row r="114" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="97"/>
+      <c r="C114" s="105"/>
       <c r="D114" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>8</v>
@@ -6716,10 +6684,10 @@
         <v>114</v>
       </c>
       <c r="G114" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H114" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I114" s="6">
         <f t="shared" si="2"/>
@@ -6746,16 +6714,26 @@
       <c r="V114" s="17"/>
       <c r="W114" s="19"/>
     </row>
-    <row r="115" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="101"/>
-      <c r="C115" s="96"/>
+    <row r="115" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="97"/>
+      <c r="C115" s="105" t="s">
+        <v>122</v>
+      </c>
       <c r="D115" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G115" s="4">
+        <v>3</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0.25</v>
+      </c>
       <c r="I115" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6781,11 +6759,11 @@
       <c r="V115" s="17"/>
       <c r="W115" s="19"/>
     </row>
-    <row r="116" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="101"/>
-      <c r="C116" s="96"/>
+    <row r="116" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="97"/>
+      <c r="C116" s="105"/>
       <c r="D116" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>8</v>
@@ -6794,14 +6772,14 @@
         <v>114</v>
       </c>
       <c r="G116" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I116" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J116" s="70">
         <v>0</v>
@@ -6812,25 +6790,23 @@
       <c r="L116" s="70">
         <v>0</v>
       </c>
-      <c r="M116" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N116" s="80"/>
-      <c r="O116" s="93"/>
-      <c r="P116" s="94"/>
-      <c r="Q116" s="93"/>
-      <c r="R116" s="93"/>
-      <c r="S116" s="93"/>
-      <c r="T116" s="93"/>
-      <c r="U116" s="93"/>
-      <c r="V116" s="93"/>
-      <c r="W116" s="95"/>
-    </row>
-    <row r="117" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="101"/>
-      <c r="C117" s="96"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="19"/>
+    </row>
+    <row r="117" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="97"/>
+      <c r="C117" s="105"/>
       <c r="D117" s="4" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>8</v>
@@ -6839,11 +6815,9 @@
         <v>114</v>
       </c>
       <c r="G117" s="4">
-        <v>2</v>
-      </c>
-      <c r="H117" s="4">
-        <v>0.25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H117" s="4"/>
       <c r="I117" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6869,13 +6843,11 @@
       <c r="V117" s="17"/>
       <c r="W117" s="19"/>
     </row>
-    <row r="118" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="101"/>
-      <c r="C118" s="96" t="s">
-        <v>125</v>
-      </c>
+    <row r="118" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="97"/>
+      <c r="C118" s="105"/>
       <c r="D118" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>8</v>
@@ -6884,14 +6856,14 @@
         <v>114</v>
       </c>
       <c r="G118" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I118" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J118" s="70">
         <v>0</v>
@@ -6902,23 +6874,25 @@
       <c r="L118" s="70">
         <v>0</v>
       </c>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="19"/>
-    </row>
-    <row r="119" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="101"/>
-      <c r="C119" s="96"/>
+      <c r="M118" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N118" s="80"/>
+      <c r="O118" s="92"/>
+      <c r="P118" s="93"/>
+      <c r="Q118" s="92"/>
+      <c r="R118" s="92"/>
+      <c r="S118" s="92"/>
+      <c r="T118" s="92"/>
+      <c r="U118" s="92"/>
+      <c r="V118" s="92"/>
+      <c r="W118" s="94"/>
+    </row>
+    <row r="119" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="97"/>
+      <c r="C119" s="105"/>
       <c r="D119" s="4" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>8</v>
@@ -6929,74 +6903,60 @@
       <c r="G119" s="4">
         <v>3</v>
       </c>
-      <c r="H119" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I119" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="70">
-        <v>0</v>
-      </c>
-      <c r="K119" s="70">
-        <v>0</v>
-      </c>
-      <c r="L119" s="70">
-        <v>0</v>
-      </c>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="17"/>
-      <c r="V119" s="17"/>
-      <c r="W119" s="19"/>
-    </row>
-    <row r="120" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="101"/>
-      <c r="C120" s="96"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="70"/>
+      <c r="K119" s="70"/>
+      <c r="L119" s="70"/>
+      <c r="M119" s="80"/>
+      <c r="N119" s="80"/>
+      <c r="O119" s="92"/>
+      <c r="P119" s="93"/>
+      <c r="Q119" s="92"/>
+      <c r="R119" s="92"/>
+      <c r="S119" s="92"/>
+      <c r="T119" s="92"/>
+      <c r="U119" s="92"/>
+      <c r="V119" s="92"/>
+      <c r="W119" s="94"/>
+    </row>
+    <row r="120" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="97"/>
+      <c r="C120" s="105"/>
       <c r="D120" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G120" s="4">
+        <v>3</v>
+      </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="70">
-        <v>0</v>
-      </c>
-      <c r="K120" s="70">
-        <v>0</v>
-      </c>
-      <c r="L120" s="70">
-        <v>0</v>
-      </c>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="17"/>
-      <c r="R120" s="17"/>
-      <c r="S120" s="17"/>
-      <c r="T120" s="17"/>
-      <c r="U120" s="17"/>
-      <c r="V120" s="17"/>
-      <c r="W120" s="19"/>
-    </row>
-    <row r="121" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="101"/>
-      <c r="C121" s="96"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="80"/>
+      <c r="N120" s="80"/>
+      <c r="O120" s="92"/>
+      <c r="P120" s="93"/>
+      <c r="Q120" s="92"/>
+      <c r="R120" s="92"/>
+      <c r="S120" s="92"/>
+      <c r="T120" s="92"/>
+      <c r="U120" s="92"/>
+      <c r="V120" s="92"/>
+      <c r="W120" s="94"/>
+    </row>
+    <row r="121" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="97"/>
+      <c r="C121" s="105"/>
       <c r="D121" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>8</v>
@@ -7005,14 +6965,14 @@
         <v>114</v>
       </c>
       <c r="G121" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I121" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J121" s="70">
         <v>0</v>
@@ -7023,25 +6983,25 @@
       <c r="L121" s="70">
         <v>0</v>
       </c>
-      <c r="M121" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N121" s="80"/>
-      <c r="O121" s="93"/>
-      <c r="P121" s="94"/>
-      <c r="Q121" s="93"/>
-      <c r="R121" s="93"/>
-      <c r="S121" s="93"/>
-      <c r="T121" s="93"/>
-      <c r="U121" s="93"/>
-      <c r="V121" s="93"/>
-      <c r="W121" s="95"/>
-    </row>
-    <row r="122" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="101"/>
-      <c r="C122" s="96"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="17"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="17"/>
+      <c r="V121" s="17"/>
+      <c r="W121" s="19"/>
+    </row>
+    <row r="122" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="97"/>
+      <c r="C122" s="105" t="s">
+        <v>123</v>
+      </c>
       <c r="D122" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>8</v>
@@ -7050,7 +7010,7 @@
         <v>114</v>
       </c>
       <c r="G122" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122" s="4">
         <v>0.25</v>
@@ -7080,13 +7040,11 @@
       <c r="V122" s="17"/>
       <c r="W122" s="19"/>
     </row>
-    <row r="123" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="101"/>
-      <c r="C123" s="96" t="s">
-        <v>126</v>
-      </c>
+    <row r="123" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="97"/>
+      <c r="C123" s="105"/>
       <c r="D123" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>8</v>
@@ -7098,7 +7056,7 @@
         <v>3</v>
       </c>
       <c r="H123" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I123" s="6">
         <f t="shared" si="2"/>
@@ -7125,11 +7083,11 @@
       <c r="V123" s="17"/>
       <c r="W123" s="19"/>
     </row>
-    <row r="124" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="101"/>
-      <c r="C124" s="96"/>
+    <row r="124" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="97"/>
+      <c r="C124" s="105"/>
       <c r="D124" s="4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>8</v>
@@ -7140,9 +7098,7 @@
       <c r="G124" s="4">
         <v>3</v>
       </c>
-      <c r="H124" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="H124" s="4"/>
       <c r="I124" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7168,19 +7124,27 @@
       <c r="V124" s="17"/>
       <c r="W124" s="19"/>
     </row>
-    <row r="125" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="101"/>
-      <c r="C125" s="96"/>
+    <row r="125" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="97"/>
+      <c r="C125" s="105"/>
       <c r="D125" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0.1</v>
+      </c>
       <c r="I125" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J125" s="70">
         <v>0</v>
@@ -7191,23 +7155,25 @@
       <c r="L125" s="70">
         <v>0</v>
       </c>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="17"/>
-      <c r="R125" s="17"/>
-      <c r="S125" s="17"/>
-      <c r="T125" s="17"/>
-      <c r="U125" s="17"/>
-      <c r="V125" s="17"/>
-      <c r="W125" s="19"/>
-    </row>
-    <row r="126" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="101"/>
-      <c r="C126" s="96"/>
+      <c r="M125" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N125" s="80"/>
+      <c r="O125" s="92"/>
+      <c r="P125" s="93"/>
+      <c r="Q125" s="92"/>
+      <c r="R125" s="92"/>
+      <c r="S125" s="92"/>
+      <c r="T125" s="92"/>
+      <c r="U125" s="92"/>
+      <c r="V125" s="92"/>
+      <c r="W125" s="94"/>
+    </row>
+    <row r="126" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="97"/>
+      <c r="C126" s="105"/>
       <c r="D126" s="4" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>8</v>
@@ -7216,43 +7182,30 @@
         <v>114</v>
       </c>
       <c r="G126" s="4">
-        <v>1</v>
-      </c>
-      <c r="H126" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I126" s="6">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="J126" s="70">
-        <v>0</v>
-      </c>
-      <c r="K126" s="70">
-        <v>0</v>
-      </c>
-      <c r="L126" s="70">
-        <v>0</v>
-      </c>
-      <c r="M126" s="80">
-        <v>0.02</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H126" s="4"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="70"/>
+      <c r="K126" s="70"/>
+      <c r="L126" s="70"/>
+      <c r="M126" s="80"/>
       <c r="N126" s="80"/>
-      <c r="O126" s="93"/>
-      <c r="P126" s="94"/>
-      <c r="Q126" s="93"/>
-      <c r="R126" s="93"/>
-      <c r="S126" s="93"/>
-      <c r="T126" s="93"/>
-      <c r="U126" s="93"/>
-      <c r="V126" s="93"/>
-      <c r="W126" s="95"/>
-    </row>
-    <row r="127" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="101"/>
-      <c r="C127" s="96"/>
+      <c r="O126" s="92"/>
+      <c r="P126" s="93"/>
+      <c r="Q126" s="92"/>
+      <c r="R126" s="92"/>
+      <c r="S126" s="92"/>
+      <c r="T126" s="92"/>
+      <c r="U126" s="92"/>
+      <c r="V126" s="92"/>
+      <c r="W126" s="94"/>
+    </row>
+    <row r="127" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="97"/>
+      <c r="C127" s="105"/>
       <c r="D127" s="4" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>8</v>
@@ -7261,43 +7214,30 @@
         <v>114</v>
       </c>
       <c r="G127" s="4">
-        <v>2</v>
-      </c>
-      <c r="H127" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I127" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="70">
-        <v>0</v>
-      </c>
-      <c r="K127" s="70">
-        <v>0</v>
-      </c>
-      <c r="L127" s="70">
-        <v>0</v>
-      </c>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="17"/>
-      <c r="R127" s="17"/>
-      <c r="S127" s="17"/>
-      <c r="T127" s="17"/>
-      <c r="U127" s="17"/>
-      <c r="V127" s="17"/>
-      <c r="W127" s="19"/>
-    </row>
-    <row r="128" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="101"/>
-      <c r="C128" s="96" t="s">
-        <v>127</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H127" s="4"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="70"/>
+      <c r="K127" s="70"/>
+      <c r="L127" s="70"/>
+      <c r="M127" s="80"/>
+      <c r="N127" s="80"/>
+      <c r="O127" s="92"/>
+      <c r="P127" s="93"/>
+      <c r="Q127" s="92"/>
+      <c r="R127" s="92"/>
+      <c r="S127" s="92"/>
+      <c r="T127" s="92"/>
+      <c r="U127" s="92"/>
+      <c r="V127" s="92"/>
+      <c r="W127" s="94"/>
+    </row>
+    <row r="128" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="97"/>
+      <c r="C128" s="105"/>
       <c r="D128" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>8</v>
@@ -7306,7 +7246,7 @@
         <v>114</v>
       </c>
       <c r="G128" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H128" s="4">
         <v>0.25</v>
@@ -7336,11 +7276,13 @@
       <c r="V128" s="17"/>
       <c r="W128" s="19"/>
     </row>
-    <row r="129" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="101"/>
-      <c r="C129" s="96"/>
+    <row r="129" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="97"/>
+      <c r="C129" s="105" t="s">
+        <v>124</v>
+      </c>
       <c r="D129" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>8</v>
@@ -7352,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="H129" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I129" s="6">
         <f t="shared" si="2"/>
@@ -7379,16 +7321,24 @@
       <c r="V129" s="17"/>
       <c r="W129" s="19"/>
     </row>
-    <row r="130" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="101"/>
-      <c r="C130" s="96"/>
+    <row r="130" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="97"/>
+      <c r="C130" s="105"/>
       <c r="D130" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G130" s="4">
+        <v>3</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I130" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7414,11 +7364,11 @@
       <c r="V130" s="17"/>
       <c r="W130" s="19"/>
     </row>
-    <row r="131" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="101"/>
-      <c r="C131" s="96"/>
+    <row r="131" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="97"/>
+      <c r="C131" s="105"/>
       <c r="D131" s="4" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>8</v>
@@ -7427,14 +7377,12 @@
         <v>114</v>
       </c>
       <c r="G131" s="4">
-        <v>1</v>
-      </c>
-      <c r="H131" s="4">
-        <v>0.1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="6">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J131" s="70">
         <v>0</v>
@@ -7445,25 +7393,23 @@
       <c r="L131" s="70">
         <v>0</v>
       </c>
-      <c r="M131" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N131" s="80"/>
-      <c r="O131" s="93"/>
-      <c r="P131" s="94"/>
-      <c r="Q131" s="93"/>
-      <c r="R131" s="93"/>
-      <c r="S131" s="93"/>
-      <c r="T131" s="93"/>
-      <c r="U131" s="93"/>
-      <c r="V131" s="93"/>
-      <c r="W131" s="95"/>
-    </row>
-    <row r="132" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="101"/>
-      <c r="C132" s="96"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="17"/>
+      <c r="R131" s="17"/>
+      <c r="S131" s="17"/>
+      <c r="T131" s="17"/>
+      <c r="U131" s="17"/>
+      <c r="V131" s="17"/>
+      <c r="W131" s="19"/>
+    </row>
+    <row r="132" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="97"/>
+      <c r="C132" s="105"/>
       <c r="D132" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>8</v>
@@ -7472,14 +7418,14 @@
         <v>114</v>
       </c>
       <c r="G132" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I132" s="6">
-        <f t="shared" ref="I132:I145" si="3">SUM(J132:W132)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="J132" s="70">
         <v>0</v>
@@ -7490,25 +7436,25 @@
       <c r="L132" s="70">
         <v>0</v>
       </c>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="17"/>
-      <c r="R132" s="17"/>
-      <c r="S132" s="17"/>
-      <c r="T132" s="17"/>
-      <c r="U132" s="17"/>
-      <c r="V132" s="17"/>
-      <c r="W132" s="19"/>
-    </row>
-    <row r="133" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="101"/>
-      <c r="C133" s="96" t="s">
-        <v>128</v>
-      </c>
+      <c r="M132" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N132" s="80"/>
+      <c r="O132" s="92"/>
+      <c r="P132" s="93"/>
+      <c r="Q132" s="92"/>
+      <c r="R132" s="92"/>
+      <c r="S132" s="92"/>
+      <c r="T132" s="92"/>
+      <c r="U132" s="92"/>
+      <c r="V132" s="92"/>
+      <c r="W132" s="94"/>
+    </row>
+    <row r="133" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="97"/>
+      <c r="C133" s="105"/>
       <c r="D133" s="4" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>8</v>
@@ -7519,39 +7465,28 @@
       <c r="G133" s="4">
         <v>3</v>
       </c>
-      <c r="H133" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I133" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="70">
-        <v>0</v>
-      </c>
-      <c r="K133" s="70">
-        <v>0</v>
-      </c>
-      <c r="L133" s="70">
-        <v>0</v>
-      </c>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="16"/>
-      <c r="Q133" s="17"/>
-      <c r="R133" s="17"/>
-      <c r="S133" s="17"/>
-      <c r="T133" s="17"/>
-      <c r="U133" s="17"/>
-      <c r="V133" s="17"/>
-      <c r="W133" s="19"/>
-    </row>
-    <row r="134" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="101"/>
-      <c r="C134" s="96"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="70"/>
+      <c r="L133" s="70"/>
+      <c r="M133" s="80"/>
+      <c r="N133" s="80"/>
+      <c r="O133" s="92"/>
+      <c r="P133" s="93"/>
+      <c r="Q133" s="92"/>
+      <c r="R133" s="92"/>
+      <c r="S133" s="92"/>
+      <c r="T133" s="92"/>
+      <c r="U133" s="92"/>
+      <c r="V133" s="92"/>
+      <c r="W133" s="94"/>
+    </row>
+    <row r="134" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="97"/>
+      <c r="C134" s="105"/>
       <c r="D134" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>8</v>
@@ -7562,46 +7497,43 @@
       <c r="G134" s="4">
         <v>3</v>
       </c>
-      <c r="H134" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I134" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="70">
-        <v>0</v>
-      </c>
-      <c r="K134" s="70">
-        <v>0</v>
-      </c>
-      <c r="L134" s="70">
-        <v>0</v>
-      </c>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="17"/>
-      <c r="R134" s="17"/>
-      <c r="S134" s="17"/>
-      <c r="T134" s="17"/>
-      <c r="U134" s="17"/>
-      <c r="V134" s="17"/>
-      <c r="W134" s="19"/>
-    </row>
-    <row r="135" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="101"/>
-      <c r="C135" s="96"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="80"/>
+      <c r="N134" s="80"/>
+      <c r="O134" s="92"/>
+      <c r="P134" s="93"/>
+      <c r="Q134" s="92"/>
+      <c r="R134" s="92"/>
+      <c r="S134" s="92"/>
+      <c r="T134" s="92"/>
+      <c r="U134" s="92"/>
+      <c r="V134" s="92"/>
+      <c r="W134" s="94"/>
+    </row>
+    <row r="135" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="97"/>
+      <c r="C135" s="105"/>
       <c r="D135" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G135" s="4">
+        <v>2</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0.25</v>
+      </c>
       <c r="I135" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J135" s="70">
@@ -7625,11 +7557,13 @@
       <c r="V135" s="17"/>
       <c r="W135" s="19"/>
     </row>
-    <row r="136" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="101"/>
-      <c r="C136" s="96"/>
+    <row r="136" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="97"/>
+      <c r="C136" s="105" t="s">
+        <v>125</v>
+      </c>
       <c r="D136" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>8</v>
@@ -7638,14 +7572,14 @@
         <v>114</v>
       </c>
       <c r="G136" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H136" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I136" s="6">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J136" s="70">
         <v>0</v>
@@ -7656,25 +7590,23 @@
       <c r="L136" s="70">
         <v>0</v>
       </c>
-      <c r="M136" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="N136" s="80"/>
-      <c r="O136" s="93"/>
-      <c r="P136" s="94"/>
-      <c r="Q136" s="93"/>
-      <c r="R136" s="93"/>
-      <c r="S136" s="93"/>
-      <c r="T136" s="93"/>
-      <c r="U136" s="93"/>
-      <c r="V136" s="93"/>
-      <c r="W136" s="95"/>
-    </row>
-    <row r="137" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="101"/>
-      <c r="C137" s="96"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="17"/>
+      <c r="R136" s="17"/>
+      <c r="S136" s="17"/>
+      <c r="T136" s="17"/>
+      <c r="U136" s="17"/>
+      <c r="V136" s="17"/>
+      <c r="W136" s="19"/>
+    </row>
+    <row r="137" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="97"/>
+      <c r="C137" s="105"/>
       <c r="D137" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>8</v>
@@ -7683,13 +7615,13 @@
         <v>114</v>
       </c>
       <c r="G137" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I137" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J137" s="70">
@@ -7713,13 +7645,11 @@
       <c r="V137" s="17"/>
       <c r="W137" s="19"/>
     </row>
-    <row r="138" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="101"/>
-      <c r="C138" s="96" t="s">
-        <v>129</v>
-      </c>
+    <row r="138" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="97"/>
+      <c r="C138" s="105"/>
       <c r="D138" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>8</v>
@@ -7730,11 +7660,9 @@
       <c r="G138" s="4">
         <v>3</v>
       </c>
-      <c r="H138" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="H138" s="4"/>
       <c r="I138" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J138" s="70">
@@ -7758,11 +7686,11 @@
       <c r="V138" s="17"/>
       <c r="W138" s="19"/>
     </row>
-    <row r="139" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="101"/>
-      <c r="C139" s="96"/>
+    <row r="139" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="97"/>
+      <c r="C139" s="105"/>
       <c r="D139" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>8</v>
@@ -7771,76 +7699,75 @@
         <v>114</v>
       </c>
       <c r="G139" s="4">
+        <v>1</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I139" s="6">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="J139" s="70">
+        <v>0</v>
+      </c>
+      <c r="K139" s="70">
+        <v>0</v>
+      </c>
+      <c r="L139" s="70">
+        <v>0</v>
+      </c>
+      <c r="M139" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N139" s="80"/>
+      <c r="O139" s="92"/>
+      <c r="P139" s="93"/>
+      <c r="Q139" s="92"/>
+      <c r="R139" s="92"/>
+      <c r="S139" s="92"/>
+      <c r="T139" s="92"/>
+      <c r="U139" s="92"/>
+      <c r="V139" s="92"/>
+      <c r="W139" s="94"/>
+    </row>
+    <row r="140" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="97"/>
+      <c r="C140" s="105"/>
+      <c r="D140" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G140" s="4">
         <v>3</v>
       </c>
-      <c r="H139" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I139" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="70">
-        <v>0</v>
-      </c>
-      <c r="K139" s="70">
-        <v>0</v>
-      </c>
-      <c r="L139" s="70">
-        <v>0</v>
-      </c>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="16"/>
-      <c r="Q139" s="17"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17"/>
-      <c r="T139" s="17"/>
-      <c r="U139" s="17"/>
-      <c r="V139" s="17"/>
-      <c r="W139" s="19"/>
-    </row>
-    <row r="140" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="101"/>
-      <c r="C140" s="96"/>
-      <c r="D140" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="70">
-        <v>0</v>
-      </c>
-      <c r="K140" s="70">
-        <v>0</v>
-      </c>
-      <c r="L140" s="70">
-        <v>0</v>
-      </c>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="16"/>
-      <c r="Q140" s="17"/>
-      <c r="R140" s="17"/>
-      <c r="S140" s="17"/>
-      <c r="T140" s="17"/>
-      <c r="U140" s="17"/>
-      <c r="V140" s="17"/>
-      <c r="W140" s="19"/>
-    </row>
-    <row r="141" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="101"/>
-      <c r="C141" s="96"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="70"/>
+      <c r="K140" s="70"/>
+      <c r="L140" s="70"/>
+      <c r="M140" s="80"/>
+      <c r="N140" s="80"/>
+      <c r="O140" s="92"/>
+      <c r="P140" s="93"/>
+      <c r="Q140" s="92"/>
+      <c r="R140" s="92"/>
+      <c r="S140" s="92"/>
+      <c r="T140" s="92"/>
+      <c r="U140" s="92"/>
+      <c r="V140" s="92"/>
+      <c r="W140" s="94"/>
+    </row>
+    <row r="141" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="97"/>
+      <c r="C141" s="105"/>
       <c r="D141" s="4" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>8</v>
@@ -7849,41 +7776,28 @@
         <v>114</v>
       </c>
       <c r="G141" s="4">
-        <v>1</v>
-      </c>
-      <c r="H141" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I141" s="6">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="J141" s="70">
-        <v>0</v>
-      </c>
-      <c r="K141" s="70">
-        <v>0</v>
-      </c>
-      <c r="L141" s="70">
-        <v>0</v>
-      </c>
-      <c r="M141" s="80">
-        <v>0.02</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H141" s="4"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="70"/>
+      <c r="L141" s="70"/>
+      <c r="M141" s="80"/>
       <c r="N141" s="80"/>
-      <c r="O141" s="93"/>
-      <c r="P141" s="94"/>
-      <c r="Q141" s="93"/>
-      <c r="R141" s="93"/>
-      <c r="S141" s="93"/>
-      <c r="T141" s="93"/>
-      <c r="U141" s="93"/>
-      <c r="V141" s="93"/>
-      <c r="W141" s="95"/>
-    </row>
-    <row r="142" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="101"/>
-      <c r="C142" s="96"/>
+      <c r="O141" s="92"/>
+      <c r="P141" s="93"/>
+      <c r="Q141" s="92"/>
+      <c r="R141" s="92"/>
+      <c r="S141" s="92"/>
+      <c r="T141" s="92"/>
+      <c r="U141" s="92"/>
+      <c r="V141" s="92"/>
+      <c r="W141" s="94"/>
+    </row>
+    <row r="142" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="97"/>
+      <c r="C142" s="105"/>
       <c r="D142" s="4" t="s">
         <v>134</v>
       </c>
@@ -7900,7 +7814,7 @@
         <v>0.25</v>
       </c>
       <c r="I142" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J142" s="70">
@@ -7924,10 +7838,10 @@
       <c r="V142" s="17"/>
       <c r="W142" s="19"/>
     </row>
-    <row r="143" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="101"/>
-      <c r="C143" s="96" t="s">
-        <v>130</v>
+    <row r="143" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="97"/>
+      <c r="C143" s="105" t="s">
+        <v>126</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>131</v>
@@ -7945,7 +7859,7 @@
         <v>0.25</v>
       </c>
       <c r="I143" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J143" s="70">
@@ -7969,9 +7883,9 @@
       <c r="V143" s="17"/>
       <c r="W143" s="19"/>
     </row>
-    <row r="144" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="101"/>
-      <c r="C144" s="96"/>
+    <row r="144" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="97"/>
+      <c r="C144" s="105"/>
       <c r="D144" s="4" t="s">
         <v>132</v>
       </c>
@@ -7988,7 +7902,7 @@
         <v>0.5</v>
       </c>
       <c r="I144" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J144" s="70">
@@ -8012,18 +7926,24 @@
       <c r="V144" s="17"/>
       <c r="W144" s="19"/>
     </row>
-    <row r="145" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="101"/>
-      <c r="C145" s="96"/>
+    <row r="145" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="97"/>
+      <c r="C145" s="105"/>
       <c r="D145" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="64"/>
-      <c r="G145" s="4"/>
+      <c r="E145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G145" s="4">
+        <v>3</v>
+      </c>
       <c r="H145" s="4"/>
       <c r="I145" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J145" s="70">
@@ -8047,9 +7967,9 @@
       <c r="V145" s="17"/>
       <c r="W145" s="19"/>
     </row>
-    <row r="146" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="101"/>
-      <c r="C146" s="96"/>
+    <row r="146" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="97"/>
+      <c r="C146" s="105"/>
       <c r="D146" s="4" t="s">
         <v>133</v>
       </c>
@@ -8066,7 +7986,7 @@
         <v>0.1</v>
       </c>
       <c r="I146" s="6">
-        <f t="shared" ref="I146" si="4">SUM(J146:W146)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="J146" s="70">
@@ -8082,124 +8002,100 @@
         <v>0.02</v>
       </c>
       <c r="N146" s="80"/>
-      <c r="O146" s="93"/>
-      <c r="P146" s="94"/>
-      <c r="Q146" s="93"/>
-      <c r="R146" s="93"/>
-      <c r="S146" s="93"/>
-      <c r="T146" s="93"/>
-      <c r="U146" s="93"/>
-      <c r="V146" s="93"/>
-      <c r="W146" s="95"/>
-    </row>
-    <row r="147" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="102"/>
-      <c r="C147" s="124"/>
-      <c r="D147" s="24" t="s">
+      <c r="O146" s="92"/>
+      <c r="P146" s="93"/>
+      <c r="Q146" s="92"/>
+      <c r="R146" s="92"/>
+      <c r="S146" s="92"/>
+      <c r="T146" s="92"/>
+      <c r="U146" s="92"/>
+      <c r="V146" s="92"/>
+      <c r="W146" s="94"/>
+    </row>
+    <row r="147" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="97"/>
+      <c r="C147" s="105"/>
+      <c r="D147" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G147" s="4">
+        <v>3</v>
+      </c>
+      <c r="H147" s="4"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="70"/>
+      <c r="M147" s="80"/>
+      <c r="N147" s="80"/>
+      <c r="O147" s="92"/>
+      <c r="P147" s="93"/>
+      <c r="Q147" s="92"/>
+      <c r="R147" s="92"/>
+      <c r="S147" s="92"/>
+      <c r="T147" s="92"/>
+      <c r="U147" s="92"/>
+      <c r="V147" s="92"/>
+      <c r="W147" s="94"/>
+    </row>
+    <row r="148" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="97"/>
+      <c r="C148" s="105"/>
+      <c r="D148" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G148" s="4">
+        <v>3</v>
+      </c>
+      <c r="H148" s="4"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="70"/>
+      <c r="K148" s="70"/>
+      <c r="L148" s="70"/>
+      <c r="M148" s="80"/>
+      <c r="N148" s="80"/>
+      <c r="O148" s="92"/>
+      <c r="P148" s="93"/>
+      <c r="Q148" s="92"/>
+      <c r="R148" s="92"/>
+      <c r="S148" s="92"/>
+      <c r="T148" s="92"/>
+      <c r="U148" s="92"/>
+      <c r="V148" s="92"/>
+      <c r="W148" s="94"/>
+    </row>
+    <row r="149" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="97"/>
+      <c r="C149" s="105"/>
+      <c r="D149" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E147" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" s="65" t="s">
+      <c r="E149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G147" s="24">
+      <c r="G149" s="4">
         <v>2</v>
       </c>
-      <c r="H147" s="24">
+      <c r="H149" s="4">
         <v>0.25</v>
       </c>
-      <c r="I147" s="20">
-        <f t="shared" ref="I147:I181" si="5">SUM(J147:W147)</f>
-        <v>0</v>
-      </c>
-      <c r="J147" s="71">
-        <v>0</v>
-      </c>
-      <c r="K147" s="71">
-        <v>0</v>
-      </c>
-      <c r="L147" s="71">
-        <v>0</v>
-      </c>
-      <c r="M147" s="24"/>
-      <c r="N147" s="24"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="21"/>
-      <c r="Q147" s="22"/>
-      <c r="R147" s="22"/>
-      <c r="S147" s="22"/>
-      <c r="T147" s="22"/>
-      <c r="U147" s="22"/>
-      <c r="V147" s="22"/>
-      <c r="W147" s="25"/>
-    </row>
-    <row r="148" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="C148" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="G148" s="39">
-        <v>3</v>
-      </c>
-      <c r="H148" s="39">
-        <v>3</v>
-      </c>
-      <c r="I148" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="69">
-        <v>0</v>
-      </c>
-      <c r="K148" s="69">
-        <v>0</v>
-      </c>
-      <c r="L148" s="69">
-        <v>0</v>
-      </c>
-      <c r="M148" s="39"/>
-      <c r="N148" s="39"/>
-      <c r="O148" s="51"/>
-      <c r="P148" s="41"/>
-      <c r="Q148" s="51"/>
-      <c r="R148" s="51"/>
-      <c r="S148" s="51"/>
-      <c r="T148" s="51"/>
-      <c r="U148" s="51"/>
-      <c r="V148" s="51"/>
-      <c r="W148" s="52"/>
-    </row>
-    <row r="149" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="101"/>
-      <c r="C149" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="G149" s="4">
-        <v>3</v>
-      </c>
-      <c r="H149" s="4">
-        <v>0.3</v>
-      </c>
       <c r="I149" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J149" s="70">
@@ -8223,26 +8119,28 @@
       <c r="V149" s="17"/>
       <c r="W149" s="19"/>
     </row>
-    <row r="150" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="101"/>
-      <c r="C150" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D150" s="4"/>
+    <row r="150" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="97"/>
+      <c r="C150" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="E150" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F150" s="74" t="s">
-        <v>109</v>
+      <c r="F150" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G150" s="4">
         <v>3</v>
       </c>
       <c r="H150" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I150" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J150" s="70">
@@ -8266,26 +8164,26 @@
       <c r="V150" s="17"/>
       <c r="W150" s="19"/>
     </row>
-    <row r="151" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="101"/>
-      <c r="C151" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" s="4"/>
+    <row r="151" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="97"/>
+      <c r="C151" s="105"/>
+      <c r="D151" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E151" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F151" s="74" t="s">
-        <v>109</v>
+      <c r="F151" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G151" s="4">
         <v>3</v>
       </c>
       <c r="H151" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I151" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J151" s="70">
@@ -8309,26 +8207,24 @@
       <c r="V151" s="17"/>
       <c r="W151" s="19"/>
     </row>
-    <row r="152" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="101"/>
-      <c r="C152" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D152" s="4"/>
+    <row r="152" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="97"/>
+      <c r="C152" s="105"/>
+      <c r="D152" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="E152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F152" s="74" t="s">
-        <v>109</v>
+      <c r="F152" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G152" s="4">
         <v>3</v>
       </c>
-      <c r="H152" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="H152" s="4"/>
       <c r="I152" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J152" s="70">
@@ -8352,27 +8248,27 @@
       <c r="V152" s="17"/>
       <c r="W152" s="19"/>
     </row>
-    <row r="153" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="101"/>
-      <c r="C153" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D153" s="4"/>
+    <row r="153" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="97"/>
+      <c r="C153" s="105"/>
+      <c r="D153" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="E153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F153" s="74" t="s">
-        <v>109</v>
+      <c r="F153" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G153" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I153" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="J153" s="70">
         <v>0</v>
@@ -8383,125 +8279,105 @@
       <c r="L153" s="70">
         <v>0</v>
       </c>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="17"/>
-      <c r="P153" s="16"/>
-      <c r="Q153" s="17"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="17"/>
-      <c r="T153" s="17"/>
-      <c r="U153" s="17"/>
-      <c r="V153" s="17"/>
-      <c r="W153" s="19"/>
-    </row>
-    <row r="154" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="101"/>
-      <c r="C154" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D154" s="4"/>
+      <c r="M153" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N153" s="80"/>
+      <c r="O153" s="92"/>
+      <c r="P153" s="93"/>
+      <c r="Q153" s="92"/>
+      <c r="R153" s="92"/>
+      <c r="S153" s="92"/>
+      <c r="T153" s="92"/>
+      <c r="U153" s="92"/>
+      <c r="V153" s="92"/>
+      <c r="W153" s="94"/>
+    </row>
+    <row r="154" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="97"/>
+      <c r="C154" s="105"/>
+      <c r="D154" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F154" s="74" t="s">
-        <v>109</v>
+      <c r="F154" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G154" s="4">
         <v>3</v>
       </c>
-      <c r="H154" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="I154" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="70">
-        <v>0</v>
-      </c>
-      <c r="K154" s="70">
-        <v>0</v>
-      </c>
-      <c r="L154" s="70">
-        <v>0</v>
-      </c>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="17"/>
-      <c r="P154" s="16"/>
-      <c r="Q154" s="17"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="17"/>
-      <c r="T154" s="17"/>
-      <c r="U154" s="17"/>
-      <c r="V154" s="17"/>
-      <c r="W154" s="19"/>
-    </row>
-    <row r="155" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="101"/>
-      <c r="C155" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D155" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="70"/>
+      <c r="K154" s="70"/>
+      <c r="L154" s="70"/>
+      <c r="M154" s="80"/>
+      <c r="N154" s="80"/>
+      <c r="O154" s="92"/>
+      <c r="P154" s="93"/>
+      <c r="Q154" s="92"/>
+      <c r="R154" s="92"/>
+      <c r="S154" s="92"/>
+      <c r="T154" s="92"/>
+      <c r="U154" s="92"/>
+      <c r="V154" s="92"/>
+      <c r="W154" s="94"/>
+    </row>
+    <row r="155" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="97"/>
+      <c r="C155" s="105"/>
+      <c r="D155" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="E155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="74" t="s">
-        <v>109</v>
+      <c r="F155" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G155" s="4">
         <v>3</v>
       </c>
-      <c r="H155" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="I155" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="70">
-        <v>0</v>
-      </c>
-      <c r="K155" s="70">
-        <v>0</v>
-      </c>
-      <c r="L155" s="70">
-        <v>0</v>
-      </c>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="16"/>
-      <c r="Q155" s="17"/>
-      <c r="R155" s="17"/>
-      <c r="S155" s="17"/>
-      <c r="T155" s="17"/>
-      <c r="U155" s="17"/>
-      <c r="V155" s="17"/>
-      <c r="W155" s="19"/>
-    </row>
-    <row r="156" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="101"/>
-      <c r="C156" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D156" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="70"/>
+      <c r="K155" s="70"/>
+      <c r="L155" s="70"/>
+      <c r="M155" s="80"/>
+      <c r="N155" s="80"/>
+      <c r="O155" s="92"/>
+      <c r="P155" s="93"/>
+      <c r="Q155" s="92"/>
+      <c r="R155" s="92"/>
+      <c r="S155" s="92"/>
+      <c r="T155" s="92"/>
+      <c r="U155" s="92"/>
+      <c r="V155" s="92"/>
+      <c r="W155" s="94"/>
+    </row>
+    <row r="156" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="97"/>
+      <c r="C156" s="105"/>
+      <c r="D156" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="E156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="67" t="s">
-        <v>113</v>
+      <c r="F156" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G156" s="4">
         <v>2</v>
       </c>
       <c r="H156" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I156" s="6">
-        <f t="shared" si="5"/>
-        <v>0.11700000000000001</v>
+        <f t="shared" ref="I156:I173" si="3">SUM(J156:W156)</f>
+        <v>0</v>
       </c>
       <c r="J156" s="70">
         <v>0</v>
@@ -8512,61 +8388,41 @@
       <c r="L156" s="70">
         <v>0</v>
       </c>
-      <c r="M156" s="80">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="N156" s="80">
-        <v>0</v>
-      </c>
-      <c r="O156" s="80">
-        <v>0</v>
-      </c>
-      <c r="P156" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="80">
-        <v>0</v>
-      </c>
-      <c r="R156" s="80">
-        <v>0</v>
-      </c>
-      <c r="S156" s="80">
-        <v>0</v>
-      </c>
-      <c r="T156" s="80">
-        <v>0</v>
-      </c>
-      <c r="U156" s="80">
-        <v>0</v>
-      </c>
-      <c r="V156" s="80">
-        <v>0</v>
-      </c>
-      <c r="W156" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="101"/>
-      <c r="C157" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D157" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="17"/>
+      <c r="R156" s="17"/>
+      <c r="S156" s="17"/>
+      <c r="T156" s="17"/>
+      <c r="U156" s="17"/>
+      <c r="V156" s="17"/>
+      <c r="W156" s="19"/>
+    </row>
+    <row r="157" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="97"/>
+      <c r="C157" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="E157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F157" s="67" t="s">
-        <v>113</v>
+      <c r="F157" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G157" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H157" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I157" s="6">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J157" s="70">
         <v>0</v>
@@ -8577,61 +8433,39 @@
       <c r="L157" s="70">
         <v>0</v>
       </c>
-      <c r="M157" s="80">
-        <v>0.3</v>
-      </c>
-      <c r="N157" s="80">
-        <v>0</v>
-      </c>
-      <c r="O157" s="80">
-        <v>0</v>
-      </c>
-      <c r="P157" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q157" s="80">
-        <v>0</v>
-      </c>
-      <c r="R157" s="80">
-        <v>0</v>
-      </c>
-      <c r="S157" s="80">
-        <v>0</v>
-      </c>
-      <c r="T157" s="80">
-        <v>0</v>
-      </c>
-      <c r="U157" s="80">
-        <v>0</v>
-      </c>
-      <c r="V157" s="80">
-        <v>0</v>
-      </c>
-      <c r="W157" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="101"/>
-      <c r="C158" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="16"/>
+      <c r="Q157" s="17"/>
+      <c r="R157" s="17"/>
+      <c r="S157" s="17"/>
+      <c r="T157" s="17"/>
+      <c r="U157" s="17"/>
+      <c r="V157" s="17"/>
+      <c r="W157" s="19"/>
+    </row>
+    <row r="158" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="97"/>
+      <c r="C158" s="105"/>
+      <c r="D158" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="67" t="s">
-        <v>113</v>
+      <c r="F158" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G158" s="4">
         <v>3</v>
       </c>
       <c r="H158" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I158" s="6">
-        <f t="shared" si="5"/>
-        <v>0.11700000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J158" s="70">
         <v>0</v>
@@ -8642,46 +8476,24 @@
       <c r="L158" s="70">
         <v>0</v>
       </c>
-      <c r="M158" s="80">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="N158" s="80">
-        <v>0</v>
-      </c>
-      <c r="O158" s="80">
-        <v>0</v>
-      </c>
-      <c r="P158" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q158" s="80">
-        <v>0</v>
-      </c>
-      <c r="R158" s="80">
-        <v>0</v>
-      </c>
-      <c r="S158" s="80">
-        <v>0</v>
-      </c>
-      <c r="T158" s="80">
-        <v>0</v>
-      </c>
-      <c r="U158" s="80">
-        <v>0</v>
-      </c>
-      <c r="V158" s="80">
-        <v>0</v>
-      </c>
-      <c r="W158" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="101"/>
-      <c r="C159" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D159" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="16"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="17"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="17"/>
+      <c r="V158" s="17"/>
+      <c r="W158" s="19"/>
+    </row>
+    <row r="159" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="97"/>
+      <c r="C159" s="105"/>
+      <c r="D159" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="E159" s="4" t="s">
         <v>8</v>
       </c>
@@ -8689,13 +8501,11 @@
         <v>114</v>
       </c>
       <c r="G159" s="4">
-        <v>2</v>
-      </c>
-      <c r="H159" s="4">
-        <v>0.2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H159" s="4"/>
       <c r="I159" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J159" s="70">
@@ -8719,100 +8529,89 @@
       <c r="V159" s="17"/>
       <c r="W159" s="19"/>
     </row>
-    <row r="160" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="102"/>
-      <c r="C160" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G160" s="24">
-        <v>4</v>
-      </c>
-      <c r="H160" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="I160" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="71">
-        <v>0</v>
-      </c>
-      <c r="K160" s="71">
-        <v>0</v>
-      </c>
-      <c r="L160" s="71">
-        <v>0</v>
-      </c>
-      <c r="M160" s="24"/>
-      <c r="N160" s="24"/>
-      <c r="O160" s="22"/>
-      <c r="P160" s="21"/>
-      <c r="Q160" s="22"/>
-      <c r="R160" s="22"/>
-      <c r="S160" s="22"/>
-      <c r="T160" s="22"/>
-      <c r="U160" s="22"/>
-      <c r="V160" s="22"/>
-      <c r="W160" s="25"/>
-    </row>
-    <row r="161" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C161" s="60" t="s">
+    <row r="160" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="97"/>
+      <c r="C160" s="105"/>
+      <c r="D160" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="63" t="s">
+      <c r="E160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G161" s="39">
-        <v>7</v>
-      </c>
-      <c r="H161" s="39">
+      <c r="G160" s="4">
+        <v>1</v>
+      </c>
+      <c r="H160" s="4">
         <v>0.1</v>
       </c>
-      <c r="I161" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="69">
-        <v>0</v>
-      </c>
-      <c r="K161" s="69">
-        <v>0</v>
-      </c>
-      <c r="L161" s="69">
-        <v>0</v>
-      </c>
-      <c r="M161" s="39"/>
-      <c r="N161" s="39"/>
-      <c r="O161" s="51"/>
-      <c r="P161" s="41"/>
-      <c r="Q161" s="51"/>
-      <c r="R161" s="51"/>
-      <c r="S161" s="51"/>
-      <c r="T161" s="51"/>
-      <c r="U161" s="51"/>
-      <c r="V161" s="51"/>
-      <c r="W161" s="52"/>
-    </row>
-    <row r="162" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="101"/>
-      <c r="C162" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D162" s="4"/>
+      <c r="I160" s="6">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="J160" s="70">
+        <v>0</v>
+      </c>
+      <c r="K160" s="70">
+        <v>0</v>
+      </c>
+      <c r="L160" s="70">
+        <v>0</v>
+      </c>
+      <c r="M160" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N160" s="80"/>
+      <c r="O160" s="92"/>
+      <c r="P160" s="93"/>
+      <c r="Q160" s="92"/>
+      <c r="R160" s="92"/>
+      <c r="S160" s="92"/>
+      <c r="T160" s="92"/>
+      <c r="U160" s="92"/>
+      <c r="V160" s="92"/>
+      <c r="W160" s="94"/>
+    </row>
+    <row r="161" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="97"/>
+      <c r="C161" s="105"/>
+      <c r="D161" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G161" s="4">
+        <v>3</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="70"/>
+      <c r="K161" s="70"/>
+      <c r="L161" s="70"/>
+      <c r="M161" s="80"/>
+      <c r="N161" s="80"/>
+      <c r="O161" s="92"/>
+      <c r="P161" s="93"/>
+      <c r="Q161" s="92"/>
+      <c r="R161" s="92"/>
+      <c r="S161" s="92"/>
+      <c r="T161" s="92"/>
+      <c r="U161" s="92"/>
+      <c r="V161" s="92"/>
+      <c r="W161" s="94"/>
+    </row>
+    <row r="162" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="97"/>
+      <c r="C162" s="105"/>
+      <c r="D162" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="E162" s="4" t="s">
         <v>8</v>
       </c>
@@ -8820,144 +8619,133 @@
         <v>114</v>
       </c>
       <c r="G162" s="4">
-        <v>7</v>
-      </c>
-      <c r="H162" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I162" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="70">
-        <v>0</v>
-      </c>
-      <c r="K162" s="70">
-        <v>0</v>
-      </c>
-      <c r="L162" s="70">
-        <v>0</v>
-      </c>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="17"/>
-      <c r="P162" s="16"/>
-      <c r="Q162" s="17"/>
-      <c r="R162" s="17"/>
-      <c r="S162" s="17"/>
-      <c r="T162" s="17"/>
-      <c r="U162" s="17"/>
-      <c r="V162" s="17"/>
-      <c r="W162" s="19"/>
-    </row>
-    <row r="163" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="102"/>
-      <c r="C163" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="70"/>
+      <c r="K162" s="70"/>
+      <c r="L162" s="70"/>
+      <c r="M162" s="80"/>
+      <c r="N162" s="80"/>
+      <c r="O162" s="92"/>
+      <c r="P162" s="93"/>
+      <c r="Q162" s="92"/>
+      <c r="R162" s="92"/>
+      <c r="S162" s="92"/>
+      <c r="T162" s="92"/>
+      <c r="U162" s="92"/>
+      <c r="V162" s="92"/>
+      <c r="W162" s="94"/>
+    </row>
+    <row r="163" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="97"/>
+      <c r="C163" s="105"/>
+      <c r="D163" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G163" s="24">
-        <v>7</v>
-      </c>
-      <c r="H163" s="24">
+      <c r="G163" s="4">
+        <v>2</v>
+      </c>
+      <c r="H163" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I163" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="70">
+        <v>0</v>
+      </c>
+      <c r="K163" s="70">
+        <v>0</v>
+      </c>
+      <c r="L163" s="70">
+        <v>0</v>
+      </c>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="16"/>
+      <c r="Q163" s="17"/>
+      <c r="R163" s="17"/>
+      <c r="S163" s="17"/>
+      <c r="T163" s="17"/>
+      <c r="U163" s="17"/>
+      <c r="V163" s="17"/>
+      <c r="W163" s="19"/>
+    </row>
+    <row r="164" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="97"/>
+      <c r="C164" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G164" s="4">
+        <v>3</v>
+      </c>
+      <c r="H164" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I164" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="70">
+        <v>0</v>
+      </c>
+      <c r="K164" s="70">
+        <v>0</v>
+      </c>
+      <c r="L164" s="70">
+        <v>0</v>
+      </c>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="16"/>
+      <c r="Q164" s="17"/>
+      <c r="R164" s="17"/>
+      <c r="S164" s="17"/>
+      <c r="T164" s="17"/>
+      <c r="U164" s="17"/>
+      <c r="V164" s="17"/>
+      <c r="W164" s="19"/>
+    </row>
+    <row r="165" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="97"/>
+      <c r="C165" s="105"/>
+      <c r="D165" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G165" s="4">
+        <v>3</v>
+      </c>
+      <c r="H165" s="4">
         <v>0.5</v>
       </c>
-      <c r="I163" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="71">
-        <v>0</v>
-      </c>
-      <c r="K163" s="71">
-        <v>0</v>
-      </c>
-      <c r="L163" s="71">
-        <v>0</v>
-      </c>
-      <c r="M163" s="24"/>
-      <c r="N163" s="24"/>
-      <c r="O163" s="22"/>
-      <c r="P163" s="21"/>
-      <c r="Q163" s="22"/>
-      <c r="R163" s="22"/>
-      <c r="S163" s="22"/>
-      <c r="T163" s="22"/>
-      <c r="U163" s="22"/>
-      <c r="V163" s="22"/>
-      <c r="W163" s="25"/>
-    </row>
-    <row r="164" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="C164" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F164" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="G164" s="39">
-        <v>5</v>
-      </c>
-      <c r="H164" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="I164" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="69">
-        <v>0</v>
-      </c>
-      <c r="K164" s="69">
-        <v>0</v>
-      </c>
-      <c r="L164" s="69">
-        <v>0</v>
-      </c>
-      <c r="M164" s="39"/>
-      <c r="N164" s="39"/>
-      <c r="O164" s="51"/>
-      <c r="P164" s="41"/>
-      <c r="Q164" s="51"/>
-      <c r="R164" s="51"/>
-      <c r="S164" s="51"/>
-      <c r="T164" s="51"/>
-      <c r="U164" s="51"/>
-      <c r="V164" s="51"/>
-      <c r="W164" s="52"/>
-    </row>
-    <row r="165" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="101"/>
-      <c r="C165" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F165" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="G165" s="4">
-        <v>7</v>
-      </c>
-      <c r="H165" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I165" s="58">
-        <f t="shared" si="5"/>
+      <c r="I165" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J165" s="70">
@@ -8981,26 +8769,24 @@
       <c r="V165" s="17"/>
       <c r="W165" s="19"/>
     </row>
-    <row r="166" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="101"/>
-      <c r="C166" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D166" s="4"/>
+    <row r="166" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="97"/>
+      <c r="C166" s="105"/>
+      <c r="D166" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="E166" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F166" s="67" t="s">
-        <v>113</v>
+        <v>8</v>
+      </c>
+      <c r="F166" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G166" s="4">
-        <v>7</v>
-      </c>
-      <c r="H166" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I166" s="58">
-        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H166" s="4"/>
+      <c r="I166" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J166" s="70">
@@ -9024,27 +8810,27 @@
       <c r="V166" s="17"/>
       <c r="W166" s="19"/>
     </row>
-    <row r="167" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="101"/>
-      <c r="C167" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="D167" s="4"/>
+    <row r="167" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="97"/>
+      <c r="C167" s="105"/>
+      <c r="D167" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="E167" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F167" s="67" t="s">
-        <v>113</v>
+        <v>8</v>
+      </c>
+      <c r="F167" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G167" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H167" s="4">
         <v>0.1</v>
       </c>
-      <c r="I167" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I167" s="6">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
       <c r="J167" s="70">
         <v>0</v>
@@ -9055,212 +8841,192 @@
       <c r="L167" s="70">
         <v>0</v>
       </c>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="17"/>
-      <c r="P167" s="16"/>
-      <c r="Q167" s="17"/>
-      <c r="R167" s="17"/>
-      <c r="S167" s="17"/>
-      <c r="T167" s="17"/>
-      <c r="U167" s="17"/>
-      <c r="V167" s="17"/>
-      <c r="W167" s="19"/>
-    </row>
-    <row r="168" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="101"/>
-      <c r="C168" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D168" s="4"/>
+      <c r="M167" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N167" s="80"/>
+      <c r="O167" s="92"/>
+      <c r="P167" s="93"/>
+      <c r="Q167" s="92"/>
+      <c r="R167" s="92"/>
+      <c r="S167" s="92"/>
+      <c r="T167" s="92"/>
+      <c r="U167" s="92"/>
+      <c r="V167" s="92"/>
+      <c r="W167" s="94"/>
+    </row>
+    <row r="168" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="97"/>
+      <c r="C168" s="105"/>
+      <c r="D168" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E168" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F168" s="67" t="s">
-        <v>113</v>
+        <v>8</v>
+      </c>
+      <c r="F168" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G168" s="4">
-        <v>7</v>
-      </c>
-      <c r="H168" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I168" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="70">
-        <v>0</v>
-      </c>
-      <c r="K168" s="70">
-        <v>0</v>
-      </c>
-      <c r="L168" s="70">
-        <v>0</v>
-      </c>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="17"/>
-      <c r="P168" s="16"/>
-      <c r="Q168" s="17"/>
-      <c r="R168" s="17"/>
-      <c r="S168" s="17"/>
-      <c r="T168" s="17"/>
-      <c r="U168" s="17"/>
-      <c r="V168" s="17"/>
-      <c r="W168" s="19"/>
-    </row>
-    <row r="169" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="101"/>
-      <c r="C169" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="D169" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="70"/>
+      <c r="K168" s="70"/>
+      <c r="L168" s="70"/>
+      <c r="M168" s="80"/>
+      <c r="N168" s="80"/>
+      <c r="O168" s="92"/>
+      <c r="P168" s="93"/>
+      <c r="Q168" s="92"/>
+      <c r="R168" s="92"/>
+      <c r="S168" s="92"/>
+      <c r="T168" s="92"/>
+      <c r="U168" s="92"/>
+      <c r="V168" s="92"/>
+      <c r="W168" s="94"/>
+    </row>
+    <row r="169" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="97"/>
+      <c r="C169" s="105"/>
+      <c r="D169" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="E169" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F169" s="67" t="s">
-        <v>113</v>
+        <v>8</v>
+      </c>
+      <c r="F169" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G169" s="4">
-        <v>7</v>
-      </c>
-      <c r="H169" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I169" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J169" s="70">
-        <v>0</v>
-      </c>
-      <c r="K169" s="70">
-        <v>0</v>
-      </c>
-      <c r="L169" s="70">
-        <v>0</v>
-      </c>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="17"/>
-      <c r="P169" s="16"/>
-      <c r="Q169" s="17"/>
-      <c r="R169" s="17"/>
-      <c r="S169" s="17"/>
-      <c r="T169" s="17"/>
-      <c r="U169" s="17"/>
-      <c r="V169" s="17"/>
-      <c r="W169" s="19"/>
-    </row>
-    <row r="170" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="102"/>
-      <c r="C170" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F170" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G170" s="24">
-        <v>7</v>
-      </c>
-      <c r="H170" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="I170" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="71">
-        <v>0</v>
-      </c>
-      <c r="K170" s="71">
-        <v>0</v>
-      </c>
-      <c r="L170" s="71">
-        <v>0</v>
-      </c>
-      <c r="M170" s="24"/>
-      <c r="N170" s="24"/>
-      <c r="O170" s="22"/>
-      <c r="P170" s="21"/>
-      <c r="Q170" s="22"/>
-      <c r="R170" s="22"/>
-      <c r="S170" s="22"/>
-      <c r="T170" s="22"/>
-      <c r="U170" s="22"/>
-      <c r="V170" s="22"/>
-      <c r="W170" s="25"/>
-    </row>
-    <row r="171" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C171" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="G171" s="39">
         <v>3</v>
       </c>
-      <c r="H171" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="I171" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="69">
-        <v>0</v>
-      </c>
-      <c r="K171" s="69">
-        <v>0</v>
-      </c>
-      <c r="L171" s="69">
-        <v>0</v>
-      </c>
-      <c r="M171" s="39"/>
-      <c r="N171" s="39"/>
-      <c r="O171" s="51"/>
-      <c r="P171" s="41"/>
-      <c r="Q171" s="51"/>
-      <c r="R171" s="51"/>
-      <c r="S171" s="51"/>
-      <c r="T171" s="51"/>
-      <c r="U171" s="51"/>
-      <c r="V171" s="51"/>
-      <c r="W171" s="52"/>
-    </row>
-    <row r="172" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="101"/>
-      <c r="C172" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D172" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="70"/>
+      <c r="K169" s="70"/>
+      <c r="L169" s="70"/>
+      <c r="M169" s="80"/>
+      <c r="N169" s="80"/>
+      <c r="O169" s="92"/>
+      <c r="P169" s="93"/>
+      <c r="Q169" s="92"/>
+      <c r="R169" s="92"/>
+      <c r="S169" s="92"/>
+      <c r="T169" s="92"/>
+      <c r="U169" s="92"/>
+      <c r="V169" s="92"/>
+      <c r="W169" s="94"/>
+    </row>
+    <row r="170" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="97"/>
+      <c r="C170" s="105"/>
+      <c r="D170" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G170" s="4">
+        <v>2</v>
+      </c>
+      <c r="H170" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I170" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="70">
+        <v>0</v>
+      </c>
+      <c r="K170" s="70">
+        <v>0</v>
+      </c>
+      <c r="L170" s="70">
+        <v>0</v>
+      </c>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="17"/>
+      <c r="P170" s="16"/>
+      <c r="Q170" s="17"/>
+      <c r="R170" s="17"/>
+      <c r="S170" s="17"/>
+      <c r="T170" s="17"/>
+      <c r="U170" s="17"/>
+      <c r="V170" s="17"/>
+      <c r="W170" s="19"/>
+    </row>
+    <row r="171" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="97"/>
+      <c r="C171" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G171" s="4">
+        <v>3</v>
+      </c>
+      <c r="H171" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I171" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="70">
+        <v>0</v>
+      </c>
+      <c r="K171" s="70">
+        <v>0</v>
+      </c>
+      <c r="L171" s="70">
+        <v>0</v>
+      </c>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="17"/>
+      <c r="P171" s="16"/>
+      <c r="Q171" s="17"/>
+      <c r="R171" s="17"/>
+      <c r="S171" s="17"/>
+      <c r="T171" s="17"/>
+      <c r="U171" s="17"/>
+      <c r="V171" s="17"/>
+      <c r="W171" s="19"/>
+    </row>
+    <row r="172" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="97"/>
+      <c r="C172" s="105"/>
+      <c r="D172" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E172" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F172" s="74" t="s">
-        <v>109</v>
+      <c r="F172" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G172" s="4">
         <v>3</v>
       </c>
       <c r="H172" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I172" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J172" s="70">
@@ -9284,26 +9050,24 @@
       <c r="V172" s="17"/>
       <c r="W172" s="19"/>
     </row>
-    <row r="173" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="101"/>
-      <c r="C173" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D173" s="4"/>
+    <row r="173" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="97"/>
+      <c r="C173" s="105"/>
+      <c r="D173" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="E173" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F173" s="74" t="s">
-        <v>109</v>
+      <c r="F173" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G173" s="4">
         <v>3</v>
       </c>
-      <c r="H173" s="4">
-        <v>0.4</v>
-      </c>
+      <c r="H173" s="4"/>
       <c r="I173" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J173" s="70">
@@ -9327,227 +9091,209 @@
       <c r="V173" s="17"/>
       <c r="W173" s="19"/>
     </row>
-    <row r="174" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="101"/>
-      <c r="C174" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D174" s="4"/>
+    <row r="174" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="97"/>
+      <c r="C174" s="105"/>
+      <c r="D174" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="E174" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F174" s="74" t="s">
-        <v>109</v>
+      <c r="F174" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="G174" s="4">
+        <v>1</v>
+      </c>
+      <c r="H174" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I174" s="6">
+        <f t="shared" ref="I174" si="4">SUM(J174:W174)</f>
+        <v>0.02</v>
+      </c>
+      <c r="J174" s="70">
+        <v>0</v>
+      </c>
+      <c r="K174" s="70">
+        <v>0</v>
+      </c>
+      <c r="L174" s="70">
+        <v>0</v>
+      </c>
+      <c r="M174" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="N174" s="80"/>
+      <c r="O174" s="92"/>
+      <c r="P174" s="93"/>
+      <c r="Q174" s="92"/>
+      <c r="R174" s="92"/>
+      <c r="S174" s="92"/>
+      <c r="T174" s="92"/>
+      <c r="U174" s="92"/>
+      <c r="V174" s="92"/>
+      <c r="W174" s="94"/>
+    </row>
+    <row r="175" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="104"/>
+      <c r="C175" s="125"/>
+      <c r="D175" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G175" s="8">
         <v>3</v>
       </c>
-      <c r="H174" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="I174" s="6">
+      <c r="H175" s="8"/>
+      <c r="I175" s="58"/>
+      <c r="J175" s="72"/>
+      <c r="K175" s="72"/>
+      <c r="L175" s="72"/>
+      <c r="M175" s="126"/>
+      <c r="N175" s="126"/>
+      <c r="O175" s="127"/>
+      <c r="P175" s="128"/>
+      <c r="Q175" s="127"/>
+      <c r="R175" s="127"/>
+      <c r="S175" s="127"/>
+      <c r="T175" s="127"/>
+      <c r="U175" s="127"/>
+      <c r="V175" s="127"/>
+      <c r="W175" s="129"/>
+    </row>
+    <row r="176" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="104"/>
+      <c r="C176" s="125"/>
+      <c r="D176" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G176" s="8">
+        <v>3</v>
+      </c>
+      <c r="H176" s="8"/>
+      <c r="I176" s="58"/>
+      <c r="J176" s="72"/>
+      <c r="K176" s="72"/>
+      <c r="L176" s="72"/>
+      <c r="M176" s="126"/>
+      <c r="N176" s="126"/>
+      <c r="O176" s="127"/>
+      <c r="P176" s="128"/>
+      <c r="Q176" s="127"/>
+      <c r="R176" s="127"/>
+      <c r="S176" s="127"/>
+      <c r="T176" s="127"/>
+      <c r="U176" s="127"/>
+      <c r="V176" s="127"/>
+      <c r="W176" s="129"/>
+    </row>
+    <row r="177" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="98"/>
+      <c r="C177" s="108"/>
+      <c r="D177" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G177" s="24">
+        <v>2</v>
+      </c>
+      <c r="H177" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="I177" s="20">
+        <f t="shared" ref="I177:I211" si="5">SUM(J177:W177)</f>
+        <v>0</v>
+      </c>
+      <c r="J177" s="71">
+        <v>0</v>
+      </c>
+      <c r="K177" s="71">
+        <v>0</v>
+      </c>
+      <c r="L177" s="71">
+        <v>0</v>
+      </c>
+      <c r="M177" s="24"/>
+      <c r="N177" s="24"/>
+      <c r="O177" s="22"/>
+      <c r="P177" s="21"/>
+      <c r="Q177" s="22"/>
+      <c r="R177" s="22"/>
+      <c r="S177" s="22"/>
+      <c r="T177" s="22"/>
+      <c r="U177" s="22"/>
+      <c r="V177" s="22"/>
+      <c r="W177" s="25"/>
+    </row>
+    <row r="178" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="G178" s="39">
+        <v>3</v>
+      </c>
+      <c r="H178" s="39">
+        <v>3</v>
+      </c>
+      <c r="I178" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J174" s="70">
-        <v>0</v>
-      </c>
-      <c r="K174" s="70">
-        <v>0</v>
-      </c>
-      <c r="L174" s="70">
-        <v>0</v>
-      </c>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="17"/>
-      <c r="P174" s="16"/>
-      <c r="Q174" s="17"/>
-      <c r="R174" s="17"/>
-      <c r="S174" s="17"/>
-      <c r="T174" s="17"/>
-      <c r="U174" s="17"/>
-      <c r="V174" s="17"/>
-      <c r="W174" s="19"/>
-    </row>
-    <row r="175" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="101"/>
-      <c r="C175" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="G175" s="4">
-        <v>3</v>
-      </c>
-      <c r="H175" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="I175" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J175" s="70">
-        <v>0</v>
-      </c>
-      <c r="K175" s="70">
-        <v>0</v>
-      </c>
-      <c r="L175" s="70">
-        <v>0</v>
-      </c>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="17"/>
-      <c r="P175" s="16"/>
-      <c r="Q175" s="17"/>
-      <c r="R175" s="17"/>
-      <c r="S175" s="17"/>
-      <c r="T175" s="17"/>
-      <c r="U175" s="17"/>
-      <c r="V175" s="17"/>
-      <c r="W175" s="19"/>
-    </row>
-    <row r="176" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="101"/>
-      <c r="C176" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="G176" s="4">
-        <v>3</v>
-      </c>
-      <c r="H176" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="I176" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="70">
-        <v>0</v>
-      </c>
-      <c r="K176" s="70">
-        <v>0</v>
-      </c>
-      <c r="L176" s="70">
-        <v>0</v>
-      </c>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="17"/>
-      <c r="P176" s="16"/>
-      <c r="Q176" s="17"/>
-      <c r="R176" s="17"/>
-      <c r="S176" s="17"/>
-      <c r="T176" s="17"/>
-      <c r="U176" s="17"/>
-      <c r="V176" s="17"/>
-      <c r="W176" s="19"/>
-    </row>
-    <row r="177" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="101"/>
-      <c r="C177" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="G177" s="4">
-        <v>5</v>
-      </c>
-      <c r="H177" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="I177" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="70">
-        <v>0</v>
-      </c>
-      <c r="K177" s="70">
-        <v>0</v>
-      </c>
-      <c r="L177" s="70">
-        <v>0</v>
-      </c>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="17"/>
-      <c r="P177" s="16"/>
-      <c r="Q177" s="17"/>
-      <c r="R177" s="17"/>
-      <c r="S177" s="17"/>
-      <c r="T177" s="17"/>
-      <c r="U177" s="17"/>
-      <c r="V177" s="17"/>
-      <c r="W177" s="19"/>
-    </row>
-    <row r="178" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="101"/>
-      <c r="C178" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F178" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="G178" s="4">
-        <v>5</v>
-      </c>
-      <c r="H178" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I178" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="70">
-        <v>0</v>
-      </c>
-      <c r="K178" s="70">
-        <v>0</v>
-      </c>
-      <c r="L178" s="70">
-        <v>0</v>
-      </c>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="17"/>
-      <c r="P178" s="16"/>
-      <c r="Q178" s="17"/>
-      <c r="R178" s="17"/>
-      <c r="S178" s="17"/>
-      <c r="T178" s="17"/>
-      <c r="U178" s="17"/>
-      <c r="V178" s="17"/>
-      <c r="W178" s="19"/>
-    </row>
-    <row r="179" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="101"/>
+      <c r="J178" s="69">
+        <v>0</v>
+      </c>
+      <c r="K178" s="69">
+        <v>0</v>
+      </c>
+      <c r="L178" s="69">
+        <v>0</v>
+      </c>
+      <c r="M178" s="39"/>
+      <c r="N178" s="39"/>
+      <c r="O178" s="51"/>
+      <c r="P178" s="41"/>
+      <c r="Q178" s="51"/>
+      <c r="R178" s="51"/>
+      <c r="S178" s="51"/>
+      <c r="T178" s="51"/>
+      <c r="U178" s="51"/>
+      <c r="V178" s="51"/>
+      <c r="W178" s="52"/>
+    </row>
+    <row r="179" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="97"/>
       <c r="C179" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D179" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
         <v>8</v>
       </c>
@@ -9558,7 +9304,7 @@
         <v>3</v>
       </c>
       <c r="H179" s="4">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I179" s="6">
         <f t="shared" si="5"/>
@@ -9585,35 +9331,35 @@
       <c r="V179" s="17"/>
       <c r="W179" s="19"/>
     </row>
-    <row r="180" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="101"/>
+    <row r="180" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="97"/>
       <c r="C180" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D180" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F180" s="67" t="s">
-        <v>113</v>
+      <c r="F180" s="74" t="s">
+        <v>109</v>
       </c>
       <c r="G180" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H180" s="4">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="I180" s="6">
         <f t="shared" si="5"/>
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="J180" s="70">
         <v>0</v>
       </c>
-      <c r="K180" s="80">
-        <v>1.85</v>
-      </c>
-      <c r="L180" s="80">
+      <c r="K180" s="70">
+        <v>0</v>
+      </c>
+      <c r="L180" s="70">
         <v>0</v>
       </c>
       <c r="M180" s="4"/>
@@ -9628,12 +9374,12 @@
       <c r="V180" s="17"/>
       <c r="W180" s="19"/>
     </row>
-    <row r="181" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="101"/>
+    <row r="181" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="97"/>
       <c r="C181" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D181" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
         <v>8</v>
       </c>
@@ -9641,10 +9387,10 @@
         <v>109</v>
       </c>
       <c r="G181" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181" s="4">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="I181" s="6">
         <f t="shared" si="5"/>
@@ -9671,344 +9417,1733 @@
       <c r="V181" s="17"/>
       <c r="W181" s="19"/>
     </row>
-    <row r="182" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="120" t="s">
+    <row r="182" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="97"/>
+      <c r="C182" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G182" s="4">
+        <v>3</v>
+      </c>
+      <c r="H182" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I182" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="70">
+        <v>0</v>
+      </c>
+      <c r="K182" s="70">
+        <v>0</v>
+      </c>
+      <c r="L182" s="70">
+        <v>0</v>
+      </c>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="17"/>
+      <c r="P182" s="16"/>
+      <c r="Q182" s="17"/>
+      <c r="R182" s="17"/>
+      <c r="S182" s="17"/>
+      <c r="T182" s="17"/>
+      <c r="U182" s="17"/>
+      <c r="V182" s="17"/>
+      <c r="W182" s="19"/>
+    </row>
+    <row r="183" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="97"/>
+      <c r="C183" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G183" s="4">
+        <v>3</v>
+      </c>
+      <c r="H183" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I183" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="70">
+        <v>0</v>
+      </c>
+      <c r="K183" s="70">
+        <v>0</v>
+      </c>
+      <c r="L183" s="70">
+        <v>0</v>
+      </c>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="17"/>
+      <c r="P183" s="16"/>
+      <c r="Q183" s="17"/>
+      <c r="R183" s="17"/>
+      <c r="S183" s="17"/>
+      <c r="T183" s="17"/>
+      <c r="U183" s="17"/>
+      <c r="V183" s="17"/>
+      <c r="W183" s="19"/>
+    </row>
+    <row r="184" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="97"/>
+      <c r="C184" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G184" s="4">
+        <v>3</v>
+      </c>
+      <c r="H184" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I184" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="70">
+        <v>0</v>
+      </c>
+      <c r="K184" s="70">
+        <v>0</v>
+      </c>
+      <c r="L184" s="70">
+        <v>0</v>
+      </c>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="17"/>
+      <c r="P184" s="16"/>
+      <c r="Q184" s="17"/>
+      <c r="R184" s="17"/>
+      <c r="S184" s="17"/>
+      <c r="T184" s="17"/>
+      <c r="U184" s="17"/>
+      <c r="V184" s="17"/>
+      <c r="W184" s="19"/>
+    </row>
+    <row r="185" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="97"/>
+      <c r="C185" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G185" s="4">
+        <v>3</v>
+      </c>
+      <c r="H185" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I185" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="70">
+        <v>0</v>
+      </c>
+      <c r="K185" s="70">
+        <v>0</v>
+      </c>
+      <c r="L185" s="70">
+        <v>0</v>
+      </c>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="17"/>
+      <c r="P185" s="16"/>
+      <c r="Q185" s="17"/>
+      <c r="R185" s="17"/>
+      <c r="S185" s="17"/>
+      <c r="T185" s="17"/>
+      <c r="U185" s="17"/>
+      <c r="V185" s="17"/>
+      <c r="W185" s="19"/>
+    </row>
+    <row r="186" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="97"/>
+      <c r="C186" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G186" s="4">
+        <v>2</v>
+      </c>
+      <c r="H186" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I186" s="6">
+        <f t="shared" si="5"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J186" s="70">
+        <v>0</v>
+      </c>
+      <c r="K186" s="70">
+        <v>0</v>
+      </c>
+      <c r="L186" s="70">
+        <v>0</v>
+      </c>
+      <c r="M186" s="80">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N186" s="80">
+        <v>0</v>
+      </c>
+      <c r="O186" s="80">
+        <v>0</v>
+      </c>
+      <c r="P186" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="80">
+        <v>0</v>
+      </c>
+      <c r="R186" s="80">
+        <v>0</v>
+      </c>
+      <c r="S186" s="80">
+        <v>0</v>
+      </c>
+      <c r="T186" s="80">
+        <v>0</v>
+      </c>
+      <c r="U186" s="80">
+        <v>0</v>
+      </c>
+      <c r="V186" s="80">
+        <v>0</v>
+      </c>
+      <c r="W186" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="97"/>
+      <c r="C187" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G187" s="4">
+        <v>2</v>
+      </c>
+      <c r="H187" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I187" s="6">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="J187" s="70">
+        <v>0</v>
+      </c>
+      <c r="K187" s="70">
+        <v>0</v>
+      </c>
+      <c r="L187" s="70">
+        <v>0</v>
+      </c>
+      <c r="M187" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="N187" s="80">
+        <v>0</v>
+      </c>
+      <c r="O187" s="80">
+        <v>0</v>
+      </c>
+      <c r="P187" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="80">
+        <v>0</v>
+      </c>
+      <c r="R187" s="80">
+        <v>0</v>
+      </c>
+      <c r="S187" s="80">
+        <v>0</v>
+      </c>
+      <c r="T187" s="80">
+        <v>0</v>
+      </c>
+      <c r="U187" s="80">
+        <v>0</v>
+      </c>
+      <c r="V187" s="80">
+        <v>0</v>
+      </c>
+      <c r="W187" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="97"/>
+      <c r="C188" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G188" s="4">
+        <v>3</v>
+      </c>
+      <c r="H188" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I188" s="6">
+        <f t="shared" si="5"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J188" s="70">
+        <v>0</v>
+      </c>
+      <c r="K188" s="70">
+        <v>0</v>
+      </c>
+      <c r="L188" s="70">
+        <v>0</v>
+      </c>
+      <c r="M188" s="80">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N188" s="80">
+        <v>0</v>
+      </c>
+      <c r="O188" s="80">
+        <v>0</v>
+      </c>
+      <c r="P188" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="80">
+        <v>0</v>
+      </c>
+      <c r="R188" s="80">
+        <v>0</v>
+      </c>
+      <c r="S188" s="80">
+        <v>0</v>
+      </c>
+      <c r="T188" s="80">
+        <v>0</v>
+      </c>
+      <c r="U188" s="80">
+        <v>0</v>
+      </c>
+      <c r="V188" s="80">
+        <v>0</v>
+      </c>
+      <c r="W188" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="97"/>
+      <c r="C189" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G189" s="4">
+        <v>2</v>
+      </c>
+      <c r="H189" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I189" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="70">
+        <v>0</v>
+      </c>
+      <c r="K189" s="70">
+        <v>0</v>
+      </c>
+      <c r="L189" s="70">
+        <v>0</v>
+      </c>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="17"/>
+      <c r="P189" s="16"/>
+      <c r="Q189" s="17"/>
+      <c r="R189" s="17"/>
+      <c r="S189" s="17"/>
+      <c r="T189" s="17"/>
+      <c r="U189" s="17"/>
+      <c r="V189" s="17"/>
+      <c r="W189" s="19"/>
+    </row>
+    <row r="190" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="98"/>
+      <c r="C190" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G190" s="24">
+        <v>4</v>
+      </c>
+      <c r="H190" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="I190" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="71">
+        <v>0</v>
+      </c>
+      <c r="K190" s="71">
+        <v>0</v>
+      </c>
+      <c r="L190" s="71">
+        <v>0</v>
+      </c>
+      <c r="M190" s="24"/>
+      <c r="N190" s="24"/>
+      <c r="O190" s="22"/>
+      <c r="P190" s="21"/>
+      <c r="Q190" s="22"/>
+      <c r="R190" s="22"/>
+      <c r="S190" s="22"/>
+      <c r="T190" s="22"/>
+      <c r="U190" s="22"/>
+      <c r="V190" s="22"/>
+      <c r="W190" s="25"/>
+    </row>
+    <row r="191" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C191" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D191" s="39"/>
+      <c r="E191" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="G191" s="39">
+        <v>7</v>
+      </c>
+      <c r="H191" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="I191" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J191" s="69">
+        <v>0</v>
+      </c>
+      <c r="K191" s="69">
+        <v>0</v>
+      </c>
+      <c r="L191" s="69">
+        <v>0</v>
+      </c>
+      <c r="M191" s="39"/>
+      <c r="N191" s="39"/>
+      <c r="O191" s="51"/>
+      <c r="P191" s="41"/>
+      <c r="Q191" s="51"/>
+      <c r="R191" s="51"/>
+      <c r="S191" s="51"/>
+      <c r="T191" s="51"/>
+      <c r="U191" s="51"/>
+      <c r="V191" s="51"/>
+      <c r="W191" s="52"/>
+    </row>
+    <row r="192" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="97"/>
+      <c r="C192" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G192" s="4">
+        <v>7</v>
+      </c>
+      <c r="H192" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I192" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J192" s="70">
+        <v>0</v>
+      </c>
+      <c r="K192" s="70">
+        <v>0</v>
+      </c>
+      <c r="L192" s="70">
+        <v>0</v>
+      </c>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="17"/>
+      <c r="P192" s="16"/>
+      <c r="Q192" s="17"/>
+      <c r="R192" s="17"/>
+      <c r="S192" s="17"/>
+      <c r="T192" s="17"/>
+      <c r="U192" s="17"/>
+      <c r="V192" s="17"/>
+      <c r="W192" s="19"/>
+    </row>
+    <row r="193" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="98"/>
+      <c r="C193" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G193" s="24">
+        <v>7</v>
+      </c>
+      <c r="H193" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I193" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J193" s="71">
+        <v>0</v>
+      </c>
+      <c r="K193" s="71">
+        <v>0</v>
+      </c>
+      <c r="L193" s="71">
+        <v>0</v>
+      </c>
+      <c r="M193" s="24"/>
+      <c r="N193" s="24"/>
+      <c r="O193" s="22"/>
+      <c r="P193" s="21"/>
+      <c r="Q193" s="22"/>
+      <c r="R193" s="22"/>
+      <c r="S193" s="22"/>
+      <c r="T193" s="22"/>
+      <c r="U193" s="22"/>
+      <c r="V193" s="22"/>
+      <c r="W193" s="25"/>
+    </row>
+    <row r="194" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C194" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F194" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G194" s="39">
+        <v>5</v>
+      </c>
+      <c r="H194" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="I194" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J194" s="69">
+        <v>0</v>
+      </c>
+      <c r="K194" s="69">
+        <v>0</v>
+      </c>
+      <c r="L194" s="69">
+        <v>0</v>
+      </c>
+      <c r="M194" s="39"/>
+      <c r="N194" s="39"/>
+      <c r="O194" s="51"/>
+      <c r="P194" s="41"/>
+      <c r="Q194" s="51"/>
+      <c r="R194" s="51"/>
+      <c r="S194" s="51"/>
+      <c r="T194" s="51"/>
+      <c r="U194" s="51"/>
+      <c r="V194" s="51"/>
+      <c r="W194" s="52"/>
+    </row>
+    <row r="195" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="97"/>
+      <c r="C195" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F195" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G195" s="4">
+        <v>7</v>
+      </c>
+      <c r="H195" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I195" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J195" s="70">
+        <v>0</v>
+      </c>
+      <c r="K195" s="70">
+        <v>0</v>
+      </c>
+      <c r="L195" s="70">
+        <v>0</v>
+      </c>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="17"/>
+      <c r="P195" s="16"/>
+      <c r="Q195" s="17"/>
+      <c r="R195" s="17"/>
+      <c r="S195" s="17"/>
+      <c r="T195" s="17"/>
+      <c r="U195" s="17"/>
+      <c r="V195" s="17"/>
+      <c r="W195" s="19"/>
+    </row>
+    <row r="196" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="97"/>
+      <c r="C196" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F196" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G196" s="4">
+        <v>7</v>
+      </c>
+      <c r="H196" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I196" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J196" s="70">
+        <v>0</v>
+      </c>
+      <c r="K196" s="70">
+        <v>0</v>
+      </c>
+      <c r="L196" s="70">
+        <v>0</v>
+      </c>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="17"/>
+      <c r="P196" s="16"/>
+      <c r="Q196" s="17"/>
+      <c r="R196" s="17"/>
+      <c r="S196" s="17"/>
+      <c r="T196" s="17"/>
+      <c r="U196" s="17"/>
+      <c r="V196" s="17"/>
+      <c r="W196" s="19"/>
+    </row>
+    <row r="197" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="97"/>
+      <c r="C197" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F197" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G197" s="4">
+        <v>7</v>
+      </c>
+      <c r="H197" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I197" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J197" s="70">
+        <v>0</v>
+      </c>
+      <c r="K197" s="70">
+        <v>0</v>
+      </c>
+      <c r="L197" s="70">
+        <v>0</v>
+      </c>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="17"/>
+      <c r="P197" s="16"/>
+      <c r="Q197" s="17"/>
+      <c r="R197" s="17"/>
+      <c r="S197" s="17"/>
+      <c r="T197" s="17"/>
+      <c r="U197" s="17"/>
+      <c r="V197" s="17"/>
+      <c r="W197" s="19"/>
+    </row>
+    <row r="198" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="97"/>
+      <c r="C198" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F198" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G198" s="4">
+        <v>7</v>
+      </c>
+      <c r="H198" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I198" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J198" s="70">
+        <v>0</v>
+      </c>
+      <c r="K198" s="70">
+        <v>0</v>
+      </c>
+      <c r="L198" s="70">
+        <v>0</v>
+      </c>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="17"/>
+      <c r="P198" s="16"/>
+      <c r="Q198" s="17"/>
+      <c r="R198" s="17"/>
+      <c r="S198" s="17"/>
+      <c r="T198" s="17"/>
+      <c r="U198" s="17"/>
+      <c r="V198" s="17"/>
+      <c r="W198" s="19"/>
+    </row>
+    <row r="199" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="97"/>
+      <c r="C199" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F199" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G199" s="4">
+        <v>7</v>
+      </c>
+      <c r="H199" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I199" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J199" s="70">
+        <v>0</v>
+      </c>
+      <c r="K199" s="70">
+        <v>0</v>
+      </c>
+      <c r="L199" s="70">
+        <v>0</v>
+      </c>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="17"/>
+      <c r="P199" s="16"/>
+      <c r="Q199" s="17"/>
+      <c r="R199" s="17"/>
+      <c r="S199" s="17"/>
+      <c r="T199" s="17"/>
+      <c r="U199" s="17"/>
+      <c r="V199" s="17"/>
+      <c r="W199" s="19"/>
+    </row>
+    <row r="200" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="98"/>
+      <c r="C200" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F200" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G200" s="24">
+        <v>7</v>
+      </c>
+      <c r="H200" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="I200" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J200" s="71">
+        <v>0</v>
+      </c>
+      <c r="K200" s="71">
+        <v>0</v>
+      </c>
+      <c r="L200" s="71">
+        <v>0</v>
+      </c>
+      <c r="M200" s="24"/>
+      <c r="N200" s="24"/>
+      <c r="O200" s="22"/>
+      <c r="P200" s="21"/>
+      <c r="Q200" s="22"/>
+      <c r="R200" s="22"/>
+      <c r="S200" s="22"/>
+      <c r="T200" s="22"/>
+      <c r="U200" s="22"/>
+      <c r="V200" s="22"/>
+      <c r="W200" s="25"/>
+    </row>
+    <row r="201" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G201" s="39">
+        <v>3</v>
+      </c>
+      <c r="H201" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="I201" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J201" s="69">
+        <v>0</v>
+      </c>
+      <c r="K201" s="69">
+        <v>0</v>
+      </c>
+      <c r="L201" s="69">
+        <v>0</v>
+      </c>
+      <c r="M201" s="39"/>
+      <c r="N201" s="39"/>
+      <c r="O201" s="51"/>
+      <c r="P201" s="41"/>
+      <c r="Q201" s="51"/>
+      <c r="R201" s="51"/>
+      <c r="S201" s="51"/>
+      <c r="T201" s="51"/>
+      <c r="U201" s="51"/>
+      <c r="V201" s="51"/>
+      <c r="W201" s="52"/>
+    </row>
+    <row r="202" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="97"/>
+      <c r="C202" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G202" s="4">
+        <v>3</v>
+      </c>
+      <c r="H202" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I202" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J202" s="70">
+        <v>0</v>
+      </c>
+      <c r="K202" s="70">
+        <v>0</v>
+      </c>
+      <c r="L202" s="70">
+        <v>0</v>
+      </c>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="17"/>
+      <c r="P202" s="16"/>
+      <c r="Q202" s="17"/>
+      <c r="R202" s="17"/>
+      <c r="S202" s="17"/>
+      <c r="T202" s="17"/>
+      <c r="U202" s="17"/>
+      <c r="V202" s="17"/>
+      <c r="W202" s="19"/>
+    </row>
+    <row r="203" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="97"/>
+      <c r="C203" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G203" s="4">
+        <v>3</v>
+      </c>
+      <c r="H203" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I203" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J203" s="70">
+        <v>0</v>
+      </c>
+      <c r="K203" s="70">
+        <v>0</v>
+      </c>
+      <c r="L203" s="70">
+        <v>0</v>
+      </c>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="17"/>
+      <c r="P203" s="16"/>
+      <c r="Q203" s="17"/>
+      <c r="R203" s="17"/>
+      <c r="S203" s="17"/>
+      <c r="T203" s="17"/>
+      <c r="U203" s="17"/>
+      <c r="V203" s="17"/>
+      <c r="W203" s="19"/>
+    </row>
+    <row r="204" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="97"/>
+      <c r="C204" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G204" s="4">
+        <v>3</v>
+      </c>
+      <c r="H204" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I204" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J204" s="70">
+        <v>0</v>
+      </c>
+      <c r="K204" s="70">
+        <v>0</v>
+      </c>
+      <c r="L204" s="70">
+        <v>0</v>
+      </c>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="17"/>
+      <c r="P204" s="16"/>
+      <c r="Q204" s="17"/>
+      <c r="R204" s="17"/>
+      <c r="S204" s="17"/>
+      <c r="T204" s="17"/>
+      <c r="U204" s="17"/>
+      <c r="V204" s="17"/>
+      <c r="W204" s="19"/>
+    </row>
+    <row r="205" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="97"/>
+      <c r="C205" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G205" s="4">
+        <v>3</v>
+      </c>
+      <c r="H205" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I205" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J205" s="70">
+        <v>0</v>
+      </c>
+      <c r="K205" s="70">
+        <v>0</v>
+      </c>
+      <c r="L205" s="70">
+        <v>0</v>
+      </c>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="17"/>
+      <c r="P205" s="16"/>
+      <c r="Q205" s="17"/>
+      <c r="R205" s="17"/>
+      <c r="S205" s="17"/>
+      <c r="T205" s="17"/>
+      <c r="U205" s="17"/>
+      <c r="V205" s="17"/>
+      <c r="W205" s="19"/>
+    </row>
+    <row r="206" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="97"/>
+      <c r="C206" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G206" s="4">
+        <v>3</v>
+      </c>
+      <c r="H206" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I206" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J206" s="70">
+        <v>0</v>
+      </c>
+      <c r="K206" s="70">
+        <v>0</v>
+      </c>
+      <c r="L206" s="70">
+        <v>0</v>
+      </c>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="17"/>
+      <c r="P206" s="16"/>
+      <c r="Q206" s="17"/>
+      <c r="R206" s="17"/>
+      <c r="S206" s="17"/>
+      <c r="T206" s="17"/>
+      <c r="U206" s="17"/>
+      <c r="V206" s="17"/>
+      <c r="W206" s="19"/>
+    </row>
+    <row r="207" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="97"/>
+      <c r="C207" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D207" s="5"/>
+      <c r="E207" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G207" s="4">
+        <v>5</v>
+      </c>
+      <c r="H207" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I207" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J207" s="70">
+        <v>0</v>
+      </c>
+      <c r="K207" s="70">
+        <v>0</v>
+      </c>
+      <c r="L207" s="70">
+        <v>0</v>
+      </c>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="17"/>
+      <c r="P207" s="16"/>
+      <c r="Q207" s="17"/>
+      <c r="R207" s="17"/>
+      <c r="S207" s="17"/>
+      <c r="T207" s="17"/>
+      <c r="U207" s="17"/>
+      <c r="V207" s="17"/>
+      <c r="W207" s="19"/>
+    </row>
+    <row r="208" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="97"/>
+      <c r="C208" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G208" s="4">
+        <v>5</v>
+      </c>
+      <c r="H208" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I208" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J208" s="70">
+        <v>0</v>
+      </c>
+      <c r="K208" s="70">
+        <v>0</v>
+      </c>
+      <c r="L208" s="70">
+        <v>0</v>
+      </c>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="17"/>
+      <c r="P208" s="16"/>
+      <c r="Q208" s="17"/>
+      <c r="R208" s="17"/>
+      <c r="S208" s="17"/>
+      <c r="T208" s="17"/>
+      <c r="U208" s="17"/>
+      <c r="V208" s="17"/>
+      <c r="W208" s="19"/>
+    </row>
+    <row r="209" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="97"/>
+      <c r="C209" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G209" s="4">
+        <v>3</v>
+      </c>
+      <c r="H209" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I209" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J209" s="70">
+        <v>0</v>
+      </c>
+      <c r="K209" s="70">
+        <v>0</v>
+      </c>
+      <c r="L209" s="70">
+        <v>0</v>
+      </c>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="17"/>
+      <c r="P209" s="16"/>
+      <c r="Q209" s="17"/>
+      <c r="R209" s="17"/>
+      <c r="S209" s="17"/>
+      <c r="T209" s="17"/>
+      <c r="U209" s="17"/>
+      <c r="V209" s="17"/>
+      <c r="W209" s="19"/>
+    </row>
+    <row r="210" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="97"/>
+      <c r="C210" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G210" s="4">
+        <v>1</v>
+      </c>
+      <c r="H210" s="4">
+        <v>3</v>
+      </c>
+      <c r="I210" s="6">
+        <f t="shared" si="5"/>
+        <v>1.85</v>
+      </c>
+      <c r="J210" s="70">
+        <v>0</v>
+      </c>
+      <c r="K210" s="80">
+        <v>1.85</v>
+      </c>
+      <c r="L210" s="80">
+        <v>0</v>
+      </c>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="17"/>
+      <c r="P210" s="16"/>
+      <c r="Q210" s="17"/>
+      <c r="R210" s="17"/>
+      <c r="S210" s="17"/>
+      <c r="T210" s="17"/>
+      <c r="U210" s="17"/>
+      <c r="V210" s="17"/>
+      <c r="W210" s="19"/>
+    </row>
+    <row r="211" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="97"/>
+      <c r="C211" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G211" s="4">
+        <v>2</v>
+      </c>
+      <c r="H211" s="4">
+        <v>2</v>
+      </c>
+      <c r="I211" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J211" s="70">
+        <v>0</v>
+      </c>
+      <c r="K211" s="70">
+        <v>0</v>
+      </c>
+      <c r="L211" s="70">
+        <v>0</v>
+      </c>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="17"/>
+      <c r="P211" s="16"/>
+      <c r="Q211" s="17"/>
+      <c r="R211" s="17"/>
+      <c r="S211" s="17"/>
+      <c r="T211" s="17"/>
+      <c r="U211" s="17"/>
+      <c r="V211" s="17"/>
+      <c r="W211" s="19"/>
+    </row>
+    <row r="212" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="121"/>
-      <c r="D182" s="122"/>
-      <c r="E182" s="122"/>
-      <c r="F182" s="122"/>
-      <c r="G182" s="123"/>
-      <c r="H182" s="36">
-        <f t="shared" ref="H182:W182" si="6">SUM(H4:H181)</f>
+      <c r="C212" s="122"/>
+      <c r="D212" s="122"/>
+      <c r="E212" s="122"/>
+      <c r="F212" s="122"/>
+      <c r="G212" s="123"/>
+      <c r="H212" s="36">
+        <f>SUM(H4:H211)</f>
         <v>95.999999999999829</v>
       </c>
-      <c r="I182" s="23">
+      <c r="I212" s="23">
+        <f>SUM(I4:I211)</f>
+        <v>13.957299999999998</v>
+      </c>
+      <c r="J212" s="23">
+        <f>SUM(J4:J211)</f>
+        <v>0</v>
+      </c>
+      <c r="K212" s="23">
+        <f>SUM(K4:K211)</f>
+        <v>4.0533000000000001</v>
+      </c>
+      <c r="L212" s="91">
+        <f>SUM(L4:L211)</f>
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="M212" s="23">
+        <f>SUM(M4:M211)</f>
+        <v>6.1409999999999973</v>
+      </c>
+      <c r="N212" s="23">
+        <f>SUM(N4:N211)</f>
+        <v>1.76</v>
+      </c>
+      <c r="O212" s="23">
+        <f>SUM(O4:O211)</f>
+        <v>0</v>
+      </c>
+      <c r="P212" s="23">
+        <f>SUM(P4:P211)</f>
+        <v>0</v>
+      </c>
+      <c r="Q212" s="23">
+        <f>SUM(Q4:Q211)</f>
+        <v>0</v>
+      </c>
+      <c r="R212" s="23">
+        <f>SUM(R4:R211)</f>
+        <v>0</v>
+      </c>
+      <c r="S212" s="23">
+        <f>SUM(S4:S211)</f>
+        <v>0</v>
+      </c>
+      <c r="T212" s="23">
+        <f>SUM(T4:T211)</f>
+        <v>0</v>
+      </c>
+      <c r="U212" s="23">
+        <f>SUM(U4:U211)</f>
+        <v>0</v>
+      </c>
+      <c r="V212" s="23">
+        <f>SUM(V4:V211)</f>
+        <v>0</v>
+      </c>
+      <c r="W212" s="30">
+        <f>SUM(W4:W211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="K213" s="106"/>
+      <c r="L213" s="106"/>
+      <c r="M213" s="106"/>
+      <c r="N213" s="106"/>
+      <c r="O213" s="106"/>
+      <c r="P213" s="106"/>
+      <c r="Q213" s="106"/>
+      <c r="R213" s="106"/>
+      <c r="S213" s="106"/>
+      <c r="T213" s="106"/>
+      <c r="U213" s="106"/>
+      <c r="V213" s="106"/>
+      <c r="W213" s="107"/>
+    </row>
+    <row r="214" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+    </row>
+    <row r="215" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C215" s="124">
+        <f>SUM(H210,H206:H207,H194:H200,H190,H186:H188,H12:H62,H10)</f>
+        <v>46.399999999999991</v>
+      </c>
+      <c r="D215" s="4">
+        <f>SUM(I10,I12,I13,I14,I15:I62,I186:I188,I190,I194:I200,I206:I207,I210)</f>
+        <v>10.617300000000002</v>
+      </c>
+      <c r="E215" s="4">
+        <f>SUM(C215,-D215)</f>
+        <v>35.782699999999991</v>
+      </c>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="I215" s="100"/>
+      <c r="J215" s="9">
+        <f>H212-J212</f>
+        <v>95.999999999999829</v>
+      </c>
+      <c r="K215" s="9">
+        <f>J215-K212</f>
+        <v>91.946699999999822</v>
+      </c>
+      <c r="L215" s="9">
+        <f>K215-L212</f>
+        <v>89.943699999999822</v>
+      </c>
+      <c r="M215" s="9">
+        <f>L215-M212</f>
+        <v>83.802699999999831</v>
+      </c>
+      <c r="N215" s="10">
+        <f>M215-N212</f>
+        <v>82.042699999999826</v>
+      </c>
+      <c r="O215" s="95">
+        <f t="shared" ref="O215:W215" si="6">N215-O212</f>
+        <v>82.042699999999826</v>
+      </c>
+      <c r="P215" s="95">
         <f t="shared" si="6"/>
-        <v>12.197299999999998</v>
-      </c>
-      <c r="J182" s="23">
+        <v>82.042699999999826</v>
+      </c>
+      <c r="Q215" s="95">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K182" s="23">
+        <v>82.042699999999826</v>
+      </c>
+      <c r="R215" s="95">
         <f t="shared" si="6"/>
-        <v>4.0533000000000001</v>
-      </c>
-      <c r="L182" s="92">
+        <v>82.042699999999826</v>
+      </c>
+      <c r="S215" s="95">
         <f t="shared" si="6"/>
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="M182" s="23">
+        <v>82.042699999999826</v>
+      </c>
+      <c r="T215" s="95">
         <f t="shared" si="6"/>
-        <v>6.1409999999999973</v>
-      </c>
-      <c r="N182" s="23">
+        <v>82.042699999999826</v>
+      </c>
+      <c r="U215" s="95">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O182" s="23">
+        <v>82.042699999999826</v>
+      </c>
+      <c r="V215" s="95">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P182" s="23">
+        <v>82.042699999999826</v>
+      </c>
+      <c r="W215" s="95">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q182" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R182" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S182" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T182" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U182" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V182" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W182" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="K183" s="98"/>
-      <c r="L183" s="98"/>
-      <c r="M183" s="98"/>
-      <c r="N183" s="98"/>
-      <c r="O183" s="98"/>
-      <c r="P183" s="98"/>
-      <c r="Q183" s="98"/>
-      <c r="R183" s="98"/>
-      <c r="S183" s="98"/>
-      <c r="T183" s="98"/>
-      <c r="U183" s="98"/>
-      <c r="V183" s="98"/>
-      <c r="W183" s="99"/>
-    </row>
-    <row r="184" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C184" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-    </row>
-    <row r="185" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C185" s="91">
-        <f>SUM(H180,H176:H177,H164:H170,H160,H156:H158,H12:H62,H10)</f>
-        <v>46.399999999999991</v>
-      </c>
-      <c r="D185" s="4">
-        <f>SUM(I10,I12,I13,I14,I15:I62,I156:I158,I160,I164:I170,I176:I177,I180)</f>
-        <v>10.617300000000002</v>
-      </c>
-      <c r="E185" s="4">
-        <f>SUM(C185,-D185)</f>
-        <v>35.782699999999991</v>
-      </c>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I185" s="116"/>
-      <c r="J185" s="9">
-        <f>H182-J182</f>
-        <v>95.999999999999829</v>
-      </c>
-      <c r="K185" s="9">
-        <f>J185-K182</f>
-        <v>91.946699999999822</v>
-      </c>
-      <c r="L185" s="9">
-        <f>K185-L182</f>
-        <v>89.943699999999822</v>
-      </c>
-      <c r="M185" s="9">
-        <f>L185-M182</f>
-        <v>83.802699999999831</v>
-      </c>
-      <c r="N185" s="10">
-        <f>M185-N182</f>
-        <v>83.802699999999831</v>
-      </c>
-    </row>
-    <row r="186" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="90" t="s">
+        <v>82.042699999999826</v>
+      </c>
+    </row>
+    <row r="216" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C186" s="5">
-        <f>SUM(H161:H163,H159,H73:H148,H11,H9)</f>
+      <c r="C216" s="5">
+        <f>SUM(H191:H193,H189,H73:H178,H11,H9)</f>
         <v>25.200000000000003</v>
       </c>
-      <c r="D186" s="5">
-        <f>SUM(I9,I11,I73:I148,I159,I161:I163)</f>
-        <v>1.5800000000000003</v>
-      </c>
-      <c r="E186" s="5">
-        <f>SUM(C186,-D186)</f>
-        <v>23.62</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
-      <c r="M186" s="3"/>
-      <c r="N186" s="3"/>
-    </row>
-    <row r="187" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="90" t="s">
+      <c r="D216" s="5">
+        <f>SUM(I9,I11,I73:I178,I189,I191:I193)</f>
+        <v>3.34</v>
+      </c>
+      <c r="E216" s="5">
+        <f>SUM(C216,-D216)</f>
+        <v>21.860000000000003</v>
+      </c>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+    </row>
+    <row r="217" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C187" s="4">
-        <f>SUM(H181,H179,H178,H171:H175,H149:H155,H63:H72,H4:H8)</f>
+      <c r="C217" s="4">
+        <f>SUM(H211,H209,H208,H201:H205,H179:H185,H63:H72,H4:H8)</f>
         <v>24.4</v>
       </c>
-      <c r="D187" s="5">
-        <f>SUM(I181,I178:I179,I171:I175,I149:I155,I63:I72,I4:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="E187" s="5">
-        <f>SUM(C187,-D187)</f>
+      <c r="D217" s="5">
+        <f>SUM(I211,I208:I209,I201:I205,I179:I185,I63:I72,I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="E217" s="5">
+        <f>SUM(C217,-D217)</f>
         <v>24.4</v>
       </c>
-      <c r="F187" s="3"/>
-      <c r="H187" s="97" t="s">
+      <c r="F217" s="3"/>
+      <c r="H217" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="117"/>
-      <c r="J187" s="116">
-        <f>H182-I182</f>
-        <v>83.802699999999831</v>
-      </c>
-      <c r="K187" s="116"/>
-      <c r="L187" s="116"/>
-      <c r="M187" s="116"/>
-      <c r="N187" s="118"/>
-    </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-    </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
-    </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
-    </row>
-    <row r="191" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
-    </row>
-    <row r="194" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
-    </row>
-    <row r="195" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-    </row>
-    <row r="196" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-    </row>
-    <row r="197" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-    </row>
-    <row r="198" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-    </row>
-    <row r="199" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-    </row>
-    <row r="200" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-    </row>
-    <row r="201" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
-    </row>
-    <row r="202" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="12"/>
-      <c r="C202" s="12"/>
-    </row>
-    <row r="203" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
-    </row>
-    <row r="204" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-    </row>
-    <row r="205" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
-    </row>
-    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="I217" s="102"/>
+      <c r="J217" s="100">
+        <f>H212-I212</f>
+        <v>82.042699999999826</v>
+      </c>
+      <c r="K217" s="100"/>
+      <c r="L217" s="100"/>
+      <c r="M217" s="100"/>
+      <c r="N217" s="103"/>
+    </row>
+    <row r="218" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+    </row>
+    <row r="219" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+    </row>
+    <row r="220" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+    </row>
+    <row r="221" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+    </row>
+    <row r="224" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+    </row>
+    <row r="225" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+    </row>
+    <row r="226" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+    </row>
+    <row r="227" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+    </row>
+    <row r="228" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+    </row>
+    <row r="229" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+    </row>
+    <row r="230" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+    </row>
+    <row r="231" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+    </row>
+    <row r="232" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+    </row>
+    <row r="233" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
+    </row>
+    <row r="234" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
+    </row>
+    <row r="235" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+    </row>
+    <row r="236" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:N187"/>
-    <mergeCell ref="B14:B62"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B171:B181"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="J183:W183"/>
-    <mergeCell ref="B73:B147"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="C157:C163"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="C129:C135"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="C150:C156"/>
+    <mergeCell ref="C87:C93"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="B63:B72"/>
     <mergeCell ref="C56:C62"/>
@@ -10017,15 +11152,24 @@
     <mergeCell ref="C69:C72"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C73:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="B194:B200"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="J217:N217"/>
+    <mergeCell ref="B14:B62"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="B178:B190"/>
+    <mergeCell ref="B201:B211"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="J213:W213"/>
+    <mergeCell ref="B73:B177"/>
+    <mergeCell ref="C164:C170"/>
+    <mergeCell ref="C171:C177"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="C94:C100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10039,7 +11183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10051,7 +11195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +590,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1087,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1328,34 +1336,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1351,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1403,6 +1396,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,18 +1420,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,7 +1467,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1481,19 +1491,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>95.999999999999829</c:v>
+                  <c:v>114.84999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.946699999999822</c:v>
+                  <c:v>110.79669999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.943699999999822</c:v>
+                  <c:v>108.79369999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.802699999999831</c:v>
+                  <c:v>102.65269999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.042699999999826</c:v>
+                  <c:v>100.89269999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1563,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1898,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
@@ -1926,22 +1935,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
@@ -2012,7 +2021,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="112" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2057,7 +2066,7 @@
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="118"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="35" t="s">
         <v>100</v>
       </c>
@@ -2100,7 +2109,7 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="118"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="35" t="s">
         <v>101</v>
       </c>
@@ -2143,7 +2152,7 @@
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="118"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="35" t="s">
         <v>102</v>
       </c>
@@ -2186,7 +2195,7 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="119"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="45" t="s">
         <v>110</v>
       </c>
@@ -2229,7 +2238,7 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="112" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2274,7 +2283,7 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="118"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="34" t="s">
         <v>106</v>
       </c>
@@ -2317,7 +2326,7 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="118"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="83" t="s">
         <v>111</v>
       </c>
@@ -2360,7 +2369,7 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="118"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="83" t="s">
         <v>112</v>
       </c>
@@ -2425,7 +2434,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="119"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="53" t="s">
         <v>97</v>
       </c>
@@ -2468,7 +2477,7 @@
       <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2515,8 +2524,8 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="111" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="106" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2562,8 +2571,8 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
-      <c r="C16" s="112"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2607,8 +2616,8 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="112"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2650,8 +2659,8 @@
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
-      <c r="C18" s="112"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2693,8 +2702,8 @@
       <c r="W18" s="19"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2736,8 +2745,8 @@
       <c r="W19" s="19"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
@@ -2779,8 +2788,8 @@
       <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2822,8 +2831,8 @@
       <c r="W21" s="19"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="32" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2874,8 @@
       <c r="W22" s="19"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="112"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="32" t="s">
         <v>37</v>
       </c>
@@ -2908,8 +2917,8 @@
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="32" t="s">
         <v>38</v>
       </c>
@@ -2951,8 +2960,8 @@
       <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="112"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="32" t="s">
         <v>39</v>
       </c>
@@ -2994,8 +3003,8 @@
       <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
@@ -3037,8 +3046,8 @@
       <c r="W26" s="19"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3080,8 +3089,8 @@
       <c r="W27" s="19"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
-      <c r="C28" s="112"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="32" t="s">
         <v>42</v>
       </c>
@@ -3123,8 +3132,8 @@
       <c r="W28" s="19"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="32" t="s">
         <v>43</v>
       </c>
@@ -3166,8 +3175,8 @@
       <c r="W29" s="19"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="97"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="32" t="s">
         <v>44</v>
       </c>
@@ -3209,8 +3218,8 @@
       <c r="W30" s="19"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="97"/>
-      <c r="C31" s="112"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="32" t="s">
         <v>45</v>
       </c>
@@ -3252,8 +3261,8 @@
       <c r="W31" s="19"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="97"/>
-      <c r="C32" s="112"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="32" t="s">
         <v>46</v>
       </c>
@@ -3295,8 +3304,8 @@
       <c r="W32" s="19"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="97"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="32" t="s">
         <v>47</v>
       </c>
@@ -3338,8 +3347,8 @@
       <c r="W33" s="19"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="97"/>
-      <c r="C34" s="112"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="32" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3390,8 @@
       <c r="W34" s="19"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="97"/>
-      <c r="C35" s="112"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="32" t="s">
         <v>49</v>
       </c>
@@ -3424,8 +3433,8 @@
       <c r="W35" s="19"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="97"/>
-      <c r="C36" s="112"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="32" t="s">
         <v>50</v>
       </c>
@@ -3467,8 +3476,8 @@
       <c r="W36" s="19"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="97"/>
-      <c r="C37" s="112"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="32" t="s">
         <v>51</v>
       </c>
@@ -3510,8 +3519,8 @@
       <c r="W37" s="19"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="97"/>
-      <c r="C38" s="112"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3553,8 +3562,8 @@
       <c r="W38" s="19"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="97"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="32" t="s">
         <v>53</v>
       </c>
@@ -3596,8 +3605,8 @@
       <c r="W39" s="19"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="97"/>
-      <c r="C40" s="112"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="32" t="s">
         <v>54</v>
       </c>
@@ -3639,8 +3648,8 @@
       <c r="W40" s="19"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="97"/>
-      <c r="C41" s="112"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="32" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3691,8 @@
       <c r="W41" s="19"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="97"/>
-      <c r="C42" s="112"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="32" t="s">
         <v>56</v>
       </c>
@@ -3725,8 +3734,8 @@
       <c r="W42" s="19"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="97"/>
-      <c r="C43" s="112"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="107"/>
       <c r="D43" s="32" t="s">
         <v>57</v>
       </c>
@@ -3768,8 +3777,8 @@
       <c r="W43" s="19"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
-      <c r="C44" s="112"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="107"/>
       <c r="D44" s="32" t="s">
         <v>58</v>
       </c>
@@ -3811,8 +3820,8 @@
       <c r="W44" s="19"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="97"/>
-      <c r="C45" s="112"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="32" t="s">
         <v>59</v>
       </c>
@@ -3854,8 +3863,8 @@
       <c r="W45" s="19"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="97"/>
-      <c r="C46" s="112"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="32" t="s">
         <v>60</v>
       </c>
@@ -3897,8 +3906,8 @@
       <c r="W46" s="19"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="97"/>
-      <c r="C47" s="112"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="32" t="s">
         <v>61</v>
       </c>
@@ -3940,8 +3949,8 @@
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="97"/>
-      <c r="C48" s="112"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="32" t="s">
         <v>62</v>
       </c>
@@ -3983,8 +3992,8 @@
       <c r="W48" s="19"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="97"/>
-      <c r="C49" s="112"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="32" t="s">
         <v>63</v>
       </c>
@@ -4026,8 +4035,8 @@
       <c r="W49" s="19"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="97"/>
-      <c r="C50" s="112"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="32" t="s">
         <v>64</v>
       </c>
@@ -4069,8 +4078,8 @@
       <c r="W50" s="19"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="97"/>
-      <c r="C51" s="112"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="32" t="s">
         <v>65</v>
       </c>
@@ -4112,8 +4121,8 @@
       <c r="W51" s="19"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="97"/>
-      <c r="C52" s="112"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="32" t="s">
         <v>66</v>
       </c>
@@ -4155,8 +4164,8 @@
       <c r="W52" s="19"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="97"/>
-      <c r="C53" s="112"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="32" t="s">
         <v>67</v>
       </c>
@@ -4198,8 +4207,8 @@
       <c r="W53" s="19"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="97"/>
-      <c r="C54" s="112"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="32" t="s">
         <v>68</v>
       </c>
@@ -4241,8 +4250,8 @@
       <c r="W54" s="19"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="97"/>
-      <c r="C55" s="113"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="108"/>
       <c r="D55" s="32" t="s">
         <v>69</v>
       </c>
@@ -4284,8 +4293,8 @@
       <c r="W55" s="19"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="97"/>
-      <c r="C56" s="109" t="s">
+      <c r="B56" s="102"/>
+      <c r="C56" s="104" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="29" t="s">
@@ -4329,8 +4338,8 @@
       <c r="W56" s="19"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="97"/>
-      <c r="C57" s="110"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="105"/>
       <c r="D57" s="29" t="s">
         <v>29</v>
       </c>
@@ -4372,8 +4381,8 @@
       <c r="W57" s="19"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="97"/>
-      <c r="C58" s="110"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
@@ -4415,8 +4424,8 @@
       <c r="W58" s="19"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="97"/>
-      <c r="C59" s="110"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="29" t="s">
         <v>31</v>
       </c>
@@ -4458,8 +4467,8 @@
       <c r="W59" s="19"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="97"/>
-      <c r="C60" s="110"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="29" t="s">
         <v>34</v>
       </c>
@@ -4501,8 +4510,8 @@
       <c r="W60" s="19"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="97"/>
-      <c r="C61" s="110"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="29" t="s">
         <v>32</v>
       </c>
@@ -4544,8 +4553,8 @@
       <c r="W61" s="19"/>
     </row>
     <row r="62" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="104"/>
-      <c r="C62" s="110"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="105"/>
       <c r="D62" s="62" t="s">
         <v>33</v>
       </c>
@@ -4587,10 +4596,10 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="114" t="s">
+      <c r="C63" s="109" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="39" t="s">
@@ -4634,8 +4643,8 @@
       <c r="W63" s="52"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="97"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="4" t="s">
         <v>71</v>
       </c>
@@ -4677,8 +4686,8 @@
       <c r="W64" s="19"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="97"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="4" t="s">
         <v>72</v>
       </c>
@@ -4720,8 +4729,8 @@
       <c r="W65" s="19"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="97"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="110"/>
       <c r="D66" s="29" t="s">
         <v>76</v>
       </c>
@@ -4763,7 +4772,7 @@
       <c r="W66" s="19"/>
     </row>
     <row r="67" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="97"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="33" t="s">
         <v>73</v>
       </c>
@@ -4806,7 +4815,7 @@
       <c r="W67" s="19"/>
     </row>
     <row r="68" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="97"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="33" t="s">
         <v>81</v>
       </c>
@@ -4849,8 +4858,8 @@
       <c r="W68" s="19"/>
     </row>
     <row r="69" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="97"/>
-      <c r="C69" s="115" t="s">
+      <c r="B69" s="102"/>
+      <c r="C69" s="110" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4894,8 +4903,8 @@
       <c r="W69" s="19"/>
     </row>
     <row r="70" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="97"/>
-      <c r="C70" s="115"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
@@ -4937,8 +4946,8 @@
       <c r="W70" s="19"/>
     </row>
     <row r="71" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="97"/>
-      <c r="C71" s="115"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
@@ -4980,8 +4989,8 @@
       <c r="W71" s="19"/>
     </row>
     <row r="72" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="98"/>
-      <c r="C72" s="116"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="24" t="s">
         <v>78</v>
       </c>
@@ -5022,11 +5031,11 @@
       <c r="V72" s="22"/>
       <c r="W72" s="25"/>
     </row>
-    <row r="73" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="96" t="s">
+    <row r="73" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="120" t="s">
+      <c r="C73" s="115" t="s">
         <v>116</v>
       </c>
       <c r="D73" s="39" t="s">
@@ -5071,9 +5080,9 @@
       <c r="V73" s="84"/>
       <c r="W73" s="86"/>
     </row>
-    <row r="74" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="97"/>
-      <c r="C74" s="105"/>
+    <row r="74" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="102"/>
+      <c r="C74" s="97"/>
       <c r="D74" s="4" t="s">
         <v>132</v>
       </c>
@@ -5089,7 +5098,7 @@
       <c r="H74" s="4">
         <v>1.5</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5114,9 +5123,9 @@
       <c r="V74" s="17"/>
       <c r="W74" s="19"/>
     </row>
-    <row r="75" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="97"/>
-      <c r="C75" s="105"/>
+    <row r="75" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="102"/>
+      <c r="C75" s="97"/>
       <c r="D75" s="4" t="s">
         <v>161</v>
       </c>
@@ -5129,8 +5138,10 @@
       <c r="G75" s="4">
         <v>3</v>
       </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="6">
+      <c r="H75" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I75" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5155,9 +5166,9 @@
       <c r="V75" s="17"/>
       <c r="W75" s="19"/>
     </row>
-    <row r="76" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="97"/>
-      <c r="C76" s="105"/>
+    <row r="76" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="102"/>
+      <c r="C76" s="97"/>
       <c r="D76" s="4" t="s">
         <v>133</v>
       </c>
@@ -5173,7 +5184,7 @@
       <c r="H76" s="4">
         <v>0.25</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="40">
         <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
@@ -5198,9 +5209,9 @@
       <c r="V76" s="92"/>
       <c r="W76" s="94"/>
     </row>
-    <row r="77" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="97"/>
-      <c r="C77" s="105"/>
+    <row r="77" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="102"/>
+      <c r="C77" s="97"/>
       <c r="D77" s="4" t="s">
         <v>164</v>
       </c>
@@ -5213,26 +5224,37 @@
       <c r="G77" s="4">
         <v>3</v>
       </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="80"/>
-      <c r="M77" s="80"/>
-      <c r="N77" s="80"/>
-      <c r="O77" s="92"/>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="92"/>
-      <c r="R77" s="92"/>
-      <c r="S77" s="92"/>
-      <c r="T77" s="92"/>
-      <c r="U77" s="92"/>
-      <c r="V77" s="92"/>
-      <c r="W77" s="94"/>
-    </row>
-    <row r="78" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="97"/>
-      <c r="C78" s="105"/>
+      <c r="H77" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="70">
+        <v>0</v>
+      </c>
+      <c r="K77" s="70">
+        <v>0</v>
+      </c>
+      <c r="L77" s="70">
+        <v>0</v>
+      </c>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="130"/>
+      <c r="P77" s="131"/>
+      <c r="Q77" s="130"/>
+      <c r="R77" s="130"/>
+      <c r="S77" s="130"/>
+      <c r="T77" s="130"/>
+      <c r="U77" s="130"/>
+      <c r="V77" s="130"/>
+      <c r="W77" s="132"/>
+    </row>
+    <row r="78" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="102"/>
+      <c r="C78" s="97"/>
       <c r="D78" s="4" t="s">
         <v>163</v>
       </c>
@@ -5245,26 +5267,37 @@
       <c r="G78" s="4">
         <v>3</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="80"/>
-      <c r="M78" s="80"/>
-      <c r="N78" s="80"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="92"/>
-      <c r="R78" s="92"/>
-      <c r="S78" s="92"/>
-      <c r="T78" s="92"/>
-      <c r="U78" s="92"/>
-      <c r="V78" s="92"/>
-      <c r="W78" s="94"/>
-    </row>
-    <row r="79" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="97"/>
-      <c r="C79" s="105"/>
+      <c r="H78" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I78" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="70">
+        <v>0</v>
+      </c>
+      <c r="K78" s="70">
+        <v>0</v>
+      </c>
+      <c r="L78" s="70">
+        <v>0</v>
+      </c>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="130"/>
+      <c r="P78" s="131"/>
+      <c r="Q78" s="130"/>
+      <c r="R78" s="130"/>
+      <c r="S78" s="130"/>
+      <c r="T78" s="130"/>
+      <c r="U78" s="130"/>
+      <c r="V78" s="130"/>
+      <c r="W78" s="132"/>
+    </row>
+    <row r="79" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="102"/>
+      <c r="C79" s="97"/>
       <c r="D79" s="4" t="s">
         <v>134</v>
       </c>
@@ -5280,7 +5313,7 @@
       <c r="H79" s="4">
         <v>1</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="40">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -5293,7 +5326,9 @@
       <c r="L79" s="70">
         <v>0</v>
       </c>
-      <c r="M79" s="70"/>
+      <c r="M79" s="70">
+        <v>0</v>
+      </c>
       <c r="N79" s="70">
         <v>0.5</v>
       </c>
@@ -5307,9 +5342,9 @@
       <c r="V79" s="17"/>
       <c r="W79" s="19"/>
     </row>
-    <row r="80" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="97"/>
-      <c r="C80" s="105" t="s">
+    <row r="80" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="102"/>
+      <c r="C80" s="97" t="s">
         <v>117</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -5327,7 +5362,7 @@
       <c r="H80" s="4">
         <v>0.25</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="40">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -5354,9 +5389,9 @@
       <c r="V80" s="92"/>
       <c r="W80" s="94"/>
     </row>
-    <row r="81" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="97"/>
-      <c r="C81" s="105"/>
+    <row r="81" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="102"/>
+      <c r="C81" s="97"/>
       <c r="D81" s="4" t="s">
         <v>132</v>
       </c>
@@ -5372,7 +5407,7 @@
       <c r="H81" s="4">
         <v>0.5</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5397,9 +5432,9 @@
       <c r="V81" s="17"/>
       <c r="W81" s="19"/>
     </row>
-    <row r="82" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="97"/>
-      <c r="C82" s="105"/>
+    <row r="82" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="102"/>
+      <c r="C82" s="97"/>
       <c r="D82" s="4" t="s">
         <v>161</v>
       </c>
@@ -5412,8 +5447,10 @@
       <c r="G82" s="4">
         <v>3</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="6">
+      <c r="H82" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I82" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5438,9 +5475,9 @@
       <c r="V82" s="17"/>
       <c r="W82" s="19"/>
     </row>
-    <row r="83" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="97"/>
-      <c r="C83" s="105"/>
+    <row r="83" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="102"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="4" t="s">
         <v>164</v>
       </c>
@@ -5453,11 +5490,22 @@
       <c r="G83" s="4">
         <v>3</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70"/>
+      <c r="H83" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I83" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="70">
+        <v>0</v>
+      </c>
+      <c r="K83" s="70">
+        <v>0</v>
+      </c>
+      <c r="L83" s="70">
+        <v>0</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="17"/>
@@ -5470,9 +5518,9 @@
       <c r="V83" s="17"/>
       <c r="W83" s="19"/>
     </row>
-    <row r="84" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="97"/>
-      <c r="C84" s="105"/>
+    <row r="84" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="102"/>
+      <c r="C84" s="97"/>
       <c r="D84" s="4" t="s">
         <v>163</v>
       </c>
@@ -5485,11 +5533,22 @@
       <c r="G84" s="4">
         <v>3</v>
       </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
+      <c r="H84" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I84" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="70">
+        <v>0</v>
+      </c>
+      <c r="K84" s="70">
+        <v>0</v>
+      </c>
+      <c r="L84" s="70">
+        <v>0</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="17"/>
@@ -5502,9 +5561,9 @@
       <c r="V84" s="17"/>
       <c r="W84" s="19"/>
     </row>
-    <row r="85" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="97"/>
-      <c r="C85" s="105"/>
+    <row r="85" spans="2:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="102"/>
+      <c r="C85" s="97"/>
       <c r="D85" s="4" t="s">
         <v>133</v>
       </c>
@@ -5520,7 +5579,7 @@
       <c r="H85" s="4">
         <v>0.1</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="40">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
@@ -5547,9 +5606,9 @@
       <c r="V85" s="92"/>
       <c r="W85" s="94"/>
     </row>
-    <row r="86" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="97"/>
-      <c r="C86" s="105"/>
+    <row r="86" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="102"/>
+      <c r="C86" s="97"/>
       <c r="D86" s="4" t="s">
         <v>134</v>
       </c>
@@ -5565,7 +5624,7 @@
       <c r="H86" s="4">
         <v>0.25</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5590,9 +5649,9 @@
       <c r="V86" s="17"/>
       <c r="W86" s="19"/>
     </row>
-    <row r="87" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="97"/>
-      <c r="C87" s="105" t="s">
+    <row r="87" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="102"/>
+      <c r="C87" s="97" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -5610,7 +5669,7 @@
       <c r="H87" s="4">
         <v>0.25</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5635,9 +5694,9 @@
       <c r="V87" s="17"/>
       <c r="W87" s="19"/>
     </row>
-    <row r="88" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="97"/>
-      <c r="C88" s="105"/>
+    <row r="88" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="102"/>
+      <c r="C88" s="97"/>
       <c r="D88" s="4" t="s">
         <v>132</v>
       </c>
@@ -5653,7 +5712,7 @@
       <c r="H88" s="4">
         <v>0.5</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I88" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5678,9 +5737,9 @@
       <c r="V88" s="17"/>
       <c r="W88" s="19"/>
     </row>
-    <row r="89" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="97"/>
-      <c r="C89" s="105"/>
+    <row r="89" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="102"/>
+      <c r="C89" s="97"/>
       <c r="D89" s="4" t="s">
         <v>161</v>
       </c>
@@ -5693,8 +5752,10 @@
       <c r="G89" s="4">
         <v>3</v>
       </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="6">
+      <c r="H89" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I89" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5719,9 +5780,9 @@
       <c r="V89" s="17"/>
       <c r="W89" s="19"/>
     </row>
-    <row r="90" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="97"/>
-      <c r="C90" s="105"/>
+    <row r="90" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="102"/>
+      <c r="C90" s="97"/>
       <c r="D90" s="4" t="s">
         <v>133</v>
       </c>
@@ -5737,7 +5798,7 @@
       <c r="H90" s="4">
         <v>0.1</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="40">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -5764,9 +5825,9 @@
       <c r="V90" s="92"/>
       <c r="W90" s="94"/>
     </row>
-    <row r="91" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="97"/>
-      <c r="C91" s="105"/>
+    <row r="91" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="102"/>
+      <c r="C91" s="97"/>
       <c r="D91" s="4" t="s">
         <v>164</v>
       </c>
@@ -5779,26 +5840,37 @@
       <c r="G91" s="4">
         <v>3</v>
       </c>
-      <c r="H91" s="4"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="80"/>
-      <c r="N91" s="80"/>
-      <c r="O91" s="92"/>
-      <c r="P91" s="93"/>
-      <c r="Q91" s="92"/>
-      <c r="R91" s="92"/>
-      <c r="S91" s="92"/>
-      <c r="T91" s="92"/>
-      <c r="U91" s="92"/>
-      <c r="V91" s="92"/>
-      <c r="W91" s="94"/>
-    </row>
-    <row r="92" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="97"/>
-      <c r="C92" s="105"/>
+      <c r="H91" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I91" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="70">
+        <v>0</v>
+      </c>
+      <c r="K91" s="70">
+        <v>0</v>
+      </c>
+      <c r="L91" s="70">
+        <v>0</v>
+      </c>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="130"/>
+      <c r="P91" s="131"/>
+      <c r="Q91" s="130"/>
+      <c r="R91" s="130"/>
+      <c r="S91" s="130"/>
+      <c r="T91" s="130"/>
+      <c r="U91" s="130"/>
+      <c r="V91" s="130"/>
+      <c r="W91" s="132"/>
+    </row>
+    <row r="92" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="102"/>
+      <c r="C92" s="97"/>
       <c r="D92" s="4" t="s">
         <v>163</v>
       </c>
@@ -5811,26 +5883,37 @@
       <c r="G92" s="4">
         <v>3</v>
       </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="80"/>
-      <c r="N92" s="80"/>
-      <c r="O92" s="92"/>
-      <c r="P92" s="93"/>
-      <c r="Q92" s="92"/>
-      <c r="R92" s="92"/>
-      <c r="S92" s="92"/>
-      <c r="T92" s="92"/>
-      <c r="U92" s="92"/>
-      <c r="V92" s="92"/>
-      <c r="W92" s="94"/>
-    </row>
-    <row r="93" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="97"/>
-      <c r="C93" s="105"/>
+      <c r="H92" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I92" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="70">
+        <v>0</v>
+      </c>
+      <c r="K92" s="70">
+        <v>0</v>
+      </c>
+      <c r="L92" s="70">
+        <v>0</v>
+      </c>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="130"/>
+      <c r="P92" s="131"/>
+      <c r="Q92" s="130"/>
+      <c r="R92" s="130"/>
+      <c r="S92" s="130"/>
+      <c r="T92" s="130"/>
+      <c r="U92" s="130"/>
+      <c r="V92" s="130"/>
+      <c r="W92" s="132"/>
+    </row>
+    <row r="93" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="102"/>
+      <c r="C93" s="97"/>
       <c r="D93" s="4" t="s">
         <v>134</v>
       </c>
@@ -5846,7 +5929,7 @@
       <c r="H93" s="4">
         <v>0.25</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5871,9 +5954,9 @@
       <c r="V93" s="17"/>
       <c r="W93" s="19"/>
     </row>
-    <row r="94" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="97"/>
-      <c r="C94" s="105" t="s">
+    <row r="94" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="102"/>
+      <c r="C94" s="97" t="s">
         <v>119</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -5891,7 +5974,7 @@
       <c r="H94" s="4">
         <v>0.25</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5916,9 +5999,9 @@
       <c r="V94" s="17"/>
       <c r="W94" s="19"/>
     </row>
-    <row r="95" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="97"/>
-      <c r="C95" s="105"/>
+    <row r="95" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="102"/>
+      <c r="C95" s="97"/>
       <c r="D95" s="4" t="s">
         <v>132</v>
       </c>
@@ -5934,7 +6017,7 @@
       <c r="H95" s="4">
         <v>0.5</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5959,9 +6042,9 @@
       <c r="V95" s="17"/>
       <c r="W95" s="19"/>
     </row>
-    <row r="96" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="97"/>
-      <c r="C96" s="105"/>
+    <row r="96" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="102"/>
+      <c r="C96" s="97"/>
       <c r="D96" s="4" t="s">
         <v>161</v>
       </c>
@@ -5974,8 +6057,10 @@
       <c r="G96" s="4">
         <v>3</v>
       </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="6">
+      <c r="H96" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I96" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6000,9 +6085,9 @@
       <c r="V96" s="17"/>
       <c r="W96" s="19"/>
     </row>
-    <row r="97" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="97"/>
-      <c r="C97" s="105"/>
+    <row r="97" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="102"/>
+      <c r="C97" s="97"/>
       <c r="D97" s="4" t="s">
         <v>133</v>
       </c>
@@ -6018,7 +6103,7 @@
       <c r="H97" s="4">
         <v>0.1</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="40">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -6045,9 +6130,9 @@
       <c r="V97" s="92"/>
       <c r="W97" s="94"/>
     </row>
-    <row r="98" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="97"/>
-      <c r="C98" s="105"/>
+    <row r="98" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="102"/>
+      <c r="C98" s="97"/>
       <c r="D98" s="4" t="s">
         <v>164</v>
       </c>
@@ -6060,26 +6145,37 @@
       <c r="G98" s="4">
         <v>3</v>
       </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="80"/>
-      <c r="N98" s="80"/>
-      <c r="O98" s="92"/>
-      <c r="P98" s="93"/>
-      <c r="Q98" s="92"/>
-      <c r="R98" s="92"/>
-      <c r="S98" s="92"/>
-      <c r="T98" s="92"/>
-      <c r="U98" s="92"/>
-      <c r="V98" s="92"/>
-      <c r="W98" s="94"/>
-    </row>
-    <row r="99" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="97"/>
-      <c r="C99" s="105"/>
+      <c r="H98" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I98" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="70">
+        <v>0</v>
+      </c>
+      <c r="K98" s="70">
+        <v>0</v>
+      </c>
+      <c r="L98" s="70">
+        <v>0</v>
+      </c>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="130"/>
+      <c r="P98" s="131"/>
+      <c r="Q98" s="130"/>
+      <c r="R98" s="130"/>
+      <c r="S98" s="130"/>
+      <c r="T98" s="130"/>
+      <c r="U98" s="130"/>
+      <c r="V98" s="130"/>
+      <c r="W98" s="132"/>
+    </row>
+    <row r="99" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="102"/>
+      <c r="C99" s="97"/>
       <c r="D99" s="4" t="s">
         <v>163</v>
       </c>
@@ -6092,26 +6188,37 @@
       <c r="G99" s="4">
         <v>3</v>
       </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
-      <c r="M99" s="80"/>
-      <c r="N99" s="80"/>
-      <c r="O99" s="92"/>
-      <c r="P99" s="93"/>
-      <c r="Q99" s="92"/>
-      <c r="R99" s="92"/>
-      <c r="S99" s="92"/>
-      <c r="T99" s="92"/>
-      <c r="U99" s="92"/>
-      <c r="V99" s="92"/>
-      <c r="W99" s="94"/>
-    </row>
-    <row r="100" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="97"/>
-      <c r="C100" s="105"/>
+      <c r="H99" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I99" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="70">
+        <v>0</v>
+      </c>
+      <c r="K99" s="70">
+        <v>0</v>
+      </c>
+      <c r="L99" s="70">
+        <v>0</v>
+      </c>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="130"/>
+      <c r="P99" s="131"/>
+      <c r="Q99" s="130"/>
+      <c r="R99" s="130"/>
+      <c r="S99" s="130"/>
+      <c r="T99" s="130"/>
+      <c r="U99" s="130"/>
+      <c r="V99" s="130"/>
+      <c r="W99" s="132"/>
+    </row>
+    <row r="100" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="102"/>
+      <c r="C100" s="97"/>
       <c r="D100" s="4" t="s">
         <v>134</v>
       </c>
@@ -6127,7 +6234,7 @@
       <c r="H100" s="4">
         <v>0.25</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6152,9 +6259,9 @@
       <c r="V100" s="17"/>
       <c r="W100" s="19"/>
     </row>
-    <row r="101" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="97"/>
-      <c r="C101" s="105" t="s">
+    <row r="101" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="102"/>
+      <c r="C101" s="97" t="s">
         <v>120</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -6172,7 +6279,7 @@
       <c r="H101" s="4">
         <v>0.25</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I101" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6197,9 +6304,9 @@
       <c r="V101" s="17"/>
       <c r="W101" s="19"/>
     </row>
-    <row r="102" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="97"/>
-      <c r="C102" s="105"/>
+    <row r="102" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="102"/>
+      <c r="C102" s="97"/>
       <c r="D102" s="4" t="s">
         <v>132</v>
       </c>
@@ -6215,7 +6322,7 @@
       <c r="H102" s="4">
         <v>0.5</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6240,9 +6347,9 @@
       <c r="V102" s="17"/>
       <c r="W102" s="19"/>
     </row>
-    <row r="103" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="97"/>
-      <c r="C103" s="105"/>
+    <row r="103" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="102"/>
+      <c r="C103" s="97"/>
       <c r="D103" s="4" t="s">
         <v>161</v>
       </c>
@@ -6255,8 +6362,10 @@
       <c r="G103" s="4">
         <v>3</v>
       </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="6">
+      <c r="H103" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I103" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6281,9 +6390,9 @@
       <c r="V103" s="17"/>
       <c r="W103" s="19"/>
     </row>
-    <row r="104" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="97"/>
-      <c r="C104" s="105"/>
+    <row r="104" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="102"/>
+      <c r="C104" s="97"/>
       <c r="D104" s="4" t="s">
         <v>133</v>
       </c>
@@ -6299,7 +6408,7 @@
       <c r="H104" s="4">
         <v>0.1</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I104" s="40">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6326,9 +6435,9 @@
       <c r="V104" s="92"/>
       <c r="W104" s="94"/>
     </row>
-    <row r="105" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="97"/>
-      <c r="C105" s="105"/>
+    <row r="105" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="102"/>
+      <c r="C105" s="97"/>
       <c r="D105" s="4" t="s">
         <v>164</v>
       </c>
@@ -6341,26 +6450,37 @@
       <c r="G105" s="4">
         <v>3</v>
       </c>
-      <c r="H105" s="4"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="80"/>
-      <c r="N105" s="80"/>
-      <c r="O105" s="92"/>
-      <c r="P105" s="93"/>
-      <c r="Q105" s="92"/>
-      <c r="R105" s="92"/>
-      <c r="S105" s="92"/>
-      <c r="T105" s="92"/>
-      <c r="U105" s="92"/>
-      <c r="V105" s="92"/>
-      <c r="W105" s="94"/>
-    </row>
-    <row r="106" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="97"/>
-      <c r="C106" s="105"/>
+      <c r="H105" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I105" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="70">
+        <v>0</v>
+      </c>
+      <c r="K105" s="70">
+        <v>0</v>
+      </c>
+      <c r="L105" s="70">
+        <v>0</v>
+      </c>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="130"/>
+      <c r="P105" s="131"/>
+      <c r="Q105" s="130"/>
+      <c r="R105" s="130"/>
+      <c r="S105" s="130"/>
+      <c r="T105" s="130"/>
+      <c r="U105" s="130"/>
+      <c r="V105" s="130"/>
+      <c r="W105" s="132"/>
+    </row>
+    <row r="106" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="102"/>
+      <c r="C106" s="97"/>
       <c r="D106" s="4" t="s">
         <v>163</v>
       </c>
@@ -6373,26 +6493,37 @@
       <c r="G106" s="4">
         <v>3</v>
       </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="70"/>
-      <c r="M106" s="80"/>
-      <c r="N106" s="80"/>
-      <c r="O106" s="92"/>
-      <c r="P106" s="93"/>
-      <c r="Q106" s="92"/>
-      <c r="R106" s="92"/>
-      <c r="S106" s="92"/>
-      <c r="T106" s="92"/>
-      <c r="U106" s="92"/>
-      <c r="V106" s="92"/>
-      <c r="W106" s="94"/>
-    </row>
-    <row r="107" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="97"/>
-      <c r="C107" s="105"/>
+      <c r="H106" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I106" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="70">
+        <v>0</v>
+      </c>
+      <c r="K106" s="70">
+        <v>0</v>
+      </c>
+      <c r="L106" s="70">
+        <v>0</v>
+      </c>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="130"/>
+      <c r="P106" s="131"/>
+      <c r="Q106" s="130"/>
+      <c r="R106" s="130"/>
+      <c r="S106" s="130"/>
+      <c r="T106" s="130"/>
+      <c r="U106" s="130"/>
+      <c r="V106" s="130"/>
+      <c r="W106" s="132"/>
+    </row>
+    <row r="107" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="102"/>
+      <c r="C107" s="97"/>
       <c r="D107" s="4" t="s">
         <v>134</v>
       </c>
@@ -6408,7 +6539,7 @@
       <c r="H107" s="4">
         <v>0.25</v>
       </c>
-      <c r="I107" s="6">
+      <c r="I107" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6433,9 +6564,9 @@
       <c r="V107" s="17"/>
       <c r="W107" s="19"/>
     </row>
-    <row r="108" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="97"/>
-      <c r="C108" s="105" t="s">
+    <row r="108" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="102"/>
+      <c r="C108" s="97" t="s">
         <v>121</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -6453,7 +6584,7 @@
       <c r="H108" s="4">
         <v>0.25</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6478,9 +6609,9 @@
       <c r="V108" s="17"/>
       <c r="W108" s="19"/>
     </row>
-    <row r="109" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="97"/>
-      <c r="C109" s="105"/>
+    <row r="109" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="102"/>
+      <c r="C109" s="97"/>
       <c r="D109" s="4" t="s">
         <v>132</v>
       </c>
@@ -6496,7 +6627,7 @@
       <c r="H109" s="4">
         <v>0.5</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6521,9 +6652,9 @@
       <c r="V109" s="17"/>
       <c r="W109" s="19"/>
     </row>
-    <row r="110" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="97"/>
-      <c r="C110" s="105"/>
+    <row r="110" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="102"/>
+      <c r="C110" s="97"/>
       <c r="D110" s="4" t="s">
         <v>161</v>
       </c>
@@ -6536,8 +6667,10 @@
       <c r="G110" s="4">
         <v>3</v>
       </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="6">
+      <c r="H110" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I110" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6562,9 +6695,9 @@
       <c r="V110" s="17"/>
       <c r="W110" s="19"/>
     </row>
-    <row r="111" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="97"/>
-      <c r="C111" s="105"/>
+    <row r="111" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="102"/>
+      <c r="C111" s="97"/>
       <c r="D111" s="4" t="s">
         <v>133</v>
       </c>
@@ -6580,7 +6713,7 @@
       <c r="H111" s="4">
         <v>0.1</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I111" s="40">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6607,9 +6740,9 @@
       <c r="V111" s="92"/>
       <c r="W111" s="94"/>
     </row>
-    <row r="112" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="97"/>
-      <c r="C112" s="105"/>
+    <row r="112" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="102"/>
+      <c r="C112" s="97"/>
       <c r="D112" s="4" t="s">
         <v>164</v>
       </c>
@@ -6622,26 +6755,37 @@
       <c r="G112" s="4">
         <v>3</v>
       </c>
-      <c r="H112" s="4"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="70"/>
-      <c r="K112" s="70"/>
-      <c r="L112" s="70"/>
-      <c r="M112" s="80"/>
-      <c r="N112" s="80"/>
-      <c r="O112" s="92"/>
-      <c r="P112" s="93"/>
-      <c r="Q112" s="92"/>
-      <c r="R112" s="92"/>
-      <c r="S112" s="92"/>
-      <c r="T112" s="92"/>
-      <c r="U112" s="92"/>
-      <c r="V112" s="92"/>
-      <c r="W112" s="94"/>
-    </row>
-    <row r="113" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="97"/>
-      <c r="C113" s="105"/>
+      <c r="H112" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I112" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="70">
+        <v>0</v>
+      </c>
+      <c r="K112" s="70">
+        <v>0</v>
+      </c>
+      <c r="L112" s="70">
+        <v>0</v>
+      </c>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="130"/>
+      <c r="P112" s="131"/>
+      <c r="Q112" s="130"/>
+      <c r="R112" s="130"/>
+      <c r="S112" s="130"/>
+      <c r="T112" s="130"/>
+      <c r="U112" s="130"/>
+      <c r="V112" s="130"/>
+      <c r="W112" s="132"/>
+    </row>
+    <row r="113" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="102"/>
+      <c r="C113" s="97"/>
       <c r="D113" s="4" t="s">
         <v>163</v>
       </c>
@@ -6654,26 +6798,37 @@
       <c r="G113" s="4">
         <v>3</v>
       </c>
-      <c r="H113" s="4"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="70"/>
-      <c r="K113" s="70"/>
-      <c r="L113" s="70"/>
-      <c r="M113" s="80"/>
-      <c r="N113" s="80"/>
-      <c r="O113" s="92"/>
-      <c r="P113" s="93"/>
-      <c r="Q113" s="92"/>
-      <c r="R113" s="92"/>
-      <c r="S113" s="92"/>
-      <c r="T113" s="92"/>
-      <c r="U113" s="92"/>
-      <c r="V113" s="92"/>
-      <c r="W113" s="94"/>
-    </row>
-    <row r="114" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="97"/>
-      <c r="C114" s="105"/>
+      <c r="H113" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I113" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="70">
+        <v>0</v>
+      </c>
+      <c r="K113" s="70">
+        <v>0</v>
+      </c>
+      <c r="L113" s="70">
+        <v>0</v>
+      </c>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="130"/>
+      <c r="P113" s="131"/>
+      <c r="Q113" s="130"/>
+      <c r="R113" s="130"/>
+      <c r="S113" s="130"/>
+      <c r="T113" s="130"/>
+      <c r="U113" s="130"/>
+      <c r="V113" s="130"/>
+      <c r="W113" s="132"/>
+    </row>
+    <row r="114" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="102"/>
+      <c r="C114" s="97"/>
       <c r="D114" s="4" t="s">
         <v>134</v>
       </c>
@@ -6689,7 +6844,7 @@
       <c r="H114" s="4">
         <v>0.25</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6714,9 +6869,9 @@
       <c r="V114" s="17"/>
       <c r="W114" s="19"/>
     </row>
-    <row r="115" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="97"/>
-      <c r="C115" s="105" t="s">
+    <row r="115" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="102"/>
+      <c r="C115" s="97" t="s">
         <v>122</v>
       </c>
       <c r="D115" s="4" t="s">
@@ -6734,7 +6889,7 @@
       <c r="H115" s="4">
         <v>0.25</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I115" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6759,9 +6914,9 @@
       <c r="V115" s="17"/>
       <c r="W115" s="19"/>
     </row>
-    <row r="116" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="97"/>
-      <c r="C116" s="105"/>
+    <row r="116" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="102"/>
+      <c r="C116" s="97"/>
       <c r="D116" s="4" t="s">
         <v>132</v>
       </c>
@@ -6777,7 +6932,7 @@
       <c r="H116" s="4">
         <v>0.5</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I116" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6802,9 +6957,9 @@
       <c r="V116" s="17"/>
       <c r="W116" s="19"/>
     </row>
-    <row r="117" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="97"/>
-      <c r="C117" s="105"/>
+    <row r="117" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="102"/>
+      <c r="C117" s="97"/>
       <c r="D117" s="4" t="s">
         <v>161</v>
       </c>
@@ -6817,8 +6972,10 @@
       <c r="G117" s="4">
         <v>3</v>
       </c>
-      <c r="H117" s="4"/>
-      <c r="I117" s="6">
+      <c r="H117" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I117" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6843,9 +7000,9 @@
       <c r="V117" s="17"/>
       <c r="W117" s="19"/>
     </row>
-    <row r="118" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="97"/>
-      <c r="C118" s="105"/>
+    <row r="118" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="102"/>
+      <c r="C118" s="97"/>
       <c r="D118" s="4" t="s">
         <v>133</v>
       </c>
@@ -6861,7 +7018,7 @@
       <c r="H118" s="4">
         <v>0.1</v>
       </c>
-      <c r="I118" s="6">
+      <c r="I118" s="40">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6888,9 +7045,9 @@
       <c r="V118" s="92"/>
       <c r="W118" s="94"/>
     </row>
-    <row r="119" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="97"/>
-      <c r="C119" s="105"/>
+    <row r="119" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="102"/>
+      <c r="C119" s="97"/>
       <c r="D119" s="4" t="s">
         <v>164</v>
       </c>
@@ -6903,26 +7060,37 @@
       <c r="G119" s="4">
         <v>3</v>
       </c>
-      <c r="H119" s="4"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="70"/>
-      <c r="K119" s="70"/>
-      <c r="L119" s="70"/>
-      <c r="M119" s="80"/>
-      <c r="N119" s="80"/>
-      <c r="O119" s="92"/>
-      <c r="P119" s="93"/>
-      <c r="Q119" s="92"/>
-      <c r="R119" s="92"/>
-      <c r="S119" s="92"/>
-      <c r="T119" s="92"/>
-      <c r="U119" s="92"/>
-      <c r="V119" s="92"/>
-      <c r="W119" s="94"/>
-    </row>
-    <row r="120" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="97"/>
-      <c r="C120" s="105"/>
+      <c r="H119" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I119" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="70">
+        <v>0</v>
+      </c>
+      <c r="K119" s="70">
+        <v>0</v>
+      </c>
+      <c r="L119" s="70">
+        <v>0</v>
+      </c>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="130"/>
+      <c r="P119" s="131"/>
+      <c r="Q119" s="130"/>
+      <c r="R119" s="130"/>
+      <c r="S119" s="130"/>
+      <c r="T119" s="130"/>
+      <c r="U119" s="130"/>
+      <c r="V119" s="130"/>
+      <c r="W119" s="132"/>
+    </row>
+    <row r="120" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="102"/>
+      <c r="C120" s="97"/>
       <c r="D120" s="4" t="s">
         <v>163</v>
       </c>
@@ -6935,26 +7103,37 @@
       <c r="G120" s="4">
         <v>3</v>
       </c>
-      <c r="H120" s="4"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="70"/>
-      <c r="K120" s="70"/>
-      <c r="L120" s="70"/>
-      <c r="M120" s="80"/>
-      <c r="N120" s="80"/>
-      <c r="O120" s="92"/>
-      <c r="P120" s="93"/>
-      <c r="Q120" s="92"/>
-      <c r="R120" s="92"/>
-      <c r="S120" s="92"/>
-      <c r="T120" s="92"/>
-      <c r="U120" s="92"/>
-      <c r="V120" s="92"/>
-      <c r="W120" s="94"/>
-    </row>
-    <row r="121" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="97"/>
-      <c r="C121" s="105"/>
+      <c r="H120" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I120" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="70">
+        <v>0</v>
+      </c>
+      <c r="K120" s="70">
+        <v>0</v>
+      </c>
+      <c r="L120" s="70">
+        <v>0</v>
+      </c>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="130"/>
+      <c r="P120" s="131"/>
+      <c r="Q120" s="130"/>
+      <c r="R120" s="130"/>
+      <c r="S120" s="130"/>
+      <c r="T120" s="130"/>
+      <c r="U120" s="130"/>
+      <c r="V120" s="130"/>
+      <c r="W120" s="132"/>
+    </row>
+    <row r="121" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="102"/>
+      <c r="C121" s="97"/>
       <c r="D121" s="4" t="s">
         <v>134</v>
       </c>
@@ -6970,7 +7149,7 @@
       <c r="H121" s="4">
         <v>0.25</v>
       </c>
-      <c r="I121" s="6">
+      <c r="I121" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6995,9 +7174,9 @@
       <c r="V121" s="17"/>
       <c r="W121" s="19"/>
     </row>
-    <row r="122" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="97"/>
-      <c r="C122" s="105" t="s">
+    <row r="122" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="102"/>
+      <c r="C122" s="97" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -7015,7 +7194,7 @@
       <c r="H122" s="4">
         <v>0.25</v>
       </c>
-      <c r="I122" s="6">
+      <c r="I122" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7040,9 +7219,9 @@
       <c r="V122" s="17"/>
       <c r="W122" s="19"/>
     </row>
-    <row r="123" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="97"/>
-      <c r="C123" s="105"/>
+    <row r="123" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="102"/>
+      <c r="C123" s="97"/>
       <c r="D123" s="4" t="s">
         <v>132</v>
       </c>
@@ -7058,7 +7237,7 @@
       <c r="H123" s="4">
         <v>0.5</v>
       </c>
-      <c r="I123" s="6">
+      <c r="I123" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7083,9 +7262,9 @@
       <c r="V123" s="17"/>
       <c r="W123" s="19"/>
     </row>
-    <row r="124" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="97"/>
-      <c r="C124" s="105"/>
+    <row r="124" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="102"/>
+      <c r="C124" s="97"/>
       <c r="D124" s="4" t="s">
         <v>161</v>
       </c>
@@ -7098,8 +7277,10 @@
       <c r="G124" s="4">
         <v>3</v>
       </c>
-      <c r="H124" s="4"/>
-      <c r="I124" s="6">
+      <c r="H124" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I124" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7124,9 +7305,9 @@
       <c r="V124" s="17"/>
       <c r="W124" s="19"/>
     </row>
-    <row r="125" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="97"/>
-      <c r="C125" s="105"/>
+    <row r="125" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="102"/>
+      <c r="C125" s="97"/>
       <c r="D125" s="4" t="s">
         <v>133</v>
       </c>
@@ -7142,7 +7323,7 @@
       <c r="H125" s="4">
         <v>0.1</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I125" s="40">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -7169,9 +7350,9 @@
       <c r="V125" s="92"/>
       <c r="W125" s="94"/>
     </row>
-    <row r="126" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="97"/>
-      <c r="C126" s="105"/>
+    <row r="126" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="102"/>
+      <c r="C126" s="97"/>
       <c r="D126" s="4" t="s">
         <v>164</v>
       </c>
@@ -7184,26 +7365,37 @@
       <c r="G126" s="4">
         <v>3</v>
       </c>
-      <c r="H126" s="4"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="70"/>
-      <c r="K126" s="70"/>
-      <c r="L126" s="70"/>
-      <c r="M126" s="80"/>
-      <c r="N126" s="80"/>
-      <c r="O126" s="92"/>
-      <c r="P126" s="93"/>
-      <c r="Q126" s="92"/>
-      <c r="R126" s="92"/>
-      <c r="S126" s="92"/>
-      <c r="T126" s="92"/>
-      <c r="U126" s="92"/>
-      <c r="V126" s="92"/>
-      <c r="W126" s="94"/>
-    </row>
-    <row r="127" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="97"/>
-      <c r="C127" s="105"/>
+      <c r="H126" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I126" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="70">
+        <v>0</v>
+      </c>
+      <c r="K126" s="70">
+        <v>0</v>
+      </c>
+      <c r="L126" s="70">
+        <v>0</v>
+      </c>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="130"/>
+      <c r="P126" s="131"/>
+      <c r="Q126" s="130"/>
+      <c r="R126" s="130"/>
+      <c r="S126" s="130"/>
+      <c r="T126" s="130"/>
+      <c r="U126" s="130"/>
+      <c r="V126" s="130"/>
+      <c r="W126" s="132"/>
+    </row>
+    <row r="127" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="102"/>
+      <c r="C127" s="97"/>
       <c r="D127" s="4" t="s">
         <v>163</v>
       </c>
@@ -7216,26 +7408,37 @@
       <c r="G127" s="4">
         <v>3</v>
       </c>
-      <c r="H127" s="4"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="70"/>
-      <c r="K127" s="70"/>
-      <c r="L127" s="70"/>
-      <c r="M127" s="80"/>
-      <c r="N127" s="80"/>
-      <c r="O127" s="92"/>
-      <c r="P127" s="93"/>
-      <c r="Q127" s="92"/>
-      <c r="R127" s="92"/>
-      <c r="S127" s="92"/>
-      <c r="T127" s="92"/>
-      <c r="U127" s="92"/>
-      <c r="V127" s="92"/>
-      <c r="W127" s="94"/>
-    </row>
-    <row r="128" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="97"/>
-      <c r="C128" s="105"/>
+      <c r="H127" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I127" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="70">
+        <v>0</v>
+      </c>
+      <c r="K127" s="70">
+        <v>0</v>
+      </c>
+      <c r="L127" s="70">
+        <v>0</v>
+      </c>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="130"/>
+      <c r="P127" s="131"/>
+      <c r="Q127" s="130"/>
+      <c r="R127" s="130"/>
+      <c r="S127" s="130"/>
+      <c r="T127" s="130"/>
+      <c r="U127" s="130"/>
+      <c r="V127" s="130"/>
+      <c r="W127" s="132"/>
+    </row>
+    <row r="128" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="102"/>
+      <c r="C128" s="97"/>
       <c r="D128" s="4" t="s">
         <v>134</v>
       </c>
@@ -7251,7 +7454,7 @@
       <c r="H128" s="4">
         <v>0.25</v>
       </c>
-      <c r="I128" s="6">
+      <c r="I128" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7276,9 +7479,9 @@
       <c r="V128" s="17"/>
       <c r="W128" s="19"/>
     </row>
-    <row r="129" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="97"/>
-      <c r="C129" s="105" t="s">
+    <row r="129" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="102"/>
+      <c r="C129" s="97" t="s">
         <v>124</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -7296,7 +7499,7 @@
       <c r="H129" s="4">
         <v>0.25</v>
       </c>
-      <c r="I129" s="6">
+      <c r="I129" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7321,9 +7524,9 @@
       <c r="V129" s="17"/>
       <c r="W129" s="19"/>
     </row>
-    <row r="130" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="97"/>
-      <c r="C130" s="105"/>
+    <row r="130" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="102"/>
+      <c r="C130" s="97"/>
       <c r="D130" s="4" t="s">
         <v>132</v>
       </c>
@@ -7339,7 +7542,7 @@
       <c r="H130" s="4">
         <v>0.5</v>
       </c>
-      <c r="I130" s="6">
+      <c r="I130" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7364,9 +7567,9 @@
       <c r="V130" s="17"/>
       <c r="W130" s="19"/>
     </row>
-    <row r="131" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="97"/>
-      <c r="C131" s="105"/>
+    <row r="131" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="102"/>
+      <c r="C131" s="97"/>
       <c r="D131" s="4" t="s">
         <v>161</v>
       </c>
@@ -7379,8 +7582,10 @@
       <c r="G131" s="4">
         <v>3</v>
       </c>
-      <c r="H131" s="4"/>
-      <c r="I131" s="6">
+      <c r="H131" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I131" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7405,9 +7610,9 @@
       <c r="V131" s="17"/>
       <c r="W131" s="19"/>
     </row>
-    <row r="132" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="97"/>
-      <c r="C132" s="105"/>
+    <row r="132" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="102"/>
+      <c r="C132" s="97"/>
       <c r="D132" s="4" t="s">
         <v>133</v>
       </c>
@@ -7423,7 +7628,7 @@
       <c r="H132" s="4">
         <v>0.1</v>
       </c>
-      <c r="I132" s="6">
+      <c r="I132" s="40">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -7450,9 +7655,9 @@
       <c r="V132" s="92"/>
       <c r="W132" s="94"/>
     </row>
-    <row r="133" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="97"/>
-      <c r="C133" s="105"/>
+    <row r="133" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="102"/>
+      <c r="C133" s="97"/>
       <c r="D133" s="4" t="s">
         <v>164</v>
       </c>
@@ -7465,26 +7670,37 @@
       <c r="G133" s="4">
         <v>3</v>
       </c>
-      <c r="H133" s="4"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="70"/>
-      <c r="K133" s="70"/>
-      <c r="L133" s="70"/>
-      <c r="M133" s="80"/>
-      <c r="N133" s="80"/>
-      <c r="O133" s="92"/>
-      <c r="P133" s="93"/>
-      <c r="Q133" s="92"/>
-      <c r="R133" s="92"/>
-      <c r="S133" s="92"/>
-      <c r="T133" s="92"/>
-      <c r="U133" s="92"/>
-      <c r="V133" s="92"/>
-      <c r="W133" s="94"/>
-    </row>
-    <row r="134" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="97"/>
-      <c r="C134" s="105"/>
+      <c r="H133" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I133" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="70">
+        <v>0</v>
+      </c>
+      <c r="K133" s="70">
+        <v>0</v>
+      </c>
+      <c r="L133" s="70">
+        <v>0</v>
+      </c>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
+      <c r="O133" s="130"/>
+      <c r="P133" s="131"/>
+      <c r="Q133" s="130"/>
+      <c r="R133" s="130"/>
+      <c r="S133" s="130"/>
+      <c r="T133" s="130"/>
+      <c r="U133" s="130"/>
+      <c r="V133" s="130"/>
+      <c r="W133" s="132"/>
+    </row>
+    <row r="134" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="102"/>
+      <c r="C134" s="97"/>
       <c r="D134" s="4" t="s">
         <v>163</v>
       </c>
@@ -7497,26 +7713,37 @@
       <c r="G134" s="4">
         <v>3</v>
       </c>
-      <c r="H134" s="4"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="70"/>
-      <c r="M134" s="80"/>
-      <c r="N134" s="80"/>
-      <c r="O134" s="92"/>
-      <c r="P134" s="93"/>
-      <c r="Q134" s="92"/>
-      <c r="R134" s="92"/>
-      <c r="S134" s="92"/>
-      <c r="T134" s="92"/>
-      <c r="U134" s="92"/>
-      <c r="V134" s="92"/>
-      <c r="W134" s="94"/>
-    </row>
-    <row r="135" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="97"/>
-      <c r="C135" s="105"/>
+      <c r="H134" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I134" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="70">
+        <v>0</v>
+      </c>
+      <c r="K134" s="70">
+        <v>0</v>
+      </c>
+      <c r="L134" s="70">
+        <v>0</v>
+      </c>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
+      <c r="O134" s="130"/>
+      <c r="P134" s="131"/>
+      <c r="Q134" s="130"/>
+      <c r="R134" s="130"/>
+      <c r="S134" s="130"/>
+      <c r="T134" s="130"/>
+      <c r="U134" s="130"/>
+      <c r="V134" s="130"/>
+      <c r="W134" s="132"/>
+    </row>
+    <row r="135" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="102"/>
+      <c r="C135" s="97"/>
       <c r="D135" s="4" t="s">
         <v>134</v>
       </c>
@@ -7532,7 +7759,7 @@
       <c r="H135" s="4">
         <v>0.25</v>
       </c>
-      <c r="I135" s="6">
+      <c r="I135" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7557,9 +7784,9 @@
       <c r="V135" s="17"/>
       <c r="W135" s="19"/>
     </row>
-    <row r="136" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="97"/>
-      <c r="C136" s="105" t="s">
+    <row r="136" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="102"/>
+      <c r="C136" s="97" t="s">
         <v>125</v>
       </c>
       <c r="D136" s="4" t="s">
@@ -7577,7 +7804,7 @@
       <c r="H136" s="4">
         <v>0.25</v>
       </c>
-      <c r="I136" s="6">
+      <c r="I136" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7602,9 +7829,9 @@
       <c r="V136" s="17"/>
       <c r="W136" s="19"/>
     </row>
-    <row r="137" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="97"/>
-      <c r="C137" s="105"/>
+    <row r="137" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="102"/>
+      <c r="C137" s="97"/>
       <c r="D137" s="4" t="s">
         <v>132</v>
       </c>
@@ -7620,7 +7847,7 @@
       <c r="H137" s="4">
         <v>0.5</v>
       </c>
-      <c r="I137" s="6">
+      <c r="I137" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7645,9 +7872,9 @@
       <c r="V137" s="17"/>
       <c r="W137" s="19"/>
     </row>
-    <row r="138" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="97"/>
-      <c r="C138" s="105"/>
+    <row r="138" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="102"/>
+      <c r="C138" s="97"/>
       <c r="D138" s="4" t="s">
         <v>161</v>
       </c>
@@ -7660,8 +7887,10 @@
       <c r="G138" s="4">
         <v>3</v>
       </c>
-      <c r="H138" s="4"/>
-      <c r="I138" s="6">
+      <c r="H138" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I138" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7686,9 +7915,9 @@
       <c r="V138" s="17"/>
       <c r="W138" s="19"/>
     </row>
-    <row r="139" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="97"/>
-      <c r="C139" s="105"/>
+    <row r="139" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="102"/>
+      <c r="C139" s="97"/>
       <c r="D139" s="4" t="s">
         <v>133</v>
       </c>
@@ -7704,7 +7933,7 @@
       <c r="H139" s="4">
         <v>0.1</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="40">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -7731,9 +7960,9 @@
       <c r="V139" s="92"/>
       <c r="W139" s="94"/>
     </row>
-    <row r="140" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="97"/>
-      <c r="C140" s="105"/>
+    <row r="140" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="102"/>
+      <c r="C140" s="97"/>
       <c r="D140" s="4" t="s">
         <v>164</v>
       </c>
@@ -7746,26 +7975,37 @@
       <c r="G140" s="4">
         <v>3</v>
       </c>
-      <c r="H140" s="4"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="70"/>
-      <c r="K140" s="70"/>
-      <c r="L140" s="70"/>
-      <c r="M140" s="80"/>
-      <c r="N140" s="80"/>
-      <c r="O140" s="92"/>
-      <c r="P140" s="93"/>
-      <c r="Q140" s="92"/>
-      <c r="R140" s="92"/>
-      <c r="S140" s="92"/>
-      <c r="T140" s="92"/>
-      <c r="U140" s="92"/>
-      <c r="V140" s="92"/>
-      <c r="W140" s="94"/>
-    </row>
-    <row r="141" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="97"/>
-      <c r="C141" s="105"/>
+      <c r="H140" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I140" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="70">
+        <v>0</v>
+      </c>
+      <c r="K140" s="70">
+        <v>0</v>
+      </c>
+      <c r="L140" s="70">
+        <v>0</v>
+      </c>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
+      <c r="O140" s="130"/>
+      <c r="P140" s="131"/>
+      <c r="Q140" s="130"/>
+      <c r="R140" s="130"/>
+      <c r="S140" s="130"/>
+      <c r="T140" s="130"/>
+      <c r="U140" s="130"/>
+      <c r="V140" s="130"/>
+      <c r="W140" s="132"/>
+    </row>
+    <row r="141" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="102"/>
+      <c r="C141" s="97"/>
       <c r="D141" s="4" t="s">
         <v>163</v>
       </c>
@@ -7778,26 +8018,37 @@
       <c r="G141" s="4">
         <v>3</v>
       </c>
-      <c r="H141" s="4"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="70"/>
-      <c r="K141" s="70"/>
-      <c r="L141" s="70"/>
-      <c r="M141" s="80"/>
-      <c r="N141" s="80"/>
-      <c r="O141" s="92"/>
-      <c r="P141" s="93"/>
-      <c r="Q141" s="92"/>
-      <c r="R141" s="92"/>
-      <c r="S141" s="92"/>
-      <c r="T141" s="92"/>
-      <c r="U141" s="92"/>
-      <c r="V141" s="92"/>
-      <c r="W141" s="94"/>
-    </row>
-    <row r="142" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="97"/>
-      <c r="C142" s="105"/>
+      <c r="H141" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I141" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="70">
+        <v>0</v>
+      </c>
+      <c r="K141" s="70">
+        <v>0</v>
+      </c>
+      <c r="L141" s="70">
+        <v>0</v>
+      </c>
+      <c r="M141" s="29"/>
+      <c r="N141" s="29"/>
+      <c r="O141" s="130"/>
+      <c r="P141" s="131"/>
+      <c r="Q141" s="130"/>
+      <c r="R141" s="130"/>
+      <c r="S141" s="130"/>
+      <c r="T141" s="130"/>
+      <c r="U141" s="130"/>
+      <c r="V141" s="130"/>
+      <c r="W141" s="132"/>
+    </row>
+    <row r="142" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="102"/>
+      <c r="C142" s="97"/>
       <c r="D142" s="4" t="s">
         <v>134</v>
       </c>
@@ -7813,7 +8064,7 @@
       <c r="H142" s="4">
         <v>0.25</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7838,9 +8089,9 @@
       <c r="V142" s="17"/>
       <c r="W142" s="19"/>
     </row>
-    <row r="143" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="97"/>
-      <c r="C143" s="105" t="s">
+    <row r="143" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="102"/>
+      <c r="C143" s="97" t="s">
         <v>126</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -7858,7 +8109,7 @@
       <c r="H143" s="4">
         <v>0.25</v>
       </c>
-      <c r="I143" s="6">
+      <c r="I143" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7883,9 +8134,9 @@
       <c r="V143" s="17"/>
       <c r="W143" s="19"/>
     </row>
-    <row r="144" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="97"/>
-      <c r="C144" s="105"/>
+    <row r="144" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="102"/>
+      <c r="C144" s="97"/>
       <c r="D144" s="4" t="s">
         <v>132</v>
       </c>
@@ -7901,7 +8152,7 @@
       <c r="H144" s="4">
         <v>0.5</v>
       </c>
-      <c r="I144" s="6">
+      <c r="I144" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7926,9 +8177,9 @@
       <c r="V144" s="17"/>
       <c r="W144" s="19"/>
     </row>
-    <row r="145" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="97"/>
-      <c r="C145" s="105"/>
+    <row r="145" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="102"/>
+      <c r="C145" s="97"/>
       <c r="D145" s="4" t="s">
         <v>161</v>
       </c>
@@ -7941,8 +8192,10 @@
       <c r="G145" s="4">
         <v>3</v>
       </c>
-      <c r="H145" s="4"/>
-      <c r="I145" s="6">
+      <c r="H145" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I145" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7967,9 +8220,9 @@
       <c r="V145" s="17"/>
       <c r="W145" s="19"/>
     </row>
-    <row r="146" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="97"/>
-      <c r="C146" s="105"/>
+    <row r="146" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="102"/>
+      <c r="C146" s="97"/>
       <c r="D146" s="4" t="s">
         <v>133</v>
       </c>
@@ -7985,7 +8238,7 @@
       <c r="H146" s="4">
         <v>0.1</v>
       </c>
-      <c r="I146" s="6">
+      <c r="I146" s="40">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -8012,9 +8265,9 @@
       <c r="V146" s="92"/>
       <c r="W146" s="94"/>
     </row>
-    <row r="147" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="97"/>
-      <c r="C147" s="105"/>
+    <row r="147" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="102"/>
+      <c r="C147" s="97"/>
       <c r="D147" s="4" t="s">
         <v>164</v>
       </c>
@@ -8027,26 +8280,37 @@
       <c r="G147" s="4">
         <v>3</v>
       </c>
-      <c r="H147" s="4"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="70"/>
-      <c r="K147" s="70"/>
-      <c r="L147" s="70"/>
-      <c r="M147" s="80"/>
-      <c r="N147" s="80"/>
-      <c r="O147" s="92"/>
-      <c r="P147" s="93"/>
-      <c r="Q147" s="92"/>
-      <c r="R147" s="92"/>
-      <c r="S147" s="92"/>
-      <c r="T147" s="92"/>
-      <c r="U147" s="92"/>
-      <c r="V147" s="92"/>
-      <c r="W147" s="94"/>
-    </row>
-    <row r="148" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="97"/>
-      <c r="C148" s="105"/>
+      <c r="H147" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I147" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="70">
+        <v>0</v>
+      </c>
+      <c r="K147" s="70">
+        <v>0</v>
+      </c>
+      <c r="L147" s="70">
+        <v>0</v>
+      </c>
+      <c r="M147" s="29"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="130"/>
+      <c r="P147" s="131"/>
+      <c r="Q147" s="130"/>
+      <c r="R147" s="130"/>
+      <c r="S147" s="130"/>
+      <c r="T147" s="130"/>
+      <c r="U147" s="130"/>
+      <c r="V147" s="130"/>
+      <c r="W147" s="132"/>
+    </row>
+    <row r="148" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="102"/>
+      <c r="C148" s="97"/>
       <c r="D148" s="4" t="s">
         <v>163</v>
       </c>
@@ -8059,26 +8323,37 @@
       <c r="G148" s="4">
         <v>3</v>
       </c>
-      <c r="H148" s="4"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="70"/>
-      <c r="K148" s="70"/>
-      <c r="L148" s="70"/>
-      <c r="M148" s="80"/>
-      <c r="N148" s="80"/>
-      <c r="O148" s="92"/>
-      <c r="P148" s="93"/>
-      <c r="Q148" s="92"/>
-      <c r="R148" s="92"/>
-      <c r="S148" s="92"/>
-      <c r="T148" s="92"/>
-      <c r="U148" s="92"/>
-      <c r="V148" s="92"/>
-      <c r="W148" s="94"/>
-    </row>
-    <row r="149" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="97"/>
-      <c r="C149" s="105"/>
+      <c r="H148" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I148" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="70">
+        <v>0</v>
+      </c>
+      <c r="K148" s="70">
+        <v>0</v>
+      </c>
+      <c r="L148" s="70">
+        <v>0</v>
+      </c>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="130"/>
+      <c r="P148" s="131"/>
+      <c r="Q148" s="130"/>
+      <c r="R148" s="130"/>
+      <c r="S148" s="130"/>
+      <c r="T148" s="130"/>
+      <c r="U148" s="130"/>
+      <c r="V148" s="130"/>
+      <c r="W148" s="132"/>
+    </row>
+    <row r="149" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="102"/>
+      <c r="C149" s="97"/>
       <c r="D149" s="4" t="s">
         <v>134</v>
       </c>
@@ -8094,7 +8369,7 @@
       <c r="H149" s="4">
         <v>0.25</v>
       </c>
-      <c r="I149" s="6">
+      <c r="I149" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8119,9 +8394,9 @@
       <c r="V149" s="17"/>
       <c r="W149" s="19"/>
     </row>
-    <row r="150" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="97"/>
-      <c r="C150" s="105" t="s">
+    <row r="150" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="102"/>
+      <c r="C150" s="97" t="s">
         <v>127</v>
       </c>
       <c r="D150" s="4" t="s">
@@ -8139,7 +8414,7 @@
       <c r="H150" s="4">
         <v>0.25</v>
       </c>
-      <c r="I150" s="6">
+      <c r="I150" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8164,9 +8439,9 @@
       <c r="V150" s="17"/>
       <c r="W150" s="19"/>
     </row>
-    <row r="151" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="97"/>
-      <c r="C151" s="105"/>
+    <row r="151" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="102"/>
+      <c r="C151" s="97"/>
       <c r="D151" s="4" t="s">
         <v>132</v>
       </c>
@@ -8182,7 +8457,7 @@
       <c r="H151" s="4">
         <v>0.5</v>
       </c>
-      <c r="I151" s="6">
+      <c r="I151" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8207,9 +8482,9 @@
       <c r="V151" s="17"/>
       <c r="W151" s="19"/>
     </row>
-    <row r="152" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="97"/>
-      <c r="C152" s="105"/>
+    <row r="152" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="102"/>
+      <c r="C152" s="97"/>
       <c r="D152" s="4" t="s">
         <v>161</v>
       </c>
@@ -8222,8 +8497,10 @@
       <c r="G152" s="4">
         <v>3</v>
       </c>
-      <c r="H152" s="4"/>
-      <c r="I152" s="6">
+      <c r="H152" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I152" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8248,9 +8525,9 @@
       <c r="V152" s="17"/>
       <c r="W152" s="19"/>
     </row>
-    <row r="153" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="97"/>
-      <c r="C153" s="105"/>
+    <row r="153" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="102"/>
+      <c r="C153" s="97"/>
       <c r="D153" s="4" t="s">
         <v>133</v>
       </c>
@@ -8266,7 +8543,7 @@
       <c r="H153" s="4">
         <v>0.1</v>
       </c>
-      <c r="I153" s="6">
+      <c r="I153" s="40">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -8293,9 +8570,9 @@
       <c r="V153" s="92"/>
       <c r="W153" s="94"/>
     </row>
-    <row r="154" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="97"/>
-      <c r="C154" s="105"/>
+    <row r="154" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="102"/>
+      <c r="C154" s="97"/>
       <c r="D154" s="4" t="s">
         <v>164</v>
       </c>
@@ -8308,26 +8585,37 @@
       <c r="G154" s="4">
         <v>3</v>
       </c>
-      <c r="H154" s="4"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="70"/>
-      <c r="K154" s="70"/>
-      <c r="L154" s="70"/>
-      <c r="M154" s="80"/>
-      <c r="N154" s="80"/>
-      <c r="O154" s="92"/>
-      <c r="P154" s="93"/>
-      <c r="Q154" s="92"/>
-      <c r="R154" s="92"/>
-      <c r="S154" s="92"/>
-      <c r="T154" s="92"/>
-      <c r="U154" s="92"/>
-      <c r="V154" s="92"/>
-      <c r="W154" s="94"/>
-    </row>
-    <row r="155" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="97"/>
-      <c r="C155" s="105"/>
+      <c r="H154" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I154" s="40">
+        <f t="shared" ref="I154:I177" si="3">SUM(J154:W154)</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="70">
+        <v>0</v>
+      </c>
+      <c r="K154" s="70">
+        <v>0</v>
+      </c>
+      <c r="L154" s="70">
+        <v>0</v>
+      </c>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="130"/>
+      <c r="P154" s="131"/>
+      <c r="Q154" s="130"/>
+      <c r="R154" s="130"/>
+      <c r="S154" s="130"/>
+      <c r="T154" s="130"/>
+      <c r="U154" s="130"/>
+      <c r="V154" s="130"/>
+      <c r="W154" s="132"/>
+    </row>
+    <row r="155" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="102"/>
+      <c r="C155" s="97"/>
       <c r="D155" s="4" t="s">
         <v>163</v>
       </c>
@@ -8340,26 +8628,37 @@
       <c r="G155" s="4">
         <v>3</v>
       </c>
-      <c r="H155" s="4"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="70"/>
-      <c r="K155" s="70"/>
-      <c r="L155" s="70"/>
-      <c r="M155" s="80"/>
-      <c r="N155" s="80"/>
-      <c r="O155" s="92"/>
-      <c r="P155" s="93"/>
-      <c r="Q155" s="92"/>
-      <c r="R155" s="92"/>
-      <c r="S155" s="92"/>
-      <c r="T155" s="92"/>
-      <c r="U155" s="92"/>
-      <c r="V155" s="92"/>
-      <c r="W155" s="94"/>
-    </row>
-    <row r="156" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="97"/>
-      <c r="C156" s="105"/>
+      <c r="H155" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I155" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="70">
+        <v>0</v>
+      </c>
+      <c r="K155" s="70">
+        <v>0</v>
+      </c>
+      <c r="L155" s="70">
+        <v>0</v>
+      </c>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="130"/>
+      <c r="P155" s="131"/>
+      <c r="Q155" s="130"/>
+      <c r="R155" s="130"/>
+      <c r="S155" s="130"/>
+      <c r="T155" s="130"/>
+      <c r="U155" s="130"/>
+      <c r="V155" s="130"/>
+      <c r="W155" s="132"/>
+    </row>
+    <row r="156" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="102"/>
+      <c r="C156" s="97"/>
       <c r="D156" s="4" t="s">
         <v>134</v>
       </c>
@@ -8375,8 +8674,8 @@
       <c r="H156" s="4">
         <v>0.25</v>
       </c>
-      <c r="I156" s="6">
-        <f t="shared" ref="I156:I173" si="3">SUM(J156:W156)</f>
+      <c r="I156" s="40">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J156" s="70">
@@ -8400,9 +8699,9 @@
       <c r="V156" s="17"/>
       <c r="W156" s="19"/>
     </row>
-    <row r="157" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="97"/>
-      <c r="C157" s="105" t="s">
+    <row r="157" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="102"/>
+      <c r="C157" s="97" t="s">
         <v>128</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -8420,7 +8719,7 @@
       <c r="H157" s="4">
         <v>0.25</v>
       </c>
-      <c r="I157" s="6">
+      <c r="I157" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8445,9 +8744,9 @@
       <c r="V157" s="17"/>
       <c r="W157" s="19"/>
     </row>
-    <row r="158" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="97"/>
-      <c r="C158" s="105"/>
+    <row r="158" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="102"/>
+      <c r="C158" s="97"/>
       <c r="D158" s="4" t="s">
         <v>132</v>
       </c>
@@ -8463,7 +8762,7 @@
       <c r="H158" s="4">
         <v>0.5</v>
       </c>
-      <c r="I158" s="6">
+      <c r="I158" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8488,9 +8787,9 @@
       <c r="V158" s="17"/>
       <c r="W158" s="19"/>
     </row>
-    <row r="159" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="97"/>
-      <c r="C159" s="105"/>
+    <row r="159" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="102"/>
+      <c r="C159" s="97"/>
       <c r="D159" s="4" t="s">
         <v>161</v>
       </c>
@@ -8503,8 +8802,10 @@
       <c r="G159" s="4">
         <v>3</v>
       </c>
-      <c r="H159" s="4"/>
-      <c r="I159" s="6">
+      <c r="H159" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I159" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8529,9 +8830,9 @@
       <c r="V159" s="17"/>
       <c r="W159" s="19"/>
     </row>
-    <row r="160" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="97"/>
-      <c r="C160" s="105"/>
+    <row r="160" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="102"/>
+      <c r="C160" s="97"/>
       <c r="D160" s="4" t="s">
         <v>133</v>
       </c>
@@ -8547,7 +8848,7 @@
       <c r="H160" s="4">
         <v>0.1</v>
       </c>
-      <c r="I160" s="6">
+      <c r="I160" s="40">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -8574,9 +8875,9 @@
       <c r="V160" s="92"/>
       <c r="W160" s="94"/>
     </row>
-    <row r="161" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="97"/>
-      <c r="C161" s="105"/>
+    <row r="161" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="102"/>
+      <c r="C161" s="97"/>
       <c r="D161" s="4" t="s">
         <v>164</v>
       </c>
@@ -8589,26 +8890,37 @@
       <c r="G161" s="4">
         <v>3</v>
       </c>
-      <c r="H161" s="4"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="70"/>
-      <c r="K161" s="70"/>
-      <c r="L161" s="70"/>
-      <c r="M161" s="80"/>
-      <c r="N161" s="80"/>
-      <c r="O161" s="92"/>
-      <c r="P161" s="93"/>
-      <c r="Q161" s="92"/>
-      <c r="R161" s="92"/>
-      <c r="S161" s="92"/>
-      <c r="T161" s="92"/>
-      <c r="U161" s="92"/>
-      <c r="V161" s="92"/>
-      <c r="W161" s="94"/>
-    </row>
-    <row r="162" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="97"/>
-      <c r="C162" s="105"/>
+      <c r="H161" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I161" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="70">
+        <v>0</v>
+      </c>
+      <c r="K161" s="70">
+        <v>0</v>
+      </c>
+      <c r="L161" s="70">
+        <v>0</v>
+      </c>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="130"/>
+      <c r="P161" s="131"/>
+      <c r="Q161" s="130"/>
+      <c r="R161" s="130"/>
+      <c r="S161" s="130"/>
+      <c r="T161" s="130"/>
+      <c r="U161" s="130"/>
+      <c r="V161" s="130"/>
+      <c r="W161" s="132"/>
+    </row>
+    <row r="162" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="102"/>
+      <c r="C162" s="97"/>
       <c r="D162" s="4" t="s">
         <v>163</v>
       </c>
@@ -8621,26 +8933,37 @@
       <c r="G162" s="4">
         <v>3</v>
       </c>
-      <c r="H162" s="4"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="70"/>
-      <c r="K162" s="70"/>
-      <c r="L162" s="70"/>
-      <c r="M162" s="80"/>
-      <c r="N162" s="80"/>
-      <c r="O162" s="92"/>
-      <c r="P162" s="93"/>
-      <c r="Q162" s="92"/>
-      <c r="R162" s="92"/>
-      <c r="S162" s="92"/>
-      <c r="T162" s="92"/>
-      <c r="U162" s="92"/>
-      <c r="V162" s="92"/>
-      <c r="W162" s="94"/>
-    </row>
-    <row r="163" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="97"/>
-      <c r="C163" s="105"/>
+      <c r="H162" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I162" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="70">
+        <v>0</v>
+      </c>
+      <c r="K162" s="70">
+        <v>0</v>
+      </c>
+      <c r="L162" s="70">
+        <v>0</v>
+      </c>
+      <c r="M162" s="29"/>
+      <c r="N162" s="29"/>
+      <c r="O162" s="130"/>
+      <c r="P162" s="131"/>
+      <c r="Q162" s="130"/>
+      <c r="R162" s="130"/>
+      <c r="S162" s="130"/>
+      <c r="T162" s="130"/>
+      <c r="U162" s="130"/>
+      <c r="V162" s="130"/>
+      <c r="W162" s="132"/>
+    </row>
+    <row r="163" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="102"/>
+      <c r="C163" s="97"/>
       <c r="D163" s="4" t="s">
         <v>134</v>
       </c>
@@ -8656,7 +8979,7 @@
       <c r="H163" s="4">
         <v>0.25</v>
       </c>
-      <c r="I163" s="6">
+      <c r="I163" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8681,9 +9004,9 @@
       <c r="V163" s="17"/>
       <c r="W163" s="19"/>
     </row>
-    <row r="164" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="97"/>
-      <c r="C164" s="105" t="s">
+    <row r="164" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="102"/>
+      <c r="C164" s="97" t="s">
         <v>129</v>
       </c>
       <c r="D164" s="4" t="s">
@@ -8701,7 +9024,7 @@
       <c r="H164" s="4">
         <v>0.25</v>
       </c>
-      <c r="I164" s="6">
+      <c r="I164" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8726,9 +9049,9 @@
       <c r="V164" s="17"/>
       <c r="W164" s="19"/>
     </row>
-    <row r="165" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="97"/>
-      <c r="C165" s="105"/>
+    <row r="165" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="102"/>
+      <c r="C165" s="97"/>
       <c r="D165" s="4" t="s">
         <v>132</v>
       </c>
@@ -8744,7 +9067,7 @@
       <c r="H165" s="4">
         <v>0.5</v>
       </c>
-      <c r="I165" s="6">
+      <c r="I165" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8769,9 +9092,9 @@
       <c r="V165" s="17"/>
       <c r="W165" s="19"/>
     </row>
-    <row r="166" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="97"/>
-      <c r="C166" s="105"/>
+    <row r="166" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="102"/>
+      <c r="C166" s="97"/>
       <c r="D166" s="4" t="s">
         <v>161</v>
       </c>
@@ -8784,8 +9107,10 @@
       <c r="G166" s="4">
         <v>3</v>
       </c>
-      <c r="H166" s="4"/>
-      <c r="I166" s="6">
+      <c r="H166" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I166" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8810,9 +9135,9 @@
       <c r="V166" s="17"/>
       <c r="W166" s="19"/>
     </row>
-    <row r="167" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="97"/>
-      <c r="C167" s="105"/>
+    <row r="167" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="102"/>
+      <c r="C167" s="97"/>
       <c r="D167" s="4" t="s">
         <v>133</v>
       </c>
@@ -8828,7 +9153,7 @@
       <c r="H167" s="4">
         <v>0.1</v>
       </c>
-      <c r="I167" s="6">
+      <c r="I167" s="40">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -8855,9 +9180,9 @@
       <c r="V167" s="92"/>
       <c r="W167" s="94"/>
     </row>
-    <row r="168" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="97"/>
-      <c r="C168" s="105"/>
+    <row r="168" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="102"/>
+      <c r="C168" s="97"/>
       <c r="D168" s="4" t="s">
         <v>164</v>
       </c>
@@ -8870,26 +9195,37 @@
       <c r="G168" s="4">
         <v>3</v>
       </c>
-      <c r="H168" s="4"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="70"/>
-      <c r="K168" s="70"/>
-      <c r="L168" s="70"/>
-      <c r="M168" s="80"/>
-      <c r="N168" s="80"/>
-      <c r="O168" s="92"/>
-      <c r="P168" s="93"/>
-      <c r="Q168" s="92"/>
-      <c r="R168" s="92"/>
-      <c r="S168" s="92"/>
-      <c r="T168" s="92"/>
-      <c r="U168" s="92"/>
-      <c r="V168" s="92"/>
-      <c r="W168" s="94"/>
-    </row>
-    <row r="169" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="97"/>
-      <c r="C169" s="105"/>
+      <c r="H168" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I168" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="70">
+        <v>0</v>
+      </c>
+      <c r="K168" s="70">
+        <v>0</v>
+      </c>
+      <c r="L168" s="70">
+        <v>0</v>
+      </c>
+      <c r="M168" s="29"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="130"/>
+      <c r="P168" s="131"/>
+      <c r="Q168" s="130"/>
+      <c r="R168" s="130"/>
+      <c r="S168" s="130"/>
+      <c r="T168" s="130"/>
+      <c r="U168" s="130"/>
+      <c r="V168" s="130"/>
+      <c r="W168" s="132"/>
+    </row>
+    <row r="169" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="102"/>
+      <c r="C169" s="97"/>
       <c r="D169" s="4" t="s">
         <v>163</v>
       </c>
@@ -8902,26 +9238,37 @@
       <c r="G169" s="4">
         <v>3</v>
       </c>
-      <c r="H169" s="4"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="70"/>
-      <c r="K169" s="70"/>
-      <c r="L169" s="70"/>
-      <c r="M169" s="80"/>
-      <c r="N169" s="80"/>
-      <c r="O169" s="92"/>
-      <c r="P169" s="93"/>
-      <c r="Q169" s="92"/>
-      <c r="R169" s="92"/>
-      <c r="S169" s="92"/>
-      <c r="T169" s="92"/>
-      <c r="U169" s="92"/>
-      <c r="V169" s="92"/>
-      <c r="W169" s="94"/>
-    </row>
-    <row r="170" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="97"/>
-      <c r="C170" s="105"/>
+      <c r="H169" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I169" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="70">
+        <v>0</v>
+      </c>
+      <c r="K169" s="70">
+        <v>0</v>
+      </c>
+      <c r="L169" s="70">
+        <v>0</v>
+      </c>
+      <c r="M169" s="29"/>
+      <c r="N169" s="29"/>
+      <c r="O169" s="130"/>
+      <c r="P169" s="131"/>
+      <c r="Q169" s="130"/>
+      <c r="R169" s="130"/>
+      <c r="S169" s="130"/>
+      <c r="T169" s="130"/>
+      <c r="U169" s="130"/>
+      <c r="V169" s="130"/>
+      <c r="W169" s="132"/>
+    </row>
+    <row r="170" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="102"/>
+      <c r="C170" s="97"/>
       <c r="D170" s="4" t="s">
         <v>134</v>
       </c>
@@ -8937,7 +9284,7 @@
       <c r="H170" s="4">
         <v>0.25</v>
       </c>
-      <c r="I170" s="6">
+      <c r="I170" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8962,9 +9309,9 @@
       <c r="V170" s="17"/>
       <c r="W170" s="19"/>
     </row>
-    <row r="171" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="97"/>
-      <c r="C171" s="105" t="s">
+    <row r="171" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="102"/>
+      <c r="C171" s="97" t="s">
         <v>130</v>
       </c>
       <c r="D171" s="4" t="s">
@@ -8982,7 +9329,7 @@
       <c r="H171" s="4">
         <v>0.25</v>
       </c>
-      <c r="I171" s="6">
+      <c r="I171" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9007,9 +9354,9 @@
       <c r="V171" s="17"/>
       <c r="W171" s="19"/>
     </row>
-    <row r="172" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="97"/>
-      <c r="C172" s="105"/>
+    <row r="172" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="102"/>
+      <c r="C172" s="97"/>
       <c r="D172" s="4" t="s">
         <v>132</v>
       </c>
@@ -9025,7 +9372,7 @@
       <c r="H172" s="4">
         <v>0.5</v>
       </c>
-      <c r="I172" s="6">
+      <c r="I172" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9050,9 +9397,9 @@
       <c r="V172" s="17"/>
       <c r="W172" s="19"/>
     </row>
-    <row r="173" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="97"/>
-      <c r="C173" s="105"/>
+    <row r="173" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="102"/>
+      <c r="C173" s="97"/>
       <c r="D173" s="4" t="s">
         <v>161</v>
       </c>
@@ -9065,8 +9412,10 @@
       <c r="G173" s="4">
         <v>3</v>
       </c>
-      <c r="H173" s="4"/>
-      <c r="I173" s="6">
+      <c r="H173" s="126">
+        <v>0.75</v>
+      </c>
+      <c r="I173" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9091,9 +9440,9 @@
       <c r="V173" s="17"/>
       <c r="W173" s="19"/>
     </row>
-    <row r="174" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="97"/>
-      <c r="C174" s="105"/>
+    <row r="174" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="102"/>
+      <c r="C174" s="97"/>
       <c r="D174" s="4" t="s">
         <v>133</v>
       </c>
@@ -9109,8 +9458,8 @@
       <c r="H174" s="4">
         <v>0.1</v>
       </c>
-      <c r="I174" s="6">
-        <f t="shared" ref="I174" si="4">SUM(J174:W174)</f>
+      <c r="I174" s="40">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="J174" s="70">
@@ -9136,9 +9485,9 @@
       <c r="V174" s="92"/>
       <c r="W174" s="94"/>
     </row>
-    <row r="175" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="104"/>
-      <c r="C175" s="125"/>
+    <row r="175" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="120"/>
+      <c r="C175" s="124"/>
       <c r="D175" s="4" t="s">
         <v>164</v>
       </c>
@@ -9151,13 +9500,24 @@
       <c r="G175" s="8">
         <v>3</v>
       </c>
-      <c r="H175" s="8"/>
-      <c r="I175" s="58"/>
-      <c r="J175" s="72"/>
-      <c r="K175" s="72"/>
-      <c r="L175" s="72"/>
-      <c r="M175" s="126"/>
-      <c r="N175" s="126"/>
+      <c r="H175" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I175" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="70">
+        <v>0</v>
+      </c>
+      <c r="K175" s="70">
+        <v>0</v>
+      </c>
+      <c r="L175" s="70">
+        <v>0</v>
+      </c>
+      <c r="M175" s="62"/>
+      <c r="N175" s="62"/>
       <c r="O175" s="127"/>
       <c r="P175" s="128"/>
       <c r="Q175" s="127"/>
@@ -9168,9 +9528,9 @@
       <c r="V175" s="127"/>
       <c r="W175" s="129"/>
     </row>
-    <row r="176" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="104"/>
-      <c r="C176" s="125"/>
+    <row r="176" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="120"/>
+      <c r="C176" s="124"/>
       <c r="D176" s="4" t="s">
         <v>163</v>
       </c>
@@ -9183,13 +9543,24 @@
       <c r="G176" s="8">
         <v>3</v>
       </c>
-      <c r="H176" s="8"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="72"/>
-      <c r="K176" s="72"/>
-      <c r="L176" s="72"/>
-      <c r="M176" s="126"/>
-      <c r="N176" s="126"/>
+      <c r="H176" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I176" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="70">
+        <v>0</v>
+      </c>
+      <c r="K176" s="70">
+        <v>0</v>
+      </c>
+      <c r="L176" s="70">
+        <v>0</v>
+      </c>
+      <c r="M176" s="62"/>
+      <c r="N176" s="62"/>
       <c r="O176" s="127"/>
       <c r="P176" s="128"/>
       <c r="Q176" s="127"/>
@@ -9201,8 +9572,8 @@
       <c r="W176" s="129"/>
     </row>
     <row r="177" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="98"/>
-      <c r="C177" s="108"/>
+      <c r="B177" s="103"/>
+      <c r="C177" s="125"/>
       <c r="D177" s="24" t="s">
         <v>134</v>
       </c>
@@ -9218,17 +9589,17 @@
       <c r="H177" s="24">
         <v>0.25</v>
       </c>
-      <c r="I177" s="20">
-        <f t="shared" ref="I177:I211" si="5">SUM(J177:W177)</f>
-        <v>0</v>
-      </c>
-      <c r="J177" s="71">
-        <v>0</v>
-      </c>
-      <c r="K177" s="71">
-        <v>0</v>
-      </c>
-      <c r="L177" s="71">
+      <c r="I177" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="70">
+        <v>0</v>
+      </c>
+      <c r="K177" s="70">
+        <v>0</v>
+      </c>
+      <c r="L177" s="70">
         <v>0</v>
       </c>
       <c r="M177" s="24"/>
@@ -9244,7 +9615,7 @@
       <c r="W177" s="25"/>
     </row>
     <row r="178" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="96" t="s">
+      <c r="B178" s="101" t="s">
         <v>83</v>
       </c>
       <c r="C178" s="78" t="s">
@@ -9264,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="I178" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I177:I211" si="4">SUM(J178:W178)</f>
         <v>0</v>
       </c>
       <c r="J178" s="69">
@@ -9289,7 +9660,7 @@
       <c r="W178" s="52"/>
     </row>
     <row r="179" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="97"/>
+      <c r="B179" s="102"/>
       <c r="C179" s="33" t="s">
         <v>89</v>
       </c>
@@ -9307,7 +9678,7 @@
         <v>0.3</v>
       </c>
       <c r="I179" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J179" s="70">
@@ -9332,7 +9703,7 @@
       <c r="W179" s="19"/>
     </row>
     <row r="180" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="97"/>
+      <c r="B180" s="102"/>
       <c r="C180" s="33" t="s">
         <v>90</v>
       </c>
@@ -9350,7 +9721,7 @@
         <v>0.3</v>
       </c>
       <c r="I180" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J180" s="70">
@@ -9375,7 +9746,7 @@
       <c r="W180" s="19"/>
     </row>
     <row r="181" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="97"/>
+      <c r="B181" s="102"/>
       <c r="C181" s="33" t="s">
         <v>91</v>
       </c>
@@ -9393,7 +9764,7 @@
         <v>0.3</v>
       </c>
       <c r="I181" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J181" s="70">
@@ -9418,7 +9789,7 @@
       <c r="W181" s="19"/>
     </row>
     <row r="182" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="97"/>
+      <c r="B182" s="102"/>
       <c r="C182" s="33" t="s">
         <v>141</v>
       </c>
@@ -9436,7 +9807,7 @@
         <v>0.3</v>
       </c>
       <c r="I182" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J182" s="70">
@@ -9461,7 +9832,7 @@
       <c r="W182" s="19"/>
     </row>
     <row r="183" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="97"/>
+      <c r="B183" s="102"/>
       <c r="C183" s="33" t="s">
         <v>138</v>
       </c>
@@ -9479,7 +9850,7 @@
         <v>0.3</v>
       </c>
       <c r="I183" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J183" s="70">
@@ -9504,7 +9875,7 @@
       <c r="W183" s="19"/>
     </row>
     <row r="184" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="97"/>
+      <c r="B184" s="102"/>
       <c r="C184" s="33" t="s">
         <v>140</v>
       </c>
@@ -9522,7 +9893,7 @@
         <v>0.3</v>
       </c>
       <c r="I184" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J184" s="70">
@@ -9547,7 +9918,7 @@
       <c r="W184" s="19"/>
     </row>
     <row r="185" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="97"/>
+      <c r="B185" s="102"/>
       <c r="C185" s="33" t="s">
         <v>139</v>
       </c>
@@ -9565,7 +9936,7 @@
         <v>0.3</v>
       </c>
       <c r="I185" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J185" s="70">
@@ -9590,7 +9961,7 @@
       <c r="W185" s="19"/>
     </row>
     <row r="186" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="97"/>
+      <c r="B186" s="102"/>
       <c r="C186" s="33" t="s">
         <v>92</v>
       </c>
@@ -9608,7 +9979,7 @@
         <v>0.3</v>
       </c>
       <c r="I186" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
       <c r="J186" s="70">
@@ -9655,7 +10026,7 @@
       </c>
     </row>
     <row r="187" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="97"/>
+      <c r="B187" s="102"/>
       <c r="C187" s="33" t="s">
         <v>93</v>
       </c>
@@ -9673,7 +10044,7 @@
         <v>0.3</v>
       </c>
       <c r="I187" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="J187" s="70">
@@ -9720,7 +10091,7 @@
       </c>
     </row>
     <row r="188" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="97"/>
+      <c r="B188" s="102"/>
       <c r="C188" s="33" t="s">
         <v>94</v>
       </c>
@@ -9738,7 +10109,7 @@
         <v>0.3</v>
       </c>
       <c r="I188" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11700000000000001</v>
       </c>
       <c r="J188" s="70">
@@ -9785,7 +10156,7 @@
       </c>
     </row>
     <row r="189" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="97"/>
+      <c r="B189" s="102"/>
       <c r="C189" s="33" t="s">
         <v>98</v>
       </c>
@@ -9803,7 +10174,7 @@
         <v>0.2</v>
       </c>
       <c r="I189" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J189" s="70">
@@ -9828,7 +10199,7 @@
       <c r="W189" s="19"/>
     </row>
     <row r="190" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="98"/>
+      <c r="B190" s="103"/>
       <c r="C190" s="61" t="s">
         <v>99</v>
       </c>
@@ -9846,7 +10217,7 @@
         <v>0.2</v>
       </c>
       <c r="I190" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J190" s="71">
@@ -9871,7 +10242,7 @@
       <c r="W190" s="25"/>
     </row>
     <row r="191" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="96" t="s">
+      <c r="B191" s="101" t="s">
         <v>142</v>
       </c>
       <c r="C191" s="60" t="s">
@@ -9891,7 +10262,7 @@
         <v>0.1</v>
       </c>
       <c r="I191" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J191" s="69">
@@ -9916,7 +10287,7 @@
       <c r="W191" s="52"/>
     </row>
     <row r="192" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="97"/>
+      <c r="B192" s="102"/>
       <c r="C192" s="59" t="s">
         <v>143</v>
       </c>
@@ -9934,7 +10305,7 @@
         <v>0.75</v>
       </c>
       <c r="I192" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J192" s="70">
@@ -9959,7 +10330,7 @@
       <c r="W192" s="19"/>
     </row>
     <row r="193" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="98"/>
+      <c r="B193" s="103"/>
       <c r="C193" s="61" t="s">
         <v>144</v>
       </c>
@@ -9977,7 +10348,7 @@
         <v>0.5</v>
       </c>
       <c r="I193" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J193" s="71">
@@ -10002,7 +10373,7 @@
       <c r="W193" s="25"/>
     </row>
     <row r="194" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="96" t="s">
+      <c r="B194" s="101" t="s">
         <v>147</v>
       </c>
       <c r="C194" s="60" t="s">
@@ -10022,7 +10393,7 @@
         <v>0.1</v>
       </c>
       <c r="I194" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J194" s="69">
@@ -10047,7 +10418,7 @@
       <c r="W194" s="52"/>
     </row>
     <row r="195" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="97"/>
+      <c r="B195" s="102"/>
       <c r="C195" s="59" t="s">
         <v>149</v>
       </c>
@@ -10065,7 +10436,7 @@
         <v>0.1</v>
       </c>
       <c r="I195" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J195" s="70">
@@ -10090,7 +10461,7 @@
       <c r="W195" s="19"/>
     </row>
     <row r="196" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="97"/>
+      <c r="B196" s="102"/>
       <c r="C196" s="59" t="s">
         <v>150</v>
       </c>
@@ -10108,7 +10479,7 @@
         <v>0.1</v>
       </c>
       <c r="I196" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J196" s="70">
@@ -10133,7 +10504,7 @@
       <c r="W196" s="19"/>
     </row>
     <row r="197" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="97"/>
+      <c r="B197" s="102"/>
       <c r="C197" s="59" t="s">
         <v>151</v>
       </c>
@@ -10151,7 +10522,7 @@
         <v>0.1</v>
       </c>
       <c r="I197" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J197" s="70">
@@ -10176,7 +10547,7 @@
       <c r="W197" s="19"/>
     </row>
     <row r="198" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="97"/>
+      <c r="B198" s="102"/>
       <c r="C198" s="59" t="s">
         <v>152</v>
       </c>
@@ -10194,7 +10565,7 @@
         <v>0.1</v>
       </c>
       <c r="I198" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J198" s="70">
@@ -10219,7 +10590,7 @@
       <c r="W198" s="19"/>
     </row>
     <row r="199" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="97"/>
+      <c r="B199" s="102"/>
       <c r="C199" s="59" t="s">
         <v>153</v>
       </c>
@@ -10237,7 +10608,7 @@
         <v>0.1</v>
       </c>
       <c r="I199" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J199" s="70">
@@ -10262,7 +10633,7 @@
       <c r="W199" s="19"/>
     </row>
     <row r="200" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="98"/>
+      <c r="B200" s="103"/>
       <c r="C200" s="61" t="s">
         <v>154</v>
       </c>
@@ -10280,7 +10651,7 @@
         <v>0.1</v>
       </c>
       <c r="I200" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J200" s="71">
@@ -10305,7 +10676,7 @@
       <c r="W200" s="25"/>
     </row>
     <row r="201" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="96" t="s">
+      <c r="B201" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C201" s="54" t="s">
@@ -10325,7 +10696,7 @@
         <v>0.4</v>
       </c>
       <c r="I201" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J201" s="69">
@@ -10350,7 +10721,7 @@
       <c r="W201" s="52"/>
     </row>
     <row r="202" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="97"/>
+      <c r="B202" s="102"/>
       <c r="C202" s="33" t="s">
         <v>136</v>
       </c>
@@ -10368,7 +10739,7 @@
         <v>0.4</v>
       </c>
       <c r="I202" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J202" s="70">
@@ -10393,7 +10764,7 @@
       <c r="W202" s="19"/>
     </row>
     <row r="203" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="97"/>
+      <c r="B203" s="102"/>
       <c r="C203" s="33" t="s">
         <v>137</v>
       </c>
@@ -10411,7 +10782,7 @@
         <v>0.4</v>
       </c>
       <c r="I203" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J203" s="70">
@@ -10436,7 +10807,7 @@
       <c r="W203" s="19"/>
     </row>
     <row r="204" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="97"/>
+      <c r="B204" s="102"/>
       <c r="C204" s="33" t="s">
         <v>145</v>
       </c>
@@ -10454,7 +10825,7 @@
         <v>0.4</v>
       </c>
       <c r="I204" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J204" s="70">
@@ -10479,7 +10850,7 @@
       <c r="W204" s="19"/>
     </row>
     <row r="205" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="97"/>
+      <c r="B205" s="102"/>
       <c r="C205" s="33" t="s">
         <v>84</v>
       </c>
@@ -10497,7 +10868,7 @@
         <v>0.4</v>
       </c>
       <c r="I205" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J205" s="70">
@@ -10522,7 +10893,7 @@
       <c r="W205" s="19"/>
     </row>
     <row r="206" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="97"/>
+      <c r="B206" s="102"/>
       <c r="C206" s="33" t="s">
         <v>85</v>
       </c>
@@ -10540,7 +10911,7 @@
         <v>0.4</v>
       </c>
       <c r="I206" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J206" s="70">
@@ -10565,7 +10936,7 @@
       <c r="W206" s="19"/>
     </row>
     <row r="207" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="97"/>
+      <c r="B207" s="102"/>
       <c r="C207" s="33" t="s">
         <v>87</v>
       </c>
@@ -10583,7 +10954,7 @@
         <v>0.4</v>
       </c>
       <c r="I207" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J207" s="70">
@@ -10608,7 +10979,7 @@
       <c r="W207" s="19"/>
     </row>
     <row r="208" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="97"/>
+      <c r="B208" s="102"/>
       <c r="C208" s="33" t="s">
         <v>86</v>
       </c>
@@ -10626,7 +10997,7 @@
         <v>0.2</v>
       </c>
       <c r="I208" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J208" s="70">
@@ -10651,7 +11022,7 @@
       <c r="W208" s="19"/>
     </row>
     <row r="209" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="97"/>
+      <c r="B209" s="102"/>
       <c r="C209" s="33" t="s">
         <v>103</v>
       </c>
@@ -10669,7 +11040,7 @@
         <v>0.7</v>
       </c>
       <c r="I209" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J209" s="70">
@@ -10694,7 +11065,7 @@
       <c r="W209" s="19"/>
     </row>
     <row r="210" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="97"/>
+      <c r="B210" s="102"/>
       <c r="C210" s="33" t="s">
         <v>135</v>
       </c>
@@ -10712,7 +11083,7 @@
         <v>3</v>
       </c>
       <c r="I210" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.85</v>
       </c>
       <c r="J210" s="70">
@@ -10737,7 +11108,7 @@
       <c r="W210" s="19"/>
     </row>
     <row r="211" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="97"/>
+      <c r="B211" s="102"/>
       <c r="C211" s="33" t="s">
         <v>104</v>
       </c>
@@ -10755,7 +11126,7 @@
         <v>2</v>
       </c>
       <c r="I211" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J211" s="70">
@@ -10789,67 +11160,67 @@
       <c r="F212" s="122"/>
       <c r="G212" s="123"/>
       <c r="H212" s="36">
-        <f>SUM(H4:H211)</f>
-        <v>95.999999999999829</v>
+        <f t="shared" ref="H212:W212" si="5">SUM(H4:H211)</f>
+        <v>114.84999999999995</v>
       </c>
       <c r="I212" s="23">
-        <f>SUM(I4:I211)</f>
+        <f t="shared" si="5"/>
         <v>13.957299999999998</v>
       </c>
       <c r="J212" s="23">
-        <f>SUM(J4:J211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K212" s="23">
-        <f>SUM(K4:K211)</f>
+        <f t="shared" si="5"/>
         <v>4.0533000000000001</v>
       </c>
       <c r="L212" s="91">
-        <f>SUM(L4:L211)</f>
+        <f t="shared" si="5"/>
         <v>2.0030000000000001</v>
       </c>
       <c r="M212" s="23">
-        <f>SUM(M4:M211)</f>
+        <f t="shared" si="5"/>
         <v>6.1409999999999973</v>
       </c>
       <c r="N212" s="23">
-        <f>SUM(N4:N211)</f>
+        <f t="shared" si="5"/>
         <v>1.76</v>
       </c>
       <c r="O212" s="23">
-        <f>SUM(O4:O211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P212" s="23">
-        <f>SUM(P4:P211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q212" s="23">
-        <f>SUM(Q4:Q211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R212" s="23">
-        <f>SUM(R4:R211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S212" s="23">
-        <f>SUM(S4:S211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T212" s="23">
-        <f>SUM(T4:T211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U212" s="23">
-        <f>SUM(U4:U211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V212" s="23">
-        <f>SUM(V4:V211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W212" s="30">
-        <f>SUM(W4:W211)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10862,22 +11233,22 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-      <c r="J213" s="101" t="s">
+      <c r="J213" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="K213" s="106"/>
-      <c r="L213" s="106"/>
-      <c r="M213" s="106"/>
-      <c r="N213" s="106"/>
-      <c r="O213" s="106"/>
-      <c r="P213" s="106"/>
-      <c r="Q213" s="106"/>
-      <c r="R213" s="106"/>
-      <c r="S213" s="106"/>
-      <c r="T213" s="106"/>
-      <c r="U213" s="106"/>
-      <c r="V213" s="106"/>
-      <c r="W213" s="107"/>
+      <c r="K213" s="99"/>
+      <c r="L213" s="99"/>
+      <c r="M213" s="99"/>
+      <c r="N213" s="99"/>
+      <c r="O213" s="99"/>
+      <c r="P213" s="99"/>
+      <c r="Q213" s="99"/>
+      <c r="R213" s="99"/>
+      <c r="S213" s="99"/>
+      <c r="T213" s="99"/>
+      <c r="U213" s="99"/>
+      <c r="V213" s="99"/>
+      <c r="W213" s="100"/>
     </row>
     <row r="214" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C214" s="59" t="s">
@@ -10903,7 +11274,7 @@
       <c r="B215" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="C215" s="124">
+      <c r="C215" s="96">
         <f>SUM(H210,H206:H207,H194:H200,H190,H186:H188,H12:H62,H10)</f>
         <v>46.399999999999991</v>
       </c>
@@ -10917,65 +11288,65 @@
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-      <c r="H215" s="99" t="s">
+      <c r="H215" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="I215" s="100"/>
+      <c r="I215" s="117"/>
       <c r="J215" s="9">
         <f>H212-J212</f>
-        <v>95.999999999999829</v>
+        <v>114.84999999999995</v>
       </c>
       <c r="K215" s="9">
         <f>J215-K212</f>
-        <v>91.946699999999822</v>
+        <v>110.79669999999996</v>
       </c>
       <c r="L215" s="9">
         <f>K215-L212</f>
-        <v>89.943699999999822</v>
+        <v>108.79369999999996</v>
       </c>
       <c r="M215" s="9">
         <f>L215-M212</f>
-        <v>83.802699999999831</v>
+        <v>102.65269999999997</v>
       </c>
       <c r="N215" s="10">
         <f>M215-N212</f>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="O215" s="95">
         <f t="shared" ref="O215:W215" si="6">N215-O212</f>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="P215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="Q215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="R215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="S215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="T215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="U215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="V215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
       <c r="W215" s="95">
         <f t="shared" si="6"/>
-        <v>82.042699999999826</v>
+        <v>100.89269999999996</v>
       </c>
     </row>
     <row r="216" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10984,7 +11355,7 @@
       </c>
       <c r="C216" s="5">
         <f>SUM(H191:H193,H189,H73:H178,H11,H9)</f>
-        <v>25.200000000000003</v>
+        <v>44.050000000000004</v>
       </c>
       <c r="D216" s="5">
         <f>SUM(I9,I11,I73:I178,I189,I191:I193)</f>
@@ -10992,7 +11363,7 @@
       </c>
       <c r="E216" s="5">
         <f>SUM(C216,-D216)</f>
-        <v>21.860000000000003</v>
+        <v>40.710000000000008</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -11021,18 +11392,18 @@
         <v>24.4</v>
       </c>
       <c r="F217" s="3"/>
-      <c r="H217" s="101" t="s">
+      <c r="H217" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I217" s="102"/>
-      <c r="J217" s="100">
+      <c r="I217" s="118"/>
+      <c r="J217" s="117">
         <f>H212-I212</f>
-        <v>82.042699999999826</v>
-      </c>
-      <c r="K217" s="100"/>
-      <c r="L217" s="100"/>
-      <c r="M217" s="100"/>
-      <c r="N217" s="103"/>
+        <v>100.89269999999995</v>
+      </c>
+      <c r="K217" s="117"/>
+      <c r="L217" s="117"/>
+      <c r="M217" s="117"/>
+      <c r="N217" s="119"/>
     </row>
     <row r="218" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
@@ -11136,24 +11507,6 @@
     <row r="236" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C157:C163"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="C129:C135"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="C136:C142"/>
-    <mergeCell ref="C150:C156"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C15:C55"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C73:C79"/>
-    <mergeCell ref="C80:C86"/>
     <mergeCell ref="B194:B200"/>
     <mergeCell ref="H215:I215"/>
     <mergeCell ref="H217:I217"/>
@@ -11170,6 +11523,24 @@
     <mergeCell ref="C171:C177"/>
     <mergeCell ref="C101:C107"/>
     <mergeCell ref="C94:C100"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C15:C55"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C73:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C157:C163"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="C129:C135"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="C150:C156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
+++ b/tabla scrum backlog + burndown chart _SPRINT 3_by SampleText.xlsx
@@ -1346,10 +1346,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,13 +1391,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1401,36 +1431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1523,11 +1523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1796241344"/>
-        <c:axId val="-1796231008"/>
+        <c:axId val="-1340038272"/>
+        <c:axId val="-1340030656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1796241344"/>
+        <c:axId val="-1340038272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1796231008"/>
+        <c:crossAx val="-1340030656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1544,7 +1544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1796231008"/>
+        <c:axId val="-1340030656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1796241344"/>
+        <c:crossAx val="-1340038272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,7 +1597,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C172" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:O8"/>
+    <sheetView tabSelected="1" topLeftCell="C190" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,22 +1935,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="120"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
@@ -2021,7 +2021,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="131" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -2072,7 +2072,7 @@
       <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="30" t="s">
         <v>100</v>
       </c>
@@ -2121,7 +2121,7 @@
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="30" t="s">
         <v>101</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="30" t="s">
         <v>102</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="123"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="39" t="s">
         <v>110</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="W8" s="21"/>
     </row>
     <row r="9" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="131" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -2313,7 +2313,7 @@
       <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="29" t="s">
         <v>106</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="76" t="s">
         <v>111</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="76" t="s">
         <v>112</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="123"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="46" t="s">
         <v>97</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="W13" s="21"/>
     </row>
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="106" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -2578,8 +2578,8 @@
       <c r="W14" s="45"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="111"/>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="107"/>
+      <c r="C15" s="125" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2629,8 +2629,8 @@
       <c r="W15" s="16"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="111"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2678,8 +2678,8 @@
       <c r="W16" s="16"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="111"/>
-      <c r="C17" s="116"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2727,8 +2727,8 @@
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="111"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="I18" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3170000000000002</v>
       </c>
       <c r="J18" s="63">
         <v>0</v>
@@ -2766,7 +2766,9 @@
       <c r="O18" s="63">
         <v>0</v>
       </c>
-      <c r="P18" s="94"/>
+      <c r="P18" s="73">
+        <v>2.3170000000000002</v>
+      </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
@@ -2776,8 +2778,8 @@
       <c r="W18" s="16"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="111"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2825,8 +2827,8 @@
       <c r="W19" s="16"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="111"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="4" t="s">
         <v>162</v>
       </c>
@@ -2874,8 +2876,8 @@
       <c r="W20" s="16"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="111"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2923,8 +2925,8 @@
       <c r="W21" s="16"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="111"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="27" t="s">
         <v>36</v>
       </c>
@@ -2972,8 +2974,8 @@
       <c r="W22" s="16"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="111"/>
-      <c r="C23" s="116"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="27" t="s">
         <v>37</v>
       </c>
@@ -3021,8 +3023,8 @@
       <c r="W23" s="16"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="111"/>
-      <c r="C24" s="116"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="27" t="s">
         <v>38</v>
       </c>
@@ -3070,8 +3072,8 @@
       <c r="W24" s="16"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="111"/>
-      <c r="C25" s="116"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="27" t="s">
         <v>39</v>
       </c>
@@ -3119,8 +3121,8 @@
       <c r="W25" s="16"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="111"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="27" t="s">
         <v>40</v>
       </c>
@@ -3168,8 +3170,8 @@
       <c r="W26" s="16"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="111"/>
-      <c r="C27" s="116"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="27" t="s">
         <v>41</v>
       </c>
@@ -3217,8 +3219,8 @@
       <c r="W27" s="16"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="111"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="27" t="s">
         <v>42</v>
       </c>
@@ -3266,8 +3268,8 @@
       <c r="W28" s="16"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="111"/>
-      <c r="C29" s="116"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="27" t="s">
         <v>43</v>
       </c>
@@ -3315,8 +3317,8 @@
       <c r="W29" s="16"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="111"/>
-      <c r="C30" s="116"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="27" t="s">
         <v>44</v>
       </c>
@@ -3364,8 +3366,8 @@
       <c r="W30" s="16"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="111"/>
-      <c r="C31" s="116"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="27" t="s">
         <v>45</v>
       </c>
@@ -3413,8 +3415,8 @@
       <c r="W31" s="16"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="111"/>
-      <c r="C32" s="116"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="27" t="s">
         <v>46</v>
       </c>
@@ -3462,8 +3464,8 @@
       <c r="W32" s="16"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="111"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="27" t="s">
         <v>47</v>
       </c>
@@ -3511,8 +3513,8 @@
       <c r="W33" s="16"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="111"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="27" t="s">
         <v>48</v>
       </c>
@@ -3560,8 +3562,8 @@
       <c r="W34" s="16"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="111"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="27" t="